--- a/doc/BookList.xlsx
+++ b/doc/BookList.xlsx
@@ -1196,7 +1196,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1204,6 +1204,9 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1511,8 +1514,8 @@
   <dimension ref="A1:D266"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A221" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A259" sqref="A259:D259"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1520,7 +1523,7 @@
     <col min="1" max="1" width="13.625" customWidth="1"/>
     <col min="2" max="2" width="38.25" customWidth="1"/>
     <col min="3" max="3" width="14.25" customWidth="1"/>
-    <col min="4" max="4" width="33.875" customWidth="1"/>
+    <col min="4" max="4" width="49.25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.15">
@@ -2642,14 +2645,14 @@
       <c r="C207" s="4"/>
       <c r="D207" s="4"/>
     </row>
-    <row r="208" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="208" spans="1:4" ht="54" x14ac:dyDescent="0.15">
       <c r="B208" t="s">
         <v>34</v>
       </c>
       <c r="C208" t="s">
         <v>115</v>
       </c>
-      <c r="D208" t="s">
+      <c r="D208" s="5" t="s">
         <v>107</v>
       </c>
     </row>
@@ -2657,43 +2660,47 @@
       <c r="B209" t="s">
         <v>35</v>
       </c>
+      <c r="D209" s="5"/>
     </row>
     <row r="210" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B210" t="s">
         <v>36</v>
       </c>
+      <c r="D210" s="5"/>
     </row>
     <row r="211" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B211" t="s">
         <v>37</v>
       </c>
+      <c r="D211" s="5"/>
     </row>
     <row r="212" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B212" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="213" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="D212" s="5"/>
+    </row>
+    <row r="213" spans="1:4" ht="27" x14ac:dyDescent="0.15">
       <c r="B213" t="s">
         <v>30</v>
       </c>
-      <c r="D213" t="s">
+      <c r="D213" s="5" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="214" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="214" spans="1:4" ht="27" x14ac:dyDescent="0.15">
       <c r="B214" t="s">
         <v>31</v>
       </c>
-      <c r="D214" t="s">
+      <c r="D214" s="5" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="215" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="215" spans="1:4" ht="27" x14ac:dyDescent="0.15">
       <c r="B215" t="s">
         <v>32</v>
       </c>
-      <c r="D215" t="s">
+      <c r="D215" s="5" t="s">
         <v>110</v>
       </c>
     </row>
@@ -2704,7 +2711,7 @@
       <c r="C216" t="s">
         <v>114</v>
       </c>
-      <c r="D216" t="s">
+      <c r="D216" s="5" t="s">
         <v>113</v>
       </c>
     </row>
@@ -2975,27 +2982,30 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="A19:D19"/>
+    <mergeCell ref="A42:D42"/>
+    <mergeCell ref="A84:D84"/>
+    <mergeCell ref="A139:D139"/>
+    <mergeCell ref="A112:D112"/>
+    <mergeCell ref="A142:D142"/>
+    <mergeCell ref="A148:D148"/>
+    <mergeCell ref="A154:D154"/>
+    <mergeCell ref="A158:D158"/>
+    <mergeCell ref="A184:D184"/>
     <mergeCell ref="A259:D259"/>
     <mergeCell ref="A207:D207"/>
     <mergeCell ref="A221:D221"/>
     <mergeCell ref="A227:D227"/>
     <mergeCell ref="A232:D232"/>
     <mergeCell ref="A245:D245"/>
-    <mergeCell ref="A142:D142"/>
-    <mergeCell ref="A148:D148"/>
-    <mergeCell ref="A154:D154"/>
-    <mergeCell ref="A158:D158"/>
-    <mergeCell ref="A184:D184"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="A19:D19"/>
-    <mergeCell ref="A42:D42"/>
-    <mergeCell ref="A84:D84"/>
-    <mergeCell ref="A139:D139"/>
-    <mergeCell ref="A112:D112"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <webPublishItems count="1">
+    <webPublishItem id="27433" divId="BookList_27433" sourceType="sheet" destinationFile="G:\Projects\jacksoncode.github.io\doc\BookList.htm"/>
+  </webPublishItems>
 </worksheet>
 </file>
 

--- a/doc/BookList.xlsx
+++ b/doc/BookList.xlsx
@@ -11,6 +11,7 @@
     <sheet name="经典作者" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511"/>
+  <webPublishing allowPng="1" targetScreenSize="1024x768" codePage="65001"/>
 </workbook>
 </file>
 
@@ -1203,10 +1204,10 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1515,7 +1516,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D23" sqref="D23"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1541,12 +1542,12 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="5" t="s">
         <v>276</v>
       </c>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B3" t="s">
@@ -1632,12 +1633,12 @@
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A19" s="4" t="s">
+      <c r="A19" s="5" t="s">
         <v>277</v>
       </c>
-      <c r="B19" s="4"/>
-      <c r="C19" s="4"/>
-      <c r="D19" s="4"/>
+      <c r="B19" s="5"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="5"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B20" t="s">
@@ -1759,12 +1760,12 @@
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A42" s="4" t="s">
+      <c r="A42" s="5" t="s">
         <v>278</v>
       </c>
-      <c r="B42" s="4"/>
-      <c r="C42" s="4"/>
-      <c r="D42" s="4"/>
+      <c r="B42" s="5"/>
+      <c r="C42" s="5"/>
+      <c r="D42" s="5"/>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B43" t="s">
@@ -1987,12 +1988,12 @@
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A84" s="4" t="s">
+      <c r="A84" s="5" t="s">
         <v>279</v>
       </c>
-      <c r="B84" s="4"/>
-      <c r="C84" s="4"/>
-      <c r="D84" s="4"/>
+      <c r="B84" s="5"/>
+      <c r="C84" s="5"/>
+      <c r="D84" s="5"/>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B85" t="s">
@@ -2133,12 +2134,12 @@
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A112" s="4" t="s">
+      <c r="A112" s="5" t="s">
         <v>280</v>
       </c>
-      <c r="B112" s="4"/>
-      <c r="C112" s="4"/>
-      <c r="D112" s="4"/>
+      <c r="B112" s="5"/>
+      <c r="C112" s="5"/>
+      <c r="D112" s="5"/>
     </row>
     <row r="113" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B113" t="s">
@@ -2271,12 +2272,12 @@
       </c>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A139" s="4" t="s">
+      <c r="A139" s="5" t="s">
         <v>281</v>
       </c>
-      <c r="B139" s="4"/>
-      <c r="C139" s="4"/>
-      <c r="D139" s="4"/>
+      <c r="B139" s="5"/>
+      <c r="C139" s="5"/>
+      <c r="D139" s="5"/>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B140" t="s">
@@ -2289,12 +2290,12 @@
       </c>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A142" s="4" t="s">
+      <c r="A142" s="5" t="s">
         <v>282</v>
       </c>
-      <c r="B142" s="4"/>
-      <c r="C142" s="4"/>
-      <c r="D142" s="4"/>
+      <c r="B142" s="5"/>
+      <c r="C142" s="5"/>
+      <c r="D142" s="5"/>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B143" t="s">
@@ -2322,12 +2323,12 @@
       </c>
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A148" s="4" t="s">
+      <c r="A148" s="5" t="s">
         <v>283</v>
       </c>
-      <c r="B148" s="4"/>
-      <c r="C148" s="4"/>
-      <c r="D148" s="4"/>
+      <c r="B148" s="5"/>
+      <c r="C148" s="5"/>
+      <c r="D148" s="5"/>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B149" t="s">
@@ -2355,12 +2356,12 @@
       </c>
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A154" s="4" t="s">
+      <c r="A154" s="5" t="s">
         <v>284</v>
       </c>
-      <c r="B154" s="4"/>
-      <c r="C154" s="4"/>
-      <c r="D154" s="4"/>
+      <c r="B154" s="5"/>
+      <c r="C154" s="5"/>
+      <c r="D154" s="5"/>
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B155" t="s">
@@ -2378,12 +2379,12 @@
       </c>
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A158" s="4" t="s">
+      <c r="A158" s="5" t="s">
         <v>285</v>
       </c>
-      <c r="B158" s="4"/>
-      <c r="C158" s="4"/>
-      <c r="D158" s="4"/>
+      <c r="B158" s="5"/>
+      <c r="C158" s="5"/>
+      <c r="D158" s="5"/>
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B159" s="1" t="s">
@@ -2511,12 +2512,12 @@
       </c>
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A184" s="4" t="s">
+      <c r="A184" s="5" t="s">
         <v>286</v>
       </c>
-      <c r="B184" s="4"/>
-      <c r="C184" s="4"/>
-      <c r="D184" s="4"/>
+      <c r="B184" s="5"/>
+      <c r="C184" s="5"/>
+      <c r="D184" s="5"/>
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B185" t="s">
@@ -2638,12 +2639,12 @@
       </c>
     </row>
     <row r="207" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A207" s="4" t="s">
+      <c r="A207" s="5" t="s">
         <v>287</v>
       </c>
-      <c r="B207" s="4"/>
-      <c r="C207" s="4"/>
-      <c r="D207" s="4"/>
+      <c r="B207" s="5"/>
+      <c r="C207" s="5"/>
+      <c r="D207" s="5"/>
     </row>
     <row r="208" spans="1:4" ht="54" x14ac:dyDescent="0.15">
       <c r="B208" t="s">
@@ -2652,7 +2653,7 @@
       <c r="C208" t="s">
         <v>115</v>
       </c>
-      <c r="D208" s="5" t="s">
+      <c r="D208" s="4" t="s">
         <v>107</v>
       </c>
     </row>
@@ -2660,31 +2661,31 @@
       <c r="B209" t="s">
         <v>35</v>
       </c>
-      <c r="D209" s="5"/>
+      <c r="D209" s="4"/>
     </row>
     <row r="210" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B210" t="s">
         <v>36</v>
       </c>
-      <c r="D210" s="5"/>
+      <c r="D210" s="4"/>
     </row>
     <row r="211" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B211" t="s">
         <v>37</v>
       </c>
-      <c r="D211" s="5"/>
+      <c r="D211" s="4"/>
     </row>
     <row r="212" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B212" t="s">
         <v>38</v>
       </c>
-      <c r="D212" s="5"/>
+      <c r="D212" s="4"/>
     </row>
     <row r="213" spans="1:4" ht="27" x14ac:dyDescent="0.15">
       <c r="B213" t="s">
         <v>30</v>
       </c>
-      <c r="D213" s="5" t="s">
+      <c r="D213" s="4" t="s">
         <v>112</v>
       </c>
     </row>
@@ -2692,7 +2693,7 @@
       <c r="B214" t="s">
         <v>31</v>
       </c>
-      <c r="D214" s="5" t="s">
+      <c r="D214" s="4" t="s">
         <v>111</v>
       </c>
     </row>
@@ -2700,7 +2701,7 @@
       <c r="B215" t="s">
         <v>32</v>
       </c>
-      <c r="D215" s="5" t="s">
+      <c r="D215" s="4" t="s">
         <v>110</v>
       </c>
     </row>
@@ -2711,7 +2712,7 @@
       <c r="C216" t="s">
         <v>114</v>
       </c>
-      <c r="D216" s="5" t="s">
+      <c r="D216" s="4" t="s">
         <v>113</v>
       </c>
     </row>
@@ -2736,12 +2737,12 @@
       </c>
     </row>
     <row r="221" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A221" s="4" t="s">
+      <c r="A221" s="5" t="s">
         <v>288</v>
       </c>
-      <c r="B221" s="4"/>
-      <c r="C221" s="4"/>
-      <c r="D221" s="4"/>
+      <c r="B221" s="5"/>
+      <c r="C221" s="5"/>
+      <c r="D221" s="5"/>
     </row>
     <row r="222" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B222" t="s">
@@ -2769,12 +2770,12 @@
       </c>
     </row>
     <row r="227" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A227" s="4" t="s">
+      <c r="A227" s="5" t="s">
         <v>289</v>
       </c>
-      <c r="B227" s="4"/>
-      <c r="C227" s="4"/>
-      <c r="D227" s="4"/>
+      <c r="B227" s="5"/>
+      <c r="C227" s="5"/>
+      <c r="D227" s="5"/>
     </row>
     <row r="228" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B228" t="s">
@@ -2797,12 +2798,12 @@
       </c>
     </row>
     <row r="232" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A232" s="4" t="s">
+      <c r="A232" s="5" t="s">
         <v>290</v>
       </c>
-      <c r="B232" s="4"/>
-      <c r="C232" s="4"/>
-      <c r="D232" s="4"/>
+      <c r="B232" s="5"/>
+      <c r="C232" s="5"/>
+      <c r="D232" s="5"/>
     </row>
     <row r="233" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B233" t="s">
@@ -2865,12 +2866,12 @@
       </c>
     </row>
     <row r="245" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A245" s="4" t="s">
+      <c r="A245" s="5" t="s">
         <v>291</v>
       </c>
-      <c r="B245" s="4"/>
-      <c r="C245" s="4"/>
-      <c r="D245" s="4"/>
+      <c r="B245" s="5"/>
+      <c r="C245" s="5"/>
+      <c r="D245" s="5"/>
     </row>
     <row r="246" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B246" t="s">
@@ -2938,12 +2939,12 @@
       </c>
     </row>
     <row r="259" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A259" s="4" t="s">
+      <c r="A259" s="5" t="s">
         <v>292</v>
       </c>
-      <c r="B259" s="4"/>
-      <c r="C259" s="4"/>
-      <c r="D259" s="4"/>
+      <c r="B259" s="5"/>
+      <c r="C259" s="5"/>
+      <c r="D259" s="5"/>
     </row>
     <row r="260" spans="1:4" x14ac:dyDescent="0.15">
       <c r="B260" t="s">
@@ -2982,23 +2983,23 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="A259:D259"/>
+    <mergeCell ref="A207:D207"/>
+    <mergeCell ref="A221:D221"/>
+    <mergeCell ref="A227:D227"/>
+    <mergeCell ref="A232:D232"/>
+    <mergeCell ref="A245:D245"/>
+    <mergeCell ref="A142:D142"/>
+    <mergeCell ref="A148:D148"/>
+    <mergeCell ref="A154:D154"/>
+    <mergeCell ref="A158:D158"/>
+    <mergeCell ref="A184:D184"/>
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="A19:D19"/>
     <mergeCell ref="A42:D42"/>
     <mergeCell ref="A84:D84"/>
     <mergeCell ref="A139:D139"/>
     <mergeCell ref="A112:D112"/>
-    <mergeCell ref="A142:D142"/>
-    <mergeCell ref="A148:D148"/>
-    <mergeCell ref="A154:D154"/>
-    <mergeCell ref="A158:D158"/>
-    <mergeCell ref="A184:D184"/>
-    <mergeCell ref="A259:D259"/>
-    <mergeCell ref="A207:D207"/>
-    <mergeCell ref="A221:D221"/>
-    <mergeCell ref="A227:D227"/>
-    <mergeCell ref="A232:D232"/>
-    <mergeCell ref="A245:D245"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/doc/BookList.xlsx
+++ b/doc/BookList.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="293">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="297">
   <si>
     <t>民主的细节</t>
   </si>
@@ -1080,10 +1080,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>6. 读书</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>7. 时间管理</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1125,6 +1121,26 @@
   </si>
   <si>
     <t>17. 谈判&amp;沟通</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6. 读书方法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>软件架构师修炼之道</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Google软件测试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>软技能：代码之外的生存技能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>超级快速阅读</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1185,7 +1201,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -1193,21 +1209,37 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="2" tint="-9.9978637043366805E-2"/>
+      </left>
+      <right style="thin">
+        <color theme="2" tint="-9.9978637043366805E-2"/>
+      </right>
+      <top style="thin">
+        <color theme="2" tint="-9.9978637043366805E-2"/>
+      </top>
+      <bottom style="thin">
+        <color theme="2" tint="-9.9978637043366805E-2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1512,1500 +1544,2756 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D266"/>
+  <dimension ref="A1:D270"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A1:XFD1048576"/>
+      <pane ySplit="1" topLeftCell="A74" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C88" sqref="C88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="13.625" customWidth="1"/>
+    <col min="1" max="1" width="5" customWidth="1"/>
     <col min="2" max="2" width="38.25" customWidth="1"/>
-    <col min="3" max="3" width="14.25" customWidth="1"/>
-    <col min="4" max="4" width="49.25" customWidth="1"/>
+    <col min="3" max="3" width="13.5" customWidth="1"/>
+    <col min="4" max="4" width="52" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="1" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="2" t="s">
         <v>276</v>
       </c>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B3" t="s">
+      <c r="A3" s="3">
+        <v>1</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>52</v>
       </c>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B4" t="s">
+      <c r="A4" s="3">
+        <v>2</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>53</v>
       </c>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B5" t="s">
+      <c r="A5" s="3">
+        <v>3</v>
+      </c>
+      <c r="B5" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="3" t="s">
         <v>55</v>
       </c>
+      <c r="D5" s="3"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B6" t="s">
+      <c r="A6" s="3">
+        <v>4</v>
+      </c>
+      <c r="B6" s="3" t="s">
         <v>56</v>
       </c>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B7" s="1" t="s">
+      <c r="A7" s="3">
+        <v>5</v>
+      </c>
+      <c r="B7" s="4" t="s">
         <v>51</v>
       </c>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B8" s="1" t="s">
+      <c r="A8" s="3">
+        <v>6</v>
+      </c>
+      <c r="B8" s="4" t="s">
         <v>50</v>
       </c>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B9" s="1" t="s">
+      <c r="A9" s="3">
+        <v>7</v>
+      </c>
+      <c r="B9" s="4" t="s">
         <v>191</v>
       </c>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B10" s="1" t="s">
+      <c r="A10" s="3">
+        <v>8</v>
+      </c>
+      <c r="B10" s="4" t="s">
         <v>192</v>
       </c>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B11" s="1" t="s">
+      <c r="A11" s="3">
+        <v>9</v>
+      </c>
+      <c r="B11" s="4" t="s">
         <v>193</v>
       </c>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B12" s="1" t="s">
+      <c r="A12" s="3">
+        <v>10</v>
+      </c>
+      <c r="B12" s="4" t="s">
         <v>194</v>
       </c>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B13" s="1" t="s">
+      <c r="A13" s="3">
+        <v>11</v>
+      </c>
+      <c r="B13" s="4" t="s">
         <v>195</v>
       </c>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B14" s="1" t="s">
+      <c r="A14" s="3">
+        <v>12</v>
+      </c>
+      <c r="B14" s="4" t="s">
         <v>251</v>
       </c>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B15" s="1" t="s">
+      <c r="A15" s="3">
+        <v>13</v>
+      </c>
+      <c r="B15" s="4" t="s">
         <v>252</v>
       </c>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B16" s="1" t="s">
+      <c r="A16" s="3">
+        <v>14</v>
+      </c>
+      <c r="B16" s="4" t="s">
         <v>253</v>
       </c>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B17" s="1" t="s">
+      <c r="A17" s="3">
+        <v>15</v>
+      </c>
+      <c r="B17" s="4" t="s">
         <v>254</v>
       </c>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B18" s="1" t="s">
+      <c r="A18" s="3">
+        <v>16</v>
+      </c>
+      <c r="B18" s="4" t="s">
         <v>255</v>
       </c>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A19" s="5" t="s">
+      <c r="A19" s="2" t="s">
         <v>277</v>
       </c>
-      <c r="B19" s="5"/>
-      <c r="C19" s="5"/>
-      <c r="D19" s="5"/>
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B20" t="s">
+      <c r="A20" s="3">
+        <v>1</v>
+      </c>
+      <c r="B20" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C20" s="3" t="s">
         <v>58</v>
       </c>
+      <c r="D20" s="3"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B21" t="s">
+      <c r="A21" s="3">
+        <v>2</v>
+      </c>
+      <c r="B21" s="3" t="s">
         <v>67</v>
       </c>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B22" t="s">
+      <c r="A22" s="3">
+        <v>3</v>
+      </c>
+      <c r="B22" s="3" t="s">
         <v>66</v>
       </c>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B23" t="s">
+      <c r="A23" s="3">
+        <v>4</v>
+      </c>
+      <c r="B23" s="3" t="s">
         <v>65</v>
       </c>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B24" t="s">
+      <c r="A24" s="3">
+        <v>5</v>
+      </c>
+      <c r="B24" s="3" t="s">
         <v>64</v>
       </c>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B25" t="s">
+      <c r="A25" s="3">
+        <v>6</v>
+      </c>
+      <c r="B25" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="C25" t="s">
+      <c r="C25" s="3" t="s">
         <v>63</v>
       </c>
+      <c r="D25" s="3"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B26" t="s">
+      <c r="A26" s="3">
+        <v>7</v>
+      </c>
+      <c r="B26" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="C26" t="s">
+      <c r="C26" s="3" t="s">
         <v>61</v>
       </c>
+      <c r="D26" s="3"/>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B27" t="s">
+      <c r="A27" s="3">
+        <v>8</v>
+      </c>
+      <c r="B27" s="3" t="s">
         <v>136</v>
       </c>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B28" t="s">
+      <c r="A28" s="3">
+        <v>9</v>
+      </c>
+      <c r="B28" s="3" t="s">
         <v>59</v>
       </c>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B29" t="s">
+      <c r="A29" s="3">
+        <v>10</v>
+      </c>
+      <c r="B29" s="3" t="s">
         <v>127</v>
       </c>
+      <c r="C29" s="3"/>
+      <c r="D29" s="3"/>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B30" t="s">
+      <c r="A30" s="3">
+        <v>11</v>
+      </c>
+      <c r="B30" s="3" t="s">
         <v>128</v>
       </c>
+      <c r="C30" s="3"/>
+      <c r="D30" s="3"/>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B31" t="s">
+      <c r="A31" s="3">
+        <v>12</v>
+      </c>
+      <c r="B31" s="3" t="s">
         <v>129</v>
       </c>
+      <c r="C31" s="3"/>
+      <c r="D31" s="3"/>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B32" t="s">
+      <c r="A32" s="3">
+        <v>13</v>
+      </c>
+      <c r="B32" s="3" t="s">
         <v>130</v>
       </c>
+      <c r="C32" s="3"/>
+      <c r="D32" s="3"/>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B33" t="s">
+      <c r="A33" s="3">
+        <v>14</v>
+      </c>
+      <c r="B33" s="3" t="s">
         <v>131</v>
       </c>
+      <c r="C33" s="3"/>
+      <c r="D33" s="3"/>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B34" t="s">
+      <c r="A34" s="3">
+        <v>15</v>
+      </c>
+      <c r="B34" s="3" t="s">
         <v>137</v>
       </c>
+      <c r="C34" s="3"/>
+      <c r="D34" s="3"/>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B35" t="s">
+      <c r="A35" s="3">
+        <v>16</v>
+      </c>
+      <c r="B35" s="3" t="s">
         <v>138</v>
       </c>
+      <c r="C35" s="3"/>
+      <c r="D35" s="3"/>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B36" t="s">
+      <c r="A36" s="3">
+        <v>17</v>
+      </c>
+      <c r="B36" s="3" t="s">
         <v>139</v>
       </c>
+      <c r="C36" s="3"/>
+      <c r="D36" s="3"/>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B37" t="s">
+      <c r="A37" s="3">
+        <v>18</v>
+      </c>
+      <c r="B37" s="3" t="s">
         <v>140</v>
       </c>
+      <c r="C37" s="3"/>
+      <c r="D37" s="3"/>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B38" t="s">
+      <c r="A38" s="3">
+        <v>19</v>
+      </c>
+      <c r="B38" s="3" t="s">
         <v>141</v>
       </c>
+      <c r="C38" s="3"/>
+      <c r="D38" s="3"/>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B39" t="s">
+      <c r="A39" s="3">
+        <v>20</v>
+      </c>
+      <c r="B39" s="3" t="s">
         <v>203</v>
       </c>
+      <c r="C39" s="3"/>
+      <c r="D39" s="3"/>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B40" t="s">
+      <c r="A40" s="3">
+        <v>21</v>
+      </c>
+      <c r="B40" s="3" t="s">
         <v>237</v>
       </c>
+      <c r="C40" s="3"/>
+      <c r="D40" s="3"/>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B41" t="s">
+      <c r="A41" s="3">
+        <v>22</v>
+      </c>
+      <c r="B41" s="3" t="s">
         <v>239</v>
       </c>
+      <c r="C41" s="3"/>
+      <c r="D41" s="3"/>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A42" s="5" t="s">
+      <c r="A42" s="2" t="s">
         <v>278</v>
       </c>
-      <c r="B42" s="5"/>
-      <c r="C42" s="5"/>
-      <c r="D42" s="5"/>
+      <c r="B42" s="2"/>
+      <c r="C42" s="2"/>
+      <c r="D42" s="2"/>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B43" t="s">
+      <c r="A43" s="3">
+        <v>1</v>
+      </c>
+      <c r="B43" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="C43" t="s">
+      <c r="C43" s="3" t="s">
         <v>85</v>
       </c>
+      <c r="D43" s="3"/>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B44" t="s">
+      <c r="A44" s="3">
+        <v>2</v>
+      </c>
+      <c r="B44" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="C44" t="s">
+      <c r="C44" s="3" t="s">
         <v>87</v>
       </c>
+      <c r="D44" s="3"/>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B45" t="s">
+      <c r="A45" s="3">
+        <v>3</v>
+      </c>
+      <c r="B45" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="C45" t="s">
+      <c r="C45" s="3" t="s">
         <v>85</v>
       </c>
+      <c r="D45" s="3"/>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B46" t="s">
+      <c r="A46" s="3">
+        <v>4</v>
+      </c>
+      <c r="B46" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="C46" t="s">
+      <c r="C46" s="3" t="s">
         <v>85</v>
       </c>
+      <c r="D46" s="3"/>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B47" t="s">
+      <c r="A47" s="3">
+        <v>5</v>
+      </c>
+      <c r="B47" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="C47" t="s">
+      <c r="C47" s="3" t="s">
         <v>85</v>
       </c>
+      <c r="D47" s="3"/>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B48" t="s">
+      <c r="A48" s="3">
+        <v>6</v>
+      </c>
+      <c r="B48" s="3" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="49" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B49" t="s">
+      <c r="C48" s="3"/>
+      <c r="D48" s="3"/>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A49" s="3">
+        <v>7</v>
+      </c>
+      <c r="B49" s="3" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="50" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B50" t="s">
+      <c r="C49" s="3"/>
+      <c r="D49" s="3"/>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A50" s="3">
+        <v>8</v>
+      </c>
+      <c r="B50" s="3" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="51" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B51" t="s">
+      <c r="C50" s="3"/>
+      <c r="D50" s="3"/>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A51" s="3">
+        <v>9</v>
+      </c>
+      <c r="B51" s="3" t="s">
         <v>188</v>
       </c>
-    </row>
-    <row r="52" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B52" t="s">
+      <c r="C51" s="3"/>
+      <c r="D51" s="3"/>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A52" s="3">
+        <v>10</v>
+      </c>
+      <c r="B52" s="3" t="s">
         <v>189</v>
       </c>
-    </row>
-    <row r="53" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B53" t="s">
+      <c r="C52" s="3"/>
+      <c r="D52" s="3"/>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A53" s="3">
+        <v>11</v>
+      </c>
+      <c r="B53" s="3" t="s">
         <v>190</v>
       </c>
-    </row>
-    <row r="54" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B54" t="s">
+      <c r="C53" s="3"/>
+      <c r="D53" s="3"/>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A54" s="3">
+        <v>12</v>
+      </c>
+      <c r="B54" s="3" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="55" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B55" s="2" t="s">
+      <c r="C54" s="3"/>
+      <c r="D54" s="3"/>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A55" s="3">
+        <v>13</v>
+      </c>
+      <c r="B55" s="5" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="56" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B56" s="2" t="s">
+      <c r="C55" s="3"/>
+      <c r="D55" s="3"/>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A56" s="3">
+        <v>14</v>
+      </c>
+      <c r="B56" s="5" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="57" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B57" s="2" t="s">
+      <c r="C56" s="3"/>
+      <c r="D56" s="3"/>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A57" s="3">
+        <v>15</v>
+      </c>
+      <c r="B57" s="5" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="58" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B58" t="s">
+      <c r="C57" s="3"/>
+      <c r="D57" s="3"/>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A58" s="3">
+        <v>16</v>
+      </c>
+      <c r="B58" s="3" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="59" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B59" t="s">
+      <c r="C58" s="3"/>
+      <c r="D58" s="3"/>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A59" s="3">
+        <v>17</v>
+      </c>
+      <c r="B59" s="3" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="60" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B60" t="s">
+      <c r="C59" s="3"/>
+      <c r="D59" s="3"/>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A60" s="3">
+        <v>18</v>
+      </c>
+      <c r="B60" s="3" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="61" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B61" t="s">
+      <c r="C60" s="3"/>
+      <c r="D60" s="3"/>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A61" s="3">
+        <v>19</v>
+      </c>
+      <c r="B61" s="3" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="62" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B62" t="s">
+      <c r="C61" s="3"/>
+      <c r="D61" s="3"/>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A62" s="3">
+        <v>20</v>
+      </c>
+      <c r="B62" s="3" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="63" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B63" t="s">
+      <c r="C62" s="3"/>
+      <c r="D62" s="3"/>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A63" s="3">
+        <v>21</v>
+      </c>
+      <c r="B63" s="3" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="64" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B64" s="2" t="s">
+      <c r="C63" s="3"/>
+      <c r="D63" s="3"/>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A64" s="3">
+        <v>22</v>
+      </c>
+      <c r="B64" s="5" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="65" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B65" t="s">
+      <c r="C64" s="3"/>
+      <c r="D64" s="3"/>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A65" s="3">
+        <v>23</v>
+      </c>
+      <c r="B65" s="3" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="66" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B66" t="s">
+      <c r="C65" s="3"/>
+      <c r="D65" s="3"/>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A66" s="3">
         <v>24</v>
       </c>
-    </row>
-    <row r="67" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B67" t="s">
+      <c r="B66" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C66" s="3"/>
+      <c r="D66" s="3"/>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A67" s="3">
         <v>25</v>
       </c>
-    </row>
-    <row r="68" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B68" t="s">
+      <c r="B67" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C67" s="3"/>
+      <c r="D67" s="3"/>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A68" s="3">
         <v>26</v>
       </c>
-    </row>
-    <row r="69" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B69" t="s">
+      <c r="B68" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C68" s="3"/>
+      <c r="D68" s="3"/>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A69" s="3">
         <v>27</v>
       </c>
-    </row>
-    <row r="70" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B70" t="s">
+      <c r="B69" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C69" s="3"/>
+      <c r="D69" s="3"/>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A70" s="3">
+        <v>28</v>
+      </c>
+      <c r="B70" s="3" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="71" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B71" t="s">
+      <c r="C70" s="3"/>
+      <c r="D70" s="3"/>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A71" s="3">
+        <v>29</v>
+      </c>
+      <c r="B71" s="3" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="72" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B72" t="s">
+      <c r="C71" s="3"/>
+      <c r="D71" s="3"/>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A72" s="3">
+        <v>30</v>
+      </c>
+      <c r="B72" s="3" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="73" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B73" t="s">
+      <c r="C72" s="3"/>
+      <c r="D72" s="3"/>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A73" s="3">
+        <v>31</v>
+      </c>
+      <c r="B73" s="3" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="74" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B74" t="s">
+      <c r="C73" s="3"/>
+      <c r="D73" s="3"/>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A74" s="3">
+        <v>32</v>
+      </c>
+      <c r="B74" s="3" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="75" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B75" s="1" t="s">
+      <c r="C74" s="3"/>
+      <c r="D74" s="3"/>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A75" s="3">
+        <v>33</v>
+      </c>
+      <c r="B75" s="4" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="76" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B76" s="1" t="s">
+      <c r="C75" s="3"/>
+      <c r="D75" s="3"/>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A76" s="3">
+        <v>34</v>
+      </c>
+      <c r="B76" s="4" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="77" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B77" s="1" t="s">
+      <c r="C76" s="3"/>
+      <c r="D76" s="3"/>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A77" s="3">
+        <v>35</v>
+      </c>
+      <c r="B77" s="4" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="78" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B78" s="1" t="s">
+      <c r="C77" s="3"/>
+      <c r="D77" s="3"/>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A78" s="3">
+        <v>36</v>
+      </c>
+      <c r="B78" s="4" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="79" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B79" s="1" t="s">
+      <c r="C78" s="3"/>
+      <c r="D78" s="3"/>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A79" s="3">
+        <v>37</v>
+      </c>
+      <c r="B79" s="4" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="80" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B80" s="1" t="s">
+      <c r="C79" s="3"/>
+      <c r="D79" s="3"/>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A80" s="3">
+        <v>38</v>
+      </c>
+      <c r="B80" s="4" t="s">
         <v>155</v>
       </c>
+      <c r="C80" s="3"/>
+      <c r="D80" s="3"/>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B81" s="1" t="s">
+      <c r="A81" s="3">
+        <v>39</v>
+      </c>
+      <c r="B81" s="4" t="s">
         <v>156</v>
       </c>
+      <c r="C81" s="3"/>
+      <c r="D81" s="3"/>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B82" s="1" t="s">
+      <c r="A82" s="3">
+        <v>40</v>
+      </c>
+      <c r="B82" s="4" t="s">
         <v>157</v>
       </c>
+      <c r="C82" s="3"/>
+      <c r="D82" s="3"/>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B83" s="1" t="s">
+      <c r="A83" s="3">
+        <v>41</v>
+      </c>
+      <c r="B83" s="4" t="s">
         <v>158</v>
       </c>
+      <c r="C83" s="3"/>
+      <c r="D83" s="3"/>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A84" s="5" t="s">
+      <c r="A84" s="2" t="s">
         <v>279</v>
       </c>
-      <c r="B84" s="5"/>
-      <c r="C84" s="5"/>
-      <c r="D84" s="5"/>
+      <c r="B84" s="2"/>
+      <c r="C84" s="2"/>
+      <c r="D84" s="2"/>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B85" t="s">
+      <c r="A85" s="3">
+        <v>1</v>
+      </c>
+      <c r="B85" s="3" t="s">
         <v>48</v>
       </c>
+      <c r="C85" s="3"/>
+      <c r="D85" s="3"/>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B86" t="s">
+      <c r="A86" s="3">
+        <v>2</v>
+      </c>
+      <c r="B86" s="3" t="s">
         <v>72</v>
       </c>
+      <c r="C86" s="3"/>
+      <c r="D86" s="3"/>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B87" t="s">
+      <c r="A87" s="3">
+        <v>3</v>
+      </c>
+      <c r="B87" s="3" t="s">
         <v>73</v>
       </c>
+      <c r="C87" s="3"/>
+      <c r="D87" s="3"/>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B88" t="s">
+      <c r="A88" s="3">
+        <v>4</v>
+      </c>
+      <c r="B88" s="3" t="s">
         <v>74</v>
       </c>
+      <c r="C88" s="3"/>
+      <c r="D88" s="3"/>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B89" t="s">
+      <c r="A89" s="3">
+        <v>5</v>
+      </c>
+      <c r="B89" s="3" t="s">
         <v>75</v>
       </c>
+      <c r="C89" s="3"/>
+      <c r="D89" s="3"/>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B90" t="s">
+      <c r="A90" s="3">
+        <v>6</v>
+      </c>
+      <c r="B90" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="C90" t="s">
+      <c r="C90" s="3" t="s">
         <v>102</v>
       </c>
+      <c r="D90" s="3"/>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B91" t="s">
+      <c r="A91" s="3">
+        <v>7</v>
+      </c>
+      <c r="B91" s="3" t="s">
         <v>169</v>
       </c>
+      <c r="C91" s="3"/>
+      <c r="D91" s="3"/>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B92" t="s">
+      <c r="A92" s="3">
+        <v>8</v>
+      </c>
+      <c r="B92" s="3" t="s">
         <v>250</v>
       </c>
+      <c r="C92" s="3"/>
+      <c r="D92" s="3"/>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B93" t="s">
+      <c r="A93" s="3">
+        <v>9</v>
+      </c>
+      <c r="B93" s="3" t="s">
         <v>80</v>
       </c>
+      <c r="C93" s="3"/>
+      <c r="D93" s="3"/>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B94" t="s">
+      <c r="A94" s="3">
+        <v>10</v>
+      </c>
+      <c r="B94" s="3" t="s">
         <v>132</v>
       </c>
+      <c r="C94" s="3"/>
+      <c r="D94" s="3"/>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B95" t="s">
+      <c r="A95" s="3">
+        <v>11</v>
+      </c>
+      <c r="B95" s="3" t="s">
         <v>133</v>
       </c>
+      <c r="C95" s="3"/>
+      <c r="D95" s="3"/>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B96" t="s">
+      <c r="A96" s="3">
+        <v>12</v>
+      </c>
+      <c r="B96" s="3" t="s">
         <v>134</v>
       </c>
+      <c r="C96" s="3"/>
+      <c r="D96" s="3"/>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B97" t="s">
+      <c r="A97" s="3">
+        <v>13</v>
+      </c>
+      <c r="B97" s="3" t="s">
         <v>196</v>
       </c>
+      <c r="C97" s="3"/>
+      <c r="D97" s="3"/>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B98" t="s">
+      <c r="A98" s="3">
+        <v>14</v>
+      </c>
+      <c r="B98" s="3" t="s">
         <v>197</v>
       </c>
+      <c r="C98" s="3"/>
+      <c r="D98" s="3"/>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B99" t="s">
+      <c r="A99" s="3">
+        <v>15</v>
+      </c>
+      <c r="B99" s="3" t="s">
         <v>198</v>
       </c>
+      <c r="C99" s="3"/>
+      <c r="D99" s="3"/>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B100" t="s">
+      <c r="A100" s="3">
+        <v>16</v>
+      </c>
+      <c r="B100" s="3" t="s">
         <v>199</v>
       </c>
+      <c r="C100" s="3"/>
+      <c r="D100" s="3"/>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B101" t="s">
+      <c r="A101" s="3">
+        <v>17</v>
+      </c>
+      <c r="B101" s="3" t="s">
         <v>200</v>
       </c>
+      <c r="C101" s="3"/>
+      <c r="D101" s="3"/>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B102" t="s">
+      <c r="A102" s="3">
+        <v>18</v>
+      </c>
+      <c r="B102" s="3" t="s">
         <v>201</v>
       </c>
+      <c r="C102" s="3"/>
+      <c r="D102" s="3"/>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B103" t="s">
+      <c r="A103" s="3">
+        <v>19</v>
+      </c>
+      <c r="B103" s="3" t="s">
         <v>202</v>
       </c>
+      <c r="C103" s="3"/>
+      <c r="D103" s="3"/>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B104" t="s">
+      <c r="A104" s="3">
+        <v>20</v>
+      </c>
+      <c r="B104" s="3" t="s">
         <v>238</v>
       </c>
+      <c r="C104" s="3"/>
+      <c r="D104" s="3"/>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B105" t="s">
+      <c r="A105" s="3">
+        <v>21</v>
+      </c>
+      <c r="B105" s="3" t="s">
         <v>227</v>
       </c>
+      <c r="C105" s="3"/>
+      <c r="D105" s="3"/>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B106" t="s">
+      <c r="A106" s="3">
+        <v>22</v>
+      </c>
+      <c r="B106" s="3" t="s">
         <v>248</v>
       </c>
+      <c r="C106" s="3"/>
+      <c r="D106" s="3"/>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B107" t="s">
+      <c r="A107" s="3">
+        <v>23</v>
+      </c>
+      <c r="B107" s="3" t="s">
         <v>249</v>
       </c>
+      <c r="C107" s="3"/>
+      <c r="D107" s="3"/>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B108" t="s">
+      <c r="A108" s="3">
+        <v>24</v>
+      </c>
+      <c r="B108" s="3" t="s">
         <v>228</v>
       </c>
+      <c r="C108" s="3"/>
+      <c r="D108" s="3"/>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B109" t="s">
+      <c r="A109" s="3">
+        <v>25</v>
+      </c>
+      <c r="B109" s="3" t="s">
         <v>229</v>
       </c>
+      <c r="C109" s="3"/>
+      <c r="D109" s="3"/>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B110" t="s">
+      <c r="A110" s="3">
+        <v>26</v>
+      </c>
+      <c r="B110" s="3" t="s">
         <v>28</v>
       </c>
+      <c r="C110" s="3"/>
+      <c r="D110" s="3"/>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B111" t="s">
+      <c r="A111" s="3">
+        <v>27</v>
+      </c>
+      <c r="B111" s="3" t="s">
         <v>29</v>
       </c>
+      <c r="C111" s="3"/>
+      <c r="D111" s="3"/>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A112" s="5" t="s">
+      <c r="A112" s="2" t="s">
         <v>280</v>
       </c>
-      <c r="B112" s="5"/>
-      <c r="C112" s="5"/>
-      <c r="D112" s="5"/>
-    </row>
-    <row r="113" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B113" t="s">
+      <c r="B112" s="2"/>
+      <c r="C112" s="2"/>
+      <c r="D112" s="2"/>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A113" s="3">
+        <v>1</v>
+      </c>
+      <c r="B113" s="3" t="s">
         <v>272</v>
       </c>
-    </row>
-    <row r="114" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B114" t="s">
+      <c r="C113" s="3"/>
+      <c r="D113" s="3"/>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A114" s="3">
+        <v>2</v>
+      </c>
+      <c r="B114" s="3" t="s">
         <v>273</v>
       </c>
-    </row>
-    <row r="115" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B115" t="s">
+      <c r="C114" s="3"/>
+      <c r="D114" s="3"/>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A115" s="3">
+        <v>3</v>
+      </c>
+      <c r="B115" s="3" t="s">
         <v>274</v>
       </c>
-    </row>
-    <row r="116" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B116" t="s">
+      <c r="C115" s="3"/>
+      <c r="D115" s="3"/>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A116" s="3">
+        <v>4</v>
+      </c>
+      <c r="B116" s="3" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="117" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B117" t="s">
+      <c r="C116" s="3"/>
+      <c r="D116" s="3"/>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A117" s="3">
+        <v>5</v>
+      </c>
+      <c r="B117" s="3" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="118" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B118" t="s">
+      <c r="C117" s="3"/>
+      <c r="D117" s="3"/>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A118" s="3">
+        <v>6</v>
+      </c>
+      <c r="B118" s="3" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="119" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B119" t="s">
+      <c r="C118" s="3"/>
+      <c r="D118" s="3"/>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A119" s="3">
+        <v>7</v>
+      </c>
+      <c r="B119" s="3" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="120" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B120" t="s">
+      <c r="C119" s="3"/>
+      <c r="D119" s="3"/>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A120" s="3">
+        <v>8</v>
+      </c>
+      <c r="B120" s="3" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="121" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B121" t="s">
+      <c r="C120" s="3"/>
+      <c r="D120" s="3"/>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A121" s="3">
+        <v>9</v>
+      </c>
+      <c r="B121" s="3" t="s">
         <v>162</v>
       </c>
-    </row>
-    <row r="122" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B122" t="s">
+      <c r="C121" s="3"/>
+      <c r="D121" s="3"/>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A122" s="3">
+        <v>10</v>
+      </c>
+      <c r="B122" s="3" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row r="123" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B123" t="s">
+      <c r="C122" s="3"/>
+      <c r="D122" s="3"/>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A123" s="3">
+        <v>11</v>
+      </c>
+      <c r="B123" s="3" t="s">
         <v>164</v>
       </c>
-    </row>
-    <row r="124" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B124" t="s">
+      <c r="C123" s="3"/>
+      <c r="D123" s="3"/>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A124" s="3">
+        <v>12</v>
+      </c>
+      <c r="B124" s="3" t="s">
         <v>165</v>
       </c>
-    </row>
-    <row r="125" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B125" t="s">
+      <c r="C124" s="3"/>
+      <c r="D124" s="3"/>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A125" s="3">
+        <v>13</v>
+      </c>
+      <c r="B125" s="3" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="126" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B126" t="s">
+      <c r="C125" s="3"/>
+      <c r="D125" s="3"/>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A126" s="3">
+        <v>14</v>
+      </c>
+      <c r="B126" s="3" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="127" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B127" t="s">
+      <c r="C126" s="3"/>
+      <c r="D126" s="3"/>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A127" s="3">
+        <v>15</v>
+      </c>
+      <c r="B127" s="3" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="128" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B128" t="s">
+      <c r="C127" s="3"/>
+      <c r="D127" s="3"/>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A128" s="3">
+        <v>16</v>
+      </c>
+      <c r="B128" s="3" t="s">
         <v>168</v>
       </c>
+      <c r="C128" s="3"/>
+      <c r="D128" s="3"/>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B129" t="s">
+      <c r="A129" s="3">
+        <v>17</v>
+      </c>
+      <c r="B129" s="3" t="s">
         <v>170</v>
       </c>
+      <c r="C129" s="3"/>
+      <c r="D129" s="3"/>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B130" t="s">
+      <c r="A130" s="3">
+        <v>18</v>
+      </c>
+      <c r="B130" s="3" t="s">
         <v>171</v>
       </c>
+      <c r="C130" s="3"/>
+      <c r="D130" s="3"/>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B131" t="s">
+      <c r="A131" s="3">
+        <v>19</v>
+      </c>
+      <c r="B131" s="3" t="s">
         <v>172</v>
       </c>
+      <c r="C131" s="3"/>
+      <c r="D131" s="3"/>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B132" t="s">
+      <c r="A132" s="3">
+        <v>20</v>
+      </c>
+      <c r="B132" s="3" t="s">
         <v>175</v>
       </c>
+      <c r="C132" s="3"/>
+      <c r="D132" s="3"/>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B133" t="s">
+      <c r="A133" s="3">
+        <v>21</v>
+      </c>
+      <c r="B133" s="3" t="s">
         <v>176</v>
       </c>
+      <c r="C133" s="3"/>
+      <c r="D133" s="3"/>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B134" t="s">
+      <c r="A134" s="3">
+        <v>22</v>
+      </c>
+      <c r="B134" s="3" t="s">
         <v>230</v>
       </c>
+      <c r="C134" s="3"/>
+      <c r="D134" s="3"/>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B135" t="s">
+      <c r="A135" s="3">
+        <v>23</v>
+      </c>
+      <c r="B135" s="3" t="s">
         <v>231</v>
       </c>
+      <c r="C135" s="3"/>
+      <c r="D135" s="3"/>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B136" t="s">
+      <c r="A136" s="3">
+        <v>24</v>
+      </c>
+      <c r="B136" s="3" t="s">
         <v>232</v>
       </c>
+      <c r="C136" s="3"/>
+      <c r="D136" s="3"/>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B137" t="s">
+      <c r="A137" s="3">
+        <v>25</v>
+      </c>
+      <c r="B137" s="3" t="s">
         <v>233</v>
       </c>
+      <c r="C137" s="3"/>
+      <c r="D137" s="3"/>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B138" t="s">
+      <c r="A138" s="3">
+        <v>26</v>
+      </c>
+      <c r="B138" s="3" t="s">
         <v>245</v>
       </c>
+      <c r="C138" s="3"/>
+      <c r="D138" s="3"/>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A139" s="5" t="s">
+      <c r="A139" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="B139" s="2"/>
+      <c r="C139" s="2"/>
+      <c r="D139" s="2"/>
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A140" s="3">
+        <v>1</v>
+      </c>
+      <c r="B140" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="C140" s="3"/>
+      <c r="D140" s="3"/>
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A141" s="3">
+        <v>2</v>
+      </c>
+      <c r="B141" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="C141" s="3"/>
+      <c r="D141" s="3"/>
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A142" s="3">
+        <v>3</v>
+      </c>
+      <c r="B142" s="3" t="s">
+        <v>296</v>
+      </c>
+      <c r="C142" s="3"/>
+      <c r="D142" s="3"/>
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A143" s="2" t="s">
         <v>281</v>
       </c>
-      <c r="B139" s="5"/>
-      <c r="C139" s="5"/>
-      <c r="D139" s="5"/>
-    </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B140" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B141" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A142" s="5" t="s">
+      <c r="B143" s="2"/>
+      <c r="C143" s="2"/>
+      <c r="D143" s="2"/>
+    </row>
+    <row r="144" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A144" s="3">
+        <v>1</v>
+      </c>
+      <c r="B144" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="C144" s="3"/>
+      <c r="D144" s="3"/>
+    </row>
+    <row r="145" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A145" s="3">
+        <v>2</v>
+      </c>
+      <c r="B145" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="C145" s="3"/>
+      <c r="D145" s="3"/>
+    </row>
+    <row r="146" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A146" s="3">
+        <v>3</v>
+      </c>
+      <c r="B146" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="C146" s="3"/>
+      <c r="D146" s="3"/>
+    </row>
+    <row r="147" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A147" s="3">
+        <v>4</v>
+      </c>
+      <c r="B147" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="C147" s="3"/>
+      <c r="D147" s="3"/>
+    </row>
+    <row r="148" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A148" s="3">
+        <v>5</v>
+      </c>
+      <c r="B148" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="C148" s="3"/>
+      <c r="D148" s="3"/>
+    </row>
+    <row r="149" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A149" s="2" t="s">
         <v>282</v>
       </c>
-      <c r="B142" s="5"/>
-      <c r="C142" s="5"/>
-      <c r="D142" s="5"/>
-    </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B143" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B144" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B145" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B146" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B147" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A148" s="5" t="s">
+      <c r="B149" s="2"/>
+      <c r="C149" s="2"/>
+      <c r="D149" s="2"/>
+    </row>
+    <row r="150" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A150" s="3">
+        <v>1</v>
+      </c>
+      <c r="B150" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="C150" s="3"/>
+      <c r="D150" s="3"/>
+    </row>
+    <row r="151" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A151" s="3">
+        <v>2</v>
+      </c>
+      <c r="B151" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="C151" s="3"/>
+      <c r="D151" s="3"/>
+    </row>
+    <row r="152" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A152" s="3">
+        <v>3</v>
+      </c>
+      <c r="B152" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="C152" s="3"/>
+      <c r="D152" s="3"/>
+    </row>
+    <row r="153" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A153" s="3">
+        <v>4</v>
+      </c>
+      <c r="B153" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="C153" s="3"/>
+      <c r="D153" s="3"/>
+    </row>
+    <row r="154" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A154" s="3">
+        <v>5</v>
+      </c>
+      <c r="B154" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="C154" s="3"/>
+      <c r="D154" s="3"/>
+    </row>
+    <row r="155" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A155" s="3">
+        <v>6</v>
+      </c>
+      <c r="B155" s="3" t="s">
+        <v>293</v>
+      </c>
+      <c r="C155" s="3"/>
+      <c r="D155" s="3"/>
+    </row>
+    <row r="156" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A156" s="3">
+        <v>7</v>
+      </c>
+      <c r="B156" s="3" t="s">
+        <v>294</v>
+      </c>
+      <c r="C156" s="3"/>
+      <c r="D156" s="3"/>
+    </row>
+    <row r="157" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A157" s="3">
+        <v>8</v>
+      </c>
+      <c r="B157" s="3" t="s">
+        <v>295</v>
+      </c>
+      <c r="C157" s="3"/>
+      <c r="D157" s="3"/>
+    </row>
+    <row r="158" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A158" s="2" t="s">
         <v>283</v>
       </c>
-      <c r="B148" s="5"/>
-      <c r="C148" s="5"/>
-      <c r="D148" s="5"/>
-    </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B149" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B150" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B151" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B152" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B153" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A154" s="5" t="s">
+      <c r="B158" s="2"/>
+      <c r="C158" s="2"/>
+      <c r="D158" s="2"/>
+    </row>
+    <row r="159" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A159" s="3">
+        <v>1</v>
+      </c>
+      <c r="B159" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="C159" s="3"/>
+      <c r="D159" s="3"/>
+    </row>
+    <row r="160" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A160" s="3">
+        <v>2</v>
+      </c>
+      <c r="B160" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="C160" s="3"/>
+      <c r="D160" s="3"/>
+    </row>
+    <row r="161" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A161" s="3">
+        <v>3</v>
+      </c>
+      <c r="B161" s="3" t="s">
+        <v>275</v>
+      </c>
+      <c r="C161" s="3"/>
+      <c r="D161" s="3"/>
+    </row>
+    <row r="162" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A162" s="2" t="s">
         <v>284</v>
       </c>
-      <c r="B154" s="5"/>
-      <c r="C154" s="5"/>
-      <c r="D154" s="5"/>
-    </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B155" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B156" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B157" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A158" s="5" t="s">
+      <c r="B162" s="2"/>
+      <c r="C162" s="2"/>
+      <c r="D162" s="2"/>
+    </row>
+    <row r="163" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A163" s="3">
+        <v>1</v>
+      </c>
+      <c r="B163" s="4" t="s">
+        <v>240</v>
+      </c>
+      <c r="C163" s="3"/>
+      <c r="D163" s="3"/>
+    </row>
+    <row r="164" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A164" s="3">
+        <v>2</v>
+      </c>
+      <c r="B164" s="4" t="s">
+        <v>241</v>
+      </c>
+      <c r="C164" s="3"/>
+      <c r="D164" s="3"/>
+    </row>
+    <row r="165" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A165" s="3">
+        <v>3</v>
+      </c>
+      <c r="B165" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C165" s="3"/>
+      <c r="D165" s="3"/>
+    </row>
+    <row r="166" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A166" s="3">
+        <v>4</v>
+      </c>
+      <c r="B166" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="C166" s="3"/>
+      <c r="D166" s="3"/>
+    </row>
+    <row r="167" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A167" s="3">
+        <v>5</v>
+      </c>
+      <c r="B167" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="C167" s="3"/>
+      <c r="D167" s="3"/>
+    </row>
+    <row r="168" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A168" s="3">
+        <v>6</v>
+      </c>
+      <c r="B168" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="C168" s="3"/>
+      <c r="D168" s="3"/>
+    </row>
+    <row r="169" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A169" s="3">
+        <v>7</v>
+      </c>
+      <c r="B169" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="C169" s="3"/>
+      <c r="D169" s="3"/>
+    </row>
+    <row r="170" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A170" s="3">
+        <v>8</v>
+      </c>
+      <c r="B170" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="C170" s="3"/>
+      <c r="D170" s="3"/>
+    </row>
+    <row r="171" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A171" s="3">
+        <v>9</v>
+      </c>
+      <c r="B171" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="C171" s="3"/>
+      <c r="D171" s="3"/>
+    </row>
+    <row r="172" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A172" s="3">
+        <v>10</v>
+      </c>
+      <c r="B172" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="C172" s="3"/>
+      <c r="D172" s="3"/>
+    </row>
+    <row r="173" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A173" s="3">
+        <v>11</v>
+      </c>
+      <c r="B173" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="C173" s="3"/>
+      <c r="D173" s="3"/>
+    </row>
+    <row r="174" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A174" s="3">
+        <v>12</v>
+      </c>
+      <c r="B174" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="C174" s="3"/>
+      <c r="D174" s="3"/>
+    </row>
+    <row r="175" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A175" s="3">
+        <v>13</v>
+      </c>
+      <c r="B175" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="C175" s="3"/>
+      <c r="D175" s="3"/>
+    </row>
+    <row r="176" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A176" s="3">
+        <v>14</v>
+      </c>
+      <c r="B176" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="C176" s="3"/>
+      <c r="D176" s="3"/>
+    </row>
+    <row r="177" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A177" s="3">
+        <v>15</v>
+      </c>
+      <c r="B177" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="C177" s="3"/>
+      <c r="D177" s="3"/>
+    </row>
+    <row r="178" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A178" s="3">
+        <v>16</v>
+      </c>
+      <c r="B178" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="C178" s="3"/>
+      <c r="D178" s="3"/>
+    </row>
+    <row r="179" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A179" s="3">
+        <v>17</v>
+      </c>
+      <c r="B179" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="C179" s="3"/>
+      <c r="D179" s="3"/>
+    </row>
+    <row r="180" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A180" s="3">
+        <v>18</v>
+      </c>
+      <c r="B180" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="C180" s="3"/>
+      <c r="D180" s="3"/>
+    </row>
+    <row r="181" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A181" s="3">
+        <v>19</v>
+      </c>
+      <c r="B181" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="C181" s="3"/>
+      <c r="D181" s="3"/>
+    </row>
+    <row r="182" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A182" s="3">
+        <v>20</v>
+      </c>
+      <c r="B182" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="C182" s="3"/>
+      <c r="D182" s="3"/>
+    </row>
+    <row r="183" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A183" s="3">
+        <v>21</v>
+      </c>
+      <c r="B183" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="C183" s="3"/>
+      <c r="D183" s="3"/>
+    </row>
+    <row r="184" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A184" s="3">
+        <v>22</v>
+      </c>
+      <c r="B184" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="C184" s="3"/>
+      <c r="D184" s="3"/>
+    </row>
+    <row r="185" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A185" s="3">
+        <v>23</v>
+      </c>
+      <c r="B185" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="C185" s="3"/>
+      <c r="D185" s="3"/>
+    </row>
+    <row r="186" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A186" s="3">
+        <v>24</v>
+      </c>
+      <c r="B186" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="C186" s="3"/>
+      <c r="D186" s="3"/>
+    </row>
+    <row r="187" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A187" s="3">
+        <v>25</v>
+      </c>
+      <c r="B187" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="C187" s="3"/>
+      <c r="D187" s="3"/>
+    </row>
+    <row r="188" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A188" s="2" t="s">
         <v>285</v>
       </c>
-      <c r="B158" s="5"/>
-      <c r="C158" s="5"/>
-      <c r="D158" s="5"/>
-    </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B159" s="1" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B160" s="1" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="161" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B161" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="162" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B162" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="163" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B163" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="164" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B164" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="165" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B165" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="166" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B166" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="167" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B167" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="168" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B168" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="169" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B169" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="170" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B170" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="171" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B171" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="172" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B172" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="173" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B173" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="174" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B174" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="175" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B175" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="176" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B176" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B177" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B178" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B179" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B180" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B181" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B182" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="183" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B183" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="184" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A184" s="5" t="s">
+      <c r="B188" s="2"/>
+      <c r="C188" s="2"/>
+      <c r="D188" s="2"/>
+    </row>
+    <row r="189" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A189" s="3">
+        <v>1</v>
+      </c>
+      <c r="B189" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C189" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D189" s="3"/>
+    </row>
+    <row r="190" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A190" s="3">
+        <v>2</v>
+      </c>
+      <c r="B190" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C190" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D190" s="3"/>
+    </row>
+    <row r="191" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A191" s="3">
+        <v>3</v>
+      </c>
+      <c r="B191" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C191" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D191" s="3"/>
+    </row>
+    <row r="192" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A192" s="3">
+        <v>4</v>
+      </c>
+      <c r="B192" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="C192" s="3"/>
+      <c r="D192" s="3"/>
+    </row>
+    <row r="193" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A193" s="3">
+        <v>5</v>
+      </c>
+      <c r="B193" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="C193" s="3"/>
+      <c r="D193" s="3"/>
+    </row>
+    <row r="194" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A194" s="3">
+        <v>6</v>
+      </c>
+      <c r="B194" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="C194" s="3"/>
+      <c r="D194" s="3"/>
+    </row>
+    <row r="195" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A195" s="3">
+        <v>7</v>
+      </c>
+      <c r="B195" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="C195" s="3"/>
+      <c r="D195" s="3"/>
+    </row>
+    <row r="196" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A196" s="3">
+        <v>8</v>
+      </c>
+      <c r="B196" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C196" s="3"/>
+      <c r="D196" s="3"/>
+    </row>
+    <row r="197" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A197" s="3">
+        <v>9</v>
+      </c>
+      <c r="B197" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C197" s="3"/>
+      <c r="D197" s="3"/>
+    </row>
+    <row r="198" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A198" s="3">
+        <v>10</v>
+      </c>
+      <c r="B198" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C198" s="3"/>
+      <c r="D198" s="3"/>
+    </row>
+    <row r="199" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A199" s="3">
+        <v>11</v>
+      </c>
+      <c r="B199" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C199" s="3"/>
+      <c r="D199" s="3"/>
+    </row>
+    <row r="200" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A200" s="3">
+        <v>12</v>
+      </c>
+      <c r="B200" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C200" s="3"/>
+      <c r="D200" s="3"/>
+    </row>
+    <row r="201" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A201" s="3">
+        <v>13</v>
+      </c>
+      <c r="B201" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="C201" s="3"/>
+      <c r="D201" s="3"/>
+    </row>
+    <row r="202" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A202" s="3">
+        <v>14</v>
+      </c>
+      <c r="B202" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="C202" s="3"/>
+      <c r="D202" s="3"/>
+    </row>
+    <row r="203" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A203" s="3">
+        <v>15</v>
+      </c>
+      <c r="B203" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="C203" s="3"/>
+      <c r="D203" s="3"/>
+    </row>
+    <row r="204" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A204" s="3">
+        <v>16</v>
+      </c>
+      <c r="B204" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="C204" s="3"/>
+      <c r="D204" s="3"/>
+    </row>
+    <row r="205" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A205" s="3">
+        <v>17</v>
+      </c>
+      <c r="B205" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="C205" s="3"/>
+      <c r="D205" s="3"/>
+    </row>
+    <row r="206" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A206" s="3">
+        <v>18</v>
+      </c>
+      <c r="B206" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="C206" s="3"/>
+      <c r="D206" s="3"/>
+    </row>
+    <row r="207" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A207" s="3">
+        <v>19</v>
+      </c>
+      <c r="B207" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="C207" s="3"/>
+      <c r="D207" s="3"/>
+    </row>
+    <row r="208" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A208" s="3">
+        <v>20</v>
+      </c>
+      <c r="B208" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="C208" s="3"/>
+      <c r="D208" s="3"/>
+    </row>
+    <row r="209" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A209" s="3">
+        <v>21</v>
+      </c>
+      <c r="B209" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="C209" s="3"/>
+      <c r="D209" s="3"/>
+    </row>
+    <row r="210" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A210" s="3">
+        <v>22</v>
+      </c>
+      <c r="B210" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="C210" s="3"/>
+      <c r="D210" s="3"/>
+    </row>
+    <row r="211" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A211" s="2" t="s">
         <v>286</v>
       </c>
-      <c r="B184" s="5"/>
-      <c r="C184" s="5"/>
-      <c r="D184" s="5"/>
-    </row>
-    <row r="185" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B185" t="s">
-        <v>0</v>
-      </c>
-      <c r="C185" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="186" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B186" t="s">
+      <c r="B211" s="2"/>
+      <c r="C211" s="2"/>
+      <c r="D211" s="2"/>
+    </row>
+    <row r="212" spans="1:4" ht="54" x14ac:dyDescent="0.15">
+      <c r="A212" s="3">
         <v>1</v>
       </c>
-      <c r="C186" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="187" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B187" t="s">
+      <c r="B212" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C212" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="D212" s="6" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="213" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A213" s="3">
         <v>2</v>
       </c>
-      <c r="C187" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="188" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B188" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="189" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B189" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="190" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B190" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="191" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B191" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="192" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B192" t="s">
+      <c r="B213" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C213" s="3"/>
+      <c r="D213" s="6"/>
+    </row>
+    <row r="214" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A214" s="3">
         <v>3</v>
       </c>
-    </row>
-    <row r="193" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B193" t="s">
+      <c r="B214" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C214" s="3"/>
+      <c r="D214" s="6"/>
+    </row>
+    <row r="215" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A215" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="194" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B194" t="s">
+      <c r="B215" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C215" s="3"/>
+      <c r="D215" s="6"/>
+    </row>
+    <row r="216" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A216" s="3">
         <v>5</v>
       </c>
-    </row>
-    <row r="195" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B195" t="s">
+      <c r="B216" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C216" s="3"/>
+      <c r="D216" s="6"/>
+    </row>
+    <row r="217" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A217" s="3">
         <v>6</v>
       </c>
-    </row>
-    <row r="196" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B196" t="s">
+      <c r="B217" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C217" s="3"/>
+      <c r="D217" s="6" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="218" spans="1:4" ht="27" x14ac:dyDescent="0.15">
+      <c r="A218" s="3">
         <v>7</v>
       </c>
-    </row>
-    <row r="197" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B197" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="198" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B198" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="199" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B199" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="200" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B200" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="201" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B201" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="202" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B202" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="203" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B203" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="204" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B204" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="205" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B205" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="206" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B206" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="207" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A207" s="5" t="s">
+      <c r="B218" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C218" s="3"/>
+      <c r="D218" s="6" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="219" spans="1:4" ht="27" x14ac:dyDescent="0.15">
+      <c r="A219" s="3">
+        <v>8</v>
+      </c>
+      <c r="B219" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C219" s="3"/>
+      <c r="D219" s="6" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="220" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A220" s="3">
+        <v>9</v>
+      </c>
+      <c r="B220" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C220" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="D220" s="6" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="221" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A221" s="3">
+        <v>10</v>
+      </c>
+      <c r="B221" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="C221" s="3"/>
+      <c r="D221" s="3"/>
+    </row>
+    <row r="222" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A222" s="3">
+        <v>11</v>
+      </c>
+      <c r="B222" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="C222" s="3"/>
+      <c r="D222" s="3"/>
+    </row>
+    <row r="223" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A223" s="3">
+        <v>12</v>
+      </c>
+      <c r="B223" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="C223" s="3"/>
+      <c r="D223" s="3"/>
+    </row>
+    <row r="224" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A224" s="3">
+        <v>13</v>
+      </c>
+      <c r="B224" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="C224" s="3"/>
+      <c r="D224" s="3"/>
+    </row>
+    <row r="225" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A225" s="2" t="s">
         <v>287</v>
       </c>
-      <c r="B207" s="5"/>
-      <c r="C207" s="5"/>
-      <c r="D207" s="5"/>
-    </row>
-    <row r="208" spans="1:4" ht="54" x14ac:dyDescent="0.15">
-      <c r="B208" t="s">
-        <v>34</v>
-      </c>
-      <c r="C208" t="s">
-        <v>115</v>
-      </c>
-      <c r="D208" s="4" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="209" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B209" t="s">
-        <v>35</v>
-      </c>
-      <c r="D209" s="4"/>
-    </row>
-    <row r="210" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B210" t="s">
-        <v>36</v>
-      </c>
-      <c r="D210" s="4"/>
-    </row>
-    <row r="211" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B211" t="s">
-        <v>37</v>
-      </c>
-      <c r="D211" s="4"/>
-    </row>
-    <row r="212" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B212" t="s">
-        <v>38</v>
-      </c>
-      <c r="D212" s="4"/>
-    </row>
-    <row r="213" spans="1:4" ht="27" x14ac:dyDescent="0.15">
-      <c r="B213" t="s">
-        <v>30</v>
-      </c>
-      <c r="D213" s="4" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="214" spans="1:4" ht="27" x14ac:dyDescent="0.15">
-      <c r="B214" t="s">
-        <v>31</v>
-      </c>
-      <c r="D214" s="4" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="215" spans="1:4" ht="27" x14ac:dyDescent="0.15">
-      <c r="B215" t="s">
-        <v>32</v>
-      </c>
-      <c r="D215" s="4" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="216" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B216" t="s">
-        <v>33</v>
-      </c>
-      <c r="C216" t="s">
-        <v>114</v>
-      </c>
-      <c r="D216" s="4" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="217" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B217" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="218" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B218" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="219" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B219" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="220" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B220" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="221" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A221" s="5" t="s">
+      <c r="B225" s="2"/>
+      <c r="C225" s="2"/>
+      <c r="D225" s="2"/>
+    </row>
+    <row r="226" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A226" s="3">
+        <v>1</v>
+      </c>
+      <c r="B226" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C226" s="3"/>
+      <c r="D226" s="3"/>
+    </row>
+    <row r="227" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A227" s="3">
+        <v>2</v>
+      </c>
+      <c r="B227" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="C227" s="3"/>
+      <c r="D227" s="3"/>
+    </row>
+    <row r="228" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A228" s="3">
+        <v>3</v>
+      </c>
+      <c r="B228" s="3" t="s">
+        <v>259</v>
+      </c>
+      <c r="C228" s="3"/>
+      <c r="D228" s="3"/>
+    </row>
+    <row r="229" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A229" s="3">
+        <v>4</v>
+      </c>
+      <c r="B229" s="3" t="s">
+        <v>260</v>
+      </c>
+      <c r="C229" s="3"/>
+      <c r="D229" s="3"/>
+    </row>
+    <row r="230" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A230" s="3">
+        <v>5</v>
+      </c>
+      <c r="B230" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="C230" s="3"/>
+      <c r="D230" s="3"/>
+    </row>
+    <row r="231" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A231" s="2" t="s">
         <v>288</v>
       </c>
-      <c r="B221" s="5"/>
-      <c r="C221" s="5"/>
-      <c r="D221" s="5"/>
-    </row>
-    <row r="222" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B222" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="223" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B223" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="224" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B224" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="225" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B225" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="226" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B226" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="227" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A227" s="5" t="s">
+      <c r="B231" s="2"/>
+      <c r="C231" s="2"/>
+      <c r="D231" s="2"/>
+    </row>
+    <row r="232" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A232" s="3">
+        <v>1</v>
+      </c>
+      <c r="B232" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C232" s="3"/>
+      <c r="D232" s="3"/>
+    </row>
+    <row r="233" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A233" s="3">
+        <v>2</v>
+      </c>
+      <c r="B233" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C233" s="3"/>
+      <c r="D233" s="3"/>
+    </row>
+    <row r="234" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A234" s="3">
+        <v>3</v>
+      </c>
+      <c r="B234" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C234" s="3"/>
+      <c r="D234" s="3"/>
+    </row>
+    <row r="235" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A235" s="3">
+        <v>4</v>
+      </c>
+      <c r="B235" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C235" s="3"/>
+      <c r="D235" s="3"/>
+    </row>
+    <row r="236" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A236" s="2" t="s">
         <v>289</v>
       </c>
-      <c r="B227" s="5"/>
-      <c r="C227" s="5"/>
-      <c r="D227" s="5"/>
-    </row>
-    <row r="228" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B228" t="s">
+      <c r="B236" s="2"/>
+      <c r="C236" s="2"/>
+      <c r="D236" s="2"/>
+    </row>
+    <row r="237" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A237" s="3">
+        <v>1</v>
+      </c>
+      <c r="B237" s="3" t="s">
+        <v>257</v>
+      </c>
+      <c r="C237" s="3"/>
+      <c r="D237" s="3"/>
+    </row>
+    <row r="238" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A238" s="3">
+        <v>2</v>
+      </c>
+      <c r="B238" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="C238" s="3"/>
+      <c r="D238" s="3"/>
+    </row>
+    <row r="239" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A239" s="3">
+        <v>3</v>
+      </c>
+      <c r="B239" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="C239" s="3"/>
+      <c r="D239" s="3"/>
+    </row>
+    <row r="240" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A240" s="3">
+        <v>4</v>
+      </c>
+      <c r="B240" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="C240" s="3"/>
+      <c r="D240" s="3"/>
+    </row>
+    <row r="241" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A241" s="3">
+        <v>5</v>
+      </c>
+      <c r="B241" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="C241" s="3"/>
+      <c r="D241" s="3"/>
+    </row>
+    <row r="242" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A242" s="3">
+        <v>6</v>
+      </c>
+      <c r="B242" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="C242" s="3"/>
+      <c r="D242" s="3"/>
+    </row>
+    <row r="243" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A243" s="3">
+        <v>7</v>
+      </c>
+      <c r="B243" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="C243" s="3"/>
+      <c r="D243" s="3"/>
+    </row>
+    <row r="244" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A244" s="3">
+        <v>8</v>
+      </c>
+      <c r="B244" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="C244" s="3"/>
+      <c r="D244" s="3"/>
+    </row>
+    <row r="245" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A245" s="3">
+        <v>9</v>
+      </c>
+      <c r="B245" s="3" t="s">
+        <v>268</v>
+      </c>
+      <c r="C245" s="3"/>
+      <c r="D245" s="3"/>
+    </row>
+    <row r="246" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A246" s="3">
+        <v>10</v>
+      </c>
+      <c r="B246" s="3" t="s">
+        <v>269</v>
+      </c>
+      <c r="C246" s="3"/>
+      <c r="D246" s="3"/>
+    </row>
+    <row r="247" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A247" s="3">
+        <v>11</v>
+      </c>
+      <c r="B247" s="3" t="s">
+        <v>270</v>
+      </c>
+      <c r="C247" s="3"/>
+      <c r="D247" s="3"/>
+    </row>
+    <row r="248" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A248" s="3">
         <v>12</v>
       </c>
-    </row>
-    <row r="229" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B229" t="s">
+      <c r="B248" s="3" t="s">
+        <v>271</v>
+      </c>
+      <c r="C248" s="3"/>
+      <c r="D248" s="3"/>
+    </row>
+    <row r="249" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A249" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="B249" s="2"/>
+      <c r="C249" s="2"/>
+      <c r="D249" s="2"/>
+    </row>
+    <row r="250" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A250" s="3">
+        <v>1</v>
+      </c>
+      <c r="B250" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="C250" s="3"/>
+      <c r="D250" s="3"/>
+    </row>
+    <row r="251" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A251" s="3">
+        <v>2</v>
+      </c>
+      <c r="B251" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="C251" s="3"/>
+      <c r="D251" s="3"/>
+    </row>
+    <row r="252" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A252" s="3">
+        <v>3</v>
+      </c>
+      <c r="B252" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="C252" s="3"/>
+      <c r="D252" s="3"/>
+    </row>
+    <row r="253" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A253" s="3">
+        <v>4</v>
+      </c>
+      <c r="B253" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="C253" s="3"/>
+      <c r="D253" s="3"/>
+    </row>
+    <row r="254" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A254" s="3">
+        <v>5</v>
+      </c>
+      <c r="B254" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="C254" s="3"/>
+      <c r="D254" s="3"/>
+    </row>
+    <row r="255" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A255" s="3">
+        <v>6</v>
+      </c>
+      <c r="B255" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="C255" s="3"/>
+      <c r="D255" s="3"/>
+    </row>
+    <row r="256" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A256" s="3">
+        <v>7</v>
+      </c>
+      <c r="B256" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="C256" s="3"/>
+      <c r="D256" s="3"/>
+    </row>
+    <row r="257" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A257" s="3">
+        <v>8</v>
+      </c>
+      <c r="B257" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="C257" s="3"/>
+      <c r="D257" s="3"/>
+    </row>
+    <row r="258" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A258" s="3">
+        <v>9</v>
+      </c>
+      <c r="B258" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="C258" s="3"/>
+      <c r="D258" s="3"/>
+    </row>
+    <row r="259" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A259" s="3">
+        <v>10</v>
+      </c>
+      <c r="B259" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="C259" s="3"/>
+      <c r="D259" s="3"/>
+    </row>
+    <row r="260" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A260" s="3">
+        <v>11</v>
+      </c>
+      <c r="B260" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="C260" s="3"/>
+      <c r="D260" s="3"/>
+    </row>
+    <row r="261" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A261" s="3">
+        <v>12</v>
+      </c>
+      <c r="B261" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="C261" s="3"/>
+      <c r="D261" s="3"/>
+    </row>
+    <row r="262" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A262" s="3">
         <v>13</v>
       </c>
-    </row>
-    <row r="230" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B230" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="231" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B231" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="232" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A232" s="5" t="s">
-        <v>290</v>
-      </c>
-      <c r="B232" s="5"/>
-      <c r="C232" s="5"/>
-      <c r="D232" s="5"/>
-    </row>
-    <row r="233" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B233" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="234" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B234" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="235" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B235" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="236" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B236" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="237" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B237" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="238" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B238" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="239" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B239" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="240" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B240" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="241" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B241" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="242" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B242" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="243" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B243" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="244" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B244" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="245" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A245" s="5" t="s">
+      <c r="B262" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="C262" s="3"/>
+      <c r="D262" s="3"/>
+    </row>
+    <row r="263" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A263" s="2" t="s">
         <v>291</v>
       </c>
-      <c r="B245" s="5"/>
-      <c r="C245" s="5"/>
-      <c r="D245" s="5"/>
-    </row>
-    <row r="246" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B246" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="247" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B247" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="248" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B248" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="249" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B249" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="250" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B250" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="251" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B251" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="252" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B252" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="253" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B253" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="254" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B254" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="255" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B255" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="256" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B256" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="257" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B257" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="258" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B258" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="259" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A259" s="5" t="s">
-        <v>292</v>
-      </c>
-      <c r="B259" s="5"/>
-      <c r="C259" s="5"/>
-      <c r="D259" s="5"/>
-    </row>
-    <row r="260" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B260" t="s">
+      <c r="B263" s="2"/>
+      <c r="C263" s="2"/>
+      <c r="D263" s="2"/>
+    </row>
+    <row r="264" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A264" s="3">
+        <v>1</v>
+      </c>
+      <c r="B264" s="3" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="261" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B261" t="s">
+      <c r="C264" s="3"/>
+      <c r="D264" s="3"/>
+    </row>
+    <row r="265" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A265" s="3">
+        <v>2</v>
+      </c>
+      <c r="B265" s="3" t="s">
         <v>178</v>
       </c>
-    </row>
-    <row r="262" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B262" t="s">
+      <c r="C265" s="3"/>
+      <c r="D265" s="3"/>
+    </row>
+    <row r="266" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A266" s="3">
+        <v>3</v>
+      </c>
+      <c r="B266" s="3" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="263" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B263" t="s">
+      <c r="C266" s="3"/>
+      <c r="D266" s="3"/>
+    </row>
+    <row r="267" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A267" s="3">
+        <v>4</v>
+      </c>
+      <c r="B267" s="3" t="s">
         <v>180</v>
       </c>
-    </row>
-    <row r="264" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B264" t="s">
+      <c r="C267" s="3"/>
+      <c r="D267" s="3"/>
+    </row>
+    <row r="268" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A268" s="3">
+        <v>5</v>
+      </c>
+      <c r="B268" s="3" t="s">
         <v>181</v>
       </c>
-    </row>
-    <row r="265" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B265" t="s">
+      <c r="C268" s="3"/>
+      <c r="D268" s="3"/>
+    </row>
+    <row r="269" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A269" s="3">
+        <v>6</v>
+      </c>
+      <c r="B269" s="3" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="266" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B266" t="s">
+      <c r="C269" s="3"/>
+      <c r="D269" s="3"/>
+    </row>
+    <row r="270" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A270" s="3">
+        <v>7</v>
+      </c>
+      <c r="B270" s="3" t="s">
         <v>246</v>
       </c>
+      <c r="C270" s="3"/>
+      <c r="D270" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="A259:D259"/>
-    <mergeCell ref="A207:D207"/>
-    <mergeCell ref="A221:D221"/>
-    <mergeCell ref="A227:D227"/>
-    <mergeCell ref="A232:D232"/>
-    <mergeCell ref="A245:D245"/>
-    <mergeCell ref="A142:D142"/>
-    <mergeCell ref="A148:D148"/>
-    <mergeCell ref="A154:D154"/>
-    <mergeCell ref="A158:D158"/>
-    <mergeCell ref="A184:D184"/>
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="A19:D19"/>
     <mergeCell ref="A42:D42"/>
     <mergeCell ref="A84:D84"/>
     <mergeCell ref="A139:D139"/>
     <mergeCell ref="A112:D112"/>
+    <mergeCell ref="A143:D143"/>
+    <mergeCell ref="A149:D149"/>
+    <mergeCell ref="A158:D158"/>
+    <mergeCell ref="A162:D162"/>
+    <mergeCell ref="A188:D188"/>
+    <mergeCell ref="A263:D263"/>
+    <mergeCell ref="A211:D211"/>
+    <mergeCell ref="A225:D225"/>
+    <mergeCell ref="A231:D231"/>
+    <mergeCell ref="A236:D236"/>
+    <mergeCell ref="A249:D249"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <webPublishItems count="1">
-    <webPublishItem id="27433" divId="BookList_27433" sourceType="sheet" destinationFile="G:\Projects\jacksoncode.github.io\doc\BookList.htm"/>
+    <webPublishItem id="27433" divId="BookList_27433" sourceType="sheet" destinationFile="G:\Projects\jacksoncode.github.io\doc\BookList.htm" autoRepublish="1"/>
   </webPublishItems>
 </worksheet>
 </file>

--- a/doc/BookList.xlsx
+++ b/doc/BookList.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="297">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="422" uniqueCount="392">
   <si>
     <t>民主的细节</t>
   </si>
@@ -1141,6 +1141,388 @@
   </si>
   <si>
     <t>超级快速阅读</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>18. 见闻阅读2017书单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>投资的常识</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>乔.卡伦</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>伯顿.马尔基尔
+查尔斯.埃利斯</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查尔斯.埃利斯</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>约翰.勒菲佛</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>威廉.庞德斯通</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>瑞.达利欧</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小岛经济学</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>彼得.希夫
+安德鲁.希夫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>区块链数字货币投资指南</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>丹华、李涛、邬烈翰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>社会共通资本</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>宇泽弘文</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>商业管理——杜葵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>商业管理——陈生民</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>科技趋势——车品觉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>科技趋势——苟利军</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一个聪明的投资者：本杰明.格雷厄姆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>指数革命：跟大师学指数投资</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高盛小道消息：华尔街的圈钱游戏</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>原则</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>全新思维</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>驱动力</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>体验经济</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>精要主义</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>别让猴子跳回后背</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>绝佳提问</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>让会议卓有成效</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>七个天才团队的故事</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统之美</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>基因传</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>半个地球</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>共病时代</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>太空生存指南</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>引力波</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>优秀到不能被忽视</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>深度工作</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>工匠精神</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>伟大创意的诞生</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>吃的美德</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>为食物辩护</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无病时代</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>生命的另一种可能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最好的抉择</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>逻辑哲学论</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中国哲学简史</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>明亮的对话</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>为未知而教，为未来而学</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>为孩子重塑教育，更有可能成功的路</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>让天赋自由</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如何学习</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>让大脑自由</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>复盘+:把经验转化为能力</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如何系统思考</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>百万富翁快车道</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>解读基金</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>优秀的绵羊</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据不会说谎</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>赤裸裸的统计学</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>万万没想到</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>人是如何学习的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>三重专注力</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>共鸣的灵魂</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>发现天赋的15个训练方法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>社交经济</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新零售的未来</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>百岁人生</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>科技趋势——尹烨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>人文心理——徐卓</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>人文心理——杨红玉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学习教养——罗玲</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学习教养——邱昭良</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>epub</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mobi</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已有？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>azw3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mobi</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>epub</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>重复</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>epub</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>赌神数学家：战胜拉斯维加斯和金融市场的财富公式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>umd/azw3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>epub</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>掌阅-3298</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>19. 湛庐2018推荐书单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20. 其它</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>掌阅-5880</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>none</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>掌阅-5399</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>掌阅-5280</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>掌阅-5299</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>掌阅-4140</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>掌阅-3899</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>掌阅已有</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1148,7 +1530,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1167,18 +1549,23 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <family val="3"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <family val="3"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
-      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="4">
@@ -1201,7 +1588,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -1224,22 +1611,51 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="2" tint="-9.9978637043366805E-2"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="2" tint="-9.9978637043366805E-2"/>
+      </top>
+      <bottom style="thin">
+        <color theme="2" tint="-9.9978637043366805E-2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="2" tint="-9.9978637043366805E-2"/>
+      </right>
+      <top style="thin">
+        <color theme="2" tint="-9.9978637043366805E-2"/>
+      </top>
+      <bottom style="thin">
+        <color theme="2" tint="-9.9978637043366805E-2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1544,22 +1960,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D270"/>
+  <dimension ref="A1:E341"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A74" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C88" sqref="C88"/>
+      <pane ySplit="1" topLeftCell="A305" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D325" sqref="D325"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="5" customWidth="1"/>
-    <col min="2" max="2" width="38.25" customWidth="1"/>
-    <col min="3" max="3" width="13.5" customWidth="1"/>
-    <col min="4" max="4" width="52" customWidth="1"/>
+    <col min="1" max="1" width="5" style="2" customWidth="1"/>
+    <col min="2" max="2" width="38.25" style="2" customWidth="1"/>
+    <col min="3" max="3" width="13.5" style="2" customWidth="1"/>
+    <col min="4" max="4" width="9.875" style="2" customWidth="1"/>
+    <col min="5" max="5" width="52" style="2" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>92</v>
       </c>
@@ -1570,2724 +1988,3855 @@
         <v>94</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" s="3" t="s">
         <v>276</v>
       </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A3" s="3">
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="4">
         <v>1</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A4" s="3">
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="4">
         <v>2</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A5" s="3">
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" s="4">
         <v>3</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="D5" s="3"/>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A6" s="3">
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" s="4">
         <v>4</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A7" s="3">
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" s="4">
         <v>5</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A8" s="3">
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" s="4">
         <v>6</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A9" s="3">
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" s="4">
         <v>7</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="5" t="s">
         <v>191</v>
       </c>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A10" s="3">
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" s="4">
         <v>8</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="5" t="s">
         <v>192</v>
       </c>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A11" s="3">
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" s="4">
         <v>9</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B11" s="5" t="s">
         <v>193</v>
       </c>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A12" s="3">
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" s="4">
         <v>10</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B12" s="5" t="s">
         <v>194</v>
       </c>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A13" s="3">
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" s="4">
         <v>11</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="B13" s="5" t="s">
         <v>195</v>
       </c>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A14" s="3">
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14" s="4">
         <v>12</v>
       </c>
-      <c r="B14" s="4" t="s">
+      <c r="B14" s="5" t="s">
         <v>251</v>
       </c>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A15" s="3">
+      <c r="C14" s="4"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15" s="4">
         <v>13</v>
       </c>
-      <c r="B15" s="4" t="s">
+      <c r="B15" s="5" t="s">
         <v>252</v>
       </c>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A16" s="3">
+      <c r="C15" s="4"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16" s="4">
         <v>14</v>
       </c>
-      <c r="B16" s="4" t="s">
+      <c r="B16" s="5" t="s">
         <v>253</v>
       </c>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A17" s="3">
+      <c r="C16" s="4"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17" s="4">
         <v>15</v>
       </c>
-      <c r="B17" s="4" t="s">
+      <c r="B17" s="5" t="s">
         <v>254</v>
       </c>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A18" s="3">
+      <c r="C17" s="4"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18" s="4">
         <v>16</v>
       </c>
-      <c r="B18" s="4" t="s">
+      <c r="B18" s="5" t="s">
         <v>255</v>
       </c>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A19" s="2" t="s">
+      <c r="C18" s="4"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="4"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19" s="3" t="s">
         <v>277</v>
       </c>
-      <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A20" s="3">
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20" s="4">
         <v>1</v>
       </c>
-      <c r="B20" s="3" t="s">
+      <c r="B20" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="C20" s="3" t="s">
+      <c r="C20" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="D20" s="3"/>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A21" s="3">
+      <c r="D20" s="4"/>
+      <c r="E20" s="4"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21" s="4">
         <v>2</v>
       </c>
-      <c r="B21" s="3" t="s">
+      <c r="B21" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A22" s="3">
+      <c r="C21" s="4"/>
+      <c r="D21" s="4"/>
+      <c r="E21" s="4"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A22" s="4">
         <v>3</v>
       </c>
-      <c r="B22" s="3" t="s">
+      <c r="B22" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="C22" s="3"/>
-      <c r="D22" s="3"/>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A23" s="3">
+      <c r="C22" s="4"/>
+      <c r="D22" s="4"/>
+      <c r="E22" s="4"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A23" s="4">
         <v>4</v>
       </c>
-      <c r="B23" s="3" t="s">
+      <c r="B23" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="C23" s="3"/>
-      <c r="D23" s="3"/>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A24" s="3">
+      <c r="C23" s="4"/>
+      <c r="D23" s="4"/>
+      <c r="E23" s="4"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A24" s="4">
         <v>5</v>
       </c>
-      <c r="B24" s="3" t="s">
+      <c r="B24" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="C24" s="3"/>
-      <c r="D24" s="3"/>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A25" s="3">
+      <c r="C24" s="4"/>
+      <c r="D24" s="4"/>
+      <c r="E24" s="4"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A25" s="4">
         <v>6</v>
       </c>
-      <c r="B25" s="3" t="s">
+      <c r="B25" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="C25" s="3" t="s">
+      <c r="C25" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="D25" s="3"/>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A26" s="3">
+      <c r="D25" s="4"/>
+      <c r="E25" s="4"/>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A26" s="4">
         <v>7</v>
       </c>
-      <c r="B26" s="3" t="s">
+      <c r="B26" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="C26" s="3" t="s">
+      <c r="C26" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="D26" s="3"/>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A27" s="3">
+      <c r="D26" s="4"/>
+      <c r="E26" s="4"/>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A27" s="4">
         <v>8</v>
       </c>
-      <c r="B27" s="3" t="s">
+      <c r="B27" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="C27" s="3"/>
-      <c r="D27" s="3"/>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A28" s="3">
+      <c r="C27" s="4"/>
+      <c r="D27" s="4"/>
+      <c r="E27" s="4"/>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A28" s="4">
         <v>9</v>
       </c>
-      <c r="B28" s="3" t="s">
+      <c r="B28" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="C28" s="3"/>
-      <c r="D28" s="3"/>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A29" s="3">
+      <c r="C28" s="4"/>
+      <c r="D28" s="4"/>
+      <c r="E28" s="4"/>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A29" s="4">
         <v>10</v>
       </c>
-      <c r="B29" s="3" t="s">
+      <c r="B29" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="C29" s="3"/>
-      <c r="D29" s="3"/>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A30" s="3">
+      <c r="C29" s="4"/>
+      <c r="D29" s="4"/>
+      <c r="E29" s="4"/>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A30" s="4">
         <v>11</v>
       </c>
-      <c r="B30" s="3" t="s">
+      <c r="B30" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="C30" s="3"/>
-      <c r="D30" s="3"/>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A31" s="3">
+      <c r="C30" s="4"/>
+      <c r="D30" s="4"/>
+      <c r="E30" s="4"/>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A31" s="4">
         <v>12</v>
       </c>
-      <c r="B31" s="3" t="s">
+      <c r="B31" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="C31" s="3"/>
-      <c r="D31" s="3"/>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A32" s="3">
+      <c r="C31" s="4"/>
+      <c r="D31" s="4"/>
+      <c r="E31" s="4"/>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A32" s="4">
         <v>13</v>
       </c>
-      <c r="B32" s="3" t="s">
+      <c r="B32" s="4" t="s">
         <v>130</v>
       </c>
-      <c r="C32" s="3"/>
-      <c r="D32" s="3"/>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A33" s="3">
+      <c r="C32" s="4"/>
+      <c r="D32" s="4"/>
+      <c r="E32" s="4"/>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A33" s="4">
         <v>14</v>
       </c>
-      <c r="B33" s="3" t="s">
+      <c r="B33" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="C33" s="3"/>
-      <c r="D33" s="3"/>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A34" s="3">
+      <c r="C33" s="4"/>
+      <c r="D33" s="4"/>
+      <c r="E33" s="4"/>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A34" s="4">
         <v>15</v>
       </c>
-      <c r="B34" s="3" t="s">
+      <c r="B34" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="C34" s="3"/>
-      <c r="D34" s="3"/>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A35" s="3">
+      <c r="C34" s="4"/>
+      <c r="D34" s="4"/>
+      <c r="E34" s="4"/>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A35" s="4">
         <v>16</v>
       </c>
-      <c r="B35" s="3" t="s">
+      <c r="B35" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="C35" s="3"/>
-      <c r="D35" s="3"/>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A36" s="3">
+      <c r="C35" s="4"/>
+      <c r="D35" s="4"/>
+      <c r="E35" s="4"/>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A36" s="4">
         <v>17</v>
       </c>
-      <c r="B36" s="3" t="s">
+      <c r="B36" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="C36" s="3"/>
-      <c r="D36" s="3"/>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A37" s="3">
+      <c r="C36" s="4"/>
+      <c r="D36" s="4"/>
+      <c r="E36" s="4"/>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A37" s="4">
         <v>18</v>
       </c>
-      <c r="B37" s="3" t="s">
+      <c r="B37" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="C37" s="3"/>
-      <c r="D37" s="3"/>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A38" s="3">
+      <c r="C37" s="4"/>
+      <c r="D37" s="4"/>
+      <c r="E37" s="4"/>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A38" s="4">
         <v>19</v>
       </c>
-      <c r="B38" s="3" t="s">
+      <c r="B38" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="C38" s="3"/>
-      <c r="D38" s="3"/>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A39" s="3">
+      <c r="C38" s="4"/>
+      <c r="D38" s="4"/>
+      <c r="E38" s="4"/>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A39" s="4">
         <v>20</v>
       </c>
-      <c r="B39" s="3" t="s">
+      <c r="B39" s="4" t="s">
         <v>203</v>
       </c>
-      <c r="C39" s="3"/>
-      <c r="D39" s="3"/>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A40" s="3">
+      <c r="C39" s="4"/>
+      <c r="D39" s="4"/>
+      <c r="E39" s="4"/>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A40" s="4">
         <v>21</v>
       </c>
-      <c r="B40" s="3" t="s">
+      <c r="B40" s="4" t="s">
         <v>237</v>
       </c>
-      <c r="C40" s="3"/>
-      <c r="D40" s="3"/>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A41" s="3">
+      <c r="C40" s="4"/>
+      <c r="D40" s="4"/>
+      <c r="E40" s="4"/>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A41" s="4">
         <v>22</v>
       </c>
-      <c r="B41" s="3" t="s">
+      <c r="B41" s="4" t="s">
         <v>239</v>
       </c>
-      <c r="C41" s="3"/>
-      <c r="D41" s="3"/>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A42" s="2" t="s">
+      <c r="C41" s="4"/>
+      <c r="D41" s="4"/>
+      <c r="E41" s="4"/>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A42" s="3" t="s">
         <v>278</v>
       </c>
-      <c r="B42" s="2"/>
-      <c r="C42" s="2"/>
-      <c r="D42" s="2"/>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A43" s="3">
+      <c r="B42" s="3"/>
+      <c r="C42" s="3"/>
+      <c r="D42" s="3"/>
+      <c r="E42" s="3"/>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A43" s="4">
         <v>1</v>
       </c>
-      <c r="B43" s="3" t="s">
+      <c r="B43" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="C43" s="3" t="s">
+      <c r="C43" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="D43" s="3"/>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A44" s="3">
+      <c r="D43" s="4"/>
+      <c r="E43" s="4"/>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A44" s="4">
         <v>2</v>
       </c>
-      <c r="B44" s="3" t="s">
+      <c r="B44" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="C44" s="3" t="s">
+      <c r="C44" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="D44" s="3"/>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A45" s="3">
+      <c r="D44" s="4"/>
+      <c r="E44" s="4"/>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A45" s="4">
         <v>3</v>
       </c>
-      <c r="B45" s="3" t="s">
+      <c r="B45" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="C45" s="3" t="s">
+      <c r="C45" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="D45" s="3"/>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A46" s="3">
+      <c r="D45" s="4"/>
+      <c r="E45" s="4"/>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A46" s="4">
         <v>4</v>
       </c>
-      <c r="B46" s="3" t="s">
+      <c r="B46" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="C46" s="3" t="s">
+      <c r="C46" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="D46" s="3"/>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A47" s="3">
+      <c r="D46" s="4"/>
+      <c r="E46" s="4"/>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A47" s="4">
         <v>5</v>
       </c>
-      <c r="B47" s="3" t="s">
+      <c r="B47" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="C47" s="3" t="s">
+      <c r="C47" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="D47" s="3"/>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A48" s="3">
+      <c r="D47" s="4"/>
+      <c r="E47" s="4"/>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A48" s="4">
         <v>6</v>
       </c>
-      <c r="B48" s="3" t="s">
+      <c r="B48" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="C48" s="3"/>
-      <c r="D48" s="3"/>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A49" s="3">
+      <c r="C48" s="4"/>
+      <c r="D48" s="4"/>
+      <c r="E48" s="4"/>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A49" s="4">
         <v>7</v>
       </c>
-      <c r="B49" s="3" t="s">
+      <c r="B49" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="C49" s="3"/>
-      <c r="D49" s="3"/>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A50" s="3">
+      <c r="C49" s="4"/>
+      <c r="D49" s="4"/>
+      <c r="E49" s="4"/>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A50" s="4">
         <v>8</v>
       </c>
-      <c r="B50" s="3" t="s">
+      <c r="B50" s="4" t="s">
         <v>187</v>
       </c>
-      <c r="C50" s="3"/>
-      <c r="D50" s="3"/>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A51" s="3">
+      <c r="C50" s="4"/>
+      <c r="D50" s="4"/>
+      <c r="E50" s="4"/>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A51" s="4">
         <v>9</v>
       </c>
-      <c r="B51" s="3" t="s">
+      <c r="B51" s="4" t="s">
         <v>188</v>
       </c>
-      <c r="C51" s="3"/>
-      <c r="D51" s="3"/>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A52" s="3">
+      <c r="C51" s="4"/>
+      <c r="D51" s="4"/>
+      <c r="E51" s="4"/>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A52" s="4">
         <v>10</v>
       </c>
-      <c r="B52" s="3" t="s">
+      <c r="B52" s="4" t="s">
         <v>189</v>
       </c>
-      <c r="C52" s="3"/>
-      <c r="D52" s="3"/>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A53" s="3">
+      <c r="C52" s="4"/>
+      <c r="D52" s="4"/>
+      <c r="E52" s="4"/>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A53" s="4">
         <v>11</v>
       </c>
-      <c r="B53" s="3" t="s">
+      <c r="B53" s="4" t="s">
         <v>190</v>
       </c>
-      <c r="C53" s="3"/>
-      <c r="D53" s="3"/>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A54" s="3">
+      <c r="C53" s="4"/>
+      <c r="D53" s="4"/>
+      <c r="E53" s="4"/>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A54" s="4">
         <v>12</v>
       </c>
-      <c r="B54" s="3" t="s">
+      <c r="B54" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="C54" s="3"/>
-      <c r="D54" s="3"/>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A55" s="3">
+      <c r="C54" s="4"/>
+      <c r="D54" s="4"/>
+      <c r="E54" s="4"/>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A55" s="4">
         <v>13</v>
       </c>
-      <c r="B55" s="5" t="s">
+      <c r="B55" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="C55" s="3"/>
-      <c r="D55" s="3"/>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A56" s="3">
+      <c r="C55" s="4"/>
+      <c r="D55" s="4"/>
+      <c r="E55" s="4"/>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A56" s="4">
         <v>14</v>
       </c>
-      <c r="B56" s="5" t="s">
+      <c r="B56" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="C56" s="3"/>
-      <c r="D56" s="3"/>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A57" s="3">
+      <c r="C56" s="4"/>
+      <c r="D56" s="4"/>
+      <c r="E56" s="4"/>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A57" s="4">
         <v>15</v>
       </c>
-      <c r="B57" s="5" t="s">
+      <c r="B57" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="C57" s="3"/>
-      <c r="D57" s="3"/>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A58" s="3">
+      <c r="C57" s="4"/>
+      <c r="D57" s="4"/>
+      <c r="E57" s="4"/>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A58" s="4">
         <v>16</v>
       </c>
-      <c r="B58" s="3" t="s">
+      <c r="B58" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="C58" s="3"/>
-      <c r="D58" s="3"/>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A59" s="3">
+      <c r="C58" s="4"/>
+      <c r="D58" s="4"/>
+      <c r="E58" s="4"/>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A59" s="4">
         <v>17</v>
       </c>
-      <c r="B59" s="3" t="s">
+      <c r="B59" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="C59" s="3"/>
-      <c r="D59" s="3"/>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A60" s="3">
+      <c r="C59" s="4"/>
+      <c r="D59" s="4"/>
+      <c r="E59" s="4"/>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A60" s="4">
         <v>18</v>
       </c>
-      <c r="B60" s="3" t="s">
+      <c r="B60" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="C60" s="3"/>
-      <c r="D60" s="3"/>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A61" s="3">
+      <c r="C60" s="4"/>
+      <c r="D60" s="4"/>
+      <c r="E60" s="4"/>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A61" s="4">
         <v>19</v>
       </c>
-      <c r="B61" s="3" t="s">
+      <c r="B61" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="C61" s="3"/>
-      <c r="D61" s="3"/>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A62" s="3">
+      <c r="C61" s="4"/>
+      <c r="D61" s="4"/>
+      <c r="E61" s="4"/>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A62" s="4">
         <v>20</v>
       </c>
-      <c r="B62" s="3" t="s">
+      <c r="B62" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="C62" s="3"/>
-      <c r="D62" s="3"/>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A63" s="3">
+      <c r="C62" s="4"/>
+      <c r="D62" s="4"/>
+      <c r="E62" s="4"/>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A63" s="4">
         <v>21</v>
       </c>
-      <c r="B63" s="3" t="s">
+      <c r="B63" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="C63" s="3"/>
-      <c r="D63" s="3"/>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A64" s="3">
+      <c r="C63" s="4"/>
+      <c r="D63" s="4"/>
+      <c r="E63" s="4"/>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A64" s="4">
         <v>22</v>
       </c>
-      <c r="B64" s="5" t="s">
+      <c r="B64" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="C64" s="3"/>
-      <c r="D64" s="3"/>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A65" s="3">
+      <c r="C64" s="4"/>
+      <c r="D64" s="4"/>
+      <c r="E64" s="4"/>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A65" s="4">
         <v>23</v>
       </c>
-      <c r="B65" s="3" t="s">
+      <c r="B65" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="C65" s="3"/>
-      <c r="D65" s="3"/>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A66" s="3">
+      <c r="C65" s="4"/>
+      <c r="D65" s="4"/>
+      <c r="E65" s="4"/>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A66" s="4">
         <v>24</v>
       </c>
-      <c r="B66" s="3" t="s">
+      <c r="B66" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="C66" s="3"/>
-      <c r="D66" s="3"/>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A67" s="3">
+      <c r="C66" s="4"/>
+      <c r="D66" s="4"/>
+      <c r="E66" s="4"/>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A67" s="4">
         <v>25</v>
       </c>
-      <c r="B67" s="3" t="s">
+      <c r="B67" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="C67" s="3"/>
-      <c r="D67" s="3"/>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A68" s="3">
+      <c r="C67" s="4"/>
+      <c r="D67" s="4"/>
+      <c r="E67" s="4"/>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A68" s="4">
         <v>26</v>
       </c>
-      <c r="B68" s="3" t="s">
+      <c r="B68" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="C68" s="3"/>
-      <c r="D68" s="3"/>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A69" s="3">
+      <c r="C68" s="4"/>
+      <c r="D68" s="4"/>
+      <c r="E68" s="4"/>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A69" s="4">
         <v>27</v>
       </c>
-      <c r="B69" s="3" t="s">
+      <c r="B69" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C69" s="3"/>
-      <c r="D69" s="3"/>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A70" s="3">
+      <c r="C69" s="4"/>
+      <c r="D69" s="4"/>
+      <c r="E69" s="4"/>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A70" s="4">
         <v>28</v>
       </c>
-      <c r="B70" s="3" t="s">
+      <c r="B70" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="C70" s="3"/>
-      <c r="D70" s="3"/>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A71" s="3">
+      <c r="C70" s="4"/>
+      <c r="D70" s="4"/>
+      <c r="E70" s="4"/>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A71" s="4">
         <v>29</v>
       </c>
-      <c r="B71" s="3" t="s">
+      <c r="B71" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="C71" s="3"/>
-      <c r="D71" s="3"/>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A72" s="3">
+      <c r="C71" s="4"/>
+      <c r="D71" s="4"/>
+      <c r="E71" s="4"/>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A72" s="4">
         <v>30</v>
       </c>
-      <c r="B72" s="3" t="s">
+      <c r="B72" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="C72" s="3"/>
-      <c r="D72" s="3"/>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A73" s="3">
+      <c r="C72" s="4"/>
+      <c r="D72" s="4"/>
+      <c r="E72" s="4"/>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A73" s="4">
         <v>31</v>
       </c>
-      <c r="B73" s="3" t="s">
+      <c r="B73" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="C73" s="3"/>
-      <c r="D73" s="3"/>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A74" s="3">
+      <c r="C73" s="4"/>
+      <c r="D73" s="4"/>
+      <c r="E73" s="4"/>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A74" s="4">
         <v>32</v>
       </c>
-      <c r="B74" s="3" t="s">
+      <c r="B74" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="C74" s="3"/>
-      <c r="D74" s="3"/>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A75" s="3">
+      <c r="C74" s="4"/>
+      <c r="D74" s="4"/>
+      <c r="E74" s="4"/>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A75" s="4">
         <v>33</v>
       </c>
-      <c r="B75" s="4" t="s">
+      <c r="B75" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="C75" s="3"/>
-      <c r="D75" s="3"/>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A76" s="3">
+      <c r="C75" s="4"/>
+      <c r="D75" s="4"/>
+      <c r="E75" s="4"/>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A76" s="4">
         <v>34</v>
       </c>
-      <c r="B76" s="4" t="s">
+      <c r="B76" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="C76" s="3"/>
-      <c r="D76" s="3"/>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A77" s="3">
+      <c r="C76" s="4"/>
+      <c r="D76" s="4"/>
+      <c r="E76" s="4"/>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A77" s="4">
         <v>35</v>
       </c>
-      <c r="B77" s="4" t="s">
+      <c r="B77" s="5" t="s">
         <v>152</v>
       </c>
-      <c r="C77" s="3"/>
-      <c r="D77" s="3"/>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A78" s="3">
+      <c r="C77" s="4"/>
+      <c r="D77" s="4"/>
+      <c r="E77" s="4"/>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A78" s="4">
         <v>36</v>
       </c>
-      <c r="B78" s="4" t="s">
+      <c r="B78" s="5" t="s">
         <v>153</v>
       </c>
-      <c r="C78" s="3"/>
-      <c r="D78" s="3"/>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A79" s="3">
+      <c r="C78" s="4"/>
+      <c r="D78" s="4"/>
+      <c r="E78" s="4"/>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A79" s="4">
         <v>37</v>
       </c>
-      <c r="B79" s="4" t="s">
+      <c r="B79" s="5" t="s">
         <v>154</v>
       </c>
-      <c r="C79" s="3"/>
-      <c r="D79" s="3"/>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A80" s="3">
+      <c r="C79" s="4"/>
+      <c r="D79" s="4"/>
+      <c r="E79" s="4"/>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A80" s="4">
         <v>38</v>
       </c>
-      <c r="B80" s="4" t="s">
+      <c r="B80" s="5" t="s">
         <v>155</v>
       </c>
-      <c r="C80" s="3"/>
-      <c r="D80" s="3"/>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A81" s="3">
+      <c r="C80" s="4"/>
+      <c r="D80" s="4"/>
+      <c r="E80" s="4"/>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A81" s="4">
         <v>39</v>
       </c>
-      <c r="B81" s="4" t="s">
+      <c r="B81" s="5" t="s">
         <v>156</v>
       </c>
-      <c r="C81" s="3"/>
-      <c r="D81" s="3"/>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A82" s="3">
+      <c r="C81" s="4"/>
+      <c r="D81" s="4"/>
+      <c r="E81" s="4"/>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A82" s="4">
         <v>40</v>
       </c>
-      <c r="B82" s="4" t="s">
+      <c r="B82" s="5" t="s">
         <v>157</v>
       </c>
-      <c r="C82" s="3"/>
-      <c r="D82" s="3"/>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A83" s="3">
+      <c r="C82" s="4"/>
+      <c r="D82" s="4"/>
+      <c r="E82" s="4"/>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A83" s="4">
         <v>41</v>
       </c>
-      <c r="B83" s="4" t="s">
+      <c r="B83" s="5" t="s">
         <v>158</v>
       </c>
-      <c r="C83" s="3"/>
-      <c r="D83" s="3"/>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A84" s="2" t="s">
+      <c r="C83" s="4"/>
+      <c r="D83" s="4"/>
+      <c r="E83" s="4"/>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A84" s="3" t="s">
         <v>279</v>
       </c>
-      <c r="B84" s="2"/>
-      <c r="C84" s="2"/>
-      <c r="D84" s="2"/>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A85" s="3">
+      <c r="B84" s="3"/>
+      <c r="C84" s="3"/>
+      <c r="D84" s="3"/>
+      <c r="E84" s="3"/>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A85" s="4">
         <v>1</v>
       </c>
-      <c r="B85" s="3" t="s">
+      <c r="B85" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="C85" s="3"/>
-      <c r="D85" s="3"/>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A86" s="3">
+      <c r="C85" s="4"/>
+      <c r="D85" s="4"/>
+      <c r="E85" s="4"/>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A86" s="4">
         <v>2</v>
       </c>
-      <c r="B86" s="3" t="s">
+      <c r="B86" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="C86" s="3"/>
-      <c r="D86" s="3"/>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A87" s="3">
+      <c r="C86" s="4"/>
+      <c r="D86" s="4"/>
+      <c r="E86" s="4"/>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A87" s="4">
         <v>3</v>
       </c>
-      <c r="B87" s="3" t="s">
+      <c r="B87" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="C87" s="3"/>
-      <c r="D87" s="3"/>
-    </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A88" s="3">
+      <c r="C87" s="4"/>
+      <c r="D87" s="4"/>
+      <c r="E87" s="4"/>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A88" s="4">
         <v>4</v>
       </c>
-      <c r="B88" s="3" t="s">
+      <c r="B88" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="C88" s="3"/>
-      <c r="D88" s="3"/>
-    </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A89" s="3">
+      <c r="C88" s="4"/>
+      <c r="D88" s="4"/>
+      <c r="E88" s="4"/>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A89" s="4">
         <v>5</v>
       </c>
-      <c r="B89" s="3" t="s">
+      <c r="B89" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="C89" s="3"/>
-      <c r="D89" s="3"/>
-    </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A90" s="3">
+      <c r="C89" s="4"/>
+      <c r="D89" s="4"/>
+      <c r="E89" s="4"/>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A90" s="4">
         <v>6</v>
       </c>
-      <c r="B90" s="3" t="s">
+      <c r="B90" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="C90" s="3" t="s">
+      <c r="C90" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="D90" s="3"/>
-    </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A91" s="3">
+      <c r="D90" s="4"/>
+      <c r="E90" s="4"/>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A91" s="4">
         <v>7</v>
       </c>
-      <c r="B91" s="3" t="s">
+      <c r="B91" s="4" t="s">
         <v>169</v>
       </c>
-      <c r="C91" s="3"/>
-      <c r="D91" s="3"/>
-    </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A92" s="3">
+      <c r="C91" s="4"/>
+      <c r="D91" s="4"/>
+      <c r="E91" s="4"/>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A92" s="4">
         <v>8</v>
       </c>
-      <c r="B92" s="3" t="s">
+      <c r="B92" s="4" t="s">
         <v>250</v>
       </c>
-      <c r="C92" s="3"/>
-      <c r="D92" s="3"/>
-    </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A93" s="3">
+      <c r="C92" s="4"/>
+      <c r="D92" s="4"/>
+      <c r="E92" s="4"/>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A93" s="4">
         <v>9</v>
       </c>
-      <c r="B93" s="3" t="s">
+      <c r="B93" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="C93" s="3"/>
-      <c r="D93" s="3"/>
-    </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A94" s="3">
+      <c r="C93" s="4"/>
+      <c r="D93" s="4"/>
+      <c r="E93" s="4"/>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A94" s="4">
         <v>10</v>
       </c>
-      <c r="B94" s="3" t="s">
+      <c r="B94" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="C94" s="3"/>
-      <c r="D94" s="3"/>
-    </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A95" s="3">
+      <c r="C94" s="4"/>
+      <c r="D94" s="4"/>
+      <c r="E94" s="4"/>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A95" s="4">
         <v>11</v>
       </c>
-      <c r="B95" s="3" t="s">
+      <c r="B95" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="C95" s="3"/>
-      <c r="D95" s="3"/>
-    </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A96" s="3">
+      <c r="C95" s="4"/>
+      <c r="D95" s="4"/>
+      <c r="E95" s="4"/>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A96" s="4">
         <v>12</v>
       </c>
-      <c r="B96" s="3" t="s">
+      <c r="B96" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="C96" s="3"/>
-      <c r="D96" s="3"/>
-    </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A97" s="3">
+      <c r="C96" s="4"/>
+      <c r="D96" s="4"/>
+      <c r="E96" s="4"/>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A97" s="4">
         <v>13</v>
       </c>
-      <c r="B97" s="3" t="s">
+      <c r="B97" s="4" t="s">
         <v>196</v>
       </c>
-      <c r="C97" s="3"/>
-      <c r="D97" s="3"/>
-    </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A98" s="3">
+      <c r="C97" s="4"/>
+      <c r="D97" s="4"/>
+      <c r="E97" s="4"/>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A98" s="4">
         <v>14</v>
       </c>
-      <c r="B98" s="3" t="s">
+      <c r="B98" s="4" t="s">
         <v>197</v>
       </c>
-      <c r="C98" s="3"/>
-      <c r="D98" s="3"/>
-    </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A99" s="3">
+      <c r="C98" s="4"/>
+      <c r="D98" s="4"/>
+      <c r="E98" s="4"/>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A99" s="4">
         <v>15</v>
       </c>
-      <c r="B99" s="3" t="s">
+      <c r="B99" s="4" t="s">
         <v>198</v>
       </c>
-      <c r="C99" s="3"/>
-      <c r="D99" s="3"/>
-    </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A100" s="3">
+      <c r="C99" s="4"/>
+      <c r="D99" s="4"/>
+      <c r="E99" s="4"/>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A100" s="4">
         <v>16</v>
       </c>
-      <c r="B100" s="3" t="s">
+      <c r="B100" s="4" t="s">
         <v>199</v>
       </c>
-      <c r="C100" s="3"/>
-      <c r="D100" s="3"/>
-    </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A101" s="3">
+      <c r="C100" s="4"/>
+      <c r="D100" s="4"/>
+      <c r="E100" s="4"/>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A101" s="4">
         <v>17</v>
       </c>
-      <c r="B101" s="3" t="s">
+      <c r="B101" s="4" t="s">
         <v>200</v>
       </c>
-      <c r="C101" s="3"/>
-      <c r="D101" s="3"/>
-    </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A102" s="3">
+      <c r="C101" s="4"/>
+      <c r="D101" s="4"/>
+      <c r="E101" s="4"/>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A102" s="4">
         <v>18</v>
       </c>
-      <c r="B102" s="3" t="s">
+      <c r="B102" s="4" t="s">
         <v>201</v>
       </c>
-      <c r="C102" s="3"/>
-      <c r="D102" s="3"/>
-    </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A103" s="3">
+      <c r="C102" s="4"/>
+      <c r="D102" s="4"/>
+      <c r="E102" s="4"/>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A103" s="4">
         <v>19</v>
       </c>
-      <c r="B103" s="3" t="s">
+      <c r="B103" s="4" t="s">
         <v>202</v>
       </c>
-      <c r="C103" s="3"/>
-      <c r="D103" s="3"/>
-    </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A104" s="3">
+      <c r="C103" s="4"/>
+      <c r="D103" s="4"/>
+      <c r="E103" s="4"/>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A104" s="4">
         <v>20</v>
       </c>
-      <c r="B104" s="3" t="s">
+      <c r="B104" s="4" t="s">
         <v>238</v>
       </c>
-      <c r="C104" s="3"/>
-      <c r="D104" s="3"/>
-    </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A105" s="3">
+      <c r="C104" s="4"/>
+      <c r="D104" s="4"/>
+      <c r="E104" s="4"/>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A105" s="4">
         <v>21</v>
       </c>
-      <c r="B105" s="3" t="s">
+      <c r="B105" s="4" t="s">
         <v>227</v>
       </c>
-      <c r="C105" s="3"/>
-      <c r="D105" s="3"/>
-    </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A106" s="3">
+      <c r="C105" s="4"/>
+      <c r="D105" s="4"/>
+      <c r="E105" s="4"/>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A106" s="4">
         <v>22</v>
       </c>
-      <c r="B106" s="3" t="s">
+      <c r="B106" s="4" t="s">
         <v>248</v>
       </c>
-      <c r="C106" s="3"/>
-      <c r="D106" s="3"/>
-    </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A107" s="3">
+      <c r="C106" s="4"/>
+      <c r="D106" s="4"/>
+      <c r="E106" s="4"/>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A107" s="4">
         <v>23</v>
       </c>
-      <c r="B107" s="3" t="s">
+      <c r="B107" s="4" t="s">
         <v>249</v>
       </c>
-      <c r="C107" s="3"/>
-      <c r="D107" s="3"/>
-    </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A108" s="3">
+      <c r="C107" s="4"/>
+      <c r="D107" s="4"/>
+      <c r="E107" s="4"/>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A108" s="4">
         <v>24</v>
       </c>
-      <c r="B108" s="3" t="s">
+      <c r="B108" s="4" t="s">
         <v>228</v>
       </c>
-      <c r="C108" s="3"/>
-      <c r="D108" s="3"/>
-    </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A109" s="3">
+      <c r="C108" s="4"/>
+      <c r="D108" s="4"/>
+      <c r="E108" s="4"/>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A109" s="4">
         <v>25</v>
       </c>
-      <c r="B109" s="3" t="s">
+      <c r="B109" s="4" t="s">
         <v>229</v>
       </c>
-      <c r="C109" s="3"/>
-      <c r="D109" s="3"/>
-    </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A110" s="3">
+      <c r="C109" s="4"/>
+      <c r="D109" s="4"/>
+      <c r="E109" s="4"/>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A110" s="4">
         <v>26</v>
       </c>
-      <c r="B110" s="3" t="s">
+      <c r="B110" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="C110" s="3"/>
-      <c r="D110" s="3"/>
-    </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A111" s="3">
+      <c r="C110" s="4"/>
+      <c r="D110" s="4"/>
+      <c r="E110" s="4"/>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A111" s="4">
         <v>27</v>
       </c>
-      <c r="B111" s="3" t="s">
+      <c r="B111" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="C111" s="3"/>
-      <c r="D111" s="3"/>
-    </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A112" s="2" t="s">
+      <c r="C111" s="4"/>
+      <c r="D111" s="4"/>
+      <c r="E111" s="4"/>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A112" s="3" t="s">
         <v>280</v>
       </c>
-      <c r="B112" s="2"/>
-      <c r="C112" s="2"/>
-      <c r="D112" s="2"/>
-    </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A113" s="3">
+      <c r="B112" s="3"/>
+      <c r="C112" s="3"/>
+      <c r="D112" s="3"/>
+      <c r="E112" s="3"/>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A113" s="4">
         <v>1</v>
       </c>
-      <c r="B113" s="3" t="s">
+      <c r="B113" s="4" t="s">
         <v>272</v>
       </c>
-      <c r="C113" s="3"/>
-      <c r="D113" s="3"/>
-    </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A114" s="3">
+      <c r="C113" s="4"/>
+      <c r="D113" s="4"/>
+      <c r="E113" s="4"/>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A114" s="4">
         <v>2</v>
       </c>
-      <c r="B114" s="3" t="s">
+      <c r="B114" s="4" t="s">
         <v>273</v>
       </c>
-      <c r="C114" s="3"/>
-      <c r="D114" s="3"/>
-    </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A115" s="3">
+      <c r="C114" s="4"/>
+      <c r="D114" s="4"/>
+      <c r="E114" s="4"/>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A115" s="4">
         <v>3</v>
       </c>
-      <c r="B115" s="3" t="s">
+      <c r="B115" s="4" t="s">
         <v>274</v>
       </c>
-      <c r="C115" s="3"/>
-      <c r="D115" s="3"/>
-    </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A116" s="3">
+      <c r="C115" s="4"/>
+      <c r="D115" s="4"/>
+      <c r="E115" s="4"/>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A116" s="4">
         <v>4</v>
       </c>
-      <c r="B116" s="3" t="s">
+      <c r="B116" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="C116" s="3"/>
-      <c r="D116" s="3"/>
-    </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A117" s="3">
+      <c r="C116" s="4"/>
+      <c r="D116" s="4"/>
+      <c r="E116" s="4"/>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A117" s="4">
         <v>5</v>
       </c>
-      <c r="B117" s="3" t="s">
+      <c r="B117" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="C117" s="3"/>
-      <c r="D117" s="3"/>
-    </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A118" s="3">
+      <c r="C117" s="4"/>
+      <c r="D117" s="4"/>
+      <c r="E117" s="4"/>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A118" s="4">
         <v>6</v>
       </c>
-      <c r="B118" s="3" t="s">
+      <c r="B118" s="4" t="s">
         <v>159</v>
       </c>
-      <c r="C118" s="3"/>
-      <c r="D118" s="3"/>
-    </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A119" s="3">
+      <c r="C118" s="4"/>
+      <c r="D118" s="4"/>
+      <c r="E118" s="4"/>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A119" s="4">
         <v>7</v>
       </c>
-      <c r="B119" s="3" t="s">
+      <c r="B119" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="C119" s="3"/>
-      <c r="D119" s="3"/>
-    </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A120" s="3">
+      <c r="C119" s="4"/>
+      <c r="D119" s="4"/>
+      <c r="E119" s="4"/>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A120" s="4">
         <v>8</v>
       </c>
-      <c r="B120" s="3" t="s">
+      <c r="B120" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="C120" s="3"/>
-      <c r="D120" s="3"/>
-    </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A121" s="3">
+      <c r="C120" s="4"/>
+      <c r="D120" s="4"/>
+      <c r="E120" s="4"/>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A121" s="4">
         <v>9</v>
       </c>
-      <c r="B121" s="3" t="s">
+      <c r="B121" s="4" t="s">
         <v>162</v>
       </c>
-      <c r="C121" s="3"/>
-      <c r="D121" s="3"/>
-    </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A122" s="3">
+      <c r="C121" s="4"/>
+      <c r="D121" s="4"/>
+      <c r="E121" s="4"/>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A122" s="4">
         <v>10</v>
       </c>
-      <c r="B122" s="3" t="s">
+      <c r="B122" s="4" t="s">
         <v>163</v>
       </c>
-      <c r="C122" s="3"/>
-      <c r="D122" s="3"/>
-    </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A123" s="3">
+      <c r="C122" s="4"/>
+      <c r="D122" s="4"/>
+      <c r="E122" s="4"/>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A123" s="4">
         <v>11</v>
       </c>
-      <c r="B123" s="3" t="s">
+      <c r="B123" s="4" t="s">
         <v>164</v>
       </c>
-      <c r="C123" s="3"/>
-      <c r="D123" s="3"/>
-    </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A124" s="3">
+      <c r="C123" s="4"/>
+      <c r="D123" s="4"/>
+      <c r="E123" s="4"/>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A124" s="4">
         <v>12</v>
       </c>
-      <c r="B124" s="3" t="s">
+      <c r="B124" s="4" t="s">
         <v>165</v>
       </c>
-      <c r="C124" s="3"/>
-      <c r="D124" s="3"/>
-    </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A125" s="3">
+      <c r="C124" s="4"/>
+      <c r="D124" s="4"/>
+      <c r="E124" s="4"/>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A125" s="4">
         <v>13</v>
       </c>
-      <c r="B125" s="3" t="s">
+      <c r="B125" s="4" t="s">
         <v>166</v>
       </c>
-      <c r="C125" s="3"/>
-      <c r="D125" s="3"/>
-    </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A126" s="3">
+      <c r="C125" s="4"/>
+      <c r="D125" s="4"/>
+      <c r="E125" s="4"/>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A126" s="4">
         <v>14</v>
       </c>
-      <c r="B126" s="3" t="s">
+      <c r="B126" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="C126" s="3"/>
-      <c r="D126" s="3"/>
-    </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A127" s="3">
+      <c r="C126" s="4"/>
+      <c r="D126" s="4"/>
+      <c r="E126" s="4"/>
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A127" s="4">
         <v>15</v>
       </c>
-      <c r="B127" s="3" t="s">
+      <c r="B127" s="4" t="s">
         <v>167</v>
       </c>
-      <c r="C127" s="3"/>
-      <c r="D127" s="3"/>
-    </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A128" s="3">
+      <c r="C127" s="4"/>
+      <c r="D127" s="4"/>
+      <c r="E127" s="4"/>
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A128" s="4">
         <v>16</v>
       </c>
-      <c r="B128" s="3" t="s">
+      <c r="B128" s="4" t="s">
         <v>168</v>
       </c>
-      <c r="C128" s="3"/>
-      <c r="D128" s="3"/>
-    </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A129" s="3">
+      <c r="C128" s="4"/>
+      <c r="D128" s="4"/>
+      <c r="E128" s="4"/>
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A129" s="4">
         <v>17</v>
       </c>
-      <c r="B129" s="3" t="s">
+      <c r="B129" s="4" t="s">
         <v>170</v>
       </c>
-      <c r="C129" s="3"/>
-      <c r="D129" s="3"/>
-    </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A130" s="3">
+      <c r="C129" s="4"/>
+      <c r="D129" s="4"/>
+      <c r="E129" s="4"/>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A130" s="4">
         <v>18</v>
       </c>
-      <c r="B130" s="3" t="s">
+      <c r="B130" s="4" t="s">
         <v>171</v>
       </c>
-      <c r="C130" s="3"/>
-      <c r="D130" s="3"/>
-    </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A131" s="3">
+      <c r="C130" s="4"/>
+      <c r="D130" s="4"/>
+      <c r="E130" s="4"/>
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A131" s="4">
         <v>19</v>
       </c>
-      <c r="B131" s="3" t="s">
+      <c r="B131" s="4" t="s">
         <v>172</v>
       </c>
-      <c r="C131" s="3"/>
-      <c r="D131" s="3"/>
-    </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A132" s="3">
+      <c r="C131" s="4"/>
+      <c r="D131" s="4"/>
+      <c r="E131" s="4"/>
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A132" s="4">
         <v>20</v>
       </c>
-      <c r="B132" s="3" t="s">
+      <c r="B132" s="4" t="s">
         <v>175</v>
       </c>
-      <c r="C132" s="3"/>
-      <c r="D132" s="3"/>
-    </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A133" s="3">
+      <c r="C132" s="4"/>
+      <c r="D132" s="4"/>
+      <c r="E132" s="4"/>
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A133" s="4">
         <v>21</v>
       </c>
-      <c r="B133" s="3" t="s">
+      <c r="B133" s="4" t="s">
         <v>176</v>
       </c>
-      <c r="C133" s="3"/>
-      <c r="D133" s="3"/>
-    </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A134" s="3">
+      <c r="C133" s="4"/>
+      <c r="D133" s="4"/>
+      <c r="E133" s="4"/>
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A134" s="4">
         <v>22</v>
       </c>
-      <c r="B134" s="3" t="s">
+      <c r="B134" s="4" t="s">
         <v>230</v>
       </c>
-      <c r="C134" s="3"/>
-      <c r="D134" s="3"/>
-    </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A135" s="3">
+      <c r="C134" s="4"/>
+      <c r="D134" s="4"/>
+      <c r="E134" s="4"/>
+    </row>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A135" s="4">
         <v>23</v>
       </c>
-      <c r="B135" s="3" t="s">
+      <c r="B135" s="4" t="s">
         <v>231</v>
       </c>
-      <c r="C135" s="3"/>
-      <c r="D135" s="3"/>
-    </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A136" s="3">
+      <c r="C135" s="4"/>
+      <c r="D135" s="4"/>
+      <c r="E135" s="4"/>
+    </row>
+    <row r="136" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A136" s="4">
         <v>24</v>
       </c>
-      <c r="B136" s="3" t="s">
+      <c r="B136" s="4" t="s">
         <v>232</v>
       </c>
-      <c r="C136" s="3"/>
-      <c r="D136" s="3"/>
-    </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A137" s="3">
+      <c r="C136" s="4"/>
+      <c r="D136" s="4"/>
+      <c r="E136" s="4"/>
+    </row>
+    <row r="137" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A137" s="4">
         <v>25</v>
       </c>
-      <c r="B137" s="3" t="s">
+      <c r="B137" s="4" t="s">
         <v>233</v>
       </c>
-      <c r="C137" s="3"/>
-      <c r="D137" s="3"/>
-    </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A138" s="3">
+      <c r="C137" s="4"/>
+      <c r="D137" s="4"/>
+      <c r="E137" s="4"/>
+    </row>
+    <row r="138" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A138" s="4">
         <v>26</v>
       </c>
-      <c r="B138" s="3" t="s">
+      <c r="B138" s="4" t="s">
         <v>245</v>
       </c>
-      <c r="C138" s="3"/>
-      <c r="D138" s="3"/>
-    </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A139" s="2" t="s">
+      <c r="C138" s="4"/>
+      <c r="D138" s="4"/>
+      <c r="E138" s="4"/>
+    </row>
+    <row r="139" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A139" s="3" t="s">
         <v>292</v>
       </c>
-      <c r="B139" s="2"/>
-      <c r="C139" s="2"/>
-      <c r="D139" s="2"/>
-    </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A140" s="3">
+      <c r="B139" s="3"/>
+      <c r="C139" s="3"/>
+      <c r="D139" s="3"/>
+      <c r="E139" s="3"/>
+    </row>
+    <row r="140" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A140" s="4">
         <v>1</v>
       </c>
-      <c r="B140" s="3" t="s">
+      <c r="B140" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="C140" s="3"/>
-      <c r="D140" s="3"/>
-    </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A141" s="3">
+      <c r="C140" s="4"/>
+      <c r="D140" s="4"/>
+      <c r="E140" s="4"/>
+    </row>
+    <row r="141" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A141" s="4">
         <v>2</v>
       </c>
-      <c r="B141" s="3" t="s">
+      <c r="B141" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="C141" s="3"/>
-      <c r="D141" s="3"/>
-    </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A142" s="3">
+      <c r="C141" s="4"/>
+      <c r="D141" s="4"/>
+      <c r="E141" s="4"/>
+    </row>
+    <row r="142" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A142" s="4">
         <v>3</v>
       </c>
-      <c r="B142" s="3" t="s">
+      <c r="B142" s="4" t="s">
         <v>296</v>
       </c>
-      <c r="C142" s="3"/>
-      <c r="D142" s="3"/>
-    </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A143" s="2" t="s">
+      <c r="C142" s="4"/>
+      <c r="D142" s="4"/>
+      <c r="E142" s="4"/>
+    </row>
+    <row r="143" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A143" s="3" t="s">
         <v>281</v>
       </c>
-      <c r="B143" s="2"/>
-      <c r="C143" s="2"/>
-      <c r="D143" s="2"/>
-    </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A144" s="3">
+      <c r="B143" s="3"/>
+      <c r="C143" s="3"/>
+      <c r="D143" s="3"/>
+      <c r="E143" s="3"/>
+    </row>
+    <row r="144" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A144" s="4">
         <v>1</v>
       </c>
-      <c r="B144" s="3" t="s">
+      <c r="B144" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="C144" s="3"/>
-      <c r="D144" s="3"/>
-    </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A145" s="3">
+      <c r="C144" s="4"/>
+      <c r="D144" s="4"/>
+      <c r="E144" s="4"/>
+    </row>
+    <row r="145" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A145" s="4">
         <v>2</v>
       </c>
-      <c r="B145" s="3" t="s">
+      <c r="B145" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="C145" s="3"/>
-      <c r="D145" s="3"/>
-    </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A146" s="3">
+      <c r="C145" s="4"/>
+      <c r="D145" s="4"/>
+      <c r="E145" s="4"/>
+    </row>
+    <row r="146" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A146" s="4">
         <v>3</v>
       </c>
-      <c r="B146" s="3" t="s">
+      <c r="B146" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="C146" s="3"/>
-      <c r="D146" s="3"/>
-    </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A147" s="3">
+      <c r="C146" s="4"/>
+      <c r="D146" s="4"/>
+      <c r="E146" s="4"/>
+    </row>
+    <row r="147" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A147" s="4">
         <v>4</v>
       </c>
-      <c r="B147" s="3" t="s">
+      <c r="B147" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="C147" s="3"/>
-      <c r="D147" s="3"/>
-    </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A148" s="3">
+      <c r="C147" s="4"/>
+      <c r="D147" s="4"/>
+      <c r="E147" s="4"/>
+    </row>
+    <row r="148" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A148" s="4">
         <v>5</v>
       </c>
-      <c r="B148" s="3" t="s">
+      <c r="B148" s="4" t="s">
         <v>247</v>
       </c>
-      <c r="C148" s="3"/>
-      <c r="D148" s="3"/>
-    </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A149" s="2" t="s">
+      <c r="C148" s="4"/>
+      <c r="D148" s="4"/>
+      <c r="E148" s="4"/>
+    </row>
+    <row r="149" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A149" s="3" t="s">
         <v>282</v>
       </c>
-      <c r="B149" s="2"/>
-      <c r="C149" s="2"/>
-      <c r="D149" s="2"/>
-    </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A150" s="3">
+      <c r="B149" s="3"/>
+      <c r="C149" s="3"/>
+      <c r="D149" s="3"/>
+      <c r="E149" s="3"/>
+    </row>
+    <row r="150" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A150" s="4">
         <v>1</v>
       </c>
-      <c r="B150" s="3" t="s">
+      <c r="B150" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="C150" s="3"/>
-      <c r="D150" s="3"/>
-    </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A151" s="3">
+      <c r="C150" s="4"/>
+      <c r="D150" s="4"/>
+      <c r="E150" s="4"/>
+    </row>
+    <row r="151" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A151" s="4">
         <v>2</v>
       </c>
-      <c r="B151" s="3" t="s">
+      <c r="B151" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="C151" s="3"/>
-      <c r="D151" s="3"/>
-    </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A152" s="3">
+      <c r="C151" s="4"/>
+      <c r="D151" s="4"/>
+      <c r="E151" s="4"/>
+    </row>
+    <row r="152" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A152" s="4">
         <v>3</v>
       </c>
-      <c r="B152" s="3" t="s">
+      <c r="B152" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="C152" s="3"/>
-      <c r="D152" s="3"/>
-    </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A153" s="3">
+      <c r="C152" s="4"/>
+      <c r="D152" s="4"/>
+      <c r="E152" s="4"/>
+    </row>
+    <row r="153" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A153" s="4">
         <v>4</v>
       </c>
-      <c r="B153" s="3" t="s">
+      <c r="B153" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="C153" s="3"/>
-      <c r="D153" s="3"/>
-    </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A154" s="3">
+      <c r="C153" s="4"/>
+      <c r="D153" s="4"/>
+      <c r="E153" s="4"/>
+    </row>
+    <row r="154" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A154" s="4">
         <v>5</v>
       </c>
-      <c r="B154" s="3" t="s">
+      <c r="B154" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="C154" s="3"/>
-      <c r="D154" s="3"/>
-    </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A155" s="3">
+      <c r="C154" s="4"/>
+      <c r="D154" s="4"/>
+      <c r="E154" s="4"/>
+    </row>
+    <row r="155" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A155" s="4">
         <v>6</v>
       </c>
-      <c r="B155" s="3" t="s">
+      <c r="B155" s="4" t="s">
         <v>293</v>
       </c>
-      <c r="C155" s="3"/>
-      <c r="D155" s="3"/>
-    </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A156" s="3">
+      <c r="C155" s="4"/>
+      <c r="D155" s="4"/>
+      <c r="E155" s="4"/>
+    </row>
+    <row r="156" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A156" s="4">
         <v>7</v>
       </c>
-      <c r="B156" s="3" t="s">
+      <c r="B156" s="4" t="s">
         <v>294</v>
       </c>
-      <c r="C156" s="3"/>
-      <c r="D156" s="3"/>
-    </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A157" s="3">
+      <c r="C156" s="4"/>
+      <c r="D156" s="4"/>
+      <c r="E156" s="4"/>
+    </row>
+    <row r="157" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A157" s="4">
         <v>8</v>
       </c>
-      <c r="B157" s="3" t="s">
+      <c r="B157" s="4" t="s">
         <v>295</v>
       </c>
-      <c r="C157" s="3"/>
-      <c r="D157" s="3"/>
-    </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A158" s="2" t="s">
+      <c r="C157" s="4"/>
+      <c r="D157" s="4"/>
+      <c r="E157" s="4"/>
+    </row>
+    <row r="158" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A158" s="3" t="s">
         <v>283</v>
       </c>
-      <c r="B158" s="2"/>
-      <c r="C158" s="2"/>
-      <c r="D158" s="2"/>
-    </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A159" s="3">
+      <c r="B158" s="3"/>
+      <c r="C158" s="3"/>
+      <c r="D158" s="3"/>
+      <c r="E158" s="3"/>
+    </row>
+    <row r="159" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A159" s="4">
         <v>1</v>
       </c>
-      <c r="B159" s="3" t="s">
+      <c r="B159" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="C159" s="3"/>
-      <c r="D159" s="3"/>
-    </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A160" s="3">
+      <c r="C159" s="4"/>
+      <c r="D159" s="4"/>
+      <c r="E159" s="4"/>
+    </row>
+    <row r="160" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A160" s="4">
         <v>2</v>
       </c>
-      <c r="B160" s="3" t="s">
+      <c r="B160" s="4" t="s">
         <v>256</v>
       </c>
-      <c r="C160" s="3"/>
-      <c r="D160" s="3"/>
-    </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A161" s="3">
+      <c r="C160" s="4"/>
+      <c r="D160" s="4"/>
+      <c r="E160" s="4"/>
+    </row>
+    <row r="161" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A161" s="4">
         <v>3</v>
       </c>
-      <c r="B161" s="3" t="s">
+      <c r="B161" s="4" t="s">
         <v>275</v>
       </c>
-      <c r="C161" s="3"/>
-      <c r="D161" s="3"/>
-    </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A162" s="2" t="s">
+      <c r="C161" s="4"/>
+      <c r="D161" s="4"/>
+      <c r="E161" s="4"/>
+    </row>
+    <row r="162" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A162" s="3" t="s">
         <v>284</v>
       </c>
-      <c r="B162" s="2"/>
-      <c r="C162" s="2"/>
-      <c r="D162" s="2"/>
-    </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A163" s="3">
+      <c r="B162" s="3"/>
+      <c r="C162" s="3"/>
+      <c r="D162" s="3"/>
+      <c r="E162" s="3"/>
+    </row>
+    <row r="163" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A163" s="4">
         <v>1</v>
       </c>
-      <c r="B163" s="4" t="s">
+      <c r="B163" s="5" t="s">
         <v>240</v>
       </c>
-      <c r="C163" s="3"/>
-      <c r="D163" s="3"/>
-    </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A164" s="3">
+      <c r="C163" s="4"/>
+      <c r="D163" s="4"/>
+      <c r="E163" s="4"/>
+    </row>
+    <row r="164" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A164" s="4">
         <v>2</v>
       </c>
-      <c r="B164" s="4" t="s">
+      <c r="B164" s="5" t="s">
         <v>241</v>
       </c>
-      <c r="C164" s="3"/>
-      <c r="D164" s="3"/>
-    </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A165" s="3">
+      <c r="C164" s="4"/>
+      <c r="D164" s="4"/>
+      <c r="E164" s="4"/>
+    </row>
+    <row r="165" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A165" s="4">
         <v>3</v>
       </c>
-      <c r="B165" s="4" t="s">
+      <c r="B165" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="C165" s="3"/>
-      <c r="D165" s="3"/>
-    </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A166" s="3">
+      <c r="C165" s="4"/>
+      <c r="D165" s="4"/>
+      <c r="E165" s="4"/>
+    </row>
+    <row r="166" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A166" s="4">
         <v>4</v>
       </c>
-      <c r="B166" s="3" t="s">
+      <c r="B166" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="C166" s="3"/>
-      <c r="D166" s="3"/>
-    </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A167" s="3">
+      <c r="C166" s="4"/>
+      <c r="D166" s="4"/>
+      <c r="E166" s="4"/>
+    </row>
+    <row r="167" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A167" s="4">
         <v>5</v>
       </c>
-      <c r="B167" s="3" t="s">
+      <c r="B167" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="C167" s="3"/>
-      <c r="D167" s="3"/>
-    </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A168" s="3">
+      <c r="C167" s="4"/>
+      <c r="D167" s="4"/>
+      <c r="E167" s="4"/>
+    </row>
+    <row r="168" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A168" s="4">
         <v>6</v>
       </c>
-      <c r="B168" s="3" t="s">
+      <c r="B168" s="4" t="s">
         <v>147</v>
       </c>
-      <c r="C168" s="3"/>
-      <c r="D168" s="3"/>
-    </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A169" s="3">
+      <c r="C168" s="4"/>
+      <c r="D168" s="4"/>
+      <c r="E168" s="4"/>
+    </row>
+    <row r="169" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A169" s="4">
         <v>7</v>
       </c>
-      <c r="B169" s="3" t="s">
+      <c r="B169" s="4" t="s">
         <v>148</v>
       </c>
-      <c r="C169" s="3"/>
-      <c r="D169" s="3"/>
-    </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A170" s="3">
+      <c r="C169" s="4"/>
+      <c r="D169" s="4"/>
+      <c r="E169" s="4"/>
+    </row>
+    <row r="170" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A170" s="4">
         <v>8</v>
       </c>
-      <c r="B170" s="3" t="s">
+      <c r="B170" s="4" t="s">
         <v>149</v>
       </c>
-      <c r="C170" s="3"/>
-      <c r="D170" s="3"/>
-    </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A171" s="3">
+      <c r="C170" s="4"/>
+      <c r="D170" s="4"/>
+      <c r="E170" s="4"/>
+    </row>
+    <row r="171" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A171" s="4">
         <v>9</v>
       </c>
-      <c r="B171" s="3" t="s">
+      <c r="B171" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="C171" s="3"/>
-      <c r="D171" s="3"/>
-    </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A172" s="3">
+      <c r="C171" s="4"/>
+      <c r="D171" s="4"/>
+      <c r="E171" s="4"/>
+    </row>
+    <row r="172" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A172" s="4">
         <v>10</v>
       </c>
-      <c r="B172" s="3" t="s">
+      <c r="B172" s="4" t="s">
         <v>151</v>
       </c>
-      <c r="C172" s="3"/>
-      <c r="D172" s="3"/>
-    </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A173" s="3">
+      <c r="C172" s="4"/>
+      <c r="D172" s="4"/>
+      <c r="E172" s="4"/>
+    </row>
+    <row r="173" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A173" s="4">
         <v>11</v>
       </c>
-      <c r="B173" s="3" t="s">
+      <c r="B173" s="4" t="s">
         <v>173</v>
       </c>
-      <c r="C173" s="3"/>
-      <c r="D173" s="3"/>
-    </row>
-    <row r="174" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A174" s="3">
+      <c r="C173" s="4"/>
+      <c r="D173" s="4"/>
+      <c r="E173" s="4"/>
+    </row>
+    <row r="174" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A174" s="4">
         <v>12</v>
       </c>
-      <c r="B174" s="3" t="s">
+      <c r="B174" s="4" t="s">
         <v>174</v>
       </c>
-      <c r="C174" s="3"/>
-      <c r="D174" s="3"/>
-    </row>
-    <row r="175" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A175" s="3">
+      <c r="C174" s="4"/>
+      <c r="D174" s="4"/>
+      <c r="E174" s="4"/>
+    </row>
+    <row r="175" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A175" s="4">
         <v>13</v>
       </c>
-      <c r="B175" s="3" t="s">
+      <c r="B175" s="4" t="s">
         <v>216</v>
       </c>
-      <c r="C175" s="3"/>
-      <c r="D175" s="3"/>
-    </row>
-    <row r="176" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A176" s="3">
+      <c r="C175" s="4"/>
+      <c r="D175" s="4"/>
+      <c r="E175" s="4"/>
+    </row>
+    <row r="176" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A176" s="4">
         <v>14</v>
       </c>
-      <c r="B176" s="3" t="s">
+      <c r="B176" s="4" t="s">
         <v>217</v>
       </c>
-      <c r="C176" s="3"/>
-      <c r="D176" s="3"/>
-    </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A177" s="3">
+      <c r="C176" s="4"/>
+      <c r="D176" s="4"/>
+      <c r="E176" s="4"/>
+    </row>
+    <row r="177" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A177" s="4">
         <v>15</v>
       </c>
-      <c r="B177" s="3" t="s">
+      <c r="B177" s="4" t="s">
         <v>218</v>
       </c>
-      <c r="C177" s="3"/>
-      <c r="D177" s="3"/>
-    </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A178" s="3">
+      <c r="C177" s="4"/>
+      <c r="D177" s="4"/>
+      <c r="E177" s="4"/>
+    </row>
+    <row r="178" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A178" s="4">
         <v>16</v>
       </c>
-      <c r="B178" s="3" t="s">
+      <c r="B178" s="4" t="s">
         <v>219</v>
       </c>
-      <c r="C178" s="3"/>
-      <c r="D178" s="3"/>
-    </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A179" s="3">
+      <c r="C178" s="4"/>
+      <c r="D178" s="4"/>
+      <c r="E178" s="4"/>
+    </row>
+    <row r="179" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A179" s="4">
         <v>17</v>
       </c>
-      <c r="B179" s="3" t="s">
+      <c r="B179" s="4" t="s">
         <v>220</v>
       </c>
-      <c r="C179" s="3"/>
-      <c r="D179" s="3"/>
-    </row>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A180" s="3">
+      <c r="C179" s="4"/>
+      <c r="D179" s="4"/>
+      <c r="E179" s="4"/>
+    </row>
+    <row r="180" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A180" s="4">
         <v>18</v>
       </c>
-      <c r="B180" s="3" t="s">
+      <c r="B180" s="4" t="s">
         <v>221</v>
       </c>
-      <c r="C180" s="3"/>
-      <c r="D180" s="3"/>
-    </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A181" s="3">
+      <c r="C180" s="4"/>
+      <c r="D180" s="4"/>
+      <c r="E180" s="4"/>
+    </row>
+    <row r="181" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A181" s="4">
         <v>19</v>
       </c>
-      <c r="B181" s="3" t="s">
+      <c r="B181" s="4" t="s">
         <v>222</v>
       </c>
-      <c r="C181" s="3"/>
-      <c r="D181" s="3"/>
-    </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A182" s="3">
+      <c r="C181" s="4"/>
+      <c r="D181" s="4"/>
+      <c r="E181" s="4"/>
+    </row>
+    <row r="182" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A182" s="4">
         <v>20</v>
       </c>
-      <c r="B182" s="3" t="s">
+      <c r="B182" s="4" t="s">
         <v>223</v>
       </c>
-      <c r="C182" s="3"/>
-      <c r="D182" s="3"/>
-    </row>
-    <row r="183" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A183" s="3">
+      <c r="C182" s="4"/>
+      <c r="D182" s="4"/>
+      <c r="E182" s="4"/>
+    </row>
+    <row r="183" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A183" s="4">
         <v>21</v>
       </c>
-      <c r="B183" s="3" t="s">
+      <c r="B183" s="4" t="s">
         <v>224</v>
       </c>
-      <c r="C183" s="3"/>
-      <c r="D183" s="3"/>
-    </row>
-    <row r="184" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A184" s="3">
+      <c r="C183" s="4"/>
+      <c r="D183" s="4"/>
+      <c r="E183" s="4"/>
+    </row>
+    <row r="184" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A184" s="4">
         <v>22</v>
       </c>
-      <c r="B184" s="3" t="s">
+      <c r="B184" s="4" t="s">
         <v>225</v>
       </c>
-      <c r="C184" s="3"/>
-      <c r="D184" s="3"/>
-    </row>
-    <row r="185" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A185" s="3">
+      <c r="C184" s="4"/>
+      <c r="D184" s="4"/>
+      <c r="E184" s="4"/>
+    </row>
+    <row r="185" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A185" s="4">
         <v>23</v>
       </c>
-      <c r="B185" s="3" t="s">
+      <c r="B185" s="4" t="s">
         <v>226</v>
       </c>
-      <c r="C185" s="3"/>
-      <c r="D185" s="3"/>
-    </row>
-    <row r="186" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A186" s="3">
+      <c r="C185" s="4"/>
+      <c r="D185" s="4"/>
+      <c r="E185" s="4"/>
+    </row>
+    <row r="186" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A186" s="4">
         <v>24</v>
       </c>
-      <c r="B186" s="3" t="s">
+      <c r="B186" s="4" t="s">
         <v>235</v>
       </c>
-      <c r="C186" s="3"/>
-      <c r="D186" s="3"/>
-    </row>
-    <row r="187" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A187" s="3">
+      <c r="C186" s="4"/>
+      <c r="D186" s="4"/>
+      <c r="E186" s="4"/>
+    </row>
+    <row r="187" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A187" s="4">
         <v>25</v>
       </c>
-      <c r="B187" s="3" t="s">
+      <c r="B187" s="4" t="s">
         <v>236</v>
       </c>
-      <c r="C187" s="3"/>
-      <c r="D187" s="3"/>
-    </row>
-    <row r="188" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A188" s="2" t="s">
+      <c r="C187" s="4"/>
+      <c r="D187" s="4"/>
+      <c r="E187" s="4"/>
+    </row>
+    <row r="188" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A188" s="3" t="s">
         <v>285</v>
       </c>
-      <c r="B188" s="2"/>
-      <c r="C188" s="2"/>
-      <c r="D188" s="2"/>
-    </row>
-    <row r="189" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A189" s="3">
+      <c r="B188" s="3"/>
+      <c r="C188" s="3"/>
+      <c r="D188" s="3"/>
+      <c r="E188" s="3"/>
+    </row>
+    <row r="189" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A189" s="4">
         <v>1</v>
       </c>
-      <c r="B189" s="3" t="s">
+      <c r="B189" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C189" s="3" t="s">
+      <c r="C189" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="D189" s="3"/>
-    </row>
-    <row r="190" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A190" s="3">
+      <c r="D189" s="4"/>
+      <c r="E189" s="4"/>
+    </row>
+    <row r="190" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A190" s="4">
         <v>2</v>
       </c>
-      <c r="B190" s="3" t="s">
+      <c r="B190" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C190" s="3" t="s">
+      <c r="C190" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="D190" s="3"/>
-    </row>
-    <row r="191" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A191" s="3">
+      <c r="D190" s="4"/>
+      <c r="E190" s="4"/>
+    </row>
+    <row r="191" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A191" s="4">
         <v>3</v>
       </c>
-      <c r="B191" s="3" t="s">
+      <c r="B191" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C191" s="3" t="s">
+      <c r="C191" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="D191" s="3"/>
-    </row>
-    <row r="192" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A192" s="3">
+      <c r="D191" s="4"/>
+      <c r="E191" s="4"/>
+    </row>
+    <row r="192" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A192" s="4">
         <v>4</v>
       </c>
-      <c r="B192" s="3" t="s">
+      <c r="B192" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="C192" s="3"/>
-      <c r="D192" s="3"/>
-    </row>
-    <row r="193" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A193" s="3">
+      <c r="C192" s="4"/>
+      <c r="D192" s="4"/>
+      <c r="E192" s="4"/>
+    </row>
+    <row r="193" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A193" s="4">
         <v>5</v>
       </c>
-      <c r="B193" s="3" t="s">
+      <c r="B193" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="C193" s="3"/>
-      <c r="D193" s="3"/>
-    </row>
-    <row r="194" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A194" s="3">
+      <c r="C193" s="4"/>
+      <c r="D193" s="4"/>
+      <c r="E193" s="4"/>
+    </row>
+    <row r="194" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A194" s="4">
         <v>6</v>
       </c>
-      <c r="B194" s="3" t="s">
+      <c r="B194" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="C194" s="3"/>
-      <c r="D194" s="3"/>
-    </row>
-    <row r="195" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A195" s="3">
+      <c r="C194" s="4"/>
+      <c r="D194" s="4"/>
+      <c r="E194" s="4"/>
+    </row>
+    <row r="195" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A195" s="4">
         <v>7</v>
       </c>
-      <c r="B195" s="3" t="s">
+      <c r="B195" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="C195" s="3"/>
-      <c r="D195" s="3"/>
-    </row>
-    <row r="196" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A196" s="3">
+      <c r="C195" s="4"/>
+      <c r="D195" s="4"/>
+      <c r="E195" s="4"/>
+    </row>
+    <row r="196" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A196" s="4">
         <v>8</v>
       </c>
-      <c r="B196" s="3" t="s">
+      <c r="B196" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C196" s="3"/>
-      <c r="D196" s="3"/>
-    </row>
-    <row r="197" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A197" s="3">
+      <c r="C196" s="4"/>
+      <c r="D196" s="4"/>
+      <c r="E196" s="4"/>
+    </row>
+    <row r="197" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A197" s="4">
         <v>9</v>
       </c>
-      <c r="B197" s="3" t="s">
+      <c r="B197" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C197" s="3"/>
-      <c r="D197" s="3"/>
-    </row>
-    <row r="198" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A198" s="3">
+      <c r="C197" s="4"/>
+      <c r="D197" s="4"/>
+      <c r="E197" s="4"/>
+    </row>
+    <row r="198" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A198" s="4">
         <v>10</v>
       </c>
-      <c r="B198" s="3" t="s">
+      <c r="B198" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C198" s="3"/>
-      <c r="D198" s="3"/>
-    </row>
-    <row r="199" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A199" s="3">
+      <c r="C198" s="4"/>
+      <c r="D198" s="4"/>
+      <c r="E198" s="4"/>
+    </row>
+    <row r="199" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A199" s="4">
         <v>11</v>
       </c>
-      <c r="B199" s="3" t="s">
+      <c r="B199" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C199" s="3"/>
-      <c r="D199" s="3"/>
-    </row>
-    <row r="200" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A200" s="3">
+      <c r="C199" s="4"/>
+      <c r="D199" s="4"/>
+      <c r="E199" s="4"/>
+    </row>
+    <row r="200" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A200" s="4">
         <v>12</v>
       </c>
-      <c r="B200" s="3" t="s">
+      <c r="B200" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C200" s="3"/>
-      <c r="D200" s="3"/>
-    </row>
-    <row r="201" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A201" s="3">
+      <c r="C200" s="4"/>
+      <c r="D200" s="4"/>
+      <c r="E200" s="4"/>
+    </row>
+    <row r="201" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A201" s="4">
         <v>13</v>
       </c>
-      <c r="B201" s="3" t="s">
+      <c r="B201" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="C201" s="3"/>
-      <c r="D201" s="3"/>
-    </row>
-    <row r="202" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A202" s="3">
+      <c r="C201" s="4"/>
+      <c r="D201" s="4"/>
+      <c r="E201" s="4"/>
+    </row>
+    <row r="202" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A202" s="4">
         <v>14</v>
       </c>
-      <c r="B202" s="3" t="s">
+      <c r="B202" s="4" t="s">
         <v>207</v>
       </c>
-      <c r="C202" s="3"/>
-      <c r="D202" s="3"/>
-    </row>
-    <row r="203" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A203" s="3">
+      <c r="C202" s="4"/>
+      <c r="D202" s="4"/>
+      <c r="E202" s="4"/>
+    </row>
+    <row r="203" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A203" s="4">
         <v>15</v>
       </c>
-      <c r="B203" s="3" t="s">
+      <c r="B203" s="4" t="s">
         <v>208</v>
       </c>
-      <c r="C203" s="3"/>
-      <c r="D203" s="3"/>
-    </row>
-    <row r="204" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A204" s="3">
+      <c r="C203" s="4"/>
+      <c r="D203" s="4"/>
+      <c r="E203" s="4"/>
+    </row>
+    <row r="204" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A204" s="4">
         <v>16</v>
       </c>
-      <c r="B204" s="3" t="s">
+      <c r="B204" s="4" t="s">
         <v>209</v>
       </c>
-      <c r="C204" s="3"/>
-      <c r="D204" s="3"/>
-    </row>
-    <row r="205" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A205" s="3">
+      <c r="C204" s="4"/>
+      <c r="D204" s="4"/>
+      <c r="E204" s="4"/>
+    </row>
+    <row r="205" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A205" s="4">
         <v>17</v>
       </c>
-      <c r="B205" s="3" t="s">
+      <c r="B205" s="4" t="s">
         <v>210</v>
       </c>
-      <c r="C205" s="3"/>
-      <c r="D205" s="3"/>
-    </row>
-    <row r="206" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A206" s="3">
+      <c r="C205" s="4"/>
+      <c r="D205" s="4"/>
+      <c r="E205" s="4"/>
+    </row>
+    <row r="206" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A206" s="4">
         <v>18</v>
       </c>
-      <c r="B206" s="3" t="s">
+      <c r="B206" s="4" t="s">
         <v>211</v>
       </c>
-      <c r="C206" s="3"/>
-      <c r="D206" s="3"/>
-    </row>
-    <row r="207" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A207" s="3">
+      <c r="C206" s="4"/>
+      <c r="D206" s="4"/>
+      <c r="E206" s="4"/>
+    </row>
+    <row r="207" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A207" s="4">
         <v>19</v>
       </c>
-      <c r="B207" s="3" t="s">
+      <c r="B207" s="4" t="s">
         <v>212</v>
       </c>
-      <c r="C207" s="3"/>
-      <c r="D207" s="3"/>
-    </row>
-    <row r="208" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A208" s="3">
+      <c r="C207" s="4"/>
+      <c r="D207" s="4"/>
+      <c r="E207" s="4"/>
+    </row>
+    <row r="208" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A208" s="4">
         <v>20</v>
       </c>
-      <c r="B208" s="3" t="s">
+      <c r="B208" s="4" t="s">
         <v>213</v>
       </c>
-      <c r="C208" s="3"/>
-      <c r="D208" s="3"/>
-    </row>
-    <row r="209" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A209" s="3">
+      <c r="C208" s="4"/>
+      <c r="D208" s="4"/>
+      <c r="E208" s="4"/>
+    </row>
+    <row r="209" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A209" s="4">
         <v>21</v>
       </c>
-      <c r="B209" s="3" t="s">
+      <c r="B209" s="4" t="s">
         <v>214</v>
       </c>
-      <c r="C209" s="3"/>
-      <c r="D209" s="3"/>
-    </row>
-    <row r="210" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A210" s="3">
+      <c r="C209" s="4"/>
+      <c r="D209" s="4"/>
+      <c r="E209" s="4"/>
+    </row>
+    <row r="210" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A210" s="4">
         <v>22</v>
       </c>
-      <c r="B210" s="3" t="s">
+      <c r="B210" s="4" t="s">
         <v>215</v>
       </c>
-      <c r="C210" s="3"/>
-      <c r="D210" s="3"/>
-    </row>
-    <row r="211" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A211" s="2" t="s">
+      <c r="C210" s="4"/>
+      <c r="D210" s="4"/>
+      <c r="E210" s="4"/>
+    </row>
+    <row r="211" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A211" s="3" t="s">
         <v>286</v>
       </c>
-      <c r="B211" s="2"/>
-      <c r="C211" s="2"/>
-      <c r="D211" s="2"/>
-    </row>
-    <row r="212" spans="1:4" ht="54" x14ac:dyDescent="0.15">
-      <c r="A212" s="3">
+      <c r="B211" s="3"/>
+      <c r="C211" s="3"/>
+      <c r="D211" s="3"/>
+      <c r="E211" s="3"/>
+    </row>
+    <row r="212" spans="1:5" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A212" s="4">
         <v>1</v>
       </c>
-      <c r="B212" s="3" t="s">
+      <c r="B212" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="C212" s="3" t="s">
+      <c r="C212" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="D212" s="6" t="s">
+      <c r="D212" s="4"/>
+      <c r="E212" s="6" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="213" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A213" s="3">
+    <row r="213" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A213" s="4">
         <v>2</v>
       </c>
-      <c r="B213" s="3" t="s">
+      <c r="B213" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="C213" s="3"/>
-      <c r="D213" s="6"/>
-    </row>
-    <row r="214" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A214" s="3">
+      <c r="C213" s="4"/>
+      <c r="D213" s="4"/>
+      <c r="E213" s="6"/>
+    </row>
+    <row r="214" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A214" s="4">
         <v>3</v>
       </c>
-      <c r="B214" s="3" t="s">
+      <c r="B214" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="C214" s="3"/>
-      <c r="D214" s="6"/>
-    </row>
-    <row r="215" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A215" s="3">
+      <c r="C214" s="4"/>
+      <c r="D214" s="4"/>
+      <c r="E214" s="6"/>
+    </row>
+    <row r="215" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A215" s="4">
         <v>4</v>
       </c>
-      <c r="B215" s="3" t="s">
+      <c r="B215" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="C215" s="3"/>
-      <c r="D215" s="6"/>
-    </row>
-    <row r="216" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A216" s="3">
+      <c r="C215" s="4"/>
+      <c r="D215" s="4"/>
+      <c r="E215" s="6"/>
+    </row>
+    <row r="216" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A216" s="4">
         <v>5</v>
       </c>
-      <c r="B216" s="3" t="s">
+      <c r="B216" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="C216" s="3"/>
-      <c r="D216" s="6"/>
-    </row>
-    <row r="217" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A217" s="3">
+      <c r="C216" s="4"/>
+      <c r="D216" s="4"/>
+      <c r="E216" s="6"/>
+    </row>
+    <row r="217" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A217" s="4">
         <v>6</v>
       </c>
-      <c r="B217" s="3" t="s">
+      <c r="B217" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="C217" s="3"/>
-      <c r="D217" s="6" t="s">
+      <c r="C217" s="4"/>
+      <c r="D217" s="4"/>
+      <c r="E217" s="6" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="218" spans="1:4" ht="27" x14ac:dyDescent="0.15">
-      <c r="A218" s="3">
+    <row r="218" spans="1:5" ht="33" x14ac:dyDescent="0.3">
+      <c r="A218" s="4">
         <v>7</v>
       </c>
-      <c r="B218" s="3" t="s">
+      <c r="B218" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="C218" s="3"/>
-      <c r="D218" s="6" t="s">
+      <c r="C218" s="4"/>
+      <c r="D218" s="4"/>
+      <c r="E218" s="6" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="219" spans="1:4" ht="27" x14ac:dyDescent="0.15">
-      <c r="A219" s="3">
+    <row r="219" spans="1:5" ht="33" x14ac:dyDescent="0.3">
+      <c r="A219" s="4">
         <v>8</v>
       </c>
-      <c r="B219" s="3" t="s">
+      <c r="B219" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="C219" s="3"/>
-      <c r="D219" s="6" t="s">
+      <c r="C219" s="4"/>
+      <c r="D219" s="4"/>
+      <c r="E219" s="6" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="220" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A220" s="3">
+    <row r="220" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A220" s="4">
         <v>9</v>
       </c>
-      <c r="B220" s="3" t="s">
+      <c r="B220" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="C220" s="3" t="s">
+      <c r="C220" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="D220" s="6" t="s">
+      <c r="D220" s="4"/>
+      <c r="E220" s="6" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="221" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A221" s="3">
+    <row r="221" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A221" s="4">
         <v>10</v>
       </c>
-      <c r="B221" s="3" t="s">
+      <c r="B221" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="C221" s="3"/>
-      <c r="D221" s="3"/>
-    </row>
-    <row r="222" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A222" s="3">
+      <c r="C221" s="4"/>
+      <c r="D221" s="4"/>
+      <c r="E221" s="4"/>
+    </row>
+    <row r="222" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A222" s="4">
         <v>11</v>
       </c>
-      <c r="B222" s="3" t="s">
+      <c r="B222" s="4" t="s">
         <v>242</v>
       </c>
-      <c r="C222" s="3"/>
-      <c r="D222" s="3"/>
-    </row>
-    <row r="223" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A223" s="3">
+      <c r="C222" s="4"/>
+      <c r="D222" s="4"/>
+      <c r="E222" s="4"/>
+    </row>
+    <row r="223" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A223" s="4">
         <v>12</v>
       </c>
-      <c r="B223" s="3" t="s">
+      <c r="B223" s="4" t="s">
         <v>243</v>
       </c>
-      <c r="C223" s="3"/>
-      <c r="D223" s="3"/>
-    </row>
-    <row r="224" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A224" s="3">
+      <c r="C223" s="4"/>
+      <c r="D223" s="4"/>
+      <c r="E223" s="4"/>
+    </row>
+    <row r="224" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A224" s="4">
         <v>13</v>
       </c>
-      <c r="B224" s="3" t="s">
+      <c r="B224" s="4" t="s">
         <v>244</v>
       </c>
-      <c r="C224" s="3"/>
-      <c r="D224" s="3"/>
-    </row>
-    <row r="225" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A225" s="2" t="s">
+      <c r="C224" s="4"/>
+      <c r="D224" s="4"/>
+      <c r="E224" s="4"/>
+    </row>
+    <row r="225" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A225" s="3" t="s">
         <v>287</v>
       </c>
-      <c r="B225" s="2"/>
-      <c r="C225" s="2"/>
-      <c r="D225" s="2"/>
-    </row>
-    <row r="226" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A226" s="3">
+      <c r="B225" s="3"/>
+      <c r="C225" s="3"/>
+      <c r="D225" s="3"/>
+      <c r="E225" s="3"/>
+    </row>
+    <row r="226" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A226" s="4">
         <v>1</v>
       </c>
-      <c r="B226" s="3" t="s">
+      <c r="B226" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C226" s="3"/>
-      <c r="D226" s="3"/>
-    </row>
-    <row r="227" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A227" s="3">
+      <c r="C226" s="4"/>
+      <c r="D226" s="4"/>
+      <c r="E226" s="4"/>
+    </row>
+    <row r="227" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A227" s="4">
         <v>2</v>
       </c>
-      <c r="B227" s="3" t="s">
+      <c r="B227" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="C227" s="3"/>
-      <c r="D227" s="3"/>
-    </row>
-    <row r="228" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A228" s="3">
+      <c r="C227" s="4"/>
+      <c r="D227" s="4"/>
+      <c r="E227" s="4"/>
+    </row>
+    <row r="228" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A228" s="4">
         <v>3</v>
       </c>
-      <c r="B228" s="3" t="s">
+      <c r="B228" s="4" t="s">
         <v>259</v>
       </c>
-      <c r="C228" s="3"/>
-      <c r="D228" s="3"/>
-    </row>
-    <row r="229" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A229" s="3">
+      <c r="C228" s="4"/>
+      <c r="D228" s="4"/>
+      <c r="E228" s="4"/>
+    </row>
+    <row r="229" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A229" s="4">
         <v>4</v>
       </c>
-      <c r="B229" s="3" t="s">
+      <c r="B229" s="4" t="s">
         <v>260</v>
       </c>
-      <c r="C229" s="3"/>
-      <c r="D229" s="3"/>
-    </row>
-    <row r="230" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A230" s="3">
+      <c r="C229" s="4"/>
+      <c r="D229" s="4"/>
+      <c r="E229" s="4"/>
+    </row>
+    <row r="230" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A230" s="4">
         <v>5</v>
       </c>
-      <c r="B230" s="3" t="s">
+      <c r="B230" s="4" t="s">
         <v>261</v>
       </c>
-      <c r="C230" s="3"/>
-      <c r="D230" s="3"/>
-    </row>
-    <row r="231" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A231" s="2" t="s">
+      <c r="C230" s="4"/>
+      <c r="D230" s="4"/>
+      <c r="E230" s="4"/>
+    </row>
+    <row r="231" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A231" s="3" t="s">
         <v>288</v>
       </c>
-      <c r="B231" s="2"/>
-      <c r="C231" s="2"/>
-      <c r="D231" s="2"/>
-    </row>
-    <row r="232" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A232" s="3">
+      <c r="B231" s="3"/>
+      <c r="C231" s="3"/>
+      <c r="D231" s="3"/>
+      <c r="E231" s="3"/>
+    </row>
+    <row r="232" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A232" s="4">
         <v>1</v>
       </c>
-      <c r="B232" s="3" t="s">
+      <c r="B232" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C232" s="3"/>
-      <c r="D232" s="3"/>
-    </row>
-    <row r="233" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A233" s="3">
+      <c r="C232" s="4"/>
+      <c r="D232" s="4"/>
+      <c r="E232" s="4"/>
+    </row>
+    <row r="233" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A233" s="4">
         <v>2</v>
       </c>
-      <c r="B233" s="3" t="s">
+      <c r="B233" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C233" s="3"/>
-      <c r="D233" s="3"/>
-    </row>
-    <row r="234" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A234" s="3">
+      <c r="C233" s="4"/>
+      <c r="D233" s="4"/>
+      <c r="E233" s="4"/>
+    </row>
+    <row r="234" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A234" s="4">
         <v>3</v>
       </c>
-      <c r="B234" s="3" t="s">
+      <c r="B234" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C234" s="3"/>
-      <c r="D234" s="3"/>
-    </row>
-    <row r="235" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A235" s="3">
+      <c r="C234" s="4"/>
+      <c r="D234" s="4"/>
+      <c r="E234" s="4"/>
+    </row>
+    <row r="235" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A235" s="4">
         <v>4</v>
       </c>
-      <c r="B235" s="3" t="s">
+      <c r="B235" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C235" s="3"/>
-      <c r="D235" s="3"/>
-    </row>
-    <row r="236" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A236" s="2" t="s">
+      <c r="C235" s="4"/>
+      <c r="D235" s="4"/>
+      <c r="E235" s="4"/>
+    </row>
+    <row r="236" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A236" s="3" t="s">
         <v>289</v>
       </c>
-      <c r="B236" s="2"/>
-      <c r="C236" s="2"/>
-      <c r="D236" s="2"/>
-    </row>
-    <row r="237" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A237" s="3">
+      <c r="B236" s="3"/>
+      <c r="C236" s="3"/>
+      <c r="D236" s="3"/>
+      <c r="E236" s="3"/>
+    </row>
+    <row r="237" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A237" s="4">
         <v>1</v>
       </c>
-      <c r="B237" s="3" t="s">
+      <c r="B237" s="4" t="s">
         <v>257</v>
       </c>
-      <c r="C237" s="3"/>
-      <c r="D237" s="3"/>
-    </row>
-    <row r="238" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A238" s="3">
+      <c r="C237" s="4"/>
+      <c r="D237" s="4"/>
+      <c r="E237" s="4"/>
+    </row>
+    <row r="238" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A238" s="4">
         <v>2</v>
       </c>
-      <c r="B238" s="3" t="s">
+      <c r="B238" s="4" t="s">
         <v>258</v>
       </c>
-      <c r="C238" s="3"/>
-      <c r="D238" s="3"/>
-    </row>
-    <row r="239" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A239" s="3">
+      <c r="C238" s="4"/>
+      <c r="D238" s="4"/>
+      <c r="E238" s="4"/>
+    </row>
+    <row r="239" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A239" s="4">
         <v>3</v>
       </c>
-      <c r="B239" s="3" t="s">
+      <c r="B239" s="4" t="s">
         <v>262</v>
       </c>
-      <c r="C239" s="3"/>
-      <c r="D239" s="3"/>
-    </row>
-    <row r="240" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A240" s="3">
+      <c r="C239" s="4"/>
+      <c r="D239" s="4"/>
+      <c r="E239" s="4"/>
+    </row>
+    <row r="240" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A240" s="4">
         <v>4</v>
       </c>
-      <c r="B240" s="3" t="s">
+      <c r="B240" s="4" t="s">
         <v>263</v>
       </c>
-      <c r="C240" s="3"/>
-      <c r="D240" s="3"/>
-    </row>
-    <row r="241" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A241" s="3">
+      <c r="C240" s="4"/>
+      <c r="D240" s="4"/>
+      <c r="E240" s="4"/>
+    </row>
+    <row r="241" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A241" s="4">
         <v>5</v>
       </c>
-      <c r="B241" s="3" t="s">
+      <c r="B241" s="4" t="s">
         <v>264</v>
       </c>
-      <c r="C241" s="3"/>
-      <c r="D241" s="3"/>
-    </row>
-    <row r="242" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A242" s="3">
+      <c r="C241" s="4"/>
+      <c r="D241" s="4"/>
+      <c r="E241" s="4"/>
+    </row>
+    <row r="242" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A242" s="4">
         <v>6</v>
       </c>
-      <c r="B242" s="3" t="s">
+      <c r="B242" s="4" t="s">
         <v>265</v>
       </c>
-      <c r="C242" s="3"/>
-      <c r="D242" s="3"/>
-    </row>
-    <row r="243" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A243" s="3">
+      <c r="C242" s="4"/>
+      <c r="D242" s="4"/>
+      <c r="E242" s="4"/>
+    </row>
+    <row r="243" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A243" s="4">
         <v>7</v>
       </c>
-      <c r="B243" s="3" t="s">
+      <c r="B243" s="4" t="s">
         <v>266</v>
       </c>
-      <c r="C243" s="3"/>
-      <c r="D243" s="3"/>
-    </row>
-    <row r="244" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A244" s="3">
+      <c r="C243" s="4"/>
+      <c r="D243" s="4"/>
+      <c r="E243" s="4"/>
+    </row>
+    <row r="244" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A244" s="4">
         <v>8</v>
       </c>
-      <c r="B244" s="3" t="s">
+      <c r="B244" s="4" t="s">
         <v>267</v>
       </c>
-      <c r="C244" s="3"/>
-      <c r="D244" s="3"/>
-    </row>
-    <row r="245" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A245" s="3">
+      <c r="C244" s="4"/>
+      <c r="D244" s="4"/>
+      <c r="E244" s="4"/>
+    </row>
+    <row r="245" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A245" s="4">
         <v>9</v>
       </c>
-      <c r="B245" s="3" t="s">
+      <c r="B245" s="4" t="s">
         <v>268</v>
       </c>
-      <c r="C245" s="3"/>
-      <c r="D245" s="3"/>
-    </row>
-    <row r="246" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A246" s="3">
+      <c r="C245" s="4"/>
+      <c r="D245" s="4"/>
+      <c r="E245" s="4"/>
+    </row>
+    <row r="246" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A246" s="4">
         <v>10</v>
       </c>
-      <c r="B246" s="3" t="s">
+      <c r="B246" s="4" t="s">
         <v>269</v>
       </c>
-      <c r="C246" s="3"/>
-      <c r="D246" s="3"/>
-    </row>
-    <row r="247" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A247" s="3">
+      <c r="C246" s="4"/>
+      <c r="D246" s="4"/>
+      <c r="E246" s="4"/>
+    </row>
+    <row r="247" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A247" s="4">
         <v>11</v>
       </c>
-      <c r="B247" s="3" t="s">
+      <c r="B247" s="4" t="s">
         <v>270</v>
       </c>
-      <c r="C247" s="3"/>
-      <c r="D247" s="3"/>
-    </row>
-    <row r="248" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A248" s="3">
+      <c r="C247" s="4"/>
+      <c r="D247" s="4"/>
+      <c r="E247" s="4"/>
+    </row>
+    <row r="248" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A248" s="4">
         <v>12</v>
       </c>
-      <c r="B248" s="3" t="s">
+      <c r="B248" s="4" t="s">
         <v>271</v>
       </c>
-      <c r="C248" s="3"/>
-      <c r="D248" s="3"/>
-    </row>
-    <row r="249" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A249" s="2" t="s">
+      <c r="C248" s="4"/>
+      <c r="D248" s="4"/>
+      <c r="E248" s="4"/>
+    </row>
+    <row r="249" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A249" s="3" t="s">
         <v>290</v>
       </c>
-      <c r="B249" s="2"/>
-      <c r="C249" s="2"/>
-      <c r="D249" s="2"/>
-    </row>
-    <row r="250" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A250" s="3">
+      <c r="B249" s="3"/>
+      <c r="C249" s="3"/>
+      <c r="D249" s="3"/>
+      <c r="E249" s="3"/>
+    </row>
+    <row r="250" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A250" s="4">
         <v>1</v>
       </c>
-      <c r="B250" s="3" t="s">
+      <c r="B250" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="C250" s="3"/>
-      <c r="D250" s="3"/>
-    </row>
-    <row r="251" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A251" s="3">
+      <c r="C250" s="4"/>
+      <c r="D250" s="4"/>
+      <c r="E250" s="4"/>
+    </row>
+    <row r="251" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A251" s="4">
         <v>2</v>
       </c>
-      <c r="B251" s="3" t="s">
+      <c r="B251" s="4" t="s">
         <v>143</v>
       </c>
-      <c r="C251" s="3"/>
-      <c r="D251" s="3"/>
-    </row>
-    <row r="252" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A252" s="3">
+      <c r="C251" s="4"/>
+      <c r="D251" s="4"/>
+      <c r="E251" s="4"/>
+    </row>
+    <row r="252" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A252" s="4">
         <v>3</v>
       </c>
-      <c r="B252" s="3" t="s">
+      <c r="B252" s="4" t="s">
         <v>144</v>
       </c>
-      <c r="C252" s="3"/>
-      <c r="D252" s="3"/>
-    </row>
-    <row r="253" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A253" s="3">
+      <c r="C252" s="4"/>
+      <c r="D252" s="4"/>
+      <c r="E252" s="4"/>
+    </row>
+    <row r="253" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A253" s="4">
         <v>4</v>
       </c>
-      <c r="B253" s="3" t="s">
+      <c r="B253" s="4" t="s">
         <v>145</v>
       </c>
-      <c r="C253" s="3"/>
-      <c r="D253" s="3"/>
-    </row>
-    <row r="254" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A254" s="3">
+      <c r="C253" s="4"/>
+      <c r="D253" s="4"/>
+      <c r="E253" s="4"/>
+    </row>
+    <row r="254" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A254" s="4">
         <v>5</v>
       </c>
-      <c r="B254" s="3" t="s">
+      <c r="B254" s="4" t="s">
         <v>146</v>
       </c>
-      <c r="C254" s="3"/>
-      <c r="D254" s="3"/>
-    </row>
-    <row r="255" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A255" s="3">
+      <c r="C254" s="4"/>
+      <c r="D254" s="4"/>
+      <c r="E254" s="4"/>
+    </row>
+    <row r="255" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A255" s="4">
         <v>6</v>
       </c>
-      <c r="B255" s="3" t="s">
+      <c r="B255" s="4" t="s">
         <v>183</v>
       </c>
-      <c r="C255" s="3"/>
-      <c r="D255" s="3"/>
-    </row>
-    <row r="256" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A256" s="3">
+      <c r="C255" s="4"/>
+      <c r="D255" s="4"/>
+      <c r="E255" s="4"/>
+    </row>
+    <row r="256" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A256" s="4">
         <v>7</v>
       </c>
-      <c r="B256" s="3" t="s">
+      <c r="B256" s="4" t="s">
         <v>184</v>
       </c>
-      <c r="C256" s="3"/>
-      <c r="D256" s="3"/>
-    </row>
-    <row r="257" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A257" s="3">
+      <c r="C256" s="4"/>
+      <c r="D256" s="4"/>
+      <c r="E256" s="4"/>
+    </row>
+    <row r="257" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A257" s="4">
         <v>8</v>
       </c>
-      <c r="B257" s="3" t="s">
+      <c r="B257" s="4" t="s">
         <v>185</v>
       </c>
-      <c r="C257" s="3"/>
-      <c r="D257" s="3"/>
-    </row>
-    <row r="258" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A258" s="3">
+      <c r="C257" s="4"/>
+      <c r="D257" s="4"/>
+      <c r="E257" s="4"/>
+    </row>
+    <row r="258" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A258" s="4">
         <v>9</v>
       </c>
-      <c r="B258" s="3" t="s">
+      <c r="B258" s="4" t="s">
         <v>186</v>
       </c>
-      <c r="C258" s="3"/>
-      <c r="D258" s="3"/>
-    </row>
-    <row r="259" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A259" s="3">
+      <c r="C258" s="4"/>
+      <c r="D258" s="4"/>
+      <c r="E258" s="4"/>
+    </row>
+    <row r="259" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A259" s="4">
         <v>10</v>
       </c>
-      <c r="B259" s="3" t="s">
+      <c r="B259" s="4" t="s">
         <v>204</v>
       </c>
-      <c r="C259" s="3"/>
-      <c r="D259" s="3"/>
-    </row>
-    <row r="260" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A260" s="3">
+      <c r="C259" s="4"/>
+      <c r="D259" s="4"/>
+      <c r="E259" s="4"/>
+    </row>
+    <row r="260" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A260" s="4">
         <v>11</v>
       </c>
-      <c r="B260" s="3" t="s">
+      <c r="B260" s="4" t="s">
         <v>205</v>
       </c>
-      <c r="C260" s="3"/>
-      <c r="D260" s="3"/>
-    </row>
-    <row r="261" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A261" s="3">
+      <c r="C260" s="4"/>
+      <c r="D260" s="4"/>
+      <c r="E260" s="4"/>
+    </row>
+    <row r="261" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A261" s="4">
         <v>12</v>
       </c>
-      <c r="B261" s="3" t="s">
+      <c r="B261" s="4" t="s">
         <v>206</v>
       </c>
-      <c r="C261" s="3"/>
-      <c r="D261" s="3"/>
-    </row>
-    <row r="262" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A262" s="3">
+      <c r="C261" s="4"/>
+      <c r="D261" s="4"/>
+      <c r="E261" s="4"/>
+    </row>
+    <row r="262" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A262" s="4">
         <v>13</v>
       </c>
-      <c r="B262" s="3" t="s">
+      <c r="B262" s="4" t="s">
         <v>234</v>
       </c>
-      <c r="C262" s="3"/>
-      <c r="D262" s="3"/>
-    </row>
-    <row r="263" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A263" s="2" t="s">
+      <c r="C262" s="4"/>
+      <c r="D262" s="4"/>
+      <c r="E262" s="4"/>
+    </row>
+    <row r="263" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A263" s="3" t="s">
         <v>291</v>
       </c>
-      <c r="B263" s="2"/>
-      <c r="C263" s="2"/>
-      <c r="D263" s="2"/>
-    </row>
-    <row r="264" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A264" s="3">
+      <c r="B263" s="3"/>
+      <c r="C263" s="3"/>
+      <c r="D263" s="3"/>
+      <c r="E263" s="3"/>
+    </row>
+    <row r="264" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A264" s="4">
         <v>1</v>
       </c>
-      <c r="B264" s="3" t="s">
+      <c r="B264" s="4" t="s">
         <v>177</v>
       </c>
-      <c r="C264" s="3"/>
-      <c r="D264" s="3"/>
-    </row>
-    <row r="265" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A265" s="3">
+      <c r="C264" s="4"/>
+      <c r="D264" s="4"/>
+      <c r="E264" s="4"/>
+    </row>
+    <row r="265" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A265" s="4">
         <v>2</v>
       </c>
-      <c r="B265" s="3" t="s">
+      <c r="B265" s="4" t="s">
         <v>178</v>
       </c>
-      <c r="C265" s="3"/>
-      <c r="D265" s="3"/>
-    </row>
-    <row r="266" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A266" s="3">
+      <c r="C265" s="4"/>
+      <c r="D265" s="4"/>
+      <c r="E265" s="4"/>
+    </row>
+    <row r="266" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A266" s="4">
         <v>3</v>
       </c>
-      <c r="B266" s="3" t="s">
+      <c r="B266" s="4" t="s">
         <v>179</v>
       </c>
-      <c r="C266" s="3"/>
-      <c r="D266" s="3"/>
-    </row>
-    <row r="267" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A267" s="3">
+      <c r="C266" s="4"/>
+      <c r="D266" s="4"/>
+      <c r="E266" s="4"/>
+    </row>
+    <row r="267" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A267" s="4">
         <v>4</v>
       </c>
-      <c r="B267" s="3" t="s">
+      <c r="B267" s="4" t="s">
         <v>180</v>
       </c>
-      <c r="C267" s="3"/>
-      <c r="D267" s="3"/>
-    </row>
-    <row r="268" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A268" s="3">
+      <c r="C267" s="4"/>
+      <c r="D267" s="4"/>
+      <c r="E267" s="4"/>
+    </row>
+    <row r="268" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A268" s="4">
         <v>5</v>
       </c>
-      <c r="B268" s="3" t="s">
+      <c r="B268" s="4" t="s">
         <v>181</v>
       </c>
-      <c r="C268" s="3"/>
-      <c r="D268" s="3"/>
-    </row>
-    <row r="269" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A269" s="3">
+      <c r="C268" s="4"/>
+      <c r="D268" s="4"/>
+      <c r="E268" s="4"/>
+    </row>
+    <row r="269" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A269" s="4">
         <v>6</v>
       </c>
-      <c r="B269" s="3" t="s">
+      <c r="B269" s="4" t="s">
         <v>182</v>
       </c>
-      <c r="C269" s="3"/>
-      <c r="D269" s="3"/>
-    </row>
-    <row r="270" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A270" s="3">
+      <c r="C269" s="4"/>
+      <c r="D269" s="4"/>
+      <c r="E269" s="4"/>
+    </row>
+    <row r="270" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A270" s="4">
         <v>7</v>
       </c>
-      <c r="B270" s="3" t="s">
+      <c r="B270" s="4" t="s">
         <v>246</v>
       </c>
-      <c r="C270" s="3"/>
-      <c r="D270" s="3"/>
+      <c r="C270" s="4"/>
+      <c r="D270" s="4"/>
+      <c r="E270" s="4"/>
+    </row>
+    <row r="271" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A271" s="3" t="s">
+        <v>297</v>
+      </c>
+      <c r="B271" s="3"/>
+      <c r="C271" s="3"/>
+      <c r="D271" s="3"/>
+      <c r="E271" s="3"/>
+    </row>
+    <row r="272" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A272" s="4">
+        <v>1</v>
+      </c>
+      <c r="B272" s="4" t="s">
+        <v>298</v>
+      </c>
+      <c r="C272" s="4" t="s">
+        <v>300</v>
+      </c>
+      <c r="D272" s="4"/>
+      <c r="E272" s="4"/>
+    </row>
+    <row r="273" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A273" s="4">
+        <v>2</v>
+      </c>
+      <c r="B273" s="4" t="s">
+        <v>315</v>
+      </c>
+      <c r="C273" s="4" t="s">
+        <v>299</v>
+      </c>
+      <c r="D273" s="4"/>
+      <c r="E273" s="4"/>
+    </row>
+    <row r="274" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A274" s="4">
+        <v>3</v>
+      </c>
+      <c r="B274" s="4" t="s">
+        <v>316</v>
+      </c>
+      <c r="C274" s="4" t="s">
+        <v>301</v>
+      </c>
+      <c r="D274" s="4"/>
+      <c r="E274" s="4"/>
+    </row>
+    <row r="275" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A275" s="4">
+        <v>4</v>
+      </c>
+      <c r="B275" s="4" t="s">
+        <v>317</v>
+      </c>
+      <c r="C275" s="4" t="s">
+        <v>302</v>
+      </c>
+      <c r="D275" s="4"/>
+      <c r="E275" s="4"/>
+    </row>
+    <row r="276" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A276" s="4">
+        <v>5</v>
+      </c>
+      <c r="B276" s="4" t="s">
+        <v>378</v>
+      </c>
+      <c r="C276" s="4" t="s">
+        <v>303</v>
+      </c>
+      <c r="D276" s="4"/>
+      <c r="E276" s="4"/>
+    </row>
+    <row r="277" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A277" s="4">
+        <v>6</v>
+      </c>
+      <c r="B277" s="4" t="s">
+        <v>318</v>
+      </c>
+      <c r="C277" s="4" t="s">
+        <v>304</v>
+      </c>
+      <c r="D277" s="4" t="s">
+        <v>384</v>
+      </c>
+      <c r="E277" s="4"/>
+    </row>
+    <row r="278" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A278" s="4">
+        <v>7</v>
+      </c>
+      <c r="B278" s="4" t="s">
+        <v>305</v>
+      </c>
+      <c r="C278" s="4" t="s">
+        <v>306</v>
+      </c>
+      <c r="D278" s="4"/>
+      <c r="E278" s="4"/>
+    </row>
+    <row r="279" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A279" s="4">
+        <v>8</v>
+      </c>
+      <c r="B279" s="4" t="s">
+        <v>307</v>
+      </c>
+      <c r="C279" s="4" t="s">
+        <v>308</v>
+      </c>
+      <c r="D279" s="4"/>
+      <c r="E279" s="4"/>
+    </row>
+    <row r="280" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A280" s="4">
+        <v>9</v>
+      </c>
+      <c r="B280" s="4" t="s">
+        <v>309</v>
+      </c>
+      <c r="C280" s="4" t="s">
+        <v>310</v>
+      </c>
+      <c r="D280" s="4" t="s">
+        <v>370</v>
+      </c>
+      <c r="E280" s="4"/>
+    </row>
+    <row r="281" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A281" s="3" t="s">
+        <v>382</v>
+      </c>
+      <c r="B281" s="3"/>
+      <c r="C281" s="3"/>
+      <c r="D281" s="3"/>
+      <c r="E281" s="3"/>
+    </row>
+    <row r="282" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A282" s="7" t="s">
+        <v>311</v>
+      </c>
+      <c r="B282" s="8"/>
+      <c r="C282" s="4"/>
+      <c r="D282" s="4"/>
+      <c r="E282" s="4"/>
+    </row>
+    <row r="283" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A283" s="4">
+        <v>1</v>
+      </c>
+      <c r="B283" s="4" t="s">
+        <v>319</v>
+      </c>
+      <c r="C283" s="4"/>
+      <c r="D283" s="4" t="s">
+        <v>370</v>
+      </c>
+      <c r="E283" s="4"/>
+    </row>
+    <row r="284" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A284" s="4">
+        <v>2</v>
+      </c>
+      <c r="B284" s="4" t="s">
+        <v>320</v>
+      </c>
+      <c r="C284" s="4"/>
+      <c r="D284" s="4" t="s">
+        <v>381</v>
+      </c>
+      <c r="E284" s="4"/>
+    </row>
+    <row r="285" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A285" s="4">
+        <v>3</v>
+      </c>
+      <c r="B285" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="C285" s="4"/>
+      <c r="D285" s="4" t="s">
+        <v>370</v>
+      </c>
+      <c r="E285" s="4"/>
+    </row>
+    <row r="286" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A286" s="4">
+        <v>4</v>
+      </c>
+      <c r="B286" s="4" t="s">
+        <v>321</v>
+      </c>
+      <c r="C286" s="4"/>
+      <c r="D286" s="9" t="s">
+        <v>385</v>
+      </c>
+      <c r="E286" s="4"/>
+    </row>
+    <row r="287" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A287" s="7" t="s">
+        <v>312</v>
+      </c>
+      <c r="B287" s="8"/>
+      <c r="C287" s="4"/>
+      <c r="D287" s="4"/>
+      <c r="E287" s="4"/>
+    </row>
+    <row r="288" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A288" s="4">
+        <v>1</v>
+      </c>
+      <c r="B288" s="4" t="s">
+        <v>322</v>
+      </c>
+      <c r="C288" s="4"/>
+      <c r="D288" s="4" t="s">
+        <v>373</v>
+      </c>
+      <c r="E288" s="4"/>
+    </row>
+    <row r="289" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A289" s="4">
+        <v>2</v>
+      </c>
+      <c r="B289" s="4" t="s">
+        <v>323</v>
+      </c>
+      <c r="C289" s="4"/>
+      <c r="D289" s="4" t="s">
+        <v>370</v>
+      </c>
+      <c r="E289" s="4"/>
+    </row>
+    <row r="290" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A290" s="4">
+        <v>3</v>
+      </c>
+      <c r="B290" s="4" t="s">
+        <v>324</v>
+      </c>
+      <c r="C290" s="4"/>
+      <c r="D290" s="4" t="s">
+        <v>370</v>
+      </c>
+      <c r="E290" s="4"/>
+    </row>
+    <row r="291" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A291" s="4">
+        <v>4</v>
+      </c>
+      <c r="B291" s="4" t="s">
+        <v>325</v>
+      </c>
+      <c r="C291" s="4"/>
+      <c r="D291" s="9" t="s">
+        <v>385</v>
+      </c>
+      <c r="E291" s="4"/>
+    </row>
+    <row r="292" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A292" s="4">
+        <v>5</v>
+      </c>
+      <c r="B292" s="4" t="s">
+        <v>326</v>
+      </c>
+      <c r="C292" s="4"/>
+      <c r="D292" s="4" t="s">
+        <v>386</v>
+      </c>
+      <c r="E292" s="4"/>
+    </row>
+    <row r="293" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A293" s="7" t="s">
+        <v>313</v>
+      </c>
+      <c r="B293" s="8"/>
+      <c r="C293" s="4"/>
+      <c r="D293" s="4"/>
+      <c r="E293" s="4"/>
+    </row>
+    <row r="294" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A294" s="4">
+        <v>1</v>
+      </c>
+      <c r="B294" s="4" t="s">
+        <v>327</v>
+      </c>
+      <c r="C294" s="4"/>
+      <c r="D294" s="4" t="s">
+        <v>370</v>
+      </c>
+      <c r="E294" s="4"/>
+    </row>
+    <row r="295" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A295" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="B295" s="8"/>
+      <c r="C295" s="4"/>
+      <c r="D295" s="4"/>
+      <c r="E295" s="4"/>
+    </row>
+    <row r="296" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A296" s="4">
+        <v>1</v>
+      </c>
+      <c r="B296" s="4" t="s">
+        <v>328</v>
+      </c>
+      <c r="C296" s="4"/>
+      <c r="D296" s="4" t="s">
+        <v>387</v>
+      </c>
+      <c r="E296" s="4"/>
+    </row>
+    <row r="297" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A297" s="4">
+        <v>2</v>
+      </c>
+      <c r="B297" s="4" t="s">
+        <v>329</v>
+      </c>
+      <c r="C297" s="4"/>
+      <c r="D297" s="4" t="s">
+        <v>388</v>
+      </c>
+      <c r="E297" s="4"/>
+    </row>
+    <row r="298" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A298" s="4">
+        <v>3</v>
+      </c>
+      <c r="B298" s="4" t="s">
+        <v>330</v>
+      </c>
+      <c r="C298" s="4"/>
+      <c r="D298" s="9" t="s">
+        <v>385</v>
+      </c>
+      <c r="E298" s="4"/>
+    </row>
+    <row r="299" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A299" s="7" t="s">
+        <v>314</v>
+      </c>
+      <c r="B299" s="8"/>
+      <c r="C299" s="4"/>
+      <c r="D299" s="4"/>
+      <c r="E299" s="4"/>
+    </row>
+    <row r="300" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A300" s="4">
+        <v>1</v>
+      </c>
+      <c r="B300" s="4" t="s">
+        <v>331</v>
+      </c>
+      <c r="C300" s="4"/>
+      <c r="D300" s="4" t="s">
+        <v>390</v>
+      </c>
+      <c r="E300" s="4"/>
+    </row>
+    <row r="301" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A301" s="4">
+        <v>2</v>
+      </c>
+      <c r="B301" s="4" t="s">
+        <v>332</v>
+      </c>
+      <c r="C301" s="4"/>
+      <c r="D301" s="4" t="s">
+        <v>389</v>
+      </c>
+      <c r="E301" s="4"/>
+    </row>
+    <row r="302" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A302" s="7" t="s">
+        <v>366</v>
+      </c>
+      <c r="B302" s="8"/>
+      <c r="C302" s="4"/>
+      <c r="D302" s="4"/>
+      <c r="E302" s="4"/>
+    </row>
+    <row r="303" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A303" s="4">
+        <v>1</v>
+      </c>
+      <c r="B303" s="4" t="s">
+        <v>333</v>
+      </c>
+      <c r="C303" s="4"/>
+      <c r="D303" s="4" t="s">
+        <v>370</v>
+      </c>
+      <c r="E303" s="4"/>
+    </row>
+    <row r="304" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A304" s="4">
+        <v>2</v>
+      </c>
+      <c r="B304" s="4" t="s">
+        <v>334</v>
+      </c>
+      <c r="C304" s="4"/>
+      <c r="D304" s="4" t="s">
+        <v>391</v>
+      </c>
+      <c r="E304" s="4"/>
+    </row>
+    <row r="305" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A305" s="4">
+        <v>3</v>
+      </c>
+      <c r="B305" s="4" t="s">
+        <v>335</v>
+      </c>
+      <c r="C305" s="4"/>
+      <c r="D305" s="4" t="s">
+        <v>371</v>
+      </c>
+      <c r="E305" s="4"/>
+    </row>
+    <row r="306" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A306" s="4">
+        <v>4</v>
+      </c>
+      <c r="B306" s="4" t="s">
+        <v>336</v>
+      </c>
+      <c r="C306" s="4"/>
+      <c r="D306" s="4" t="s">
+        <v>373</v>
+      </c>
+      <c r="E306" s="4"/>
+    </row>
+    <row r="307" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A307" s="4">
+        <v>5</v>
+      </c>
+      <c r="B307" s="4" t="s">
+        <v>337</v>
+      </c>
+      <c r="C307" s="4"/>
+      <c r="D307" s="4"/>
+      <c r="E307" s="4"/>
+    </row>
+    <row r="308" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A308" s="4">
+        <v>6</v>
+      </c>
+      <c r="B308" s="4" t="s">
+        <v>338</v>
+      </c>
+      <c r="C308" s="4"/>
+      <c r="D308" s="4"/>
+      <c r="E308" s="4"/>
+    </row>
+    <row r="309" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A309" s="4">
+        <v>7</v>
+      </c>
+      <c r="B309" s="4" t="s">
+        <v>339</v>
+      </c>
+      <c r="C309" s="4"/>
+      <c r="D309" s="4" t="s">
+        <v>371</v>
+      </c>
+      <c r="E309" s="4"/>
+    </row>
+    <row r="310" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A310" s="4">
+        <v>8</v>
+      </c>
+      <c r="B310" s="4" t="s">
+        <v>340</v>
+      </c>
+      <c r="C310" s="4"/>
+      <c r="D310" s="4"/>
+      <c r="E310" s="4"/>
+    </row>
+    <row r="311" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A311" s="4">
+        <v>9</v>
+      </c>
+      <c r="B311" s="4" t="s">
+        <v>341</v>
+      </c>
+      <c r="C311" s="4"/>
+      <c r="D311" s="4" t="s">
+        <v>375</v>
+      </c>
+      <c r="E311" s="4"/>
+    </row>
+    <row r="312" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A312" s="7" t="s">
+        <v>367</v>
+      </c>
+      <c r="B312" s="8"/>
+      <c r="C312" s="4"/>
+      <c r="D312" s="4"/>
+      <c r="E312" s="4"/>
+    </row>
+    <row r="313" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A313" s="4">
+        <v>1</v>
+      </c>
+      <c r="B313" s="4" t="s">
+        <v>342</v>
+      </c>
+      <c r="C313" s="4"/>
+      <c r="D313" s="4"/>
+      <c r="E313" s="4"/>
+    </row>
+    <row r="314" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A314" s="4">
+        <v>2</v>
+      </c>
+      <c r="B314" s="4" t="s">
+        <v>343</v>
+      </c>
+      <c r="C314" s="4"/>
+      <c r="D314" s="4" t="s">
+        <v>374</v>
+      </c>
+      <c r="E314" s="4"/>
+    </row>
+    <row r="315" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A315" s="4">
+        <v>3</v>
+      </c>
+      <c r="B315" s="4" t="s">
+        <v>344</v>
+      </c>
+      <c r="C315" s="4"/>
+      <c r="D315" s="4" t="s">
+        <v>374</v>
+      </c>
+      <c r="E315" s="4"/>
+    </row>
+    <row r="316" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A316" s="7" t="s">
+        <v>368</v>
+      </c>
+      <c r="B316" s="8"/>
+      <c r="C316" s="4"/>
+      <c r="D316" s="4"/>
+      <c r="E316" s="4"/>
+    </row>
+    <row r="317" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A317" s="4">
+        <v>1</v>
+      </c>
+      <c r="B317" s="4" t="s">
+        <v>345</v>
+      </c>
+      <c r="C317" s="4"/>
+      <c r="D317" s="4" t="s">
+        <v>374</v>
+      </c>
+      <c r="E317" s="4"/>
+    </row>
+    <row r="318" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A318" s="4">
+        <v>2</v>
+      </c>
+      <c r="B318" s="4" t="s">
+        <v>346</v>
+      </c>
+      <c r="C318" s="4"/>
+      <c r="D318" s="4"/>
+      <c r="E318" s="4"/>
+    </row>
+    <row r="319" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A319" s="4">
+        <v>3</v>
+      </c>
+      <c r="B319" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="C319" s="4"/>
+      <c r="D319" s="4" t="s">
+        <v>380</v>
+      </c>
+      <c r="E319" s="4"/>
+    </row>
+    <row r="320" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A320" s="4">
+        <v>4</v>
+      </c>
+      <c r="B320" s="4" t="s">
+        <v>347</v>
+      </c>
+      <c r="C320" s="4"/>
+      <c r="D320" s="4" t="s">
+        <v>375</v>
+      </c>
+      <c r="E320" s="4"/>
+    </row>
+    <row r="321" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A321" s="7" t="s">
+        <v>369</v>
+      </c>
+      <c r="B321" s="8"/>
+      <c r="C321" s="4"/>
+      <c r="D321" s="4"/>
+      <c r="E321" s="4"/>
+    </row>
+    <row r="322" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A322" s="4">
+        <v>1</v>
+      </c>
+      <c r="B322" s="4" t="s">
+        <v>348</v>
+      </c>
+      <c r="C322" s="4"/>
+      <c r="D322" s="4" t="s">
+        <v>375</v>
+      </c>
+      <c r="E322" s="4"/>
+    </row>
+    <row r="323" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A323" s="4">
+        <v>2</v>
+      </c>
+      <c r="B323" s="4" t="s">
+        <v>349</v>
+      </c>
+      <c r="C323" s="4"/>
+      <c r="D323" s="4" t="s">
+        <v>375</v>
+      </c>
+      <c r="E323" s="4"/>
+    </row>
+    <row r="324" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A324" s="4">
+        <v>3</v>
+      </c>
+      <c r="B324" s="4" t="s">
+        <v>350</v>
+      </c>
+      <c r="C324" s="4"/>
+      <c r="D324" s="4"/>
+      <c r="E324" s="4"/>
+    </row>
+    <row r="325" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A325" s="4">
+        <v>4</v>
+      </c>
+      <c r="B325" s="4" t="s">
+        <v>351</v>
+      </c>
+      <c r="C325" s="4"/>
+      <c r="D325" s="4"/>
+      <c r="E325" s="4"/>
+    </row>
+    <row r="326" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A326" s="4">
+        <v>5</v>
+      </c>
+      <c r="B326" s="4" t="s">
+        <v>327</v>
+      </c>
+      <c r="C326" s="4"/>
+      <c r="D326" s="4" t="s">
+        <v>376</v>
+      </c>
+      <c r="E326" s="4"/>
+    </row>
+    <row r="327" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A327" s="3" t="s">
+        <v>383</v>
+      </c>
+      <c r="B327" s="3"/>
+      <c r="C327" s="3"/>
+      <c r="D327" s="3"/>
+      <c r="E327" s="3"/>
+    </row>
+    <row r="328" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A328" s="4">
+        <v>1</v>
+      </c>
+      <c r="B328" s="4" t="s">
+        <v>352</v>
+      </c>
+      <c r="C328" s="4"/>
+      <c r="D328" s="4"/>
+      <c r="E328" s="4"/>
+    </row>
+    <row r="329" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A329" s="4">
+        <v>2</v>
+      </c>
+      <c r="B329" s="4" t="s">
+        <v>353</v>
+      </c>
+      <c r="C329" s="4"/>
+      <c r="D329" s="4" t="s">
+        <v>380</v>
+      </c>
+      <c r="E329" s="4"/>
+    </row>
+    <row r="330" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A330" s="4">
+        <v>3</v>
+      </c>
+      <c r="B330" s="4" t="s">
+        <v>354</v>
+      </c>
+      <c r="C330" s="4"/>
+      <c r="D330" s="4" t="s">
+        <v>380</v>
+      </c>
+      <c r="E330" s="4"/>
+    </row>
+    <row r="331" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A331" s="4">
+        <v>4</v>
+      </c>
+      <c r="B331" s="4" t="s">
+        <v>355</v>
+      </c>
+      <c r="C331" s="4"/>
+      <c r="D331" s="4"/>
+      <c r="E331" s="4"/>
+    </row>
+    <row r="332" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A332" s="4">
+        <v>5</v>
+      </c>
+      <c r="B332" s="4" t="s">
+        <v>356</v>
+      </c>
+      <c r="C332" s="4"/>
+      <c r="D332" s="4" t="s">
+        <v>380</v>
+      </c>
+      <c r="E332" s="4"/>
+    </row>
+    <row r="333" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A333" s="4">
+        <v>6</v>
+      </c>
+      <c r="B333" s="4" t="s">
+        <v>357</v>
+      </c>
+      <c r="C333" s="4"/>
+      <c r="D333" s="4" t="s">
+        <v>379</v>
+      </c>
+      <c r="E333" s="4"/>
+    </row>
+    <row r="334" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A334" s="4">
+        <v>7</v>
+      </c>
+      <c r="B334" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="C334" s="4"/>
+      <c r="D334" s="4" t="s">
+        <v>377</v>
+      </c>
+      <c r="E334" s="4"/>
+    </row>
+    <row r="335" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A335" s="4">
+        <v>8</v>
+      </c>
+      <c r="B335" s="4" t="s">
+        <v>358</v>
+      </c>
+      <c r="C335" s="4"/>
+      <c r="D335" s="4"/>
+      <c r="E335" s="4"/>
+    </row>
+    <row r="336" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A336" s="4">
+        <v>9</v>
+      </c>
+      <c r="B336" s="4" t="s">
+        <v>359</v>
+      </c>
+      <c r="C336" s="4"/>
+      <c r="D336" s="4"/>
+      <c r="E336" s="4"/>
+    </row>
+    <row r="337" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A337" s="4">
+        <v>10</v>
+      </c>
+      <c r="B337" s="4" t="s">
+        <v>360</v>
+      </c>
+      <c r="C337" s="4"/>
+      <c r="D337" s="4"/>
+      <c r="E337" s="4"/>
+    </row>
+    <row r="338" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A338" s="4">
+        <v>11</v>
+      </c>
+      <c r="B338" s="4" t="s">
+        <v>361</v>
+      </c>
+      <c r="C338" s="4"/>
+      <c r="D338" s="4"/>
+      <c r="E338" s="4"/>
+    </row>
+    <row r="339" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A339" s="4">
+        <v>12</v>
+      </c>
+      <c r="B339" s="4" t="s">
+        <v>362</v>
+      </c>
+      <c r="C339" s="4"/>
+      <c r="D339" s="4"/>
+      <c r="E339" s="4"/>
+    </row>
+    <row r="340" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A340" s="4">
+        <v>13</v>
+      </c>
+      <c r="B340" s="4" t="s">
+        <v>363</v>
+      </c>
+      <c r="C340" s="4"/>
+      <c r="D340" s="4"/>
+      <c r="E340" s="4"/>
+    </row>
+    <row r="341" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A341" s="4">
+        <v>14</v>
+      </c>
+      <c r="B341" s="4" t="s">
+        <v>364</v>
+      </c>
+      <c r="C341" s="4"/>
+      <c r="D341" s="4"/>
+      <c r="E341" s="4"/>
     </row>
   </sheetData>
-  <mergeCells count="17">
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="A19:D19"/>
-    <mergeCell ref="A42:D42"/>
-    <mergeCell ref="A84:D84"/>
-    <mergeCell ref="A139:D139"/>
-    <mergeCell ref="A112:D112"/>
-    <mergeCell ref="A143:D143"/>
-    <mergeCell ref="A149:D149"/>
-    <mergeCell ref="A158:D158"/>
-    <mergeCell ref="A162:D162"/>
-    <mergeCell ref="A188:D188"/>
-    <mergeCell ref="A263:D263"/>
-    <mergeCell ref="A211:D211"/>
-    <mergeCell ref="A225:D225"/>
-    <mergeCell ref="A231:D231"/>
-    <mergeCell ref="A236:D236"/>
-    <mergeCell ref="A249:D249"/>
+  <mergeCells count="29">
+    <mergeCell ref="A302:B302"/>
+    <mergeCell ref="A312:B312"/>
+    <mergeCell ref="A316:B316"/>
+    <mergeCell ref="A321:B321"/>
+    <mergeCell ref="A327:E327"/>
+    <mergeCell ref="A282:B282"/>
+    <mergeCell ref="A287:B287"/>
+    <mergeCell ref="A293:B293"/>
+    <mergeCell ref="A295:B295"/>
+    <mergeCell ref="A299:B299"/>
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="A19:E19"/>
+    <mergeCell ref="A42:E42"/>
+    <mergeCell ref="A84:E84"/>
+    <mergeCell ref="A139:E139"/>
+    <mergeCell ref="A112:E112"/>
+    <mergeCell ref="A143:E143"/>
+    <mergeCell ref="A149:E149"/>
+    <mergeCell ref="A158:E158"/>
+    <mergeCell ref="A162:E162"/>
+    <mergeCell ref="A188:E188"/>
+    <mergeCell ref="A271:E271"/>
+    <mergeCell ref="A281:E281"/>
+    <mergeCell ref="A263:E263"/>
+    <mergeCell ref="A211:E211"/>
+    <mergeCell ref="A225:E225"/>
+    <mergeCell ref="A231:E231"/>
+    <mergeCell ref="A236:E236"/>
+    <mergeCell ref="A249:E249"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/doc/BookList.xlsx
+++ b/doc/BookList.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="573" uniqueCount="425">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="596" uniqueCount="446">
   <si>
     <t>民主的细节</t>
   </si>
@@ -475,10 +475,6 @@
   </si>
   <si>
     <t>发现心流</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>创造力</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1657,6 +1653,94 @@
   </si>
   <si>
     <t>掌阅-4399</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>极简工作法则</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>极简生活法则</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>纸书</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>掌阅-2940</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>掌阅-1299</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>创造力:心流与创新心理学</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>掌阅-4399</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>掌阅-3499</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>掌阅无</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>掌阅-2160</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>掌阅-999</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>掌阅已有</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>掌阅-1699</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已购</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>掌阅-499</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已购</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>掌阅-1200</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>掌阅-1299</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>掌阅-1999</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>掌阅-1799</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如何学习</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>epub</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1787,9 +1871,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -2094,11 +2178,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E341"/>
+  <dimension ref="A1:E344"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A312" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B337" sqref="B337"/>
+      <pane ySplit="1" topLeftCell="A326" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A344" sqref="A344"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2122,20 +2206,20 @@
         <v>91</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="9" t="s">
-        <v>271</v>
-      </c>
-      <c r="B2" s="9"/>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
+      <c r="A2" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="3">
@@ -2146,7 +2230,7 @@
       </c>
       <c r="C3" s="3"/>
       <c r="D3" s="3" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="E3" s="3"/>
     </row>
@@ -2159,7 +2243,7 @@
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="3" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="E4" s="3"/>
     </row>
@@ -2174,7 +2258,7 @@
         <v>53</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="E5" s="3"/>
     </row>
@@ -2187,7 +2271,7 @@
       </c>
       <c r="C6" s="3"/>
       <c r="D6" s="3" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="E6" s="3"/>
     </row>
@@ -2200,7 +2284,7 @@
       </c>
       <c r="C7" s="3"/>
       <c r="D7" s="3" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="E7" s="3"/>
     </row>
@@ -2209,11 +2293,11 @@
         <v>6</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C8" s="3"/>
       <c r="D8" s="3" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="E8" s="3"/>
     </row>
@@ -2222,7 +2306,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
@@ -2233,11 +2317,11 @@
         <v>8</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C10" s="3"/>
       <c r="D10" s="3" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="E10" s="3"/>
     </row>
@@ -2246,7 +2330,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
@@ -2257,11 +2341,11 @@
         <v>10</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C12" s="3"/>
       <c r="D12" s="3" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="E12" s="3"/>
     </row>
@@ -2270,11 +2354,11 @@
         <v>11</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C13" s="3"/>
       <c r="D13" s="3" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="E13" s="3"/>
     </row>
@@ -2283,11 +2367,11 @@
         <v>12</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C14" s="3"/>
       <c r="D14" s="3" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="E14" s="3"/>
     </row>
@@ -2296,11 +2380,11 @@
         <v>13</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C15" s="3"/>
       <c r="D15" s="3" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="E15" s="3"/>
     </row>
@@ -2309,7 +2393,7 @@
         <v>14</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
@@ -2320,11 +2404,11 @@
         <v>15</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C17" s="3"/>
       <c r="D17" s="3" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="E17" s="3"/>
     </row>
@@ -2333,7 +2417,7 @@
         <v>16</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
@@ -2344,22 +2428,22 @@
         <v>17</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="C19" s="3"/>
       <c r="D19" s="3" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="E19" s="3"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A20" s="9" t="s">
-        <v>272</v>
-      </c>
-      <c r="B20" s="9"/>
-      <c r="C20" s="9"/>
-      <c r="D20" s="9"/>
-      <c r="E20" s="9"/>
+      <c r="A20" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="B20" s="7"/>
+      <c r="C20" s="7"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="7"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="3">
@@ -2372,7 +2456,7 @@
         <v>56</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="E21" s="3"/>
     </row>
@@ -2385,7 +2469,7 @@
       </c>
       <c r="C22" s="3"/>
       <c r="D22" s="3" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="E22" s="3"/>
     </row>
@@ -2398,7 +2482,7 @@
       </c>
       <c r="C23" s="3"/>
       <c r="D23" s="3" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="E23" s="3"/>
     </row>
@@ -2422,7 +2506,7 @@
       </c>
       <c r="C25" s="3"/>
       <c r="D25" s="3" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="E25" s="3"/>
     </row>
@@ -2444,7 +2528,7 @@
         <v>7</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C27" s="3" t="s">
         <v>58</v>
@@ -2457,11 +2541,11 @@
         <v>8</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C28" s="3"/>
       <c r="D28" s="3" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="E28" s="3"/>
     </row>
@@ -2474,7 +2558,7 @@
       </c>
       <c r="C29" s="3"/>
       <c r="D29" s="3" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="E29" s="3"/>
     </row>
@@ -2498,7 +2582,7 @@
       </c>
       <c r="C31" s="3"/>
       <c r="D31" s="3" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="E31" s="3"/>
     </row>
@@ -2522,10 +2606,10 @@
       </c>
       <c r="C33" s="3"/>
       <c r="D33" s="3" t="s">
+        <v>393</v>
+      </c>
+      <c r="E33" s="3" t="s">
         <v>394</v>
-      </c>
-      <c r="E33" s="3" t="s">
-        <v>395</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
@@ -2536,7 +2620,9 @@
         <v>127</v>
       </c>
       <c r="C34" s="3"/>
-      <c r="D34" s="3"/>
+      <c r="D34" s="3" t="s">
+        <v>428</v>
+      </c>
       <c r="E34" s="3"/>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.3">
@@ -2544,7 +2630,7 @@
         <v>15</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C35" s="3"/>
       <c r="D35" s="3"/>
@@ -2555,11 +2641,11 @@
         <v>16</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C36" s="3"/>
       <c r="D36" s="3" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="E36" s="3"/>
     </row>
@@ -2568,11 +2654,11 @@
         <v>17</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C37" s="3"/>
       <c r="D37" s="3" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="E37" s="3"/>
     </row>
@@ -2581,11 +2667,11 @@
         <v>18</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C38" s="3"/>
       <c r="D38" s="3" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="E38" s="3"/>
     </row>
@@ -2594,7 +2680,7 @@
         <v>19</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C39" s="3"/>
       <c r="D39" s="3"/>
@@ -2605,11 +2691,11 @@
         <v>20</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C40" s="3"/>
       <c r="D40" s="3" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="E40" s="3"/>
     </row>
@@ -2618,11 +2704,11 @@
         <v>21</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C41" s="3"/>
       <c r="D41" s="3" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="E41" s="3"/>
     </row>
@@ -2631,20 +2717,20 @@
         <v>22</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C42" s="3"/>
       <c r="D42" s="3"/>
       <c r="E42" s="3"/>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A43" s="9" t="s">
-        <v>273</v>
-      </c>
-      <c r="B43" s="9"/>
-      <c r="C43" s="9"/>
-      <c r="D43" s="9"/>
-      <c r="E43" s="9"/>
+      <c r="A43" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="B43" s="7"/>
+      <c r="C43" s="7"/>
+      <c r="D43" s="7"/>
+      <c r="E43" s="7"/>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44" s="3">
@@ -2657,7 +2743,7 @@
         <v>82</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="E44" s="3"/>
     </row>
@@ -2672,7 +2758,7 @@
         <v>84</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="E45" s="3"/>
     </row>
@@ -2687,7 +2773,7 @@
         <v>82</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="E46" s="3"/>
     </row>
@@ -2702,7 +2788,7 @@
         <v>82</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="E47" s="3"/>
     </row>
@@ -2717,7 +2803,7 @@
         <v>82</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="E48" s="3"/>
     </row>
@@ -2730,7 +2816,7 @@
       </c>
       <c r="C49" s="3"/>
       <c r="D49" s="3" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="E49" s="3"/>
     </row>
@@ -2743,7 +2829,7 @@
       </c>
       <c r="C50" s="3"/>
       <c r="D50" s="3" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="E50" s="3"/>
     </row>
@@ -2752,18 +2838,22 @@
         <v>8</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C51" s="3"/>
-      <c r="D51" s="3"/>
-      <c r="E51" s="3"/>
+      <c r="D51" s="3" t="s">
+        <v>436</v>
+      </c>
+      <c r="E51" s="3" t="s">
+        <v>437</v>
+      </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A52" s="3">
         <v>9</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C52" s="3"/>
       <c r="D52" s="3"/>
@@ -2774,11 +2864,11 @@
         <v>10</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C53" s="3"/>
       <c r="D53" s="3" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="E53" s="3"/>
     </row>
@@ -2787,11 +2877,11 @@
         <v>11</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C54" s="3"/>
       <c r="D54" s="3" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="E54" s="3"/>
     </row>
@@ -2804,7 +2894,7 @@
       </c>
       <c r="C55" s="3"/>
       <c r="D55" s="3" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="E55" s="3"/>
     </row>
@@ -2817,7 +2907,7 @@
       </c>
       <c r="C56" s="3"/>
       <c r="D56" s="3" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="E56" s="3"/>
     </row>
@@ -2830,7 +2920,7 @@
       </c>
       <c r="C57" s="3"/>
       <c r="D57" s="3" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="E57" s="3"/>
     </row>
@@ -2843,7 +2933,7 @@
       </c>
       <c r="C58" s="3"/>
       <c r="D58" s="3" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="E58" s="3"/>
     </row>
@@ -2856,7 +2946,7 @@
       </c>
       <c r="C59" s="3"/>
       <c r="D59" s="3" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="E59" s="3"/>
     </row>
@@ -2869,7 +2959,7 @@
       </c>
       <c r="C60" s="3"/>
       <c r="D60" s="3" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="E60" s="3"/>
     </row>
@@ -2882,7 +2972,7 @@
       </c>
       <c r="C61" s="3"/>
       <c r="D61" s="3" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="E61" s="3"/>
     </row>
@@ -2895,7 +2985,7 @@
       </c>
       <c r="C62" s="3"/>
       <c r="D62" s="3" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="E62" s="3"/>
     </row>
@@ -2904,11 +2994,11 @@
         <v>20</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="C63" s="3"/>
       <c r="D63" s="3" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="E63" s="3"/>
     </row>
@@ -2921,7 +3011,7 @@
       </c>
       <c r="C64" s="3"/>
       <c r="D64" s="3" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="E64" s="3"/>
     </row>
@@ -2952,11 +3042,11 @@
         <v>24</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="C67" s="3"/>
       <c r="D67" s="3" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="E67" s="3"/>
     </row>
@@ -2969,7 +3059,7 @@
       </c>
       <c r="C68" s="3"/>
       <c r="D68" s="3" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="E68" s="3"/>
     </row>
@@ -2982,7 +3072,7 @@
       </c>
       <c r="C69" s="3"/>
       <c r="D69" s="3" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="E69" s="3"/>
     </row>
@@ -2995,7 +3085,7 @@
       </c>
       <c r="C70" s="3"/>
       <c r="D70" s="3" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="E70" s="3"/>
     </row>
@@ -3008,7 +3098,7 @@
       </c>
       <c r="C71" s="3"/>
       <c r="D71" s="3" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="E71" s="3"/>
     </row>
@@ -3021,7 +3111,7 @@
       </c>
       <c r="C72" s="3"/>
       <c r="D72" s="3" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="E72" s="3"/>
     </row>
@@ -3034,7 +3124,7 @@
       </c>
       <c r="C73" s="3"/>
       <c r="D73" s="3" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="E73" s="3"/>
     </row>
@@ -3047,7 +3137,7 @@
       </c>
       <c r="C74" s="3"/>
       <c r="D74" s="3" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="E74" s="3"/>
     </row>
@@ -3060,7 +3150,7 @@
       </c>
       <c r="C75" s="3"/>
       <c r="D75" s="3" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="E75" s="3"/>
     </row>
@@ -3073,7 +3163,7 @@
       </c>
       <c r="C76" s="3"/>
       <c r="D76" s="3" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="E76" s="3"/>
     </row>
@@ -3093,7 +3183,7 @@
         <v>35</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C78" s="3"/>
       <c r="D78" s="3"/>
@@ -3104,21 +3194,27 @@
         <v>36</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C79" s="3"/>
-      <c r="D79" s="3"/>
-      <c r="E79" s="3"/>
+      <c r="D79" s="3" t="s">
+        <v>438</v>
+      </c>
+      <c r="E79" s="3" t="s">
+        <v>439</v>
+      </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A80" s="3">
         <v>37</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C80" s="3"/>
-      <c r="D80" s="3"/>
+      <c r="D80" s="3" t="s">
+        <v>440</v>
+      </c>
       <c r="E80" s="3"/>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.3">
@@ -3126,7 +3222,7 @@
         <v>38</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C81" s="3"/>
       <c r="D81" s="3"/>
@@ -3137,7 +3233,7 @@
         <v>39</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C82" s="3"/>
       <c r="D82" s="3"/>
@@ -3148,7 +3244,7 @@
         <v>40</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C83" s="3"/>
       <c r="D83" s="3"/>
@@ -3159,20 +3255,20 @@
         <v>41</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C84" s="3"/>
       <c r="D84" s="3"/>
       <c r="E84" s="3"/>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A85" s="9" t="s">
-        <v>274</v>
-      </c>
-      <c r="B85" s="9"/>
-      <c r="C85" s="9"/>
-      <c r="D85" s="9"/>
-      <c r="E85" s="9"/>
+      <c r="A85" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="B85" s="7"/>
+      <c r="C85" s="7"/>
+      <c r="D85" s="7"/>
+      <c r="E85" s="7"/>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A86" s="3">
@@ -3183,7 +3279,7 @@
       </c>
       <c r="C86" s="3"/>
       <c r="D86" s="3" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="E86" s="3"/>
     </row>
@@ -3196,7 +3292,7 @@
       </c>
       <c r="C87" s="3"/>
       <c r="D87" s="3" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="E87" s="3"/>
     </row>
@@ -3209,7 +3305,7 @@
       </c>
       <c r="C88" s="3"/>
       <c r="D88" s="3" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="E88" s="3"/>
     </row>
@@ -3222,7 +3318,7 @@
       </c>
       <c r="C89" s="3"/>
       <c r="D89" s="3" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="E89" s="3"/>
     </row>
@@ -3235,7 +3331,7 @@
       </c>
       <c r="C90" s="3"/>
       <c r="D90" s="3" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="E90" s="3"/>
     </row>
@@ -3250,7 +3346,7 @@
         <v>98</v>
       </c>
       <c r="D91" s="3" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="E91" s="3"/>
     </row>
@@ -3259,10 +3355,12 @@
         <v>7</v>
       </c>
       <c r="B92" s="3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C92" s="3"/>
-      <c r="D92" s="3"/>
+      <c r="D92" s="3" t="s">
+        <v>431</v>
+      </c>
       <c r="E92" s="3"/>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.3">
@@ -3270,7 +3368,7 @@
         <v>8</v>
       </c>
       <c r="B93" s="3" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C93" s="3"/>
       <c r="D93" s="3"/>
@@ -3285,7 +3383,7 @@
       </c>
       <c r="C94" s="3"/>
       <c r="D94" s="3" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="E94" s="3"/>
     </row>
@@ -3297,7 +3395,9 @@
         <v>128</v>
       </c>
       <c r="C95" s="3"/>
-      <c r="D95" s="3"/>
+      <c r="D95" s="3" t="s">
+        <v>427</v>
+      </c>
       <c r="E95" s="3"/>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.3">
@@ -3308,7 +3408,9 @@
         <v>129</v>
       </c>
       <c r="C96" s="3"/>
-      <c r="D96" s="3"/>
+      <c r="D96" s="3" t="s">
+        <v>432</v>
+      </c>
       <c r="E96" s="3"/>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.3">
@@ -3316,10 +3418,12 @@
         <v>12</v>
       </c>
       <c r="B97" s="3" t="s">
-        <v>130</v>
+        <v>429</v>
       </c>
       <c r="C97" s="3"/>
-      <c r="D97" s="3"/>
+      <c r="D97" s="3" t="s">
+        <v>430</v>
+      </c>
       <c r="E97" s="3"/>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.3">
@@ -3327,10 +3431,12 @@
         <v>13</v>
       </c>
       <c r="B98" s="3" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C98" s="3"/>
-      <c r="D98" s="3"/>
+      <c r="D98" s="3" t="s">
+        <v>433</v>
+      </c>
       <c r="E98" s="3"/>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.3">
@@ -3338,10 +3444,12 @@
         <v>14</v>
       </c>
       <c r="B99" s="3" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C99" s="3"/>
-      <c r="D99" s="3"/>
+      <c r="D99" s="3" t="s">
+        <v>434</v>
+      </c>
       <c r="E99" s="3"/>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.3">
@@ -3349,7 +3457,7 @@
         <v>15</v>
       </c>
       <c r="B100" s="3" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C100" s="3"/>
       <c r="D100" s="3"/>
@@ -3360,7 +3468,7 @@
         <v>16</v>
       </c>
       <c r="B101" s="3" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C101" s="3"/>
       <c r="D101" s="3"/>
@@ -3371,11 +3479,11 @@
         <v>17</v>
       </c>
       <c r="B102" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C102" s="3"/>
       <c r="D102" s="3" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="E102" s="3"/>
     </row>
@@ -3384,10 +3492,12 @@
         <v>18</v>
       </c>
       <c r="B103" s="3" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C103" s="3"/>
-      <c r="D103" s="3"/>
+      <c r="D103" s="3" t="s">
+        <v>441</v>
+      </c>
       <c r="E103" s="3"/>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.3">
@@ -3395,10 +3505,12 @@
         <v>19</v>
       </c>
       <c r="B104" s="3" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C104" s="3"/>
-      <c r="D104" s="3"/>
+      <c r="D104" s="3" t="s">
+        <v>434</v>
+      </c>
       <c r="E104" s="3"/>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.3">
@@ -3406,7 +3518,7 @@
         <v>20</v>
       </c>
       <c r="B105" s="3" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C105" s="3"/>
       <c r="D105" s="3"/>
@@ -3417,11 +3529,11 @@
         <v>21</v>
       </c>
       <c r="B106" s="3" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C106" s="3"/>
       <c r="D106" s="3" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="E106" s="3"/>
     </row>
@@ -3430,11 +3542,11 @@
         <v>22</v>
       </c>
       <c r="B107" s="3" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C107" s="3"/>
       <c r="D107" s="3" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="E107" s="3"/>
     </row>
@@ -3443,7 +3555,7 @@
         <v>23</v>
       </c>
       <c r="B108" s="3" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C108" s="3"/>
       <c r="D108" s="3"/>
@@ -3454,7 +3566,7 @@
         <v>24</v>
       </c>
       <c r="B109" s="3" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C109" s="3"/>
       <c r="D109" s="3"/>
@@ -3465,7 +3577,7 @@
         <v>25</v>
       </c>
       <c r="B110" s="3" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C110" s="3"/>
       <c r="D110" s="3"/>
@@ -3480,7 +3592,7 @@
       </c>
       <c r="C111" s="3"/>
       <c r="D111" s="3" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="E111" s="3"/>
     </row>
@@ -3493,25 +3605,25 @@
       </c>
       <c r="C112" s="3"/>
       <c r="D112" s="3" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="E112" s="3"/>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A113" s="9" t="s">
-        <v>275</v>
-      </c>
-      <c r="B113" s="9"/>
-      <c r="C113" s="9"/>
-      <c r="D113" s="9"/>
-      <c r="E113" s="9"/>
+      <c r="A113" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="B113" s="7"/>
+      <c r="C113" s="7"/>
+      <c r="D113" s="7"/>
+      <c r="E113" s="7"/>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A114" s="3">
         <v>1</v>
       </c>
       <c r="B114" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C114" s="3"/>
       <c r="D114" s="3"/>
@@ -3522,10 +3634,12 @@
         <v>2</v>
       </c>
       <c r="B115" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C115" s="3"/>
-      <c r="D115" s="3"/>
+      <c r="D115" s="3" t="s">
+        <v>442</v>
+      </c>
       <c r="E115" s="3"/>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.3">
@@ -3533,10 +3647,12 @@
         <v>3</v>
       </c>
       <c r="B116" s="3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C116" s="3"/>
-      <c r="D116" s="3"/>
+      <c r="D116" s="3" t="s">
+        <v>443</v>
+      </c>
       <c r="E116" s="3"/>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.3">
@@ -3548,7 +3664,7 @@
       </c>
       <c r="C117" s="3"/>
       <c r="D117" s="3" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="E117" s="3"/>
     </row>
@@ -3557,7 +3673,7 @@
         <v>5</v>
       </c>
       <c r="B118" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C118" s="3"/>
       <c r="D118" s="3"/>
@@ -3568,11 +3684,11 @@
         <v>6</v>
       </c>
       <c r="B119" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C119" s="3"/>
       <c r="D119" s="3" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="E119" s="3"/>
     </row>
@@ -3581,10 +3697,12 @@
         <v>7</v>
       </c>
       <c r="B120" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C120" s="3"/>
-      <c r="D120" s="3"/>
+      <c r="D120" s="3" t="s">
+        <v>442</v>
+      </c>
       <c r="E120" s="3"/>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.3">
@@ -3592,11 +3710,11 @@
         <v>8</v>
       </c>
       <c r="B121" s="3" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C121" s="3"/>
       <c r="D121" s="3" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="E121" s="3"/>
     </row>
@@ -3605,11 +3723,11 @@
         <v>9</v>
       </c>
       <c r="B122" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C122" s="3"/>
       <c r="D122" s="3" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="E122" s="3"/>
     </row>
@@ -3618,7 +3736,7 @@
         <v>10</v>
       </c>
       <c r="B123" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C123" s="3"/>
       <c r="D123" s="3"/>
@@ -3629,7 +3747,7 @@
         <v>11</v>
       </c>
       <c r="B124" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C124" s="3"/>
       <c r="D124" s="3"/>
@@ -3640,7 +3758,7 @@
         <v>12</v>
       </c>
       <c r="B125" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C125" s="3"/>
       <c r="D125" s="3"/>
@@ -3651,7 +3769,7 @@
         <v>13</v>
       </c>
       <c r="B126" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C126" s="3"/>
       <c r="D126" s="3"/>
@@ -3662,11 +3780,11 @@
         <v>14</v>
       </c>
       <c r="B127" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C127" s="3"/>
       <c r="D127" s="3" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="E127" s="3"/>
     </row>
@@ -3675,7 +3793,7 @@
         <v>15</v>
       </c>
       <c r="B128" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C128" s="3"/>
       <c r="D128" s="3"/>
@@ -3686,11 +3804,11 @@
         <v>16</v>
       </c>
       <c r="B129" s="3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C129" s="3"/>
       <c r="D129" s="3" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="E129" s="3"/>
     </row>
@@ -3699,7 +3817,7 @@
         <v>17</v>
       </c>
       <c r="B130" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C130" s="3"/>
       <c r="D130" s="3"/>
@@ -3710,7 +3828,7 @@
         <v>18</v>
       </c>
       <c r="B131" s="3" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C131" s="3"/>
       <c r="D131" s="3"/>
@@ -3721,7 +3839,7 @@
         <v>19</v>
       </c>
       <c r="B132" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C132" s="3"/>
       <c r="D132" s="3"/>
@@ -3732,11 +3850,11 @@
         <v>20</v>
       </c>
       <c r="B133" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C133" s="3"/>
       <c r="D133" s="3" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="E133" s="3"/>
     </row>
@@ -3745,7 +3863,7 @@
         <v>21</v>
       </c>
       <c r="B134" s="3" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C134" s="3"/>
       <c r="D134" s="3"/>
@@ -3756,7 +3874,7 @@
         <v>22</v>
       </c>
       <c r="B135" s="3" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C135" s="3"/>
       <c r="D135" s="3"/>
@@ -3767,7 +3885,7 @@
         <v>23</v>
       </c>
       <c r="B136" s="3" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C136" s="3"/>
       <c r="D136" s="3"/>
@@ -3778,7 +3896,7 @@
         <v>24</v>
       </c>
       <c r="B137" s="3" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C137" s="3"/>
       <c r="D137" s="3"/>
@@ -3789,22 +3907,22 @@
         <v>25</v>
       </c>
       <c r="B138" s="3" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C138" s="3"/>
       <c r="D138" s="3" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="E138" s="3"/>
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A139" s="9" t="s">
-        <v>287</v>
-      </c>
-      <c r="B139" s="9"/>
-      <c r="C139" s="9"/>
-      <c r="D139" s="9"/>
-      <c r="E139" s="9"/>
+      <c r="A139" s="7" t="s">
+        <v>286</v>
+      </c>
+      <c r="B139" s="7"/>
+      <c r="C139" s="7"/>
+      <c r="D139" s="7"/>
+      <c r="E139" s="7"/>
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A140" s="3">
@@ -3815,7 +3933,7 @@
       </c>
       <c r="C140" s="3"/>
       <c r="D140" s="3" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="E140" s="3"/>
     </row>
@@ -3828,7 +3946,7 @@
       </c>
       <c r="C141" s="3"/>
       <c r="D141" s="3" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="E141" s="3"/>
     </row>
@@ -3837,22 +3955,22 @@
         <v>3</v>
       </c>
       <c r="B142" s="3" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C142" s="3"/>
       <c r="D142" s="3" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="E142" s="3"/>
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A143" s="9" t="s">
-        <v>276</v>
-      </c>
-      <c r="B143" s="9"/>
-      <c r="C143" s="9"/>
-      <c r="D143" s="9"/>
-      <c r="E143" s="9"/>
+      <c r="A143" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="B143" s="7"/>
+      <c r="C143" s="7"/>
+      <c r="D143" s="7"/>
+      <c r="E143" s="7"/>
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A144" s="3">
@@ -3862,7 +3980,9 @@
         <v>74</v>
       </c>
       <c r="C144" s="3"/>
-      <c r="D144" s="3"/>
+      <c r="D144" s="3" t="s">
+        <v>435</v>
+      </c>
       <c r="E144" s="3"/>
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.3">
@@ -3874,7 +3994,7 @@
       </c>
       <c r="C145" s="3"/>
       <c r="D145" s="3" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="E145" s="3"/>
     </row>
@@ -3887,7 +4007,7 @@
       </c>
       <c r="C146" s="3"/>
       <c r="D146" s="3" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="E146" s="3"/>
     </row>
@@ -3900,7 +4020,7 @@
       </c>
       <c r="C147" s="3"/>
       <c r="D147" s="3" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="E147" s="3"/>
     </row>
@@ -3909,354 +4029,356 @@
         <v>5</v>
       </c>
       <c r="B148" s="3" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C148" s="3"/>
       <c r="D148" s="3"/>
       <c r="E148" s="3"/>
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A149" s="9" t="s">
-        <v>277</v>
-      </c>
-      <c r="B149" s="9"/>
-      <c r="C149" s="9"/>
-      <c r="D149" s="9"/>
-      <c r="E149" s="9"/>
+      <c r="A149" s="3">
+        <v>6</v>
+      </c>
+      <c r="B149" s="3" t="s">
+        <v>424</v>
+      </c>
+      <c r="C149" s="3"/>
+      <c r="D149" s="3" t="s">
+        <v>426</v>
+      </c>
+      <c r="E149" s="3"/>
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A150" s="3">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="B150" s="3" t="s">
-        <v>79</v>
+        <v>425</v>
       </c>
       <c r="C150" s="3"/>
-      <c r="D150" s="3" t="s">
-        <v>387</v>
-      </c>
+      <c r="D150" s="3"/>
       <c r="E150" s="3"/>
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A151" s="3">
-        <v>2</v>
-      </c>
-      <c r="B151" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="C151" s="3"/>
-      <c r="D151" s="3" t="s">
-        <v>387</v>
-      </c>
-      <c r="E151" s="3"/>
+      <c r="A151" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="B151" s="7"/>
+      <c r="C151" s="7"/>
+      <c r="D151" s="7"/>
+      <c r="E151" s="7"/>
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A152" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B152" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C152" s="3"/>
       <c r="D152" s="3" t="s">
-        <v>411</v>
+        <v>386</v>
       </c>
       <c r="E152" s="3"/>
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A153" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B153" s="3" t="s">
-        <v>81</v>
+        <v>121</v>
       </c>
       <c r="C153" s="3"/>
       <c r="D153" s="3" t="s">
-        <v>410</v>
+        <v>386</v>
       </c>
       <c r="E153" s="3"/>
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A154" s="3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B154" s="3" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="C154" s="3"/>
       <c r="D154" s="3" t="s">
-        <v>387</v>
+        <v>410</v>
       </c>
       <c r="E154" s="3"/>
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A155" s="3">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B155" s="3" t="s">
-        <v>288</v>
+        <v>81</v>
       </c>
       <c r="C155" s="3"/>
       <c r="D155" s="3" t="s">
-        <v>386</v>
+        <v>409</v>
       </c>
       <c r="E155" s="3"/>
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A156" s="3">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B156" s="3" t="s">
-        <v>289</v>
+        <v>88</v>
       </c>
       <c r="C156" s="3"/>
       <c r="D156" s="3" t="s">
-        <v>409</v>
+        <v>386</v>
       </c>
       <c r="E156" s="3"/>
     </row>
     <row r="157" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A157" s="3">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B157" s="3" t="s">
-        <v>407</v>
+        <v>287</v>
       </c>
       <c r="C157" s="3"/>
       <c r="D157" s="3" t="s">
+        <v>385</v>
+      </c>
+      <c r="E157" s="3"/>
+    </row>
+    <row r="158" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A158" s="3">
+        <v>7</v>
+      </c>
+      <c r="B158" s="3" t="s">
+        <v>288</v>
+      </c>
+      <c r="C158" s="3"/>
+      <c r="D158" s="3" t="s">
         <v>408</v>
       </c>
-      <c r="E157" s="3"/>
-    </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A158" s="9" t="s">
-        <v>278</v>
-      </c>
-      <c r="B158" s="9"/>
-      <c r="C158" s="9"/>
-      <c r="D158" s="9"/>
-      <c r="E158" s="9"/>
+      <c r="E158" s="3"/>
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A159" s="3">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="B159" s="3" t="s">
-        <v>113</v>
+        <v>406</v>
       </c>
       <c r="C159" s="3"/>
       <c r="D159" s="3" t="s">
-        <v>412</v>
+        <v>407</v>
       </c>
       <c r="E159" s="3"/>
     </row>
     <row r="160" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A160" s="3">
-        <v>2</v>
-      </c>
-      <c r="B160" s="3" t="s">
-        <v>251</v>
-      </c>
-      <c r="C160" s="3"/>
-      <c r="D160" s="3" t="s">
-        <v>405</v>
-      </c>
-      <c r="E160" s="3"/>
+      <c r="A160" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="B160" s="7"/>
+      <c r="C160" s="7"/>
+      <c r="D160" s="7"/>
+      <c r="E160" s="7"/>
     </row>
     <row r="161" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A161" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B161" s="3" t="s">
-        <v>270</v>
+        <v>113</v>
       </c>
       <c r="C161" s="3"/>
       <c r="D161" s="3" t="s">
-        <v>405</v>
+        <v>411</v>
       </c>
       <c r="E161" s="3"/>
     </row>
     <row r="162" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A162" s="9" t="s">
-        <v>279</v>
-      </c>
-      <c r="B162" s="9"/>
-      <c r="C162" s="9"/>
-      <c r="D162" s="9"/>
-      <c r="E162" s="9"/>
+      <c r="A162" s="3">
+        <v>2</v>
+      </c>
+      <c r="B162" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="C162" s="3"/>
+      <c r="D162" s="3" t="s">
+        <v>404</v>
+      </c>
+      <c r="E162" s="3"/>
     </row>
     <row r="163" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A163" s="3">
-        <v>1</v>
-      </c>
-      <c r="B163" s="4" t="s">
-        <v>235</v>
+        <v>3</v>
+      </c>
+      <c r="B163" s="3" t="s">
+        <v>269</v>
       </c>
       <c r="C163" s="3"/>
-      <c r="D163" s="3"/>
+      <c r="D163" s="3" t="s">
+        <v>404</v>
+      </c>
       <c r="E163" s="3"/>
     </row>
     <row r="164" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A164" s="3">
-        <v>2</v>
-      </c>
-      <c r="B164" s="4" t="s">
-        <v>236</v>
-      </c>
-      <c r="C164" s="3"/>
-      <c r="D164" s="3"/>
-      <c r="E164" s="3"/>
+      <c r="A164" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="B164" s="7"/>
+      <c r="C164" s="7"/>
+      <c r="D164" s="7"/>
+      <c r="E164" s="7"/>
     </row>
     <row r="165" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A165" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B165" s="4" t="s">
-        <v>48</v>
+        <v>234</v>
       </c>
       <c r="C165" s="3"/>
-      <c r="D165" s="3" t="s">
-        <v>386</v>
-      </c>
+      <c r="D165" s="3"/>
       <c r="E165" s="3"/>
     </row>
     <row r="166" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A166" s="3">
-        <v>4</v>
-      </c>
-      <c r="B166" s="3" t="s">
-        <v>116</v>
+        <v>2</v>
+      </c>
+      <c r="B166" s="4" t="s">
+        <v>235</v>
       </c>
       <c r="C166" s="3"/>
-      <c r="D166" s="3" t="s">
-        <v>394</v>
-      </c>
+      <c r="D166" s="3"/>
       <c r="E166" s="3"/>
     </row>
     <row r="167" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A167" s="3">
-        <v>5</v>
-      </c>
-      <c r="B167" s="3" t="s">
-        <v>117</v>
+        <v>3</v>
+      </c>
+      <c r="B167" s="4" t="s">
+        <v>48</v>
       </c>
       <c r="C167" s="3"/>
-      <c r="D167" s="3"/>
+      <c r="D167" s="3" t="s">
+        <v>385</v>
+      </c>
       <c r="E167" s="3"/>
     </row>
     <row r="168" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A168" s="3">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B168" s="3" t="s">
-        <v>143</v>
+        <v>116</v>
       </c>
       <c r="C168" s="3"/>
-      <c r="D168" s="3"/>
+      <c r="D168" s="3" t="s">
+        <v>393</v>
+      </c>
       <c r="E168" s="3"/>
     </row>
     <row r="169" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A169" s="3">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B169" s="3" t="s">
-        <v>144</v>
+        <v>117</v>
       </c>
       <c r="C169" s="3"/>
-      <c r="D169" s="3" t="s">
-        <v>394</v>
-      </c>
+      <c r="D169" s="3"/>
       <c r="E169" s="3"/>
     </row>
     <row r="170" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A170" s="3">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B170" s="3" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="C170" s="3"/>
-      <c r="D170" s="3" t="s">
-        <v>394</v>
-      </c>
+      <c r="D170" s="3"/>
       <c r="E170" s="3"/>
     </row>
     <row r="171" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A171" s="3">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B171" s="3" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="C171" s="3"/>
-      <c r="D171" s="3"/>
+      <c r="D171" s="3" t="s">
+        <v>393</v>
+      </c>
       <c r="E171" s="3"/>
     </row>
     <row r="172" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A172" s="3">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B172" s="3" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="C172" s="3"/>
-      <c r="D172" s="3"/>
+      <c r="D172" s="3" t="s">
+        <v>393</v>
+      </c>
       <c r="E172" s="3"/>
     </row>
     <row r="173" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A173" s="3">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B173" s="3" t="s">
-        <v>168</v>
+        <v>145</v>
       </c>
       <c r="C173" s="3"/>
-      <c r="D173" s="3" t="s">
-        <v>394</v>
-      </c>
+      <c r="D173" s="3"/>
       <c r="E173" s="3"/>
     </row>
     <row r="174" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A174" s="3">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B174" s="3" t="s">
-        <v>169</v>
+        <v>146</v>
       </c>
       <c r="C174" s="3"/>
-      <c r="D174" s="3" t="s">
-        <v>413</v>
-      </c>
+      <c r="D174" s="3"/>
       <c r="E174" s="3"/>
     </row>
     <row r="175" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A175" s="3">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B175" s="3" t="s">
-        <v>211</v>
+        <v>167</v>
       </c>
       <c r="C175" s="3"/>
-      <c r="D175" s="3"/>
+      <c r="D175" s="3" t="s">
+        <v>393</v>
+      </c>
       <c r="E175" s="3"/>
     </row>
     <row r="176" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A176" s="3">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B176" s="3" t="s">
-        <v>212</v>
+        <v>168</v>
       </c>
       <c r="C176" s="3"/>
-      <c r="D176" s="3"/>
+      <c r="D176" s="3" t="s">
+        <v>412</v>
+      </c>
       <c r="E176" s="3"/>
     </row>
     <row r="177" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A177" s="3">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B177" s="3" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="C177" s="3"/>
       <c r="D177" s="3"/>
@@ -4264,71 +4386,69 @@
     </row>
     <row r="178" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A178" s="3">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B178" s="3" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="C178" s="3"/>
-      <c r="D178" s="3" t="s">
-        <v>394</v>
-      </c>
+      <c r="D178" s="3"/>
       <c r="E178" s="3"/>
     </row>
     <row r="179" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A179" s="3">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B179" s="3" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="C179" s="3"/>
-      <c r="D179" s="3" t="s">
-        <v>394</v>
-      </c>
+      <c r="D179" s="3"/>
       <c r="E179" s="3"/>
     </row>
     <row r="180" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A180" s="3">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B180" s="3" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="C180" s="3"/>
-      <c r="D180" s="3"/>
+      <c r="D180" s="3" t="s">
+        <v>393</v>
+      </c>
       <c r="E180" s="3"/>
     </row>
     <row r="181" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A181" s="3">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B181" s="3" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="C181" s="3"/>
-      <c r="D181" s="3"/>
+      <c r="D181" s="3" t="s">
+        <v>393</v>
+      </c>
       <c r="E181" s="3"/>
     </row>
     <row r="182" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A182" s="3">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B182" s="3" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="C182" s="3"/>
-      <c r="D182" s="3" t="s">
-        <v>394</v>
-      </c>
+      <c r="D182" s="3"/>
       <c r="E182" s="3"/>
     </row>
     <row r="183" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A183" s="3">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B183" s="3" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="C183" s="3"/>
       <c r="D183" s="3"/>
@@ -4336,23 +4456,23 @@
     </row>
     <row r="184" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A184" s="3">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B184" s="3" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="C184" s="3"/>
       <c r="D184" s="3" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="E184" s="3"/>
     </row>
     <row r="185" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A185" s="3">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B185" s="3" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="C185" s="3"/>
       <c r="D185" s="3"/>
@@ -4360,73 +4480,67 @@
     </row>
     <row r="186" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A186" s="3">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B186" s="3" t="s">
-        <v>230</v>
+        <v>219</v>
       </c>
       <c r="C186" s="3"/>
-      <c r="D186" s="3"/>
+      <c r="D186" s="3" t="s">
+        <v>393</v>
+      </c>
       <c r="E186" s="3"/>
     </row>
     <row r="187" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A187" s="3">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B187" s="3" t="s">
-        <v>231</v>
+        <v>220</v>
       </c>
       <c r="C187" s="3"/>
-      <c r="D187" s="3" t="s">
-        <v>414</v>
-      </c>
+      <c r="D187" s="3"/>
       <c r="E187" s="3"/>
     </row>
     <row r="188" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A188" s="9" t="s">
-        <v>280</v>
-      </c>
-      <c r="B188" s="9"/>
-      <c r="C188" s="9"/>
-      <c r="D188" s="9"/>
-      <c r="E188" s="9"/>
+      <c r="A188" s="3">
+        <v>24</v>
+      </c>
+      <c r="B188" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="C188" s="3"/>
+      <c r="D188" s="3"/>
+      <c r="E188" s="3"/>
     </row>
     <row r="189" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A189" s="3">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="B189" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C189" s="3" t="s">
-        <v>20</v>
-      </c>
+        <v>230</v>
+      </c>
+      <c r="C189" s="3"/>
       <c r="D189" s="3" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="E189" s="3"/>
     </row>
     <row r="190" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A190" s="3">
-        <v>2</v>
-      </c>
-      <c r="B190" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C190" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D190" s="3" t="s">
-        <v>414</v>
-      </c>
-      <c r="E190" s="3"/>
+      <c r="A190" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="B190" s="7"/>
+      <c r="C190" s="7"/>
+      <c r="D190" s="7"/>
+      <c r="E190" s="7"/>
     </row>
     <row r="191" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A191" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B191" s="3" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C191" s="3" t="s">
         <v>20</v>
@@ -4438,407 +4552,415 @@
     </row>
     <row r="192" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A192" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B192" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="C192" s="3"/>
+        <v>1</v>
+      </c>
+      <c r="C192" s="3" t="s">
+        <v>20</v>
+      </c>
       <c r="D192" s="3" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="E192" s="3"/>
     </row>
     <row r="193" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A193" s="3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B193" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="C193" s="3"/>
-      <c r="D193" s="3"/>
+        <v>2</v>
+      </c>
+      <c r="C193" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D193" s="3" t="s">
+        <v>413</v>
+      </c>
       <c r="E193" s="3"/>
     </row>
     <row r="194" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A194" s="3">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B194" s="3" t="s">
-        <v>92</v>
+        <v>114</v>
       </c>
       <c r="C194" s="3"/>
       <c r="D194" s="3" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="E194" s="3"/>
     </row>
     <row r="195" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A195" s="3">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B195" s="3" t="s">
-        <v>93</v>
+        <v>115</v>
       </c>
       <c r="C195" s="3"/>
-      <c r="D195" s="3" t="s">
-        <v>415</v>
-      </c>
+      <c r="D195" s="3"/>
       <c r="E195" s="3"/>
     </row>
     <row r="196" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A196" s="3">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B196" s="3" t="s">
-        <v>3</v>
+        <v>92</v>
       </c>
       <c r="C196" s="3"/>
-      <c r="D196" s="3"/>
+      <c r="D196" s="3" t="s">
+        <v>413</v>
+      </c>
       <c r="E196" s="3"/>
     </row>
     <row r="197" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A197" s="3">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B197" s="3" t="s">
-        <v>4</v>
+        <v>93</v>
       </c>
       <c r="C197" s="3"/>
-      <c r="D197" s="3"/>
+      <c r="D197" s="3" t="s">
+        <v>414</v>
+      </c>
       <c r="E197" s="3"/>
     </row>
     <row r="198" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A198" s="3">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B198" s="3" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C198" s="3"/>
-      <c r="D198" s="3" t="s">
-        <v>392</v>
-      </c>
+      <c r="D198" s="3"/>
       <c r="E198" s="3"/>
     </row>
     <row r="199" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A199" s="3">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B199" s="3" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C199" s="3"/>
-      <c r="D199" s="3" t="s">
-        <v>417</v>
-      </c>
+      <c r="D199" s="3"/>
       <c r="E199" s="3"/>
     </row>
     <row r="200" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A200" s="3">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B200" s="3" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C200" s="3"/>
       <c r="D200" s="3" t="s">
-        <v>418</v>
+        <v>391</v>
       </c>
       <c r="E200" s="3"/>
     </row>
     <row r="201" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A201" s="3">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B201" s="3" t="s">
-        <v>118</v>
+        <v>6</v>
       </c>
       <c r="C201" s="3"/>
       <c r="D201" s="3" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="E201" s="3"/>
     </row>
     <row r="202" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A202" s="3">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B202" s="3" t="s">
-        <v>202</v>
+        <v>7</v>
       </c>
       <c r="C202" s="3"/>
       <c r="D202" s="3" t="s">
-        <v>405</v>
+        <v>417</v>
       </c>
       <c r="E202" s="3"/>
     </row>
     <row r="203" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A203" s="3">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B203" s="3" t="s">
-        <v>203</v>
+        <v>118</v>
       </c>
       <c r="C203" s="3"/>
       <c r="D203" s="3" t="s">
-        <v>405</v>
+        <v>417</v>
       </c>
       <c r="E203" s="3"/>
     </row>
     <row r="204" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A204" s="3">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B204" s="3" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="C204" s="3"/>
-      <c r="D204" s="3"/>
+      <c r="D204" s="3" t="s">
+        <v>404</v>
+      </c>
       <c r="E204" s="3"/>
     </row>
     <row r="205" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A205" s="3">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B205" s="3" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="C205" s="3"/>
       <c r="D205" s="3" t="s">
-        <v>415</v>
+        <v>404</v>
       </c>
       <c r="E205" s="3"/>
     </row>
     <row r="206" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A206" s="3">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B206" s="3" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="C206" s="3"/>
-      <c r="D206" s="3" t="s">
-        <v>415</v>
-      </c>
+      <c r="D206" s="3"/>
       <c r="E206" s="3"/>
     </row>
     <row r="207" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A207" s="3">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B207" s="3" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="C207" s="3"/>
       <c r="D207" s="3" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="E207" s="3"/>
     </row>
     <row r="208" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A208" s="3">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B208" s="3" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="C208" s="3"/>
       <c r="D208" s="3" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="E208" s="3"/>
     </row>
     <row r="209" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A209" s="3">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B209" s="3" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="C209" s="3"/>
-      <c r="D209" s="3"/>
+      <c r="D209" s="3" t="s">
+        <v>414</v>
+      </c>
       <c r="E209" s="3"/>
     </row>
     <row r="210" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A210" s="3">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B210" s="3" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="C210" s="3"/>
       <c r="D210" s="3" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="E210" s="3"/>
     </row>
     <row r="211" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A211" s="9" t="s">
-        <v>281</v>
-      </c>
-      <c r="B211" s="9"/>
-      <c r="C211" s="9"/>
-      <c r="D211" s="9"/>
-      <c r="E211" s="9"/>
-    </row>
-    <row r="212" spans="1:5" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A211" s="3">
+        <v>21</v>
+      </c>
+      <c r="B211" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="C211" s="3"/>
+      <c r="D211" s="3"/>
+      <c r="E211" s="3"/>
+    </row>
+    <row r="212" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A212" s="3">
+        <v>22</v>
+      </c>
+      <c r="B212" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="C212" s="3"/>
+      <c r="D212" s="3" t="s">
+        <v>414</v>
+      </c>
+      <c r="E212" s="3"/>
+    </row>
+    <row r="213" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A213" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="B213" s="7"/>
+      <c r="C213" s="7"/>
+      <c r="D213" s="7"/>
+      <c r="E213" s="7"/>
+    </row>
+    <row r="214" spans="1:5" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A214" s="3">
         <v>1</v>
       </c>
-      <c r="B212" s="3" t="s">
+      <c r="B214" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="C212" s="3" t="s">
+      <c r="C214" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="D212" s="3"/>
-      <c r="E212" s="5" t="s">
+      <c r="D214" s="3"/>
+      <c r="E214" s="5" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="213" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A213" s="3">
-        <v>2</v>
-      </c>
-      <c r="B213" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="C213" s="3"/>
-      <c r="D213" s="3" t="s">
-        <v>394</v>
-      </c>
-      <c r="E213" s="5"/>
-    </row>
-    <row r="214" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A214" s="3">
-        <v>3</v>
-      </c>
-      <c r="B214" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="C214" s="3"/>
-      <c r="D214" s="3" t="s">
-        <v>394</v>
-      </c>
-      <c r="E214" s="5"/>
     </row>
     <row r="215" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A215" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B215" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C215" s="3"/>
       <c r="D215" s="3" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="E215" s="5"/>
     </row>
     <row r="216" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A216" s="3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B216" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C216" s="3"/>
       <c r="D216" s="3" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="E216" s="5"/>
     </row>
     <row r="217" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A217" s="3">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B217" s="3" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="C217" s="3"/>
       <c r="D217" s="3" t="s">
-        <v>394</v>
-      </c>
-      <c r="E217" s="5" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="218" spans="1:5" ht="33" x14ac:dyDescent="0.3">
+        <v>393</v>
+      </c>
+      <c r="E217" s="5"/>
+    </row>
+    <row r="218" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A218" s="3">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B218" s="3" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="C218" s="3"/>
       <c r="D218" s="3" t="s">
-        <v>405</v>
-      </c>
-      <c r="E218" s="5" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="219" spans="1:5" ht="33" x14ac:dyDescent="0.3">
+        <v>393</v>
+      </c>
+      <c r="E218" s="5"/>
+    </row>
+    <row r="219" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A219" s="3">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B219" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C219" s="3"/>
       <c r="D219" s="3" t="s">
-        <v>417</v>
+        <v>393</v>
       </c>
       <c r="E219" s="5" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="220" spans="1:5" ht="33" x14ac:dyDescent="0.3">
+      <c r="A220" s="3">
+        <v>7</v>
+      </c>
+      <c r="B220" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C220" s="3"/>
+      <c r="D220" s="3" t="s">
+        <v>404</v>
+      </c>
+      <c r="E220" s="5" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="221" spans="1:5" ht="33" x14ac:dyDescent="0.3">
+      <c r="A221" s="3">
+        <v>8</v>
+      </c>
+      <c r="B221" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C221" s="3"/>
+      <c r="D221" s="3" t="s">
+        <v>416</v>
+      </c>
+      <c r="E221" s="5" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="220" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A220" s="3">
-        <v>9</v>
-      </c>
-      <c r="B220" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="C220" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="D220" s="3" t="s">
-        <v>405</v>
-      </c>
-      <c r="E220" s="5" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="221" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A221" s="3">
-        <v>10</v>
-      </c>
-      <c r="B221" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="C221" s="3"/>
-      <c r="D221" s="3"/>
-      <c r="E221" s="3"/>
     </row>
     <row r="222" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A222" s="3">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B222" s="3" t="s">
-        <v>237</v>
-      </c>
-      <c r="C222" s="3"/>
-      <c r="D222" s="3"/>
-      <c r="E222" s="3"/>
+        <v>32</v>
+      </c>
+      <c r="C222" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="D222" s="3" t="s">
+        <v>404</v>
+      </c>
+      <c r="E222" s="5" t="s">
+        <v>109</v>
+      </c>
     </row>
     <row r="223" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A223" s="3">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B223" s="3" t="s">
-        <v>238</v>
+        <v>122</v>
       </c>
       <c r="C223" s="3"/>
       <c r="D223" s="3"/>
@@ -4846,124 +4968,124 @@
     </row>
     <row r="224" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A224" s="3">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B224" s="3" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="C224" s="3"/>
       <c r="D224" s="3"/>
       <c r="E224" s="3"/>
     </row>
     <row r="225" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A225" s="9" t="s">
-        <v>282</v>
-      </c>
-      <c r="B225" s="9"/>
-      <c r="C225" s="9"/>
-      <c r="D225" s="9"/>
-      <c r="E225" s="9"/>
+      <c r="A225" s="3">
+        <v>12</v>
+      </c>
+      <c r="B225" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="C225" s="3"/>
+      <c r="D225" s="3"/>
+      <c r="E225" s="3"/>
     </row>
     <row r="226" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A226" s="3">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="B226" s="3" t="s">
-        <v>21</v>
+        <v>238</v>
       </c>
       <c r="C226" s="3"/>
-      <c r="D226" s="3" t="s">
-        <v>387</v>
-      </c>
+      <c r="D226" s="3"/>
       <c r="E226" s="3"/>
     </row>
     <row r="227" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A227" s="3">
-        <v>2</v>
-      </c>
-      <c r="B227" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="C227" s="3"/>
-      <c r="D227" s="3" t="s">
-        <v>387</v>
-      </c>
-      <c r="E227" s="3"/>
+      <c r="A227" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="B227" s="7"/>
+      <c r="C227" s="7"/>
+      <c r="D227" s="7"/>
+      <c r="E227" s="7"/>
     </row>
     <row r="228" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A228" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B228" s="3" t="s">
-        <v>254</v>
+        <v>21</v>
       </c>
       <c r="C228" s="3"/>
-      <c r="D228" s="3"/>
+      <c r="D228" s="3" t="s">
+        <v>386</v>
+      </c>
       <c r="E228" s="3"/>
     </row>
     <row r="229" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A229" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B229" s="3" t="s">
-        <v>255</v>
+        <v>105</v>
       </c>
       <c r="C229" s="3"/>
       <c r="D229" s="3" t="s">
-        <v>405</v>
+        <v>386</v>
       </c>
       <c r="E229" s="3"/>
     </row>
     <row r="230" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A230" s="3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B230" s="3" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="C230" s="3"/>
-      <c r="D230" s="3" t="s">
-        <v>405</v>
-      </c>
+      <c r="D230" s="3"/>
       <c r="E230" s="3"/>
     </row>
     <row r="231" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A231" s="9" t="s">
-        <v>283</v>
-      </c>
-      <c r="B231" s="9"/>
-      <c r="C231" s="9"/>
-      <c r="D231" s="9"/>
-      <c r="E231" s="9"/>
+      <c r="A231" s="3">
+        <v>4</v>
+      </c>
+      <c r="B231" s="3" t="s">
+        <v>254</v>
+      </c>
+      <c r="C231" s="3"/>
+      <c r="D231" s="3" t="s">
+        <v>404</v>
+      </c>
+      <c r="E231" s="3"/>
     </row>
     <row r="232" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A232" s="3">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B232" s="3" t="s">
-        <v>12</v>
+        <v>255</v>
       </c>
       <c r="C232" s="3"/>
-      <c r="D232" s="3"/>
+      <c r="D232" s="3" t="s">
+        <v>404</v>
+      </c>
       <c r="E232" s="3"/>
     </row>
     <row r="233" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A233" s="3">
-        <v>2</v>
-      </c>
-      <c r="B233" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C233" s="3"/>
-      <c r="D233" s="3"/>
-      <c r="E233" s="3"/>
+      <c r="A233" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="B233" s="7"/>
+      <c r="C233" s="7"/>
+      <c r="D233" s="7"/>
+      <c r="E233" s="7"/>
     </row>
     <row r="234" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A234" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B234" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C234" s="3"/>
       <c r="D234" s="3"/>
@@ -4971,265 +5093,265 @@
     </row>
     <row r="235" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A235" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B235" s="3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C235" s="3"/>
-      <c r="D235" s="3" t="s">
-        <v>419</v>
-      </c>
+      <c r="D235" s="3"/>
       <c r="E235" s="3"/>
     </row>
     <row r="236" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A236" s="9" t="s">
-        <v>284</v>
-      </c>
-      <c r="B236" s="9"/>
-      <c r="C236" s="9"/>
-      <c r="D236" s="9"/>
-      <c r="E236" s="9"/>
+      <c r="A236" s="3">
+        <v>3</v>
+      </c>
+      <c r="B236" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C236" s="3"/>
+      <c r="D236" s="3"/>
+      <c r="E236" s="3"/>
     </row>
     <row r="237" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A237" s="3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B237" s="3" t="s">
-        <v>252</v>
+        <v>15</v>
       </c>
       <c r="C237" s="3"/>
       <c r="D237" s="3" t="s">
-        <v>394</v>
+        <v>418</v>
       </c>
       <c r="E237" s="3"/>
     </row>
     <row r="238" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A238" s="3">
-        <v>2</v>
-      </c>
-      <c r="B238" s="3" t="s">
-        <v>253</v>
-      </c>
-      <c r="C238" s="3"/>
-      <c r="D238" s="3" t="s">
-        <v>394</v>
-      </c>
-      <c r="E238" s="3"/>
+      <c r="A238" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="B238" s="7"/>
+      <c r="C238" s="7"/>
+      <c r="D238" s="7"/>
+      <c r="E238" s="7"/>
     </row>
     <row r="239" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A239" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B239" s="3" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="C239" s="3"/>
       <c r="D239" s="3" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="E239" s="3"/>
     </row>
     <row r="240" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A240" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B240" s="3" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="C240" s="3"/>
-      <c r="D240" s="3"/>
+      <c r="D240" s="3" t="s">
+        <v>393</v>
+      </c>
       <c r="E240" s="3"/>
     </row>
     <row r="241" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A241" s="3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B241" s="3" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="C241" s="3"/>
       <c r="D241" s="3" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="E241" s="3"/>
     </row>
     <row r="242" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A242" s="3">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B242" s="3" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="C242" s="3"/>
-      <c r="D242" s="3" t="s">
-        <v>394</v>
-      </c>
+      <c r="D242" s="3"/>
       <c r="E242" s="3"/>
     </row>
     <row r="243" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A243" s="3">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B243" s="3" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="C243" s="3"/>
       <c r="D243" s="3" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="E243" s="3"/>
     </row>
     <row r="244" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A244" s="3">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B244" s="3" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="C244" s="3"/>
       <c r="D244" s="3" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="E244" s="3"/>
     </row>
     <row r="245" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A245" s="3">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B245" s="3" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="C245" s="3"/>
       <c r="D245" s="3" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="E245" s="3"/>
     </row>
     <row r="246" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A246" s="3">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B246" s="3" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="C246" s="3"/>
-      <c r="D246" s="3"/>
+      <c r="D246" s="3" t="s">
+        <v>393</v>
+      </c>
       <c r="E246" s="3"/>
     </row>
     <row r="247" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A247" s="3">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B247" s="3" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="C247" s="3"/>
       <c r="D247" s="3" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="E247" s="3"/>
     </row>
     <row r="248" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A248" s="3">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B248" s="3" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="C248" s="3"/>
-      <c r="D248" s="3" t="s">
-        <v>394</v>
-      </c>
+      <c r="D248" s="3"/>
       <c r="E248" s="3"/>
     </row>
     <row r="249" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A249" s="9" t="s">
-        <v>285</v>
-      </c>
-      <c r="B249" s="9"/>
-      <c r="C249" s="9"/>
-      <c r="D249" s="9"/>
-      <c r="E249" s="9"/>
+      <c r="A249" s="3">
+        <v>11</v>
+      </c>
+      <c r="B249" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="C249" s="3"/>
+      <c r="D249" s="3" t="s">
+        <v>393</v>
+      </c>
+      <c r="E249" s="3"/>
     </row>
     <row r="250" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A250" s="3">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="B250" s="3" t="s">
-        <v>138</v>
+        <v>265</v>
       </c>
       <c r="C250" s="3"/>
       <c r="D250" s="3" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="E250" s="3"/>
     </row>
     <row r="251" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A251" s="3">
-        <v>2</v>
-      </c>
-      <c r="B251" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="C251" s="3"/>
-      <c r="D251" s="3"/>
-      <c r="E251" s="3"/>
+      <c r="A251" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="B251" s="7"/>
+      <c r="C251" s="7"/>
+      <c r="D251" s="7"/>
+      <c r="E251" s="7"/>
     </row>
     <row r="252" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A252" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B252" s="3" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="C252" s="3"/>
       <c r="D252" s="3" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="E252" s="3"/>
     </row>
     <row r="253" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A253" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B253" s="3" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="C253" s="3"/>
-      <c r="D253" s="3" t="s">
-        <v>394</v>
-      </c>
+      <c r="D253" s="3"/>
       <c r="E253" s="3"/>
     </row>
     <row r="254" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A254" s="3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B254" s="3" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="C254" s="3"/>
-      <c r="D254" s="3"/>
+      <c r="D254" s="3" t="s">
+        <v>393</v>
+      </c>
       <c r="E254" s="3"/>
     </row>
     <row r="255" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A255" s="3">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B255" s="3" t="s">
-        <v>178</v>
+        <v>140</v>
       </c>
       <c r="C255" s="3"/>
-      <c r="D255" s="3"/>
+      <c r="D255" s="3" t="s">
+        <v>393</v>
+      </c>
       <c r="E255" s="3"/>
     </row>
     <row r="256" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A256" s="3">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B256" s="3" t="s">
-        <v>179</v>
+        <v>141</v>
       </c>
       <c r="C256" s="3"/>
       <c r="D256" s="3"/>
@@ -5237,10 +5359,10 @@
     </row>
     <row r="257" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A257" s="3">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B257" s="3" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="C257" s="3"/>
       <c r="D257" s="3"/>
@@ -5248,10 +5370,10 @@
     </row>
     <row r="258" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A258" s="3">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B258" s="3" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="C258" s="3"/>
       <c r="D258" s="3"/>
@@ -5259,23 +5381,21 @@
     </row>
     <row r="259" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A259" s="3">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B259" s="3" t="s">
-        <v>199</v>
+        <v>179</v>
       </c>
       <c r="C259" s="3"/>
-      <c r="D259" s="3" t="s">
-        <v>420</v>
-      </c>
+      <c r="D259" s="3"/>
       <c r="E259" s="3"/>
     </row>
     <row r="260" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A260" s="3">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B260" s="3" t="s">
-        <v>200</v>
+        <v>180</v>
       </c>
       <c r="C260" s="3"/>
       <c r="D260" s="3"/>
@@ -5283,76 +5403,78 @@
     </row>
     <row r="261" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A261" s="3">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B261" s="3" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="C261" s="3"/>
-      <c r="D261" s="3"/>
+      <c r="D261" s="3" t="s">
+        <v>419</v>
+      </c>
       <c r="E261" s="3"/>
     </row>
     <row r="262" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A262" s="3">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B262" s="3" t="s">
-        <v>229</v>
+        <v>199</v>
       </c>
       <c r="C262" s="3"/>
       <c r="D262" s="3"/>
       <c r="E262" s="3"/>
     </row>
     <row r="263" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A263" s="9" t="s">
-        <v>286</v>
-      </c>
-      <c r="B263" s="9"/>
-      <c r="C263" s="9"/>
-      <c r="D263" s="9"/>
-      <c r="E263" s="9"/>
+      <c r="A263" s="3">
+        <v>12</v>
+      </c>
+      <c r="B263" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="C263" s="3"/>
+      <c r="D263" s="3"/>
+      <c r="E263" s="3"/>
     </row>
     <row r="264" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A264" s="3">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="B264" s="3" t="s">
-        <v>172</v>
+        <v>228</v>
       </c>
       <c r="C264" s="3"/>
-      <c r="D264" s="3" t="s">
-        <v>421</v>
-      </c>
+      <c r="D264" s="3"/>
       <c r="E264" s="3"/>
     </row>
     <row r="265" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A265" s="3">
-        <v>2</v>
-      </c>
-      <c r="B265" s="3" t="s">
-        <v>173</v>
-      </c>
-      <c r="C265" s="3"/>
-      <c r="D265" s="3"/>
-      <c r="E265" s="3"/>
+      <c r="A265" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="B265" s="7"/>
+      <c r="C265" s="7"/>
+      <c r="D265" s="7"/>
+      <c r="E265" s="7"/>
     </row>
     <row r="266" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A266" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B266" s="3" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="C266" s="3"/>
-      <c r="D266" s="3"/>
+      <c r="D266" s="3" t="s">
+        <v>420</v>
+      </c>
       <c r="E266" s="3"/>
     </row>
     <row r="267" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A267" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B267" s="3" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="C267" s="3"/>
       <c r="D267" s="3"/>
@@ -5360,10 +5482,10 @@
     </row>
     <row r="268" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A268" s="3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B268" s="3" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="C268" s="3"/>
       <c r="D268" s="3"/>
@@ -5371,329 +5493,329 @@
     </row>
     <row r="269" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A269" s="3">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B269" s="3" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="C269" s="3"/>
-      <c r="D269" s="3" t="s">
-        <v>394</v>
-      </c>
+      <c r="D269" s="3"/>
       <c r="E269" s="3"/>
     </row>
     <row r="270" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A270" s="3">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B270" s="3" t="s">
-        <v>241</v>
+        <v>175</v>
       </c>
       <c r="C270" s="3"/>
       <c r="D270" s="3"/>
       <c r="E270" s="3"/>
     </row>
     <row r="271" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A271" s="9" t="s">
-        <v>291</v>
-      </c>
-      <c r="B271" s="9"/>
-      <c r="C271" s="9"/>
-      <c r="D271" s="9"/>
-      <c r="E271" s="9"/>
+      <c r="A271" s="3">
+        <v>6</v>
+      </c>
+      <c r="B271" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="C271" s="3"/>
+      <c r="D271" s="3" t="s">
+        <v>393</v>
+      </c>
+      <c r="E271" s="3"/>
     </row>
     <row r="272" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A272" s="3">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="B272" s="3" t="s">
-        <v>292</v>
-      </c>
-      <c r="C272" s="3" t="s">
-        <v>294</v>
-      </c>
+        <v>240</v>
+      </c>
+      <c r="C272" s="3"/>
       <c r="D272" s="3"/>
       <c r="E272" s="3"/>
     </row>
     <row r="273" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A273" s="3">
-        <v>2</v>
-      </c>
-      <c r="B273" s="3" t="s">
-        <v>309</v>
-      </c>
-      <c r="C273" s="3" t="s">
-        <v>293</v>
-      </c>
-      <c r="D273" s="3"/>
-      <c r="E273" s="3"/>
+      <c r="A273" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="B273" s="7"/>
+      <c r="C273" s="7"/>
+      <c r="D273" s="7"/>
+      <c r="E273" s="7"/>
     </row>
     <row r="274" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A274" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B274" s="3" t="s">
-        <v>310</v>
+        <v>291</v>
       </c>
       <c r="C274" s="3" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="D274" s="3"/>
       <c r="E274" s="3"/>
     </row>
     <row r="275" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A275" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B275" s="3" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="C275" s="3" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="D275" s="3"/>
       <c r="E275" s="3"/>
     </row>
     <row r="276" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A276" s="3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B276" s="3" t="s">
-        <v>372</v>
+        <v>309</v>
       </c>
       <c r="C276" s="3" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="D276" s="3"/>
       <c r="E276" s="3"/>
     </row>
     <row r="277" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A277" s="3">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B277" s="3" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="C277" s="3" t="s">
-        <v>298</v>
-      </c>
-      <c r="D277" s="3" t="s">
-        <v>378</v>
-      </c>
+        <v>295</v>
+      </c>
+      <c r="D277" s="3"/>
       <c r="E277" s="3"/>
     </row>
     <row r="278" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A278" s="3">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B278" s="3" t="s">
-        <v>299</v>
+        <v>371</v>
       </c>
       <c r="C278" s="3" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="D278" s="3"/>
       <c r="E278" s="3"/>
     </row>
     <row r="279" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A279" s="3">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B279" s="3" t="s">
-        <v>301</v>
+        <v>311</v>
       </c>
       <c r="C279" s="3" t="s">
-        <v>302</v>
-      </c>
-      <c r="D279" s="3"/>
+        <v>297</v>
+      </c>
+      <c r="D279" s="3" t="s">
+        <v>377</v>
+      </c>
       <c r="E279" s="3"/>
     </row>
     <row r="280" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A280" s="3">
+        <v>7</v>
+      </c>
+      <c r="B280" s="3" t="s">
+        <v>298</v>
+      </c>
+      <c r="C280" s="3" t="s">
+        <v>299</v>
+      </c>
+      <c r="D280" s="3"/>
+      <c r="E280" s="3"/>
+    </row>
+    <row r="281" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A281" s="3">
+        <v>8</v>
+      </c>
+      <c r="B281" s="3" t="s">
+        <v>300</v>
+      </c>
+      <c r="C281" s="3" t="s">
+        <v>301</v>
+      </c>
+      <c r="D281" s="3"/>
+      <c r="E281" s="3"/>
+    </row>
+    <row r="282" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A282" s="3">
         <v>9</v>
       </c>
-      <c r="B280" s="3" t="s">
+      <c r="B282" s="3" t="s">
+        <v>302</v>
+      </c>
+      <c r="C282" s="3" t="s">
         <v>303</v>
       </c>
-      <c r="C280" s="3" t="s">
+      <c r="D282" s="3" t="s">
+        <v>363</v>
+      </c>
+      <c r="E282" s="3"/>
+    </row>
+    <row r="283" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A283" s="7" t="s">
+        <v>375</v>
+      </c>
+      <c r="B283" s="7"/>
+      <c r="C283" s="7"/>
+      <c r="D283" s="7"/>
+      <c r="E283" s="7"/>
+    </row>
+    <row r="284" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A284" s="8" t="s">
         <v>304</v>
       </c>
-      <c r="D280" s="3" t="s">
-        <v>364</v>
-      </c>
-      <c r="E280" s="3"/>
-    </row>
-    <row r="281" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A281" s="9" t="s">
-        <v>376</v>
-      </c>
-      <c r="B281" s="9"/>
-      <c r="C281" s="9"/>
-      <c r="D281" s="9"/>
-      <c r="E281" s="9"/>
-    </row>
-    <row r="282" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A282" s="7" t="s">
-        <v>305</v>
-      </c>
-      <c r="B282" s="8"/>
-      <c r="C282" s="3"/>
-      <c r="D282" s="3"/>
-      <c r="E282" s="3"/>
-    </row>
-    <row r="283" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A283" s="3">
-        <v>1</v>
-      </c>
-      <c r="B283" s="3" t="s">
-        <v>313</v>
-      </c>
-      <c r="C283" s="3"/>
-      <c r="D283" s="3" t="s">
-        <v>364</v>
-      </c>
-      <c r="E283" s="3"/>
-    </row>
-    <row r="284" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A284" s="3">
-        <v>2</v>
-      </c>
-      <c r="B284" s="3" t="s">
-        <v>314</v>
-      </c>
+      <c r="B284" s="9"/>
       <c r="C284" s="3"/>
-      <c r="D284" s="3" t="s">
-        <v>375</v>
-      </c>
+      <c r="D284" s="3"/>
       <c r="E284" s="3"/>
     </row>
     <row r="285" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A285" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B285" s="3" t="s">
-        <v>95</v>
+        <v>312</v>
       </c>
       <c r="C285" s="3"/>
       <c r="D285" s="3" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="E285" s="3"/>
     </row>
     <row r="286" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A286" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B286" s="3" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="C286" s="3"/>
-      <c r="D286" s="6" t="s">
-        <v>379</v>
+      <c r="D286" s="3" t="s">
+        <v>374</v>
       </c>
       <c r="E286" s="3"/>
     </row>
     <row r="287" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A287" s="7" t="s">
-        <v>306</v>
-      </c>
-      <c r="B287" s="8"/>
+      <c r="A287" s="3">
+        <v>3</v>
+      </c>
+      <c r="B287" s="3" t="s">
+        <v>95</v>
+      </c>
       <c r="C287" s="3"/>
-      <c r="D287" s="3"/>
+      <c r="D287" s="3" t="s">
+        <v>363</v>
+      </c>
       <c r="E287" s="3"/>
     </row>
     <row r="288" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A288" s="3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B288" s="3" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="C288" s="3"/>
-      <c r="D288" s="3" t="s">
-        <v>367</v>
+      <c r="D288" s="6" t="s">
+        <v>378</v>
       </c>
       <c r="E288" s="3"/>
     </row>
     <row r="289" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A289" s="3">
-        <v>2</v>
-      </c>
-      <c r="B289" s="3" t="s">
-        <v>317</v>
-      </c>
+      <c r="A289" s="8" t="s">
+        <v>305</v>
+      </c>
+      <c r="B289" s="9"/>
       <c r="C289" s="3"/>
-      <c r="D289" s="3" t="s">
-        <v>364</v>
-      </c>
+      <c r="D289" s="3"/>
       <c r="E289" s="3"/>
     </row>
     <row r="290" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A290" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B290" s="3" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="C290" s="3"/>
       <c r="D290" s="3" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="E290" s="3"/>
     </row>
     <row r="291" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A291" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B291" s="3" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="C291" s="3"/>
-      <c r="D291" s="6" t="s">
-        <v>379</v>
+      <c r="D291" s="3" t="s">
+        <v>363</v>
       </c>
       <c r="E291" s="3"/>
     </row>
     <row r="292" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A292" s="3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B292" s="3" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="C292" s="3"/>
       <c r="D292" s="3" t="s">
-        <v>380</v>
+        <v>363</v>
       </c>
       <c r="E292" s="3"/>
     </row>
     <row r="293" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A293" s="7" t="s">
-        <v>307</v>
-      </c>
-      <c r="B293" s="8"/>
+      <c r="A293" s="3">
+        <v>4</v>
+      </c>
+      <c r="B293" s="3" t="s">
+        <v>318</v>
+      </c>
       <c r="C293" s="3"/>
-      <c r="D293" s="3"/>
+      <c r="D293" s="6" t="s">
+        <v>378</v>
+      </c>
       <c r="E293" s="3"/>
     </row>
     <row r="294" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A294" s="3">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B294" s="3" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="C294" s="3"/>
       <c r="D294" s="3" t="s">
-        <v>364</v>
+        <v>379</v>
       </c>
       <c r="E294" s="3"/>
     </row>
     <row r="295" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A295" s="7" t="s">
-        <v>359</v>
-      </c>
-      <c r="B295" s="8"/>
+      <c r="A295" s="8" t="s">
+        <v>306</v>
+      </c>
+      <c r="B295" s="9"/>
       <c r="C295" s="3"/>
       <c r="D295" s="3"/>
       <c r="E295" s="3"/>
@@ -5703,177 +5825,175 @@
         <v>1</v>
       </c>
       <c r="B296" s="3" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="C296" s="3"/>
       <c r="D296" s="3" t="s">
-        <v>381</v>
+        <v>363</v>
       </c>
       <c r="E296" s="3"/>
     </row>
     <row r="297" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A297" s="3">
-        <v>2</v>
-      </c>
-      <c r="B297" s="3" t="s">
-        <v>323</v>
-      </c>
+      <c r="A297" s="8" t="s">
+        <v>358</v>
+      </c>
+      <c r="B297" s="9"/>
       <c r="C297" s="3"/>
-      <c r="D297" s="3" t="s">
-        <v>382</v>
-      </c>
+      <c r="D297" s="3"/>
       <c r="E297" s="3"/>
     </row>
     <row r="298" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A298" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B298" s="3" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="C298" s="3"/>
-      <c r="D298" s="6" t="s">
-        <v>379</v>
+      <c r="D298" s="3" t="s">
+        <v>380</v>
       </c>
       <c r="E298" s="3"/>
     </row>
     <row r="299" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A299" s="7" t="s">
-        <v>308</v>
-      </c>
-      <c r="B299" s="8"/>
+      <c r="A299" s="3">
+        <v>2</v>
+      </c>
+      <c r="B299" s="3" t="s">
+        <v>322</v>
+      </c>
       <c r="C299" s="3"/>
-      <c r="D299" s="3"/>
+      <c r="D299" s="3" t="s">
+        <v>381</v>
+      </c>
       <c r="E299" s="3"/>
     </row>
     <row r="300" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A300" s="3">
+        <v>3</v>
+      </c>
+      <c r="B300" s="3" t="s">
+        <v>323</v>
+      </c>
+      <c r="C300" s="3"/>
+      <c r="D300" s="6" t="s">
+        <v>378</v>
+      </c>
+      <c r="E300" s="3"/>
+    </row>
+    <row r="301" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A301" s="8" t="s">
+        <v>307</v>
+      </c>
+      <c r="B301" s="9"/>
+      <c r="C301" s="3"/>
+      <c r="D301" s="3"/>
+      <c r="E301" s="3"/>
+    </row>
+    <row r="302" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A302" s="3">
         <v>1</v>
       </c>
-      <c r="B300" s="3" t="s">
-        <v>325</v>
-      </c>
-      <c r="C300" s="3"/>
-      <c r="D300" s="3" t="s">
-        <v>384</v>
-      </c>
-      <c r="E300" s="3"/>
-    </row>
-    <row r="301" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A301" s="3">
-        <v>2</v>
-      </c>
-      <c r="B301" s="3" t="s">
-        <v>326</v>
-      </c>
-      <c r="C301" s="3"/>
-      <c r="D301" s="3" t="s">
+      <c r="B302" s="3" t="s">
+        <v>324</v>
+      </c>
+      <c r="C302" s="3"/>
+      <c r="D302" s="3" t="s">
         <v>383</v>
       </c>
-      <c r="E301" s="3"/>
-    </row>
-    <row r="302" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A302" s="7" t="s">
-        <v>360</v>
-      </c>
-      <c r="B302" s="8"/>
-      <c r="C302" s="3"/>
-      <c r="D302" s="3"/>
       <c r="E302" s="3"/>
     </row>
     <row r="303" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A303" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B303" s="3" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="C303" s="3"/>
       <c r="D303" s="3" t="s">
-        <v>364</v>
+        <v>382</v>
       </c>
       <c r="E303" s="3"/>
     </row>
     <row r="304" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A304" s="3">
-        <v>2</v>
-      </c>
-      <c r="B304" s="3" t="s">
-        <v>328</v>
-      </c>
+      <c r="A304" s="8" t="s">
+        <v>359</v>
+      </c>
+      <c r="B304" s="9"/>
       <c r="C304" s="3"/>
-      <c r="D304" s="3" t="s">
-        <v>385</v>
-      </c>
+      <c r="D304" s="3"/>
       <c r="E304" s="3"/>
     </row>
     <row r="305" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A305" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B305" s="3" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="C305" s="3"/>
       <c r="D305" s="3" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="E305" s="3"/>
     </row>
     <row r="306" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A306" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B306" s="3" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="C306" s="3"/>
       <c r="D306" s="3" t="s">
-        <v>367</v>
+        <v>384</v>
       </c>
       <c r="E306" s="3"/>
     </row>
     <row r="307" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A307" s="3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B307" s="3" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="C307" s="3"/>
-      <c r="D307" s="3"/>
+      <c r="D307" s="3" t="s">
+        <v>364</v>
+      </c>
       <c r="E307" s="3"/>
     </row>
     <row r="308" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A308" s="3">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B308" s="3" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="C308" s="3"/>
-      <c r="D308" s="3"/>
+      <c r="D308" s="3" t="s">
+        <v>366</v>
+      </c>
       <c r="E308" s="3"/>
     </row>
     <row r="309" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A309" s="3">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B309" s="3" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="C309" s="3"/>
-      <c r="D309" s="3" t="s">
-        <v>365</v>
-      </c>
+      <c r="D309" s="3"/>
       <c r="E309" s="3"/>
     </row>
     <row r="310" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A310" s="3">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B310" s="3" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="C310" s="3"/>
       <c r="D310" s="3"/>
@@ -5881,316 +6001,318 @@
     </row>
     <row r="311" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A311" s="3">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B311" s="3" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="C311" s="3"/>
       <c r="D311" s="3" t="s">
-        <v>369</v>
+        <v>364</v>
       </c>
       <c r="E311" s="3"/>
     </row>
     <row r="312" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A312" s="7" t="s">
-        <v>361</v>
-      </c>
-      <c r="B312" s="8"/>
+      <c r="A312" s="3">
+        <v>8</v>
+      </c>
+      <c r="B312" s="3" t="s">
+        <v>333</v>
+      </c>
       <c r="C312" s="3"/>
       <c r="D312" s="3"/>
       <c r="E312" s="3"/>
     </row>
     <row r="313" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A313" s="3">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="B313" s="3" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="C313" s="3"/>
-      <c r="D313" s="3"/>
+      <c r="D313" s="3" t="s">
+        <v>368</v>
+      </c>
       <c r="E313" s="3"/>
     </row>
     <row r="314" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A314" s="3">
-        <v>2</v>
-      </c>
-      <c r="B314" s="3" t="s">
-        <v>337</v>
-      </c>
+      <c r="A314" s="8" t="s">
+        <v>360</v>
+      </c>
+      <c r="B314" s="9"/>
       <c r="C314" s="3"/>
-      <c r="D314" s="3" t="s">
-        <v>368</v>
-      </c>
+      <c r="D314" s="3"/>
       <c r="E314" s="3"/>
     </row>
     <row r="315" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A315" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B315" s="3" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="C315" s="3"/>
-      <c r="D315" s="3" t="s">
-        <v>368</v>
-      </c>
+      <c r="D315" s="3"/>
       <c r="E315" s="3"/>
     </row>
     <row r="316" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A316" s="7" t="s">
-        <v>362</v>
-      </c>
-      <c r="B316" s="8"/>
+      <c r="A316" s="3">
+        <v>2</v>
+      </c>
+      <c r="B316" s="3" t="s">
+        <v>336</v>
+      </c>
       <c r="C316" s="3"/>
-      <c r="D316" s="3"/>
+      <c r="D316" s="3" t="s">
+        <v>367</v>
+      </c>
       <c r="E316" s="3"/>
     </row>
     <row r="317" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A317" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B317" s="3" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="C317" s="3"/>
       <c r="D317" s="3" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="E317" s="3"/>
     </row>
     <row r="318" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A318" s="3">
-        <v>2</v>
-      </c>
-      <c r="B318" s="3" t="s">
-        <v>340</v>
-      </c>
+      <c r="A318" s="8" t="s">
+        <v>361</v>
+      </c>
+      <c r="B318" s="9"/>
       <c r="C318" s="3"/>
       <c r="D318" s="3"/>
       <c r="E318" s="3"/>
     </row>
     <row r="319" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A319" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B319" s="3" t="s">
-        <v>157</v>
+        <v>338</v>
       </c>
       <c r="C319" s="3"/>
       <c r="D319" s="3" t="s">
-        <v>374</v>
+        <v>367</v>
       </c>
       <c r="E319" s="3"/>
     </row>
     <row r="320" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A320" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B320" s="3" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="C320" s="3"/>
-      <c r="D320" s="3" t="s">
-        <v>369</v>
-      </c>
+      <c r="D320" s="3"/>
       <c r="E320" s="3"/>
     </row>
     <row r="321" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A321" s="7" t="s">
-        <v>363</v>
-      </c>
-      <c r="B321" s="8"/>
+      <c r="A321" s="3">
+        <v>3</v>
+      </c>
+      <c r="B321" s="3" t="s">
+        <v>156</v>
+      </c>
       <c r="C321" s="3"/>
-      <c r="D321" s="3"/>
+      <c r="D321" s="3" t="s">
+        <v>373</v>
+      </c>
       <c r="E321" s="3"/>
     </row>
     <row r="322" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A322" s="3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B322" s="3" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="C322" s="3"/>
       <c r="D322" s="3" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="E322" s="3"/>
     </row>
     <row r="323" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A323" s="3">
-        <v>2</v>
-      </c>
-      <c r="B323" s="3" t="s">
-        <v>343</v>
-      </c>
+      <c r="A323" s="8" t="s">
+        <v>362</v>
+      </c>
+      <c r="B323" s="9"/>
       <c r="C323" s="3"/>
-      <c r="D323" s="3" t="s">
-        <v>369</v>
-      </c>
+      <c r="D323" s="3"/>
       <c r="E323" s="3"/>
     </row>
     <row r="324" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A324" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B324" s="3" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="C324" s="3"/>
-      <c r="D324" s="3"/>
+      <c r="D324" s="3" t="s">
+        <v>368</v>
+      </c>
       <c r="E324" s="3"/>
     </row>
     <row r="325" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A325" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B325" s="3" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="C325" s="3"/>
-      <c r="D325" s="3"/>
+      <c r="D325" s="3" t="s">
+        <v>368</v>
+      </c>
       <c r="E325" s="3"/>
     </row>
     <row r="326" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A326" s="3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B326" s="3" t="s">
-        <v>321</v>
+        <v>343</v>
       </c>
       <c r="C326" s="3"/>
-      <c r="D326" s="3" t="s">
-        <v>370</v>
-      </c>
+      <c r="D326" s="3"/>
       <c r="E326" s="3"/>
     </row>
     <row r="327" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A327" s="9" t="s">
-        <v>377</v>
-      </c>
-      <c r="B327" s="9"/>
-      <c r="C327" s="9"/>
-      <c r="D327" s="9"/>
-      <c r="E327" s="9"/>
+      <c r="A327" s="3">
+        <v>4</v>
+      </c>
+      <c r="B327" s="3" t="s">
+        <v>344</v>
+      </c>
+      <c r="C327" s="3"/>
+      <c r="D327" s="3"/>
+      <c r="E327" s="3"/>
     </row>
     <row r="328" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A328" s="3">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B328" s="3" t="s">
-        <v>346</v>
+        <v>320</v>
       </c>
       <c r="C328" s="3"/>
-      <c r="D328" s="3"/>
+      <c r="D328" s="3" t="s">
+        <v>369</v>
+      </c>
       <c r="E328" s="3"/>
     </row>
     <row r="329" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A329" s="3">
-        <v>2</v>
-      </c>
-      <c r="B329" s="3" t="s">
-        <v>347</v>
-      </c>
-      <c r="C329" s="3"/>
-      <c r="D329" s="3" t="s">
-        <v>374</v>
-      </c>
-      <c r="E329" s="3"/>
+      <c r="A329" s="7" t="s">
+        <v>376</v>
+      </c>
+      <c r="B329" s="7"/>
+      <c r="C329" s="7"/>
+      <c r="D329" s="7"/>
+      <c r="E329" s="7"/>
     </row>
     <row r="330" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A330" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B330" s="3" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="C330" s="3"/>
-      <c r="D330" s="3" t="s">
-        <v>374</v>
-      </c>
+      <c r="D330" s="3"/>
       <c r="E330" s="3"/>
     </row>
     <row r="331" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A331" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B331" s="3" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="C331" s="3"/>
-      <c r="D331" s="3"/>
+      <c r="D331" s="3" t="s">
+        <v>373</v>
+      </c>
       <c r="E331" s="3"/>
     </row>
     <row r="332" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A332" s="3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B332" s="3" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="C332" s="3"/>
       <c r="D332" s="3" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="E332" s="3"/>
     </row>
     <row r="333" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A333" s="3">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B333" s="3" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="C333" s="3"/>
-      <c r="D333" s="3" t="s">
-        <v>373</v>
-      </c>
+      <c r="D333" s="3"/>
       <c r="E333" s="3"/>
     </row>
     <row r="334" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A334" s="3">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B334" s="3" t="s">
-        <v>220</v>
+        <v>349</v>
       </c>
       <c r="C334" s="3"/>
       <c r="D334" s="3" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="E334" s="3"/>
     </row>
     <row r="335" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A335" s="3">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B335" s="3" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="C335" s="3"/>
-      <c r="D335" s="3"/>
+      <c r="D335" s="3" t="s">
+        <v>372</v>
+      </c>
       <c r="E335" s="3"/>
     </row>
     <row r="336" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A336" s="3">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B336" s="3" t="s">
-        <v>353</v>
+        <v>219</v>
       </c>
       <c r="C336" s="3"/>
-      <c r="D336" s="3"/>
+      <c r="D336" s="3" t="s">
+        <v>370</v>
+      </c>
       <c r="E336" s="3"/>
     </row>
     <row r="337" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A337" s="3">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B337" s="3" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="C337" s="3"/>
       <c r="D337" s="3"/>
@@ -6198,10 +6320,10 @@
     </row>
     <row r="338" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A338" s="3">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B338" s="3" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="C338" s="3"/>
       <c r="D338" s="3"/>
@@ -6209,23 +6331,21 @@
     </row>
     <row r="339" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A339" s="3">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B339" s="3" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="C339" s="3"/>
-      <c r="D339" s="3" t="s">
-        <v>424</v>
-      </c>
+      <c r="D339" s="3"/>
       <c r="E339" s="3"/>
     </row>
     <row r="340" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A340" s="3">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B340" s="3" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="C340" s="3"/>
       <c r="D340" s="3"/>
@@ -6233,46 +6353,81 @@
     </row>
     <row r="341" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A341" s="3">
+        <v>12</v>
+      </c>
+      <c r="B341" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="C341" s="3"/>
+      <c r="D341" s="3" t="s">
+        <v>423</v>
+      </c>
+      <c r="E341" s="3"/>
+    </row>
+    <row r="342" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A342" s="3">
+        <v>13</v>
+      </c>
+      <c r="B342" s="3" t="s">
+        <v>356</v>
+      </c>
+      <c r="C342" s="3"/>
+      <c r="D342" s="3"/>
+      <c r="E342" s="3"/>
+    </row>
+    <row r="343" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A343" s="3">
         <v>14</v>
       </c>
-      <c r="B341" s="3" t="s">
-        <v>358</v>
-      </c>
-      <c r="C341" s="3"/>
-      <c r="D341" s="3"/>
-      <c r="E341" s="3"/>
+      <c r="B343" s="3" t="s">
+        <v>357</v>
+      </c>
+      <c r="C343" s="3"/>
+      <c r="D343" s="3"/>
+      <c r="E343" s="3"/>
+    </row>
+    <row r="344" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A344" s="3">
+        <v>15</v>
+      </c>
+      <c r="B344" s="2" t="s">
+        <v>444</v>
+      </c>
+      <c r="D344" s="2" t="s">
+        <v>445</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="A271:E271"/>
-    <mergeCell ref="A281:E281"/>
-    <mergeCell ref="A263:E263"/>
-    <mergeCell ref="A211:E211"/>
-    <mergeCell ref="A225:E225"/>
-    <mergeCell ref="A231:E231"/>
-    <mergeCell ref="A236:E236"/>
-    <mergeCell ref="A249:E249"/>
-    <mergeCell ref="A143:E143"/>
-    <mergeCell ref="A149:E149"/>
-    <mergeCell ref="A158:E158"/>
-    <mergeCell ref="A162:E162"/>
-    <mergeCell ref="A188:E188"/>
+    <mergeCell ref="A304:B304"/>
+    <mergeCell ref="A314:B314"/>
+    <mergeCell ref="A318:B318"/>
+    <mergeCell ref="A323:B323"/>
+    <mergeCell ref="A329:E329"/>
+    <mergeCell ref="A284:B284"/>
+    <mergeCell ref="A289:B289"/>
+    <mergeCell ref="A295:B295"/>
+    <mergeCell ref="A297:B297"/>
+    <mergeCell ref="A301:B301"/>
     <mergeCell ref="A2:E2"/>
     <mergeCell ref="A20:E20"/>
     <mergeCell ref="A43:E43"/>
     <mergeCell ref="A85:E85"/>
     <mergeCell ref="A139:E139"/>
     <mergeCell ref="A113:E113"/>
-    <mergeCell ref="A282:B282"/>
-    <mergeCell ref="A287:B287"/>
-    <mergeCell ref="A293:B293"/>
-    <mergeCell ref="A295:B295"/>
-    <mergeCell ref="A299:B299"/>
-    <mergeCell ref="A302:B302"/>
-    <mergeCell ref="A312:B312"/>
-    <mergeCell ref="A316:B316"/>
-    <mergeCell ref="A321:B321"/>
-    <mergeCell ref="A327:E327"/>
+    <mergeCell ref="A143:E143"/>
+    <mergeCell ref="A151:E151"/>
+    <mergeCell ref="A160:E160"/>
+    <mergeCell ref="A164:E164"/>
+    <mergeCell ref="A190:E190"/>
+    <mergeCell ref="A273:E273"/>
+    <mergeCell ref="A283:E283"/>
+    <mergeCell ref="A265:E265"/>
+    <mergeCell ref="A213:E213"/>
+    <mergeCell ref="A227:E227"/>
+    <mergeCell ref="A233:E233"/>
+    <mergeCell ref="A238:E238"/>
+    <mergeCell ref="A251:E251"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/doc/BookList.xlsx
+++ b/doc/BookList.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="596" uniqueCount="446">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="600" uniqueCount="449">
   <si>
     <t>民主的细节</t>
   </si>
@@ -1741,6 +1741,18 @@
   </si>
   <si>
     <t>epub</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大而不倒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>极简主义</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>吃掉那只青蛙</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1871,9 +1883,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -2178,11 +2190,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E344"/>
+  <dimension ref="A1:E348"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A326" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A344" sqref="A344"/>
+      <pane ySplit="1" topLeftCell="A143" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B153" sqref="B153"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2213,13 +2225,13 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="9" t="s">
         <v>270</v>
       </c>
-      <c r="B2" s="7"/>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
+      <c r="B2" s="9"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="3">
@@ -2437,13 +2449,13 @@
       <c r="E19" s="3"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A20" s="7" t="s">
+      <c r="A20" s="9" t="s">
         <v>271</v>
       </c>
-      <c r="B20" s="7"/>
-      <c r="C20" s="7"/>
-      <c r="D20" s="7"/>
-      <c r="E20" s="7"/>
+      <c r="B20" s="9"/>
+      <c r="C20" s="9"/>
+      <c r="D20" s="9"/>
+      <c r="E20" s="9"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="3">
@@ -2724,108 +2736,108 @@
       <c r="E42" s="3"/>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A43" s="7" t="s">
+      <c r="A43" s="3">
+        <v>23</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>446</v>
+      </c>
+      <c r="C43" s="3"/>
+      <c r="D43" s="3" t="s">
+        <v>363</v>
+      </c>
+      <c r="E43" s="3"/>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A44" s="9" t="s">
         <v>272</v>
       </c>
-      <c r="B43" s="7"/>
-      <c r="C43" s="7"/>
-      <c r="D43" s="7"/>
-      <c r="E43" s="7"/>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A44" s="3">
-        <v>1</v>
-      </c>
-      <c r="B44" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="C44" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="D44" s="3" t="s">
-        <v>396</v>
-      </c>
-      <c r="E44" s="3"/>
+      <c r="B44" s="9"/>
+      <c r="C44" s="9"/>
+      <c r="D44" s="9"/>
+      <c r="E44" s="9"/>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A45" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>393</v>
+        <v>396</v>
       </c>
       <c r="E45" s="3"/>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A46" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>65</v>
+        <v>85</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="E46" s="3"/>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A47" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>86</v>
+        <v>65</v>
       </c>
       <c r="C47" s="3" t="s">
         <v>82</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>385</v>
+        <v>397</v>
       </c>
       <c r="E47" s="3"/>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A48" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C48" s="3" t="s">
         <v>82</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>398</v>
+        <v>385</v>
       </c>
       <c r="E48" s="3"/>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A49" s="3">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="C49" s="3"/>
+        <v>87</v>
+      </c>
+      <c r="C49" s="3" t="s">
+        <v>82</v>
+      </c>
       <c r="D49" s="3" t="s">
-        <v>386</v>
+        <v>398</v>
       </c>
       <c r="E49" s="3"/>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A50" s="3">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C50" s="3"/>
       <c r="D50" s="3" t="s">
@@ -2835,49 +2847,49 @@
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A51" s="3">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>181</v>
+        <v>67</v>
       </c>
       <c r="C51" s="3"/>
       <c r="D51" s="3" t="s">
-        <v>436</v>
-      </c>
-      <c r="E51" s="3" t="s">
-        <v>437</v>
-      </c>
+        <v>386</v>
+      </c>
+      <c r="E51" s="3"/>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A52" s="3">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C52" s="3"/>
-      <c r="D52" s="3"/>
-      <c r="E52" s="3"/>
+      <c r="D52" s="3" t="s">
+        <v>436</v>
+      </c>
+      <c r="E52" s="3" t="s">
+        <v>437</v>
+      </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A53" s="3">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C53" s="3"/>
-      <c r="D53" s="3" t="s">
-        <v>393</v>
-      </c>
+      <c r="D53" s="3"/>
       <c r="E53" s="3"/>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A54" s="3">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C54" s="3"/>
       <c r="D54" s="3" t="s">
@@ -2887,23 +2899,23 @@
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A55" s="3">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>68</v>
+        <v>184</v>
       </c>
       <c r="C55" s="3"/>
       <c r="D55" s="3" t="s">
-        <v>386</v>
+        <v>393</v>
       </c>
       <c r="E55" s="3"/>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A56" s="3">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>22</v>
+        <v>68</v>
       </c>
       <c r="C56" s="3"/>
       <c r="D56" s="3" t="s">
@@ -2913,125 +2925,127 @@
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A57" s="3">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C57" s="3"/>
       <c r="D57" s="3" t="s">
-        <v>393</v>
+        <v>386</v>
       </c>
       <c r="E57" s="3"/>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A58" s="3">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="C58" s="3"/>
       <c r="D58" s="3" t="s">
-        <v>389</v>
+        <v>393</v>
       </c>
       <c r="E58" s="3"/>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A59" s="3">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="C59" s="3"/>
       <c r="D59" s="3" t="s">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="E59" s="3"/>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A60" s="3">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>94</v>
+        <v>25</v>
       </c>
       <c r="C60" s="3"/>
       <c r="D60" s="3" t="s">
-        <v>399</v>
+        <v>386</v>
       </c>
       <c r="E60" s="3"/>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A61" s="3">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C61" s="3"/>
       <c r="D61" s="3" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="E61" s="3"/>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A62" s="3">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C62" s="3"/>
       <c r="D62" s="3" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="E62" s="3"/>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A63" s="3">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>402</v>
+        <v>97</v>
       </c>
       <c r="C63" s="3"/>
       <c r="D63" s="3" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="E63" s="3"/>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A64" s="3">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>119</v>
+        <v>402</v>
       </c>
       <c r="C64" s="3"/>
       <c r="D64" s="3" t="s">
-        <v>393</v>
+        <v>399</v>
       </c>
       <c r="E64" s="3"/>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A65" s="3">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>40</v>
+        <v>119</v>
       </c>
       <c r="C65" s="3"/>
-      <c r="D65" s="3"/>
+      <c r="D65" s="3" t="s">
+        <v>393</v>
+      </c>
       <c r="E65" s="3"/>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A66" s="3">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C66" s="3"/>
       <c r="D66" s="3"/>
@@ -3039,36 +3053,34 @@
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A67" s="3">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>403</v>
+        <v>38</v>
       </c>
       <c r="C67" s="3"/>
-      <c r="D67" s="3" t="s">
-        <v>393</v>
-      </c>
+      <c r="D67" s="3"/>
       <c r="E67" s="3"/>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A68" s="3">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>24</v>
+        <v>403</v>
       </c>
       <c r="C68" s="3"/>
       <c r="D68" s="3" t="s">
-        <v>399</v>
+        <v>393</v>
       </c>
       <c r="E68" s="3"/>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A69" s="3">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C69" s="3"/>
       <c r="D69" s="3" t="s">
@@ -3078,23 +3090,23 @@
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A70" s="3">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C70" s="3"/>
       <c r="D70" s="3" t="s">
-        <v>393</v>
+        <v>399</v>
       </c>
       <c r="E70" s="3"/>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A71" s="3">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="C71" s="3"/>
       <c r="D71" s="3" t="s">
@@ -3104,10 +3116,10 @@
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A72" s="3">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C72" s="3"/>
       <c r="D72" s="3" t="s">
@@ -3117,10 +3129,10 @@
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A73" s="3">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C73" s="3"/>
       <c r="D73" s="3" t="s">
@@ -3130,10 +3142,10 @@
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A74" s="3">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C74" s="3"/>
       <c r="D74" s="3" t="s">
@@ -3143,47 +3155,49 @@
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A75" s="3">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>104</v>
+        <v>44</v>
       </c>
       <c r="C75" s="3"/>
       <c r="D75" s="3" t="s">
-        <v>399</v>
+        <v>393</v>
       </c>
       <c r="E75" s="3"/>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A76" s="3">
-        <v>33</v>
-      </c>
-      <c r="B76" s="4" t="s">
-        <v>45</v>
+        <v>32</v>
+      </c>
+      <c r="B76" s="3" t="s">
+        <v>104</v>
       </c>
       <c r="C76" s="3"/>
       <c r="D76" s="3" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="E76" s="3"/>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A77" s="3">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C77" s="3"/>
-      <c r="D77" s="3"/>
+      <c r="D77" s="3" t="s">
+        <v>401</v>
+      </c>
       <c r="E77" s="3"/>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A78" s="3">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>147</v>
+        <v>46</v>
       </c>
       <c r="C78" s="3"/>
       <c r="D78" s="3"/>
@@ -3191,49 +3205,49 @@
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A79" s="3">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C79" s="3"/>
-      <c r="D79" s="3" t="s">
-        <v>438</v>
-      </c>
-      <c r="E79" s="3" t="s">
-        <v>439</v>
-      </c>
+      <c r="D79" s="3"/>
+      <c r="E79" s="3"/>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A80" s="3">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C80" s="3"/>
       <c r="D80" s="3" t="s">
-        <v>440</v>
-      </c>
-      <c r="E80" s="3"/>
+        <v>438</v>
+      </c>
+      <c r="E80" s="3" t="s">
+        <v>439</v>
+      </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A81" s="3">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C81" s="3"/>
-      <c r="D81" s="3"/>
+      <c r="D81" s="3" t="s">
+        <v>440</v>
+      </c>
       <c r="E81" s="3"/>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A82" s="3">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C82" s="3"/>
       <c r="D82" s="3"/>
@@ -3241,10 +3255,10 @@
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A83" s="3">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C83" s="3"/>
       <c r="D83" s="3"/>
@@ -3252,43 +3266,41 @@
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A84" s="3">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C84" s="3"/>
       <c r="D84" s="3"/>
       <c r="E84" s="3"/>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A85" s="7" t="s">
+      <c r="A85" s="3">
+        <v>41</v>
+      </c>
+      <c r="B85" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="C85" s="3"/>
+      <c r="D85" s="3"/>
+      <c r="E85" s="3"/>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A86" s="9" t="s">
         <v>273</v>
       </c>
-      <c r="B85" s="7"/>
-      <c r="C85" s="7"/>
-      <c r="D85" s="7"/>
-      <c r="E85" s="7"/>
-    </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A86" s="3">
-        <v>1</v>
-      </c>
-      <c r="B86" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="C86" s="3"/>
-      <c r="D86" s="3" t="s">
-        <v>385</v>
-      </c>
-      <c r="E86" s="3"/>
+      <c r="B86" s="9"/>
+      <c r="C86" s="9"/>
+      <c r="D86" s="9"/>
+      <c r="E86" s="9"/>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A87" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>69</v>
+        <v>47</v>
       </c>
       <c r="C87" s="3"/>
       <c r="D87" s="3" t="s">
@@ -3298,10 +3310,10 @@
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A88" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C88" s="3"/>
       <c r="D88" s="3" t="s">
@@ -3311,10 +3323,10 @@
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A89" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B89" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C89" s="3"/>
       <c r="D89" s="3" t="s">
@@ -3324,10 +3336,10 @@
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A90" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B90" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C90" s="3"/>
       <c r="D90" s="3" t="s">
@@ -3337,14 +3349,12 @@
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A91" s="3">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B91" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="C91" s="3" t="s">
-        <v>98</v>
-      </c>
+        <v>72</v>
+      </c>
+      <c r="C91" s="3"/>
       <c r="D91" s="3" t="s">
         <v>385</v>
       </c>
@@ -3352,123 +3362,127 @@
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A92" s="3">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B92" s="3" t="s">
-        <v>163</v>
-      </c>
-      <c r="C92" s="3"/>
+        <v>73</v>
+      </c>
+      <c r="C92" s="3" t="s">
+        <v>98</v>
+      </c>
       <c r="D92" s="3" t="s">
-        <v>431</v>
+        <v>385</v>
       </c>
       <c r="E92" s="3"/>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A93" s="3">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B93" s="3" t="s">
-        <v>244</v>
+        <v>163</v>
       </c>
       <c r="C93" s="3"/>
-      <c r="D93" s="3"/>
+      <c r="D93" s="3" t="s">
+        <v>431</v>
+      </c>
       <c r="E93" s="3"/>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A94" s="3">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B94" s="3" t="s">
-        <v>77</v>
+        <v>244</v>
       </c>
       <c r="C94" s="3"/>
-      <c r="D94" s="3" t="s">
-        <v>386</v>
-      </c>
+      <c r="D94" s="3"/>
       <c r="E94" s="3"/>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A95" s="3">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B95" s="3" t="s">
-        <v>128</v>
+        <v>77</v>
       </c>
       <c r="C95" s="3"/>
       <c r="D95" s="3" t="s">
-        <v>427</v>
+        <v>386</v>
       </c>
       <c r="E95" s="3"/>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A96" s="3">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B96" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C96" s="3"/>
       <c r="D96" s="3" t="s">
-        <v>432</v>
+        <v>427</v>
       </c>
       <c r="E96" s="3"/>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A97" s="3">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B97" s="3" t="s">
-        <v>429</v>
+        <v>129</v>
       </c>
       <c r="C97" s="3"/>
       <c r="D97" s="3" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="E97" s="3"/>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A98" s="3">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B98" s="3" t="s">
-        <v>190</v>
+        <v>429</v>
       </c>
       <c r="C98" s="3"/>
       <c r="D98" s="3" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="E98" s="3"/>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A99" s="3">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B99" s="3" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C99" s="3"/>
       <c r="D99" s="3" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="E99" s="3"/>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A100" s="3">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B100" s="3" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C100" s="3"/>
-      <c r="D100" s="3"/>
+      <c r="D100" s="3" t="s">
+        <v>434</v>
+      </c>
       <c r="E100" s="3"/>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A101" s="3">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B101" s="3" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C101" s="3"/>
       <c r="D101" s="3"/>
@@ -3476,73 +3490,71 @@
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A102" s="3">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B102" s="3" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C102" s="3"/>
-      <c r="D102" s="3" t="s">
-        <v>393</v>
-      </c>
+      <c r="D102" s="3"/>
       <c r="E102" s="3"/>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A103" s="3">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B103" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C103" s="3"/>
       <c r="D103" s="3" t="s">
-        <v>441</v>
+        <v>393</v>
       </c>
       <c r="E103" s="3"/>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A104" s="3">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B104" s="3" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C104" s="3"/>
       <c r="D104" s="3" t="s">
-        <v>434</v>
+        <v>441</v>
       </c>
       <c r="E104" s="3"/>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A105" s="3">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B105" s="3" t="s">
-        <v>232</v>
+        <v>196</v>
       </c>
       <c r="C105" s="3"/>
-      <c r="D105" s="3"/>
+      <c r="D105" s="3" t="s">
+        <v>434</v>
+      </c>
       <c r="E105" s="3"/>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A106" s="3">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B106" s="3" t="s">
-        <v>221</v>
+        <v>232</v>
       </c>
       <c r="C106" s="3"/>
-      <c r="D106" s="3" t="s">
-        <v>393</v>
-      </c>
+      <c r="D106" s="3"/>
       <c r="E106" s="3"/>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A107" s="3">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B107" s="3" t="s">
-        <v>242</v>
+        <v>221</v>
       </c>
       <c r="C107" s="3"/>
       <c r="D107" s="3" t="s">
@@ -3552,21 +3564,23 @@
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A108" s="3">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B108" s="3" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C108" s="3"/>
-      <c r="D108" s="3"/>
+      <c r="D108" s="3" t="s">
+        <v>393</v>
+      </c>
       <c r="E108" s="3"/>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A109" s="3">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B109" s="3" t="s">
-        <v>222</v>
+        <v>243</v>
       </c>
       <c r="C109" s="3"/>
       <c r="D109" s="3"/>
@@ -3574,10 +3588,10 @@
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A110" s="3">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B110" s="3" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C110" s="3"/>
       <c r="D110" s="3"/>
@@ -3585,23 +3599,21 @@
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A111" s="3">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B111" s="3" t="s">
-        <v>27</v>
+        <v>223</v>
       </c>
       <c r="C111" s="3"/>
-      <c r="D111" s="3" t="s">
-        <v>404</v>
-      </c>
+      <c r="D111" s="3"/>
       <c r="E111" s="3"/>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A112" s="3">
+        <v>26</v>
+      </c>
+      <c r="B112" s="3" t="s">
         <v>27</v>
-      </c>
-      <c r="B112" s="3" t="s">
-        <v>28</v>
       </c>
       <c r="C112" s="3"/>
       <c r="D112" s="3" t="s">
@@ -3610,120 +3622,120 @@
       <c r="E112" s="3"/>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A113" s="7" t="s">
+      <c r="A113" s="3">
+        <v>27</v>
+      </c>
+      <c r="B113" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C113" s="3"/>
+      <c r="D113" s="3" t="s">
+        <v>404</v>
+      </c>
+      <c r="E113" s="3"/>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A114" s="9" t="s">
         <v>274</v>
       </c>
-      <c r="B113" s="7"/>
-      <c r="C113" s="7"/>
-      <c r="D113" s="7"/>
-      <c r="E113" s="7"/>
-    </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A114" s="3">
-        <v>1</v>
-      </c>
-      <c r="B114" s="3" t="s">
-        <v>266</v>
-      </c>
-      <c r="C114" s="3"/>
-      <c r="D114" s="3"/>
-      <c r="E114" s="3"/>
+      <c r="B114" s="9"/>
+      <c r="C114" s="9"/>
+      <c r="D114" s="9"/>
+      <c r="E114" s="9"/>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A115" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B115" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C115" s="3"/>
-      <c r="D115" s="3" t="s">
-        <v>442</v>
-      </c>
+      <c r="D115" s="3"/>
       <c r="E115" s="3"/>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A116" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B116" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C116" s="3"/>
       <c r="D116" s="3" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="E116" s="3"/>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A117" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B117" s="3" t="s">
-        <v>112</v>
+        <v>268</v>
       </c>
       <c r="C117" s="3"/>
       <c r="D117" s="3" t="s">
-        <v>391</v>
+        <v>443</v>
       </c>
       <c r="E117" s="3"/>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A118" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B118" s="3" t="s">
-        <v>130</v>
+        <v>112</v>
       </c>
       <c r="C118" s="3"/>
-      <c r="D118" s="3"/>
+      <c r="D118" s="3" t="s">
+        <v>391</v>
+      </c>
       <c r="E118" s="3"/>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A119" s="3">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B119" s="3" t="s">
-        <v>154</v>
+        <v>130</v>
       </c>
       <c r="C119" s="3"/>
-      <c r="D119" s="3" t="s">
-        <v>393</v>
-      </c>
+      <c r="D119" s="3"/>
       <c r="E119" s="3"/>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A120" s="3">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B120" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C120" s="3"/>
       <c r="D120" s="3" t="s">
-        <v>442</v>
+        <v>393</v>
       </c>
       <c r="E120" s="3"/>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A121" s="3">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B121" s="3" t="s">
-        <v>405</v>
+        <v>155</v>
       </c>
       <c r="C121" s="3"/>
       <c r="D121" s="3" t="s">
-        <v>393</v>
+        <v>442</v>
       </c>
       <c r="E121" s="3"/>
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A122" s="3">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B122" s="3" t="s">
-        <v>156</v>
+        <v>405</v>
       </c>
       <c r="C122" s="3"/>
       <c r="D122" s="3" t="s">
@@ -3733,21 +3745,23 @@
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A123" s="3">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B123" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C123" s="3"/>
-      <c r="D123" s="3"/>
+      <c r="D123" s="3" t="s">
+        <v>393</v>
+      </c>
       <c r="E123" s="3"/>
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A124" s="3">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B124" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C124" s="3"/>
       <c r="D124" s="3"/>
@@ -3755,10 +3769,10 @@
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A125" s="3">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B125" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C125" s="3"/>
       <c r="D125" s="3"/>
@@ -3766,10 +3780,10 @@
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A126" s="3">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B126" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C126" s="3"/>
       <c r="D126" s="3"/>
@@ -3777,58 +3791,58 @@
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A127" s="3">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B127" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C127" s="3"/>
-      <c r="D127" s="3" t="s">
-        <v>393</v>
-      </c>
+      <c r="D127" s="3"/>
       <c r="E127" s="3"/>
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A128" s="3">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B128" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C128" s="3"/>
-      <c r="D128" s="3"/>
+      <c r="D128" s="3" t="s">
+        <v>393</v>
+      </c>
       <c r="E128" s="3"/>
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A129" s="3">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B129" s="3" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C129" s="3"/>
-      <c r="D129" s="3" t="s">
-        <v>393</v>
-      </c>
+      <c r="D129" s="3"/>
       <c r="E129" s="3"/>
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A130" s="3">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B130" s="3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C130" s="3"/>
-      <c r="D130" s="3"/>
+      <c r="D130" s="3" t="s">
+        <v>393</v>
+      </c>
       <c r="E130" s="3"/>
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A131" s="3">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B131" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C131" s="3"/>
       <c r="D131" s="3"/>
@@ -3836,10 +3850,10 @@
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A132" s="3">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B132" s="3" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="C132" s="3"/>
       <c r="D132" s="3"/>
@@ -3847,34 +3861,34 @@
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A133" s="3">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B133" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C133" s="3"/>
-      <c r="D133" s="3" t="s">
-        <v>404</v>
-      </c>
+      <c r="D133" s="3"/>
       <c r="E133" s="3"/>
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A134" s="3">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B134" s="3" t="s">
-        <v>224</v>
+        <v>170</v>
       </c>
       <c r="C134" s="3"/>
-      <c r="D134" s="3"/>
+      <c r="D134" s="3" t="s">
+        <v>404</v>
+      </c>
       <c r="E134" s="3"/>
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A135" s="3">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B135" s="3" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C135" s="3"/>
       <c r="D135" s="3"/>
@@ -3882,10 +3896,10 @@
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A136" s="3">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B136" s="3" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C136" s="3"/>
       <c r="D136" s="3"/>
@@ -3893,10 +3907,10 @@
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A137" s="3">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B137" s="3" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C137" s="3"/>
       <c r="D137" s="3"/>
@@ -3904,119 +3918,117 @@
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A138" s="3">
+        <v>24</v>
+      </c>
+      <c r="B138" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="C138" s="3"/>
+      <c r="D138" s="3"/>
+      <c r="E138" s="3"/>
+    </row>
+    <row r="139" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A139" s="3">
         <v>25</v>
       </c>
-      <c r="B138" s="3" t="s">
+      <c r="B139" s="3" t="s">
         <v>239</v>
       </c>
-      <c r="C138" s="3"/>
-      <c r="D138" s="3" t="s">
+      <c r="C139" s="3"/>
+      <c r="D139" s="3" t="s">
         <v>393</v>
       </c>
-      <c r="E138" s="3"/>
-    </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A139" s="7" t="s">
+      <c r="E139" s="3"/>
+    </row>
+    <row r="140" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A140" s="9" t="s">
         <v>286</v>
       </c>
-      <c r="B139" s="7"/>
-      <c r="C139" s="7"/>
-      <c r="D139" s="7"/>
-      <c r="E139" s="7"/>
-    </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A140" s="3">
-        <v>1</v>
-      </c>
-      <c r="B140" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="C140" s="3"/>
-      <c r="D140" s="3" t="s">
-        <v>393</v>
-      </c>
-      <c r="E140" s="3"/>
+      <c r="B140" s="9"/>
+      <c r="C140" s="9"/>
+      <c r="D140" s="9"/>
+      <c r="E140" s="9"/>
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A141" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B141" s="3" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C141" s="3"/>
       <c r="D141" s="3" t="s">
-        <v>421</v>
+        <v>393</v>
       </c>
       <c r="E141" s="3"/>
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A142" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B142" s="3" t="s">
-        <v>289</v>
+        <v>78</v>
       </c>
       <c r="C142" s="3"/>
       <c r="D142" s="3" t="s">
+        <v>421</v>
+      </c>
+      <c r="E142" s="3"/>
+    </row>
+    <row r="143" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A143" s="3">
+        <v>3</v>
+      </c>
+      <c r="B143" s="3" t="s">
+        <v>289</v>
+      </c>
+      <c r="C143" s="3"/>
+      <c r="D143" s="3" t="s">
         <v>393</v>
       </c>
-      <c r="E142" s="3"/>
-    </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A143" s="7" t="s">
+      <c r="E143" s="3"/>
+    </row>
+    <row r="144" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A144" s="9" t="s">
         <v>275</v>
       </c>
-      <c r="B143" s="7"/>
-      <c r="C143" s="7"/>
-      <c r="D143" s="7"/>
-      <c r="E143" s="7"/>
-    </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A144" s="3">
-        <v>1</v>
-      </c>
-      <c r="B144" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="C144" s="3"/>
-      <c r="D144" s="3" t="s">
-        <v>435</v>
-      </c>
-      <c r="E144" s="3"/>
+      <c r="B144" s="9"/>
+      <c r="C144" s="9"/>
+      <c r="D144" s="9"/>
+      <c r="E144" s="9"/>
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A145" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B145" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C145" s="3"/>
       <c r="D145" s="3" t="s">
-        <v>386</v>
+        <v>435</v>
       </c>
       <c r="E145" s="3"/>
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A146" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B146" s="3" t="s">
-        <v>99</v>
+        <v>75</v>
       </c>
       <c r="C146" s="3"/>
       <c r="D146" s="3" t="s">
-        <v>393</v>
+        <v>386</v>
       </c>
       <c r="E146" s="3"/>
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A147" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B147" s="3" t="s">
-        <v>120</v>
+        <v>99</v>
       </c>
       <c r="C147" s="3"/>
       <c r="D147" s="3" t="s">
@@ -4026,106 +4038,98 @@
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A148" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B148" s="3" t="s">
-        <v>241</v>
+        <v>120</v>
       </c>
       <c r="C148" s="3"/>
-      <c r="D148" s="3"/>
+      <c r="D148" s="3" t="s">
+        <v>393</v>
+      </c>
       <c r="E148" s="3"/>
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A149" s="3">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B149" s="3" t="s">
-        <v>424</v>
+        <v>241</v>
       </c>
       <c r="C149" s="3"/>
-      <c r="D149" s="3" t="s">
-        <v>426</v>
-      </c>
+      <c r="D149" s="3"/>
       <c r="E149" s="3"/>
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A150" s="3">
+        <v>6</v>
+      </c>
+      <c r="B150" s="3" t="s">
+        <v>424</v>
+      </c>
+      <c r="C150" s="3"/>
+      <c r="D150" s="3" t="s">
+        <v>426</v>
+      </c>
+      <c r="E150" s="3"/>
+    </row>
+    <row r="151" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A151" s="3">
         <v>7</v>
       </c>
-      <c r="B150" s="3" t="s">
+      <c r="B151" s="3" t="s">
         <v>425</v>
       </c>
-      <c r="C150" s="3"/>
-      <c r="D150" s="3"/>
-      <c r="E150" s="3"/>
-    </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A151" s="7" t="s">
-        <v>276</v>
-      </c>
-      <c r="B151" s="7"/>
-      <c r="C151" s="7"/>
-      <c r="D151" s="7"/>
-      <c r="E151" s="7"/>
+      <c r="C151" s="3"/>
+      <c r="D151" s="3"/>
+      <c r="E151" s="3"/>
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A152" s="3">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="B152" s="3" t="s">
-        <v>79</v>
+        <v>447</v>
       </c>
       <c r="C152" s="3"/>
-      <c r="D152" s="3" t="s">
-        <v>386</v>
-      </c>
+      <c r="D152" s="3"/>
       <c r="E152" s="3"/>
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A153" s="3">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="B153" s="3" t="s">
-        <v>121</v>
+        <v>448</v>
       </c>
       <c r="C153" s="3"/>
-      <c r="D153" s="3" t="s">
-        <v>386</v>
-      </c>
+      <c r="D153" s="3"/>
       <c r="E153" s="3"/>
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A154" s="3">
-        <v>3</v>
-      </c>
-      <c r="B154" s="3" t="s">
-        <v>80</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="B154" s="3"/>
       <c r="C154" s="3"/>
-      <c r="D154" s="3" t="s">
-        <v>410</v>
-      </c>
+      <c r="D154" s="3"/>
       <c r="E154" s="3"/>
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A155" s="3">
-        <v>4</v>
-      </c>
-      <c r="B155" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="C155" s="3"/>
-      <c r="D155" s="3" t="s">
-        <v>409</v>
-      </c>
-      <c r="E155" s="3"/>
+      <c r="A155" s="9" t="s">
+        <v>276</v>
+      </c>
+      <c r="B155" s="9"/>
+      <c r="C155" s="9"/>
+      <c r="D155" s="9"/>
+      <c r="E155" s="9"/>
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A156" s="3">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B156" s="3" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="C156" s="3"/>
       <c r="D156" s="3" t="s">
@@ -4135,154 +4139,158 @@
     </row>
     <row r="157" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A157" s="3">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B157" s="3" t="s">
-        <v>287</v>
+        <v>121</v>
       </c>
       <c r="C157" s="3"/>
       <c r="D157" s="3" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="E157" s="3"/>
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A158" s="3">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B158" s="3" t="s">
-        <v>288</v>
+        <v>80</v>
       </c>
       <c r="C158" s="3"/>
       <c r="D158" s="3" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="E158" s="3"/>
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A159" s="3">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B159" s="3" t="s">
-        <v>406</v>
+        <v>81</v>
       </c>
       <c r="C159" s="3"/>
       <c r="D159" s="3" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="E159" s="3"/>
     </row>
     <row r="160" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A160" s="7" t="s">
-        <v>277</v>
-      </c>
-      <c r="B160" s="7"/>
-      <c r="C160" s="7"/>
-      <c r="D160" s="7"/>
-      <c r="E160" s="7"/>
+      <c r="A160" s="3">
+        <v>5</v>
+      </c>
+      <c r="B160" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="C160" s="3"/>
+      <c r="D160" s="3" t="s">
+        <v>386</v>
+      </c>
+      <c r="E160" s="3"/>
     </row>
     <row r="161" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A161" s="3">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B161" s="3" t="s">
-        <v>113</v>
+        <v>287</v>
       </c>
       <c r="C161" s="3"/>
       <c r="D161" s="3" t="s">
-        <v>411</v>
+        <v>385</v>
       </c>
       <c r="E161" s="3"/>
     </row>
     <row r="162" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A162" s="3">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="B162" s="3" t="s">
-        <v>250</v>
+        <v>288</v>
       </c>
       <c r="C162" s="3"/>
       <c r="D162" s="3" t="s">
-        <v>404</v>
+        <v>408</v>
       </c>
       <c r="E162" s="3"/>
     </row>
     <row r="163" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A163" s="3">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="B163" s="3" t="s">
-        <v>269</v>
+        <v>406</v>
       </c>
       <c r="C163" s="3"/>
       <c r="D163" s="3" t="s">
-        <v>404</v>
+        <v>407</v>
       </c>
       <c r="E163" s="3"/>
     </row>
     <row r="164" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A164" s="7" t="s">
-        <v>278</v>
-      </c>
-      <c r="B164" s="7"/>
-      <c r="C164" s="7"/>
-      <c r="D164" s="7"/>
-      <c r="E164" s="7"/>
+      <c r="A164" s="9" t="s">
+        <v>277</v>
+      </c>
+      <c r="B164" s="9"/>
+      <c r="C164" s="9"/>
+      <c r="D164" s="9"/>
+      <c r="E164" s="9"/>
     </row>
     <row r="165" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A165" s="3">
         <v>1</v>
       </c>
-      <c r="B165" s="4" t="s">
-        <v>234</v>
+      <c r="B165" s="3" t="s">
+        <v>113</v>
       </c>
       <c r="C165" s="3"/>
-      <c r="D165" s="3"/>
+      <c r="D165" s="3" t="s">
+        <v>411</v>
+      </c>
       <c r="E165" s="3"/>
     </row>
     <row r="166" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A166" s="3">
         <v>2</v>
       </c>
-      <c r="B166" s="4" t="s">
-        <v>235</v>
+      <c r="B166" s="3" t="s">
+        <v>250</v>
       </c>
       <c r="C166" s="3"/>
-      <c r="D166" s="3"/>
+      <c r="D166" s="3" t="s">
+        <v>404</v>
+      </c>
       <c r="E166" s="3"/>
     </row>
     <row r="167" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A167" s="3">
         <v>3</v>
       </c>
-      <c r="B167" s="4" t="s">
-        <v>48</v>
+      <c r="B167" s="3" t="s">
+        <v>269</v>
       </c>
       <c r="C167" s="3"/>
       <c r="D167" s="3" t="s">
-        <v>385</v>
+        <v>404</v>
       </c>
       <c r="E167" s="3"/>
     </row>
     <row r="168" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A168" s="3">
-        <v>4</v>
-      </c>
-      <c r="B168" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="C168" s="3"/>
-      <c r="D168" s="3" t="s">
-        <v>393</v>
-      </c>
-      <c r="E168" s="3"/>
+      <c r="A168" s="9" t="s">
+        <v>278</v>
+      </c>
+      <c r="B168" s="9"/>
+      <c r="C168" s="9"/>
+      <c r="D168" s="9"/>
+      <c r="E168" s="9"/>
     </row>
     <row r="169" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A169" s="3">
-        <v>5</v>
-      </c>
-      <c r="B169" s="3" t="s">
-        <v>117</v>
+        <v>1</v>
+      </c>
+      <c r="B169" s="4" t="s">
+        <v>234</v>
       </c>
       <c r="C169" s="3"/>
       <c r="D169" s="3"/>
@@ -4290,10 +4298,10 @@
     </row>
     <row r="170" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A170" s="3">
-        <v>6</v>
-      </c>
-      <c r="B170" s="3" t="s">
-        <v>142</v>
+        <v>2</v>
+      </c>
+      <c r="B170" s="4" t="s">
+        <v>235</v>
       </c>
       <c r="C170" s="3"/>
       <c r="D170" s="3"/>
@@ -4301,23 +4309,23 @@
     </row>
     <row r="171" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A171" s="3">
-        <v>7</v>
-      </c>
-      <c r="B171" s="3" t="s">
-        <v>143</v>
+        <v>3</v>
+      </c>
+      <c r="B171" s="4" t="s">
+        <v>48</v>
       </c>
       <c r="C171" s="3"/>
       <c r="D171" s="3" t="s">
-        <v>393</v>
+        <v>385</v>
       </c>
       <c r="E171" s="3"/>
     </row>
     <row r="172" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A172" s="3">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B172" s="3" t="s">
-        <v>144</v>
+        <v>116</v>
       </c>
       <c r="C172" s="3"/>
       <c r="D172" s="3" t="s">
@@ -4327,10 +4335,10 @@
     </row>
     <row r="173" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A173" s="3">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B173" s="3" t="s">
-        <v>145</v>
+        <v>117</v>
       </c>
       <c r="C173" s="3"/>
       <c r="D173" s="3"/>
@@ -4338,10 +4346,10 @@
     </row>
     <row r="174" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A174" s="3">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B174" s="3" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="C174" s="3"/>
       <c r="D174" s="3"/>
@@ -4349,10 +4357,10 @@
     </row>
     <row r="175" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A175" s="3">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B175" s="3" t="s">
-        <v>167</v>
+        <v>143</v>
       </c>
       <c r="C175" s="3"/>
       <c r="D175" s="3" t="s">
@@ -4362,23 +4370,23 @@
     </row>
     <row r="176" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A176" s="3">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B176" s="3" t="s">
-        <v>168</v>
+        <v>144</v>
       </c>
       <c r="C176" s="3"/>
       <c r="D176" s="3" t="s">
-        <v>412</v>
+        <v>393</v>
       </c>
       <c r="E176" s="3"/>
     </row>
     <row r="177" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A177" s="3">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B177" s="3" t="s">
-        <v>210</v>
+        <v>145</v>
       </c>
       <c r="C177" s="3"/>
       <c r="D177" s="3"/>
@@ -4386,10 +4394,10 @@
     </row>
     <row r="178" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A178" s="3">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B178" s="3" t="s">
-        <v>211</v>
+        <v>146</v>
       </c>
       <c r="C178" s="3"/>
       <c r="D178" s="3"/>
@@ -4397,47 +4405,47 @@
     </row>
     <row r="179" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A179" s="3">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B179" s="3" t="s">
-        <v>212</v>
+        <v>167</v>
       </c>
       <c r="C179" s="3"/>
-      <c r="D179" s="3"/>
+      <c r="D179" s="3" t="s">
+        <v>393</v>
+      </c>
       <c r="E179" s="3"/>
     </row>
     <row r="180" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A180" s="3">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B180" s="3" t="s">
-        <v>213</v>
+        <v>168</v>
       </c>
       <c r="C180" s="3"/>
       <c r="D180" s="3" t="s">
-        <v>393</v>
+        <v>412</v>
       </c>
       <c r="E180" s="3"/>
     </row>
     <row r="181" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A181" s="3">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B181" s="3" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="C181" s="3"/>
-      <c r="D181" s="3" t="s">
-        <v>393</v>
-      </c>
+      <c r="D181" s="3"/>
       <c r="E181" s="3"/>
     </row>
     <row r="182" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A182" s="3">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B182" s="3" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="C182" s="3"/>
       <c r="D182" s="3"/>
@@ -4445,10 +4453,10 @@
     </row>
     <row r="183" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A183" s="3">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B183" s="3" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="C183" s="3"/>
       <c r="D183" s="3"/>
@@ -4456,10 +4464,10 @@
     </row>
     <row r="184" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A184" s="3">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B184" s="3" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="C184" s="3"/>
       <c r="D184" s="3" t="s">
@@ -4469,34 +4477,34 @@
     </row>
     <row r="185" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A185" s="3">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B185" s="3" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="C185" s="3"/>
-      <c r="D185" s="3"/>
+      <c r="D185" s="3" t="s">
+        <v>393</v>
+      </c>
       <c r="E185" s="3"/>
     </row>
     <row r="186" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A186" s="3">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B186" s="3" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="C186" s="3"/>
-      <c r="D186" s="3" t="s">
-        <v>393</v>
-      </c>
+      <c r="D186" s="3"/>
       <c r="E186" s="3"/>
     </row>
     <row r="187" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A187" s="3">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B187" s="3" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="C187" s="3"/>
       <c r="D187" s="3"/>
@@ -4504,114 +4512,110 @@
     </row>
     <row r="188" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A188" s="3">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B188" s="3" t="s">
-        <v>229</v>
+        <v>217</v>
       </c>
       <c r="C188" s="3"/>
-      <c r="D188" s="3"/>
+      <c r="D188" s="3" t="s">
+        <v>393</v>
+      </c>
       <c r="E188" s="3"/>
     </row>
     <row r="189" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A189" s="3">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B189" s="3" t="s">
-        <v>230</v>
+        <v>218</v>
       </c>
       <c r="C189" s="3"/>
-      <c r="D189" s="3" t="s">
-        <v>413</v>
-      </c>
+      <c r="D189" s="3"/>
       <c r="E189" s="3"/>
     </row>
     <row r="190" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A190" s="7" t="s">
-        <v>279</v>
-      </c>
-      <c r="B190" s="7"/>
-      <c r="C190" s="7"/>
-      <c r="D190" s="7"/>
-      <c r="E190" s="7"/>
+      <c r="A190" s="3">
+        <v>22</v>
+      </c>
+      <c r="B190" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="C190" s="3"/>
+      <c r="D190" s="3" t="s">
+        <v>393</v>
+      </c>
+      <c r="E190" s="3"/>
     </row>
     <row r="191" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A191" s="3">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="B191" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C191" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D191" s="3" t="s">
-        <v>414</v>
-      </c>
+        <v>220</v>
+      </c>
+      <c r="C191" s="3"/>
+      <c r="D191" s="3"/>
       <c r="E191" s="3"/>
     </row>
     <row r="192" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A192" s="3">
-        <v>2</v>
+        <v>24</v>
       </c>
       <c r="B192" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C192" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D192" s="3" t="s">
-        <v>413</v>
-      </c>
+        <v>229</v>
+      </c>
+      <c r="C192" s="3"/>
+      <c r="D192" s="3"/>
       <c r="E192" s="3"/>
     </row>
     <row r="193" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A193" s="3">
-        <v>3</v>
+        <v>25</v>
       </c>
       <c r="B193" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C193" s="3" t="s">
-        <v>20</v>
-      </c>
+        <v>230</v>
+      </c>
+      <c r="C193" s="3"/>
       <c r="D193" s="3" t="s">
         <v>413</v>
       </c>
       <c r="E193" s="3"/>
     </row>
     <row r="194" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A194" s="3">
-        <v>4</v>
-      </c>
-      <c r="B194" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="C194" s="3"/>
-      <c r="D194" s="3" t="s">
-        <v>415</v>
-      </c>
-      <c r="E194" s="3"/>
+      <c r="A194" s="9" t="s">
+        <v>279</v>
+      </c>
+      <c r="B194" s="9"/>
+      <c r="C194" s="9"/>
+      <c r="D194" s="9"/>
+      <c r="E194" s="9"/>
     </row>
     <row r="195" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A195" s="3">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B195" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="C195" s="3"/>
-      <c r="D195" s="3"/>
+        <v>0</v>
+      </c>
+      <c r="C195" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D195" s="3" t="s">
+        <v>414</v>
+      </c>
       <c r="E195" s="3"/>
     </row>
     <row r="196" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A196" s="3">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B196" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="C196" s="3"/>
+        <v>1</v>
+      </c>
+      <c r="C196" s="3" t="s">
+        <v>20</v>
+      </c>
       <c r="D196" s="3" t="s">
         <v>413</v>
       </c>
@@ -4619,34 +4623,38 @@
     </row>
     <row r="197" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A197" s="3">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B197" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="C197" s="3"/>
+        <v>2</v>
+      </c>
+      <c r="C197" s="3" t="s">
+        <v>20</v>
+      </c>
       <c r="D197" s="3" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="E197" s="3"/>
     </row>
     <row r="198" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A198" s="3">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B198" s="3" t="s">
-        <v>3</v>
+        <v>114</v>
       </c>
       <c r="C198" s="3"/>
-      <c r="D198" s="3"/>
+      <c r="D198" s="3" t="s">
+        <v>415</v>
+      </c>
       <c r="E198" s="3"/>
     </row>
     <row r="199" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A199" s="3">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B199" s="3" t="s">
-        <v>4</v>
+        <v>115</v>
       </c>
       <c r="C199" s="3"/>
       <c r="D199" s="3"/>
@@ -4654,162 +4662,160 @@
     </row>
     <row r="200" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A200" s="3">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B200" s="3" t="s">
-        <v>5</v>
+        <v>92</v>
       </c>
       <c r="C200" s="3"/>
       <c r="D200" s="3" t="s">
-        <v>391</v>
+        <v>413</v>
       </c>
       <c r="E200" s="3"/>
     </row>
     <row r="201" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A201" s="3">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B201" s="3" t="s">
-        <v>6</v>
+        <v>93</v>
       </c>
       <c r="C201" s="3"/>
       <c r="D201" s="3" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="E201" s="3"/>
     </row>
     <row r="202" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A202" s="3">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B202" s="3" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C202" s="3"/>
-      <c r="D202" s="3" t="s">
-        <v>417</v>
-      </c>
+      <c r="D202" s="3"/>
       <c r="E202" s="3"/>
     </row>
     <row r="203" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A203" s="3">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B203" s="3" t="s">
-        <v>118</v>
+        <v>4</v>
       </c>
       <c r="C203" s="3"/>
-      <c r="D203" s="3" t="s">
-        <v>417</v>
-      </c>
+      <c r="D203" s="3"/>
       <c r="E203" s="3"/>
     </row>
     <row r="204" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A204" s="3">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B204" s="3" t="s">
-        <v>201</v>
+        <v>5</v>
       </c>
       <c r="C204" s="3"/>
       <c r="D204" s="3" t="s">
-        <v>404</v>
+        <v>391</v>
       </c>
       <c r="E204" s="3"/>
     </row>
     <row r="205" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A205" s="3">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B205" s="3" t="s">
-        <v>202</v>
+        <v>6</v>
       </c>
       <c r="C205" s="3"/>
       <c r="D205" s="3" t="s">
-        <v>404</v>
+        <v>416</v>
       </c>
       <c r="E205" s="3"/>
     </row>
     <row r="206" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A206" s="3">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B206" s="3" t="s">
-        <v>203</v>
+        <v>7</v>
       </c>
       <c r="C206" s="3"/>
-      <c r="D206" s="3"/>
+      <c r="D206" s="3" t="s">
+        <v>417</v>
+      </c>
       <c r="E206" s="3"/>
     </row>
     <row r="207" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A207" s="3">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B207" s="3" t="s">
-        <v>204</v>
+        <v>118</v>
       </c>
       <c r="C207" s="3"/>
       <c r="D207" s="3" t="s">
-        <v>414</v>
+        <v>417</v>
       </c>
       <c r="E207" s="3"/>
     </row>
     <row r="208" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A208" s="3">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B208" s="3" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="C208" s="3"/>
       <c r="D208" s="3" t="s">
-        <v>414</v>
+        <v>404</v>
       </c>
       <c r="E208" s="3"/>
     </row>
     <row r="209" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A209" s="3">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B209" s="3" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="C209" s="3"/>
       <c r="D209" s="3" t="s">
-        <v>414</v>
+        <v>404</v>
       </c>
       <c r="E209" s="3"/>
     </row>
     <row r="210" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A210" s="3">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B210" s="3" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="C210" s="3"/>
-      <c r="D210" s="3" t="s">
-        <v>414</v>
-      </c>
+      <c r="D210" s="3"/>
       <c r="E210" s="3"/>
     </row>
     <row r="211" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A211" s="3">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B211" s="3" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="C211" s="3"/>
-      <c r="D211" s="3"/>
+      <c r="D211" s="3" t="s">
+        <v>414</v>
+      </c>
       <c r="E211" s="3"/>
     </row>
     <row r="212" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A212" s="3">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B212" s="3" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="C212" s="3"/>
       <c r="D212" s="3" t="s">
@@ -4818,274 +4824,278 @@
       <c r="E212" s="3"/>
     </row>
     <row r="213" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A213" s="7" t="s">
-        <v>280</v>
-      </c>
-      <c r="B213" s="7"/>
-      <c r="C213" s="7"/>
-      <c r="D213" s="7"/>
-      <c r="E213" s="7"/>
-    </row>
-    <row r="214" spans="1:5" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A213" s="3">
+        <v>19</v>
+      </c>
+      <c r="B213" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="C213" s="3"/>
+      <c r="D213" s="3" t="s">
+        <v>414</v>
+      </c>
+      <c r="E213" s="3"/>
+    </row>
+    <row r="214" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A214" s="3">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="B214" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="C214" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="D214" s="3"/>
-      <c r="E214" s="5" t="s">
-        <v>103</v>
-      </c>
+        <v>207</v>
+      </c>
+      <c r="C214" s="3"/>
+      <c r="D214" s="3" t="s">
+        <v>414</v>
+      </c>
+      <c r="E214" s="3"/>
     </row>
     <row r="215" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A215" s="3">
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="B215" s="3" t="s">
-        <v>34</v>
+        <v>208</v>
       </c>
       <c r="C215" s="3"/>
-      <c r="D215" s="3" t="s">
-        <v>393</v>
-      </c>
-      <c r="E215" s="5"/>
+      <c r="D215" s="3"/>
+      <c r="E215" s="3"/>
     </row>
     <row r="216" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A216" s="3">
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="B216" s="3" t="s">
-        <v>35</v>
+        <v>209</v>
       </c>
       <c r="C216" s="3"/>
       <c r="D216" s="3" t="s">
-        <v>393</v>
-      </c>
-      <c r="E216" s="5"/>
+        <v>414</v>
+      </c>
+      <c r="E216" s="3"/>
     </row>
     <row r="217" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A217" s="3">
-        <v>4</v>
-      </c>
-      <c r="B217" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="C217" s="3"/>
-      <c r="D217" s="3" t="s">
-        <v>393</v>
-      </c>
-      <c r="E217" s="5"/>
-    </row>
-    <row r="218" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A217" s="9" t="s">
+        <v>280</v>
+      </c>
+      <c r="B217" s="9"/>
+      <c r="C217" s="9"/>
+      <c r="D217" s="9"/>
+      <c r="E217" s="9"/>
+    </row>
+    <row r="218" spans="1:5" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A218" s="3">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B218" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="C218" s="3"/>
-      <c r="D218" s="3" t="s">
-        <v>393</v>
-      </c>
-      <c r="E218" s="5"/>
+        <v>33</v>
+      </c>
+      <c r="C218" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="D218" s="3"/>
+      <c r="E218" s="5" t="s">
+        <v>103</v>
+      </c>
     </row>
     <row r="219" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A219" s="3">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B219" s="3" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C219" s="3"/>
       <c r="D219" s="3" t="s">
         <v>393</v>
       </c>
-      <c r="E219" s="5" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="220" spans="1:5" ht="33" x14ac:dyDescent="0.3">
+      <c r="E219" s="5"/>
+    </row>
+    <row r="220" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A220" s="3">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B220" s="3" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="C220" s="3"/>
       <c r="D220" s="3" t="s">
-        <v>404</v>
-      </c>
-      <c r="E220" s="5" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="221" spans="1:5" ht="33" x14ac:dyDescent="0.3">
+        <v>393</v>
+      </c>
+      <c r="E220" s="5"/>
+    </row>
+    <row r="221" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A221" s="3">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B221" s="3" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="C221" s="3"/>
       <c r="D221" s="3" t="s">
-        <v>416</v>
-      </c>
-      <c r="E221" s="5" t="s">
-        <v>106</v>
-      </c>
+        <v>393</v>
+      </c>
+      <c r="E221" s="5"/>
     </row>
     <row r="222" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A222" s="3">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B222" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="C222" s="3" t="s">
-        <v>110</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="C222" s="3"/>
       <c r="D222" s="3" t="s">
-        <v>404</v>
-      </c>
-      <c r="E222" s="5" t="s">
-        <v>109</v>
-      </c>
+        <v>393</v>
+      </c>
+      <c r="E222" s="5"/>
     </row>
     <row r="223" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A223" s="3">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B223" s="3" t="s">
-        <v>122</v>
+        <v>29</v>
       </c>
       <c r="C223" s="3"/>
-      <c r="D223" s="3"/>
-      <c r="E223" s="3"/>
-    </row>
-    <row r="224" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D223" s="3" t="s">
+        <v>393</v>
+      </c>
+      <c r="E223" s="5" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="224" spans="1:5" ht="33" x14ac:dyDescent="0.3">
       <c r="A224" s="3">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B224" s="3" t="s">
-        <v>236</v>
+        <v>30</v>
       </c>
       <c r="C224" s="3"/>
-      <c r="D224" s="3"/>
-      <c r="E224" s="3"/>
-    </row>
-    <row r="225" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D224" s="3" t="s">
+        <v>404</v>
+      </c>
+      <c r="E224" s="5" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="225" spans="1:5" ht="33" x14ac:dyDescent="0.3">
       <c r="A225" s="3">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B225" s="3" t="s">
-        <v>237</v>
+        <v>31</v>
       </c>
       <c r="C225" s="3"/>
-      <c r="D225" s="3"/>
-      <c r="E225" s="3"/>
+      <c r="D225" s="3" t="s">
+        <v>416</v>
+      </c>
+      <c r="E225" s="5" t="s">
+        <v>106</v>
+      </c>
     </row>
     <row r="226" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A226" s="3">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B226" s="3" t="s">
-        <v>238</v>
-      </c>
-      <c r="C226" s="3"/>
-      <c r="D226" s="3"/>
-      <c r="E226" s="3"/>
+        <v>32</v>
+      </c>
+      <c r="C226" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="D226" s="3" t="s">
+        <v>404</v>
+      </c>
+      <c r="E226" s="5" t="s">
+        <v>109</v>
+      </c>
     </row>
     <row r="227" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A227" s="7" t="s">
-        <v>281</v>
-      </c>
-      <c r="B227" s="7"/>
-      <c r="C227" s="7"/>
-      <c r="D227" s="7"/>
-      <c r="E227" s="7"/>
+      <c r="A227" s="3">
+        <v>10</v>
+      </c>
+      <c r="B227" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="C227" s="3"/>
+      <c r="D227" s="3"/>
+      <c r="E227" s="3"/>
     </row>
     <row r="228" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A228" s="3">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="B228" s="3" t="s">
-        <v>21</v>
+        <v>236</v>
       </c>
       <c r="C228" s="3"/>
-      <c r="D228" s="3" t="s">
-        <v>386</v>
-      </c>
+      <c r="D228" s="3"/>
       <c r="E228" s="3"/>
     </row>
     <row r="229" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A229" s="3">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="B229" s="3" t="s">
-        <v>105</v>
+        <v>237</v>
       </c>
       <c r="C229" s="3"/>
-      <c r="D229" s="3" t="s">
-        <v>386</v>
-      </c>
+      <c r="D229" s="3"/>
       <c r="E229" s="3"/>
     </row>
     <row r="230" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A230" s="3">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="B230" s="3" t="s">
-        <v>253</v>
+        <v>238</v>
       </c>
       <c r="C230" s="3"/>
       <c r="D230" s="3"/>
       <c r="E230" s="3"/>
     </row>
     <row r="231" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A231" s="3">
-        <v>4</v>
-      </c>
-      <c r="B231" s="3" t="s">
-        <v>254</v>
-      </c>
-      <c r="C231" s="3"/>
-      <c r="D231" s="3" t="s">
-        <v>404</v>
-      </c>
-      <c r="E231" s="3"/>
+      <c r="A231" s="9" t="s">
+        <v>281</v>
+      </c>
+      <c r="B231" s="9"/>
+      <c r="C231" s="9"/>
+      <c r="D231" s="9"/>
+      <c r="E231" s="9"/>
     </row>
     <row r="232" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A232" s="3">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B232" s="3" t="s">
-        <v>255</v>
+        <v>21</v>
       </c>
       <c r="C232" s="3"/>
       <c r="D232" s="3" t="s">
-        <v>404</v>
+        <v>386</v>
       </c>
       <c r="E232" s="3"/>
     </row>
     <row r="233" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A233" s="7" t="s">
-        <v>282</v>
-      </c>
-      <c r="B233" s="7"/>
-      <c r="C233" s="7"/>
-      <c r="D233" s="7"/>
-      <c r="E233" s="7"/>
+      <c r="A233" s="3">
+        <v>2</v>
+      </c>
+      <c r="B233" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="C233" s="3"/>
+      <c r="D233" s="3" t="s">
+        <v>386</v>
+      </c>
+      <c r="E233" s="3"/>
     </row>
     <row r="234" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A234" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B234" s="3" t="s">
-        <v>12</v>
+        <v>253</v>
       </c>
       <c r="C234" s="3"/>
       <c r="D234" s="3"/>
@@ -5093,104 +5103,100 @@
     </row>
     <row r="235" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A235" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B235" s="3" t="s">
-        <v>13</v>
+        <v>254</v>
       </c>
       <c r="C235" s="3"/>
-      <c r="D235" s="3"/>
+      <c r="D235" s="3" t="s">
+        <v>404</v>
+      </c>
       <c r="E235" s="3"/>
     </row>
     <row r="236" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A236" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B236" s="3" t="s">
-        <v>14</v>
+        <v>255</v>
       </c>
       <c r="C236" s="3"/>
-      <c r="D236" s="3"/>
+      <c r="D236" s="3" t="s">
+        <v>404</v>
+      </c>
       <c r="E236" s="3"/>
     </row>
     <row r="237" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A237" s="3">
-        <v>4</v>
-      </c>
-      <c r="B237" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C237" s="3"/>
-      <c r="D237" s="3" t="s">
-        <v>418</v>
-      </c>
-      <c r="E237" s="3"/>
+      <c r="A237" s="9" t="s">
+        <v>282</v>
+      </c>
+      <c r="B237" s="9"/>
+      <c r="C237" s="9"/>
+      <c r="D237" s="9"/>
+      <c r="E237" s="9"/>
     </row>
     <row r="238" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A238" s="7" t="s">
-        <v>283</v>
-      </c>
-      <c r="B238" s="7"/>
-      <c r="C238" s="7"/>
-      <c r="D238" s="7"/>
-      <c r="E238" s="7"/>
+      <c r="A238" s="3">
+        <v>1</v>
+      </c>
+      <c r="B238" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C238" s="3"/>
+      <c r="D238" s="3"/>
+      <c r="E238" s="3"/>
     </row>
     <row r="239" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A239" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B239" s="3" t="s">
-        <v>251</v>
+        <v>13</v>
       </c>
       <c r="C239" s="3"/>
-      <c r="D239" s="3" t="s">
-        <v>393</v>
-      </c>
+      <c r="D239" s="3"/>
       <c r="E239" s="3"/>
     </row>
     <row r="240" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A240" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B240" s="3" t="s">
-        <v>252</v>
+        <v>14</v>
       </c>
       <c r="C240" s="3"/>
-      <c r="D240" s="3" t="s">
-        <v>393</v>
-      </c>
+      <c r="D240" s="3"/>
       <c r="E240" s="3"/>
     </row>
     <row r="241" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A241" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B241" s="3" t="s">
-        <v>256</v>
+        <v>15</v>
       </c>
       <c r="C241" s="3"/>
       <c r="D241" s="3" t="s">
-        <v>391</v>
+        <v>418</v>
       </c>
       <c r="E241" s="3"/>
     </row>
     <row r="242" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A242" s="3">
-        <v>4</v>
-      </c>
-      <c r="B242" s="3" t="s">
-        <v>257</v>
-      </c>
-      <c r="C242" s="3"/>
-      <c r="D242" s="3"/>
-      <c r="E242" s="3"/>
+      <c r="A242" s="9" t="s">
+        <v>283</v>
+      </c>
+      <c r="B242" s="9"/>
+      <c r="C242" s="9"/>
+      <c r="D242" s="9"/>
+      <c r="E242" s="9"/>
     </row>
     <row r="243" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A243" s="3">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B243" s="3" t="s">
-        <v>258</v>
+        <v>251</v>
       </c>
       <c r="C243" s="3"/>
       <c r="D243" s="3" t="s">
@@ -5200,10 +5206,10 @@
     </row>
     <row r="244" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A244" s="3">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B244" s="3" t="s">
-        <v>259</v>
+        <v>252</v>
       </c>
       <c r="C244" s="3"/>
       <c r="D244" s="3" t="s">
@@ -5213,36 +5219,34 @@
     </row>
     <row r="245" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A245" s="3">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B245" s="3" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="C245" s="3"/>
       <c r="D245" s="3" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="E245" s="3"/>
     </row>
     <row r="246" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A246" s="3">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B246" s="3" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="C246" s="3"/>
-      <c r="D246" s="3" t="s">
-        <v>393</v>
-      </c>
+      <c r="D246" s="3"/>
       <c r="E246" s="3"/>
     </row>
     <row r="247" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A247" s="3">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B247" s="3" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="C247" s="3"/>
       <c r="D247" s="3" t="s">
@@ -5252,21 +5256,23 @@
     </row>
     <row r="248" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A248" s="3">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B248" s="3" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="C248" s="3"/>
-      <c r="D248" s="3"/>
+      <c r="D248" s="3" t="s">
+        <v>393</v>
+      </c>
       <c r="E248" s="3"/>
     </row>
     <row r="249" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A249" s="3">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B249" s="3" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="C249" s="3"/>
       <c r="D249" s="3" t="s">
@@ -5276,10 +5282,10 @@
     </row>
     <row r="250" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A250" s="3">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B250" s="3" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="C250" s="3"/>
       <c r="D250" s="3" t="s">
@@ -5288,44 +5294,48 @@
       <c r="E250" s="3"/>
     </row>
     <row r="251" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A251" s="7" t="s">
-        <v>284</v>
-      </c>
-      <c r="B251" s="7"/>
-      <c r="C251" s="7"/>
-      <c r="D251" s="7"/>
-      <c r="E251" s="7"/>
+      <c r="A251" s="3">
+        <v>9</v>
+      </c>
+      <c r="B251" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="C251" s="3"/>
+      <c r="D251" s="3" t="s">
+        <v>393</v>
+      </c>
+      <c r="E251" s="3"/>
     </row>
     <row r="252" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A252" s="3">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="B252" s="3" t="s">
-        <v>137</v>
+        <v>263</v>
       </c>
       <c r="C252" s="3"/>
-      <c r="D252" s="3" t="s">
-        <v>393</v>
-      </c>
+      <c r="D252" s="3"/>
       <c r="E252" s="3"/>
     </row>
     <row r="253" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A253" s="3">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="B253" s="3" t="s">
-        <v>138</v>
+        <v>264</v>
       </c>
       <c r="C253" s="3"/>
-      <c r="D253" s="3"/>
+      <c r="D253" s="3" t="s">
+        <v>393</v>
+      </c>
       <c r="E253" s="3"/>
     </row>
     <row r="254" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A254" s="3">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="B254" s="3" t="s">
-        <v>139</v>
+        <v>265</v>
       </c>
       <c r="C254" s="3"/>
       <c r="D254" s="3" t="s">
@@ -5334,35 +5344,33 @@
       <c r="E254" s="3"/>
     </row>
     <row r="255" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A255" s="3">
-        <v>4</v>
-      </c>
-      <c r="B255" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="C255" s="3"/>
-      <c r="D255" s="3" t="s">
-        <v>393</v>
-      </c>
-      <c r="E255" s="3"/>
+      <c r="A255" s="9" t="s">
+        <v>284</v>
+      </c>
+      <c r="B255" s="9"/>
+      <c r="C255" s="9"/>
+      <c r="D255" s="9"/>
+      <c r="E255" s="9"/>
     </row>
     <row r="256" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A256" s="3">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B256" s="3" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="C256" s="3"/>
-      <c r="D256" s="3"/>
+      <c r="D256" s="3" t="s">
+        <v>393</v>
+      </c>
       <c r="E256" s="3"/>
     </row>
     <row r="257" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A257" s="3">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B257" s="3" t="s">
-        <v>177</v>
+        <v>138</v>
       </c>
       <c r="C257" s="3"/>
       <c r="D257" s="3"/>
@@ -5370,32 +5378,36 @@
     </row>
     <row r="258" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A258" s="3">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B258" s="3" t="s">
-        <v>178</v>
+        <v>139</v>
       </c>
       <c r="C258" s="3"/>
-      <c r="D258" s="3"/>
+      <c r="D258" s="3" t="s">
+        <v>393</v>
+      </c>
       <c r="E258" s="3"/>
     </row>
     <row r="259" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A259" s="3">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B259" s="3" t="s">
-        <v>179</v>
+        <v>140</v>
       </c>
       <c r="C259" s="3"/>
-      <c r="D259" s="3"/>
+      <c r="D259" s="3" t="s">
+        <v>393</v>
+      </c>
       <c r="E259" s="3"/>
     </row>
     <row r="260" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A260" s="3">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B260" s="3" t="s">
-        <v>180</v>
+        <v>141</v>
       </c>
       <c r="C260" s="3"/>
       <c r="D260" s="3"/>
@@ -5403,23 +5415,21 @@
     </row>
     <row r="261" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A261" s="3">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B261" s="3" t="s">
-        <v>198</v>
+        <v>177</v>
       </c>
       <c r="C261" s="3"/>
-      <c r="D261" s="3" t="s">
-        <v>419</v>
-      </c>
+      <c r="D261" s="3"/>
       <c r="E261" s="3"/>
     </row>
     <row r="262" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A262" s="3">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B262" s="3" t="s">
-        <v>199</v>
+        <v>178</v>
       </c>
       <c r="C262" s="3"/>
       <c r="D262" s="3"/>
@@ -5427,10 +5437,10 @@
     </row>
     <row r="263" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A263" s="3">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B263" s="3" t="s">
-        <v>200</v>
+        <v>179</v>
       </c>
       <c r="C263" s="3"/>
       <c r="D263" s="3"/>
@@ -5438,43 +5448,45 @@
     </row>
     <row r="264" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A264" s="3">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B264" s="3" t="s">
-        <v>228</v>
+        <v>180</v>
       </c>
       <c r="C264" s="3"/>
       <c r="D264" s="3"/>
       <c r="E264" s="3"/>
     </row>
     <row r="265" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A265" s="7" t="s">
-        <v>285</v>
-      </c>
-      <c r="B265" s="7"/>
-      <c r="C265" s="7"/>
-      <c r="D265" s="7"/>
-      <c r="E265" s="7"/>
+      <c r="A265" s="3">
+        <v>10</v>
+      </c>
+      <c r="B265" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="C265" s="3"/>
+      <c r="D265" s="3" t="s">
+        <v>419</v>
+      </c>
+      <c r="E265" s="3"/>
     </row>
     <row r="266" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A266" s="3">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="B266" s="3" t="s">
-        <v>171</v>
+        <v>199</v>
       </c>
       <c r="C266" s="3"/>
-      <c r="D266" s="3" t="s">
-        <v>420</v>
-      </c>
+      <c r="D266" s="3"/>
       <c r="E266" s="3"/>
     </row>
     <row r="267" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A267" s="3">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="B267" s="3" t="s">
-        <v>172</v>
+        <v>200</v>
       </c>
       <c r="C267" s="3"/>
       <c r="D267" s="3"/>
@@ -5482,289 +5494,285 @@
     </row>
     <row r="268" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A268" s="3">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="B268" s="3" t="s">
-        <v>173</v>
+        <v>228</v>
       </c>
       <c r="C268" s="3"/>
       <c r="D268" s="3"/>
       <c r="E268" s="3"/>
     </row>
     <row r="269" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A269" s="3">
-        <v>4</v>
-      </c>
-      <c r="B269" s="3" t="s">
-        <v>174</v>
-      </c>
-      <c r="C269" s="3"/>
-      <c r="D269" s="3"/>
-      <c r="E269" s="3"/>
+      <c r="A269" s="9" t="s">
+        <v>285</v>
+      </c>
+      <c r="B269" s="9"/>
+      <c r="C269" s="9"/>
+      <c r="D269" s="9"/>
+      <c r="E269" s="9"/>
     </row>
     <row r="270" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A270" s="3">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B270" s="3" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="C270" s="3"/>
-      <c r="D270" s="3"/>
+      <c r="D270" s="3" t="s">
+        <v>420</v>
+      </c>
       <c r="E270" s="3"/>
     </row>
     <row r="271" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A271" s="3">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B271" s="3" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="C271" s="3"/>
-      <c r="D271" s="3" t="s">
-        <v>393</v>
-      </c>
+      <c r="D271" s="3"/>
       <c r="E271" s="3"/>
     </row>
     <row r="272" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A272" s="3">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B272" s="3" t="s">
-        <v>240</v>
+        <v>173</v>
       </c>
       <c r="C272" s="3"/>
       <c r="D272" s="3"/>
       <c r="E272" s="3"/>
     </row>
     <row r="273" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A273" s="7" t="s">
-        <v>290</v>
-      </c>
-      <c r="B273" s="7"/>
-      <c r="C273" s="7"/>
-      <c r="D273" s="7"/>
-      <c r="E273" s="7"/>
+      <c r="A273" s="3">
+        <v>4</v>
+      </c>
+      <c r="B273" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="C273" s="3"/>
+      <c r="D273" s="3"/>
+      <c r="E273" s="3"/>
     </row>
     <row r="274" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A274" s="3">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B274" s="3" t="s">
-        <v>291</v>
-      </c>
-      <c r="C274" s="3" t="s">
-        <v>293</v>
-      </c>
+        <v>175</v>
+      </c>
+      <c r="C274" s="3"/>
       <c r="D274" s="3"/>
       <c r="E274" s="3"/>
     </row>
     <row r="275" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A275" s="3">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B275" s="3" t="s">
-        <v>308</v>
-      </c>
-      <c r="C275" s="3" t="s">
-        <v>292</v>
-      </c>
-      <c r="D275" s="3"/>
+        <v>176</v>
+      </c>
+      <c r="C275" s="3"/>
+      <c r="D275" s="3" t="s">
+        <v>393</v>
+      </c>
       <c r="E275" s="3"/>
     </row>
     <row r="276" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A276" s="3">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B276" s="3" t="s">
-        <v>309</v>
-      </c>
-      <c r="C276" s="3" t="s">
-        <v>294</v>
-      </c>
+        <v>240</v>
+      </c>
+      <c r="C276" s="3"/>
       <c r="D276" s="3"/>
       <c r="E276" s="3"/>
     </row>
     <row r="277" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A277" s="3">
-        <v>4</v>
-      </c>
-      <c r="B277" s="3" t="s">
-        <v>310</v>
-      </c>
-      <c r="C277" s="3" t="s">
-        <v>295</v>
-      </c>
-      <c r="D277" s="3"/>
-      <c r="E277" s="3"/>
+      <c r="A277" s="9" t="s">
+        <v>290</v>
+      </c>
+      <c r="B277" s="9"/>
+      <c r="C277" s="9"/>
+      <c r="D277" s="9"/>
+      <c r="E277" s="9"/>
     </row>
     <row r="278" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A278" s="3">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B278" s="3" t="s">
-        <v>371</v>
+        <v>291</v>
       </c>
       <c r="C278" s="3" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="D278" s="3"/>
       <c r="E278" s="3"/>
     </row>
     <row r="279" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A279" s="3">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B279" s="3" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="C279" s="3" t="s">
-        <v>297</v>
-      </c>
-      <c r="D279" s="3" t="s">
-        <v>377</v>
-      </c>
+        <v>292</v>
+      </c>
+      <c r="D279" s="3"/>
       <c r="E279" s="3"/>
     </row>
     <row r="280" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A280" s="3">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B280" s="3" t="s">
-        <v>298</v>
+        <v>309</v>
       </c>
       <c r="C280" s="3" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="D280" s="3"/>
       <c r="E280" s="3"/>
     </row>
     <row r="281" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A281" s="3">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B281" s="3" t="s">
-        <v>300</v>
+        <v>310</v>
       </c>
       <c r="C281" s="3" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="D281" s="3"/>
       <c r="E281" s="3"/>
     </row>
     <row r="282" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A282" s="3">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B282" s="3" t="s">
-        <v>302</v>
+        <v>371</v>
       </c>
       <c r="C282" s="3" t="s">
-        <v>303</v>
-      </c>
-      <c r="D282" s="3" t="s">
-        <v>363</v>
-      </c>
+        <v>296</v>
+      </c>
+      <c r="D282" s="3"/>
       <c r="E282" s="3"/>
     </row>
     <row r="283" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A283" s="7" t="s">
-        <v>375</v>
-      </c>
-      <c r="B283" s="7"/>
-      <c r="C283" s="7"/>
-      <c r="D283" s="7"/>
-      <c r="E283" s="7"/>
+      <c r="A283" s="3">
+        <v>6</v>
+      </c>
+      <c r="B283" s="3" t="s">
+        <v>311</v>
+      </c>
+      <c r="C283" s="3" t="s">
+        <v>297</v>
+      </c>
+      <c r="D283" s="3" t="s">
+        <v>377</v>
+      </c>
+      <c r="E283" s="3"/>
     </row>
     <row r="284" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A284" s="8" t="s">
-        <v>304</v>
-      </c>
-      <c r="B284" s="9"/>
-      <c r="C284" s="3"/>
+      <c r="A284" s="3">
+        <v>7</v>
+      </c>
+      <c r="B284" s="3" t="s">
+        <v>298</v>
+      </c>
+      <c r="C284" s="3" t="s">
+        <v>299</v>
+      </c>
       <c r="D284" s="3"/>
       <c r="E284" s="3"/>
     </row>
     <row r="285" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A285" s="3">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="B285" s="3" t="s">
-        <v>312</v>
-      </c>
-      <c r="C285" s="3"/>
-      <c r="D285" s="3" t="s">
-        <v>363</v>
-      </c>
+        <v>300</v>
+      </c>
+      <c r="C285" s="3" t="s">
+        <v>301</v>
+      </c>
+      <c r="D285" s="3"/>
       <c r="E285" s="3"/>
     </row>
     <row r="286" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A286" s="3">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="B286" s="3" t="s">
-        <v>313</v>
-      </c>
-      <c r="C286" s="3"/>
+        <v>302</v>
+      </c>
+      <c r="C286" s="3" t="s">
+        <v>303</v>
+      </c>
       <c r="D286" s="3" t="s">
-        <v>374</v>
+        <v>363</v>
       </c>
       <c r="E286" s="3"/>
     </row>
     <row r="287" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A287" s="3">
-        <v>3</v>
-      </c>
-      <c r="B287" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="C287" s="3"/>
-      <c r="D287" s="3" t="s">
+      <c r="A287" s="9" t="s">
+        <v>375</v>
+      </c>
+      <c r="B287" s="9"/>
+      <c r="C287" s="9"/>
+      <c r="D287" s="9"/>
+      <c r="E287" s="9"/>
+    </row>
+    <row r="288" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A288" s="7" t="s">
+        <v>304</v>
+      </c>
+      <c r="B288" s="8"/>
+      <c r="C288" s="3"/>
+      <c r="D288" s="3"/>
+      <c r="E288" s="3"/>
+    </row>
+    <row r="289" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A289" s="3">
+        <v>1</v>
+      </c>
+      <c r="B289" s="3" t="s">
+        <v>312</v>
+      </c>
+      <c r="C289" s="3"/>
+      <c r="D289" s="3" t="s">
         <v>363</v>
       </c>
-      <c r="E287" s="3"/>
-    </row>
-    <row r="288" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A288" s="3">
-        <v>4</v>
-      </c>
-      <c r="B288" s="3" t="s">
-        <v>314</v>
-      </c>
-      <c r="C288" s="3"/>
-      <c r="D288" s="6" t="s">
-        <v>378</v>
-      </c>
-      <c r="E288" s="3"/>
-    </row>
-    <row r="289" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A289" s="8" t="s">
-        <v>305</v>
-      </c>
-      <c r="B289" s="9"/>
-      <c r="C289" s="3"/>
-      <c r="D289" s="3"/>
       <c r="E289" s="3"/>
     </row>
     <row r="290" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A290" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B290" s="3" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="C290" s="3"/>
       <c r="D290" s="3" t="s">
-        <v>366</v>
+        <v>374</v>
       </c>
       <c r="E290" s="3"/>
     </row>
     <row r="291" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A291" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B291" s="3" t="s">
-        <v>316</v>
+        <v>95</v>
       </c>
       <c r="C291" s="3"/>
       <c r="D291" s="3" t="s">
@@ -5774,58 +5782,58 @@
     </row>
     <row r="292" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A292" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B292" s="3" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="C292" s="3"/>
-      <c r="D292" s="3" t="s">
-        <v>363</v>
+      <c r="D292" s="6" t="s">
+        <v>378</v>
       </c>
       <c r="E292" s="3"/>
     </row>
     <row r="293" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A293" s="3">
-        <v>4</v>
-      </c>
-      <c r="B293" s="3" t="s">
-        <v>318</v>
-      </c>
+      <c r="A293" s="7" t="s">
+        <v>305</v>
+      </c>
+      <c r="B293" s="8"/>
       <c r="C293" s="3"/>
-      <c r="D293" s="6" t="s">
-        <v>378</v>
-      </c>
+      <c r="D293" s="3"/>
       <c r="E293" s="3"/>
     </row>
     <row r="294" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A294" s="3">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B294" s="3" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="C294" s="3"/>
       <c r="D294" s="3" t="s">
-        <v>379</v>
+        <v>366</v>
       </c>
       <c r="E294" s="3"/>
     </row>
     <row r="295" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A295" s="8" t="s">
-        <v>306</v>
-      </c>
-      <c r="B295" s="9"/>
+      <c r="A295" s="3">
+        <v>2</v>
+      </c>
+      <c r="B295" s="3" t="s">
+        <v>316</v>
+      </c>
       <c r="C295" s="3"/>
-      <c r="D295" s="3"/>
+      <c r="D295" s="3" t="s">
+        <v>363</v>
+      </c>
       <c r="E295" s="3"/>
     </row>
     <row r="296" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A296" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B296" s="3" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="C296" s="3"/>
       <c r="D296" s="3" t="s">
@@ -5834,58 +5842,58 @@
       <c r="E296" s="3"/>
     </row>
     <row r="297" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A297" s="8" t="s">
-        <v>358</v>
-      </c>
-      <c r="B297" s="9"/>
+      <c r="A297" s="3">
+        <v>4</v>
+      </c>
+      <c r="B297" s="3" t="s">
+        <v>318</v>
+      </c>
       <c r="C297" s="3"/>
-      <c r="D297" s="3"/>
+      <c r="D297" s="6" t="s">
+        <v>378</v>
+      </c>
       <c r="E297" s="3"/>
     </row>
     <row r="298" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A298" s="3">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B298" s="3" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="C298" s="3"/>
       <c r="D298" s="3" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="E298" s="3"/>
     </row>
     <row r="299" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A299" s="3">
-        <v>2</v>
-      </c>
-      <c r="B299" s="3" t="s">
-        <v>322</v>
-      </c>
+      <c r="A299" s="7" t="s">
+        <v>306</v>
+      </c>
+      <c r="B299" s="8"/>
       <c r="C299" s="3"/>
-      <c r="D299" s="3" t="s">
-        <v>381</v>
-      </c>
+      <c r="D299" s="3"/>
       <c r="E299" s="3"/>
     </row>
     <row r="300" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A300" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B300" s="3" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="C300" s="3"/>
-      <c r="D300" s="6" t="s">
-        <v>378</v>
+      <c r="D300" s="3" t="s">
+        <v>363</v>
       </c>
       <c r="E300" s="3"/>
     </row>
     <row r="301" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A301" s="8" t="s">
-        <v>307</v>
-      </c>
-      <c r="B301" s="9"/>
+      <c r="A301" s="7" t="s">
+        <v>358</v>
+      </c>
+      <c r="B301" s="8"/>
       <c r="C301" s="3"/>
       <c r="D301" s="3"/>
       <c r="E301" s="3"/>
@@ -5895,11 +5903,11 @@
         <v>1</v>
       </c>
       <c r="B302" s="3" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="C302" s="3"/>
       <c r="D302" s="3" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="E302" s="3"/>
     </row>
@@ -5908,103 +5916,103 @@
         <v>2</v>
       </c>
       <c r="B303" s="3" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="C303" s="3"/>
       <c r="D303" s="3" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="E303" s="3"/>
     </row>
     <row r="304" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A304" s="8" t="s">
-        <v>359</v>
-      </c>
-      <c r="B304" s="9"/>
+      <c r="A304" s="3">
+        <v>3</v>
+      </c>
+      <c r="B304" s="3" t="s">
+        <v>323</v>
+      </c>
       <c r="C304" s="3"/>
-      <c r="D304" s="3"/>
+      <c r="D304" s="6" t="s">
+        <v>378</v>
+      </c>
       <c r="E304" s="3"/>
     </row>
     <row r="305" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A305" s="3">
-        <v>1</v>
-      </c>
-      <c r="B305" s="3" t="s">
-        <v>326</v>
-      </c>
+      <c r="A305" s="7" t="s">
+        <v>307</v>
+      </c>
+      <c r="B305" s="8"/>
       <c r="C305" s="3"/>
-      <c r="D305" s="3" t="s">
-        <v>363</v>
-      </c>
+      <c r="D305" s="3"/>
       <c r="E305" s="3"/>
     </row>
     <row r="306" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A306" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B306" s="3" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="C306" s="3"/>
       <c r="D306" s="3" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="E306" s="3"/>
     </row>
     <row r="307" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A307" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B307" s="3" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="C307" s="3"/>
       <c r="D307" s="3" t="s">
-        <v>364</v>
+        <v>382</v>
       </c>
       <c r="E307" s="3"/>
     </row>
     <row r="308" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A308" s="3">
-        <v>4</v>
-      </c>
-      <c r="B308" s="3" t="s">
-        <v>329</v>
-      </c>
+      <c r="A308" s="7" t="s">
+        <v>359</v>
+      </c>
+      <c r="B308" s="8"/>
       <c r="C308" s="3"/>
-      <c r="D308" s="3" t="s">
-        <v>366</v>
-      </c>
+      <c r="D308" s="3"/>
       <c r="E308" s="3"/>
     </row>
     <row r="309" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A309" s="3">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B309" s="3" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="C309" s="3"/>
-      <c r="D309" s="3"/>
+      <c r="D309" s="3" t="s">
+        <v>363</v>
+      </c>
       <c r="E309" s="3"/>
     </row>
     <row r="310" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A310" s="3">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B310" s="3" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="C310" s="3"/>
-      <c r="D310" s="3"/>
+      <c r="D310" s="3" t="s">
+        <v>384</v>
+      </c>
       <c r="E310" s="3"/>
     </row>
     <row r="311" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A311" s="3">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B311" s="3" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="C311" s="3"/>
       <c r="D311" s="3" t="s">
@@ -6014,79 +6022,81 @@
     </row>
     <row r="312" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A312" s="3">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B312" s="3" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="C312" s="3"/>
-      <c r="D312" s="3"/>
+      <c r="D312" s="3" t="s">
+        <v>366</v>
+      </c>
       <c r="E312" s="3"/>
     </row>
     <row r="313" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A313" s="3">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B313" s="3" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="C313" s="3"/>
-      <c r="D313" s="3" t="s">
-        <v>368</v>
-      </c>
+      <c r="D313" s="3"/>
       <c r="E313" s="3"/>
     </row>
     <row r="314" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A314" s="8" t="s">
-        <v>360</v>
-      </c>
-      <c r="B314" s="9"/>
+      <c r="A314" s="3">
+        <v>6</v>
+      </c>
+      <c r="B314" s="3" t="s">
+        <v>331</v>
+      </c>
       <c r="C314" s="3"/>
       <c r="D314" s="3"/>
       <c r="E314" s="3"/>
     </row>
     <row r="315" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A315" s="3">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="B315" s="3" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="C315" s="3"/>
-      <c r="D315" s="3"/>
+      <c r="D315" s="3" t="s">
+        <v>364</v>
+      </c>
       <c r="E315" s="3"/>
     </row>
     <row r="316" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A316" s="3">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="B316" s="3" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="C316" s="3"/>
-      <c r="D316" s="3" t="s">
-        <v>367</v>
-      </c>
+      <c r="D316" s="3"/>
       <c r="E316" s="3"/>
     </row>
     <row r="317" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A317" s="3">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="B317" s="3" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="C317" s="3"/>
       <c r="D317" s="3" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="E317" s="3"/>
     </row>
     <row r="318" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A318" s="8" t="s">
-        <v>361</v>
-      </c>
-      <c r="B318" s="9"/>
+      <c r="A318" s="7" t="s">
+        <v>360</v>
+      </c>
+      <c r="B318" s="8"/>
       <c r="C318" s="3"/>
       <c r="D318" s="3"/>
       <c r="E318" s="3"/>
@@ -6096,12 +6106,10 @@
         <v>1</v>
       </c>
       <c r="B319" s="3" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="C319" s="3"/>
-      <c r="D319" s="3" t="s">
-        <v>367</v>
-      </c>
+      <c r="D319" s="3"/>
       <c r="E319" s="3"/>
     </row>
     <row r="320" spans="1:5" x14ac:dyDescent="0.3">
@@ -6109,10 +6117,12 @@
         <v>2</v>
       </c>
       <c r="B320" s="3" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="C320" s="3"/>
-      <c r="D320" s="3"/>
+      <c r="D320" s="3" t="s">
+        <v>367</v>
+      </c>
       <c r="E320" s="3"/>
     </row>
     <row r="321" spans="1:5" x14ac:dyDescent="0.3">
@@ -6120,112 +6130,114 @@
         <v>3</v>
       </c>
       <c r="B321" s="3" t="s">
-        <v>156</v>
+        <v>337</v>
       </c>
       <c r="C321" s="3"/>
       <c r="D321" s="3" t="s">
-        <v>373</v>
+        <v>367</v>
       </c>
       <c r="E321" s="3"/>
     </row>
     <row r="322" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A322" s="3">
-        <v>4</v>
-      </c>
-      <c r="B322" s="3" t="s">
-        <v>340</v>
-      </c>
+      <c r="A322" s="7" t="s">
+        <v>361</v>
+      </c>
+      <c r="B322" s="8"/>
       <c r="C322" s="3"/>
-      <c r="D322" s="3" t="s">
-        <v>368</v>
-      </c>
+      <c r="D322" s="3"/>
       <c r="E322" s="3"/>
     </row>
     <row r="323" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A323" s="8" t="s">
-        <v>362</v>
-      </c>
-      <c r="B323" s="9"/>
+      <c r="A323" s="3">
+        <v>1</v>
+      </c>
+      <c r="B323" s="3" t="s">
+        <v>338</v>
+      </c>
       <c r="C323" s="3"/>
-      <c r="D323" s="3"/>
+      <c r="D323" s="3" t="s">
+        <v>367</v>
+      </c>
       <c r="E323" s="3"/>
     </row>
     <row r="324" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A324" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B324" s="3" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="C324" s="3"/>
-      <c r="D324" s="3" t="s">
-        <v>368</v>
-      </c>
+      <c r="D324" s="3"/>
       <c r="E324" s="3"/>
     </row>
     <row r="325" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A325" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B325" s="3" t="s">
-        <v>342</v>
+        <v>156</v>
       </c>
       <c r="C325" s="3"/>
       <c r="D325" s="3" t="s">
-        <v>368</v>
+        <v>373</v>
       </c>
       <c r="E325" s="3"/>
     </row>
     <row r="326" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A326" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B326" s="3" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="C326" s="3"/>
-      <c r="D326" s="3"/>
+      <c r="D326" s="3" t="s">
+        <v>368</v>
+      </c>
       <c r="E326" s="3"/>
     </row>
     <row r="327" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A327" s="3">
-        <v>4</v>
-      </c>
-      <c r="B327" s="3" t="s">
-        <v>344</v>
-      </c>
+      <c r="A327" s="7" t="s">
+        <v>362</v>
+      </c>
+      <c r="B327" s="8"/>
       <c r="C327" s="3"/>
       <c r="D327" s="3"/>
       <c r="E327" s="3"/>
     </row>
     <row r="328" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A328" s="3">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B328" s="3" t="s">
-        <v>320</v>
+        <v>341</v>
       </c>
       <c r="C328" s="3"/>
       <c r="D328" s="3" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="E328" s="3"/>
     </row>
     <row r="329" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A329" s="7" t="s">
-        <v>376</v>
-      </c>
-      <c r="B329" s="7"/>
-      <c r="C329" s="7"/>
-      <c r="D329" s="7"/>
-      <c r="E329" s="7"/>
+      <c r="A329" s="3">
+        <v>2</v>
+      </c>
+      <c r="B329" s="3" t="s">
+        <v>342</v>
+      </c>
+      <c r="C329" s="3"/>
+      <c r="D329" s="3" t="s">
+        <v>368</v>
+      </c>
+      <c r="E329" s="3"/>
     </row>
     <row r="330" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A330" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B330" s="3" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="C330" s="3"/>
       <c r="D330" s="3"/>
@@ -6233,86 +6245,80 @@
     </row>
     <row r="331" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A331" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B331" s="3" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="C331" s="3"/>
-      <c r="D331" s="3" t="s">
-        <v>373</v>
-      </c>
+      <c r="D331" s="3"/>
       <c r="E331" s="3"/>
     </row>
     <row r="332" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A332" s="3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B332" s="3" t="s">
-        <v>347</v>
+        <v>320</v>
       </c>
       <c r="C332" s="3"/>
       <c r="D332" s="3" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="E332" s="3"/>
     </row>
     <row r="333" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A333" s="3">
-        <v>4</v>
-      </c>
-      <c r="B333" s="3" t="s">
-        <v>348</v>
-      </c>
-      <c r="C333" s="3"/>
-      <c r="D333" s="3"/>
-      <c r="E333" s="3"/>
+      <c r="A333" s="9" t="s">
+        <v>376</v>
+      </c>
+      <c r="B333" s="9"/>
+      <c r="C333" s="9"/>
+      <c r="D333" s="9"/>
+      <c r="E333" s="9"/>
     </row>
     <row r="334" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A334" s="3">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B334" s="3" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="C334" s="3"/>
-      <c r="D334" s="3" t="s">
-        <v>373</v>
-      </c>
+      <c r="D334" s="3"/>
       <c r="E334" s="3"/>
     </row>
     <row r="335" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A335" s="3">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B335" s="3" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="C335" s="3"/>
       <c r="D335" s="3" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="E335" s="3"/>
     </row>
     <row r="336" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A336" s="3">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B336" s="3" t="s">
-        <v>219</v>
+        <v>347</v>
       </c>
       <c r="C336" s="3"/>
       <c r="D336" s="3" t="s">
-        <v>370</v>
+        <v>373</v>
       </c>
       <c r="E336" s="3"/>
     </row>
     <row r="337" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A337" s="3">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B337" s="3" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="C337" s="3"/>
       <c r="D337" s="3"/>
@@ -6320,56 +6326,60 @@
     </row>
     <row r="338" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A338" s="3">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B338" s="3" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="C338" s="3"/>
-      <c r="D338" s="3"/>
+      <c r="D338" s="3" t="s">
+        <v>373</v>
+      </c>
       <c r="E338" s="3"/>
     </row>
     <row r="339" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A339" s="3">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B339" s="3" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="C339" s="3"/>
-      <c r="D339" s="3"/>
+      <c r="D339" s="3" t="s">
+        <v>372</v>
+      </c>
       <c r="E339" s="3"/>
     </row>
     <row r="340" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A340" s="3">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B340" s="3" t="s">
-        <v>354</v>
+        <v>219</v>
       </c>
       <c r="C340" s="3"/>
-      <c r="D340" s="3"/>
+      <c r="D340" s="3" t="s">
+        <v>370</v>
+      </c>
       <c r="E340" s="3"/>
     </row>
     <row r="341" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A341" s="3">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B341" s="3" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="C341" s="3"/>
-      <c r="D341" s="3" t="s">
-        <v>423</v>
-      </c>
+      <c r="D341" s="3"/>
       <c r="E341" s="3"/>
     </row>
     <row r="342" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A342" s="3">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B342" s="3" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="C342" s="3"/>
       <c r="D342" s="3"/>
@@ -6377,10 +6387,10 @@
     </row>
     <row r="343" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A343" s="3">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B343" s="3" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="C343" s="3"/>
       <c r="D343" s="3"/>
@@ -6388,46 +6398,92 @@
     </row>
     <row r="344" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A344" s="3">
+        <v>11</v>
+      </c>
+      <c r="B344" s="3" t="s">
+        <v>354</v>
+      </c>
+      <c r="C344" s="3"/>
+      <c r="D344" s="3"/>
+      <c r="E344" s="3"/>
+    </row>
+    <row r="345" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A345" s="3">
+        <v>12</v>
+      </c>
+      <c r="B345" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="C345" s="3"/>
+      <c r="D345" s="3" t="s">
+        <v>423</v>
+      </c>
+      <c r="E345" s="3"/>
+    </row>
+    <row r="346" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A346" s="3">
+        <v>13</v>
+      </c>
+      <c r="B346" s="3" t="s">
+        <v>356</v>
+      </c>
+      <c r="C346" s="3"/>
+      <c r="D346" s="3"/>
+      <c r="E346" s="3"/>
+    </row>
+    <row r="347" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A347" s="3">
+        <v>14</v>
+      </c>
+      <c r="B347" s="3" t="s">
+        <v>357</v>
+      </c>
+      <c r="C347" s="3"/>
+      <c r="D347" s="3"/>
+      <c r="E347" s="3"/>
+    </row>
+    <row r="348" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A348" s="3">
         <v>15</v>
       </c>
-      <c r="B344" s="2" t="s">
+      <c r="B348" s="2" t="s">
         <v>444</v>
       </c>
-      <c r="D344" s="2" t="s">
+      <c r="D348" s="2" t="s">
         <v>445</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="A304:B304"/>
-    <mergeCell ref="A314:B314"/>
-    <mergeCell ref="A318:B318"/>
-    <mergeCell ref="A323:B323"/>
-    <mergeCell ref="A329:E329"/>
-    <mergeCell ref="A284:B284"/>
-    <mergeCell ref="A289:B289"/>
-    <mergeCell ref="A295:B295"/>
-    <mergeCell ref="A297:B297"/>
-    <mergeCell ref="A301:B301"/>
+    <mergeCell ref="A277:E277"/>
+    <mergeCell ref="A287:E287"/>
+    <mergeCell ref="A269:E269"/>
+    <mergeCell ref="A217:E217"/>
+    <mergeCell ref="A231:E231"/>
+    <mergeCell ref="A237:E237"/>
+    <mergeCell ref="A242:E242"/>
+    <mergeCell ref="A255:E255"/>
+    <mergeCell ref="A144:E144"/>
+    <mergeCell ref="A155:E155"/>
+    <mergeCell ref="A164:E164"/>
+    <mergeCell ref="A168:E168"/>
+    <mergeCell ref="A194:E194"/>
     <mergeCell ref="A2:E2"/>
     <mergeCell ref="A20:E20"/>
-    <mergeCell ref="A43:E43"/>
-    <mergeCell ref="A85:E85"/>
-    <mergeCell ref="A139:E139"/>
-    <mergeCell ref="A113:E113"/>
-    <mergeCell ref="A143:E143"/>
-    <mergeCell ref="A151:E151"/>
-    <mergeCell ref="A160:E160"/>
-    <mergeCell ref="A164:E164"/>
-    <mergeCell ref="A190:E190"/>
-    <mergeCell ref="A273:E273"/>
-    <mergeCell ref="A283:E283"/>
-    <mergeCell ref="A265:E265"/>
-    <mergeCell ref="A213:E213"/>
-    <mergeCell ref="A227:E227"/>
-    <mergeCell ref="A233:E233"/>
-    <mergeCell ref="A238:E238"/>
-    <mergeCell ref="A251:E251"/>
+    <mergeCell ref="A44:E44"/>
+    <mergeCell ref="A86:E86"/>
+    <mergeCell ref="A140:E140"/>
+    <mergeCell ref="A114:E114"/>
+    <mergeCell ref="A288:B288"/>
+    <mergeCell ref="A293:B293"/>
+    <mergeCell ref="A299:B299"/>
+    <mergeCell ref="A301:B301"/>
+    <mergeCell ref="A305:B305"/>
+    <mergeCell ref="A308:B308"/>
+    <mergeCell ref="A318:B318"/>
+    <mergeCell ref="A322:B322"/>
+    <mergeCell ref="A327:B327"/>
+    <mergeCell ref="A333:E333"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/doc/BookList.xlsx
+++ b/doc/BookList.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="600" uniqueCount="449">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="611" uniqueCount="458">
   <si>
     <t>民主的细节</t>
   </si>
@@ -220,10 +220,6 @@
   </si>
   <si>
     <t>投资中最简单的事</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>投资中最重要的事</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1192,10 +1188,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>一个聪明的投资者：本杰明.格雷厄姆</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>指数革命：跟大师学指数投资</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1348,10 +1340,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>优秀的绵羊</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>数据不会说谎</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1436,7 +1424,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>重复</t>
+    <t>赌神数学家：战胜拉斯维加斯和金融市场的财富公式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>umd/azw3</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1444,11 +1436,51 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>赌神数学家：战胜拉斯维加斯和金融市场的财富公式</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>umd/azw3</t>
+    <t>掌阅-3298</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>19. 湛庐2018推荐书单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20. 其它</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>none</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>掌阅-5399</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>掌阅-5280</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>掌阅-5299</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>掌阅-4140</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>掌阅-3899</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>掌阅已有</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>纸书</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>纸书/epub</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1456,43 +1488,191 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>掌阅-3298</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>19. 湛庐2018推荐书单</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>20. 其它</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>掌阅-5880</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>none</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>掌阅-5399</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>掌阅-5280</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>掌阅-5299</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>掌阅-4140</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>掌阅-3899</t>
+    <t>经济解释</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mobi</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>掌阅购买</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mobi</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>财务自由之路</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>epub</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>只有下部</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>说明</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mobi</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>纸书/epub</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>epub</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>纸书/epub</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>纸书</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>纸书/mobi</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>创业维艰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黑客与画家</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>epub</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>全新思维：决胜未来的6大能力</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>软技能：代码之外的生存技能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>纸书</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pdf</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>纸书/pdf</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>纸书</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>待购买</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mobi</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>纸书/epub</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>epub</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pdf</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>txt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mobi</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PDF解读版</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PDF解读版</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>txt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>纸书/掌阅</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>斯坦福极简经济学</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>掌阅-4399</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>极简工作法则</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>极简生活法则</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>纸书</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>掌阅-2940</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>掌阅-1299</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>创造力:心流与创新心理学</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>掌阅-4399</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>掌阅-3499</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>掌阅无</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>掌阅-2160</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>掌阅-999</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1500,11 +1680,78 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>纸书</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>纸书/epub</t>
+    <t>掌阅-1699</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已购</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>掌阅-499</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已购</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>掌阅-1200</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>掌阅-1299</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>掌阅-1999</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>掌阅-1799</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大而不倒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>极简主义</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>吃掉那只青蛙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>掌阅已购</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mobi</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>投资最重要的事</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>聪明的投资者：本杰明.格雷厄姆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mobi</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Kindle推有，每日两本下载</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>艾伦·图灵传</t>
+  </si>
+  <si>
+    <t>牛奶可乐经济学</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1512,115 +1759,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>经济解释</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>mobi</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>掌阅购买</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>mobi</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>财务自由之路</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>epub</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>只有下部</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>说明</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>mobi</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>纸书/epub</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>epub</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>纸书/epub</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>纸书</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>纸书/mobi</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>创业维艰</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>黑客与画家</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>epub</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>全新思维：决胜未来的6大能力</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>软技能：代码之外的生存技能</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>纸书</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pdf</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>纸书/pdf</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>纸书</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>待购买</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>mobi</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>纸书/epub</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>epub</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pdf</t>
+    <t>如何高效学习</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我的美国之路</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>科林鲍威尔</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1628,131 +1775,19 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>mobi</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PDF解读版</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PDF解读版</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>txt</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>纸书/掌阅</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>斯坦福极简经济学</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>掌阅-4399</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>极简工作法则</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>极简生活法则</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>纸书</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>掌阅-2940</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>掌阅-1299</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>创造力:心流与创新心理学</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>掌阅-4399</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>掌阅-3499</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>掌阅无</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>掌阅-2160</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>掌阅-999</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>掌阅已有</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>掌阅-1699</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>已购</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>掌阅-499</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>已购</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>掌阅-1200</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>掌阅-1299</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>掌阅-1999</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>掌阅-1799</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>如何学习</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>epub</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>大而不倒</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>极简主义</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>吃掉那只青蛙</t>
+    <t>爱因斯坦传</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>杜月笙传</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>恩格斯传</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>人类群星闪耀时 茨威格</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1798,7 +1833,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1814,6 +1849,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1871,7 +1912,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1883,9 +1924,14 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -2190,11 +2236,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E348"/>
+  <dimension ref="A1:E349"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A143" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B153" sqref="B153"/>
+      <pane ySplit="1" topLeftCell="A188" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D216" sqref="D216"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2209,40 +2255,40 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>91</v>
-      </c>
       <c r="D1" s="1" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>395</v>
+        <v>389</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="9" t="s">
-        <v>270</v>
-      </c>
-      <c r="B2" s="9"/>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
+      <c r="A2" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="3">
         <v>1</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="10" t="s">
         <v>50</v>
       </c>
       <c r="C3" s="3"/>
       <c r="D3" s="3" t="s">
-        <v>386</v>
+        <v>380</v>
       </c>
       <c r="E3" s="3"/>
     </row>
@@ -2250,12 +2296,12 @@
       <c r="A4" s="3">
         <v>2</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="10" t="s">
         <v>51</v>
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="3" t="s">
-        <v>386</v>
+        <v>380</v>
       </c>
       <c r="E4" s="3"/>
     </row>
@@ -2263,14 +2309,14 @@
       <c r="A5" s="3">
         <v>3</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="10" t="s">
         <v>52</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>53</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>385</v>
+        <v>379</v>
       </c>
       <c r="E5" s="3"/>
     </row>
@@ -2278,12 +2324,12 @@
       <c r="A6" s="3">
         <v>4</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="10" t="s">
         <v>54</v>
       </c>
       <c r="C6" s="3"/>
       <c r="D6" s="3" t="s">
-        <v>387</v>
+        <v>381</v>
       </c>
       <c r="E6" s="3"/>
     </row>
@@ -2291,12 +2337,12 @@
       <c r="A7" s="3">
         <v>5</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="12" t="s">
         <v>49</v>
       </c>
       <c r="C7" s="3"/>
       <c r="D7" s="3" t="s">
-        <v>387</v>
+        <v>381</v>
       </c>
       <c r="E7" s="3"/>
     </row>
@@ -2305,11 +2351,11 @@
         <v>6</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>388</v>
+        <v>382</v>
       </c>
       <c r="C8" s="3"/>
       <c r="D8" s="3" t="s">
-        <v>386</v>
+        <v>380</v>
       </c>
       <c r="E8" s="3"/>
     </row>
@@ -2318,7 +2364,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
@@ -2329,11 +2375,11 @@
         <v>8</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C10" s="3"/>
       <c r="D10" s="3" t="s">
-        <v>387</v>
+        <v>381</v>
       </c>
       <c r="E10" s="3"/>
     </row>
@@ -2342,7 +2388,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
@@ -2352,12 +2398,12 @@
       <c r="A12" s="3">
         <v>10</v>
       </c>
-      <c r="B12" s="4" t="s">
-        <v>188</v>
+      <c r="B12" s="12" t="s">
+        <v>187</v>
       </c>
       <c r="C12" s="3"/>
       <c r="D12" s="3" t="s">
-        <v>387</v>
+        <v>381</v>
       </c>
       <c r="E12" s="3"/>
     </row>
@@ -2365,12 +2411,12 @@
       <c r="A13" s="3">
         <v>11</v>
       </c>
-      <c r="B13" s="4" t="s">
-        <v>189</v>
+      <c r="B13" s="12" t="s">
+        <v>188</v>
       </c>
       <c r="C13" s="3"/>
       <c r="D13" s="3" t="s">
-        <v>387</v>
+        <v>381</v>
       </c>
       <c r="E13" s="3"/>
     </row>
@@ -2379,11 +2425,11 @@
         <v>12</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C14" s="3"/>
       <c r="D14" s="3" t="s">
-        <v>387</v>
+        <v>381</v>
       </c>
       <c r="E14" s="3"/>
     </row>
@@ -2392,11 +2438,11 @@
         <v>13</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C15" s="3"/>
       <c r="D15" s="3" t="s">
-        <v>387</v>
+        <v>381</v>
       </c>
       <c r="E15" s="3"/>
     </row>
@@ -2404,8 +2450,8 @@
       <c r="A16" s="3">
         <v>14</v>
       </c>
-      <c r="B16" s="4" t="s">
-        <v>247</v>
+      <c r="B16" s="12" t="s">
+        <v>246</v>
       </c>
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
@@ -2416,11 +2462,11 @@
         <v>15</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C17" s="3"/>
       <c r="D17" s="3" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
       <c r="E17" s="3"/>
     </row>
@@ -2429,7 +2475,7 @@
         <v>16</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
@@ -2439,600 +2485,602 @@
       <c r="A19" s="3">
         <v>17</v>
       </c>
-      <c r="B19" s="4" t="s">
-        <v>422</v>
+      <c r="B19" s="12" t="s">
+        <v>416</v>
       </c>
       <c r="C19" s="3"/>
       <c r="D19" s="3" t="s">
-        <v>386</v>
+        <v>380</v>
       </c>
       <c r="E19" s="3"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A20" s="9" t="s">
-        <v>271</v>
-      </c>
-      <c r="B20" s="9"/>
-      <c r="C20" s="9"/>
-      <c r="D20" s="9"/>
-      <c r="E20" s="9"/>
+      <c r="A20" s="3">
+        <v>18</v>
+      </c>
+      <c r="B20" s="12" t="s">
+        <v>448</v>
+      </c>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3" t="s">
+        <v>449</v>
+      </c>
+      <c r="E20" s="3"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A21" s="3">
-        <v>1</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>387</v>
-      </c>
-      <c r="E21" s="3"/>
+      <c r="A21" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="B21" s="7"/>
+      <c r="C21" s="7"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="7"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="3">
-        <v>2</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="C22" s="3"/>
+        <v>1</v>
+      </c>
+      <c r="B22" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>56</v>
+      </c>
       <c r="D22" s="3" t="s">
-        <v>390</v>
+        <v>381</v>
       </c>
       <c r="E22" s="3"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" s="3">
-        <v>3</v>
-      </c>
-      <c r="B23" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B23" s="10" t="s">
         <v>63</v>
       </c>
       <c r="C23" s="3"/>
       <c r="D23" s="3" t="s">
-        <v>390</v>
+        <v>384</v>
       </c>
       <c r="E23" s="3"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" s="3">
-        <v>4</v>
-      </c>
-      <c r="B24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B24" s="10" t="s">
         <v>62</v>
       </c>
       <c r="C24" s="3"/>
-      <c r="D24" s="3"/>
+      <c r="D24" s="3" t="s">
+        <v>384</v>
+      </c>
       <c r="E24" s="3"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" s="3">
-        <v>5</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>61</v>
+        <v>4</v>
+      </c>
+      <c r="B25" s="10" t="s">
+        <v>443</v>
       </c>
       <c r="C25" s="3"/>
       <c r="D25" s="3" t="s">
-        <v>391</v>
+        <v>361</v>
       </c>
       <c r="E25" s="3"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" s="3">
-        <v>6</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="C26" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="D26" s="3"/>
+        <v>5</v>
+      </c>
+      <c r="B26" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3" t="s">
+        <v>385</v>
+      </c>
       <c r="E26" s="3"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" s="3">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>392</v>
+        <v>59</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D27" s="3"/>
       <c r="E27" s="3"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" s="3">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="C28" s="3"/>
-      <c r="D28" s="3" t="s">
-        <v>391</v>
-      </c>
+        <v>386</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="D28" s="3"/>
       <c r="E28" s="3"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" s="3">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>57</v>
+        <v>130</v>
       </c>
       <c r="C29" s="3"/>
       <c r="D29" s="3" t="s">
-        <v>393</v>
+        <v>385</v>
       </c>
       <c r="E29" s="3"/>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" s="3">
-        <v>10</v>
-      </c>
-      <c r="B30" s="3" t="s">
-        <v>123</v>
+        <v>9</v>
+      </c>
+      <c r="B30" s="10" t="s">
+        <v>57</v>
       </c>
       <c r="C30" s="3"/>
-      <c r="D30" s="3"/>
+      <c r="D30" s="3" t="s">
+        <v>387</v>
+      </c>
       <c r="E30" s="3"/>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" s="3">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C31" s="3"/>
-      <c r="D31" s="3" t="s">
-        <v>393</v>
-      </c>
+      <c r="D31" s="3"/>
       <c r="E31" s="3"/>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" s="3">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C32" s="3"/>
-      <c r="D32" s="3"/>
+      <c r="D32" s="3" t="s">
+        <v>387</v>
+      </c>
       <c r="E32" s="3"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" s="3">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C33" s="3"/>
-      <c r="D33" s="3" t="s">
-        <v>393</v>
-      </c>
-      <c r="E33" s="3" t="s">
-        <v>394</v>
-      </c>
+      <c r="D33" s="3"/>
+      <c r="E33" s="3"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" s="3">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C34" s="3"/>
       <c r="D34" s="3" t="s">
-        <v>428</v>
-      </c>
-      <c r="E34" s="3"/>
+        <v>387</v>
+      </c>
+      <c r="E34" s="3" t="s">
+        <v>388</v>
+      </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" s="3">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="C35" s="3"/>
-      <c r="D35" s="3"/>
+      <c r="D35" s="3" t="s">
+        <v>422</v>
+      </c>
       <c r="E35" s="3"/>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36" s="3">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C36" s="3"/>
-      <c r="D36" s="3" t="s">
-        <v>393</v>
-      </c>
+      <c r="D36" s="3"/>
       <c r="E36" s="3"/>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37" s="3">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C37" s="3"/>
       <c r="D37" s="3" t="s">
-        <v>393</v>
+        <v>387</v>
       </c>
       <c r="E37" s="3"/>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38" s="3">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C38" s="3"/>
       <c r="D38" s="3" t="s">
-        <v>393</v>
+        <v>387</v>
       </c>
       <c r="E38" s="3"/>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39" s="3">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C39" s="3"/>
-      <c r="D39" s="3"/>
+      <c r="D39" s="3" t="s">
+        <v>387</v>
+      </c>
       <c r="E39" s="3"/>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40" s="3">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>197</v>
+        <v>135</v>
       </c>
       <c r="C40" s="3"/>
-      <c r="D40" s="3" t="s">
-        <v>393</v>
-      </c>
+      <c r="D40" s="3"/>
       <c r="E40" s="3"/>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41" s="3">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>231</v>
+        <v>196</v>
       </c>
       <c r="C41" s="3"/>
       <c r="D41" s="3" t="s">
-        <v>393</v>
+        <v>387</v>
       </c>
       <c r="E41" s="3"/>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42" s="3">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="C42" s="3"/>
-      <c r="D42" s="3"/>
+      <c r="D42" s="3" t="s">
+        <v>387</v>
+      </c>
       <c r="E42" s="3"/>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43" s="3">
+        <v>22</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="C43" s="3"/>
+      <c r="D43" s="3"/>
+      <c r="E43" s="3"/>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A44" s="3">
         <v>23</v>
       </c>
-      <c r="B43" s="3" t="s">
-        <v>446</v>
-      </c>
-      <c r="C43" s="3"/>
-      <c r="D43" s="3" t="s">
-        <v>363</v>
-      </c>
-      <c r="E43" s="3"/>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A44" s="9" t="s">
-        <v>272</v>
-      </c>
-      <c r="B44" s="9"/>
-      <c r="C44" s="9"/>
-      <c r="D44" s="9"/>
-      <c r="E44" s="9"/>
+      <c r="B44" s="10" t="s">
+        <v>438</v>
+      </c>
+      <c r="C44" s="3"/>
+      <c r="D44" s="3" t="s">
+        <v>360</v>
+      </c>
+      <c r="E44" s="3"/>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A45" s="3">
-        <v>1</v>
-      </c>
-      <c r="B45" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="C45" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="D45" s="3" t="s">
-        <v>396</v>
-      </c>
-      <c r="E45" s="3"/>
+      <c r="A45" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="B45" s="7"/>
+      <c r="C45" s="7"/>
+      <c r="D45" s="7"/>
+      <c r="E45" s="7"/>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A46" s="3">
-        <v>2</v>
-      </c>
-      <c r="B46" s="3" t="s">
-        <v>85</v>
+        <v>1</v>
+      </c>
+      <c r="B46" s="10" t="s">
+        <v>82</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="E46" s="3"/>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A47" s="3">
-        <v>3</v>
-      </c>
-      <c r="B47" s="3" t="s">
-        <v>65</v>
+        <v>2</v>
+      </c>
+      <c r="B47" s="10" t="s">
+        <v>84</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>397</v>
+        <v>387</v>
       </c>
       <c r="E47" s="3"/>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A48" s="3">
-        <v>4</v>
-      </c>
-      <c r="B48" s="3" t="s">
-        <v>86</v>
+        <v>3</v>
+      </c>
+      <c r="B48" s="10" t="s">
+        <v>64</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>385</v>
+        <v>391</v>
       </c>
       <c r="E48" s="3"/>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A49" s="3">
-        <v>5</v>
-      </c>
-      <c r="B49" s="3" t="s">
-        <v>87</v>
+        <v>4</v>
+      </c>
+      <c r="B49" s="10" t="s">
+        <v>85</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>398</v>
+        <v>379</v>
       </c>
       <c r="E49" s="3"/>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A50" s="3">
-        <v>6</v>
-      </c>
-      <c r="B50" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="C50" s="3"/>
+        <v>5</v>
+      </c>
+      <c r="B50" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="C50" s="3" t="s">
+        <v>81</v>
+      </c>
       <c r="D50" s="3" t="s">
-        <v>386</v>
+        <v>392</v>
       </c>
       <c r="E50" s="3"/>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A51" s="3">
-        <v>7</v>
-      </c>
-      <c r="B51" s="3" t="s">
-        <v>67</v>
+        <v>6</v>
+      </c>
+      <c r="B51" s="10" t="s">
+        <v>65</v>
       </c>
       <c r="C51" s="3"/>
       <c r="D51" s="3" t="s">
-        <v>386</v>
+        <v>380</v>
       </c>
       <c r="E51" s="3"/>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A52" s="3">
-        <v>8</v>
-      </c>
-      <c r="B52" s="3" t="s">
-        <v>181</v>
+        <v>7</v>
+      </c>
+      <c r="B52" s="10" t="s">
+        <v>66</v>
       </c>
       <c r="C52" s="3"/>
       <c r="D52" s="3" t="s">
-        <v>436</v>
-      </c>
-      <c r="E52" s="3" t="s">
-        <v>437</v>
-      </c>
+        <v>380</v>
+      </c>
+      <c r="E52" s="3"/>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A53" s="3">
-        <v>9</v>
-      </c>
-      <c r="B53" s="3" t="s">
-        <v>182</v>
+        <v>8</v>
+      </c>
+      <c r="B53" s="10" t="s">
+        <v>180</v>
       </c>
       <c r="C53" s="3"/>
-      <c r="D53" s="3"/>
-      <c r="E53" s="3"/>
+      <c r="D53" s="3" t="s">
+        <v>430</v>
+      </c>
+      <c r="E53" s="3" t="s">
+        <v>431</v>
+      </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A54" s="3">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C54" s="3"/>
-      <c r="D54" s="3" t="s">
-        <v>393</v>
-      </c>
+      <c r="D54" s="3"/>
       <c r="E54" s="3"/>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A55" s="3">
-        <v>11</v>
-      </c>
-      <c r="B55" s="3" t="s">
-        <v>184</v>
+        <v>10</v>
+      </c>
+      <c r="B55" s="10" t="s">
+        <v>182</v>
       </c>
       <c r="C55" s="3"/>
       <c r="D55" s="3" t="s">
-        <v>393</v>
+        <v>387</v>
       </c>
       <c r="E55" s="3"/>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A56" s="3">
-        <v>12</v>
-      </c>
-      <c r="B56" s="3" t="s">
-        <v>68</v>
+        <v>11</v>
+      </c>
+      <c r="B56" s="10" t="s">
+        <v>183</v>
       </c>
       <c r="C56" s="3"/>
       <c r="D56" s="3" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="E56" s="3"/>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A57" s="3">
-        <v>13</v>
-      </c>
-      <c r="B57" s="3" t="s">
-        <v>22</v>
+        <v>12</v>
+      </c>
+      <c r="B57" s="10" t="s">
+        <v>67</v>
       </c>
       <c r="C57" s="3"/>
       <c r="D57" s="3" t="s">
-        <v>386</v>
+        <v>380</v>
       </c>
       <c r="E57" s="3"/>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A58" s="3">
-        <v>14</v>
-      </c>
-      <c r="B58" s="3" t="s">
-        <v>23</v>
+        <v>13</v>
+      </c>
+      <c r="B58" s="10" t="s">
+        <v>22</v>
       </c>
       <c r="C58" s="3"/>
       <c r="D58" s="3" t="s">
-        <v>393</v>
+        <v>380</v>
       </c>
       <c r="E58" s="3"/>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A59" s="3">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="C59" s="3"/>
       <c r="D59" s="3" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="E59" s="3"/>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A60" s="3">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="C60" s="3"/>
       <c r="D60" s="3" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="E60" s="3"/>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A61" s="3">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>94</v>
+        <v>25</v>
       </c>
       <c r="C61" s="3"/>
       <c r="D61" s="3" t="s">
-        <v>399</v>
+        <v>380</v>
       </c>
       <c r="E61" s="3"/>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A62" s="3">
-        <v>18</v>
-      </c>
-      <c r="B62" s="3" t="s">
-        <v>96</v>
+        <v>17</v>
+      </c>
+      <c r="B62" s="10" t="s">
+        <v>93</v>
       </c>
       <c r="C62" s="3"/>
       <c r="D62" s="3" t="s">
-        <v>400</v>
+        <v>393</v>
       </c>
       <c r="E62" s="3"/>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A63" s="3">
-        <v>19</v>
-      </c>
-      <c r="B63" s="3" t="s">
-        <v>97</v>
+        <v>18</v>
+      </c>
+      <c r="B63" s="10" t="s">
+        <v>95</v>
       </c>
       <c r="C63" s="3"/>
       <c r="D63" s="3" t="s">
-        <v>401</v>
+        <v>394</v>
       </c>
       <c r="E63" s="3"/>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A64" s="3">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>402</v>
+        <v>96</v>
       </c>
       <c r="C64" s="3"/>
       <c r="D64" s="3" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="E64" s="3"/>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A65" s="3">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>119</v>
+        <v>396</v>
       </c>
       <c r="C65" s="3"/>
       <c r="D65" s="3" t="s">
@@ -3042,21 +3090,23 @@
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A66" s="3">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>40</v>
+        <v>118</v>
       </c>
       <c r="C66" s="3"/>
-      <c r="D66" s="3"/>
+      <c r="D66" s="3" t="s">
+        <v>387</v>
+      </c>
       <c r="E66" s="3"/>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A67" s="3">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C67" s="3"/>
       <c r="D67" s="3"/>
@@ -3064,139 +3114,137 @@
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A68" s="3">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>403</v>
+        <v>38</v>
       </c>
       <c r="C68" s="3"/>
-      <c r="D68" s="3" t="s">
-        <v>393</v>
-      </c>
+      <c r="D68" s="3"/>
       <c r="E68" s="3"/>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A69" s="3">
-        <v>25</v>
-      </c>
-      <c r="B69" s="3" t="s">
         <v>24</v>
+      </c>
+      <c r="B69" s="10" t="s">
+        <v>397</v>
       </c>
       <c r="C69" s="3"/>
       <c r="D69" s="3" t="s">
-        <v>399</v>
+        <v>387</v>
       </c>
       <c r="E69" s="3"/>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A70" s="3">
-        <v>26</v>
-      </c>
-      <c r="B70" s="3" t="s">
         <v>25</v>
+      </c>
+      <c r="B70" s="10" t="s">
+        <v>24</v>
       </c>
       <c r="C70" s="3"/>
       <c r="D70" s="3" t="s">
-        <v>399</v>
+        <v>393</v>
       </c>
       <c r="E70" s="3"/>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A71" s="3">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B71" s="3" t="s">
         <v>26</v>
       </c>
       <c r="C71" s="3"/>
       <c r="D71" s="3" t="s">
-        <v>393</v>
+        <v>387</v>
       </c>
       <c r="E71" s="3"/>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A72" s="3">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B72" s="3" t="s">
         <v>41</v>
       </c>
       <c r="C72" s="3"/>
       <c r="D72" s="3" t="s">
-        <v>393</v>
+        <v>387</v>
       </c>
       <c r="E72" s="3"/>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A73" s="3">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B73" s="3" t="s">
         <v>42</v>
       </c>
       <c r="C73" s="3"/>
       <c r="D73" s="3" t="s">
-        <v>393</v>
+        <v>387</v>
       </c>
       <c r="E73" s="3"/>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A74" s="3">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B74" s="3" t="s">
         <v>43</v>
       </c>
       <c r="C74" s="3"/>
       <c r="D74" s="3" t="s">
-        <v>393</v>
+        <v>387</v>
       </c>
       <c r="E74" s="3"/>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A75" s="3">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B75" s="3" t="s">
         <v>44</v>
       </c>
       <c r="C75" s="3"/>
       <c r="D75" s="3" t="s">
-        <v>393</v>
+        <v>387</v>
       </c>
       <c r="E75" s="3"/>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A76" s="3">
-        <v>32</v>
-      </c>
-      <c r="B76" s="3" t="s">
-        <v>104</v>
+        <v>31</v>
+      </c>
+      <c r="B76" s="10" t="s">
+        <v>103</v>
       </c>
       <c r="C76" s="3"/>
       <c r="D76" s="3" t="s">
-        <v>399</v>
+        <v>393</v>
       </c>
       <c r="E76" s="3"/>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A77" s="3">
-        <v>33</v>
-      </c>
-      <c r="B77" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B77" s="12" t="s">
         <v>45</v>
       </c>
       <c r="C77" s="3"/>
       <c r="D77" s="3" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="E77" s="3"/>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A78" s="3">
-        <v>34</v>
-      </c>
-      <c r="B78" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B78" s="12" t="s">
         <v>46</v>
       </c>
       <c r="C78" s="3"/>
@@ -3205,10 +3253,10 @@
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A79" s="3">
-        <v>35</v>
-      </c>
-      <c r="B79" s="4" t="s">
-        <v>147</v>
+        <v>34</v>
+      </c>
+      <c r="B79" s="12" t="s">
+        <v>146</v>
       </c>
       <c r="C79" s="3"/>
       <c r="D79" s="3"/>
@@ -3216,38 +3264,38 @@
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A80" s="3">
-        <v>36</v>
-      </c>
-      <c r="B80" s="4" t="s">
-        <v>148</v>
+        <v>35</v>
+      </c>
+      <c r="B80" s="12" t="s">
+        <v>147</v>
       </c>
       <c r="C80" s="3"/>
       <c r="D80" s="3" t="s">
-        <v>438</v>
+        <v>432</v>
       </c>
       <c r="E80" s="3" t="s">
-        <v>439</v>
+        <v>433</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A81" s="3">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C81" s="3"/>
       <c r="D81" s="3" t="s">
-        <v>440</v>
+        <v>434</v>
       </c>
       <c r="E81" s="3"/>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A82" s="3">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C82" s="3"/>
       <c r="D82" s="3"/>
@@ -3255,10 +3303,10 @@
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A83" s="3">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C83" s="3"/>
       <c r="D83" s="3"/>
@@ -3266,10 +3314,10 @@
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A84" s="3">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C84" s="3"/>
       <c r="D84" s="3"/>
@@ -3277,34 +3325,34 @@
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A85" s="3">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C85" s="3"/>
       <c r="D85" s="3"/>
       <c r="E85" s="3"/>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A86" s="9" t="s">
-        <v>273</v>
-      </c>
-      <c r="B86" s="9"/>
-      <c r="C86" s="9"/>
-      <c r="D86" s="9"/>
-      <c r="E86" s="9"/>
+      <c r="A86" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="B86" s="7"/>
+      <c r="C86" s="7"/>
+      <c r="D86" s="7"/>
+      <c r="E86" s="7"/>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A87" s="3">
         <v>1</v>
       </c>
-      <c r="B87" s="3" t="s">
+      <c r="B87" s="10" t="s">
         <v>47</v>
       </c>
       <c r="C87" s="3"/>
       <c r="D87" s="3" t="s">
-        <v>385</v>
+        <v>379</v>
       </c>
       <c r="E87" s="3"/>
     </row>
@@ -3312,12 +3360,12 @@
       <c r="A88" s="3">
         <v>2</v>
       </c>
-      <c r="B88" s="3" t="s">
-        <v>69</v>
+      <c r="B88" s="10" t="s">
+        <v>68</v>
       </c>
       <c r="C88" s="3"/>
       <c r="D88" s="3" t="s">
-        <v>385</v>
+        <v>379</v>
       </c>
       <c r="E88" s="3"/>
     </row>
@@ -3325,12 +3373,12 @@
       <c r="A89" s="3">
         <v>3</v>
       </c>
-      <c r="B89" s="3" t="s">
-        <v>70</v>
+      <c r="B89" s="10" t="s">
+        <v>69</v>
       </c>
       <c r="C89" s="3"/>
       <c r="D89" s="3" t="s">
-        <v>385</v>
+        <v>379</v>
       </c>
       <c r="E89" s="3"/>
     </row>
@@ -3338,12 +3386,12 @@
       <c r="A90" s="3">
         <v>4</v>
       </c>
-      <c r="B90" s="3" t="s">
-        <v>71</v>
+      <c r="B90" s="10" t="s">
+        <v>70</v>
       </c>
       <c r="C90" s="3"/>
       <c r="D90" s="3" t="s">
-        <v>385</v>
+        <v>379</v>
       </c>
       <c r="E90" s="3"/>
     </row>
@@ -3351,12 +3399,12 @@
       <c r="A91" s="3">
         <v>5</v>
       </c>
-      <c r="B91" s="3" t="s">
-        <v>72</v>
+      <c r="B91" s="10" t="s">
+        <v>71</v>
       </c>
       <c r="C91" s="3"/>
       <c r="D91" s="3" t="s">
-        <v>385</v>
+        <v>379</v>
       </c>
       <c r="E91" s="3"/>
     </row>
@@ -3364,14 +3412,14 @@
       <c r="A92" s="3">
         <v>6</v>
       </c>
-      <c r="B92" s="3" t="s">
-        <v>73</v>
+      <c r="B92" s="10" t="s">
+        <v>72</v>
       </c>
       <c r="C92" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D92" s="3" t="s">
-        <v>385</v>
+        <v>379</v>
       </c>
       <c r="E92" s="3"/>
     </row>
@@ -3379,12 +3427,12 @@
       <c r="A93" s="3">
         <v>7</v>
       </c>
-      <c r="B93" s="3" t="s">
-        <v>163</v>
+      <c r="B93" s="10" t="s">
+        <v>162</v>
       </c>
       <c r="C93" s="3"/>
       <c r="D93" s="3" t="s">
-        <v>431</v>
+        <v>425</v>
       </c>
       <c r="E93" s="3"/>
     </row>
@@ -3392,8 +3440,8 @@
       <c r="A94" s="3">
         <v>8</v>
       </c>
-      <c r="B94" s="3" t="s">
-        <v>244</v>
+      <c r="B94" s="10" t="s">
+        <v>243</v>
       </c>
       <c r="C94" s="3"/>
       <c r="D94" s="3"/>
@@ -3403,12 +3451,12 @@
       <c r="A95" s="3">
         <v>9</v>
       </c>
-      <c r="B95" s="3" t="s">
-        <v>77</v>
+      <c r="B95" s="10" t="s">
+        <v>76</v>
       </c>
       <c r="C95" s="3"/>
       <c r="D95" s="3" t="s">
-        <v>386</v>
+        <v>380</v>
       </c>
       <c r="E95" s="3"/>
     </row>
@@ -3416,12 +3464,12 @@
       <c r="A96" s="3">
         <v>10</v>
       </c>
-      <c r="B96" s="3" t="s">
-        <v>128</v>
+      <c r="B96" s="10" t="s">
+        <v>127</v>
       </c>
       <c r="C96" s="3"/>
       <c r="D96" s="3" t="s">
-        <v>427</v>
+        <v>421</v>
       </c>
       <c r="E96" s="3"/>
     </row>
@@ -3429,12 +3477,12 @@
       <c r="A97" s="3">
         <v>11</v>
       </c>
-      <c r="B97" s="3" t="s">
-        <v>129</v>
+      <c r="B97" s="10" t="s">
+        <v>128</v>
       </c>
       <c r="C97" s="3"/>
       <c r="D97" s="3" t="s">
-        <v>432</v>
+        <v>426</v>
       </c>
       <c r="E97" s="3"/>
     </row>
@@ -3442,12 +3490,12 @@
       <c r="A98" s="3">
         <v>12</v>
       </c>
-      <c r="B98" s="3" t="s">
-        <v>429</v>
+      <c r="B98" s="10" t="s">
+        <v>423</v>
       </c>
       <c r="C98" s="3"/>
       <c r="D98" s="3" t="s">
-        <v>430</v>
+        <v>424</v>
       </c>
       <c r="E98" s="3"/>
     </row>
@@ -3455,12 +3503,12 @@
       <c r="A99" s="3">
         <v>13</v>
       </c>
-      <c r="B99" s="3" t="s">
-        <v>190</v>
+      <c r="B99" s="10" t="s">
+        <v>189</v>
       </c>
       <c r="C99" s="3"/>
       <c r="D99" s="3" t="s">
-        <v>433</v>
+        <v>427</v>
       </c>
       <c r="E99" s="3"/>
     </row>
@@ -3468,12 +3516,12 @@
       <c r="A100" s="3">
         <v>14</v>
       </c>
-      <c r="B100" s="3" t="s">
-        <v>191</v>
+      <c r="B100" s="10" t="s">
+        <v>190</v>
       </c>
       <c r="C100" s="3"/>
       <c r="D100" s="3" t="s">
-        <v>434</v>
+        <v>428</v>
       </c>
       <c r="E100" s="3"/>
     </row>
@@ -3482,7 +3530,7 @@
         <v>15</v>
       </c>
       <c r="B101" s="3" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C101" s="3"/>
       <c r="D101" s="3"/>
@@ -3492,8 +3540,8 @@
       <c r="A102" s="3">
         <v>16</v>
       </c>
-      <c r="B102" s="3" t="s">
-        <v>193</v>
+      <c r="B102" s="10" t="s">
+        <v>192</v>
       </c>
       <c r="C102" s="3"/>
       <c r="D102" s="3"/>
@@ -3504,11 +3552,11 @@
         <v>17</v>
       </c>
       <c r="B103" s="3" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C103" s="3"/>
       <c r="D103" s="3" t="s">
-        <v>393</v>
+        <v>387</v>
       </c>
       <c r="E103" s="3"/>
     </row>
@@ -3516,12 +3564,12 @@
       <c r="A104" s="3">
         <v>18</v>
       </c>
-      <c r="B104" s="3" t="s">
-        <v>195</v>
+      <c r="B104" s="10" t="s">
+        <v>194</v>
       </c>
       <c r="C104" s="3"/>
       <c r="D104" s="3" t="s">
-        <v>441</v>
+        <v>435</v>
       </c>
       <c r="E104" s="3"/>
     </row>
@@ -3529,12 +3577,12 @@
       <c r="A105" s="3">
         <v>19</v>
       </c>
-      <c r="B105" s="3" t="s">
-        <v>196</v>
+      <c r="B105" s="10" t="s">
+        <v>195</v>
       </c>
       <c r="C105" s="3"/>
       <c r="D105" s="3" t="s">
-        <v>434</v>
+        <v>428</v>
       </c>
       <c r="E105" s="3"/>
     </row>
@@ -3543,7 +3591,7 @@
         <v>20</v>
       </c>
       <c r="B106" s="3" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C106" s="3"/>
       <c r="D106" s="3"/>
@@ -3554,11 +3602,11 @@
         <v>21</v>
       </c>
       <c r="B107" s="3" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C107" s="3"/>
       <c r="D107" s="3" t="s">
-        <v>393</v>
+        <v>387</v>
       </c>
       <c r="E107" s="3"/>
     </row>
@@ -3567,11 +3615,11 @@
         <v>22</v>
       </c>
       <c r="B108" s="3" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C108" s="3"/>
       <c r="D108" s="3" t="s">
-        <v>393</v>
+        <v>387</v>
       </c>
       <c r="E108" s="3"/>
     </row>
@@ -3580,7 +3628,7 @@
         <v>23</v>
       </c>
       <c r="B109" s="3" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C109" s="3"/>
       <c r="D109" s="3"/>
@@ -3591,7 +3639,7 @@
         <v>24</v>
       </c>
       <c r="B110" s="3" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C110" s="3"/>
       <c r="D110" s="3"/>
@@ -3602,7 +3650,7 @@
         <v>25</v>
       </c>
       <c r="B111" s="3" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C111" s="3"/>
       <c r="D111" s="3"/>
@@ -3617,7 +3665,7 @@
       </c>
       <c r="C112" s="3"/>
       <c r="D112" s="3" t="s">
-        <v>404</v>
+        <v>398</v>
       </c>
       <c r="E112" s="3"/>
     </row>
@@ -3630,138 +3678,138 @@
       </c>
       <c r="C113" s="3"/>
       <c r="D113" s="3" t="s">
-        <v>404</v>
+        <v>398</v>
       </c>
       <c r="E113" s="3"/>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A114" s="9" t="s">
-        <v>274</v>
-      </c>
-      <c r="B114" s="9"/>
-      <c r="C114" s="9"/>
-      <c r="D114" s="9"/>
-      <c r="E114" s="9"/>
+      <c r="A114" s="3">
+        <v>28</v>
+      </c>
+      <c r="B114" s="10" t="s">
+        <v>450</v>
+      </c>
+      <c r="C114" s="3"/>
+      <c r="D114" s="3" t="s">
+        <v>360</v>
+      </c>
+      <c r="E114" s="3"/>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A115" s="3">
-        <v>1</v>
-      </c>
-      <c r="B115" s="3" t="s">
-        <v>266</v>
-      </c>
-      <c r="C115" s="3"/>
-      <c r="D115" s="3"/>
-      <c r="E115" s="3"/>
+      <c r="A115" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="B115" s="7"/>
+      <c r="C115" s="7"/>
+      <c r="D115" s="7"/>
+      <c r="E115" s="7"/>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A116" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B116" s="3" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="C116" s="3"/>
-      <c r="D116" s="3" t="s">
-        <v>442</v>
-      </c>
+      <c r="D116" s="3"/>
       <c r="E116" s="3"/>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A117" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B117" s="3" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="C117" s="3"/>
       <c r="D117" s="3" t="s">
-        <v>443</v>
+        <v>436</v>
       </c>
       <c r="E117" s="3"/>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A118" s="3">
-        <v>4</v>
-      </c>
-      <c r="B118" s="3" t="s">
-        <v>112</v>
+        <v>3</v>
+      </c>
+      <c r="B118" s="10" t="s">
+        <v>267</v>
       </c>
       <c r="C118" s="3"/>
       <c r="D118" s="3" t="s">
-        <v>391</v>
+        <v>437</v>
       </c>
       <c r="E118" s="3"/>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A119" s="3">
-        <v>5</v>
-      </c>
-      <c r="B119" s="3" t="s">
-        <v>130</v>
+        <v>4</v>
+      </c>
+      <c r="B119" s="10" t="s">
+        <v>111</v>
       </c>
       <c r="C119" s="3"/>
-      <c r="D119" s="3"/>
+      <c r="D119" s="3" t="s">
+        <v>385</v>
+      </c>
       <c r="E119" s="3"/>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A120" s="3">
-        <v>6</v>
-      </c>
-      <c r="B120" s="3" t="s">
-        <v>154</v>
+        <v>5</v>
+      </c>
+      <c r="B120" s="10" t="s">
+        <v>129</v>
       </c>
       <c r="C120" s="3"/>
-      <c r="D120" s="3" t="s">
-        <v>393</v>
-      </c>
+      <c r="D120" s="3"/>
       <c r="E120" s="3"/>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A121" s="3">
-        <v>7</v>
-      </c>
-      <c r="B121" s="3" t="s">
-        <v>155</v>
+        <v>6</v>
+      </c>
+      <c r="B121" s="10" t="s">
+        <v>153</v>
       </c>
       <c r="C121" s="3"/>
       <c r="D121" s="3" t="s">
-        <v>442</v>
+        <v>387</v>
       </c>
       <c r="E121" s="3"/>
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A122" s="3">
-        <v>8</v>
-      </c>
-      <c r="B122" s="3" t="s">
-        <v>405</v>
+        <v>7</v>
+      </c>
+      <c r="B122" s="10" t="s">
+        <v>154</v>
       </c>
       <c r="C122" s="3"/>
       <c r="D122" s="3" t="s">
-        <v>393</v>
+        <v>436</v>
       </c>
       <c r="E122" s="3"/>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A123" s="3">
-        <v>9</v>
-      </c>
-      <c r="B123" s="3" t="s">
-        <v>156</v>
+        <v>8</v>
+      </c>
+      <c r="B123" s="10" t="s">
+        <v>399</v>
       </c>
       <c r="C123" s="3"/>
       <c r="D123" s="3" t="s">
-        <v>393</v>
+        <v>387</v>
       </c>
       <c r="E123" s="3"/>
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A124" s="3">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B124" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C124" s="3"/>
       <c r="D124" s="3"/>
@@ -3769,10 +3817,10 @@
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A125" s="3">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B125" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C125" s="3"/>
       <c r="D125" s="3"/>
@@ -3780,10 +3828,10 @@
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A126" s="3">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B126" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C126" s="3"/>
       <c r="D126" s="3"/>
@@ -3791,10 +3839,10 @@
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A127" s="3">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B127" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C127" s="3"/>
       <c r="D127" s="3"/>
@@ -3802,23 +3850,23 @@
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A128" s="3">
-        <v>14</v>
-      </c>
-      <c r="B128" s="3" t="s">
-        <v>161</v>
+        <v>13</v>
+      </c>
+      <c r="B128" s="10" t="s">
+        <v>160</v>
       </c>
       <c r="C128" s="3"/>
       <c r="D128" s="3" t="s">
-        <v>393</v>
+        <v>387</v>
       </c>
       <c r="E128" s="3"/>
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A129" s="3">
-        <v>15</v>
-      </c>
-      <c r="B129" s="3" t="s">
-        <v>162</v>
+        <v>14</v>
+      </c>
+      <c r="B129" s="10" t="s">
+        <v>161</v>
       </c>
       <c r="C129" s="3"/>
       <c r="D129" s="3"/>
@@ -3826,23 +3874,23 @@
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A130" s="3">
-        <v>16</v>
-      </c>
-      <c r="B130" s="3" t="s">
-        <v>164</v>
+        <v>15</v>
+      </c>
+      <c r="B130" s="10" t="s">
+        <v>163</v>
       </c>
       <c r="C130" s="3"/>
       <c r="D130" s="3" t="s">
-        <v>393</v>
+        <v>387</v>
       </c>
       <c r="E130" s="3"/>
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A131" s="3">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B131" s="3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C131" s="3"/>
       <c r="D131" s="3"/>
@@ -3850,10 +3898,10 @@
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A132" s="3">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B132" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C132" s="3"/>
       <c r="D132" s="3"/>
@@ -3861,10 +3909,10 @@
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A133" s="3">
-        <v>19</v>
-      </c>
-      <c r="B133" s="3" t="s">
-        <v>169</v>
+        <v>18</v>
+      </c>
+      <c r="B133" s="10" t="s">
+        <v>168</v>
       </c>
       <c r="C133" s="3"/>
       <c r="D133" s="3"/>
@@ -3872,23 +3920,23 @@
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A134" s="3">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B134" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C134" s="3"/>
       <c r="D134" s="3" t="s">
-        <v>404</v>
+        <v>398</v>
       </c>
       <c r="E134" s="3"/>
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A135" s="3">
-        <v>21</v>
-      </c>
-      <c r="B135" s="3" t="s">
-        <v>224</v>
+        <v>20</v>
+      </c>
+      <c r="B135" s="10" t="s">
+        <v>223</v>
       </c>
       <c r="C135" s="3"/>
       <c r="D135" s="3"/>
@@ -3896,10 +3944,10 @@
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A136" s="3">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B136" s="3" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C136" s="3"/>
       <c r="D136" s="3"/>
@@ -3907,10 +3955,10 @@
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A137" s="3">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B137" s="3" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C137" s="3"/>
       <c r="D137" s="3"/>
@@ -3918,10 +3966,10 @@
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A138" s="3">
-        <v>24</v>
-      </c>
-      <c r="B138" s="3" t="s">
-        <v>227</v>
+        <v>23</v>
+      </c>
+      <c r="B138" s="10" t="s">
+        <v>226</v>
       </c>
       <c r="C138" s="3"/>
       <c r="D138" s="3"/>
@@ -3929,36 +3977,36 @@
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A139" s="3">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B139" s="3" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C139" s="3"/>
       <c r="D139" s="3" t="s">
-        <v>393</v>
+        <v>387</v>
       </c>
       <c r="E139" s="3"/>
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A140" s="9" t="s">
-        <v>286</v>
-      </c>
-      <c r="B140" s="9"/>
-      <c r="C140" s="9"/>
-      <c r="D140" s="9"/>
-      <c r="E140" s="9"/>
+      <c r="A140" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="B140" s="7"/>
+      <c r="C140" s="7"/>
+      <c r="D140" s="7"/>
+      <c r="E140" s="7"/>
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A141" s="3">
         <v>1</v>
       </c>
-      <c r="B141" s="3" t="s">
-        <v>76</v>
+      <c r="B141" s="10" t="s">
+        <v>75</v>
       </c>
       <c r="C141" s="3"/>
       <c r="D141" s="3" t="s">
-        <v>393</v>
+        <v>387</v>
       </c>
       <c r="E141" s="3"/>
     </row>
@@ -3966,12 +4014,12 @@
       <c r="A142" s="3">
         <v>2</v>
       </c>
-      <c r="B142" s="3" t="s">
-        <v>78</v>
+      <c r="B142" s="10" t="s">
+        <v>77</v>
       </c>
       <c r="C142" s="3"/>
       <c r="D142" s="3" t="s">
-        <v>421</v>
+        <v>415</v>
       </c>
       <c r="E142" s="3"/>
     </row>
@@ -3980,33 +4028,33 @@
         <v>3</v>
       </c>
       <c r="B143" s="3" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C143" s="3"/>
       <c r="D143" s="3" t="s">
-        <v>393</v>
+        <v>387</v>
       </c>
       <c r="E143" s="3"/>
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A144" s="9" t="s">
-        <v>275</v>
-      </c>
-      <c r="B144" s="9"/>
-      <c r="C144" s="9"/>
-      <c r="D144" s="9"/>
-      <c r="E144" s="9"/>
+      <c r="A144" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="B144" s="7"/>
+      <c r="C144" s="7"/>
+      <c r="D144" s="7"/>
+      <c r="E144" s="7"/>
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A145" s="3">
         <v>1</v>
       </c>
-      <c r="B145" s="3" t="s">
-        <v>74</v>
+      <c r="B145" s="10" t="s">
+        <v>73</v>
       </c>
       <c r="C145" s="3"/>
       <c r="D145" s="3" t="s">
-        <v>435</v>
+        <v>429</v>
       </c>
       <c r="E145" s="3"/>
     </row>
@@ -4014,12 +4062,12 @@
       <c r="A146" s="3">
         <v>2</v>
       </c>
-      <c r="B146" s="3" t="s">
-        <v>75</v>
+      <c r="B146" s="10" t="s">
+        <v>74</v>
       </c>
       <c r="C146" s="3"/>
       <c r="D146" s="3" t="s">
-        <v>386</v>
+        <v>380</v>
       </c>
       <c r="E146" s="3"/>
     </row>
@@ -4027,12 +4075,12 @@
       <c r="A147" s="3">
         <v>3</v>
       </c>
-      <c r="B147" s="3" t="s">
-        <v>99</v>
+      <c r="B147" s="10" t="s">
+        <v>98</v>
       </c>
       <c r="C147" s="3"/>
       <c r="D147" s="3" t="s">
-        <v>393</v>
+        <v>387</v>
       </c>
       <c r="E147" s="3"/>
     </row>
@@ -4041,11 +4089,11 @@
         <v>4</v>
       </c>
       <c r="B148" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C148" s="3"/>
       <c r="D148" s="3" t="s">
-        <v>393</v>
+        <v>387</v>
       </c>
       <c r="E148" s="3"/>
     </row>
@@ -4053,8 +4101,8 @@
       <c r="A149" s="3">
         <v>5</v>
       </c>
-      <c r="B149" s="3" t="s">
-        <v>241</v>
+      <c r="B149" s="10" t="s">
+        <v>240</v>
       </c>
       <c r="C149" s="3"/>
       <c r="D149" s="3"/>
@@ -4064,12 +4112,12 @@
       <c r="A150" s="3">
         <v>6</v>
       </c>
-      <c r="B150" s="3" t="s">
-        <v>424</v>
+      <c r="B150" s="10" t="s">
+        <v>418</v>
       </c>
       <c r="C150" s="3"/>
       <c r="D150" s="3" t="s">
-        <v>426</v>
+        <v>420</v>
       </c>
       <c r="E150" s="3"/>
     </row>
@@ -4077,8 +4125,8 @@
       <c r="A151" s="3">
         <v>7</v>
       </c>
-      <c r="B151" s="3" t="s">
-        <v>425</v>
+      <c r="B151" s="10" t="s">
+        <v>419</v>
       </c>
       <c r="C151" s="3"/>
       <c r="D151" s="3"/>
@@ -4089,7 +4137,7 @@
         <v>8</v>
       </c>
       <c r="B152" s="3" t="s">
-        <v>447</v>
+        <v>439</v>
       </c>
       <c r="C152" s="3"/>
       <c r="D152" s="3"/>
@@ -4099,197 +4147,199 @@
       <c r="A153" s="3">
         <v>9</v>
       </c>
-      <c r="B153" s="3" t="s">
-        <v>448</v>
+      <c r="B153" s="10" t="s">
+        <v>440</v>
       </c>
       <c r="C153" s="3"/>
       <c r="D153" s="3"/>
       <c r="E153" s="3"/>
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A154" s="3">
-        <v>10</v>
-      </c>
-      <c r="B154" s="3"/>
-      <c r="C154" s="3"/>
-      <c r="D154" s="3"/>
-      <c r="E154" s="3"/>
+      <c r="A154" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="B154" s="7"/>
+      <c r="C154" s="7"/>
+      <c r="D154" s="7"/>
+      <c r="E154" s="7"/>
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A155" s="9" t="s">
-        <v>276</v>
-      </c>
-      <c r="B155" s="9"/>
-      <c r="C155" s="9"/>
-      <c r="D155" s="9"/>
-      <c r="E155" s="9"/>
+      <c r="A155" s="3">
+        <v>1</v>
+      </c>
+      <c r="B155" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="C155" s="3"/>
+      <c r="D155" s="3" t="s">
+        <v>380</v>
+      </c>
+      <c r="E155" s="3"/>
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A156" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B156" s="3" t="s">
-        <v>79</v>
+        <v>120</v>
       </c>
       <c r="C156" s="3"/>
       <c r="D156" s="3" t="s">
-        <v>386</v>
+        <v>380</v>
       </c>
       <c r="E156" s="3"/>
     </row>
     <row r="157" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A157" s="3">
-        <v>2</v>
-      </c>
-      <c r="B157" s="3" t="s">
-        <v>121</v>
+        <v>3</v>
+      </c>
+      <c r="B157" s="10" t="s">
+        <v>79</v>
       </c>
       <c r="C157" s="3"/>
       <c r="D157" s="3" t="s">
-        <v>386</v>
+        <v>404</v>
       </c>
       <c r="E157" s="3"/>
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A158" s="3">
-        <v>3</v>
-      </c>
-      <c r="B158" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B158" s="10" t="s">
         <v>80</v>
       </c>
       <c r="C158" s="3"/>
       <c r="D158" s="3" t="s">
-        <v>410</v>
+        <v>403</v>
       </c>
       <c r="E158" s="3"/>
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A159" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B159" s="3" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="C159" s="3"/>
       <c r="D159" s="3" t="s">
-        <v>409</v>
+        <v>380</v>
       </c>
       <c r="E159" s="3"/>
     </row>
     <row r="160" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A160" s="3">
-        <v>5</v>
-      </c>
-      <c r="B160" s="3" t="s">
-        <v>88</v>
+        <v>6</v>
+      </c>
+      <c r="B160" s="10" t="s">
+        <v>286</v>
       </c>
       <c r="C160" s="3"/>
       <c r="D160" s="3" t="s">
-        <v>386</v>
+        <v>379</v>
       </c>
       <c r="E160" s="3"/>
     </row>
     <row r="161" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A161" s="3">
-        <v>6</v>
-      </c>
-      <c r="B161" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B161" s="10" t="s">
         <v>287</v>
       </c>
       <c r="C161" s="3"/>
       <c r="D161" s="3" t="s">
-        <v>385</v>
+        <v>402</v>
       </c>
       <c r="E161" s="3"/>
     </row>
     <row r="162" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A162" s="3">
-        <v>7</v>
-      </c>
-      <c r="B162" s="3" t="s">
-        <v>288</v>
+        <v>8</v>
+      </c>
+      <c r="B162" s="10" t="s">
+        <v>400</v>
       </c>
       <c r="C162" s="3"/>
       <c r="D162" s="3" t="s">
-        <v>408</v>
+        <v>401</v>
       </c>
       <c r="E162" s="3"/>
     </row>
     <row r="163" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A163" s="3">
-        <v>8</v>
-      </c>
-      <c r="B163" s="3" t="s">
-        <v>406</v>
-      </c>
-      <c r="C163" s="3"/>
-      <c r="D163" s="3" t="s">
-        <v>407</v>
-      </c>
-      <c r="E163" s="3"/>
+      <c r="A163" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="B163" s="7"/>
+      <c r="C163" s="7"/>
+      <c r="D163" s="7"/>
+      <c r="E163" s="7"/>
     </row>
     <row r="164" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A164" s="9" t="s">
-        <v>277</v>
-      </c>
-      <c r="B164" s="9"/>
-      <c r="C164" s="9"/>
-      <c r="D164" s="9"/>
-      <c r="E164" s="9"/>
+      <c r="A164" s="3">
+        <v>1</v>
+      </c>
+      <c r="B164" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="C164" s="3"/>
+      <c r="D164" s="3" t="s">
+        <v>405</v>
+      </c>
+      <c r="E164" s="3"/>
     </row>
     <row r="165" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A165" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B165" s="3" t="s">
-        <v>113</v>
+        <v>249</v>
       </c>
       <c r="C165" s="3"/>
       <c r="D165" s="3" t="s">
-        <v>411</v>
+        <v>398</v>
       </c>
       <c r="E165" s="3"/>
     </row>
     <row r="166" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A166" s="3">
-        <v>2</v>
-      </c>
-      <c r="B166" s="3" t="s">
-        <v>250</v>
+        <v>3</v>
+      </c>
+      <c r="B166" s="10" t="s">
+        <v>268</v>
       </c>
       <c r="C166" s="3"/>
       <c r="D166" s="3" t="s">
-        <v>404</v>
+        <v>398</v>
       </c>
       <c r="E166" s="3"/>
     </row>
     <row r="167" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A167" s="3">
-        <v>3</v>
-      </c>
-      <c r="B167" s="3" t="s">
-        <v>269</v>
-      </c>
-      <c r="C167" s="3"/>
-      <c r="D167" s="3" t="s">
-        <v>404</v>
-      </c>
-      <c r="E167" s="3"/>
+      <c r="A167" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="B167" s="7"/>
+      <c r="C167" s="7"/>
+      <c r="D167" s="7"/>
+      <c r="E167" s="7"/>
     </row>
     <row r="168" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A168" s="9" t="s">
-        <v>278</v>
-      </c>
-      <c r="B168" s="9"/>
-      <c r="C168" s="9"/>
-      <c r="D168" s="9"/>
-      <c r="E168" s="9"/>
+      <c r="A168" s="3">
+        <v>1</v>
+      </c>
+      <c r="B168" s="12" t="s">
+        <v>233</v>
+      </c>
+      <c r="C168" s="3"/>
+      <c r="D168" s="3"/>
+      <c r="E168" s="3"/>
     </row>
     <row r="169" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A169" s="3">
-        <v>1</v>
-      </c>
-      <c r="B169" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B169" s="12" t="s">
         <v>234</v>
       </c>
       <c r="C169" s="3"/>
@@ -4298,47 +4348,47 @@
     </row>
     <row r="170" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A170" s="3">
-        <v>2</v>
-      </c>
-      <c r="B170" s="4" t="s">
-        <v>235</v>
+        <v>3</v>
+      </c>
+      <c r="B170" s="12" t="s">
+        <v>48</v>
       </c>
       <c r="C170" s="3"/>
-      <c r="D170" s="3"/>
+      <c r="D170" s="3" t="s">
+        <v>379</v>
+      </c>
       <c r="E170" s="3"/>
     </row>
     <row r="171" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A171" s="3">
-        <v>3</v>
-      </c>
-      <c r="B171" s="4" t="s">
-        <v>48</v>
+        <v>4</v>
+      </c>
+      <c r="B171" s="10" t="s">
+        <v>115</v>
       </c>
       <c r="C171" s="3"/>
       <c r="D171" s="3" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="E171" s="3"/>
     </row>
     <row r="172" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A172" s="3">
-        <v>4</v>
-      </c>
-      <c r="B172" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B172" s="10" t="s">
         <v>116</v>
       </c>
       <c r="C172" s="3"/>
-      <c r="D172" s="3" t="s">
-        <v>393</v>
-      </c>
+      <c r="D172" s="3"/>
       <c r="E172" s="3"/>
     </row>
     <row r="173" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A173" s="3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B173" s="3" t="s">
-        <v>117</v>
+        <v>141</v>
       </c>
       <c r="C173" s="3"/>
       <c r="D173" s="3"/>
@@ -4346,44 +4396,44 @@
     </row>
     <row r="174" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A174" s="3">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B174" s="3" t="s">
         <v>142</v>
       </c>
       <c r="C174" s="3"/>
-      <c r="D174" s="3"/>
+      <c r="D174" s="3" t="s">
+        <v>387</v>
+      </c>
       <c r="E174" s="3"/>
     </row>
     <row r="175" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A175" s="3">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B175" s="3" t="s">
         <v>143</v>
       </c>
       <c r="C175" s="3"/>
       <c r="D175" s="3" t="s">
-        <v>393</v>
+        <v>387</v>
       </c>
       <c r="E175" s="3"/>
     </row>
     <row r="176" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A176" s="3">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B176" s="3" t="s">
         <v>144</v>
       </c>
       <c r="C176" s="3"/>
-      <c r="D176" s="3" t="s">
-        <v>393</v>
-      </c>
+      <c r="D176" s="3"/>
       <c r="E176" s="3"/>
     </row>
     <row r="177" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A177" s="3">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B177" s="3" t="s">
         <v>145</v>
@@ -4394,44 +4444,44 @@
     </row>
     <row r="178" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A178" s="3">
-        <v>10</v>
-      </c>
-      <c r="B178" s="3" t="s">
-        <v>146</v>
+        <v>11</v>
+      </c>
+      <c r="B178" s="10" t="s">
+        <v>166</v>
       </c>
       <c r="C178" s="3"/>
-      <c r="D178" s="3"/>
+      <c r="D178" s="3" t="s">
+        <v>387</v>
+      </c>
       <c r="E178" s="3"/>
     </row>
     <row r="179" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A179" s="3">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B179" s="3" t="s">
         <v>167</v>
       </c>
       <c r="C179" s="3"/>
       <c r="D179" s="3" t="s">
-        <v>393</v>
+        <v>406</v>
       </c>
       <c r="E179" s="3"/>
     </row>
     <row r="180" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A180" s="3">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B180" s="3" t="s">
-        <v>168</v>
+        <v>209</v>
       </c>
       <c r="C180" s="3"/>
-      <c r="D180" s="3" t="s">
-        <v>412</v>
-      </c>
+      <c r="D180" s="3"/>
       <c r="E180" s="3"/>
     </row>
     <row r="181" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A181" s="3">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B181" s="3" t="s">
         <v>210</v>
@@ -4442,7 +4492,7 @@
     </row>
     <row r="182" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A182" s="3">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B182" s="3" t="s">
         <v>211</v>
@@ -4453,44 +4503,44 @@
     </row>
     <row r="183" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A183" s="3">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B183" s="3" t="s">
         <v>212</v>
       </c>
       <c r="C183" s="3"/>
-      <c r="D183" s="3"/>
+      <c r="D183" s="3" t="s">
+        <v>387</v>
+      </c>
       <c r="E183" s="3"/>
     </row>
     <row r="184" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A184" s="3">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B184" s="3" t="s">
         <v>213</v>
       </c>
       <c r="C184" s="3"/>
       <c r="D184" s="3" t="s">
-        <v>393</v>
+        <v>387</v>
       </c>
       <c r="E184" s="3"/>
     </row>
     <row r="185" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A185" s="3">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B185" s="3" t="s">
         <v>214</v>
       </c>
       <c r="C185" s="3"/>
-      <c r="D185" s="3" t="s">
-        <v>393</v>
-      </c>
+      <c r="D185" s="3"/>
       <c r="E185" s="3"/>
     </row>
     <row r="186" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A186" s="3">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B186" s="3" t="s">
         <v>215</v>
@@ -4501,58 +4551,58 @@
     </row>
     <row r="187" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A187" s="3">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B187" s="3" t="s">
         <v>216</v>
       </c>
       <c r="C187" s="3"/>
-      <c r="D187" s="3"/>
+      <c r="D187" s="3" t="s">
+        <v>387</v>
+      </c>
       <c r="E187" s="3"/>
     </row>
     <row r="188" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A188" s="3">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B188" s="3" t="s">
         <v>217</v>
       </c>
       <c r="C188" s="3"/>
-      <c r="D188" s="3" t="s">
-        <v>393</v>
-      </c>
+      <c r="D188" s="3"/>
       <c r="E188" s="3"/>
     </row>
     <row r="189" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A189" s="3">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B189" s="3" t="s">
         <v>218</v>
       </c>
       <c r="C189" s="3"/>
-      <c r="D189" s="3"/>
+      <c r="D189" s="3" t="s">
+        <v>387</v>
+      </c>
       <c r="E189" s="3"/>
     </row>
     <row r="190" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A190" s="3">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B190" s="3" t="s">
         <v>219</v>
       </c>
       <c r="C190" s="3"/>
-      <c r="D190" s="3" t="s">
-        <v>393</v>
-      </c>
+      <c r="D190" s="3"/>
       <c r="E190" s="3"/>
     </row>
     <row r="191" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A191" s="3">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B191" s="3" t="s">
-        <v>220</v>
+        <v>228</v>
       </c>
       <c r="C191" s="3"/>
       <c r="D191" s="3"/>
@@ -4560,138 +4610,138 @@
     </row>
     <row r="192" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A192" s="3">
-        <v>24</v>
-      </c>
-      <c r="B192" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B192" s="10" t="s">
         <v>229</v>
       </c>
       <c r="C192" s="3"/>
-      <c r="D192" s="3"/>
+      <c r="D192" s="3" t="s">
+        <v>407</v>
+      </c>
       <c r="E192" s="3"/>
     </row>
     <row r="193" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A193" s="3">
-        <v>25</v>
-      </c>
-      <c r="B193" s="3" t="s">
-        <v>230</v>
-      </c>
-      <c r="C193" s="3"/>
-      <c r="D193" s="3" t="s">
-        <v>413</v>
-      </c>
-      <c r="E193" s="3"/>
+      <c r="A193" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="B193" s="7"/>
+      <c r="C193" s="7"/>
+      <c r="D193" s="7"/>
+      <c r="E193" s="7"/>
     </row>
     <row r="194" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A194" s="9" t="s">
-        <v>279</v>
-      </c>
-      <c r="B194" s="9"/>
-      <c r="C194" s="9"/>
-      <c r="D194" s="9"/>
-      <c r="E194" s="9"/>
+      <c r="A194" s="3">
+        <v>1</v>
+      </c>
+      <c r="B194" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C194" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D194" s="3" t="s">
+        <v>408</v>
+      </c>
+      <c r="E194" s="3"/>
     </row>
     <row r="195" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A195" s="3">
+        <v>2</v>
+      </c>
+      <c r="B195" s="3" t="s">
         <v>1</v>
-      </c>
-      <c r="B195" s="3" t="s">
-        <v>0</v>
       </c>
       <c r="C195" s="3" t="s">
         <v>20</v>
       </c>
       <c r="D195" s="3" t="s">
-        <v>414</v>
+        <v>407</v>
       </c>
       <c r="E195" s="3"/>
     </row>
     <row r="196" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A196" s="3">
+        <v>3</v>
+      </c>
+      <c r="B196" s="3" t="s">
         <v>2</v>
-      </c>
-      <c r="B196" s="3" t="s">
-        <v>1</v>
       </c>
       <c r="C196" s="3" t="s">
         <v>20</v>
       </c>
       <c r="D196" s="3" t="s">
-        <v>413</v>
+        <v>407</v>
       </c>
       <c r="E196" s="3"/>
     </row>
     <row r="197" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A197" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B197" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C197" s="3" t="s">
-        <v>20</v>
-      </c>
+        <v>113</v>
+      </c>
+      <c r="C197" s="3"/>
       <c r="D197" s="3" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="E197" s="3"/>
     </row>
     <row r="198" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A198" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B198" s="3" t="s">
         <v>114</v>
       </c>
       <c r="C198" s="3"/>
-      <c r="D198" s="3" t="s">
-        <v>415</v>
-      </c>
+      <c r="D198" s="3"/>
       <c r="E198" s="3"/>
     </row>
     <row r="199" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A199" s="3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B199" s="3" t="s">
-        <v>115</v>
+        <v>91</v>
       </c>
       <c r="C199" s="3"/>
-      <c r="D199" s="3"/>
+      <c r="D199" s="3" t="s">
+        <v>407</v>
+      </c>
       <c r="E199" s="3"/>
     </row>
     <row r="200" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A200" s="3">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B200" s="3" t="s">
         <v>92</v>
       </c>
       <c r="C200" s="3"/>
       <c r="D200" s="3" t="s">
-        <v>413</v>
+        <v>408</v>
       </c>
       <c r="E200" s="3"/>
     </row>
     <row r="201" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A201" s="3">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B201" s="3" t="s">
-        <v>93</v>
+        <v>3</v>
       </c>
       <c r="C201" s="3"/>
-      <c r="D201" s="3" t="s">
-        <v>414</v>
-      </c>
+      <c r="D201" s="3"/>
       <c r="E201" s="3"/>
     </row>
     <row r="202" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A202" s="3">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B202" s="3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C202" s="3"/>
       <c r="D202" s="3"/>
@@ -4699,214 +4749,216 @@
     </row>
     <row r="203" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A203" s="3">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B203" s="3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C203" s="3"/>
-      <c r="D203" s="3"/>
+      <c r="D203" s="3" t="s">
+        <v>385</v>
+      </c>
       <c r="E203" s="3"/>
     </row>
     <row r="204" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A204" s="3">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B204" s="3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C204" s="3"/>
       <c r="D204" s="3" t="s">
-        <v>391</v>
+        <v>410</v>
       </c>
       <c r="E204" s="3"/>
     </row>
     <row r="205" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A205" s="3">
-        <v>11</v>
-      </c>
-      <c r="B205" s="3" t="s">
-        <v>6</v>
+        <v>12</v>
+      </c>
+      <c r="B205" s="10" t="s">
+        <v>7</v>
       </c>
       <c r="C205" s="3"/>
       <c r="D205" s="3" t="s">
-        <v>416</v>
+        <v>411</v>
       </c>
       <c r="E205" s="3"/>
     </row>
     <row r="206" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A206" s="3">
-        <v>12</v>
-      </c>
-      <c r="B206" s="3" t="s">
-        <v>7</v>
+        <v>13</v>
+      </c>
+      <c r="B206" s="10" t="s">
+        <v>117</v>
       </c>
       <c r="C206" s="3"/>
       <c r="D206" s="3" t="s">
-        <v>417</v>
+        <v>411</v>
       </c>
       <c r="E206" s="3"/>
     </row>
     <row r="207" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A207" s="3">
-        <v>13</v>
-      </c>
-      <c r="B207" s="3" t="s">
-        <v>118</v>
+        <v>14</v>
+      </c>
+      <c r="B207" s="10" t="s">
+        <v>200</v>
       </c>
       <c r="C207" s="3"/>
       <c r="D207" s="3" t="s">
-        <v>417</v>
+        <v>398</v>
       </c>
       <c r="E207" s="3"/>
     </row>
     <row r="208" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A208" s="3">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B208" s="3" t="s">
         <v>201</v>
       </c>
       <c r="C208" s="3"/>
       <c r="D208" s="3" t="s">
-        <v>404</v>
+        <v>398</v>
       </c>
       <c r="E208" s="3"/>
     </row>
     <row r="209" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A209" s="3">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B209" s="3" t="s">
         <v>202</v>
       </c>
       <c r="C209" s="3"/>
-      <c r="D209" s="3" t="s">
-        <v>404</v>
-      </c>
+      <c r="D209" s="3"/>
       <c r="E209" s="3"/>
     </row>
     <row r="210" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A210" s="3">
-        <v>16</v>
-      </c>
-      <c r="B210" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B210" s="10" t="s">
         <v>203</v>
       </c>
       <c r="C210" s="3"/>
-      <c r="D210" s="3"/>
+      <c r="D210" s="3" t="s">
+        <v>408</v>
+      </c>
       <c r="E210" s="3"/>
     </row>
     <row r="211" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A211" s="3">
-        <v>17</v>
-      </c>
-      <c r="B211" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B211" s="10" t="s">
         <v>204</v>
       </c>
       <c r="C211" s="3"/>
       <c r="D211" s="3" t="s">
-        <v>414</v>
+        <v>408</v>
       </c>
       <c r="E211" s="3"/>
     </row>
     <row r="212" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A212" s="3">
-        <v>18</v>
-      </c>
-      <c r="B212" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B212" s="10" t="s">
         <v>205</v>
       </c>
       <c r="C212" s="3"/>
       <c r="D212" s="3" t="s">
-        <v>414</v>
+        <v>408</v>
       </c>
       <c r="E212" s="3"/>
     </row>
     <row r="213" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A213" s="3">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B213" s="3" t="s">
         <v>206</v>
       </c>
       <c r="C213" s="3"/>
       <c r="D213" s="3" t="s">
-        <v>414</v>
+        <v>408</v>
       </c>
       <c r="E213" s="3"/>
     </row>
     <row r="214" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A214" s="3">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B214" s="3" t="s">
         <v>207</v>
       </c>
       <c r="C214" s="3"/>
-      <c r="D214" s="3" t="s">
-        <v>414</v>
-      </c>
+      <c r="D214" s="3"/>
       <c r="E214" s="3"/>
     </row>
     <row r="215" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A215" s="3">
-        <v>21</v>
-      </c>
-      <c r="B215" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B215" s="10" t="s">
         <v>208</v>
       </c>
       <c r="C215" s="3"/>
-      <c r="D215" s="3"/>
+      <c r="D215" s="3" t="s">
+        <v>408</v>
+      </c>
       <c r="E215" s="3"/>
     </row>
     <row r="216" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A216" s="3">
-        <v>22</v>
-      </c>
-      <c r="B216" s="3" t="s">
-        <v>209</v>
+        <v>23</v>
+      </c>
+      <c r="B216" s="10" t="s">
+        <v>457</v>
       </c>
       <c r="C216" s="3"/>
       <c r="D216" s="3" t="s">
-        <v>414</v>
+        <v>360</v>
       </c>
       <c r="E216" s="3"/>
     </row>
     <row r="217" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A217" s="9" t="s">
-        <v>280</v>
-      </c>
-      <c r="B217" s="9"/>
-      <c r="C217" s="9"/>
-      <c r="D217" s="9"/>
-      <c r="E217" s="9"/>
+      <c r="A217" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="B217" s="7"/>
+      <c r="C217" s="7"/>
+      <c r="D217" s="7"/>
+      <c r="E217" s="7"/>
     </row>
     <row r="218" spans="1:5" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A218" s="3">
         <v>1</v>
       </c>
-      <c r="B218" s="3" t="s">
+      <c r="B218" s="10" t="s">
         <v>33</v>
       </c>
       <c r="C218" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D218" s="3"/>
       <c r="E218" s="5" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="219" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A219" s="3">
         <v>2</v>
       </c>
-      <c r="B219" s="3" t="s">
+      <c r="B219" s="10" t="s">
         <v>34</v>
       </c>
       <c r="C219" s="3"/>
       <c r="D219" s="3" t="s">
-        <v>393</v>
+        <v>387</v>
       </c>
       <c r="E219" s="5"/>
     </row>
@@ -4919,7 +4971,7 @@
       </c>
       <c r="C220" s="3"/>
       <c r="D220" s="3" t="s">
-        <v>393</v>
+        <v>387</v>
       </c>
       <c r="E220" s="5"/>
     </row>
@@ -4932,7 +4984,7 @@
       </c>
       <c r="C221" s="3"/>
       <c r="D221" s="3" t="s">
-        <v>393</v>
+        <v>387</v>
       </c>
       <c r="E221" s="5"/>
     </row>
@@ -4945,7 +4997,7 @@
       </c>
       <c r="C222" s="3"/>
       <c r="D222" s="3" t="s">
-        <v>393</v>
+        <v>387</v>
       </c>
       <c r="E222" s="5"/>
     </row>
@@ -4958,25 +5010,25 @@
       </c>
       <c r="C223" s="3"/>
       <c r="D223" s="3" t="s">
-        <v>393</v>
+        <v>387</v>
       </c>
       <c r="E223" s="5" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="224" spans="1:5" ht="33" x14ac:dyDescent="0.3">
       <c r="A224" s="3">
         <v>7</v>
       </c>
-      <c r="B224" s="3" t="s">
+      <c r="B224" s="10" t="s">
         <v>30</v>
       </c>
       <c r="C224" s="3"/>
       <c r="D224" s="3" t="s">
-        <v>404</v>
+        <v>398</v>
       </c>
       <c r="E224" s="5" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="225" spans="1:5" ht="33" x14ac:dyDescent="0.3">
@@ -4988,35 +5040,35 @@
       </c>
       <c r="C225" s="3"/>
       <c r="D225" s="3" t="s">
-        <v>416</v>
+        <v>410</v>
       </c>
       <c r="E225" s="5" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="226" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A226" s="3">
         <v>9</v>
       </c>
-      <c r="B226" s="3" t="s">
+      <c r="B226" s="10" t="s">
         <v>32</v>
       </c>
       <c r="C226" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D226" s="3" t="s">
-        <v>404</v>
+        <v>398</v>
       </c>
       <c r="E226" s="5" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="227" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A227" s="3">
         <v>10</v>
       </c>
-      <c r="B227" s="3" t="s">
-        <v>122</v>
+      <c r="B227" s="10" t="s">
+        <v>121</v>
       </c>
       <c r="C227" s="3"/>
       <c r="D227" s="3"/>
@@ -5026,8 +5078,8 @@
       <c r="A228" s="3">
         <v>11</v>
       </c>
-      <c r="B228" s="3" t="s">
-        <v>236</v>
+      <c r="B228" s="10" t="s">
+        <v>235</v>
       </c>
       <c r="C228" s="3"/>
       <c r="D228" s="3"/>
@@ -5037,8 +5089,8 @@
       <c r="A229" s="3">
         <v>12</v>
       </c>
-      <c r="B229" s="3" t="s">
-        <v>237</v>
+      <c r="B229" s="10" t="s">
+        <v>236</v>
       </c>
       <c r="C229" s="3"/>
       <c r="D229" s="3"/>
@@ -5049,20 +5101,20 @@
         <v>13</v>
       </c>
       <c r="B230" s="3" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C230" s="3"/>
       <c r="D230" s="3"/>
       <c r="E230" s="3"/>
     </row>
     <row r="231" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A231" s="9" t="s">
-        <v>281</v>
-      </c>
-      <c r="B231" s="9"/>
-      <c r="C231" s="9"/>
-      <c r="D231" s="9"/>
-      <c r="E231" s="9"/>
+      <c r="A231" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="B231" s="7"/>
+      <c r="C231" s="7"/>
+      <c r="D231" s="7"/>
+      <c r="E231" s="7"/>
     </row>
     <row r="232" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A232" s="3">
@@ -5073,7 +5125,7 @@
       </c>
       <c r="C232" s="3"/>
       <c r="D232" s="3" t="s">
-        <v>386</v>
+        <v>380</v>
       </c>
       <c r="E232" s="3"/>
     </row>
@@ -5081,12 +5133,12 @@
       <c r="A233" s="3">
         <v>2</v>
       </c>
-      <c r="B233" s="3" t="s">
-        <v>105</v>
+      <c r="B233" s="10" t="s">
+        <v>104</v>
       </c>
       <c r="C233" s="3"/>
       <c r="D233" s="3" t="s">
-        <v>386</v>
+        <v>380</v>
       </c>
       <c r="E233" s="3"/>
     </row>
@@ -5094,8 +5146,8 @@
       <c r="A234" s="3">
         <v>3</v>
       </c>
-      <c r="B234" s="3" t="s">
-        <v>253</v>
+      <c r="B234" s="10" t="s">
+        <v>252</v>
       </c>
       <c r="C234" s="3"/>
       <c r="D234" s="3"/>
@@ -5106,11 +5158,11 @@
         <v>4</v>
       </c>
       <c r="B235" s="3" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C235" s="3"/>
       <c r="D235" s="3" t="s">
-        <v>404</v>
+        <v>398</v>
       </c>
       <c r="E235" s="3"/>
     </row>
@@ -5119,89 +5171,99 @@
         <v>5</v>
       </c>
       <c r="B236" s="3" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C236" s="3"/>
       <c r="D236" s="3" t="s">
-        <v>404</v>
+        <v>398</v>
       </c>
       <c r="E236" s="3"/>
     </row>
     <row r="237" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A237" s="9" t="s">
-        <v>282</v>
-      </c>
-      <c r="B237" s="9"/>
-      <c r="C237" s="9"/>
-      <c r="D237" s="9"/>
-      <c r="E237" s="9"/>
+      <c r="A237" s="3">
+        <v>6</v>
+      </c>
+      <c r="B237" s="10" t="s">
+        <v>447</v>
+      </c>
+      <c r="C237" s="3"/>
+      <c r="D237" s="3" t="s">
+        <v>445</v>
+      </c>
+      <c r="E237" s="3"/>
     </row>
     <row r="238" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A238" s="3">
-        <v>1</v>
-      </c>
-      <c r="B238" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C238" s="3"/>
-      <c r="D238" s="3"/>
+        <v>7</v>
+      </c>
+      <c r="B238" s="10" t="s">
+        <v>451</v>
+      </c>
+      <c r="C238" s="3" t="s">
+        <v>452</v>
+      </c>
+      <c r="D238" s="3" t="s">
+        <v>453</v>
+      </c>
       <c r="E238" s="3"/>
     </row>
     <row r="239" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A239" s="3">
-        <v>2</v>
-      </c>
-      <c r="B239" s="3" t="s">
-        <v>13</v>
+        <v>8</v>
+      </c>
+      <c r="B239" s="10" t="s">
+        <v>454</v>
       </c>
       <c r="C239" s="3"/>
-      <c r="D239" s="3"/>
+      <c r="D239" s="3" t="s">
+        <v>360</v>
+      </c>
       <c r="E239" s="3"/>
     </row>
     <row r="240" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A240" s="3">
-        <v>3</v>
-      </c>
-      <c r="B240" s="3" t="s">
-        <v>14</v>
+        <v>9</v>
+      </c>
+      <c r="B240" s="10" t="s">
+        <v>455</v>
       </c>
       <c r="C240" s="3"/>
-      <c r="D240" s="3"/>
+      <c r="D240" s="3" t="s">
+        <v>360</v>
+      </c>
       <c r="E240" s="3"/>
     </row>
     <row r="241" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A241" s="3">
-        <v>4</v>
-      </c>
-      <c r="B241" s="3" t="s">
-        <v>15</v>
+        <v>10</v>
+      </c>
+      <c r="B241" s="11" t="s">
+        <v>456</v>
       </c>
       <c r="C241" s="3"/>
       <c r="D241" s="3" t="s">
-        <v>418</v>
+        <v>360</v>
       </c>
       <c r="E241" s="3"/>
     </row>
     <row r="242" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A242" s="9" t="s">
-        <v>283</v>
-      </c>
-      <c r="B242" s="9"/>
-      <c r="C242" s="9"/>
-      <c r="D242" s="9"/>
-      <c r="E242" s="9"/>
+      <c r="A242" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="B242" s="7"/>
+      <c r="C242" s="7"/>
+      <c r="D242" s="7"/>
+      <c r="E242" s="7"/>
     </row>
     <row r="243" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A243" s="3">
         <v>1</v>
       </c>
       <c r="B243" s="3" t="s">
-        <v>251</v>
+        <v>12</v>
       </c>
       <c r="C243" s="3"/>
-      <c r="D243" s="3" t="s">
-        <v>393</v>
-      </c>
+      <c r="D243" s="3"/>
       <c r="E243" s="3"/>
     </row>
     <row r="244" spans="1:5" x14ac:dyDescent="0.3">
@@ -5209,12 +5271,10 @@
         <v>2</v>
       </c>
       <c r="B244" s="3" t="s">
-        <v>252</v>
+        <v>13</v>
       </c>
       <c r="C244" s="3"/>
-      <c r="D244" s="3" t="s">
-        <v>393</v>
-      </c>
+      <c r="D244" s="3"/>
       <c r="E244" s="3"/>
     </row>
     <row r="245" spans="1:5" x14ac:dyDescent="0.3">
@@ -5222,12 +5282,10 @@
         <v>3</v>
       </c>
       <c r="B245" s="3" t="s">
-        <v>256</v>
+        <v>14</v>
       </c>
       <c r="C245" s="3"/>
-      <c r="D245" s="3" t="s">
-        <v>391</v>
-      </c>
+      <c r="D245" s="3"/>
       <c r="E245" s="3"/>
     </row>
     <row r="246" spans="1:5" x14ac:dyDescent="0.3">
@@ -5235,142 +5293,144 @@
         <v>4</v>
       </c>
       <c r="B246" s="3" t="s">
-        <v>257</v>
+        <v>15</v>
       </c>
       <c r="C246" s="3"/>
-      <c r="D246" s="3"/>
+      <c r="D246" s="3" t="s">
+        <v>412</v>
+      </c>
       <c r="E246" s="3"/>
     </row>
     <row r="247" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A247" s="3">
-        <v>5</v>
-      </c>
-      <c r="B247" s="3" t="s">
-        <v>258</v>
-      </c>
-      <c r="C247" s="3"/>
-      <c r="D247" s="3" t="s">
-        <v>393</v>
-      </c>
-      <c r="E247" s="3"/>
+      <c r="A247" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="B247" s="7"/>
+      <c r="C247" s="7"/>
+      <c r="D247" s="7"/>
+      <c r="E247" s="7"/>
     </row>
     <row r="248" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A248" s="3">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B248" s="3" t="s">
-        <v>259</v>
+        <v>250</v>
       </c>
       <c r="C248" s="3"/>
       <c r="D248" s="3" t="s">
-        <v>393</v>
+        <v>387</v>
       </c>
       <c r="E248" s="3"/>
     </row>
     <row r="249" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A249" s="3">
-        <v>7</v>
-      </c>
-      <c r="B249" s="3" t="s">
-        <v>260</v>
+        <v>2</v>
+      </c>
+      <c r="B249" s="10" t="s">
+        <v>251</v>
       </c>
       <c r="C249" s="3"/>
       <c r="D249" s="3" t="s">
-        <v>393</v>
+        <v>387</v>
       </c>
       <c r="E249" s="3"/>
     </row>
     <row r="250" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A250" s="3">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="B250" s="3" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="C250" s="3"/>
       <c r="D250" s="3" t="s">
-        <v>393</v>
+        <v>385</v>
       </c>
       <c r="E250" s="3"/>
     </row>
     <row r="251" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A251" s="3">
-        <v>9</v>
-      </c>
-      <c r="B251" s="3" t="s">
-        <v>262</v>
+        <v>4</v>
+      </c>
+      <c r="B251" s="10" t="s">
+        <v>256</v>
       </c>
       <c r="C251" s="3"/>
-      <c r="D251" s="3" t="s">
-        <v>393</v>
-      </c>
+      <c r="D251" s="3"/>
       <c r="E251" s="3"/>
     </row>
     <row r="252" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A252" s="3">
-        <v>10</v>
-      </c>
-      <c r="B252" s="3" t="s">
-        <v>263</v>
+        <v>5</v>
+      </c>
+      <c r="B252" s="10" t="s">
+        <v>257</v>
       </c>
       <c r="C252" s="3"/>
-      <c r="D252" s="3"/>
+      <c r="D252" s="3" t="s">
+        <v>387</v>
+      </c>
       <c r="E252" s="3"/>
     </row>
     <row r="253" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A253" s="3">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B253" s="3" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="C253" s="3"/>
       <c r="D253" s="3" t="s">
-        <v>393</v>
+        <v>387</v>
       </c>
       <c r="E253" s="3"/>
     </row>
     <row r="254" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A254" s="3">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="B254" s="3" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="C254" s="3"/>
       <c r="D254" s="3" t="s">
-        <v>393</v>
+        <v>387</v>
       </c>
       <c r="E254" s="3"/>
     </row>
     <row r="255" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A255" s="9" t="s">
-        <v>284</v>
-      </c>
-      <c r="B255" s="9"/>
-      <c r="C255" s="9"/>
-      <c r="D255" s="9"/>
-      <c r="E255" s="9"/>
+      <c r="A255" s="3">
+        <v>8</v>
+      </c>
+      <c r="B255" s="3" t="s">
+        <v>260</v>
+      </c>
+      <c r="C255" s="3"/>
+      <c r="D255" s="3" t="s">
+        <v>387</v>
+      </c>
+      <c r="E255" s="3"/>
     </row>
     <row r="256" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A256" s="3">
-        <v>1</v>
-      </c>
-      <c r="B256" s="3" t="s">
-        <v>137</v>
+        <v>9</v>
+      </c>
+      <c r="B256" s="10" t="s">
+        <v>261</v>
       </c>
       <c r="C256" s="3"/>
       <c r="D256" s="3" t="s">
-        <v>393</v>
+        <v>387</v>
       </c>
       <c r="E256" s="3"/>
     </row>
     <row r="257" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A257" s="3">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="B257" s="3" t="s">
-        <v>138</v>
+        <v>262</v>
       </c>
       <c r="C257" s="3"/>
       <c r="D257" s="3"/>
@@ -5378,58 +5438,58 @@
     </row>
     <row r="258" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A258" s="3">
-        <v>3</v>
-      </c>
-      <c r="B258" s="3" t="s">
-        <v>139</v>
+        <v>11</v>
+      </c>
+      <c r="B258" s="10" t="s">
+        <v>263</v>
       </c>
       <c r="C258" s="3"/>
       <c r="D258" s="3" t="s">
-        <v>393</v>
+        <v>387</v>
       </c>
       <c r="E258" s="3"/>
     </row>
     <row r="259" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A259" s="3">
-        <v>4</v>
-      </c>
-      <c r="B259" s="3" t="s">
-        <v>140</v>
+        <v>12</v>
+      </c>
+      <c r="B259" s="10" t="s">
+        <v>264</v>
       </c>
       <c r="C259" s="3"/>
       <c r="D259" s="3" t="s">
-        <v>393</v>
+        <v>387</v>
       </c>
       <c r="E259" s="3"/>
     </row>
     <row r="260" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A260" s="3">
-        <v>5</v>
-      </c>
-      <c r="B260" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="C260" s="3"/>
-      <c r="D260" s="3"/>
-      <c r="E260" s="3"/>
+      <c r="A260" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="B260" s="7"/>
+      <c r="C260" s="7"/>
+      <c r="D260" s="7"/>
+      <c r="E260" s="7"/>
     </row>
     <row r="261" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A261" s="3">
-        <v>6</v>
-      </c>
-      <c r="B261" s="3" t="s">
-        <v>177</v>
+        <v>1</v>
+      </c>
+      <c r="B261" s="10" t="s">
+        <v>136</v>
       </c>
       <c r="C261" s="3"/>
-      <c r="D261" s="3"/>
+      <c r="D261" s="3" t="s">
+        <v>387</v>
+      </c>
       <c r="E261" s="3"/>
     </row>
     <row r="262" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A262" s="3">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="B262" s="3" t="s">
-        <v>178</v>
+        <v>137</v>
       </c>
       <c r="C262" s="3"/>
       <c r="D262" s="3"/>
@@ -5437,45 +5497,47 @@
     </row>
     <row r="263" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A263" s="3">
-        <v>8</v>
-      </c>
-      <c r="B263" s="3" t="s">
-        <v>179</v>
+        <v>3</v>
+      </c>
+      <c r="B263" s="10" t="s">
+        <v>138</v>
       </c>
       <c r="C263" s="3"/>
-      <c r="D263" s="3"/>
+      <c r="D263" s="3" t="s">
+        <v>387</v>
+      </c>
       <c r="E263" s="3"/>
     </row>
     <row r="264" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A264" s="3">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B264" s="3" t="s">
-        <v>180</v>
+        <v>139</v>
       </c>
       <c r="C264" s="3"/>
-      <c r="D264" s="3"/>
+      <c r="D264" s="3" t="s">
+        <v>387</v>
+      </c>
       <c r="E264" s="3"/>
     </row>
     <row r="265" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A265" s="3">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B265" s="3" t="s">
-        <v>198</v>
+        <v>140</v>
       </c>
       <c r="C265" s="3"/>
-      <c r="D265" s="3" t="s">
-        <v>419</v>
-      </c>
+      <c r="D265" s="3"/>
       <c r="E265" s="3"/>
     </row>
     <row r="266" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A266" s="3">
-        <v>11</v>
-      </c>
-      <c r="B266" s="3" t="s">
-        <v>199</v>
+        <v>6</v>
+      </c>
+      <c r="B266" s="10" t="s">
+        <v>176</v>
       </c>
       <c r="C266" s="3"/>
       <c r="D266" s="3"/>
@@ -5483,10 +5545,10 @@
     </row>
     <row r="267" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A267" s="3">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="B267" s="3" t="s">
-        <v>200</v>
+        <v>177</v>
       </c>
       <c r="C267" s="3"/>
       <c r="D267" s="3"/>
@@ -5494,43 +5556,45 @@
     </row>
     <row r="268" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A268" s="3">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="B268" s="3" t="s">
-        <v>228</v>
+        <v>178</v>
       </c>
       <c r="C268" s="3"/>
       <c r="D268" s="3"/>
       <c r="E268" s="3"/>
     </row>
     <row r="269" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A269" s="9" t="s">
-        <v>285</v>
-      </c>
-      <c r="B269" s="9"/>
-      <c r="C269" s="9"/>
-      <c r="D269" s="9"/>
-      <c r="E269" s="9"/>
+      <c r="A269" s="3">
+        <v>9</v>
+      </c>
+      <c r="B269" s="10" t="s">
+        <v>179</v>
+      </c>
+      <c r="C269" s="3"/>
+      <c r="D269" s="3"/>
+      <c r="E269" s="3"/>
     </row>
     <row r="270" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A270" s="3">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="B270" s="3" t="s">
-        <v>171</v>
+        <v>197</v>
       </c>
       <c r="C270" s="3"/>
       <c r="D270" s="3" t="s">
-        <v>420</v>
+        <v>413</v>
       </c>
       <c r="E270" s="3"/>
     </row>
     <row r="271" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A271" s="3">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="B271" s="3" t="s">
-        <v>172</v>
+        <v>198</v>
       </c>
       <c r="C271" s="3"/>
       <c r="D271" s="3"/>
@@ -5538,10 +5602,10 @@
     </row>
     <row r="272" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A272" s="3">
-        <v>3</v>
-      </c>
-      <c r="B272" s="3" t="s">
-        <v>173</v>
+        <v>12</v>
+      </c>
+      <c r="B272" s="10" t="s">
+        <v>199</v>
       </c>
       <c r="C272" s="3"/>
       <c r="D272" s="3"/>
@@ -5549,255 +5613,251 @@
     </row>
     <row r="273" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A273" s="3">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="B273" s="3" t="s">
-        <v>174</v>
+        <v>227</v>
       </c>
       <c r="C273" s="3"/>
       <c r="D273" s="3"/>
       <c r="E273" s="3"/>
     </row>
     <row r="274" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A274" s="3">
-        <v>5</v>
-      </c>
-      <c r="B274" s="3" t="s">
-        <v>175</v>
-      </c>
-      <c r="C274" s="3"/>
-      <c r="D274" s="3"/>
-      <c r="E274" s="3"/>
+      <c r="A274" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="B274" s="7"/>
+      <c r="C274" s="7"/>
+      <c r="D274" s="7"/>
+      <c r="E274" s="7"/>
     </row>
     <row r="275" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A275" s="3">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B275" s="3" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="C275" s="3"/>
       <c r="D275" s="3" t="s">
-        <v>393</v>
+        <v>414</v>
       </c>
       <c r="E275" s="3"/>
     </row>
     <row r="276" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A276" s="3">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="B276" s="3" t="s">
-        <v>240</v>
+        <v>171</v>
       </c>
       <c r="C276" s="3"/>
       <c r="D276" s="3"/>
       <c r="E276" s="3"/>
     </row>
     <row r="277" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A277" s="9" t="s">
-        <v>290</v>
-      </c>
-      <c r="B277" s="9"/>
-      <c r="C277" s="9"/>
-      <c r="D277" s="9"/>
-      <c r="E277" s="9"/>
+      <c r="A277" s="3">
+        <v>3</v>
+      </c>
+      <c r="B277" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="C277" s="3"/>
+      <c r="D277" s="3"/>
+      <c r="E277" s="3"/>
     </row>
     <row r="278" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A278" s="3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B278" s="3" t="s">
-        <v>291</v>
-      </c>
-      <c r="C278" s="3" t="s">
-        <v>293</v>
-      </c>
+        <v>173</v>
+      </c>
+      <c r="C278" s="3"/>
       <c r="D278" s="3"/>
       <c r="E278" s="3"/>
     </row>
     <row r="279" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A279" s="3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B279" s="3" t="s">
-        <v>308</v>
-      </c>
-      <c r="C279" s="3" t="s">
-        <v>292</v>
-      </c>
+        <v>174</v>
+      </c>
+      <c r="C279" s="3"/>
       <c r="D279" s="3"/>
       <c r="E279" s="3"/>
     </row>
     <row r="280" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A280" s="3">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B280" s="3" t="s">
-        <v>309</v>
-      </c>
-      <c r="C280" s="3" t="s">
-        <v>294</v>
-      </c>
-      <c r="D280" s="3"/>
+        <v>175</v>
+      </c>
+      <c r="C280" s="3"/>
+      <c r="D280" s="3" t="s">
+        <v>387</v>
+      </c>
       <c r="E280" s="3"/>
     </row>
     <row r="281" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A281" s="3">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B281" s="3" t="s">
-        <v>310</v>
-      </c>
-      <c r="C281" s="3" t="s">
-        <v>295</v>
-      </c>
+        <v>239</v>
+      </c>
+      <c r="C281" s="3"/>
       <c r="D281" s="3"/>
       <c r="E281" s="3"/>
     </row>
     <row r="282" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A282" s="3">
-        <v>5</v>
-      </c>
-      <c r="B282" s="3" t="s">
-        <v>371</v>
-      </c>
-      <c r="C282" s="3" t="s">
-        <v>296</v>
-      </c>
-      <c r="D282" s="3"/>
-      <c r="E282" s="3"/>
+      <c r="A282" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="B282" s="7"/>
+      <c r="C282" s="7"/>
+      <c r="D282" s="7"/>
+      <c r="E282" s="7"/>
     </row>
     <row r="283" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A283" s="3">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B283" s="3" t="s">
-        <v>311</v>
+        <v>290</v>
       </c>
       <c r="C283" s="3" t="s">
-        <v>297</v>
-      </c>
-      <c r="D283" s="3" t="s">
-        <v>377</v>
-      </c>
+        <v>292</v>
+      </c>
+      <c r="D283" s="3"/>
       <c r="E283" s="3"/>
     </row>
     <row r="284" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A284" s="3">
-        <v>7</v>
-      </c>
-      <c r="B284" s="3" t="s">
-        <v>298</v>
+        <v>2</v>
+      </c>
+      <c r="B284" s="10" t="s">
+        <v>444</v>
       </c>
       <c r="C284" s="3" t="s">
-        <v>299</v>
-      </c>
-      <c r="D284" s="3"/>
+        <v>291</v>
+      </c>
+      <c r="D284" s="3" t="s">
+        <v>445</v>
+      </c>
       <c r="E284" s="3"/>
     </row>
     <row r="285" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A285" s="3">
-        <v>8</v>
-      </c>
-      <c r="B285" s="3" t="s">
-        <v>300</v>
+        <v>3</v>
+      </c>
+      <c r="B285" s="10" t="s">
+        <v>307</v>
       </c>
       <c r="C285" s="3" t="s">
-        <v>301</v>
+        <v>293</v>
       </c>
       <c r="D285" s="3"/>
       <c r="E285" s="3"/>
     </row>
     <row r="286" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A286" s="3">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B286" s="3" t="s">
-        <v>302</v>
+        <v>308</v>
       </c>
       <c r="C286" s="3" t="s">
-        <v>303</v>
-      </c>
-      <c r="D286" s="3" t="s">
-        <v>363</v>
-      </c>
+        <v>294</v>
+      </c>
+      <c r="D286" s="3"/>
       <c r="E286" s="3"/>
     </row>
     <row r="287" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A287" s="9" t="s">
-        <v>375</v>
-      </c>
-      <c r="B287" s="9"/>
-      <c r="C287" s="9"/>
-      <c r="D287" s="9"/>
-      <c r="E287" s="9"/>
+      <c r="A287" s="3">
+        <v>5</v>
+      </c>
+      <c r="B287" s="3" t="s">
+        <v>366</v>
+      </c>
+      <c r="C287" s="3" t="s">
+        <v>295</v>
+      </c>
+      <c r="D287" s="3"/>
+      <c r="E287" s="3"/>
     </row>
     <row r="288" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A288" s="7" t="s">
-        <v>304</v>
-      </c>
-      <c r="B288" s="8"/>
-      <c r="C288" s="3"/>
-      <c r="D288" s="3"/>
+      <c r="A288" s="3">
+        <v>6</v>
+      </c>
+      <c r="B288" s="10" t="s">
+        <v>309</v>
+      </c>
+      <c r="C288" s="3" t="s">
+        <v>296</v>
+      </c>
+      <c r="D288" s="3" t="s">
+        <v>379</v>
+      </c>
       <c r="E288" s="3"/>
     </row>
     <row r="289" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A289" s="3">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="B289" s="3" t="s">
-        <v>312</v>
-      </c>
-      <c r="C289" s="3"/>
-      <c r="D289" s="3" t="s">
-        <v>363</v>
-      </c>
+        <v>297</v>
+      </c>
+      <c r="C289" s="3" t="s">
+        <v>298</v>
+      </c>
+      <c r="D289" s="3"/>
       <c r="E289" s="3"/>
     </row>
     <row r="290" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A290" s="3">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="B290" s="3" t="s">
-        <v>313</v>
-      </c>
-      <c r="C290" s="3"/>
-      <c r="D290" s="3" t="s">
-        <v>374</v>
-      </c>
+        <v>299</v>
+      </c>
+      <c r="C290" s="3" t="s">
+        <v>300</v>
+      </c>
+      <c r="D290" s="3"/>
       <c r="E290" s="3"/>
     </row>
     <row r="291" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A291" s="3">
-        <v>3</v>
-      </c>
-      <c r="B291" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="C291" s="3"/>
+        <v>9</v>
+      </c>
+      <c r="B291" s="10" t="s">
+        <v>301</v>
+      </c>
+      <c r="C291" s="3" t="s">
+        <v>302</v>
+      </c>
       <c r="D291" s="3" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="E291" s="3"/>
     </row>
     <row r="292" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A292" s="3">
-        <v>4</v>
-      </c>
-      <c r="B292" s="3" t="s">
-        <v>314</v>
-      </c>
-      <c r="C292" s="3"/>
-      <c r="D292" s="6" t="s">
-        <v>378</v>
-      </c>
-      <c r="E292" s="3"/>
+      <c r="A292" s="7" t="s">
+        <v>370</v>
+      </c>
+      <c r="B292" s="7"/>
+      <c r="C292" s="7"/>
+      <c r="D292" s="7"/>
+      <c r="E292" s="7"/>
     </row>
     <row r="293" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A293" s="7" t="s">
-        <v>305</v>
-      </c>
-      <c r="B293" s="8"/>
+      <c r="A293" s="8" t="s">
+        <v>303</v>
+      </c>
+      <c r="B293" s="9"/>
       <c r="C293" s="3"/>
       <c r="D293" s="3"/>
       <c r="E293" s="3"/>
@@ -5806,12 +5866,12 @@
       <c r="A294" s="3">
         <v>1</v>
       </c>
-      <c r="B294" s="3" t="s">
-        <v>315</v>
+      <c r="B294" s="10" t="s">
+        <v>310</v>
       </c>
       <c r="C294" s="3"/>
       <c r="D294" s="3" t="s">
-        <v>366</v>
+        <v>360</v>
       </c>
       <c r="E294" s="3"/>
     </row>
@@ -5819,25 +5879,27 @@
       <c r="A295" s="3">
         <v>2</v>
       </c>
-      <c r="B295" s="3" t="s">
-        <v>316</v>
+      <c r="B295" s="10" t="s">
+        <v>311</v>
       </c>
       <c r="C295" s="3"/>
       <c r="D295" s="3" t="s">
-        <v>363</v>
-      </c>
-      <c r="E295" s="3"/>
+        <v>369</v>
+      </c>
+      <c r="E295" s="3" t="s">
+        <v>446</v>
+      </c>
     </row>
     <row r="296" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A296" s="3">
         <v>3</v>
       </c>
-      <c r="B296" s="3" t="s">
-        <v>317</v>
+      <c r="B296" s="10" t="s">
+        <v>94</v>
       </c>
       <c r="C296" s="3"/>
       <c r="D296" s="3" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="E296" s="3"/>
     </row>
@@ -5846,267 +5908,271 @@
         <v>4</v>
       </c>
       <c r="B297" s="3" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
       <c r="C297" s="3"/>
       <c r="D297" s="6" t="s">
-        <v>378</v>
+        <v>372</v>
       </c>
       <c r="E297" s="3"/>
     </row>
     <row r="298" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A298" s="3">
-        <v>5</v>
-      </c>
-      <c r="B298" s="3" t="s">
-        <v>319</v>
-      </c>
+      <c r="A298" s="8" t="s">
+        <v>304</v>
+      </c>
+      <c r="B298" s="9"/>
       <c r="C298" s="3"/>
-      <c r="D298" s="3" t="s">
-        <v>379</v>
-      </c>
+      <c r="D298" s="3"/>
       <c r="E298" s="3"/>
     </row>
     <row r="299" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A299" s="7" t="s">
-        <v>306</v>
-      </c>
-      <c r="B299" s="8"/>
+      <c r="A299" s="3">
+        <v>1</v>
+      </c>
+      <c r="B299" s="10" t="s">
+        <v>313</v>
+      </c>
       <c r="C299" s="3"/>
-      <c r="D299" s="3"/>
+      <c r="D299" s="3" t="s">
+        <v>363</v>
+      </c>
       <c r="E299" s="3"/>
     </row>
     <row r="300" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A300" s="3">
-        <v>1</v>
-      </c>
-      <c r="B300" s="3" t="s">
-        <v>320</v>
+        <v>2</v>
+      </c>
+      <c r="B300" s="10" t="s">
+        <v>314</v>
       </c>
       <c r="C300" s="3"/>
       <c r="D300" s="3" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="E300" s="3"/>
     </row>
     <row r="301" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A301" s="7" t="s">
-        <v>358</v>
-      </c>
-      <c r="B301" s="8"/>
+      <c r="A301" s="3">
+        <v>3</v>
+      </c>
+      <c r="B301" s="10" t="s">
+        <v>315</v>
+      </c>
       <c r="C301" s="3"/>
-      <c r="D301" s="3"/>
+      <c r="D301" s="3" t="s">
+        <v>360</v>
+      </c>
       <c r="E301" s="3"/>
     </row>
     <row r="302" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A302" s="3">
-        <v>1</v>
-      </c>
-      <c r="B302" s="3" t="s">
-        <v>321</v>
+        <v>4</v>
+      </c>
+      <c r="B302" s="10" t="s">
+        <v>316</v>
       </c>
       <c r="C302" s="3"/>
-      <c r="D302" s="3" t="s">
-        <v>380</v>
+      <c r="D302" s="6" t="s">
+        <v>372</v>
       </c>
       <c r="E302" s="3"/>
     </row>
     <row r="303" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A303" s="3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B303" s="3" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="C303" s="3"/>
       <c r="D303" s="3" t="s">
-        <v>381</v>
+        <v>373</v>
       </c>
       <c r="E303" s="3"/>
     </row>
     <row r="304" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A304" s="3">
-        <v>3</v>
-      </c>
-      <c r="B304" s="3" t="s">
-        <v>323</v>
-      </c>
+      <c r="A304" s="8" t="s">
+        <v>305</v>
+      </c>
+      <c r="B304" s="9"/>
       <c r="C304" s="3"/>
-      <c r="D304" s="6" t="s">
-        <v>378</v>
-      </c>
+      <c r="D304" s="3"/>
       <c r="E304" s="3"/>
     </row>
     <row r="305" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A305" s="7" t="s">
-        <v>307</v>
-      </c>
-      <c r="B305" s="8"/>
+      <c r="A305" s="3">
+        <v>1</v>
+      </c>
+      <c r="B305" s="3" t="s">
+        <v>318</v>
+      </c>
       <c r="C305" s="3"/>
-      <c r="D305" s="3"/>
+      <c r="D305" s="3" t="s">
+        <v>360</v>
+      </c>
       <c r="E305" s="3"/>
     </row>
     <row r="306" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A306" s="3">
-        <v>1</v>
-      </c>
-      <c r="B306" s="3" t="s">
-        <v>324</v>
-      </c>
+      <c r="A306" s="8" t="s">
+        <v>355</v>
+      </c>
+      <c r="B306" s="9"/>
       <c r="C306" s="3"/>
-      <c r="D306" s="3" t="s">
-        <v>383</v>
-      </c>
+      <c r="D306" s="3"/>
       <c r="E306" s="3"/>
     </row>
     <row r="307" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A307" s="3">
-        <v>2</v>
-      </c>
-      <c r="B307" s="3" t="s">
-        <v>325</v>
+        <v>1</v>
+      </c>
+      <c r="B307" s="10" t="s">
+        <v>319</v>
       </c>
       <c r="C307" s="3"/>
       <c r="D307" s="3" t="s">
-        <v>382</v>
+        <v>374</v>
       </c>
       <c r="E307" s="3"/>
     </row>
     <row r="308" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A308" s="7" t="s">
-        <v>359</v>
-      </c>
-      <c r="B308" s="8"/>
+      <c r="A308" s="3">
+        <v>2</v>
+      </c>
+      <c r="B308" s="10" t="s">
+        <v>320</v>
+      </c>
       <c r="C308" s="3"/>
-      <c r="D308" s="3"/>
+      <c r="D308" s="3" t="s">
+        <v>375</v>
+      </c>
       <c r="E308" s="3"/>
     </row>
     <row r="309" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A309" s="3">
-        <v>1</v>
-      </c>
-      <c r="B309" s="3" t="s">
-        <v>326</v>
+        <v>3</v>
+      </c>
+      <c r="B309" s="10" t="s">
+        <v>321</v>
       </c>
       <c r="C309" s="3"/>
-      <c r="D309" s="3" t="s">
-        <v>363</v>
+      <c r="D309" s="6" t="s">
+        <v>372</v>
       </c>
       <c r="E309" s="3"/>
     </row>
     <row r="310" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A310" s="3">
-        <v>2</v>
-      </c>
-      <c r="B310" s="3" t="s">
-        <v>327</v>
-      </c>
+      <c r="A310" s="8" t="s">
+        <v>306</v>
+      </c>
+      <c r="B310" s="9"/>
       <c r="C310" s="3"/>
-      <c r="D310" s="3" t="s">
-        <v>384</v>
-      </c>
+      <c r="D310" s="3"/>
       <c r="E310" s="3"/>
     </row>
     <row r="311" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A311" s="3">
-        <v>3</v>
-      </c>
-      <c r="B311" s="3" t="s">
-        <v>328</v>
+        <v>1</v>
+      </c>
+      <c r="B311" s="10" t="s">
+        <v>322</v>
       </c>
       <c r="C311" s="3"/>
       <c r="D311" s="3" t="s">
-        <v>364</v>
+        <v>377</v>
       </c>
       <c r="E311" s="3"/>
     </row>
     <row r="312" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A312" s="3">
-        <v>4</v>
-      </c>
-      <c r="B312" s="3" t="s">
-        <v>329</v>
+        <v>2</v>
+      </c>
+      <c r="B312" s="10" t="s">
+        <v>323</v>
       </c>
       <c r="C312" s="3"/>
       <c r="D312" s="3" t="s">
-        <v>366</v>
+        <v>376</v>
       </c>
       <c r="E312" s="3"/>
     </row>
     <row r="313" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A313" s="3">
-        <v>5</v>
-      </c>
-      <c r="B313" s="3" t="s">
-        <v>330</v>
-      </c>
+      <c r="A313" s="8" t="s">
+        <v>356</v>
+      </c>
+      <c r="B313" s="9"/>
       <c r="C313" s="3"/>
       <c r="D313" s="3"/>
       <c r="E313" s="3"/>
     </row>
     <row r="314" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A314" s="3">
-        <v>6</v>
-      </c>
-      <c r="B314" s="3" t="s">
-        <v>331</v>
+        <v>1</v>
+      </c>
+      <c r="B314" s="10" t="s">
+        <v>324</v>
       </c>
       <c r="C314" s="3"/>
-      <c r="D314" s="3"/>
+      <c r="D314" s="3" t="s">
+        <v>360</v>
+      </c>
       <c r="E314" s="3"/>
     </row>
     <row r="315" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A315" s="3">
-        <v>7</v>
-      </c>
-      <c r="B315" s="3" t="s">
-        <v>332</v>
+        <v>2</v>
+      </c>
+      <c r="B315" s="10" t="s">
+        <v>325</v>
       </c>
       <c r="C315" s="3"/>
       <c r="D315" s="3" t="s">
-        <v>364</v>
+        <v>378</v>
       </c>
       <c r="E315" s="3"/>
     </row>
     <row r="316" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A316" s="3">
-        <v>8</v>
-      </c>
-      <c r="B316" s="3" t="s">
-        <v>333</v>
+        <v>3</v>
+      </c>
+      <c r="B316" s="10" t="s">
+        <v>326</v>
       </c>
       <c r="C316" s="3"/>
-      <c r="D316" s="3"/>
+      <c r="D316" s="3" t="s">
+        <v>361</v>
+      </c>
       <c r="E316" s="3"/>
     </row>
     <row r="317" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A317" s="3">
-        <v>9</v>
-      </c>
-      <c r="B317" s="3" t="s">
-        <v>334</v>
+        <v>4</v>
+      </c>
+      <c r="B317" s="10" t="s">
+        <v>327</v>
       </c>
       <c r="C317" s="3"/>
       <c r="D317" s="3" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
       <c r="E317" s="3"/>
     </row>
     <row r="318" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A318" s="7" t="s">
-        <v>360</v>
-      </c>
-      <c r="B318" s="8"/>
+      <c r="A318" s="3">
+        <v>5</v>
+      </c>
+      <c r="B318" s="3" t="s">
+        <v>328</v>
+      </c>
       <c r="C318" s="3"/>
       <c r="D318" s="3"/>
       <c r="E318" s="3"/>
     </row>
     <row r="319" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A319" s="3">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B319" s="3" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="C319" s="3"/>
       <c r="D319" s="3"/>
@@ -6114,94 +6180,94 @@
     </row>
     <row r="320" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A320" s="3">
-        <v>2</v>
-      </c>
-      <c r="B320" s="3" t="s">
-        <v>336</v>
+        <v>7</v>
+      </c>
+      <c r="B320" s="10" t="s">
+        <v>330</v>
       </c>
       <c r="C320" s="3"/>
       <c r="D320" s="3" t="s">
-        <v>367</v>
+        <v>361</v>
       </c>
       <c r="E320" s="3"/>
     </row>
     <row r="321" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A321" s="3">
-        <v>3</v>
-      </c>
-      <c r="B321" s="3" t="s">
-        <v>337</v>
+        <v>8</v>
+      </c>
+      <c r="B321" s="10" t="s">
+        <v>331</v>
       </c>
       <c r="C321" s="3"/>
-      <c r="D321" s="3" t="s">
-        <v>367</v>
-      </c>
+      <c r="D321" s="3"/>
       <c r="E321" s="3"/>
     </row>
     <row r="322" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A322" s="7" t="s">
-        <v>361</v>
-      </c>
-      <c r="B322" s="8"/>
+      <c r="A322" s="3">
+        <v>9</v>
+      </c>
+      <c r="B322" s="10" t="s">
+        <v>332</v>
+      </c>
       <c r="C322" s="3"/>
-      <c r="D322" s="3"/>
+      <c r="D322" s="3" t="s">
+        <v>365</v>
+      </c>
       <c r="E322" s="3"/>
     </row>
     <row r="323" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A323" s="3">
-        <v>1</v>
-      </c>
-      <c r="B323" s="3" t="s">
-        <v>338</v>
-      </c>
+      <c r="A323" s="8" t="s">
+        <v>357</v>
+      </c>
+      <c r="B323" s="9"/>
       <c r="C323" s="3"/>
-      <c r="D323" s="3" t="s">
-        <v>367</v>
-      </c>
+      <c r="D323" s="3"/>
       <c r="E323" s="3"/>
     </row>
     <row r="324" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A324" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B324" s="3" t="s">
-        <v>339</v>
+        <v>333</v>
       </c>
       <c r="C324" s="3"/>
-      <c r="D324" s="3"/>
+      <c r="D324" s="3" t="s">
+        <v>360</v>
+      </c>
       <c r="E324" s="3"/>
     </row>
     <row r="325" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A325" s="3">
-        <v>3</v>
-      </c>
-      <c r="B325" s="3" t="s">
-        <v>156</v>
+        <v>2</v>
+      </c>
+      <c r="B325" s="10" t="s">
+        <v>334</v>
       </c>
       <c r="C325" s="3"/>
       <c r="D325" s="3" t="s">
-        <v>373</v>
+        <v>364</v>
       </c>
       <c r="E325" s="3"/>
     </row>
     <row r="326" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A326" s="3">
-        <v>4</v>
-      </c>
-      <c r="B326" s="3" t="s">
-        <v>340</v>
+        <v>3</v>
+      </c>
+      <c r="B326" s="10" t="s">
+        <v>335</v>
       </c>
       <c r="C326" s="3"/>
       <c r="D326" s="3" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="E326" s="3"/>
     </row>
     <row r="327" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A327" s="7" t="s">
-        <v>362</v>
-      </c>
-      <c r="B327" s="8"/>
+      <c r="A327" s="8" t="s">
+        <v>358</v>
+      </c>
+      <c r="B327" s="9"/>
       <c r="C327" s="3"/>
       <c r="D327" s="3"/>
       <c r="E327" s="3"/>
@@ -6210,12 +6276,12 @@
       <c r="A328" s="3">
         <v>1</v>
       </c>
-      <c r="B328" s="3" t="s">
-        <v>341</v>
+      <c r="B328" s="10" t="s">
+        <v>336</v>
       </c>
       <c r="C328" s="3"/>
       <c r="D328" s="3" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="E328" s="3"/>
     </row>
@@ -6224,173 +6290,173 @@
         <v>2</v>
       </c>
       <c r="B329" s="3" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="C329" s="3"/>
-      <c r="D329" s="3" t="s">
-        <v>368</v>
-      </c>
+      <c r="D329" s="3"/>
       <c r="E329" s="3"/>
     </row>
     <row r="330" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A330" s="3">
         <v>3</v>
       </c>
-      <c r="B330" s="3" t="s">
-        <v>343</v>
+      <c r="B330" s="10" t="s">
+        <v>155</v>
       </c>
       <c r="C330" s="3"/>
-      <c r="D330" s="3"/>
+      <c r="D330" s="3" t="s">
+        <v>368</v>
+      </c>
       <c r="E330" s="3"/>
     </row>
     <row r="331" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A331" s="3">
         <v>4</v>
       </c>
-      <c r="B331" s="3" t="s">
-        <v>344</v>
+      <c r="B331" s="10" t="s">
+        <v>338</v>
       </c>
       <c r="C331" s="3"/>
-      <c r="D331" s="3"/>
+      <c r="D331" s="3" t="s">
+        <v>365</v>
+      </c>
       <c r="E331" s="3"/>
     </row>
     <row r="332" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A332" s="3">
-        <v>5</v>
-      </c>
-      <c r="B332" s="3" t="s">
-        <v>320</v>
-      </c>
+      <c r="A332" s="8" t="s">
+        <v>359</v>
+      </c>
+      <c r="B332" s="9"/>
       <c r="C332" s="3"/>
-      <c r="D332" s="3" t="s">
-        <v>369</v>
-      </c>
+      <c r="D332" s="3"/>
       <c r="E332" s="3"/>
     </row>
     <row r="333" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A333" s="9" t="s">
-        <v>376</v>
-      </c>
-      <c r="B333" s="9"/>
-      <c r="C333" s="9"/>
-      <c r="D333" s="9"/>
-      <c r="E333" s="9"/>
+      <c r="A333" s="3">
+        <v>1</v>
+      </c>
+      <c r="B333" s="10" t="s">
+        <v>339</v>
+      </c>
+      <c r="C333" s="3"/>
+      <c r="D333" s="3" t="s">
+        <v>365</v>
+      </c>
+      <c r="E333" s="3"/>
     </row>
     <row r="334" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A334" s="3">
-        <v>1</v>
-      </c>
-      <c r="B334" s="3" t="s">
-        <v>345</v>
+        <v>2</v>
+      </c>
+      <c r="B334" s="10" t="s">
+        <v>340</v>
       </c>
       <c r="C334" s="3"/>
-      <c r="D334" s="3"/>
+      <c r="D334" s="3" t="s">
+        <v>365</v>
+      </c>
       <c r="E334" s="3"/>
     </row>
     <row r="335" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A335" s="3">
-        <v>2</v>
-      </c>
-      <c r="B335" s="3" t="s">
-        <v>346</v>
+        <v>3</v>
+      </c>
+      <c r="B335" s="10" t="s">
+        <v>341</v>
       </c>
       <c r="C335" s="3"/>
       <c r="D335" s="3" t="s">
-        <v>373</v>
+        <v>442</v>
       </c>
       <c r="E335" s="3"/>
     </row>
     <row r="336" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A336" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B336" s="3" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="C336" s="3"/>
-      <c r="D336" s="3" t="s">
-        <v>373</v>
-      </c>
+      <c r="D336" s="3"/>
       <c r="E336" s="3"/>
     </row>
     <row r="337" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A337" s="3">
-        <v>4</v>
-      </c>
-      <c r="B337" s="3" t="s">
-        <v>348</v>
-      </c>
-      <c r="C337" s="3"/>
-      <c r="D337" s="3"/>
-      <c r="E337" s="3"/>
+      <c r="A337" s="7" t="s">
+        <v>371</v>
+      </c>
+      <c r="B337" s="7"/>
+      <c r="C337" s="7"/>
+      <c r="D337" s="7"/>
+      <c r="E337" s="7"/>
     </row>
     <row r="338" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A338" s="3">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B338" s="3" t="s">
-        <v>349</v>
+        <v>343</v>
       </c>
       <c r="C338" s="3"/>
-      <c r="D338" s="3" t="s">
-        <v>373</v>
-      </c>
+      <c r="D338" s="3"/>
       <c r="E338" s="3"/>
     </row>
     <row r="339" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A339" s="3">
-        <v>6</v>
-      </c>
-      <c r="B339" s="3" t="s">
-        <v>350</v>
+        <v>2</v>
+      </c>
+      <c r="B339" s="10" t="s">
+        <v>344</v>
       </c>
       <c r="C339" s="3"/>
       <c r="D339" s="3" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="E339" s="3"/>
     </row>
     <row r="340" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A340" s="3">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B340" s="3" t="s">
-        <v>219</v>
+        <v>345</v>
       </c>
       <c r="C340" s="3"/>
-      <c r="D340" s="3" t="s">
-        <v>370</v>
-      </c>
+      <c r="D340" s="3"/>
       <c r="E340" s="3"/>
     </row>
     <row r="341" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A341" s="3">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B341" s="3" t="s">
-        <v>351</v>
+        <v>346</v>
       </c>
       <c r="C341" s="3"/>
-      <c r="D341" s="3"/>
+      <c r="D341" s="3" t="s">
+        <v>368</v>
+      </c>
       <c r="E341" s="3"/>
     </row>
     <row r="342" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A342" s="3">
-        <v>9</v>
-      </c>
-      <c r="B342" s="3" t="s">
-        <v>352</v>
+        <v>5</v>
+      </c>
+      <c r="B342" s="10" t="s">
+        <v>347</v>
       </c>
       <c r="C342" s="3"/>
-      <c r="D342" s="3"/>
+      <c r="D342" s="3" t="s">
+        <v>367</v>
+      </c>
       <c r="E342" s="3"/>
     </row>
     <row r="343" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A343" s="3">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B343" s="3" t="s">
-        <v>353</v>
+        <v>348</v>
       </c>
       <c r="C343" s="3"/>
       <c r="D343" s="3"/>
@@ -6398,10 +6464,10 @@
     </row>
     <row r="344" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A344" s="3">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B344" s="3" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="C344" s="3"/>
       <c r="D344" s="3"/>
@@ -6409,81 +6475,94 @@
     </row>
     <row r="345" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A345" s="3">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B345" s="3" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="C345" s="3"/>
-      <c r="D345" s="3" t="s">
-        <v>423</v>
-      </c>
+      <c r="D345" s="3"/>
       <c r="E345" s="3"/>
     </row>
     <row r="346" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A346" s="3">
-        <v>13</v>
-      </c>
-      <c r="B346" s="3" t="s">
-        <v>356</v>
+        <v>9</v>
+      </c>
+      <c r="B346" s="10" t="s">
+        <v>351</v>
       </c>
       <c r="C346" s="3"/>
-      <c r="D346" s="3"/>
+      <c r="D346" s="3" t="s">
+        <v>441</v>
+      </c>
       <c r="E346" s="3"/>
     </row>
     <row r="347" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A347" s="3">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B347" s="3" t="s">
-        <v>357</v>
+        <v>352</v>
       </c>
       <c r="C347" s="3"/>
-      <c r="D347" s="3"/>
+      <c r="D347" s="3" t="s">
+        <v>417</v>
+      </c>
       <c r="E347" s="3"/>
     </row>
     <row r="348" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A348" s="3">
-        <v>15</v>
-      </c>
-      <c r="B348" s="2" t="s">
-        <v>444</v>
-      </c>
-      <c r="D348" s="2" t="s">
-        <v>445</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="B348" s="3" t="s">
+        <v>353</v>
+      </c>
+      <c r="C348" s="3"/>
+      <c r="D348" s="3"/>
+      <c r="E348" s="3"/>
+    </row>
+    <row r="349" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A349" s="3">
+        <v>12</v>
+      </c>
+      <c r="B349" s="3" t="s">
+        <v>354</v>
+      </c>
+      <c r="C349" s="3"/>
+      <c r="D349" s="3"/>
+      <c r="E349" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="A277:E277"/>
-    <mergeCell ref="A287:E287"/>
-    <mergeCell ref="A269:E269"/>
+    <mergeCell ref="A313:B313"/>
+    <mergeCell ref="A323:B323"/>
+    <mergeCell ref="A327:B327"/>
+    <mergeCell ref="A332:B332"/>
+    <mergeCell ref="A337:E337"/>
+    <mergeCell ref="A293:B293"/>
+    <mergeCell ref="A298:B298"/>
+    <mergeCell ref="A304:B304"/>
+    <mergeCell ref="A306:B306"/>
+    <mergeCell ref="A310:B310"/>
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="A21:E21"/>
+    <mergeCell ref="A45:E45"/>
+    <mergeCell ref="A86:E86"/>
+    <mergeCell ref="A140:E140"/>
+    <mergeCell ref="A115:E115"/>
+    <mergeCell ref="A144:E144"/>
+    <mergeCell ref="A154:E154"/>
+    <mergeCell ref="A163:E163"/>
+    <mergeCell ref="A167:E167"/>
+    <mergeCell ref="A193:E193"/>
+    <mergeCell ref="A282:E282"/>
+    <mergeCell ref="A292:E292"/>
+    <mergeCell ref="A274:E274"/>
     <mergeCell ref="A217:E217"/>
     <mergeCell ref="A231:E231"/>
-    <mergeCell ref="A237:E237"/>
     <mergeCell ref="A242:E242"/>
-    <mergeCell ref="A255:E255"/>
-    <mergeCell ref="A144:E144"/>
-    <mergeCell ref="A155:E155"/>
-    <mergeCell ref="A164:E164"/>
-    <mergeCell ref="A168:E168"/>
-    <mergeCell ref="A194:E194"/>
-    <mergeCell ref="A2:E2"/>
-    <mergeCell ref="A20:E20"/>
-    <mergeCell ref="A44:E44"/>
-    <mergeCell ref="A86:E86"/>
-    <mergeCell ref="A140:E140"/>
-    <mergeCell ref="A114:E114"/>
-    <mergeCell ref="A288:B288"/>
-    <mergeCell ref="A293:B293"/>
-    <mergeCell ref="A299:B299"/>
-    <mergeCell ref="A301:B301"/>
-    <mergeCell ref="A305:B305"/>
-    <mergeCell ref="A308:B308"/>
-    <mergeCell ref="A318:B318"/>
-    <mergeCell ref="A322:B322"/>
-    <mergeCell ref="A327:B327"/>
-    <mergeCell ref="A333:E333"/>
+    <mergeCell ref="A247:E247"/>
+    <mergeCell ref="A260:E260"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6551,17 +6630,17 @@
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
   </sheetData>

--- a/doc/BookList.xlsx
+++ b/doc/BookList.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="611" uniqueCount="458">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="614" uniqueCount="458">
   <si>
     <t>民主的细节</t>
   </si>
@@ -117,9 +117,6 @@
     <t>全新思维</t>
   </si>
   <si>
-    <t>驱动力</t>
-  </si>
-  <si>
     <t>从优秀到卓越</t>
   </si>
   <si>
@@ -366,10 +363,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>丹尼尔.平克的另一本书，很好奇两个感觉完全不相关的主题，他居然写的不错。现在慢慢明白，要想真正直指做好事情，是很难，要发自本心，有时候领导说的，不一定是他想要的。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>大数据时代</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -398,10 +391,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>丹尼尔.平克。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>思考快与慢</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1023,10 +1012,6 @@
   </si>
   <si>
     <t>灰犀牛</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>枪炮病毒与细菌</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1660,10 +1645,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>掌阅-3499</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>掌阅无</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1708,10 +1689,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>掌阅-1799</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>大而不倒</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1788,6 +1765,30 @@
   </si>
   <si>
     <t>人类群星闪耀时 茨威格</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>epub</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>巨婴国</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>epub</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>亲密关系</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mobi</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>枪炮、病菌与钢铁</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1924,14 +1925,14 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -2236,11 +2237,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E349"/>
+  <dimension ref="A1:E350"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A188" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D216" sqref="D216"/>
+      <pane ySplit="1" topLeftCell="A99" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D118" sqref="D118"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2255,40 +2256,40 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>90</v>
-      </c>
       <c r="D1" s="1" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="7" t="s">
-        <v>269</v>
-      </c>
-      <c r="B2" s="7"/>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
+      <c r="A2" s="12" t="s">
+        <v>265</v>
+      </c>
+      <c r="B2" s="12"/>
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="3">
         <v>1</v>
       </c>
-      <c r="B3" s="10" t="s">
-        <v>50</v>
+      <c r="B3" s="7" t="s">
+        <v>49</v>
       </c>
       <c r="C3" s="3"/>
       <c r="D3" s="3" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="E3" s="3"/>
     </row>
@@ -2296,12 +2297,12 @@
       <c r="A4" s="3">
         <v>2</v>
       </c>
-      <c r="B4" s="10" t="s">
-        <v>51</v>
+      <c r="B4" s="7" t="s">
+        <v>50</v>
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="3" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="E4" s="3"/>
     </row>
@@ -2309,14 +2310,14 @@
       <c r="A5" s="3">
         <v>3</v>
       </c>
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="C5" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="C5" s="3" t="s">
-        <v>53</v>
-      </c>
       <c r="D5" s="3" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="E5" s="3"/>
     </row>
@@ -2324,12 +2325,12 @@
       <c r="A6" s="3">
         <v>4</v>
       </c>
-      <c r="B6" s="10" t="s">
-        <v>54</v>
+      <c r="B6" s="7" t="s">
+        <v>53</v>
       </c>
       <c r="C6" s="3"/>
       <c r="D6" s="3" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="E6" s="3"/>
     </row>
@@ -2337,12 +2338,12 @@
       <c r="A7" s="3">
         <v>5</v>
       </c>
-      <c r="B7" s="12" t="s">
-        <v>49</v>
+      <c r="B7" s="9" t="s">
+        <v>48</v>
       </c>
       <c r="C7" s="3"/>
       <c r="D7" s="3" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="E7" s="3"/>
     </row>
@@ -2351,11 +2352,11 @@
         <v>6</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="C8" s="3"/>
       <c r="D8" s="3" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="E8" s="3"/>
     </row>
@@ -2364,7 +2365,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
@@ -2375,11 +2376,11 @@
         <v>8</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="C10" s="3"/>
       <c r="D10" s="3" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="E10" s="3"/>
     </row>
@@ -2388,7 +2389,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
@@ -2398,12 +2399,12 @@
       <c r="A12" s="3">
         <v>10</v>
       </c>
-      <c r="B12" s="12" t="s">
-        <v>187</v>
+      <c r="B12" s="9" t="s">
+        <v>184</v>
       </c>
       <c r="C12" s="3"/>
       <c r="D12" s="3" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="E12" s="3"/>
     </row>
@@ -2411,12 +2412,12 @@
       <c r="A13" s="3">
         <v>11</v>
       </c>
-      <c r="B13" s="12" t="s">
-        <v>188</v>
+      <c r="B13" s="9" t="s">
+        <v>185</v>
       </c>
       <c r="C13" s="3"/>
       <c r="D13" s="3" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="E13" s="3"/>
     </row>
@@ -2425,11 +2426,11 @@
         <v>12</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="C14" s="3"/>
       <c r="D14" s="3" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="E14" s="3"/>
     </row>
@@ -2438,11 +2439,11 @@
         <v>13</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="C15" s="3"/>
       <c r="D15" s="3" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="E15" s="3"/>
     </row>
@@ -2450,8 +2451,8 @@
       <c r="A16" s="3">
         <v>14</v>
       </c>
-      <c r="B16" s="12" t="s">
-        <v>246</v>
+      <c r="B16" s="9" t="s">
+        <v>243</v>
       </c>
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
@@ -2462,11 +2463,11 @@
         <v>15</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="C17" s="3"/>
       <c r="D17" s="3" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="E17" s="3"/>
     </row>
@@ -2475,7 +2476,7 @@
         <v>16</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
@@ -2485,12 +2486,12 @@
       <c r="A19" s="3">
         <v>17</v>
       </c>
-      <c r="B19" s="12" t="s">
-        <v>416</v>
+      <c r="B19" s="9" t="s">
+        <v>412</v>
       </c>
       <c r="C19" s="3"/>
       <c r="D19" s="3" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="E19" s="3"/>
     </row>
@@ -2498,36 +2499,36 @@
       <c r="A20" s="3">
         <v>18</v>
       </c>
-      <c r="B20" s="12" t="s">
-        <v>448</v>
+      <c r="B20" s="9" t="s">
+        <v>442</v>
       </c>
       <c r="C20" s="3"/>
       <c r="D20" s="3" t="s">
-        <v>449</v>
+        <v>443</v>
       </c>
       <c r="E20" s="3"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A21" s="7" t="s">
-        <v>270</v>
-      </c>
-      <c r="B21" s="7"/>
-      <c r="C21" s="7"/>
-      <c r="D21" s="7"/>
-      <c r="E21" s="7"/>
+      <c r="A21" s="12" t="s">
+        <v>266</v>
+      </c>
+      <c r="B21" s="12"/>
+      <c r="C21" s="12"/>
+      <c r="D21" s="12"/>
+      <c r="E21" s="12"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="3">
         <v>1</v>
       </c>
-      <c r="B22" s="10" t="s">
+      <c r="B22" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="C22" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="C22" s="3" t="s">
-        <v>56</v>
-      </c>
       <c r="D22" s="3" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="E22" s="3"/>
     </row>
@@ -2535,12 +2536,12 @@
       <c r="A23" s="3">
         <v>2</v>
       </c>
-      <c r="B23" s="10" t="s">
-        <v>63</v>
+      <c r="B23" s="7" t="s">
+        <v>62</v>
       </c>
       <c r="C23" s="3"/>
       <c r="D23" s="3" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="E23" s="3"/>
     </row>
@@ -2548,12 +2549,12 @@
       <c r="A24" s="3">
         <v>3</v>
       </c>
-      <c r="B24" s="10" t="s">
-        <v>62</v>
+      <c r="B24" s="7" t="s">
+        <v>61</v>
       </c>
       <c r="C24" s="3"/>
       <c r="D24" s="3" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="E24" s="3"/>
     </row>
@@ -2561,12 +2562,12 @@
       <c r="A25" s="3">
         <v>4</v>
       </c>
-      <c r="B25" s="10" t="s">
-        <v>443</v>
+      <c r="B25" s="7" t="s">
+        <v>437</v>
       </c>
       <c r="C25" s="3"/>
       <c r="D25" s="3" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="E25" s="3"/>
     </row>
@@ -2574,12 +2575,12 @@
       <c r="A26" s="3">
         <v>5</v>
       </c>
-      <c r="B26" s="10" t="s">
-        <v>61</v>
+      <c r="B26" s="7" t="s">
+        <v>60</v>
       </c>
       <c r="C26" s="3"/>
       <c r="D26" s="3" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="E26" s="3"/>
     </row>
@@ -2588,10 +2589,10 @@
         <v>6</v>
       </c>
       <c r="B27" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C27" s="3" t="s">
         <v>59</v>
-      </c>
-      <c r="C27" s="3" t="s">
-        <v>60</v>
       </c>
       <c r="D27" s="3"/>
       <c r="E27" s="3"/>
@@ -2601,10 +2602,10 @@
         <v>7</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D28" s="3"/>
       <c r="E28" s="3"/>
@@ -2614,11 +2615,11 @@
         <v>8</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="C29" s="3"/>
       <c r="D29" s="3" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="E29" s="3"/>
     </row>
@@ -2626,12 +2627,12 @@
       <c r="A30" s="3">
         <v>9</v>
       </c>
-      <c r="B30" s="10" t="s">
-        <v>57</v>
+      <c r="B30" s="7" t="s">
+        <v>56</v>
       </c>
       <c r="C30" s="3"/>
       <c r="D30" s="3" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="E30" s="3"/>
     </row>
@@ -2640,7 +2641,7 @@
         <v>10</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="C31" s="3"/>
       <c r="D31" s="3"/>
@@ -2651,11 +2652,11 @@
         <v>11</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="C32" s="3"/>
       <c r="D32" s="3" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="E32" s="3"/>
     </row>
@@ -2664,7 +2665,7 @@
         <v>12</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C33" s="3"/>
       <c r="D33" s="3"/>
@@ -2675,14 +2676,14 @@
         <v>13</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="C34" s="3"/>
       <c r="D34" s="3" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.3">
@@ -2690,11 +2691,11 @@
         <v>14</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="C35" s="3"/>
       <c r="D35" s="3" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="E35" s="3"/>
     </row>
@@ -2703,7 +2704,7 @@
         <v>15</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="C36" s="3"/>
       <c r="D36" s="3"/>
@@ -2714,11 +2715,11 @@
         <v>16</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="C37" s="3"/>
       <c r="D37" s="3" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="E37" s="3"/>
     </row>
@@ -2727,11 +2728,11 @@
         <v>17</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="C38" s="3"/>
       <c r="D38" s="3" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="E38" s="3"/>
     </row>
@@ -2740,11 +2741,11 @@
         <v>18</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="C39" s="3"/>
       <c r="D39" s="3" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="E39" s="3"/>
     </row>
@@ -2753,7 +2754,7 @@
         <v>19</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="C40" s="3"/>
       <c r="D40" s="3"/>
@@ -2764,11 +2765,11 @@
         <v>20</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="C41" s="3"/>
       <c r="D41" s="3" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="E41" s="3"/>
     </row>
@@ -2777,11 +2778,11 @@
         <v>21</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="C42" s="3"/>
       <c r="D42" s="3" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="E42" s="3"/>
     </row>
@@ -2790,7 +2791,7 @@
         <v>22</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="C43" s="3"/>
       <c r="D43" s="3"/>
@@ -2800,36 +2801,36 @@
       <c r="A44" s="3">
         <v>23</v>
       </c>
-      <c r="B44" s="10" t="s">
-        <v>438</v>
+      <c r="B44" s="7" t="s">
+        <v>432</v>
       </c>
       <c r="C44" s="3"/>
       <c r="D44" s="3" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="E44" s="3"/>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A45" s="7" t="s">
-        <v>271</v>
-      </c>
-      <c r="B45" s="7"/>
-      <c r="C45" s="7"/>
-      <c r="D45" s="7"/>
-      <c r="E45" s="7"/>
+      <c r="A45" s="12" t="s">
+        <v>267</v>
+      </c>
+      <c r="B45" s="12"/>
+      <c r="C45" s="12"/>
+      <c r="D45" s="12"/>
+      <c r="E45" s="12"/>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A46" s="3">
         <v>1</v>
       </c>
-      <c r="B46" s="10" t="s">
-        <v>82</v>
+      <c r="B46" s="7" t="s">
+        <v>81</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="E46" s="3"/>
     </row>
@@ -2837,14 +2838,14 @@
       <c r="A47" s="3">
         <v>2</v>
       </c>
-      <c r="B47" s="10" t="s">
-        <v>84</v>
+      <c r="B47" s="7" t="s">
+        <v>83</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="E47" s="3"/>
     </row>
@@ -2852,14 +2853,14 @@
       <c r="A48" s="3">
         <v>3</v>
       </c>
-      <c r="B48" s="10" t="s">
-        <v>64</v>
+      <c r="B48" s="7" t="s">
+        <v>63</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="E48" s="3"/>
     </row>
@@ -2867,14 +2868,14 @@
       <c r="A49" s="3">
         <v>4</v>
       </c>
-      <c r="B49" s="10" t="s">
-        <v>85</v>
+      <c r="B49" s="7" t="s">
+        <v>84</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="E49" s="3"/>
     </row>
@@ -2882,14 +2883,14 @@
       <c r="A50" s="3">
         <v>5</v>
       </c>
-      <c r="B50" s="10" t="s">
-        <v>86</v>
+      <c r="B50" s="7" t="s">
+        <v>85</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="E50" s="3"/>
     </row>
@@ -2897,12 +2898,12 @@
       <c r="A51" s="3">
         <v>6</v>
       </c>
-      <c r="B51" s="10" t="s">
-        <v>65</v>
+      <c r="B51" s="7" t="s">
+        <v>64</v>
       </c>
       <c r="C51" s="3"/>
       <c r="D51" s="3" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="E51" s="3"/>
     </row>
@@ -2910,12 +2911,12 @@
       <c r="A52" s="3">
         <v>7</v>
       </c>
-      <c r="B52" s="10" t="s">
-        <v>66</v>
+      <c r="B52" s="7" t="s">
+        <v>65</v>
       </c>
       <c r="C52" s="3"/>
       <c r="D52" s="3" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="E52" s="3"/>
     </row>
@@ -2923,15 +2924,15 @@
       <c r="A53" s="3">
         <v>8</v>
       </c>
-      <c r="B53" s="10" t="s">
-        <v>180</v>
+      <c r="B53" s="7" t="s">
+        <v>177</v>
       </c>
       <c r="C53" s="3"/>
       <c r="D53" s="3" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
       <c r="E53" s="3" t="s">
-        <v>431</v>
+        <v>426</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.3">
@@ -2939,7 +2940,7 @@
         <v>9</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="C54" s="3"/>
       <c r="D54" s="3"/>
@@ -2949,12 +2950,12 @@
       <c r="A55" s="3">
         <v>10</v>
       </c>
-      <c r="B55" s="10" t="s">
-        <v>182</v>
+      <c r="B55" s="7" t="s">
+        <v>179</v>
       </c>
       <c r="C55" s="3"/>
       <c r="D55" s="3" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="E55" s="3"/>
     </row>
@@ -2962,12 +2963,12 @@
       <c r="A56" s="3">
         <v>11</v>
       </c>
-      <c r="B56" s="10" t="s">
-        <v>183</v>
+      <c r="B56" s="7" t="s">
+        <v>180</v>
       </c>
       <c r="C56" s="3"/>
       <c r="D56" s="3" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="E56" s="3"/>
     </row>
@@ -2975,12 +2976,12 @@
       <c r="A57" s="3">
         <v>12</v>
       </c>
-      <c r="B57" s="10" t="s">
-        <v>67</v>
+      <c r="B57" s="7" t="s">
+        <v>66</v>
       </c>
       <c r="C57" s="3"/>
       <c r="D57" s="3" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="E57" s="3"/>
     </row>
@@ -2988,12 +2989,12 @@
       <c r="A58" s="3">
         <v>13</v>
       </c>
-      <c r="B58" s="10" t="s">
+      <c r="B58" s="7" t="s">
         <v>22</v>
       </c>
       <c r="C58" s="3"/>
       <c r="D58" s="3" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="E58" s="3"/>
     </row>
@@ -3006,7 +3007,7 @@
       </c>
       <c r="C59" s="3"/>
       <c r="D59" s="3" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="E59" s="3"/>
     </row>
@@ -3015,11 +3016,11 @@
         <v>15</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C60" s="3"/>
       <c r="D60" s="3" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="E60" s="3"/>
     </row>
@@ -3032,7 +3033,7 @@
       </c>
       <c r="C61" s="3"/>
       <c r="D61" s="3" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="E61" s="3"/>
     </row>
@@ -3040,12 +3041,12 @@
       <c r="A62" s="3">
         <v>17</v>
       </c>
-      <c r="B62" s="10" t="s">
-        <v>93</v>
+      <c r="B62" s="7" t="s">
+        <v>92</v>
       </c>
       <c r="C62" s="3"/>
       <c r="D62" s="3" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="E62" s="3"/>
     </row>
@@ -3053,12 +3054,12 @@
       <c r="A63" s="3">
         <v>18</v>
       </c>
-      <c r="B63" s="10" t="s">
-        <v>95</v>
+      <c r="B63" s="7" t="s">
+        <v>94</v>
       </c>
       <c r="C63" s="3"/>
       <c r="D63" s="3" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="E63" s="3"/>
     </row>
@@ -3067,11 +3068,11 @@
         <v>19</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C64" s="3"/>
       <c r="D64" s="3" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="E64" s="3"/>
     </row>
@@ -3080,11 +3081,11 @@
         <v>20</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="C65" s="3"/>
       <c r="D65" s="3" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="E65" s="3"/>
     </row>
@@ -3093,11 +3094,11 @@
         <v>21</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="C66" s="3"/>
       <c r="D66" s="3" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="E66" s="3"/>
     </row>
@@ -3106,7 +3107,7 @@
         <v>22</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C67" s="3"/>
       <c r="D67" s="3"/>
@@ -3117,7 +3118,7 @@
         <v>23</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C68" s="3"/>
       <c r="D68" s="3"/>
@@ -3127,12 +3128,12 @@
       <c r="A69" s="3">
         <v>24</v>
       </c>
-      <c r="B69" s="10" t="s">
-        <v>397</v>
+      <c r="B69" s="7" t="s">
+        <v>393</v>
       </c>
       <c r="C69" s="3"/>
       <c r="D69" s="3" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="E69" s="3"/>
     </row>
@@ -3140,12 +3141,12 @@
       <c r="A70" s="3">
         <v>25</v>
       </c>
-      <c r="B70" s="10" t="s">
+      <c r="B70" s="7" t="s">
         <v>24</v>
       </c>
       <c r="C70" s="3"/>
       <c r="D70" s="3" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="E70" s="3"/>
     </row>
@@ -3158,7 +3159,7 @@
       </c>
       <c r="C71" s="3"/>
       <c r="D71" s="3" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="E71" s="3"/>
     </row>
@@ -3167,11 +3168,11 @@
         <v>27</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C72" s="3"/>
       <c r="D72" s="3" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="E72" s="3"/>
     </row>
@@ -3180,11 +3181,11 @@
         <v>28</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C73" s="3"/>
       <c r="D73" s="3" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="E73" s="3"/>
     </row>
@@ -3193,11 +3194,11 @@
         <v>29</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C74" s="3"/>
       <c r="D74" s="3" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="E74" s="3"/>
     </row>
@@ -3206,11 +3207,11 @@
         <v>30</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C75" s="3"/>
       <c r="D75" s="3" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="E75" s="3"/>
     </row>
@@ -3218,12 +3219,12 @@
       <c r="A76" s="3">
         <v>31</v>
       </c>
-      <c r="B76" s="10" t="s">
-        <v>103</v>
+      <c r="B76" s="7" t="s">
+        <v>101</v>
       </c>
       <c r="C76" s="3"/>
       <c r="D76" s="3" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="E76" s="3"/>
     </row>
@@ -3231,12 +3232,12 @@
       <c r="A77" s="3">
         <v>32</v>
       </c>
-      <c r="B77" s="12" t="s">
-        <v>45</v>
+      <c r="B77" s="9" t="s">
+        <v>44</v>
       </c>
       <c r="C77" s="3"/>
       <c r="D77" s="3" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="E77" s="3"/>
     </row>
@@ -3244,8 +3245,8 @@
       <c r="A78" s="3">
         <v>33</v>
       </c>
-      <c r="B78" s="12" t="s">
-        <v>46</v>
+      <c r="B78" s="9" t="s">
+        <v>45</v>
       </c>
       <c r="C78" s="3"/>
       <c r="D78" s="3"/>
@@ -3255,8 +3256,8 @@
       <c r="A79" s="3">
         <v>34</v>
       </c>
-      <c r="B79" s="12" t="s">
-        <v>146</v>
+      <c r="B79" s="9" t="s">
+        <v>143</v>
       </c>
       <c r="C79" s="3"/>
       <c r="D79" s="3"/>
@@ -3266,15 +3267,15 @@
       <c r="A80" s="3">
         <v>35</v>
       </c>
-      <c r="B80" s="12" t="s">
-        <v>147</v>
+      <c r="B80" s="9" t="s">
+        <v>144</v>
       </c>
       <c r="C80" s="3"/>
       <c r="D80" s="3" t="s">
-        <v>432</v>
+        <v>427</v>
       </c>
       <c r="E80" s="3" t="s">
-        <v>433</v>
+        <v>428</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.3">
@@ -3282,11 +3283,11 @@
         <v>36</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="C81" s="3"/>
       <c r="D81" s="3" t="s">
-        <v>434</v>
+        <v>429</v>
       </c>
       <c r="E81" s="3"/>
     </row>
@@ -3295,7 +3296,7 @@
         <v>37</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="C82" s="3"/>
       <c r="D82" s="3"/>
@@ -3306,7 +3307,7 @@
         <v>38</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="C83" s="3"/>
       <c r="D83" s="3"/>
@@ -3317,7 +3318,7 @@
         <v>39</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="C84" s="3"/>
       <c r="D84" s="3"/>
@@ -3328,31 +3329,31 @@
         <v>40</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="C85" s="3"/>
       <c r="D85" s="3"/>
       <c r="E85" s="3"/>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A86" s="7" t="s">
-        <v>272</v>
-      </c>
-      <c r="B86" s="7"/>
-      <c r="C86" s="7"/>
-      <c r="D86" s="7"/>
-      <c r="E86" s="7"/>
+      <c r="A86" s="12" t="s">
+        <v>268</v>
+      </c>
+      <c r="B86" s="12"/>
+      <c r="C86" s="12"/>
+      <c r="D86" s="12"/>
+      <c r="E86" s="12"/>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A87" s="3">
         <v>1</v>
       </c>
-      <c r="B87" s="10" t="s">
-        <v>47</v>
+      <c r="B87" s="7" t="s">
+        <v>46</v>
       </c>
       <c r="C87" s="3"/>
       <c r="D87" s="3" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="E87" s="3"/>
     </row>
@@ -3360,12 +3361,12 @@
       <c r="A88" s="3">
         <v>2</v>
       </c>
-      <c r="B88" s="10" t="s">
-        <v>68</v>
+      <c r="B88" s="7" t="s">
+        <v>67</v>
       </c>
       <c r="C88" s="3"/>
       <c r="D88" s="3" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="E88" s="3"/>
     </row>
@@ -3373,12 +3374,12 @@
       <c r="A89" s="3">
         <v>3</v>
       </c>
-      <c r="B89" s="10" t="s">
-        <v>69</v>
+      <c r="B89" s="7" t="s">
+        <v>68</v>
       </c>
       <c r="C89" s="3"/>
       <c r="D89" s="3" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="E89" s="3"/>
     </row>
@@ -3386,12 +3387,12 @@
       <c r="A90" s="3">
         <v>4</v>
       </c>
-      <c r="B90" s="10" t="s">
-        <v>70</v>
+      <c r="B90" s="7" t="s">
+        <v>69</v>
       </c>
       <c r="C90" s="3"/>
       <c r="D90" s="3" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="E90" s="3"/>
     </row>
@@ -3399,12 +3400,12 @@
       <c r="A91" s="3">
         <v>5</v>
       </c>
-      <c r="B91" s="10" t="s">
-        <v>71</v>
+      <c r="B91" s="7" t="s">
+        <v>70</v>
       </c>
       <c r="C91" s="3"/>
       <c r="D91" s="3" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="E91" s="3"/>
     </row>
@@ -3412,14 +3413,14 @@
       <c r="A92" s="3">
         <v>6</v>
       </c>
-      <c r="B92" s="10" t="s">
-        <v>72</v>
+      <c r="B92" s="7" t="s">
+        <v>71</v>
       </c>
       <c r="C92" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D92" s="3" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="E92" s="3"/>
     </row>
@@ -3427,12 +3428,12 @@
       <c r="A93" s="3">
         <v>7</v>
       </c>
-      <c r="B93" s="10" t="s">
-        <v>162</v>
+      <c r="B93" s="7" t="s">
+        <v>159</v>
       </c>
       <c r="C93" s="3"/>
       <c r="D93" s="3" t="s">
-        <v>425</v>
+        <v>452</v>
       </c>
       <c r="E93" s="3"/>
     </row>
@@ -3440,8 +3441,8 @@
       <c r="A94" s="3">
         <v>8</v>
       </c>
-      <c r="B94" s="10" t="s">
-        <v>243</v>
+      <c r="B94" s="7" t="s">
+        <v>240</v>
       </c>
       <c r="C94" s="3"/>
       <c r="D94" s="3"/>
@@ -3451,12 +3452,12 @@
       <c r="A95" s="3">
         <v>9</v>
       </c>
-      <c r="B95" s="10" t="s">
-        <v>76</v>
+      <c r="B95" s="7" t="s">
+        <v>75</v>
       </c>
       <c r="C95" s="3"/>
       <c r="D95" s="3" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="E95" s="3"/>
     </row>
@@ -3464,12 +3465,12 @@
       <c r="A96" s="3">
         <v>10</v>
       </c>
-      <c r="B96" s="10" t="s">
-        <v>127</v>
+      <c r="B96" s="7" t="s">
+        <v>124</v>
       </c>
       <c r="C96" s="3"/>
       <c r="D96" s="3" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="E96" s="3"/>
     </row>
@@ -3477,12 +3478,12 @@
       <c r="A97" s="3">
         <v>11</v>
       </c>
-      <c r="B97" s="10" t="s">
-        <v>128</v>
+      <c r="B97" s="7" t="s">
+        <v>125</v>
       </c>
       <c r="C97" s="3"/>
       <c r="D97" s="3" t="s">
-        <v>426</v>
+        <v>421</v>
       </c>
       <c r="E97" s="3"/>
     </row>
@@ -3490,12 +3491,12 @@
       <c r="A98" s="3">
         <v>12</v>
       </c>
-      <c r="B98" s="10" t="s">
-        <v>423</v>
+      <c r="B98" s="7" t="s">
+        <v>419</v>
       </c>
       <c r="C98" s="3"/>
       <c r="D98" s="3" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="E98" s="3"/>
     </row>
@@ -3503,12 +3504,12 @@
       <c r="A99" s="3">
         <v>13</v>
       </c>
-      <c r="B99" s="10" t="s">
-        <v>189</v>
+      <c r="B99" s="7" t="s">
+        <v>186</v>
       </c>
       <c r="C99" s="3"/>
       <c r="D99" s="3" t="s">
-        <v>427</v>
+        <v>422</v>
       </c>
       <c r="E99" s="3"/>
     </row>
@@ -3516,12 +3517,12 @@
       <c r="A100" s="3">
         <v>14</v>
       </c>
-      <c r="B100" s="10" t="s">
-        <v>190</v>
+      <c r="B100" s="7" t="s">
+        <v>187</v>
       </c>
       <c r="C100" s="3"/>
       <c r="D100" s="3" t="s">
-        <v>428</v>
+        <v>452</v>
       </c>
       <c r="E100" s="3"/>
     </row>
@@ -3530,7 +3531,7 @@
         <v>15</v>
       </c>
       <c r="B101" s="3" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C101" s="3"/>
       <c r="D101" s="3"/>
@@ -3540,8 +3541,8 @@
       <c r="A102" s="3">
         <v>16</v>
       </c>
-      <c r="B102" s="10" t="s">
-        <v>192</v>
+      <c r="B102" s="7" t="s">
+        <v>189</v>
       </c>
       <c r="C102" s="3"/>
       <c r="D102" s="3"/>
@@ -3552,11 +3553,11 @@
         <v>17</v>
       </c>
       <c r="B103" s="3" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="C103" s="3"/>
       <c r="D103" s="3" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="E103" s="3"/>
     </row>
@@ -3564,12 +3565,12 @@
       <c r="A104" s="3">
         <v>18</v>
       </c>
-      <c r="B104" s="10" t="s">
-        <v>194</v>
+      <c r="B104" s="7" t="s">
+        <v>191</v>
       </c>
       <c r="C104" s="3"/>
       <c r="D104" s="3" t="s">
-        <v>435</v>
+        <v>430</v>
       </c>
       <c r="E104" s="3"/>
     </row>
@@ -3577,12 +3578,12 @@
       <c r="A105" s="3">
         <v>19</v>
       </c>
-      <c r="B105" s="10" t="s">
-        <v>195</v>
+      <c r="B105" s="7" t="s">
+        <v>192</v>
       </c>
       <c r="C105" s="3"/>
       <c r="D105" s="3" t="s">
-        <v>428</v>
+        <v>423</v>
       </c>
       <c r="E105" s="3"/>
     </row>
@@ -3591,7 +3592,7 @@
         <v>20</v>
       </c>
       <c r="B106" s="3" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="C106" s="3"/>
       <c r="D106" s="3"/>
@@ -3602,11 +3603,11 @@
         <v>21</v>
       </c>
       <c r="B107" s="3" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="C107" s="3"/>
       <c r="D107" s="3" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="E107" s="3"/>
     </row>
@@ -3615,11 +3616,11 @@
         <v>22</v>
       </c>
       <c r="B108" s="3" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="C108" s="3"/>
       <c r="D108" s="3" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="E108" s="3"/>
     </row>
@@ -3628,7 +3629,7 @@
         <v>23</v>
       </c>
       <c r="B109" s="3" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="C109" s="3"/>
       <c r="D109" s="3"/>
@@ -3639,7 +3640,7 @@
         <v>24</v>
       </c>
       <c r="B110" s="3" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="C110" s="3"/>
       <c r="D110" s="3"/>
@@ -3650,7 +3651,7 @@
         <v>25</v>
       </c>
       <c r="B111" s="3" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="C111" s="3"/>
       <c r="D111" s="3"/>
@@ -3665,7 +3666,7 @@
       </c>
       <c r="C112" s="3"/>
       <c r="D112" s="3" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="E112" s="3"/>
     </row>
@@ -3678,7 +3679,7 @@
       </c>
       <c r="C113" s="3"/>
       <c r="D113" s="3" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="E113" s="3"/>
     </row>
@@ -3686,30 +3687,30 @@
       <c r="A114" s="3">
         <v>28</v>
       </c>
-      <c r="B114" s="10" t="s">
-        <v>450</v>
+      <c r="B114" s="7" t="s">
+        <v>444</v>
       </c>
       <c r="C114" s="3"/>
       <c r="D114" s="3" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="E114" s="3"/>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A115" s="7" t="s">
-        <v>273</v>
-      </c>
-      <c r="B115" s="7"/>
-      <c r="C115" s="7"/>
-      <c r="D115" s="7"/>
-      <c r="E115" s="7"/>
+      <c r="A115" s="12" t="s">
+        <v>269</v>
+      </c>
+      <c r="B115" s="12"/>
+      <c r="C115" s="12"/>
+      <c r="D115" s="12"/>
+      <c r="E115" s="12"/>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A116" s="3">
         <v>1</v>
       </c>
       <c r="B116" s="3" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="C116" s="3"/>
       <c r="D116" s="3"/>
@@ -3720,11 +3721,11 @@
         <v>2</v>
       </c>
       <c r="B117" s="3" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="C117" s="3"/>
       <c r="D117" s="3" t="s">
-        <v>436</v>
+        <v>431</v>
       </c>
       <c r="E117" s="3"/>
     </row>
@@ -3732,12 +3733,12 @@
       <c r="A118" s="3">
         <v>3</v>
       </c>
-      <c r="B118" s="10" t="s">
-        <v>267</v>
+      <c r="B118" s="7" t="s">
+        <v>457</v>
       </c>
       <c r="C118" s="3"/>
       <c r="D118" s="3" t="s">
-        <v>437</v>
+        <v>356</v>
       </c>
       <c r="E118" s="3"/>
     </row>
@@ -3745,12 +3746,12 @@
       <c r="A119" s="3">
         <v>4</v>
       </c>
-      <c r="B119" s="10" t="s">
-        <v>111</v>
+      <c r="B119" s="7" t="s">
+        <v>108</v>
       </c>
       <c r="C119" s="3"/>
       <c r="D119" s="3" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="E119" s="3"/>
     </row>
@@ -3758,8 +3759,8 @@
       <c r="A120" s="3">
         <v>5</v>
       </c>
-      <c r="B120" s="10" t="s">
-        <v>129</v>
+      <c r="B120" s="7" t="s">
+        <v>126</v>
       </c>
       <c r="C120" s="3"/>
       <c r="D120" s="3"/>
@@ -3769,12 +3770,12 @@
       <c r="A121" s="3">
         <v>6</v>
       </c>
-      <c r="B121" s="10" t="s">
-        <v>153</v>
+      <c r="B121" s="7" t="s">
+        <v>150</v>
       </c>
       <c r="C121" s="3"/>
       <c r="D121" s="3" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="E121" s="3"/>
     </row>
@@ -3782,12 +3783,12 @@
       <c r="A122" s="3">
         <v>7</v>
       </c>
-      <c r="B122" s="10" t="s">
-        <v>154</v>
+      <c r="B122" s="7" t="s">
+        <v>151</v>
       </c>
       <c r="C122" s="3"/>
       <c r="D122" s="3" t="s">
-        <v>436</v>
+        <v>431</v>
       </c>
       <c r="E122" s="3"/>
     </row>
@@ -3795,12 +3796,12 @@
       <c r="A123" s="3">
         <v>8</v>
       </c>
-      <c r="B123" s="10" t="s">
-        <v>399</v>
+      <c r="B123" s="7" t="s">
+        <v>395</v>
       </c>
       <c r="C123" s="3"/>
       <c r="D123" s="3" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="E123" s="3"/>
     </row>
@@ -3809,7 +3810,7 @@
         <v>9</v>
       </c>
       <c r="B124" s="3" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="C124" s="3"/>
       <c r="D124" s="3"/>
@@ -3820,7 +3821,7 @@
         <v>10</v>
       </c>
       <c r="B125" s="3" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="C125" s="3"/>
       <c r="D125" s="3"/>
@@ -3831,7 +3832,7 @@
         <v>11</v>
       </c>
       <c r="B126" s="3" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="C126" s="3"/>
       <c r="D126" s="3"/>
@@ -3842,7 +3843,7 @@
         <v>12</v>
       </c>
       <c r="B127" s="3" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="C127" s="3"/>
       <c r="D127" s="3"/>
@@ -3852,12 +3853,12 @@
       <c r="A128" s="3">
         <v>13</v>
       </c>
-      <c r="B128" s="10" t="s">
-        <v>160</v>
+      <c r="B128" s="7" t="s">
+        <v>157</v>
       </c>
       <c r="C128" s="3"/>
       <c r="D128" s="3" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="E128" s="3"/>
     </row>
@@ -3865,8 +3866,8 @@
       <c r="A129" s="3">
         <v>14</v>
       </c>
-      <c r="B129" s="10" t="s">
-        <v>161</v>
+      <c r="B129" s="7" t="s">
+        <v>158</v>
       </c>
       <c r="C129" s="3"/>
       <c r="D129" s="3"/>
@@ -3876,12 +3877,12 @@
       <c r="A130" s="3">
         <v>15</v>
       </c>
-      <c r="B130" s="10" t="s">
-        <v>163</v>
+      <c r="B130" s="7" t="s">
+        <v>160</v>
       </c>
       <c r="C130" s="3"/>
       <c r="D130" s="3" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="E130" s="3"/>
     </row>
@@ -3890,7 +3891,7 @@
         <v>16</v>
       </c>
       <c r="B131" s="3" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="C131" s="3"/>
       <c r="D131" s="3"/>
@@ -3901,7 +3902,7 @@
         <v>17</v>
       </c>
       <c r="B132" s="3" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="C132" s="3"/>
       <c r="D132" s="3"/>
@@ -3911,8 +3912,8 @@
       <c r="A133" s="3">
         <v>18</v>
       </c>
-      <c r="B133" s="10" t="s">
-        <v>168</v>
+      <c r="B133" s="7" t="s">
+        <v>165</v>
       </c>
       <c r="C133" s="3"/>
       <c r="D133" s="3"/>
@@ -3923,11 +3924,11 @@
         <v>19</v>
       </c>
       <c r="B134" s="3" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="C134" s="3"/>
       <c r="D134" s="3" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="E134" s="3"/>
     </row>
@@ -3935,8 +3936,8 @@
       <c r="A135" s="3">
         <v>20</v>
       </c>
-      <c r="B135" s="10" t="s">
-        <v>223</v>
+      <c r="B135" s="7" t="s">
+        <v>220</v>
       </c>
       <c r="C135" s="3"/>
       <c r="D135" s="3"/>
@@ -3947,7 +3948,7 @@
         <v>21</v>
       </c>
       <c r="B136" s="3" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="C136" s="3"/>
       <c r="D136" s="3"/>
@@ -3958,7 +3959,7 @@
         <v>22</v>
       </c>
       <c r="B137" s="3" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="C137" s="3"/>
       <c r="D137" s="3"/>
@@ -3968,8 +3969,8 @@
       <c r="A138" s="3">
         <v>23</v>
       </c>
-      <c r="B138" s="10" t="s">
-        <v>226</v>
+      <c r="B138" s="7" t="s">
+        <v>223</v>
       </c>
       <c r="C138" s="3"/>
       <c r="D138" s="3"/>
@@ -3980,33 +3981,33 @@
         <v>24</v>
       </c>
       <c r="B139" s="3" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="C139" s="3"/>
       <c r="D139" s="3" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="E139" s="3"/>
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A140" s="7" t="s">
-        <v>285</v>
-      </c>
-      <c r="B140" s="7"/>
-      <c r="C140" s="7"/>
-      <c r="D140" s="7"/>
-      <c r="E140" s="7"/>
+      <c r="A140" s="12" t="s">
+        <v>281</v>
+      </c>
+      <c r="B140" s="12"/>
+      <c r="C140" s="12"/>
+      <c r="D140" s="12"/>
+      <c r="E140" s="12"/>
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A141" s="3">
         <v>1</v>
       </c>
-      <c r="B141" s="10" t="s">
-        <v>75</v>
+      <c r="B141" s="7" t="s">
+        <v>74</v>
       </c>
       <c r="C141" s="3"/>
       <c r="D141" s="3" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="E141" s="3"/>
     </row>
@@ -4014,12 +4015,12 @@
       <c r="A142" s="3">
         <v>2</v>
       </c>
-      <c r="B142" s="10" t="s">
-        <v>77</v>
+      <c r="B142" s="7" t="s">
+        <v>76</v>
       </c>
       <c r="C142" s="3"/>
       <c r="D142" s="3" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="E142" s="3"/>
     </row>
@@ -4028,33 +4029,33 @@
         <v>3</v>
       </c>
       <c r="B143" s="3" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="C143" s="3"/>
       <c r="D143" s="3" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="E143" s="3"/>
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A144" s="7" t="s">
-        <v>274</v>
-      </c>
-      <c r="B144" s="7"/>
-      <c r="C144" s="7"/>
-      <c r="D144" s="7"/>
-      <c r="E144" s="7"/>
+      <c r="A144" s="12" t="s">
+        <v>270</v>
+      </c>
+      <c r="B144" s="12"/>
+      <c r="C144" s="12"/>
+      <c r="D144" s="12"/>
+      <c r="E144" s="12"/>
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A145" s="3">
         <v>1</v>
       </c>
-      <c r="B145" s="10" t="s">
-        <v>73</v>
+      <c r="B145" s="7" t="s">
+        <v>72</v>
       </c>
       <c r="C145" s="3"/>
       <c r="D145" s="3" t="s">
-        <v>429</v>
+        <v>424</v>
       </c>
       <c r="E145" s="3"/>
     </row>
@@ -4062,12 +4063,12 @@
       <c r="A146" s="3">
         <v>2</v>
       </c>
-      <c r="B146" s="10" t="s">
-        <v>74</v>
+      <c r="B146" s="7" t="s">
+        <v>73</v>
       </c>
       <c r="C146" s="3"/>
       <c r="D146" s="3" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="E146" s="3"/>
     </row>
@@ -4075,12 +4076,12 @@
       <c r="A147" s="3">
         <v>3</v>
       </c>
-      <c r="B147" s="10" t="s">
-        <v>98</v>
+      <c r="B147" s="7" t="s">
+        <v>97</v>
       </c>
       <c r="C147" s="3"/>
       <c r="D147" s="3" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="E147" s="3"/>
     </row>
@@ -4089,11 +4090,11 @@
         <v>4</v>
       </c>
       <c r="B148" s="3" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C148" s="3"/>
       <c r="D148" s="3" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="E148" s="3"/>
     </row>
@@ -4101,8 +4102,8 @@
       <c r="A149" s="3">
         <v>5</v>
       </c>
-      <c r="B149" s="10" t="s">
-        <v>240</v>
+      <c r="B149" s="7" t="s">
+        <v>237</v>
       </c>
       <c r="C149" s="3"/>
       <c r="D149" s="3"/>
@@ -4112,12 +4113,12 @@
       <c r="A150" s="3">
         <v>6</v>
       </c>
-      <c r="B150" s="10" t="s">
-        <v>418</v>
+      <c r="B150" s="7" t="s">
+        <v>414</v>
       </c>
       <c r="C150" s="3"/>
       <c r="D150" s="3" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="E150" s="3"/>
     </row>
@@ -4125,8 +4126,8 @@
       <c r="A151" s="3">
         <v>7</v>
       </c>
-      <c r="B151" s="10" t="s">
-        <v>419</v>
+      <c r="B151" s="7" t="s">
+        <v>415</v>
       </c>
       <c r="C151" s="3"/>
       <c r="D151" s="3"/>
@@ -4137,7 +4138,7 @@
         <v>8</v>
       </c>
       <c r="B152" s="3" t="s">
-        <v>439</v>
+        <v>433</v>
       </c>
       <c r="C152" s="3"/>
       <c r="D152" s="3"/>
@@ -4147,32 +4148,32 @@
       <c r="A153" s="3">
         <v>9</v>
       </c>
-      <c r="B153" s="10" t="s">
-        <v>440</v>
+      <c r="B153" s="7" t="s">
+        <v>434</v>
       </c>
       <c r="C153" s="3"/>
       <c r="D153" s="3"/>
       <c r="E153" s="3"/>
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A154" s="7" t="s">
-        <v>275</v>
-      </c>
-      <c r="B154" s="7"/>
-      <c r="C154" s="7"/>
-      <c r="D154" s="7"/>
-      <c r="E154" s="7"/>
+      <c r="A154" s="12" t="s">
+        <v>271</v>
+      </c>
+      <c r="B154" s="12"/>
+      <c r="C154" s="12"/>
+      <c r="D154" s="12"/>
+      <c r="E154" s="12"/>
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A155" s="3">
         <v>1</v>
       </c>
-      <c r="B155" s="10" t="s">
-        <v>78</v>
+      <c r="B155" s="7" t="s">
+        <v>77</v>
       </c>
       <c r="C155" s="3"/>
       <c r="D155" s="3" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="E155" s="3"/>
     </row>
@@ -4181,11 +4182,11 @@
         <v>2</v>
       </c>
       <c r="B156" s="3" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="C156" s="3"/>
       <c r="D156" s="3" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="E156" s="3"/>
     </row>
@@ -4193,12 +4194,12 @@
       <c r="A157" s="3">
         <v>3</v>
       </c>
-      <c r="B157" s="10" t="s">
-        <v>79</v>
+      <c r="B157" s="7" t="s">
+        <v>78</v>
       </c>
       <c r="C157" s="3"/>
       <c r="D157" s="3" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="E157" s="3"/>
     </row>
@@ -4206,12 +4207,12 @@
       <c r="A158" s="3">
         <v>4</v>
       </c>
-      <c r="B158" s="10" t="s">
-        <v>80</v>
+      <c r="B158" s="7" t="s">
+        <v>79</v>
       </c>
       <c r="C158" s="3"/>
       <c r="D158" s="3" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="E158" s="3"/>
     </row>
@@ -4220,11 +4221,11 @@
         <v>5</v>
       </c>
       <c r="B159" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C159" s="3"/>
       <c r="D159" s="3" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="E159" s="3"/>
     </row>
@@ -4232,12 +4233,12 @@
       <c r="A160" s="3">
         <v>6</v>
       </c>
-      <c r="B160" s="10" t="s">
-        <v>286</v>
+      <c r="B160" s="7" t="s">
+        <v>282</v>
       </c>
       <c r="C160" s="3"/>
       <c r="D160" s="3" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="E160" s="3"/>
     </row>
@@ -4245,12 +4246,12 @@
       <c r="A161" s="3">
         <v>7</v>
       </c>
-      <c r="B161" s="10" t="s">
-        <v>287</v>
+      <c r="B161" s="7" t="s">
+        <v>283</v>
       </c>
       <c r="C161" s="3"/>
       <c r="D161" s="3" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="E161" s="3"/>
     </row>
@@ -4258,34 +4259,34 @@
       <c r="A162" s="3">
         <v>8</v>
       </c>
-      <c r="B162" s="10" t="s">
-        <v>400</v>
+      <c r="B162" s="7" t="s">
+        <v>396</v>
       </c>
       <c r="C162" s="3"/>
       <c r="D162" s="3" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="E162" s="3"/>
     </row>
     <row r="163" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A163" s="7" t="s">
-        <v>276</v>
-      </c>
-      <c r="B163" s="7"/>
-      <c r="C163" s="7"/>
-      <c r="D163" s="7"/>
-      <c r="E163" s="7"/>
+      <c r="A163" s="12" t="s">
+        <v>272</v>
+      </c>
+      <c r="B163" s="12"/>
+      <c r="C163" s="12"/>
+      <c r="D163" s="12"/>
+      <c r="E163" s="12"/>
     </row>
     <row r="164" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A164" s="3">
         <v>1</v>
       </c>
-      <c r="B164" s="10" t="s">
-        <v>112</v>
+      <c r="B164" s="7" t="s">
+        <v>109</v>
       </c>
       <c r="C164" s="3"/>
       <c r="D164" s="3" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="E164" s="3"/>
     </row>
@@ -4294,11 +4295,11 @@
         <v>2</v>
       </c>
       <c r="B165" s="3" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="C165" s="3"/>
       <c r="D165" s="3" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="E165" s="3"/>
     </row>
@@ -4306,30 +4307,30 @@
       <c r="A166" s="3">
         <v>3</v>
       </c>
-      <c r="B166" s="10" t="s">
-        <v>268</v>
+      <c r="B166" s="7" t="s">
+        <v>264</v>
       </c>
       <c r="C166" s="3"/>
       <c r="D166" s="3" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="E166" s="3"/>
     </row>
     <row r="167" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A167" s="7" t="s">
-        <v>277</v>
-      </c>
-      <c r="B167" s="7"/>
-      <c r="C167" s="7"/>
-      <c r="D167" s="7"/>
-      <c r="E167" s="7"/>
+      <c r="A167" s="12" t="s">
+        <v>273</v>
+      </c>
+      <c r="B167" s="12"/>
+      <c r="C167" s="12"/>
+      <c r="D167" s="12"/>
+      <c r="E167" s="12"/>
     </row>
     <row r="168" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A168" s="3">
         <v>1</v>
       </c>
-      <c r="B168" s="12" t="s">
-        <v>233</v>
+      <c r="B168" s="9" t="s">
+        <v>230</v>
       </c>
       <c r="C168" s="3"/>
       <c r="D168" s="3"/>
@@ -4339,8 +4340,8 @@
       <c r="A169" s="3">
         <v>2</v>
       </c>
-      <c r="B169" s="12" t="s">
-        <v>234</v>
+      <c r="B169" s="9" t="s">
+        <v>231</v>
       </c>
       <c r="C169" s="3"/>
       <c r="D169" s="3"/>
@@ -4350,12 +4351,12 @@
       <c r="A170" s="3">
         <v>3</v>
       </c>
-      <c r="B170" s="12" t="s">
-        <v>48</v>
+      <c r="B170" s="9" t="s">
+        <v>47</v>
       </c>
       <c r="C170" s="3"/>
       <c r="D170" s="3" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="E170" s="3"/>
     </row>
@@ -4363,12 +4364,12 @@
       <c r="A171" s="3">
         <v>4</v>
       </c>
-      <c r="B171" s="10" t="s">
-        <v>115</v>
+      <c r="B171" s="7" t="s">
+        <v>112</v>
       </c>
       <c r="C171" s="3"/>
       <c r="D171" s="3" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="E171" s="3"/>
     </row>
@@ -4376,8 +4377,8 @@
       <c r="A172" s="3">
         <v>5</v>
       </c>
-      <c r="B172" s="10" t="s">
-        <v>116</v>
+      <c r="B172" s="7" t="s">
+        <v>113</v>
       </c>
       <c r="C172" s="3"/>
       <c r="D172" s="3"/>
@@ -4388,7 +4389,7 @@
         <v>6</v>
       </c>
       <c r="B173" s="3" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="C173" s="3"/>
       <c r="D173" s="3"/>
@@ -4399,11 +4400,11 @@
         <v>7</v>
       </c>
       <c r="B174" s="3" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="C174" s="3"/>
       <c r="D174" s="3" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="E174" s="3"/>
     </row>
@@ -4412,11 +4413,11 @@
         <v>8</v>
       </c>
       <c r="B175" s="3" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="C175" s="3"/>
       <c r="D175" s="3" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="E175" s="3"/>
     </row>
@@ -4425,7 +4426,7 @@
         <v>9</v>
       </c>
       <c r="B176" s="3" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="C176" s="3"/>
       <c r="D176" s="3"/>
@@ -4436,7 +4437,7 @@
         <v>10</v>
       </c>
       <c r="B177" s="3" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="C177" s="3"/>
       <c r="D177" s="3"/>
@@ -4446,12 +4447,12 @@
       <c r="A178" s="3">
         <v>11</v>
       </c>
-      <c r="B178" s="10" t="s">
-        <v>166</v>
+      <c r="B178" s="7" t="s">
+        <v>163</v>
       </c>
       <c r="C178" s="3"/>
       <c r="D178" s="3" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="E178" s="3"/>
     </row>
@@ -4460,11 +4461,11 @@
         <v>12</v>
       </c>
       <c r="B179" s="3" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="C179" s="3"/>
       <c r="D179" s="3" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="E179" s="3"/>
     </row>
@@ -4473,7 +4474,7 @@
         <v>13</v>
       </c>
       <c r="B180" s="3" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="C180" s="3"/>
       <c r="D180" s="3"/>
@@ -4484,7 +4485,7 @@
         <v>14</v>
       </c>
       <c r="B181" s="3" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="C181" s="3"/>
       <c r="D181" s="3"/>
@@ -4495,7 +4496,7 @@
         <v>15</v>
       </c>
       <c r="B182" s="3" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="C182" s="3"/>
       <c r="D182" s="3"/>
@@ -4506,11 +4507,11 @@
         <v>16</v>
       </c>
       <c r="B183" s="3" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="C183" s="3"/>
       <c r="D183" s="3" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="E183" s="3"/>
     </row>
@@ -4519,11 +4520,11 @@
         <v>17</v>
       </c>
       <c r="B184" s="3" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="C184" s="3"/>
       <c r="D184" s="3" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="E184" s="3"/>
     </row>
@@ -4532,7 +4533,7 @@
         <v>18</v>
       </c>
       <c r="B185" s="3" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="C185" s="3"/>
       <c r="D185" s="3"/>
@@ -4543,7 +4544,7 @@
         <v>19</v>
       </c>
       <c r="B186" s="3" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="C186" s="3"/>
       <c r="D186" s="3"/>
@@ -4554,11 +4555,11 @@
         <v>20</v>
       </c>
       <c r="B187" s="3" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="C187" s="3"/>
       <c r="D187" s="3" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="E187" s="3"/>
     </row>
@@ -4567,7 +4568,7 @@
         <v>21</v>
       </c>
       <c r="B188" s="3" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="C188" s="3"/>
       <c r="D188" s="3"/>
@@ -4578,11 +4579,11 @@
         <v>22</v>
       </c>
       <c r="B189" s="3" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="C189" s="3"/>
       <c r="D189" s="3" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="E189" s="3"/>
     </row>
@@ -4591,7 +4592,7 @@
         <v>23</v>
       </c>
       <c r="B190" s="3" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="C190" s="3"/>
       <c r="D190" s="3"/>
@@ -4602,484 +4603,486 @@
         <v>24</v>
       </c>
       <c r="B191" s="3" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="C191" s="3"/>
-      <c r="D191" s="3"/>
+      <c r="D191" s="3" t="s">
+        <v>456</v>
+      </c>
       <c r="E191" s="3"/>
     </row>
     <row r="192" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A192" s="3">
         <v>25</v>
       </c>
-      <c r="B192" s="10" t="s">
-        <v>229</v>
+      <c r="B192" s="7" t="s">
+        <v>226</v>
       </c>
       <c r="C192" s="3"/>
       <c r="D192" s="3" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="E192" s="3"/>
     </row>
     <row r="193" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A193" s="7" t="s">
-        <v>278</v>
-      </c>
-      <c r="B193" s="7"/>
-      <c r="C193" s="7"/>
-      <c r="D193" s="7"/>
-      <c r="E193" s="7"/>
+      <c r="A193" s="3">
+        <v>26</v>
+      </c>
+      <c r="B193" s="7" t="s">
+        <v>453</v>
+      </c>
+      <c r="C193" s="3"/>
+      <c r="D193" s="3" t="s">
+        <v>454</v>
+      </c>
+      <c r="E193" s="3"/>
     </row>
     <row r="194" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A194" s="3">
-        <v>1</v>
-      </c>
-      <c r="B194" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C194" s="3" t="s">
-        <v>20</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="B194" s="7" t="s">
+        <v>455</v>
+      </c>
+      <c r="C194" s="3"/>
       <c r="D194" s="3" t="s">
-        <v>408</v>
+        <v>454</v>
       </c>
       <c r="E194" s="3"/>
     </row>
     <row r="195" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A195" s="3">
-        <v>2</v>
-      </c>
-      <c r="B195" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C195" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D195" s="3" t="s">
-        <v>407</v>
-      </c>
-      <c r="E195" s="3"/>
+      <c r="A195" s="12" t="s">
+        <v>274</v>
+      </c>
+      <c r="B195" s="12"/>
+      <c r="C195" s="12"/>
+      <c r="D195" s="12"/>
+      <c r="E195" s="12"/>
     </row>
     <row r="196" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A196" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B196" s="3" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C196" s="3" t="s">
         <v>20</v>
       </c>
       <c r="D196" s="3" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="E196" s="3"/>
     </row>
     <row r="197" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A197" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B197" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="C197" s="3"/>
+        <v>1</v>
+      </c>
+      <c r="C197" s="3" t="s">
+        <v>20</v>
+      </c>
       <c r="D197" s="3" t="s">
-        <v>409</v>
+        <v>403</v>
       </c>
       <c r="E197" s="3"/>
     </row>
     <row r="198" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A198" s="3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B198" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="C198" s="3"/>
-      <c r="D198" s="3"/>
+        <v>2</v>
+      </c>
+      <c r="C198" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D198" s="3" t="s">
+        <v>403</v>
+      </c>
       <c r="E198" s="3"/>
     </row>
     <row r="199" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A199" s="3">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B199" s="3" t="s">
-        <v>91</v>
+        <v>110</v>
       </c>
       <c r="C199" s="3"/>
       <c r="D199" s="3" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="E199" s="3"/>
     </row>
     <row r="200" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A200" s="3">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B200" s="3" t="s">
-        <v>92</v>
+        <v>111</v>
       </c>
       <c r="C200" s="3"/>
-      <c r="D200" s="3" t="s">
-        <v>408</v>
-      </c>
+      <c r="D200" s="3"/>
       <c r="E200" s="3"/>
     </row>
     <row r="201" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A201" s="3">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B201" s="3" t="s">
-        <v>3</v>
+        <v>90</v>
       </c>
       <c r="C201" s="3"/>
-      <c r="D201" s="3"/>
+      <c r="D201" s="3" t="s">
+        <v>403</v>
+      </c>
       <c r="E201" s="3"/>
     </row>
     <row r="202" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A202" s="3">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B202" s="3" t="s">
-        <v>4</v>
+        <v>91</v>
       </c>
       <c r="C202" s="3"/>
-      <c r="D202" s="3"/>
+      <c r="D202" s="3" t="s">
+        <v>404</v>
+      </c>
       <c r="E202" s="3"/>
     </row>
     <row r="203" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A203" s="3">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B203" s="3" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C203" s="3"/>
-      <c r="D203" s="3" t="s">
-        <v>385</v>
-      </c>
+      <c r="D203" s="3"/>
       <c r="E203" s="3"/>
     </row>
     <row r="204" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A204" s="3">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B204" s="3" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C204" s="3"/>
-      <c r="D204" s="3" t="s">
-        <v>410</v>
-      </c>
+      <c r="D204" s="3"/>
       <c r="E204" s="3"/>
     </row>
     <row r="205" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A205" s="3">
-        <v>12</v>
-      </c>
-      <c r="B205" s="10" t="s">
-        <v>7</v>
+        <v>10</v>
+      </c>
+      <c r="B205" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="C205" s="3"/>
       <c r="D205" s="3" t="s">
-        <v>411</v>
+        <v>381</v>
       </c>
       <c r="E205" s="3"/>
     </row>
     <row r="206" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A206" s="3">
-        <v>13</v>
-      </c>
-      <c r="B206" s="10" t="s">
-        <v>117</v>
+        <v>11</v>
+      </c>
+      <c r="B206" s="3" t="s">
+        <v>6</v>
       </c>
       <c r="C206" s="3"/>
       <c r="D206" s="3" t="s">
-        <v>411</v>
+        <v>406</v>
       </c>
       <c r="E206" s="3"/>
     </row>
     <row r="207" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A207" s="3">
-        <v>14</v>
-      </c>
-      <c r="B207" s="10" t="s">
-        <v>200</v>
+        <v>12</v>
+      </c>
+      <c r="B207" s="7" t="s">
+        <v>7</v>
       </c>
       <c r="C207" s="3"/>
       <c r="D207" s="3" t="s">
-        <v>398</v>
+        <v>407</v>
       </c>
       <c r="E207" s="3"/>
     </row>
     <row r="208" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A208" s="3">
-        <v>15</v>
-      </c>
-      <c r="B208" s="3" t="s">
-        <v>201</v>
+        <v>13</v>
+      </c>
+      <c r="B208" s="7" t="s">
+        <v>114</v>
       </c>
       <c r="C208" s="3"/>
       <c r="D208" s="3" t="s">
-        <v>398</v>
+        <v>407</v>
       </c>
       <c r="E208" s="3"/>
     </row>
     <row r="209" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A209" s="3">
-        <v>16</v>
-      </c>
-      <c r="B209" s="3" t="s">
-        <v>202</v>
+        <v>14</v>
+      </c>
+      <c r="B209" s="7" t="s">
+        <v>197</v>
       </c>
       <c r="C209" s="3"/>
-      <c r="D209" s="3"/>
+      <c r="D209" s="3" t="s">
+        <v>394</v>
+      </c>
       <c r="E209" s="3"/>
     </row>
     <row r="210" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A210" s="3">
-        <v>17</v>
-      </c>
-      <c r="B210" s="10" t="s">
-        <v>203</v>
+        <v>15</v>
+      </c>
+      <c r="B210" s="3" t="s">
+        <v>198</v>
       </c>
       <c r="C210" s="3"/>
       <c r="D210" s="3" t="s">
-        <v>408</v>
+        <v>394</v>
       </c>
       <c r="E210" s="3"/>
     </row>
     <row r="211" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A211" s="3">
-        <v>18</v>
-      </c>
-      <c r="B211" s="10" t="s">
-        <v>204</v>
+        <v>16</v>
+      </c>
+      <c r="B211" s="3" t="s">
+        <v>199</v>
       </c>
       <c r="C211" s="3"/>
-      <c r="D211" s="3" t="s">
-        <v>408</v>
-      </c>
+      <c r="D211" s="3"/>
       <c r="E211" s="3"/>
     </row>
     <row r="212" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A212" s="3">
-        <v>19</v>
-      </c>
-      <c r="B212" s="10" t="s">
-        <v>205</v>
+        <v>17</v>
+      </c>
+      <c r="B212" s="7" t="s">
+        <v>200</v>
       </c>
       <c r="C212" s="3"/>
       <c r="D212" s="3" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="E212" s="3"/>
     </row>
     <row r="213" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A213" s="3">
-        <v>20</v>
-      </c>
-      <c r="B213" s="3" t="s">
-        <v>206</v>
+        <v>18</v>
+      </c>
+      <c r="B213" s="7" t="s">
+        <v>201</v>
       </c>
       <c r="C213" s="3"/>
       <c r="D213" s="3" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="E213" s="3"/>
     </row>
     <row r="214" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A214" s="3">
-        <v>21</v>
-      </c>
-      <c r="B214" s="3" t="s">
-        <v>207</v>
+        <v>19</v>
+      </c>
+      <c r="B214" s="7" t="s">
+        <v>202</v>
       </c>
       <c r="C214" s="3"/>
-      <c r="D214" s="3"/>
+      <c r="D214" s="3" t="s">
+        <v>404</v>
+      </c>
       <c r="E214" s="3"/>
     </row>
     <row r="215" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A215" s="3">
-        <v>22</v>
-      </c>
-      <c r="B215" s="10" t="s">
-        <v>208</v>
+        <v>20</v>
+      </c>
+      <c r="B215" s="3" t="s">
+        <v>203</v>
       </c>
       <c r="C215" s="3"/>
       <c r="D215" s="3" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="E215" s="3"/>
     </row>
     <row r="216" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A216" s="3">
+        <v>21</v>
+      </c>
+      <c r="B216" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="C216" s="3"/>
+      <c r="D216" s="3"/>
+      <c r="E216" s="3"/>
+    </row>
+    <row r="217" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A217" s="3">
+        <v>22</v>
+      </c>
+      <c r="B217" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="C217" s="3"/>
+      <c r="D217" s="3" t="s">
+        <v>404</v>
+      </c>
+      <c r="E217" s="3"/>
+    </row>
+    <row r="218" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A218" s="3">
         <v>23</v>
       </c>
-      <c r="B216" s="10" t="s">
-        <v>457</v>
-      </c>
-      <c r="C216" s="3"/>
-      <c r="D216" s="3" t="s">
-        <v>360</v>
-      </c>
-      <c r="E216" s="3"/>
-    </row>
-    <row r="217" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A217" s="7" t="s">
-        <v>279</v>
-      </c>
-      <c r="B217" s="7"/>
-      <c r="C217" s="7"/>
-      <c r="D217" s="7"/>
-      <c r="E217" s="7"/>
-    </row>
-    <row r="218" spans="1:5" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A218" s="3">
-        <v>1</v>
-      </c>
-      <c r="B218" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="C218" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="D218" s="3"/>
-      <c r="E218" s="5" t="s">
-        <v>102</v>
-      </c>
+      <c r="B218" s="7" t="s">
+        <v>451</v>
+      </c>
+      <c r="C218" s="3"/>
+      <c r="D218" s="3" t="s">
+        <v>356</v>
+      </c>
+      <c r="E218" s="3"/>
     </row>
     <row r="219" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A219" s="3">
-        <v>2</v>
-      </c>
-      <c r="B219" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="C219" s="3"/>
-      <c r="D219" s="3" t="s">
-        <v>387</v>
-      </c>
-      <c r="E219" s="5"/>
+      <c r="A219" s="12" t="s">
+        <v>275</v>
+      </c>
+      <c r="B219" s="12"/>
+      <c r="C219" s="12"/>
+      <c r="D219" s="12"/>
+      <c r="E219" s="12"/>
     </row>
     <row r="220" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A220" s="3">
-        <v>3</v>
-      </c>
-      <c r="B220" s="3" t="s">
-        <v>35</v>
+        <v>1</v>
+      </c>
+      <c r="B220" s="7" t="s">
+        <v>33</v>
       </c>
       <c r="C220" s="3"/>
       <c r="D220" s="3" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="E220" s="5"/>
     </row>
     <row r="221" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A221" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B221" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C221" s="3"/>
       <c r="D221" s="3" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="E221" s="5"/>
     </row>
     <row r="222" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A222" s="3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B222" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C222" s="3"/>
       <c r="D222" s="3" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="E222" s="5"/>
     </row>
     <row r="223" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A223" s="3">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B223" s="3" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="C223" s="3"/>
       <c r="D223" s="3" t="s">
-        <v>387</v>
-      </c>
-      <c r="E223" s="5" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="224" spans="1:5" ht="33" x14ac:dyDescent="0.3">
+        <v>383</v>
+      </c>
+      <c r="E223" s="5"/>
+    </row>
+    <row r="224" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A224" s="3">
-        <v>7</v>
-      </c>
-      <c r="B224" s="10" t="s">
-        <v>30</v>
+        <v>5</v>
+      </c>
+      <c r="B224" s="3" t="s">
+        <v>29</v>
       </c>
       <c r="C224" s="3"/>
       <c r="D224" s="3" t="s">
-        <v>398</v>
+        <v>383</v>
       </c>
       <c r="E224" s="5" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="225" spans="1:5" ht="33" x14ac:dyDescent="0.3">
       <c r="A225" s="3">
-        <v>8</v>
-      </c>
-      <c r="B225" s="3" t="s">
-        <v>31</v>
+        <v>6</v>
+      </c>
+      <c r="B225" s="7" t="s">
+        <v>30</v>
       </c>
       <c r="C225" s="3"/>
       <c r="D225" s="3" t="s">
-        <v>410</v>
+        <v>394</v>
       </c>
       <c r="E225" s="5" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="226" spans="1:5" x14ac:dyDescent="0.3">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="226" spans="1:5" ht="33" x14ac:dyDescent="0.3">
       <c r="A226" s="3">
-        <v>9</v>
-      </c>
-      <c r="B226" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="C226" s="3" t="s">
-        <v>109</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="B226" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C226" s="3"/>
       <c r="D226" s="3" t="s">
-        <v>398</v>
+        <v>406</v>
       </c>
       <c r="E226" s="5" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
     </row>
     <row r="227" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A227" s="3">
-        <v>10</v>
-      </c>
-      <c r="B227" s="10" t="s">
-        <v>121</v>
-      </c>
-      <c r="C227" s="3"/>
-      <c r="D227" s="3"/>
-      <c r="E227" s="3"/>
+        <v>8</v>
+      </c>
+      <c r="B227" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="C227" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="D227" s="3" t="s">
+        <v>394</v>
+      </c>
+      <c r="E227" s="5" t="s">
+        <v>106</v>
+      </c>
     </row>
     <row r="228" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A228" s="3">
-        <v>11</v>
-      </c>
-      <c r="B228" s="10" t="s">
-        <v>235</v>
+        <v>9</v>
+      </c>
+      <c r="B228" s="7" t="s">
+        <v>118</v>
       </c>
       <c r="C228" s="3"/>
       <c r="D228" s="3"/>
@@ -5087,10 +5090,10 @@
     </row>
     <row r="229" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A229" s="3">
-        <v>12</v>
-      </c>
-      <c r="B229" s="10" t="s">
-        <v>236</v>
+        <v>10</v>
+      </c>
+      <c r="B229" s="7" t="s">
+        <v>232</v>
       </c>
       <c r="C229" s="3"/>
       <c r="D229" s="3"/>
@@ -5098,180 +5101,182 @@
     </row>
     <row r="230" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A230" s="3">
-        <v>13</v>
-      </c>
-      <c r="B230" s="3" t="s">
-        <v>237</v>
+        <v>11</v>
+      </c>
+      <c r="B230" s="7" t="s">
+        <v>233</v>
       </c>
       <c r="C230" s="3"/>
       <c r="D230" s="3"/>
       <c r="E230" s="3"/>
     </row>
     <row r="231" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A231" s="7" t="s">
-        <v>280</v>
-      </c>
-      <c r="B231" s="7"/>
-      <c r="C231" s="7"/>
-      <c r="D231" s="7"/>
-      <c r="E231" s="7"/>
+      <c r="A231" s="3">
+        <v>12</v>
+      </c>
+      <c r="B231" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="C231" s="3"/>
+      <c r="D231" s="3"/>
+      <c r="E231" s="3"/>
     </row>
     <row r="232" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A232" s="3">
-        <v>1</v>
-      </c>
-      <c r="B232" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C232" s="3"/>
-      <c r="D232" s="3" t="s">
-        <v>380</v>
-      </c>
-      <c r="E232" s="3"/>
+      <c r="A232" s="12" t="s">
+        <v>276</v>
+      </c>
+      <c r="B232" s="12"/>
+      <c r="C232" s="12"/>
+      <c r="D232" s="12"/>
+      <c r="E232" s="12"/>
     </row>
     <row r="233" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A233" s="3">
-        <v>2</v>
-      </c>
-      <c r="B233" s="10" t="s">
-        <v>104</v>
+        <v>1</v>
+      </c>
+      <c r="B233" s="3" t="s">
+        <v>21</v>
       </c>
       <c r="C233" s="3"/>
       <c r="D233" s="3" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="E233" s="3"/>
     </row>
     <row r="234" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A234" s="3">
-        <v>3</v>
-      </c>
-      <c r="B234" s="10" t="s">
-        <v>252</v>
+        <v>2</v>
+      </c>
+      <c r="B234" s="7" t="s">
+        <v>102</v>
       </c>
       <c r="C234" s="3"/>
-      <c r="D234" s="3"/>
+      <c r="D234" s="3" t="s">
+        <v>376</v>
+      </c>
       <c r="E234" s="3"/>
     </row>
     <row r="235" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A235" s="3">
-        <v>4</v>
-      </c>
-      <c r="B235" s="3" t="s">
-        <v>253</v>
+        <v>3</v>
+      </c>
+      <c r="B235" s="7" t="s">
+        <v>249</v>
       </c>
       <c r="C235" s="3"/>
       <c r="D235" s="3" t="s">
-        <v>398</v>
+        <v>356</v>
       </c>
       <c r="E235" s="3"/>
     </row>
     <row r="236" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A236" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B236" s="3" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="C236" s="3"/>
       <c r="D236" s="3" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="E236" s="3"/>
     </row>
     <row r="237" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A237" s="3">
-        <v>6</v>
-      </c>
-      <c r="B237" s="10" t="s">
-        <v>447</v>
+        <v>5</v>
+      </c>
+      <c r="B237" s="3" t="s">
+        <v>251</v>
       </c>
       <c r="C237" s="3"/>
       <c r="D237" s="3" t="s">
-        <v>445</v>
+        <v>394</v>
       </c>
       <c r="E237" s="3"/>
     </row>
     <row r="238" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A238" s="3">
-        <v>7</v>
-      </c>
-      <c r="B238" s="10" t="s">
-        <v>451</v>
-      </c>
-      <c r="C238" s="3" t="s">
-        <v>452</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="B238" s="7" t="s">
+        <v>441</v>
+      </c>
+      <c r="C238" s="3"/>
       <c r="D238" s="3" t="s">
-        <v>453</v>
+        <v>439</v>
       </c>
       <c r="E238" s="3"/>
     </row>
     <row r="239" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A239" s="3">
-        <v>8</v>
-      </c>
-      <c r="B239" s="10" t="s">
-        <v>454</v>
-      </c>
-      <c r="C239" s="3"/>
+        <v>7</v>
+      </c>
+      <c r="B239" s="7" t="s">
+        <v>445</v>
+      </c>
+      <c r="C239" s="3" t="s">
+        <v>446</v>
+      </c>
       <c r="D239" s="3" t="s">
-        <v>360</v>
+        <v>447</v>
       </c>
       <c r="E239" s="3"/>
     </row>
     <row r="240" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A240" s="3">
-        <v>9</v>
-      </c>
-      <c r="B240" s="10" t="s">
-        <v>455</v>
+        <v>8</v>
+      </c>
+      <c r="B240" s="7" t="s">
+        <v>448</v>
       </c>
       <c r="C240" s="3"/>
       <c r="D240" s="3" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="E240" s="3"/>
     </row>
     <row r="241" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A241" s="3">
-        <v>10</v>
-      </c>
-      <c r="B241" s="11" t="s">
-        <v>456</v>
+        <v>9</v>
+      </c>
+      <c r="B241" s="7" t="s">
+        <v>449</v>
       </c>
       <c r="C241" s="3"/>
       <c r="D241" s="3" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="E241" s="3"/>
     </row>
     <row r="242" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A242" s="7" t="s">
-        <v>281</v>
-      </c>
-      <c r="B242" s="7"/>
-      <c r="C242" s="7"/>
-      <c r="D242" s="7"/>
-      <c r="E242" s="7"/>
+      <c r="A242" s="3">
+        <v>10</v>
+      </c>
+      <c r="B242" s="8" t="s">
+        <v>450</v>
+      </c>
+      <c r="C242" s="3"/>
+      <c r="D242" s="3" t="s">
+        <v>356</v>
+      </c>
+      <c r="E242" s="3"/>
     </row>
     <row r="243" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A243" s="3">
-        <v>1</v>
-      </c>
-      <c r="B243" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C243" s="3"/>
-      <c r="D243" s="3"/>
-      <c r="E243" s="3"/>
+      <c r="A243" s="12" t="s">
+        <v>277</v>
+      </c>
+      <c r="B243" s="12"/>
+      <c r="C243" s="12"/>
+      <c r="D243" s="12"/>
+      <c r="E243" s="12"/>
     </row>
     <row r="244" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A244" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B244" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C244" s="3"/>
       <c r="D244" s="3"/>
@@ -5279,10 +5284,10 @@
     </row>
     <row r="245" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A245" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B245" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C245" s="3"/>
       <c r="D245" s="3"/>
@@ -5290,254 +5295,254 @@
     </row>
     <row r="246" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A246" s="3">
+        <v>3</v>
+      </c>
+      <c r="B246" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C246" s="3"/>
+      <c r="D246" s="3"/>
+      <c r="E246" s="3"/>
+    </row>
+    <row r="247" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A247" s="3">
         <v>4</v>
       </c>
-      <c r="B246" s="3" t="s">
+      <c r="B247" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C246" s="3"/>
-      <c r="D246" s="3" t="s">
-        <v>412</v>
-      </c>
-      <c r="E246" s="3"/>
-    </row>
-    <row r="247" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A247" s="7" t="s">
-        <v>282</v>
-      </c>
-      <c r="B247" s="7"/>
-      <c r="C247" s="7"/>
-      <c r="D247" s="7"/>
-      <c r="E247" s="7"/>
+      <c r="C247" s="3"/>
+      <c r="D247" s="3" t="s">
+        <v>408</v>
+      </c>
+      <c r="E247" s="3"/>
     </row>
     <row r="248" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A248" s="3">
-        <v>1</v>
-      </c>
-      <c r="B248" s="3" t="s">
-        <v>250</v>
-      </c>
-      <c r="C248" s="3"/>
-      <c r="D248" s="3" t="s">
-        <v>387</v>
-      </c>
-      <c r="E248" s="3"/>
+      <c r="A248" s="12" t="s">
+        <v>278</v>
+      </c>
+      <c r="B248" s="12"/>
+      <c r="C248" s="12"/>
+      <c r="D248" s="12"/>
+      <c r="E248" s="12"/>
     </row>
     <row r="249" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A249" s="3">
-        <v>2</v>
-      </c>
-      <c r="B249" s="10" t="s">
-        <v>251</v>
+        <v>1</v>
+      </c>
+      <c r="B249" s="3" t="s">
+        <v>247</v>
       </c>
       <c r="C249" s="3"/>
       <c r="D249" s="3" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="E249" s="3"/>
     </row>
     <row r="250" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A250" s="3">
-        <v>3</v>
-      </c>
-      <c r="B250" s="3" t="s">
-        <v>255</v>
+        <v>2</v>
+      </c>
+      <c r="B250" s="7" t="s">
+        <v>248</v>
       </c>
       <c r="C250" s="3"/>
       <c r="D250" s="3" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="E250" s="3"/>
     </row>
     <row r="251" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A251" s="3">
-        <v>4</v>
-      </c>
-      <c r="B251" s="10" t="s">
-        <v>256</v>
+        <v>3</v>
+      </c>
+      <c r="B251" s="3" t="s">
+        <v>252</v>
       </c>
       <c r="C251" s="3"/>
-      <c r="D251" s="3"/>
+      <c r="D251" s="3" t="s">
+        <v>381</v>
+      </c>
       <c r="E251" s="3"/>
     </row>
     <row r="252" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A252" s="3">
-        <v>5</v>
-      </c>
-      <c r="B252" s="10" t="s">
-        <v>257</v>
+        <v>4</v>
+      </c>
+      <c r="B252" s="7" t="s">
+        <v>253</v>
       </c>
       <c r="C252" s="3"/>
-      <c r="D252" s="3" t="s">
-        <v>387</v>
-      </c>
+      <c r="D252" s="3"/>
       <c r="E252" s="3"/>
     </row>
     <row r="253" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A253" s="3">
-        <v>6</v>
-      </c>
-      <c r="B253" s="3" t="s">
-        <v>258</v>
+        <v>5</v>
+      </c>
+      <c r="B253" s="7" t="s">
+        <v>254</v>
       </c>
       <c r="C253" s="3"/>
       <c r="D253" s="3" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="E253" s="3"/>
     </row>
     <row r="254" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A254" s="3">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B254" s="3" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="C254" s="3"/>
       <c r="D254" s="3" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="E254" s="3"/>
     </row>
     <row r="255" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A255" s="3">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B255" s="3" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="C255" s="3"/>
       <c r="D255" s="3" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="E255" s="3"/>
     </row>
     <row r="256" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A256" s="3">
-        <v>9</v>
-      </c>
-      <c r="B256" s="10" t="s">
-        <v>261</v>
+        <v>8</v>
+      </c>
+      <c r="B256" s="3" t="s">
+        <v>257</v>
       </c>
       <c r="C256" s="3"/>
       <c r="D256" s="3" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="E256" s="3"/>
     </row>
     <row r="257" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A257" s="3">
-        <v>10</v>
-      </c>
-      <c r="B257" s="3" t="s">
-        <v>262</v>
+        <v>9</v>
+      </c>
+      <c r="B257" s="7" t="s">
+        <v>258</v>
       </c>
       <c r="C257" s="3"/>
-      <c r="D257" s="3"/>
+      <c r="D257" s="3" t="s">
+        <v>383</v>
+      </c>
       <c r="E257" s="3"/>
     </row>
     <row r="258" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A258" s="3">
-        <v>11</v>
-      </c>
-      <c r="B258" s="10" t="s">
-        <v>263</v>
+        <v>10</v>
+      </c>
+      <c r="B258" s="3" t="s">
+        <v>259</v>
       </c>
       <c r="C258" s="3"/>
-      <c r="D258" s="3" t="s">
-        <v>387</v>
-      </c>
+      <c r="D258" s="3"/>
       <c r="E258" s="3"/>
     </row>
     <row r="259" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A259" s="3">
-        <v>12</v>
-      </c>
-      <c r="B259" s="10" t="s">
-        <v>264</v>
+        <v>11</v>
+      </c>
+      <c r="B259" s="7" t="s">
+        <v>260</v>
       </c>
       <c r="C259" s="3"/>
       <c r="D259" s="3" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="E259" s="3"/>
     </row>
     <row r="260" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A260" s="7" t="s">
-        <v>283</v>
-      </c>
-      <c r="B260" s="7"/>
-      <c r="C260" s="7"/>
-      <c r="D260" s="7"/>
-      <c r="E260" s="7"/>
+      <c r="A260" s="3">
+        <v>12</v>
+      </c>
+      <c r="B260" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="C260" s="3"/>
+      <c r="D260" s="3" t="s">
+        <v>383</v>
+      </c>
+      <c r="E260" s="3"/>
     </row>
     <row r="261" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A261" s="3">
-        <v>1</v>
-      </c>
-      <c r="B261" s="10" t="s">
-        <v>136</v>
-      </c>
-      <c r="C261" s="3"/>
-      <c r="D261" s="3" t="s">
-        <v>387</v>
-      </c>
-      <c r="E261" s="3"/>
+      <c r="A261" s="12" t="s">
+        <v>279</v>
+      </c>
+      <c r="B261" s="12"/>
+      <c r="C261" s="12"/>
+      <c r="D261" s="12"/>
+      <c r="E261" s="12"/>
     </row>
     <row r="262" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A262" s="3">
-        <v>2</v>
-      </c>
-      <c r="B262" s="3" t="s">
-        <v>137</v>
+        <v>1</v>
+      </c>
+      <c r="B262" s="7" t="s">
+        <v>133</v>
       </c>
       <c r="C262" s="3"/>
-      <c r="D262" s="3"/>
+      <c r="D262" s="3" t="s">
+        <v>383</v>
+      </c>
       <c r="E262" s="3"/>
     </row>
     <row r="263" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A263" s="3">
-        <v>3</v>
-      </c>
-      <c r="B263" s="10" t="s">
-        <v>138</v>
+        <v>2</v>
+      </c>
+      <c r="B263" s="3" t="s">
+        <v>134</v>
       </c>
       <c r="C263" s="3"/>
-      <c r="D263" s="3" t="s">
-        <v>387</v>
-      </c>
+      <c r="D263" s="3"/>
       <c r="E263" s="3"/>
     </row>
     <row r="264" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A264" s="3">
-        <v>4</v>
-      </c>
-      <c r="B264" s="3" t="s">
-        <v>139</v>
+        <v>3</v>
+      </c>
+      <c r="B264" s="7" t="s">
+        <v>135</v>
       </c>
       <c r="C264" s="3"/>
       <c r="D264" s="3" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="E264" s="3"/>
     </row>
     <row r="265" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A265" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B265" s="3" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="C265" s="3"/>
-      <c r="D265" s="3"/>
+      <c r="D265" s="3" t="s">
+        <v>383</v>
+      </c>
       <c r="E265" s="3"/>
     </row>
     <row r="266" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A266" s="3">
-        <v>6</v>
-      </c>
-      <c r="B266" s="10" t="s">
-        <v>176</v>
+        <v>5</v>
+      </c>
+      <c r="B266" s="3" t="s">
+        <v>137</v>
       </c>
       <c r="C266" s="3"/>
       <c r="D266" s="3"/>
@@ -5545,10 +5550,10 @@
     </row>
     <row r="267" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A267" s="3">
-        <v>7</v>
-      </c>
-      <c r="B267" s="3" t="s">
-        <v>177</v>
+        <v>6</v>
+      </c>
+      <c r="B267" s="7" t="s">
+        <v>173</v>
       </c>
       <c r="C267" s="3"/>
       <c r="D267" s="3"/>
@@ -5556,10 +5561,10 @@
     </row>
     <row r="268" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A268" s="3">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B268" s="3" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="C268" s="3"/>
       <c r="D268" s="3"/>
@@ -5567,10 +5572,10 @@
     </row>
     <row r="269" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A269" s="3">
-        <v>9</v>
-      </c>
-      <c r="B269" s="10" t="s">
-        <v>179</v>
+        <v>8</v>
+      </c>
+      <c r="B269" s="3" t="s">
+        <v>175</v>
       </c>
       <c r="C269" s="3"/>
       <c r="D269" s="3"/>
@@ -5578,34 +5583,34 @@
     </row>
     <row r="270" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A270" s="3">
-        <v>10</v>
-      </c>
-      <c r="B270" s="3" t="s">
-        <v>197</v>
+        <v>9</v>
+      </c>
+      <c r="B270" s="7" t="s">
+        <v>176</v>
       </c>
       <c r="C270" s="3"/>
-      <c r="D270" s="3" t="s">
-        <v>413</v>
-      </c>
+      <c r="D270" s="3"/>
       <c r="E270" s="3"/>
     </row>
     <row r="271" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A271" s="3">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B271" s="3" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="C271" s="3"/>
-      <c r="D271" s="3"/>
+      <c r="D271" s="3" t="s">
+        <v>409</v>
+      </c>
       <c r="E271" s="3"/>
     </row>
     <row r="272" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A272" s="3">
-        <v>12</v>
-      </c>
-      <c r="B272" s="10" t="s">
-        <v>199</v>
+        <v>11</v>
+      </c>
+      <c r="B272" s="3" t="s">
+        <v>195</v>
       </c>
       <c r="C272" s="3"/>
       <c r="D272" s="3"/>
@@ -5613,54 +5618,54 @@
     </row>
     <row r="273" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A273" s="3">
-        <v>13</v>
-      </c>
-      <c r="B273" s="3" t="s">
-        <v>227</v>
+        <v>12</v>
+      </c>
+      <c r="B273" s="7" t="s">
+        <v>196</v>
       </c>
       <c r="C273" s="3"/>
       <c r="D273" s="3"/>
       <c r="E273" s="3"/>
     </row>
     <row r="274" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A274" s="7" t="s">
-        <v>284</v>
-      </c>
-      <c r="B274" s="7"/>
-      <c r="C274" s="7"/>
-      <c r="D274" s="7"/>
-      <c r="E274" s="7"/>
+      <c r="A274" s="3">
+        <v>13</v>
+      </c>
+      <c r="B274" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="C274" s="3"/>
+      <c r="D274" s="3"/>
+      <c r="E274" s="3"/>
     </row>
     <row r="275" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A275" s="3">
-        <v>1</v>
-      </c>
-      <c r="B275" s="3" t="s">
-        <v>170</v>
-      </c>
-      <c r="C275" s="3"/>
-      <c r="D275" s="3" t="s">
-        <v>414</v>
-      </c>
-      <c r="E275" s="3"/>
+      <c r="A275" s="12" t="s">
+        <v>280</v>
+      </c>
+      <c r="B275" s="12"/>
+      <c r="C275" s="12"/>
+      <c r="D275" s="12"/>
+      <c r="E275" s="12"/>
     </row>
     <row r="276" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A276" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B276" s="3" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="C276" s="3"/>
-      <c r="D276" s="3"/>
+      <c r="D276" s="3" t="s">
+        <v>410</v>
+      </c>
       <c r="E276" s="3"/>
     </row>
     <row r="277" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A277" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B277" s="3" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="C277" s="3"/>
       <c r="D277" s="3"/>
@@ -5668,10 +5673,10 @@
     </row>
     <row r="278" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A278" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B278" s="3" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="C278" s="3"/>
       <c r="D278" s="3"/>
@@ -5679,10 +5684,10 @@
     </row>
     <row r="279" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A279" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B279" s="3" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="C279" s="3"/>
       <c r="D279" s="3"/>
@@ -5690,489 +5695,489 @@
     </row>
     <row r="280" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A280" s="3">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B280" s="3" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="C280" s="3"/>
-      <c r="D280" s="3" t="s">
-        <v>387</v>
-      </c>
+      <c r="D280" s="3"/>
       <c r="E280" s="3"/>
     </row>
     <row r="281" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A281" s="3">
+        <v>6</v>
+      </c>
+      <c r="B281" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="C281" s="3"/>
+      <c r="D281" s="3" t="s">
+        <v>383</v>
+      </c>
+      <c r="E281" s="3"/>
+    </row>
+    <row r="282" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A282" s="3">
         <v>7</v>
       </c>
-      <c r="B281" s="3" t="s">
-        <v>239</v>
-      </c>
-      <c r="C281" s="3"/>
-      <c r="D281" s="3"/>
-      <c r="E281" s="3"/>
-    </row>
-    <row r="282" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A282" s="7" t="s">
-        <v>289</v>
-      </c>
-      <c r="B282" s="7"/>
-      <c r="C282" s="7"/>
-      <c r="D282" s="7"/>
-      <c r="E282" s="7"/>
+      <c r="B282" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="C282" s="3"/>
+      <c r="D282" s="3"/>
+      <c r="E282" s="3"/>
     </row>
     <row r="283" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A283" s="3">
-        <v>1</v>
-      </c>
-      <c r="B283" s="3" t="s">
-        <v>290</v>
-      </c>
-      <c r="C283" s="3" t="s">
-        <v>292</v>
-      </c>
-      <c r="D283" s="3"/>
-      <c r="E283" s="3"/>
+      <c r="A283" s="12" t="s">
+        <v>285</v>
+      </c>
+      <c r="B283" s="12"/>
+      <c r="C283" s="12"/>
+      <c r="D283" s="12"/>
+      <c r="E283" s="12"/>
     </row>
     <row r="284" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A284" s="3">
-        <v>2</v>
-      </c>
-      <c r="B284" s="10" t="s">
-        <v>444</v>
+        <v>1</v>
+      </c>
+      <c r="B284" s="3" t="s">
+        <v>286</v>
       </c>
       <c r="C284" s="3" t="s">
-        <v>291</v>
-      </c>
-      <c r="D284" s="3" t="s">
-        <v>445</v>
-      </c>
+        <v>288</v>
+      </c>
+      <c r="D284" s="3"/>
       <c r="E284" s="3"/>
     </row>
     <row r="285" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A285" s="3">
-        <v>3</v>
-      </c>
-      <c r="B285" s="10" t="s">
-        <v>307</v>
+        <v>2</v>
+      </c>
+      <c r="B285" s="7" t="s">
+        <v>438</v>
       </c>
       <c r="C285" s="3" t="s">
-        <v>293</v>
-      </c>
-      <c r="D285" s="3"/>
+        <v>287</v>
+      </c>
+      <c r="D285" s="3" t="s">
+        <v>439</v>
+      </c>
       <c r="E285" s="3"/>
     </row>
     <row r="286" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A286" s="3">
-        <v>4</v>
-      </c>
-      <c r="B286" s="3" t="s">
-        <v>308</v>
+        <v>3</v>
+      </c>
+      <c r="B286" s="7" t="s">
+        <v>303</v>
       </c>
       <c r="C286" s="3" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="D286" s="3"/>
       <c r="E286" s="3"/>
     </row>
     <row r="287" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A287" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B287" s="3" t="s">
-        <v>366</v>
+        <v>304</v>
       </c>
       <c r="C287" s="3" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="D287" s="3"/>
       <c r="E287" s="3"/>
     </row>
     <row r="288" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A288" s="3">
-        <v>6</v>
-      </c>
-      <c r="B288" s="10" t="s">
-        <v>309</v>
+        <v>5</v>
+      </c>
+      <c r="B288" s="3" t="s">
+        <v>362</v>
       </c>
       <c r="C288" s="3" t="s">
-        <v>296</v>
-      </c>
-      <c r="D288" s="3" t="s">
-        <v>379</v>
-      </c>
+        <v>291</v>
+      </c>
+      <c r="D288" s="3"/>
       <c r="E288" s="3"/>
     </row>
     <row r="289" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A289" s="3">
-        <v>7</v>
-      </c>
-      <c r="B289" s="3" t="s">
-        <v>297</v>
+        <v>6</v>
+      </c>
+      <c r="B289" s="7" t="s">
+        <v>305</v>
       </c>
       <c r="C289" s="3" t="s">
-        <v>298</v>
-      </c>
-      <c r="D289" s="3"/>
+        <v>292</v>
+      </c>
+      <c r="D289" s="3" t="s">
+        <v>375</v>
+      </c>
       <c r="E289" s="3"/>
     </row>
     <row r="290" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A290" s="3">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B290" s="3" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="C290" s="3" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="D290" s="3"/>
       <c r="E290" s="3"/>
     </row>
     <row r="291" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A291" s="3">
+        <v>8</v>
+      </c>
+      <c r="B291" s="3" t="s">
+        <v>295</v>
+      </c>
+      <c r="C291" s="3" t="s">
+        <v>296</v>
+      </c>
+      <c r="D291" s="3"/>
+      <c r="E291" s="3"/>
+    </row>
+    <row r="292" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A292" s="3">
         <v>9</v>
       </c>
-      <c r="B291" s="10" t="s">
-        <v>301</v>
-      </c>
-      <c r="C291" s="3" t="s">
-        <v>302</v>
-      </c>
-      <c r="D291" s="3" t="s">
-        <v>360</v>
-      </c>
-      <c r="E291" s="3"/>
-    </row>
-    <row r="292" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A292" s="7" t="s">
-        <v>370</v>
-      </c>
-      <c r="B292" s="7"/>
-      <c r="C292" s="7"/>
-      <c r="D292" s="7"/>
-      <c r="E292" s="7"/>
+      <c r="B292" s="7" t="s">
+        <v>297</v>
+      </c>
+      <c r="C292" s="3" t="s">
+        <v>298</v>
+      </c>
+      <c r="D292" s="3" t="s">
+        <v>356</v>
+      </c>
+      <c r="E292" s="3"/>
     </row>
     <row r="293" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A293" s="8" t="s">
-        <v>303</v>
-      </c>
-      <c r="B293" s="9"/>
-      <c r="C293" s="3"/>
-      <c r="D293" s="3"/>
-      <c r="E293" s="3"/>
+      <c r="A293" s="12" t="s">
+        <v>366</v>
+      </c>
+      <c r="B293" s="12"/>
+      <c r="C293" s="12"/>
+      <c r="D293" s="12"/>
+      <c r="E293" s="12"/>
     </row>
     <row r="294" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A294" s="3">
-        <v>1</v>
-      </c>
-      <c r="B294" s="10" t="s">
-        <v>310</v>
-      </c>
+      <c r="A294" s="10" t="s">
+        <v>299</v>
+      </c>
+      <c r="B294" s="11"/>
       <c r="C294" s="3"/>
-      <c r="D294" s="3" t="s">
-        <v>360</v>
-      </c>
+      <c r="D294" s="3"/>
       <c r="E294" s="3"/>
     </row>
     <row r="295" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A295" s="3">
-        <v>2</v>
-      </c>
-      <c r="B295" s="10" t="s">
-        <v>311</v>
+        <v>1</v>
+      </c>
+      <c r="B295" s="7" t="s">
+        <v>306</v>
       </c>
       <c r="C295" s="3"/>
       <c r="D295" s="3" t="s">
-        <v>369</v>
-      </c>
-      <c r="E295" s="3" t="s">
-        <v>446</v>
-      </c>
+        <v>356</v>
+      </c>
+      <c r="E295" s="3"/>
     </row>
     <row r="296" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A296" s="3">
-        <v>3</v>
-      </c>
-      <c r="B296" s="10" t="s">
-        <v>94</v>
+        <v>2</v>
+      </c>
+      <c r="B296" s="7" t="s">
+        <v>307</v>
       </c>
       <c r="C296" s="3"/>
       <c r="D296" s="3" t="s">
-        <v>360</v>
-      </c>
-      <c r="E296" s="3"/>
+        <v>365</v>
+      </c>
+      <c r="E296" s="3" t="s">
+        <v>440</v>
+      </c>
     </row>
     <row r="297" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A297" s="3">
+        <v>3</v>
+      </c>
+      <c r="B297" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="C297" s="3"/>
+      <c r="D297" s="3" t="s">
+        <v>356</v>
+      </c>
+      <c r="E297" s="3"/>
+    </row>
+    <row r="298" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A298" s="3">
         <v>4</v>
       </c>
-      <c r="B297" s="3" t="s">
-        <v>312</v>
-      </c>
-      <c r="C297" s="3"/>
-      <c r="D297" s="6" t="s">
-        <v>372</v>
-      </c>
-      <c r="E297" s="3"/>
-    </row>
-    <row r="298" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A298" s="8" t="s">
-        <v>304</v>
-      </c>
-      <c r="B298" s="9"/>
+      <c r="B298" s="3" t="s">
+        <v>308</v>
+      </c>
       <c r="C298" s="3"/>
-      <c r="D298" s="3"/>
+      <c r="D298" s="6" t="s">
+        <v>368</v>
+      </c>
       <c r="E298" s="3"/>
     </row>
     <row r="299" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A299" s="3">
-        <v>1</v>
-      </c>
-      <c r="B299" s="10" t="s">
-        <v>313</v>
-      </c>
+      <c r="A299" s="10" t="s">
+        <v>300</v>
+      </c>
+      <c r="B299" s="11"/>
       <c r="C299" s="3"/>
-      <c r="D299" s="3" t="s">
-        <v>363</v>
-      </c>
+      <c r="D299" s="3"/>
       <c r="E299" s="3"/>
     </row>
     <row r="300" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A300" s="3">
-        <v>2</v>
-      </c>
-      <c r="B300" s="10" t="s">
-        <v>314</v>
+        <v>1</v>
+      </c>
+      <c r="B300" s="7" t="s">
+        <v>309</v>
       </c>
       <c r="C300" s="3"/>
       <c r="D300" s="3" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="E300" s="3"/>
     </row>
     <row r="301" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A301" s="3">
-        <v>3</v>
-      </c>
-      <c r="B301" s="10" t="s">
-        <v>315</v>
+        <v>2</v>
+      </c>
+      <c r="B301" s="7" t="s">
+        <v>310</v>
       </c>
       <c r="C301" s="3"/>
       <c r="D301" s="3" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="E301" s="3"/>
     </row>
     <row r="302" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A302" s="3">
-        <v>4</v>
-      </c>
-      <c r="B302" s="10" t="s">
-        <v>316</v>
+        <v>3</v>
+      </c>
+      <c r="B302" s="7" t="s">
+        <v>311</v>
       </c>
       <c r="C302" s="3"/>
-      <c r="D302" s="6" t="s">
-        <v>372</v>
+      <c r="D302" s="3" t="s">
+        <v>356</v>
       </c>
       <c r="E302" s="3"/>
     </row>
     <row r="303" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A303" s="3">
+        <v>4</v>
+      </c>
+      <c r="B303" s="7" t="s">
+        <v>312</v>
+      </c>
+      <c r="C303" s="3"/>
+      <c r="D303" s="6" t="s">
+        <v>368</v>
+      </c>
+      <c r="E303" s="3"/>
+    </row>
+    <row r="304" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A304" s="3">
         <v>5</v>
       </c>
-      <c r="B303" s="3" t="s">
-        <v>317</v>
-      </c>
-      <c r="C303" s="3"/>
-      <c r="D303" s="3" t="s">
-        <v>373</v>
-      </c>
-      <c r="E303" s="3"/>
-    </row>
-    <row r="304" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A304" s="8" t="s">
-        <v>305</v>
-      </c>
-      <c r="B304" s="9"/>
+      <c r="B304" s="3" t="s">
+        <v>313</v>
+      </c>
       <c r="C304" s="3"/>
-      <c r="D304" s="3"/>
+      <c r="D304" s="3" t="s">
+        <v>369</v>
+      </c>
       <c r="E304" s="3"/>
     </row>
     <row r="305" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A305" s="3">
+      <c r="A305" s="10" t="s">
+        <v>301</v>
+      </c>
+      <c r="B305" s="11"/>
+      <c r="C305" s="3"/>
+      <c r="D305" s="3"/>
+      <c r="E305" s="3"/>
+    </row>
+    <row r="306" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A306" s="3">
         <v>1</v>
       </c>
-      <c r="B305" s="3" t="s">
-        <v>318</v>
-      </c>
-      <c r="C305" s="3"/>
-      <c r="D305" s="3" t="s">
-        <v>360</v>
-      </c>
-      <c r="E305" s="3"/>
-    </row>
-    <row r="306" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A306" s="8" t="s">
-        <v>355</v>
-      </c>
-      <c r="B306" s="9"/>
+      <c r="B306" s="3" t="s">
+        <v>314</v>
+      </c>
       <c r="C306" s="3"/>
-      <c r="D306" s="3"/>
+      <c r="D306" s="3" t="s">
+        <v>356</v>
+      </c>
       <c r="E306" s="3"/>
     </row>
     <row r="307" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A307" s="3">
-        <v>1</v>
-      </c>
-      <c r="B307" s="10" t="s">
-        <v>319</v>
-      </c>
+      <c r="A307" s="10" t="s">
+        <v>351</v>
+      </c>
+      <c r="B307" s="11"/>
       <c r="C307" s="3"/>
-      <c r="D307" s="3" t="s">
-        <v>374</v>
-      </c>
+      <c r="D307" s="3"/>
       <c r="E307" s="3"/>
     </row>
     <row r="308" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A308" s="3">
-        <v>2</v>
-      </c>
-      <c r="B308" s="10" t="s">
-        <v>320</v>
+        <v>1</v>
+      </c>
+      <c r="B308" s="7" t="s">
+        <v>315</v>
       </c>
       <c r="C308" s="3"/>
       <c r="D308" s="3" t="s">
-        <v>375</v>
+        <v>370</v>
       </c>
       <c r="E308" s="3"/>
     </row>
     <row r="309" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A309" s="3">
+        <v>2</v>
+      </c>
+      <c r="B309" s="7" t="s">
+        <v>316</v>
+      </c>
+      <c r="C309" s="3"/>
+      <c r="D309" s="3" t="s">
+        <v>371</v>
+      </c>
+      <c r="E309" s="3"/>
+    </row>
+    <row r="310" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A310" s="3">
         <v>3</v>
       </c>
-      <c r="B309" s="10" t="s">
-        <v>321</v>
-      </c>
-      <c r="C309" s="3"/>
-      <c r="D309" s="6" t="s">
-        <v>372</v>
-      </c>
-      <c r="E309" s="3"/>
-    </row>
-    <row r="310" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A310" s="8" t="s">
-        <v>306</v>
-      </c>
-      <c r="B310" s="9"/>
+      <c r="B310" s="7" t="s">
+        <v>317</v>
+      </c>
       <c r="C310" s="3"/>
-      <c r="D310" s="3"/>
+      <c r="D310" s="6" t="s">
+        <v>368</v>
+      </c>
       <c r="E310" s="3"/>
     </row>
     <row r="311" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A311" s="3">
-        <v>1</v>
-      </c>
-      <c r="B311" s="10" t="s">
-        <v>322</v>
-      </c>
+      <c r="A311" s="10" t="s">
+        <v>302</v>
+      </c>
+      <c r="B311" s="11"/>
       <c r="C311" s="3"/>
-      <c r="D311" s="3" t="s">
-        <v>377</v>
-      </c>
+      <c r="D311" s="3"/>
       <c r="E311" s="3"/>
     </row>
     <row r="312" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A312" s="3">
-        <v>2</v>
-      </c>
-      <c r="B312" s="10" t="s">
-        <v>323</v>
+        <v>1</v>
+      </c>
+      <c r="B312" s="7" t="s">
+        <v>318</v>
       </c>
       <c r="C312" s="3"/>
       <c r="D312" s="3" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="E312" s="3"/>
     </row>
     <row r="313" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A313" s="8" t="s">
-        <v>356</v>
-      </c>
-      <c r="B313" s="9"/>
+      <c r="A313" s="3">
+        <v>2</v>
+      </c>
+      <c r="B313" s="7" t="s">
+        <v>319</v>
+      </c>
       <c r="C313" s="3"/>
-      <c r="D313" s="3"/>
+      <c r="D313" s="3" t="s">
+        <v>372</v>
+      </c>
       <c r="E313" s="3"/>
     </row>
     <row r="314" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A314" s="3">
-        <v>1</v>
-      </c>
-      <c r="B314" s="10" t="s">
-        <v>324</v>
-      </c>
+      <c r="A314" s="10" t="s">
+        <v>352</v>
+      </c>
+      <c r="B314" s="11"/>
       <c r="C314" s="3"/>
-      <c r="D314" s="3" t="s">
-        <v>360</v>
-      </c>
+      <c r="D314" s="3"/>
       <c r="E314" s="3"/>
     </row>
     <row r="315" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A315" s="3">
-        <v>2</v>
-      </c>
-      <c r="B315" s="10" t="s">
-        <v>325</v>
+        <v>1</v>
+      </c>
+      <c r="B315" s="7" t="s">
+        <v>320</v>
       </c>
       <c r="C315" s="3"/>
       <c r="D315" s="3" t="s">
-        <v>378</v>
+        <v>356</v>
       </c>
       <c r="E315" s="3"/>
     </row>
     <row r="316" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A316" s="3">
-        <v>3</v>
-      </c>
-      <c r="B316" s="10" t="s">
-        <v>326</v>
+        <v>2</v>
+      </c>
+      <c r="B316" s="7" t="s">
+        <v>321</v>
       </c>
       <c r="C316" s="3"/>
       <c r="D316" s="3" t="s">
-        <v>361</v>
+        <v>374</v>
       </c>
       <c r="E316" s="3"/>
     </row>
     <row r="317" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A317" s="3">
-        <v>4</v>
-      </c>
-      <c r="B317" s="10" t="s">
-        <v>327</v>
+        <v>3</v>
+      </c>
+      <c r="B317" s="7" t="s">
+        <v>322</v>
       </c>
       <c r="C317" s="3"/>
       <c r="D317" s="3" t="s">
-        <v>363</v>
+        <v>357</v>
       </c>
       <c r="E317" s="3"/>
     </row>
     <row r="318" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A318" s="3">
-        <v>5</v>
-      </c>
-      <c r="B318" s="3" t="s">
-        <v>328</v>
+        <v>4</v>
+      </c>
+      <c r="B318" s="7" t="s">
+        <v>323</v>
       </c>
       <c r="C318" s="3"/>
-      <c r="D318" s="3"/>
+      <c r="D318" s="3" t="s">
+        <v>359</v>
+      </c>
       <c r="E318" s="3"/>
     </row>
     <row r="319" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A319" s="3">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B319" s="3" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
       <c r="C319" s="3"/>
       <c r="D319" s="3"/>
@@ -6180,294 +6185,294 @@
     </row>
     <row r="320" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A320" s="3">
-        <v>7</v>
-      </c>
-      <c r="B320" s="10" t="s">
-        <v>330</v>
+        <v>6</v>
+      </c>
+      <c r="B320" s="3" t="s">
+        <v>325</v>
       </c>
       <c r="C320" s="3"/>
-      <c r="D320" s="3" t="s">
-        <v>361</v>
-      </c>
+      <c r="D320" s="3"/>
       <c r="E320" s="3"/>
     </row>
     <row r="321" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A321" s="3">
-        <v>8</v>
-      </c>
-      <c r="B321" s="10" t="s">
-        <v>331</v>
+        <v>7</v>
+      </c>
+      <c r="B321" s="7" t="s">
+        <v>326</v>
       </c>
       <c r="C321" s="3"/>
-      <c r="D321" s="3"/>
+      <c r="D321" s="3" t="s">
+        <v>357</v>
+      </c>
       <c r="E321" s="3"/>
     </row>
     <row r="322" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A322" s="3">
+        <v>8</v>
+      </c>
+      <c r="B322" s="7" t="s">
+        <v>327</v>
+      </c>
+      <c r="C322" s="3"/>
+      <c r="D322" s="3"/>
+      <c r="E322" s="3"/>
+    </row>
+    <row r="323" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A323" s="3">
         <v>9</v>
       </c>
-      <c r="B322" s="10" t="s">
-        <v>332</v>
-      </c>
-      <c r="C322" s="3"/>
-      <c r="D322" s="3" t="s">
-        <v>365</v>
-      </c>
-      <c r="E322" s="3"/>
-    </row>
-    <row r="323" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A323" s="8" t="s">
-        <v>357</v>
-      </c>
-      <c r="B323" s="9"/>
+      <c r="B323" s="7" t="s">
+        <v>328</v>
+      </c>
       <c r="C323" s="3"/>
-      <c r="D323" s="3"/>
+      <c r="D323" s="3" t="s">
+        <v>361</v>
+      </c>
       <c r="E323" s="3"/>
     </row>
     <row r="324" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A324" s="3">
-        <v>1</v>
-      </c>
-      <c r="B324" s="3" t="s">
-        <v>333</v>
-      </c>
+      <c r="A324" s="10" t="s">
+        <v>353</v>
+      </c>
+      <c r="B324" s="11"/>
       <c r="C324" s="3"/>
-      <c r="D324" s="3" t="s">
-        <v>360</v>
-      </c>
+      <c r="D324" s="3"/>
       <c r="E324" s="3"/>
     </row>
     <row r="325" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A325" s="3">
-        <v>2</v>
-      </c>
-      <c r="B325" s="10" t="s">
-        <v>334</v>
+        <v>1</v>
+      </c>
+      <c r="B325" s="3" t="s">
+        <v>329</v>
       </c>
       <c r="C325" s="3"/>
       <c r="D325" s="3" t="s">
-        <v>364</v>
+        <v>356</v>
       </c>
       <c r="E325" s="3"/>
     </row>
     <row r="326" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A326" s="3">
-        <v>3</v>
-      </c>
-      <c r="B326" s="10" t="s">
-        <v>335</v>
+        <v>2</v>
+      </c>
+      <c r="B326" s="7" t="s">
+        <v>330</v>
       </c>
       <c r="C326" s="3"/>
       <c r="D326" s="3" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="E326" s="3"/>
     </row>
     <row r="327" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A327" s="8" t="s">
-        <v>358</v>
-      </c>
-      <c r="B327" s="9"/>
+      <c r="A327" s="3">
+        <v>3</v>
+      </c>
+      <c r="B327" s="7" t="s">
+        <v>331</v>
+      </c>
       <c r="C327" s="3"/>
-      <c r="D327" s="3"/>
+      <c r="D327" s="3" t="s">
+        <v>360</v>
+      </c>
       <c r="E327" s="3"/>
     </row>
     <row r="328" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A328" s="3">
-        <v>1</v>
-      </c>
-      <c r="B328" s="10" t="s">
-        <v>336</v>
-      </c>
+      <c r="A328" s="10" t="s">
+        <v>354</v>
+      </c>
+      <c r="B328" s="11"/>
       <c r="C328" s="3"/>
-      <c r="D328" s="3" t="s">
-        <v>364</v>
-      </c>
+      <c r="D328" s="3"/>
       <c r="E328" s="3"/>
     </row>
     <row r="329" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A329" s="3">
-        <v>2</v>
-      </c>
-      <c r="B329" s="3" t="s">
-        <v>337</v>
+        <v>1</v>
+      </c>
+      <c r="B329" s="7" t="s">
+        <v>332</v>
       </c>
       <c r="C329" s="3"/>
-      <c r="D329" s="3"/>
+      <c r="D329" s="3" t="s">
+        <v>360</v>
+      </c>
       <c r="E329" s="3"/>
     </row>
     <row r="330" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A330" s="3">
-        <v>3</v>
-      </c>
-      <c r="B330" s="10" t="s">
-        <v>155</v>
+        <v>2</v>
+      </c>
+      <c r="B330" s="3" t="s">
+        <v>333</v>
       </c>
       <c r="C330" s="3"/>
-      <c r="D330" s="3" t="s">
-        <v>368</v>
-      </c>
+      <c r="D330" s="3"/>
       <c r="E330" s="3"/>
     </row>
     <row r="331" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A331" s="3">
-        <v>4</v>
-      </c>
-      <c r="B331" s="10" t="s">
-        <v>338</v>
+        <v>3</v>
+      </c>
+      <c r="B331" s="7" t="s">
+        <v>152</v>
       </c>
       <c r="C331" s="3"/>
       <c r="D331" s="3" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="E331" s="3"/>
     </row>
     <row r="332" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A332" s="8" t="s">
-        <v>359</v>
-      </c>
-      <c r="B332" s="9"/>
+      <c r="A332" s="3">
+        <v>4</v>
+      </c>
+      <c r="B332" s="7" t="s">
+        <v>334</v>
+      </c>
       <c r="C332" s="3"/>
-      <c r="D332" s="3"/>
+      <c r="D332" s="3" t="s">
+        <v>361</v>
+      </c>
       <c r="E332" s="3"/>
     </row>
     <row r="333" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A333" s="3">
-        <v>1</v>
-      </c>
-      <c r="B333" s="10" t="s">
-        <v>339</v>
-      </c>
+      <c r="A333" s="10" t="s">
+        <v>355</v>
+      </c>
+      <c r="B333" s="11"/>
       <c r="C333" s="3"/>
-      <c r="D333" s="3" t="s">
-        <v>365</v>
-      </c>
+      <c r="D333" s="3"/>
       <c r="E333" s="3"/>
     </row>
     <row r="334" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A334" s="3">
-        <v>2</v>
-      </c>
-      <c r="B334" s="10" t="s">
-        <v>340</v>
+        <v>1</v>
+      </c>
+      <c r="B334" s="7" t="s">
+        <v>335</v>
       </c>
       <c r="C334" s="3"/>
       <c r="D334" s="3" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="E334" s="3"/>
     </row>
     <row r="335" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A335" s="3">
-        <v>3</v>
-      </c>
-      <c r="B335" s="10" t="s">
-        <v>341</v>
+        <v>2</v>
+      </c>
+      <c r="B335" s="7" t="s">
+        <v>336</v>
       </c>
       <c r="C335" s="3"/>
       <c r="D335" s="3" t="s">
-        <v>442</v>
+        <v>361</v>
       </c>
       <c r="E335" s="3"/>
     </row>
     <row r="336" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A336" s="3">
+        <v>3</v>
+      </c>
+      <c r="B336" s="7" t="s">
+        <v>337</v>
+      </c>
+      <c r="C336" s="3"/>
+      <c r="D336" s="3" t="s">
+        <v>436</v>
+      </c>
+      <c r="E336" s="3"/>
+    </row>
+    <row r="337" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A337" s="3">
         <v>4</v>
       </c>
-      <c r="B336" s="3" t="s">
-        <v>342</v>
-      </c>
-      <c r="C336" s="3"/>
-      <c r="D336" s="3"/>
-      <c r="E336" s="3"/>
-    </row>
-    <row r="337" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A337" s="7" t="s">
-        <v>371</v>
-      </c>
-      <c r="B337" s="7"/>
-      <c r="C337" s="7"/>
-      <c r="D337" s="7"/>
-      <c r="E337" s="7"/>
+      <c r="B337" s="3" t="s">
+        <v>338</v>
+      </c>
+      <c r="C337" s="3"/>
+      <c r="D337" s="3"/>
+      <c r="E337" s="3"/>
     </row>
     <row r="338" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A338" s="3">
-        <v>1</v>
-      </c>
-      <c r="B338" s="3" t="s">
-        <v>343</v>
-      </c>
-      <c r="C338" s="3"/>
-      <c r="D338" s="3"/>
-      <c r="E338" s="3"/>
+      <c r="A338" s="12" t="s">
+        <v>367</v>
+      </c>
+      <c r="B338" s="12"/>
+      <c r="C338" s="12"/>
+      <c r="D338" s="12"/>
+      <c r="E338" s="12"/>
     </row>
     <row r="339" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A339" s="3">
-        <v>2</v>
-      </c>
-      <c r="B339" s="10" t="s">
-        <v>344</v>
+        <v>1</v>
+      </c>
+      <c r="B339" s="3" t="s">
+        <v>339</v>
       </c>
       <c r="C339" s="3"/>
-      <c r="D339" s="3" t="s">
-        <v>368</v>
-      </c>
+      <c r="D339" s="3"/>
       <c r="E339" s="3"/>
     </row>
     <row r="340" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A340" s="3">
-        <v>3</v>
-      </c>
-      <c r="B340" s="3" t="s">
-        <v>345</v>
+        <v>2</v>
+      </c>
+      <c r="B340" s="7" t="s">
+        <v>340</v>
       </c>
       <c r="C340" s="3"/>
-      <c r="D340" s="3"/>
+      <c r="D340" s="3" t="s">
+        <v>364</v>
+      </c>
       <c r="E340" s="3"/>
     </row>
     <row r="341" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A341" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B341" s="3" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="C341" s="3"/>
-      <c r="D341" s="3" t="s">
-        <v>368</v>
-      </c>
+      <c r="D341" s="3"/>
       <c r="E341" s="3"/>
     </row>
     <row r="342" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A342" s="3">
-        <v>5</v>
-      </c>
-      <c r="B342" s="10" t="s">
-        <v>347</v>
+        <v>4</v>
+      </c>
+      <c r="B342" s="3" t="s">
+        <v>342</v>
       </c>
       <c r="C342" s="3"/>
       <c r="D342" s="3" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="E342" s="3"/>
     </row>
     <row r="343" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A343" s="3">
-        <v>6</v>
-      </c>
-      <c r="B343" s="3" t="s">
-        <v>348</v>
+        <v>5</v>
+      </c>
+      <c r="B343" s="7" t="s">
+        <v>343</v>
       </c>
       <c r="C343" s="3"/>
-      <c r="D343" s="3"/>
+      <c r="D343" s="3" t="s">
+        <v>363</v>
+      </c>
       <c r="E343" s="3"/>
     </row>
     <row r="344" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A344" s="3">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B344" s="3" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="C344" s="3"/>
       <c r="D344" s="3"/>
@@ -6475,10 +6480,10 @@
     </row>
     <row r="345" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A345" s="3">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B345" s="3" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="C345" s="3"/>
       <c r="D345" s="3"/>
@@ -6486,83 +6491,94 @@
     </row>
     <row r="346" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A346" s="3">
-        <v>9</v>
-      </c>
-      <c r="B346" s="10" t="s">
-        <v>351</v>
+        <v>8</v>
+      </c>
+      <c r="B346" s="3" t="s">
+        <v>346</v>
       </c>
       <c r="C346" s="3"/>
-      <c r="D346" s="3" t="s">
-        <v>441</v>
-      </c>
+      <c r="D346" s="3"/>
       <c r="E346" s="3"/>
     </row>
     <row r="347" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A347" s="3">
-        <v>10</v>
-      </c>
-      <c r="B347" s="3" t="s">
-        <v>352</v>
+        <v>9</v>
+      </c>
+      <c r="B347" s="7" t="s">
+        <v>347</v>
       </c>
       <c r="C347" s="3"/>
       <c r="D347" s="3" t="s">
-        <v>417</v>
+        <v>435</v>
       </c>
       <c r="E347" s="3"/>
     </row>
     <row r="348" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A348" s="3">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B348" s="3" t="s">
-        <v>353</v>
+        <v>348</v>
       </c>
       <c r="C348" s="3"/>
-      <c r="D348" s="3"/>
+      <c r="D348" s="3" t="s">
+        <v>413</v>
+      </c>
       <c r="E348" s="3"/>
     </row>
     <row r="349" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A349" s="3">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B349" s="3" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="C349" s="3"/>
       <c r="D349" s="3"/>
       <c r="E349" s="3"/>
     </row>
+    <row r="350" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A350" s="3">
+        <v>12</v>
+      </c>
+      <c r="B350" s="3" t="s">
+        <v>350</v>
+      </c>
+      <c r="C350" s="3"/>
+      <c r="D350" s="3"/>
+      <c r="E350" s="3"/>
+    </row>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="A313:B313"/>
-    <mergeCell ref="A323:B323"/>
-    <mergeCell ref="A327:B327"/>
-    <mergeCell ref="A332:B332"/>
-    <mergeCell ref="A337:E337"/>
-    <mergeCell ref="A293:B293"/>
-    <mergeCell ref="A298:B298"/>
-    <mergeCell ref="A304:B304"/>
-    <mergeCell ref="A306:B306"/>
-    <mergeCell ref="A310:B310"/>
+    <mergeCell ref="A283:E283"/>
+    <mergeCell ref="A293:E293"/>
+    <mergeCell ref="A275:E275"/>
+    <mergeCell ref="A219:E219"/>
+    <mergeCell ref="A232:E232"/>
+    <mergeCell ref="A243:E243"/>
+    <mergeCell ref="A248:E248"/>
+    <mergeCell ref="A261:E261"/>
+    <mergeCell ref="A144:E144"/>
+    <mergeCell ref="A154:E154"/>
+    <mergeCell ref="A163:E163"/>
+    <mergeCell ref="A167:E167"/>
+    <mergeCell ref="A195:E195"/>
     <mergeCell ref="A2:E2"/>
     <mergeCell ref="A21:E21"/>
     <mergeCell ref="A45:E45"/>
     <mergeCell ref="A86:E86"/>
     <mergeCell ref="A140:E140"/>
     <mergeCell ref="A115:E115"/>
-    <mergeCell ref="A144:E144"/>
-    <mergeCell ref="A154:E154"/>
-    <mergeCell ref="A163:E163"/>
-    <mergeCell ref="A167:E167"/>
-    <mergeCell ref="A193:E193"/>
-    <mergeCell ref="A282:E282"/>
-    <mergeCell ref="A292:E292"/>
-    <mergeCell ref="A274:E274"/>
-    <mergeCell ref="A217:E217"/>
-    <mergeCell ref="A231:E231"/>
-    <mergeCell ref="A242:E242"/>
-    <mergeCell ref="A247:E247"/>
-    <mergeCell ref="A260:E260"/>
+    <mergeCell ref="A294:B294"/>
+    <mergeCell ref="A299:B299"/>
+    <mergeCell ref="A305:B305"/>
+    <mergeCell ref="A307:B307"/>
+    <mergeCell ref="A311:B311"/>
+    <mergeCell ref="A314:B314"/>
+    <mergeCell ref="A324:B324"/>
+    <mergeCell ref="A328:B328"/>
+    <mergeCell ref="A333:B333"/>
+    <mergeCell ref="A338:E338"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6630,17 +6646,17 @@
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
   </sheetData>

--- a/doc/BookList.xlsx
+++ b/doc/BookList.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="614" uniqueCount="458">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="633" uniqueCount="463">
   <si>
     <t>民主的细节</t>
   </si>
@@ -1789,6 +1789,26 @@
   </si>
   <si>
     <t>枪炮、病菌与钢铁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>个体崛起</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>斯坦福大学人生设计课</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>助推</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已读？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ing</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2237,11 +2257,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E350"/>
+  <dimension ref="A1:F356"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A99" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D118" sqref="D118"/>
+      <pane ySplit="1" topLeftCell="A131" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E145" sqref="E145"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2249,12 +2269,12 @@
     <col min="1" max="1" width="5" style="2" customWidth="1"/>
     <col min="2" max="2" width="38.25" style="2" customWidth="1"/>
     <col min="3" max="3" width="13.5" style="2" customWidth="1"/>
-    <col min="4" max="4" width="11" style="2" customWidth="1"/>
-    <col min="5" max="5" width="52" style="2" customWidth="1"/>
-    <col min="6" max="16384" width="9" style="2"/>
+    <col min="4" max="5" width="11" style="2" customWidth="1"/>
+    <col min="6" max="6" width="52" style="2" customWidth="1"/>
+    <col min="7" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>87</v>
       </c>
@@ -2268,10 +2288,13 @@
         <v>358</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>461</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>385</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="12" t="s">
         <v>265</v>
       </c>
@@ -2279,8 +2302,9 @@
       <c r="C2" s="12"/>
       <c r="D2" s="12"/>
       <c r="E2" s="12"/>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F2" s="12"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="3">
         <v>1</v>
       </c>
@@ -2292,8 +2316,9 @@
         <v>376</v>
       </c>
       <c r="E3" s="3"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F3" s="3"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="3">
         <v>2</v>
       </c>
@@ -2304,9 +2329,12 @@
       <c r="D4" s="3" t="s">
         <v>376</v>
       </c>
-      <c r="E4" s="3"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E4" s="3" t="s">
+        <v>462</v>
+      </c>
+      <c r="F4" s="3"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="3">
         <v>3</v>
       </c>
@@ -2320,8 +2348,9 @@
         <v>375</v>
       </c>
       <c r="E5" s="3"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F5" s="3"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="3">
         <v>4</v>
       </c>
@@ -2333,8 +2362,9 @@
         <v>377</v>
       </c>
       <c r="E6" s="3"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F6" s="3"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="3">
         <v>5</v>
       </c>
@@ -2346,8 +2376,9 @@
         <v>377</v>
       </c>
       <c r="E7" s="3"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F7" s="3"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="3">
         <v>6</v>
       </c>
@@ -2359,8 +2390,9 @@
         <v>376</v>
       </c>
       <c r="E8" s="3"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F8" s="3"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="3">
         <v>7</v>
       </c>
@@ -2370,8 +2402,9 @@
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F9" s="3"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="3">
         <v>8</v>
       </c>
@@ -2383,8 +2416,9 @@
         <v>377</v>
       </c>
       <c r="E10" s="3"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F10" s="3"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="3">
         <v>9</v>
       </c>
@@ -2394,8 +2428,9 @@
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
       <c r="E11" s="3"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F11" s="3"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="3">
         <v>10</v>
       </c>
@@ -2407,8 +2442,9 @@
         <v>377</v>
       </c>
       <c r="E12" s="3"/>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F12" s="3"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="3">
         <v>11</v>
       </c>
@@ -2420,8 +2456,9 @@
         <v>377</v>
       </c>
       <c r="E13" s="3"/>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F13" s="3"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="3">
         <v>12</v>
       </c>
@@ -2433,8 +2470,9 @@
         <v>377</v>
       </c>
       <c r="E14" s="3"/>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F14" s="3"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="3">
         <v>13</v>
       </c>
@@ -2446,8 +2484,9 @@
         <v>377</v>
       </c>
       <c r="E15" s="3"/>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F15" s="3"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="3">
         <v>14</v>
       </c>
@@ -2457,8 +2496,9 @@
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F16" s="3"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="3">
         <v>15</v>
       </c>
@@ -2470,8 +2510,9 @@
         <v>379</v>
       </c>
       <c r="E17" s="3"/>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F17" s="3"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="3">
         <v>16</v>
       </c>
@@ -2481,8 +2522,9 @@
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
       <c r="E18" s="3"/>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F18" s="3"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="3">
         <v>17</v>
       </c>
@@ -2494,8 +2536,9 @@
         <v>376</v>
       </c>
       <c r="E19" s="3"/>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F19" s="3"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="3">
         <v>18</v>
       </c>
@@ -2507,8 +2550,9 @@
         <v>443</v>
       </c>
       <c r="E20" s="3"/>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F20" s="3"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="12" t="s">
         <v>266</v>
       </c>
@@ -2516,8 +2560,9 @@
       <c r="C21" s="12"/>
       <c r="D21" s="12"/>
       <c r="E21" s="12"/>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F21" s="12"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" s="3">
         <v>1</v>
       </c>
@@ -2531,8 +2576,9 @@
         <v>377</v>
       </c>
       <c r="E22" s="3"/>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F22" s="3"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" s="3">
         <v>2</v>
       </c>
@@ -2543,9 +2589,12 @@
       <c r="D23" s="3" t="s">
         <v>380</v>
       </c>
-      <c r="E23" s="3"/>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E23" s="3" t="s">
+        <v>462</v>
+      </c>
+      <c r="F23" s="3"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" s="3">
         <v>3</v>
       </c>
@@ -2556,9 +2605,12 @@
       <c r="D24" s="3" t="s">
         <v>380</v>
       </c>
-      <c r="E24" s="3"/>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E24" s="3" t="s">
+        <v>462</v>
+      </c>
+      <c r="F24" s="3"/>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" s="3">
         <v>4</v>
       </c>
@@ -2570,8 +2622,9 @@
         <v>357</v>
       </c>
       <c r="E25" s="3"/>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F25" s="3"/>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" s="3">
         <v>5</v>
       </c>
@@ -2583,8 +2636,9 @@
         <v>381</v>
       </c>
       <c r="E26" s="3"/>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F26" s="3"/>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" s="3">
         <v>6</v>
       </c>
@@ -2596,8 +2650,9 @@
       </c>
       <c r="D27" s="3"/>
       <c r="E27" s="3"/>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F27" s="3"/>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" s="3">
         <v>7</v>
       </c>
@@ -2609,8 +2664,9 @@
       </c>
       <c r="D28" s="3"/>
       <c r="E28" s="3"/>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F28" s="3"/>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" s="3">
         <v>8</v>
       </c>
@@ -2622,8 +2678,9 @@
         <v>381</v>
       </c>
       <c r="E29" s="3"/>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F29" s="3"/>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" s="3">
         <v>9</v>
       </c>
@@ -2635,8 +2692,9 @@
         <v>383</v>
       </c>
       <c r="E30" s="3"/>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F30" s="3"/>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" s="3">
         <v>10</v>
       </c>
@@ -2646,8 +2704,9 @@
       <c r="C31" s="3"/>
       <c r="D31" s="3"/>
       <c r="E31" s="3"/>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F31" s="3"/>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" s="3">
         <v>11</v>
       </c>
@@ -2659,8 +2718,9 @@
         <v>383</v>
       </c>
       <c r="E32" s="3"/>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F32" s="3"/>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" s="3">
         <v>12</v>
       </c>
@@ -2670,8 +2730,9 @@
       <c r="C33" s="3"/>
       <c r="D33" s="3"/>
       <c r="E33" s="3"/>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F33" s="3"/>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" s="3">
         <v>13</v>
       </c>
@@ -2682,11 +2743,12 @@
       <c r="D34" s="3" t="s">
         <v>383</v>
       </c>
-      <c r="E34" s="3" t="s">
+      <c r="E34" s="3"/>
+      <c r="F34" s="3" t="s">
         <v>384</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" s="3">
         <v>14</v>
       </c>
@@ -2698,8 +2760,9 @@
         <v>418</v>
       </c>
       <c r="E35" s="3"/>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F35" s="3"/>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" s="3">
         <v>15</v>
       </c>
@@ -2709,8 +2772,9 @@
       <c r="C36" s="3"/>
       <c r="D36" s="3"/>
       <c r="E36" s="3"/>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F36" s="3"/>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" s="3">
         <v>16</v>
       </c>
@@ -2722,8 +2786,9 @@
         <v>383</v>
       </c>
       <c r="E37" s="3"/>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F37" s="3"/>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" s="3">
         <v>17</v>
       </c>
@@ -2735,8 +2800,9 @@
         <v>383</v>
       </c>
       <c r="E38" s="3"/>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F38" s="3"/>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" s="3">
         <v>18</v>
       </c>
@@ -2748,8 +2814,9 @@
         <v>383</v>
       </c>
       <c r="E39" s="3"/>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F39" s="3"/>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" s="3">
         <v>19</v>
       </c>
@@ -2759,8 +2826,9 @@
       <c r="C40" s="3"/>
       <c r="D40" s="3"/>
       <c r="E40" s="3"/>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F40" s="3"/>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" s="3">
         <v>20</v>
       </c>
@@ -2772,8 +2840,9 @@
         <v>383</v>
       </c>
       <c r="E41" s="3"/>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F41" s="3"/>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" s="3">
         <v>21</v>
       </c>
@@ -2785,8 +2854,9 @@
         <v>383</v>
       </c>
       <c r="E42" s="3"/>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F42" s="3"/>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" s="3">
         <v>22</v>
       </c>
@@ -2796,8 +2866,9 @@
       <c r="C43" s="3"/>
       <c r="D43" s="3"/>
       <c r="E43" s="3"/>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F43" s="3"/>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" s="3">
         <v>23</v>
       </c>
@@ -2809,8 +2880,9 @@
         <v>356</v>
       </c>
       <c r="E44" s="3"/>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F44" s="3"/>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" s="12" t="s">
         <v>267</v>
       </c>
@@ -2818,8 +2890,9 @@
       <c r="C45" s="12"/>
       <c r="D45" s="12"/>
       <c r="E45" s="12"/>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F45" s="12"/>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" s="3">
         <v>1</v>
       </c>
@@ -2832,9 +2905,12 @@
       <c r="D46" s="3" t="s">
         <v>386</v>
       </c>
-      <c r="E46" s="3"/>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E46" s="3" t="s">
+        <v>462</v>
+      </c>
+      <c r="F46" s="3"/>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" s="3">
         <v>2</v>
       </c>
@@ -2847,9 +2923,12 @@
       <c r="D47" s="3" t="s">
         <v>383</v>
       </c>
-      <c r="E47" s="3"/>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E47" s="3" t="s">
+        <v>462</v>
+      </c>
+      <c r="F47" s="3"/>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" s="3">
         <v>3</v>
       </c>
@@ -2863,8 +2942,9 @@
         <v>387</v>
       </c>
       <c r="E48" s="3"/>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F48" s="3"/>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49" s="3">
         <v>4</v>
       </c>
@@ -2878,8 +2958,9 @@
         <v>375</v>
       </c>
       <c r="E49" s="3"/>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F49" s="3"/>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50" s="3">
         <v>5</v>
       </c>
@@ -2893,8 +2974,9 @@
         <v>388</v>
       </c>
       <c r="E50" s="3"/>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F50" s="3"/>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51" s="3">
         <v>6</v>
       </c>
@@ -2905,9 +2987,12 @@
       <c r="D51" s="3" t="s">
         <v>376</v>
       </c>
-      <c r="E51" s="3"/>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E51" s="3" t="s">
+        <v>462</v>
+      </c>
+      <c r="F51" s="3"/>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52" s="3">
         <v>7</v>
       </c>
@@ -2919,8 +3004,9 @@
         <v>376</v>
       </c>
       <c r="E52" s="3"/>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F52" s="3"/>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53" s="3">
         <v>8</v>
       </c>
@@ -2931,11 +3017,12 @@
       <c r="D53" s="3" t="s">
         <v>425</v>
       </c>
-      <c r="E53" s="3" t="s">
+      <c r="E53" s="3"/>
+      <c r="F53" s="3" t="s">
         <v>426</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54" s="3">
         <v>9</v>
       </c>
@@ -2945,8 +3032,9 @@
       <c r="C54" s="3"/>
       <c r="D54" s="3"/>
       <c r="E54" s="3"/>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F54" s="3"/>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A55" s="3">
         <v>10</v>
       </c>
@@ -2958,8 +3046,9 @@
         <v>383</v>
       </c>
       <c r="E55" s="3"/>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F55" s="3"/>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56" s="3">
         <v>11</v>
       </c>
@@ -2971,8 +3060,9 @@
         <v>383</v>
       </c>
       <c r="E56" s="3"/>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F56" s="3"/>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A57" s="3">
         <v>12</v>
       </c>
@@ -2984,8 +3074,9 @@
         <v>376</v>
       </c>
       <c r="E57" s="3"/>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F57" s="3"/>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A58" s="3">
         <v>13</v>
       </c>
@@ -2997,8 +3088,9 @@
         <v>376</v>
       </c>
       <c r="E58" s="3"/>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F58" s="3"/>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A59" s="3">
         <v>14</v>
       </c>
@@ -3010,8 +3102,9 @@
         <v>383</v>
       </c>
       <c r="E59" s="3"/>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F59" s="3"/>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A60" s="3">
         <v>15</v>
       </c>
@@ -3023,8 +3116,9 @@
         <v>379</v>
       </c>
       <c r="E60" s="3"/>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F60" s="3"/>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A61" s="3">
         <v>16</v>
       </c>
@@ -3036,8 +3130,9 @@
         <v>376</v>
       </c>
       <c r="E61" s="3"/>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F61" s="3"/>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A62" s="3">
         <v>17</v>
       </c>
@@ -3049,8 +3144,9 @@
         <v>389</v>
       </c>
       <c r="E62" s="3"/>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F62" s="3"/>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A63" s="3">
         <v>18</v>
       </c>
@@ -3062,8 +3158,9 @@
         <v>390</v>
       </c>
       <c r="E63" s="3"/>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F63" s="3"/>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A64" s="3">
         <v>19</v>
       </c>
@@ -3075,8 +3172,9 @@
         <v>391</v>
       </c>
       <c r="E64" s="3"/>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F64" s="3"/>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A65" s="3">
         <v>20</v>
       </c>
@@ -3088,8 +3186,9 @@
         <v>389</v>
       </c>
       <c r="E65" s="3"/>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F65" s="3"/>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A66" s="3">
         <v>21</v>
       </c>
@@ -3101,8 +3200,9 @@
         <v>383</v>
       </c>
       <c r="E66" s="3"/>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F66" s="3"/>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A67" s="3">
         <v>22</v>
       </c>
@@ -3112,8 +3212,9 @@
       <c r="C67" s="3"/>
       <c r="D67" s="3"/>
       <c r="E67" s="3"/>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F67" s="3"/>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A68" s="3">
         <v>23</v>
       </c>
@@ -3123,8 +3224,9 @@
       <c r="C68" s="3"/>
       <c r="D68" s="3"/>
       <c r="E68" s="3"/>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F68" s="3"/>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A69" s="3">
         <v>24</v>
       </c>
@@ -3136,8 +3238,9 @@
         <v>383</v>
       </c>
       <c r="E69" s="3"/>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F69" s="3"/>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A70" s="3">
         <v>25</v>
       </c>
@@ -3149,8 +3252,9 @@
         <v>389</v>
       </c>
       <c r="E70" s="3"/>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F70" s="3"/>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A71" s="3">
         <v>26</v>
       </c>
@@ -3162,8 +3266,9 @@
         <v>383</v>
       </c>
       <c r="E71" s="3"/>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F71" s="3"/>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A72" s="3">
         <v>27</v>
       </c>
@@ -3175,8 +3280,9 @@
         <v>383</v>
       </c>
       <c r="E72" s="3"/>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F72" s="3"/>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A73" s="3">
         <v>28</v>
       </c>
@@ -3188,8 +3294,9 @@
         <v>383</v>
       </c>
       <c r="E73" s="3"/>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F73" s="3"/>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A74" s="3">
         <v>29</v>
       </c>
@@ -3201,8 +3308,9 @@
         <v>383</v>
       </c>
       <c r="E74" s="3"/>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F74" s="3"/>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A75" s="3">
         <v>30</v>
       </c>
@@ -3214,8 +3322,9 @@
         <v>383</v>
       </c>
       <c r="E75" s="3"/>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F75" s="3"/>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A76" s="3">
         <v>31</v>
       </c>
@@ -3227,8 +3336,9 @@
         <v>389</v>
       </c>
       <c r="E76" s="3"/>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F76" s="3"/>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A77" s="3">
         <v>32</v>
       </c>
@@ -3240,8 +3350,9 @@
         <v>391</v>
       </c>
       <c r="E77" s="3"/>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F77" s="3"/>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A78" s="3">
         <v>33</v>
       </c>
@@ -3251,8 +3362,9 @@
       <c r="C78" s="3"/>
       <c r="D78" s="3"/>
       <c r="E78" s="3"/>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F78" s="3"/>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A79" s="3">
         <v>34</v>
       </c>
@@ -3262,8 +3374,9 @@
       <c r="C79" s="3"/>
       <c r="D79" s="3"/>
       <c r="E79" s="3"/>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F79" s="3"/>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A80" s="3">
         <v>35</v>
       </c>
@@ -3274,11 +3387,12 @@
       <c r="D80" s="3" t="s">
         <v>427</v>
       </c>
-      <c r="E80" s="3" t="s">
+      <c r="E80" s="3"/>
+      <c r="F80" s="3" t="s">
         <v>428</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A81" s="3">
         <v>36</v>
       </c>
@@ -3290,8 +3404,9 @@
         <v>429</v>
       </c>
       <c r="E81" s="3"/>
-    </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F81" s="3"/>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A82" s="3">
         <v>37</v>
       </c>
@@ -3301,8 +3416,9 @@
       <c r="C82" s="3"/>
       <c r="D82" s="3"/>
       <c r="E82" s="3"/>
-    </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F82" s="3"/>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A83" s="3">
         <v>38</v>
       </c>
@@ -3312,8 +3428,9 @@
       <c r="C83" s="3"/>
       <c r="D83" s="3"/>
       <c r="E83" s="3"/>
-    </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F83" s="3"/>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A84" s="3">
         <v>39</v>
       </c>
@@ -3323,8 +3440,9 @@
       <c r="C84" s="3"/>
       <c r="D84" s="3"/>
       <c r="E84" s="3"/>
-    </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F84" s="3"/>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A85" s="3">
         <v>40</v>
       </c>
@@ -3334,8 +3452,9 @@
       <c r="C85" s="3"/>
       <c r="D85" s="3"/>
       <c r="E85" s="3"/>
-    </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F85" s="3"/>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A86" s="12" t="s">
         <v>268</v>
       </c>
@@ -3343,8 +3462,9 @@
       <c r="C86" s="12"/>
       <c r="D86" s="12"/>
       <c r="E86" s="12"/>
-    </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F86" s="12"/>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A87" s="3">
         <v>1</v>
       </c>
@@ -3356,8 +3476,9 @@
         <v>375</v>
       </c>
       <c r="E87" s="3"/>
-    </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F87" s="3"/>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A88" s="3">
         <v>2</v>
       </c>
@@ -3369,8 +3490,9 @@
         <v>375</v>
       </c>
       <c r="E88" s="3"/>
-    </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F88" s="3"/>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A89" s="3">
         <v>3</v>
       </c>
@@ -3382,8 +3504,9 @@
         <v>375</v>
       </c>
       <c r="E89" s="3"/>
-    </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F89" s="3"/>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A90" s="3">
         <v>4</v>
       </c>
@@ -3394,9 +3517,12 @@
       <c r="D90" s="3" t="s">
         <v>375</v>
       </c>
-      <c r="E90" s="3"/>
-    </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E90" s="3" t="s">
+        <v>462</v>
+      </c>
+      <c r="F90" s="3"/>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A91" s="3">
         <v>5</v>
       </c>
@@ -3407,9 +3533,12 @@
       <c r="D91" s="3" t="s">
         <v>375</v>
       </c>
-      <c r="E91" s="3"/>
-    </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E91" s="3" t="s">
+        <v>462</v>
+      </c>
+      <c r="F91" s="3"/>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A92" s="3">
         <v>6</v>
       </c>
@@ -3422,9 +3551,12 @@
       <c r="D92" s="3" t="s">
         <v>375</v>
       </c>
-      <c r="E92" s="3"/>
-    </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E92" s="3" t="s">
+        <v>462</v>
+      </c>
+      <c r="F92" s="3"/>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A93" s="3">
         <v>7</v>
       </c>
@@ -3436,8 +3568,9 @@
         <v>452</v>
       </c>
       <c r="E93" s="3"/>
-    </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F93" s="3"/>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A94" s="3">
         <v>8</v>
       </c>
@@ -3447,8 +3580,9 @@
       <c r="C94" s="3"/>
       <c r="D94" s="3"/>
       <c r="E94" s="3"/>
-    </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F94" s="3"/>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A95" s="3">
         <v>9</v>
       </c>
@@ -3460,8 +3594,9 @@
         <v>376</v>
       </c>
       <c r="E95" s="3"/>
-    </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F95" s="3"/>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A96" s="3">
         <v>10</v>
       </c>
@@ -3473,8 +3608,9 @@
         <v>417</v>
       </c>
       <c r="E96" s="3"/>
-    </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F96" s="3"/>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A97" s="3">
         <v>11</v>
       </c>
@@ -3486,8 +3622,9 @@
         <v>421</v>
       </c>
       <c r="E97" s="3"/>
-    </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F97" s="3"/>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A98" s="3">
         <v>12</v>
       </c>
@@ -3499,8 +3636,9 @@
         <v>420</v>
       </c>
       <c r="E98" s="3"/>
-    </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F98" s="3"/>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A99" s="3">
         <v>13</v>
       </c>
@@ -3512,8 +3650,9 @@
         <v>422</v>
       </c>
       <c r="E99" s="3"/>
-    </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F99" s="3"/>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A100" s="3">
         <v>14</v>
       </c>
@@ -3525,8 +3664,9 @@
         <v>452</v>
       </c>
       <c r="E100" s="3"/>
-    </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F100" s="3"/>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A101" s="3">
         <v>15</v>
       </c>
@@ -3536,8 +3676,9 @@
       <c r="C101" s="3"/>
       <c r="D101" s="3"/>
       <c r="E101" s="3"/>
-    </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F101" s="3"/>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A102" s="3">
         <v>16</v>
       </c>
@@ -3547,8 +3688,9 @@
       <c r="C102" s="3"/>
       <c r="D102" s="3"/>
       <c r="E102" s="3"/>
-    </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F102" s="3"/>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A103" s="3">
         <v>17</v>
       </c>
@@ -3560,8 +3702,9 @@
         <v>383</v>
       </c>
       <c r="E103" s="3"/>
-    </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F103" s="3"/>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A104" s="3">
         <v>18</v>
       </c>
@@ -3573,8 +3716,9 @@
         <v>430</v>
       </c>
       <c r="E104" s="3"/>
-    </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F104" s="3"/>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A105" s="3">
         <v>19</v>
       </c>
@@ -3586,8 +3730,9 @@
         <v>423</v>
       </c>
       <c r="E105" s="3"/>
-    </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F105" s="3"/>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A106" s="3">
         <v>20</v>
       </c>
@@ -3597,8 +3742,9 @@
       <c r="C106" s="3"/>
       <c r="D106" s="3"/>
       <c r="E106" s="3"/>
-    </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F106" s="3"/>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A107" s="3">
         <v>21</v>
       </c>
@@ -3610,8 +3756,9 @@
         <v>383</v>
       </c>
       <c r="E107" s="3"/>
-    </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F107" s="3"/>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A108" s="3">
         <v>22</v>
       </c>
@@ -3623,8 +3770,9 @@
         <v>383</v>
       </c>
       <c r="E108" s="3"/>
-    </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F108" s="3"/>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A109" s="3">
         <v>23</v>
       </c>
@@ -3634,8 +3782,9 @@
       <c r="C109" s="3"/>
       <c r="D109" s="3"/>
       <c r="E109" s="3"/>
-    </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F109" s="3"/>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A110" s="3">
         <v>24</v>
       </c>
@@ -3645,8 +3794,9 @@
       <c r="C110" s="3"/>
       <c r="D110" s="3"/>
       <c r="E110" s="3"/>
-    </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F110" s="3"/>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A111" s="3">
         <v>25</v>
       </c>
@@ -3656,8 +3806,9 @@
       <c r="C111" s="3"/>
       <c r="D111" s="3"/>
       <c r="E111" s="3"/>
-    </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F111" s="3"/>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A112" s="3">
         <v>26</v>
       </c>
@@ -3669,8 +3820,9 @@
         <v>394</v>
       </c>
       <c r="E112" s="3"/>
-    </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F112" s="3"/>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A113" s="3">
         <v>27</v>
       </c>
@@ -3682,8 +3834,9 @@
         <v>394</v>
       </c>
       <c r="E113" s="3"/>
-    </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F113" s="3"/>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A114" s="3">
         <v>28</v>
       </c>
@@ -3695,8 +3848,9 @@
         <v>356</v>
       </c>
       <c r="E114" s="3"/>
-    </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F114" s="3"/>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A115" s="12" t="s">
         <v>269</v>
       </c>
@@ -3704,8 +3858,9 @@
       <c r="C115" s="12"/>
       <c r="D115" s="12"/>
       <c r="E115" s="12"/>
-    </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F115" s="12"/>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A116" s="3">
         <v>1</v>
       </c>
@@ -3715,8 +3870,9 @@
       <c r="C116" s="3"/>
       <c r="D116" s="3"/>
       <c r="E116" s="3"/>
-    </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F116" s="3"/>
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A117" s="3">
         <v>2</v>
       </c>
@@ -3728,8 +3884,9 @@
         <v>431</v>
       </c>
       <c r="E117" s="3"/>
-    </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F117" s="3"/>
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A118" s="3">
         <v>3</v>
       </c>
@@ -3741,8 +3898,9 @@
         <v>356</v>
       </c>
       <c r="E118" s="3"/>
-    </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F118" s="3"/>
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A119" s="3">
         <v>4</v>
       </c>
@@ -3754,8 +3912,9 @@
         <v>381</v>
       </c>
       <c r="E119" s="3"/>
-    </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F119" s="3"/>
+    </row>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A120" s="3">
         <v>5</v>
       </c>
@@ -3765,8 +3924,9 @@
       <c r="C120" s="3"/>
       <c r="D120" s="3"/>
       <c r="E120" s="3"/>
-    </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F120" s="3"/>
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A121" s="3">
         <v>6</v>
       </c>
@@ -3778,8 +3938,9 @@
         <v>383</v>
       </c>
       <c r="E121" s="3"/>
-    </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F121" s="3"/>
+    </row>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A122" s="3">
         <v>7</v>
       </c>
@@ -3791,8 +3952,9 @@
         <v>431</v>
       </c>
       <c r="E122" s="3"/>
-    </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F122" s="3"/>
+    </row>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A123" s="3">
         <v>8</v>
       </c>
@@ -3804,8 +3966,9 @@
         <v>383</v>
       </c>
       <c r="E123" s="3"/>
-    </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F123" s="3"/>
+    </row>
+    <row r="124" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A124" s="3">
         <v>9</v>
       </c>
@@ -3815,8 +3978,9 @@
       <c r="C124" s="3"/>
       <c r="D124" s="3"/>
       <c r="E124" s="3"/>
-    </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F124" s="3"/>
+    </row>
+    <row r="125" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A125" s="3">
         <v>10</v>
       </c>
@@ -3826,8 +3990,9 @@
       <c r="C125" s="3"/>
       <c r="D125" s="3"/>
       <c r="E125" s="3"/>
-    </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F125" s="3"/>
+    </row>
+    <row r="126" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A126" s="3">
         <v>11</v>
       </c>
@@ -3837,8 +4002,9 @@
       <c r="C126" s="3"/>
       <c r="D126" s="3"/>
       <c r="E126" s="3"/>
-    </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F126" s="3"/>
+    </row>
+    <row r="127" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A127" s="3">
         <v>12</v>
       </c>
@@ -3848,8 +4014,9 @@
       <c r="C127" s="3"/>
       <c r="D127" s="3"/>
       <c r="E127" s="3"/>
-    </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F127" s="3"/>
+    </row>
+    <row r="128" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A128" s="3">
         <v>13</v>
       </c>
@@ -3861,8 +4028,9 @@
         <v>383</v>
       </c>
       <c r="E128" s="3"/>
-    </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F128" s="3"/>
+    </row>
+    <row r="129" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A129" s="3">
         <v>14</v>
       </c>
@@ -3872,8 +4040,9 @@
       <c r="C129" s="3"/>
       <c r="D129" s="3"/>
       <c r="E129" s="3"/>
-    </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F129" s="3"/>
+    </row>
+    <row r="130" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A130" s="3">
         <v>15</v>
       </c>
@@ -3885,8 +4054,9 @@
         <v>383</v>
       </c>
       <c r="E130" s="3"/>
-    </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F130" s="3"/>
+    </row>
+    <row r="131" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A131" s="3">
         <v>16</v>
       </c>
@@ -3896,8 +4066,9 @@
       <c r="C131" s="3"/>
       <c r="D131" s="3"/>
       <c r="E131" s="3"/>
-    </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F131" s="3"/>
+    </row>
+    <row r="132" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A132" s="3">
         <v>17</v>
       </c>
@@ -3907,8 +4078,9 @@
       <c r="C132" s="3"/>
       <c r="D132" s="3"/>
       <c r="E132" s="3"/>
-    </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F132" s="3"/>
+    </row>
+    <row r="133" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A133" s="3">
         <v>18</v>
       </c>
@@ -3918,8 +4090,9 @@
       <c r="C133" s="3"/>
       <c r="D133" s="3"/>
       <c r="E133" s="3"/>
-    </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F133" s="3"/>
+    </row>
+    <row r="134" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A134" s="3">
         <v>19</v>
       </c>
@@ -3931,8 +4104,9 @@
         <v>394</v>
       </c>
       <c r="E134" s="3"/>
-    </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F134" s="3"/>
+    </row>
+    <row r="135" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A135" s="3">
         <v>20</v>
       </c>
@@ -3942,8 +4116,9 @@
       <c r="C135" s="3"/>
       <c r="D135" s="3"/>
       <c r="E135" s="3"/>
-    </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F135" s="3"/>
+    </row>
+    <row r="136" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A136" s="3">
         <v>21</v>
       </c>
@@ -3953,8 +4128,9 @@
       <c r="C136" s="3"/>
       <c r="D136" s="3"/>
       <c r="E136" s="3"/>
-    </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F136" s="3"/>
+    </row>
+    <row r="137" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A137" s="3">
         <v>22</v>
       </c>
@@ -3964,8 +4140,9 @@
       <c r="C137" s="3"/>
       <c r="D137" s="3"/>
       <c r="E137" s="3"/>
-    </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F137" s="3"/>
+    </row>
+    <row r="138" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A138" s="3">
         <v>23</v>
       </c>
@@ -3975,8 +4152,9 @@
       <c r="C138" s="3"/>
       <c r="D138" s="3"/>
       <c r="E138" s="3"/>
-    </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F138" s="3"/>
+    </row>
+    <row r="139" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A139" s="3">
         <v>24</v>
       </c>
@@ -3988,8 +4166,9 @@
         <v>383</v>
       </c>
       <c r="E139" s="3"/>
-    </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F139" s="3"/>
+    </row>
+    <row r="140" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A140" s="12" t="s">
         <v>281</v>
       </c>
@@ -3997,8 +4176,9 @@
       <c r="C140" s="12"/>
       <c r="D140" s="12"/>
       <c r="E140" s="12"/>
-    </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F140" s="12"/>
+    </row>
+    <row r="141" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A141" s="3">
         <v>1</v>
       </c>
@@ -4009,9 +4189,12 @@
       <c r="D141" s="3" t="s">
         <v>383</v>
       </c>
-      <c r="E141" s="3"/>
-    </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E141" s="3" t="s">
+        <v>462</v>
+      </c>
+      <c r="F141" s="3"/>
+    </row>
+    <row r="142" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A142" s="3">
         <v>2</v>
       </c>
@@ -4023,8 +4206,9 @@
         <v>411</v>
       </c>
       <c r="E142" s="3"/>
-    </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F142" s="3"/>
+    </row>
+    <row r="143" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A143" s="3">
         <v>3</v>
       </c>
@@ -4036,8 +4220,9 @@
         <v>383</v>
       </c>
       <c r="E143" s="3"/>
-    </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F143" s="3"/>
+    </row>
+    <row r="144" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A144" s="12" t="s">
         <v>270</v>
       </c>
@@ -4045,8 +4230,9 @@
       <c r="C144" s="12"/>
       <c r="D144" s="12"/>
       <c r="E144" s="12"/>
-    </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F144" s="12"/>
+    </row>
+    <row r="145" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A145" s="3">
         <v>1</v>
       </c>
@@ -4057,9 +4243,12 @@
       <c r="D145" s="3" t="s">
         <v>424</v>
       </c>
-      <c r="E145" s="3"/>
-    </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E145" s="3" t="s">
+        <v>462</v>
+      </c>
+      <c r="F145" s="3"/>
+    </row>
+    <row r="146" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A146" s="3">
         <v>2</v>
       </c>
@@ -4070,9 +4259,12 @@
       <c r="D146" s="3" t="s">
         <v>376</v>
       </c>
-      <c r="E146" s="3"/>
-    </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E146" s="3" t="s">
+        <v>462</v>
+      </c>
+      <c r="F146" s="3"/>
+    </row>
+    <row r="147" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A147" s="3">
         <v>3</v>
       </c>
@@ -4084,8 +4276,9 @@
         <v>383</v>
       </c>
       <c r="E147" s="3"/>
-    </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F147" s="3"/>
+    </row>
+    <row r="148" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A148" s="3">
         <v>4</v>
       </c>
@@ -4097,8 +4290,9 @@
         <v>383</v>
       </c>
       <c r="E148" s="3"/>
-    </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F148" s="3"/>
+    </row>
+    <row r="149" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A149" s="3">
         <v>5</v>
       </c>
@@ -4108,8 +4302,9 @@
       <c r="C149" s="3"/>
       <c r="D149" s="3"/>
       <c r="E149" s="3"/>
-    </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F149" s="3"/>
+    </row>
+    <row r="150" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A150" s="3">
         <v>6</v>
       </c>
@@ -4121,8 +4316,9 @@
         <v>416</v>
       </c>
       <c r="E150" s="3"/>
-    </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F150" s="3"/>
+    </row>
+    <row r="151" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A151" s="3">
         <v>7</v>
       </c>
@@ -4132,8 +4328,9 @@
       <c r="C151" s="3"/>
       <c r="D151" s="3"/>
       <c r="E151" s="3"/>
-    </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F151" s="3"/>
+    </row>
+    <row r="152" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A152" s="3">
         <v>8</v>
       </c>
@@ -4143,8 +4340,9 @@
       <c r="C152" s="3"/>
       <c r="D152" s="3"/>
       <c r="E152" s="3"/>
-    </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F152" s="3"/>
+    </row>
+    <row r="153" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A153" s="3">
         <v>9</v>
       </c>
@@ -4154,8 +4352,9 @@
       <c r="C153" s="3"/>
       <c r="D153" s="3"/>
       <c r="E153" s="3"/>
-    </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F153" s="3"/>
+    </row>
+    <row r="154" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A154" s="12" t="s">
         <v>271</v>
       </c>
@@ -4163,8 +4362,9 @@
       <c r="C154" s="12"/>
       <c r="D154" s="12"/>
       <c r="E154" s="12"/>
-    </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F154" s="12"/>
+    </row>
+    <row r="155" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A155" s="3">
         <v>1</v>
       </c>
@@ -4176,8 +4376,9 @@
         <v>376</v>
       </c>
       <c r="E155" s="3"/>
-    </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F155" s="3"/>
+    </row>
+    <row r="156" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A156" s="3">
         <v>2</v>
       </c>
@@ -4189,8 +4390,9 @@
         <v>376</v>
       </c>
       <c r="E156" s="3"/>
-    </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F156" s="3"/>
+    </row>
+    <row r="157" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A157" s="3">
         <v>3</v>
       </c>
@@ -4202,8 +4404,9 @@
         <v>400</v>
       </c>
       <c r="E157" s="3"/>
-    </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F157" s="3"/>
+    </row>
+    <row r="158" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A158" s="3">
         <v>4</v>
       </c>
@@ -4215,8 +4418,9 @@
         <v>399</v>
       </c>
       <c r="E158" s="3"/>
-    </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F158" s="3"/>
+    </row>
+    <row r="159" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A159" s="3">
         <v>5</v>
       </c>
@@ -4228,8 +4432,9 @@
         <v>376</v>
       </c>
       <c r="E159" s="3"/>
-    </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F159" s="3"/>
+    </row>
+    <row r="160" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A160" s="3">
         <v>6</v>
       </c>
@@ -4241,8 +4446,9 @@
         <v>375</v>
       </c>
       <c r="E160" s="3"/>
-    </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F160" s="3"/>
+    </row>
+    <row r="161" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A161" s="3">
         <v>7</v>
       </c>
@@ -4254,8 +4460,9 @@
         <v>398</v>
       </c>
       <c r="E161" s="3"/>
-    </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F161" s="3"/>
+    </row>
+    <row r="162" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A162" s="3">
         <v>8</v>
       </c>
@@ -4267,8 +4474,9 @@
         <v>397</v>
       </c>
       <c r="E162" s="3"/>
-    </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F162" s="3"/>
+    </row>
+    <row r="163" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A163" s="12" t="s">
         <v>272</v>
       </c>
@@ -4276,8 +4484,9 @@
       <c r="C163" s="12"/>
       <c r="D163" s="12"/>
       <c r="E163" s="12"/>
-    </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F163" s="12"/>
+    </row>
+    <row r="164" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A164" s="3">
         <v>1</v>
       </c>
@@ -4289,8 +4498,9 @@
         <v>401</v>
       </c>
       <c r="E164" s="3"/>
-    </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F164" s="3"/>
+    </row>
+    <row r="165" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A165" s="3">
         <v>2</v>
       </c>
@@ -4302,8 +4512,9 @@
         <v>394</v>
       </c>
       <c r="E165" s="3"/>
-    </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F165" s="3"/>
+    </row>
+    <row r="166" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A166" s="3">
         <v>3</v>
       </c>
@@ -4315,8 +4526,9 @@
         <v>394</v>
       </c>
       <c r="E166" s="3"/>
-    </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F166" s="3"/>
+    </row>
+    <row r="167" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A167" s="12" t="s">
         <v>273</v>
       </c>
@@ -4324,8 +4536,9 @@
       <c r="C167" s="12"/>
       <c r="D167" s="12"/>
       <c r="E167" s="12"/>
-    </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F167" s="12"/>
+    </row>
+    <row r="168" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A168" s="3">
         <v>1</v>
       </c>
@@ -4335,8 +4548,9 @@
       <c r="C168" s="3"/>
       <c r="D168" s="3"/>
       <c r="E168" s="3"/>
-    </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F168" s="3"/>
+    </row>
+    <row r="169" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A169" s="3">
         <v>2</v>
       </c>
@@ -4346,8 +4560,9 @@
       <c r="C169" s="3"/>
       <c r="D169" s="3"/>
       <c r="E169" s="3"/>
-    </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F169" s="3"/>
+    </row>
+    <row r="170" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A170" s="3">
         <v>3</v>
       </c>
@@ -4359,8 +4574,9 @@
         <v>375</v>
       </c>
       <c r="E170" s="3"/>
-    </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F170" s="3"/>
+    </row>
+    <row r="171" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A171" s="3">
         <v>4</v>
       </c>
@@ -4372,8 +4588,9 @@
         <v>383</v>
       </c>
       <c r="E171" s="3"/>
-    </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F171" s="3"/>
+    </row>
+    <row r="172" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A172" s="3">
         <v>5</v>
       </c>
@@ -4383,8 +4600,9 @@
       <c r="C172" s="3"/>
       <c r="D172" s="3"/>
       <c r="E172" s="3"/>
-    </row>
-    <row r="173" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F172" s="3"/>
+    </row>
+    <row r="173" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A173" s="3">
         <v>6</v>
       </c>
@@ -4394,8 +4612,9 @@
       <c r="C173" s="3"/>
       <c r="D173" s="3"/>
       <c r="E173" s="3"/>
-    </row>
-    <row r="174" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F173" s="3"/>
+    </row>
+    <row r="174" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A174" s="3">
         <v>7</v>
       </c>
@@ -4407,8 +4626,9 @@
         <v>383</v>
       </c>
       <c r="E174" s="3"/>
-    </row>
-    <row r="175" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F174" s="3"/>
+    </row>
+    <row r="175" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A175" s="3">
         <v>8</v>
       </c>
@@ -4420,8 +4640,9 @@
         <v>383</v>
       </c>
       <c r="E175" s="3"/>
-    </row>
-    <row r="176" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F175" s="3"/>
+    </row>
+    <row r="176" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A176" s="3">
         <v>9</v>
       </c>
@@ -4431,8 +4652,9 @@
       <c r="C176" s="3"/>
       <c r="D176" s="3"/>
       <c r="E176" s="3"/>
-    </row>
-    <row r="177" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F176" s="3"/>
+    </row>
+    <row r="177" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A177" s="3">
         <v>10</v>
       </c>
@@ -4442,8 +4664,9 @@
       <c r="C177" s="3"/>
       <c r="D177" s="3"/>
       <c r="E177" s="3"/>
-    </row>
-    <row r="178" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F177" s="3"/>
+    </row>
+    <row r="178" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A178" s="3">
         <v>11</v>
       </c>
@@ -4455,8 +4678,9 @@
         <v>383</v>
       </c>
       <c r="E178" s="3"/>
-    </row>
-    <row r="179" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F178" s="3"/>
+    </row>
+    <row r="179" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A179" s="3">
         <v>12</v>
       </c>
@@ -4468,8 +4692,9 @@
         <v>402</v>
       </c>
       <c r="E179" s="3"/>
-    </row>
-    <row r="180" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F179" s="3"/>
+    </row>
+    <row r="180" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A180" s="3">
         <v>13</v>
       </c>
@@ -4479,8 +4704,9 @@
       <c r="C180" s="3"/>
       <c r="D180" s="3"/>
       <c r="E180" s="3"/>
-    </row>
-    <row r="181" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F180" s="3"/>
+    </row>
+    <row r="181" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A181" s="3">
         <v>14</v>
       </c>
@@ -4490,8 +4716,9 @@
       <c r="C181" s="3"/>
       <c r="D181" s="3"/>
       <c r="E181" s="3"/>
-    </row>
-    <row r="182" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F181" s="3"/>
+    </row>
+    <row r="182" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A182" s="3">
         <v>15</v>
       </c>
@@ -4501,8 +4728,9 @@
       <c r="C182" s="3"/>
       <c r="D182" s="3"/>
       <c r="E182" s="3"/>
-    </row>
-    <row r="183" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F182" s="3"/>
+    </row>
+    <row r="183" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A183" s="3">
         <v>16</v>
       </c>
@@ -4514,8 +4742,9 @@
         <v>383</v>
       </c>
       <c r="E183" s="3"/>
-    </row>
-    <row r="184" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F183" s="3"/>
+    </row>
+    <row r="184" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A184" s="3">
         <v>17</v>
       </c>
@@ -4527,8 +4756,9 @@
         <v>383</v>
       </c>
       <c r="E184" s="3"/>
-    </row>
-    <row r="185" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F184" s="3"/>
+    </row>
+    <row r="185" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A185" s="3">
         <v>18</v>
       </c>
@@ -4538,8 +4768,9 @@
       <c r="C185" s="3"/>
       <c r="D185" s="3"/>
       <c r="E185" s="3"/>
-    </row>
-    <row r="186" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F185" s="3"/>
+    </row>
+    <row r="186" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A186" s="3">
         <v>19</v>
       </c>
@@ -4549,8 +4780,9 @@
       <c r="C186" s="3"/>
       <c r="D186" s="3"/>
       <c r="E186" s="3"/>
-    </row>
-    <row r="187" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F186" s="3"/>
+    </row>
+    <row r="187" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A187" s="3">
         <v>20</v>
       </c>
@@ -4562,8 +4794,9 @@
         <v>383</v>
       </c>
       <c r="E187" s="3"/>
-    </row>
-    <row r="188" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F187" s="3"/>
+    </row>
+    <row r="188" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A188" s="3">
         <v>21</v>
       </c>
@@ -4573,8 +4806,9 @@
       <c r="C188" s="3"/>
       <c r="D188" s="3"/>
       <c r="E188" s="3"/>
-    </row>
-    <row r="189" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F188" s="3"/>
+    </row>
+    <row r="189" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A189" s="3">
         <v>22</v>
       </c>
@@ -4586,8 +4820,9 @@
         <v>383</v>
       </c>
       <c r="E189" s="3"/>
-    </row>
-    <row r="190" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F189" s="3"/>
+    </row>
+    <row r="190" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A190" s="3">
         <v>23</v>
       </c>
@@ -4597,8 +4832,9 @@
       <c r="C190" s="3"/>
       <c r="D190" s="3"/>
       <c r="E190" s="3"/>
-    </row>
-    <row r="191" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F190" s="3"/>
+    </row>
+    <row r="191" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A191" s="3">
         <v>24</v>
       </c>
@@ -4610,8 +4846,9 @@
         <v>456</v>
       </c>
       <c r="E191" s="3"/>
-    </row>
-    <row r="192" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F191" s="3"/>
+    </row>
+    <row r="192" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A192" s="3">
         <v>25</v>
       </c>
@@ -4623,8 +4860,9 @@
         <v>403</v>
       </c>
       <c r="E192" s="3"/>
-    </row>
-    <row r="193" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F192" s="3"/>
+    </row>
+    <row r="193" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A193" s="3">
         <v>26</v>
       </c>
@@ -4636,8 +4874,9 @@
         <v>454</v>
       </c>
       <c r="E193" s="3"/>
-    </row>
-    <row r="194" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F193" s="3"/>
+    </row>
+    <row r="194" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A194" s="3">
         <v>27</v>
       </c>
@@ -4649,8 +4888,9 @@
         <v>454</v>
       </c>
       <c r="E194" s="3"/>
-    </row>
-    <row r="195" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F194" s="3"/>
+    </row>
+    <row r="195" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A195" s="12" t="s">
         <v>274</v>
       </c>
@@ -4658,8 +4898,9 @@
       <c r="C195" s="12"/>
       <c r="D195" s="12"/>
       <c r="E195" s="12"/>
-    </row>
-    <row r="196" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F195" s="12"/>
+    </row>
+    <row r="196" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A196" s="3">
         <v>1</v>
       </c>
@@ -4673,8 +4914,9 @@
         <v>404</v>
       </c>
       <c r="E196" s="3"/>
-    </row>
-    <row r="197" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F196" s="3"/>
+    </row>
+    <row r="197" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A197" s="3">
         <v>2</v>
       </c>
@@ -4688,8 +4930,9 @@
         <v>403</v>
       </c>
       <c r="E197" s="3"/>
-    </row>
-    <row r="198" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F197" s="3"/>
+    </row>
+    <row r="198" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A198" s="3">
         <v>3</v>
       </c>
@@ -4703,8 +4946,9 @@
         <v>403</v>
       </c>
       <c r="E198" s="3"/>
-    </row>
-    <row r="199" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F198" s="3"/>
+    </row>
+    <row r="199" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A199" s="3">
         <v>4</v>
       </c>
@@ -4716,8 +4960,9 @@
         <v>405</v>
       </c>
       <c r="E199" s="3"/>
-    </row>
-    <row r="200" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F199" s="3"/>
+    </row>
+    <row r="200" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A200" s="3">
         <v>5</v>
       </c>
@@ -4727,8 +4972,9 @@
       <c r="C200" s="3"/>
       <c r="D200" s="3"/>
       <c r="E200" s="3"/>
-    </row>
-    <row r="201" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F200" s="3"/>
+    </row>
+    <row r="201" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A201" s="3">
         <v>6</v>
       </c>
@@ -4740,8 +4986,9 @@
         <v>403</v>
       </c>
       <c r="E201" s="3"/>
-    </row>
-    <row r="202" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F201" s="3"/>
+    </row>
+    <row r="202" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A202" s="3">
         <v>7</v>
       </c>
@@ -4753,8 +5000,9 @@
         <v>404</v>
       </c>
       <c r="E202" s="3"/>
-    </row>
-    <row r="203" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F202" s="3"/>
+    </row>
+    <row r="203" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A203" s="3">
         <v>8</v>
       </c>
@@ -4764,8 +5012,9 @@
       <c r="C203" s="3"/>
       <c r="D203" s="3"/>
       <c r="E203" s="3"/>
-    </row>
-    <row r="204" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F203" s="3"/>
+    </row>
+    <row r="204" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A204" s="3">
         <v>9</v>
       </c>
@@ -4775,8 +5024,9 @@
       <c r="C204" s="3"/>
       <c r="D204" s="3"/>
       <c r="E204" s="3"/>
-    </row>
-    <row r="205" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F204" s="3"/>
+    </row>
+    <row r="205" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A205" s="3">
         <v>10</v>
       </c>
@@ -4788,8 +5038,9 @@
         <v>381</v>
       </c>
       <c r="E205" s="3"/>
-    </row>
-    <row r="206" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F205" s="3"/>
+    </row>
+    <row r="206" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A206" s="3">
         <v>11</v>
       </c>
@@ -4801,8 +5052,9 @@
         <v>406</v>
       </c>
       <c r="E206" s="3"/>
-    </row>
-    <row r="207" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F206" s="3"/>
+    </row>
+    <row r="207" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A207" s="3">
         <v>12</v>
       </c>
@@ -4814,8 +5066,9 @@
         <v>407</v>
       </c>
       <c r="E207" s="3"/>
-    </row>
-    <row r="208" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F207" s="3"/>
+    </row>
+    <row r="208" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A208" s="3">
         <v>13</v>
       </c>
@@ -4827,8 +5080,9 @@
         <v>407</v>
       </c>
       <c r="E208" s="3"/>
-    </row>
-    <row r="209" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F208" s="3"/>
+    </row>
+    <row r="209" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A209" s="3">
         <v>14</v>
       </c>
@@ -4840,8 +5094,9 @@
         <v>394</v>
       </c>
       <c r="E209" s="3"/>
-    </row>
-    <row r="210" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F209" s="3"/>
+    </row>
+    <row r="210" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A210" s="3">
         <v>15</v>
       </c>
@@ -4853,8 +5108,9 @@
         <v>394</v>
       </c>
       <c r="E210" s="3"/>
-    </row>
-    <row r="211" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F210" s="3"/>
+    </row>
+    <row r="211" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A211" s="3">
         <v>16</v>
       </c>
@@ -4864,8 +5120,9 @@
       <c r="C211" s="3"/>
       <c r="D211" s="3"/>
       <c r="E211" s="3"/>
-    </row>
-    <row r="212" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F211" s="3"/>
+    </row>
+    <row r="212" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A212" s="3">
         <v>17</v>
       </c>
@@ -4877,8 +5134,9 @@
         <v>404</v>
       </c>
       <c r="E212" s="3"/>
-    </row>
-    <row r="213" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F212" s="3"/>
+    </row>
+    <row r="213" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A213" s="3">
         <v>18</v>
       </c>
@@ -4890,8 +5148,9 @@
         <v>404</v>
       </c>
       <c r="E213" s="3"/>
-    </row>
-    <row r="214" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F213" s="3"/>
+    </row>
+    <row r="214" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A214" s="3">
         <v>19</v>
       </c>
@@ -4903,8 +5162,9 @@
         <v>404</v>
       </c>
       <c r="E214" s="3"/>
-    </row>
-    <row r="215" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F214" s="3"/>
+    </row>
+    <row r="215" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A215" s="3">
         <v>20</v>
       </c>
@@ -4916,8 +5176,9 @@
         <v>404</v>
       </c>
       <c r="E215" s="3"/>
-    </row>
-    <row r="216" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F215" s="3"/>
+    </row>
+    <row r="216" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A216" s="3">
         <v>21</v>
       </c>
@@ -4927,8 +5188,9 @@
       <c r="C216" s="3"/>
       <c r="D216" s="3"/>
       <c r="E216" s="3"/>
-    </row>
-    <row r="217" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F216" s="3"/>
+    </row>
+    <row r="217" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A217" s="3">
         <v>22</v>
       </c>
@@ -4940,8 +5202,9 @@
         <v>404</v>
       </c>
       <c r="E217" s="3"/>
-    </row>
-    <row r="218" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F217" s="3"/>
+    </row>
+    <row r="218" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A218" s="3">
         <v>23</v>
       </c>
@@ -4953,8 +5216,9 @@
         <v>356</v>
       </c>
       <c r="E218" s="3"/>
-    </row>
-    <row r="219" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F218" s="3"/>
+    </row>
+    <row r="219" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A219" s="12" t="s">
         <v>275</v>
       </c>
@@ -4962,8 +5226,9 @@
       <c r="C219" s="12"/>
       <c r="D219" s="12"/>
       <c r="E219" s="12"/>
-    </row>
-    <row r="220" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F219" s="12"/>
+    </row>
+    <row r="220" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A220" s="3">
         <v>1</v>
       </c>
@@ -4974,9 +5239,10 @@
       <c r="D220" s="3" t="s">
         <v>383</v>
       </c>
-      <c r="E220" s="5"/>
-    </row>
-    <row r="221" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E220" s="3"/>
+      <c r="F220" s="5"/>
+    </row>
+    <row r="221" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A221" s="3">
         <v>2</v>
       </c>
@@ -4987,9 +5253,10 @@
       <c r="D221" s="3" t="s">
         <v>383</v>
       </c>
-      <c r="E221" s="5"/>
-    </row>
-    <row r="222" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E221" s="3"/>
+      <c r="F221" s="5"/>
+    </row>
+    <row r="222" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A222" s="3">
         <v>3</v>
       </c>
@@ -5000,9 +5267,10 @@
       <c r="D222" s="3" t="s">
         <v>383</v>
       </c>
-      <c r="E222" s="5"/>
-    </row>
-    <row r="223" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E222" s="3"/>
+      <c r="F222" s="5"/>
+    </row>
+    <row r="223" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A223" s="3">
         <v>4</v>
       </c>
@@ -5013,9 +5281,10 @@
       <c r="D223" s="3" t="s">
         <v>383</v>
       </c>
-      <c r="E223" s="5"/>
-    </row>
-    <row r="224" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E223" s="3"/>
+      <c r="F223" s="5"/>
+    </row>
+    <row r="224" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A224" s="3">
         <v>5</v>
       </c>
@@ -5026,11 +5295,12 @@
       <c r="D224" s="3" t="s">
         <v>383</v>
       </c>
-      <c r="E224" s="5" t="s">
+      <c r="E224" s="3"/>
+      <c r="F224" s="5" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="225" spans="1:5" ht="33" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:6" ht="33" x14ac:dyDescent="0.3">
       <c r="A225" s="3">
         <v>6</v>
       </c>
@@ -5041,11 +5311,12 @@
       <c r="D225" s="3" t="s">
         <v>394</v>
       </c>
-      <c r="E225" s="5" t="s">
+      <c r="E225" s="3"/>
+      <c r="F225" s="5" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="226" spans="1:5" ht="33" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:6" ht="33" x14ac:dyDescent="0.3">
       <c r="A226" s="3">
         <v>7</v>
       </c>
@@ -5056,11 +5327,12 @@
       <c r="D226" s="3" t="s">
         <v>406</v>
       </c>
-      <c r="E226" s="5" t="s">
+      <c r="E226" s="3"/>
+      <c r="F226" s="5" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="227" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A227" s="3">
         <v>8</v>
       </c>
@@ -5073,11 +5345,12 @@
       <c r="D227" s="3" t="s">
         <v>394</v>
       </c>
-      <c r="E227" s="5" t="s">
+      <c r="E227" s="3"/>
+      <c r="F227" s="5" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="228" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A228" s="3">
         <v>9</v>
       </c>
@@ -5087,8 +5360,9 @@
       <c r="C228" s="3"/>
       <c r="D228" s="3"/>
       <c r="E228" s="3"/>
-    </row>
-    <row r="229" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F228" s="3"/>
+    </row>
+    <row r="229" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A229" s="3">
         <v>10</v>
       </c>
@@ -5098,8 +5372,9 @@
       <c r="C229" s="3"/>
       <c r="D229" s="3"/>
       <c r="E229" s="3"/>
-    </row>
-    <row r="230" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F229" s="3"/>
+    </row>
+    <row r="230" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A230" s="3">
         <v>11</v>
       </c>
@@ -5109,8 +5384,9 @@
       <c r="C230" s="3"/>
       <c r="D230" s="3"/>
       <c r="E230" s="3"/>
-    </row>
-    <row r="231" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F230" s="3"/>
+    </row>
+    <row r="231" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A231" s="3">
         <v>12</v>
       </c>
@@ -5120,8 +5396,9 @@
       <c r="C231" s="3"/>
       <c r="D231" s="3"/>
       <c r="E231" s="3"/>
-    </row>
-    <row r="232" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F231" s="3"/>
+    </row>
+    <row r="232" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A232" s="12" t="s">
         <v>276</v>
       </c>
@@ -5129,8 +5406,9 @@
       <c r="C232" s="12"/>
       <c r="D232" s="12"/>
       <c r="E232" s="12"/>
-    </row>
-    <row r="233" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F232" s="12"/>
+    </row>
+    <row r="233" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A233" s="3">
         <v>1</v>
       </c>
@@ -5142,8 +5420,9 @@
         <v>376</v>
       </c>
       <c r="E233" s="3"/>
-    </row>
-    <row r="234" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F233" s="3"/>
+    </row>
+    <row r="234" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A234" s="3">
         <v>2</v>
       </c>
@@ -5155,8 +5434,9 @@
         <v>376</v>
       </c>
       <c r="E234" s="3"/>
-    </row>
-    <row r="235" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F234" s="3"/>
+    </row>
+    <row r="235" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A235" s="3">
         <v>3</v>
       </c>
@@ -5168,8 +5448,9 @@
         <v>356</v>
       </c>
       <c r="E235" s="3"/>
-    </row>
-    <row r="236" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F235" s="3"/>
+    </row>
+    <row r="236" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A236" s="3">
         <v>4</v>
       </c>
@@ -5181,8 +5462,9 @@
         <v>394</v>
       </c>
       <c r="E236" s="3"/>
-    </row>
-    <row r="237" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F236" s="3"/>
+    </row>
+    <row r="237" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A237" s="3">
         <v>5</v>
       </c>
@@ -5194,8 +5476,9 @@
         <v>394</v>
       </c>
       <c r="E237" s="3"/>
-    </row>
-    <row r="238" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F237" s="3"/>
+    </row>
+    <row r="238" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A238" s="3">
         <v>6</v>
       </c>
@@ -5207,8 +5490,9 @@
         <v>439</v>
       </c>
       <c r="E238" s="3"/>
-    </row>
-    <row r="239" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F238" s="3"/>
+    </row>
+    <row r="239" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A239" s="3">
         <v>7</v>
       </c>
@@ -5222,8 +5506,9 @@
         <v>447</v>
       </c>
       <c r="E239" s="3"/>
-    </row>
-    <row r="240" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F239" s="3"/>
+    </row>
+    <row r="240" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A240" s="3">
         <v>8</v>
       </c>
@@ -5235,8 +5520,9 @@
         <v>356</v>
       </c>
       <c r="E240" s="3"/>
-    </row>
-    <row r="241" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F240" s="3"/>
+    </row>
+    <row r="241" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A241" s="3">
         <v>9</v>
       </c>
@@ -5248,8 +5534,9 @@
         <v>356</v>
       </c>
       <c r="E241" s="3"/>
-    </row>
-    <row r="242" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F241" s="3"/>
+    </row>
+    <row r="242" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A242" s="3">
         <v>10</v>
       </c>
@@ -5261,8 +5548,9 @@
         <v>356</v>
       </c>
       <c r="E242" s="3"/>
-    </row>
-    <row r="243" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F242" s="3"/>
+    </row>
+    <row r="243" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A243" s="12" t="s">
         <v>277</v>
       </c>
@@ -5270,8 +5558,9 @@
       <c r="C243" s="12"/>
       <c r="D243" s="12"/>
       <c r="E243" s="12"/>
-    </row>
-    <row r="244" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F243" s="12"/>
+    </row>
+    <row r="244" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A244" s="3">
         <v>1</v>
       </c>
@@ -5281,8 +5570,9 @@
       <c r="C244" s="3"/>
       <c r="D244" s="3"/>
       <c r="E244" s="3"/>
-    </row>
-    <row r="245" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F244" s="3"/>
+    </row>
+    <row r="245" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A245" s="3">
         <v>2</v>
       </c>
@@ -5292,8 +5582,9 @@
       <c r="C245" s="3"/>
       <c r="D245" s="3"/>
       <c r="E245" s="3"/>
-    </row>
-    <row r="246" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F245" s="3"/>
+    </row>
+    <row r="246" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A246" s="3">
         <v>3</v>
       </c>
@@ -5303,8 +5594,9 @@
       <c r="C246" s="3"/>
       <c r="D246" s="3"/>
       <c r="E246" s="3"/>
-    </row>
-    <row r="247" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F246" s="3"/>
+    </row>
+    <row r="247" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A247" s="3">
         <v>4</v>
       </c>
@@ -5316,8 +5608,9 @@
         <v>408</v>
       </c>
       <c r="E247" s="3"/>
-    </row>
-    <row r="248" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F247" s="3"/>
+    </row>
+    <row r="248" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A248" s="12" t="s">
         <v>278</v>
       </c>
@@ -5325,8 +5618,9 @@
       <c r="C248" s="12"/>
       <c r="D248" s="12"/>
       <c r="E248" s="12"/>
-    </row>
-    <row r="249" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F248" s="12"/>
+    </row>
+    <row r="249" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A249" s="3">
         <v>1</v>
       </c>
@@ -5338,8 +5632,9 @@
         <v>383</v>
       </c>
       <c r="E249" s="3"/>
-    </row>
-    <row r="250" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F249" s="3"/>
+    </row>
+    <row r="250" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A250" s="3">
         <v>2</v>
       </c>
@@ -5351,8 +5646,9 @@
         <v>383</v>
       </c>
       <c r="E250" s="3"/>
-    </row>
-    <row r="251" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F250" s="3"/>
+    </row>
+    <row r="251" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A251" s="3">
         <v>3</v>
       </c>
@@ -5364,8 +5660,9 @@
         <v>381</v>
       </c>
       <c r="E251" s="3"/>
-    </row>
-    <row r="252" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F251" s="3"/>
+    </row>
+    <row r="252" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A252" s="3">
         <v>4</v>
       </c>
@@ -5375,8 +5672,9 @@
       <c r="C252" s="3"/>
       <c r="D252" s="3"/>
       <c r="E252" s="3"/>
-    </row>
-    <row r="253" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F252" s="3"/>
+    </row>
+    <row r="253" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A253" s="3">
         <v>5</v>
       </c>
@@ -5388,8 +5686,9 @@
         <v>383</v>
       </c>
       <c r="E253" s="3"/>
-    </row>
-    <row r="254" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F253" s="3"/>
+    </row>
+    <row r="254" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A254" s="3">
         <v>6</v>
       </c>
@@ -5401,8 +5700,9 @@
         <v>383</v>
       </c>
       <c r="E254" s="3"/>
-    </row>
-    <row r="255" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F254" s="3"/>
+    </row>
+    <row r="255" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A255" s="3">
         <v>7</v>
       </c>
@@ -5414,8 +5714,9 @@
         <v>383</v>
       </c>
       <c r="E255" s="3"/>
-    </row>
-    <row r="256" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F255" s="3"/>
+    </row>
+    <row r="256" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A256" s="3">
         <v>8</v>
       </c>
@@ -5427,8 +5728,9 @@
         <v>383</v>
       </c>
       <c r="E256" s="3"/>
-    </row>
-    <row r="257" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F256" s="3"/>
+    </row>
+    <row r="257" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A257" s="3">
         <v>9</v>
       </c>
@@ -5440,8 +5742,9 @@
         <v>383</v>
       </c>
       <c r="E257" s="3"/>
-    </row>
-    <row r="258" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F257" s="3"/>
+    </row>
+    <row r="258" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A258" s="3">
         <v>10</v>
       </c>
@@ -5451,8 +5754,9 @@
       <c r="C258" s="3"/>
       <c r="D258" s="3"/>
       <c r="E258" s="3"/>
-    </row>
-    <row r="259" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F258" s="3"/>
+    </row>
+    <row r="259" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A259" s="3">
         <v>11</v>
       </c>
@@ -5464,8 +5768,9 @@
         <v>383</v>
       </c>
       <c r="E259" s="3"/>
-    </row>
-    <row r="260" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F259" s="3"/>
+    </row>
+    <row r="260" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A260" s="3">
         <v>12</v>
       </c>
@@ -5477,8 +5782,9 @@
         <v>383</v>
       </c>
       <c r="E260" s="3"/>
-    </row>
-    <row r="261" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F260" s="3"/>
+    </row>
+    <row r="261" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A261" s="12" t="s">
         <v>279</v>
       </c>
@@ -5486,8 +5792,9 @@
       <c r="C261" s="12"/>
       <c r="D261" s="12"/>
       <c r="E261" s="12"/>
-    </row>
-    <row r="262" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F261" s="12"/>
+    </row>
+    <row r="262" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A262" s="3">
         <v>1</v>
       </c>
@@ -5499,8 +5806,9 @@
         <v>383</v>
       </c>
       <c r="E262" s="3"/>
-    </row>
-    <row r="263" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F262" s="3"/>
+    </row>
+    <row r="263" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A263" s="3">
         <v>2</v>
       </c>
@@ -5510,8 +5818,9 @@
       <c r="C263" s="3"/>
       <c r="D263" s="3"/>
       <c r="E263" s="3"/>
-    </row>
-    <row r="264" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F263" s="3"/>
+    </row>
+    <row r="264" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A264" s="3">
         <v>3</v>
       </c>
@@ -5523,8 +5832,9 @@
         <v>383</v>
       </c>
       <c r="E264" s="3"/>
-    </row>
-    <row r="265" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F264" s="3"/>
+    </row>
+    <row r="265" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A265" s="3">
         <v>4</v>
       </c>
@@ -5536,8 +5846,9 @@
         <v>383</v>
       </c>
       <c r="E265" s="3"/>
-    </row>
-    <row r="266" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F265" s="3"/>
+    </row>
+    <row r="266" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A266" s="3">
         <v>5</v>
       </c>
@@ -5547,8 +5858,9 @@
       <c r="C266" s="3"/>
       <c r="D266" s="3"/>
       <c r="E266" s="3"/>
-    </row>
-    <row r="267" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F266" s="3"/>
+    </row>
+    <row r="267" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A267" s="3">
         <v>6</v>
       </c>
@@ -5558,8 +5870,9 @@
       <c r="C267" s="3"/>
       <c r="D267" s="3"/>
       <c r="E267" s="3"/>
-    </row>
-    <row r="268" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F267" s="3"/>
+    </row>
+    <row r="268" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A268" s="3">
         <v>7</v>
       </c>
@@ -5569,8 +5882,9 @@
       <c r="C268" s="3"/>
       <c r="D268" s="3"/>
       <c r="E268" s="3"/>
-    </row>
-    <row r="269" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F268" s="3"/>
+    </row>
+    <row r="269" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A269" s="3">
         <v>8</v>
       </c>
@@ -5580,8 +5894,9 @@
       <c r="C269" s="3"/>
       <c r="D269" s="3"/>
       <c r="E269" s="3"/>
-    </row>
-    <row r="270" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F269" s="3"/>
+    </row>
+    <row r="270" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A270" s="3">
         <v>9</v>
       </c>
@@ -5591,8 +5906,9 @@
       <c r="C270" s="3"/>
       <c r="D270" s="3"/>
       <c r="E270" s="3"/>
-    </row>
-    <row r="271" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F270" s="3"/>
+    </row>
+    <row r="271" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A271" s="3">
         <v>10</v>
       </c>
@@ -5604,8 +5920,9 @@
         <v>409</v>
       </c>
       <c r="E271" s="3"/>
-    </row>
-    <row r="272" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F271" s="3"/>
+    </row>
+    <row r="272" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A272" s="3">
         <v>11</v>
       </c>
@@ -5615,8 +5932,9 @@
       <c r="C272" s="3"/>
       <c r="D272" s="3"/>
       <c r="E272" s="3"/>
-    </row>
-    <row r="273" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F272" s="3"/>
+    </row>
+    <row r="273" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A273" s="3">
         <v>12</v>
       </c>
@@ -5626,8 +5944,9 @@
       <c r="C273" s="3"/>
       <c r="D273" s="3"/>
       <c r="E273" s="3"/>
-    </row>
-    <row r="274" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F273" s="3"/>
+    </row>
+    <row r="274" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A274" s="3">
         <v>13</v>
       </c>
@@ -5637,8 +5956,9 @@
       <c r="C274" s="3"/>
       <c r="D274" s="3"/>
       <c r="E274" s="3"/>
-    </row>
-    <row r="275" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F274" s="3"/>
+    </row>
+    <row r="275" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A275" s="12" t="s">
         <v>280</v>
       </c>
@@ -5646,8 +5966,9 @@
       <c r="C275" s="12"/>
       <c r="D275" s="12"/>
       <c r="E275" s="12"/>
-    </row>
-    <row r="276" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F275" s="12"/>
+    </row>
+    <row r="276" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A276" s="3">
         <v>1</v>
       </c>
@@ -5659,8 +5980,9 @@
         <v>410</v>
       </c>
       <c r="E276" s="3"/>
-    </row>
-    <row r="277" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F276" s="3"/>
+    </row>
+    <row r="277" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A277" s="3">
         <v>2</v>
       </c>
@@ -5670,8 +5992,9 @@
       <c r="C277" s="3"/>
       <c r="D277" s="3"/>
       <c r="E277" s="3"/>
-    </row>
-    <row r="278" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F277" s="3"/>
+    </row>
+    <row r="278" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A278" s="3">
         <v>3</v>
       </c>
@@ -5681,8 +6004,9 @@
       <c r="C278" s="3"/>
       <c r="D278" s="3"/>
       <c r="E278" s="3"/>
-    </row>
-    <row r="279" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F278" s="3"/>
+    </row>
+    <row r="279" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A279" s="3">
         <v>4</v>
       </c>
@@ -5692,8 +6016,9 @@
       <c r="C279" s="3"/>
       <c r="D279" s="3"/>
       <c r="E279" s="3"/>
-    </row>
-    <row r="280" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F279" s="3"/>
+    </row>
+    <row r="280" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A280" s="3">
         <v>5</v>
       </c>
@@ -5703,8 +6028,9 @@
       <c r="C280" s="3"/>
       <c r="D280" s="3"/>
       <c r="E280" s="3"/>
-    </row>
-    <row r="281" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F280" s="3"/>
+    </row>
+    <row r="281" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A281" s="3">
         <v>6</v>
       </c>
@@ -5716,8 +6042,9 @@
         <v>383</v>
       </c>
       <c r="E281" s="3"/>
-    </row>
-    <row r="282" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F281" s="3"/>
+    </row>
+    <row r="282" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A282" s="3">
         <v>7</v>
       </c>
@@ -5727,8 +6054,9 @@
       <c r="C282" s="3"/>
       <c r="D282" s="3"/>
       <c r="E282" s="3"/>
-    </row>
-    <row r="283" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F282" s="3"/>
+    </row>
+    <row r="283" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A283" s="12" t="s">
         <v>285</v>
       </c>
@@ -5736,8 +6064,9 @@
       <c r="C283" s="12"/>
       <c r="D283" s="12"/>
       <c r="E283" s="12"/>
-    </row>
-    <row r="284" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F283" s="12"/>
+    </row>
+    <row r="284" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A284" s="3">
         <v>1</v>
       </c>
@@ -5749,8 +6078,9 @@
       </c>
       <c r="D284" s="3"/>
       <c r="E284" s="3"/>
-    </row>
-    <row r="285" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F284" s="3"/>
+    </row>
+    <row r="285" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A285" s="3">
         <v>2</v>
       </c>
@@ -5764,8 +6094,9 @@
         <v>439</v>
       </c>
       <c r="E285" s="3"/>
-    </row>
-    <row r="286" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F285" s="3"/>
+    </row>
+    <row r="286" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A286" s="3">
         <v>3</v>
       </c>
@@ -5777,8 +6108,9 @@
       </c>
       <c r="D286" s="3"/>
       <c r="E286" s="3"/>
-    </row>
-    <row r="287" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F286" s="3"/>
+    </row>
+    <row r="287" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A287" s="3">
         <v>4</v>
       </c>
@@ -5790,8 +6122,9 @@
       </c>
       <c r="D287" s="3"/>
       <c r="E287" s="3"/>
-    </row>
-    <row r="288" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F287" s="3"/>
+    </row>
+    <row r="288" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A288" s="3">
         <v>5</v>
       </c>
@@ -5803,8 +6136,9 @@
       </c>
       <c r="D288" s="3"/>
       <c r="E288" s="3"/>
-    </row>
-    <row r="289" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F288" s="3"/>
+    </row>
+    <row r="289" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A289" s="3">
         <v>6</v>
       </c>
@@ -5818,8 +6152,9 @@
         <v>375</v>
       </c>
       <c r="E289" s="3"/>
-    </row>
-    <row r="290" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F289" s="3"/>
+    </row>
+    <row r="290" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A290" s="3">
         <v>7</v>
       </c>
@@ -5831,8 +6166,9 @@
       </c>
       <c r="D290" s="3"/>
       <c r="E290" s="3"/>
-    </row>
-    <row r="291" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F290" s="3"/>
+    </row>
+    <row r="291" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A291" s="3">
         <v>8</v>
       </c>
@@ -5844,8 +6180,9 @@
       </c>
       <c r="D291" s="3"/>
       <c r="E291" s="3"/>
-    </row>
-    <row r="292" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F291" s="3"/>
+    </row>
+    <row r="292" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A292" s="3">
         <v>9</v>
       </c>
@@ -5859,8 +6196,9 @@
         <v>356</v>
       </c>
       <c r="E292" s="3"/>
-    </row>
-    <row r="293" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F292" s="3"/>
+    </row>
+    <row r="293" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A293" s="12" t="s">
         <v>366</v>
       </c>
@@ -5868,8 +6206,9 @@
       <c r="C293" s="12"/>
       <c r="D293" s="12"/>
       <c r="E293" s="12"/>
-    </row>
-    <row r="294" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F293" s="12"/>
+    </row>
+    <row r="294" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A294" s="10" t="s">
         <v>299</v>
       </c>
@@ -5877,8 +6216,9 @@
       <c r="C294" s="3"/>
       <c r="D294" s="3"/>
       <c r="E294" s="3"/>
-    </row>
-    <row r="295" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F294" s="3"/>
+    </row>
+    <row r="295" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A295" s="3">
         <v>1</v>
       </c>
@@ -5890,8 +6230,9 @@
         <v>356</v>
       </c>
       <c r="E295" s="3"/>
-    </row>
-    <row r="296" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F295" s="3"/>
+    </row>
+    <row r="296" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A296" s="3">
         <v>2</v>
       </c>
@@ -5902,11 +6243,12 @@
       <c r="D296" s="3" t="s">
         <v>365</v>
       </c>
-      <c r="E296" s="3" t="s">
+      <c r="E296" s="3"/>
+      <c r="F296" s="3" t="s">
         <v>440</v>
       </c>
     </row>
-    <row r="297" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A297" s="3">
         <v>3</v>
       </c>
@@ -5918,8 +6260,9 @@
         <v>356</v>
       </c>
       <c r="E297" s="3"/>
-    </row>
-    <row r="298" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F297" s="3"/>
+    </row>
+    <row r="298" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A298" s="3">
         <v>4</v>
       </c>
@@ -5930,9 +6273,10 @@
       <c r="D298" s="6" t="s">
         <v>368</v>
       </c>
-      <c r="E298" s="3"/>
-    </row>
-    <row r="299" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E298" s="6"/>
+      <c r="F298" s="3"/>
+    </row>
+    <row r="299" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A299" s="10" t="s">
         <v>300</v>
       </c>
@@ -5940,8 +6284,9 @@
       <c r="C299" s="3"/>
       <c r="D299" s="3"/>
       <c r="E299" s="3"/>
-    </row>
-    <row r="300" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F299" s="3"/>
+    </row>
+    <row r="300" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A300" s="3">
         <v>1</v>
       </c>
@@ -5953,8 +6298,9 @@
         <v>359</v>
       </c>
       <c r="E300" s="3"/>
-    </row>
-    <row r="301" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F300" s="3"/>
+    </row>
+    <row r="301" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A301" s="3">
         <v>2</v>
       </c>
@@ -5966,8 +6312,9 @@
         <v>356</v>
       </c>
       <c r="E301" s="3"/>
-    </row>
-    <row r="302" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F301" s="3"/>
+    </row>
+    <row r="302" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A302" s="3">
         <v>3</v>
       </c>
@@ -5979,8 +6326,9 @@
         <v>356</v>
       </c>
       <c r="E302" s="3"/>
-    </row>
-    <row r="303" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F302" s="3"/>
+    </row>
+    <row r="303" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A303" s="3">
         <v>4</v>
       </c>
@@ -5991,9 +6339,10 @@
       <c r="D303" s="6" t="s">
         <v>368</v>
       </c>
-      <c r="E303" s="3"/>
-    </row>
-    <row r="304" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E303" s="6"/>
+      <c r="F303" s="3"/>
+    </row>
+    <row r="304" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A304" s="3">
         <v>5</v>
       </c>
@@ -6005,8 +6354,9 @@
         <v>369</v>
       </c>
       <c r="E304" s="3"/>
-    </row>
-    <row r="305" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F304" s="3"/>
+    </row>
+    <row r="305" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A305" s="10" t="s">
         <v>301</v>
       </c>
@@ -6014,8 +6364,9 @@
       <c r="C305" s="3"/>
       <c r="D305" s="3"/>
       <c r="E305" s="3"/>
-    </row>
-    <row r="306" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F305" s="3"/>
+    </row>
+    <row r="306" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A306" s="3">
         <v>1</v>
       </c>
@@ -6027,8 +6378,9 @@
         <v>356</v>
       </c>
       <c r="E306" s="3"/>
-    </row>
-    <row r="307" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F306" s="3"/>
+    </row>
+    <row r="307" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A307" s="10" t="s">
         <v>351</v>
       </c>
@@ -6036,8 +6388,9 @@
       <c r="C307" s="3"/>
       <c r="D307" s="3"/>
       <c r="E307" s="3"/>
-    </row>
-    <row r="308" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F307" s="3"/>
+    </row>
+    <row r="308" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A308" s="3">
         <v>1</v>
       </c>
@@ -6049,8 +6402,9 @@
         <v>370</v>
       </c>
       <c r="E308" s="3"/>
-    </row>
-    <row r="309" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F308" s="3"/>
+    </row>
+    <row r="309" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A309" s="3">
         <v>2</v>
       </c>
@@ -6062,8 +6416,9 @@
         <v>371</v>
       </c>
       <c r="E309" s="3"/>
-    </row>
-    <row r="310" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F309" s="3"/>
+    </row>
+    <row r="310" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A310" s="3">
         <v>3</v>
       </c>
@@ -6074,9 +6429,10 @@
       <c r="D310" s="6" t="s">
         <v>368</v>
       </c>
-      <c r="E310" s="3"/>
-    </row>
-    <row r="311" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E310" s="6"/>
+      <c r="F310" s="3"/>
+    </row>
+    <row r="311" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A311" s="10" t="s">
         <v>302</v>
       </c>
@@ -6084,8 +6440,9 @@
       <c r="C311" s="3"/>
       <c r="D311" s="3"/>
       <c r="E311" s="3"/>
-    </row>
-    <row r="312" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F311" s="3"/>
+    </row>
+    <row r="312" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A312" s="3">
         <v>1</v>
       </c>
@@ -6097,8 +6454,9 @@
         <v>373</v>
       </c>
       <c r="E312" s="3"/>
-    </row>
-    <row r="313" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F312" s="3"/>
+    </row>
+    <row r="313" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A313" s="3">
         <v>2</v>
       </c>
@@ -6110,8 +6468,9 @@
         <v>372</v>
       </c>
       <c r="E313" s="3"/>
-    </row>
-    <row r="314" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F313" s="3"/>
+    </row>
+    <row r="314" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A314" s="10" t="s">
         <v>352</v>
       </c>
@@ -6119,8 +6478,9 @@
       <c r="C314" s="3"/>
       <c r="D314" s="3"/>
       <c r="E314" s="3"/>
-    </row>
-    <row r="315" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F314" s="3"/>
+    </row>
+    <row r="315" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A315" s="3">
         <v>1</v>
       </c>
@@ -6132,8 +6492,9 @@
         <v>356</v>
       </c>
       <c r="E315" s="3"/>
-    </row>
-    <row r="316" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F315" s="3"/>
+    </row>
+    <row r="316" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A316" s="3">
         <v>2</v>
       </c>
@@ -6145,8 +6506,9 @@
         <v>374</v>
       </c>
       <c r="E316" s="3"/>
-    </row>
-    <row r="317" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F316" s="3"/>
+    </row>
+    <row r="317" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A317" s="3">
         <v>3</v>
       </c>
@@ -6158,8 +6520,9 @@
         <v>357</v>
       </c>
       <c r="E317" s="3"/>
-    </row>
-    <row r="318" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F317" s="3"/>
+    </row>
+    <row r="318" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A318" s="3">
         <v>4</v>
       </c>
@@ -6171,8 +6534,9 @@
         <v>359</v>
       </c>
       <c r="E318" s="3"/>
-    </row>
-    <row r="319" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F318" s="3"/>
+    </row>
+    <row r="319" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A319" s="3">
         <v>5</v>
       </c>
@@ -6182,8 +6546,9 @@
       <c r="C319" s="3"/>
       <c r="D319" s="3"/>
       <c r="E319" s="3"/>
-    </row>
-    <row r="320" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F319" s="3"/>
+    </row>
+    <row r="320" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A320" s="3">
         <v>6</v>
       </c>
@@ -6193,8 +6558,9 @@
       <c r="C320" s="3"/>
       <c r="D320" s="3"/>
       <c r="E320" s="3"/>
-    </row>
-    <row r="321" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F320" s="3"/>
+    </row>
+    <row r="321" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A321" s="3">
         <v>7</v>
       </c>
@@ -6206,8 +6572,9 @@
         <v>357</v>
       </c>
       <c r="E321" s="3"/>
-    </row>
-    <row r="322" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F321" s="3"/>
+    </row>
+    <row r="322" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A322" s="3">
         <v>8</v>
       </c>
@@ -6217,8 +6584,9 @@
       <c r="C322" s="3"/>
       <c r="D322" s="3"/>
       <c r="E322" s="3"/>
-    </row>
-    <row r="323" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F322" s="3"/>
+    </row>
+    <row r="323" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A323" s="3">
         <v>9</v>
       </c>
@@ -6230,8 +6598,9 @@
         <v>361</v>
       </c>
       <c r="E323" s="3"/>
-    </row>
-    <row r="324" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F323" s="3"/>
+    </row>
+    <row r="324" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A324" s="10" t="s">
         <v>353</v>
       </c>
@@ -6239,8 +6608,9 @@
       <c r="C324" s="3"/>
       <c r="D324" s="3"/>
       <c r="E324" s="3"/>
-    </row>
-    <row r="325" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F324" s="3"/>
+    </row>
+    <row r="325" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A325" s="3">
         <v>1</v>
       </c>
@@ -6252,8 +6622,9 @@
         <v>356</v>
       </c>
       <c r="E325" s="3"/>
-    </row>
-    <row r="326" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F325" s="3"/>
+    </row>
+    <row r="326" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A326" s="3">
         <v>2</v>
       </c>
@@ -6265,8 +6636,9 @@
         <v>360</v>
       </c>
       <c r="E326" s="3"/>
-    </row>
-    <row r="327" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F326" s="3"/>
+    </row>
+    <row r="327" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A327" s="3">
         <v>3</v>
       </c>
@@ -6278,8 +6650,9 @@
         <v>360</v>
       </c>
       <c r="E327" s="3"/>
-    </row>
-    <row r="328" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F327" s="3"/>
+    </row>
+    <row r="328" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A328" s="10" t="s">
         <v>354</v>
       </c>
@@ -6287,8 +6660,9 @@
       <c r="C328" s="3"/>
       <c r="D328" s="3"/>
       <c r="E328" s="3"/>
-    </row>
-    <row r="329" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F328" s="3"/>
+    </row>
+    <row r="329" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A329" s="3">
         <v>1</v>
       </c>
@@ -6300,8 +6674,9 @@
         <v>360</v>
       </c>
       <c r="E329" s="3"/>
-    </row>
-    <row r="330" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F329" s="3"/>
+    </row>
+    <row r="330" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A330" s="3">
         <v>2</v>
       </c>
@@ -6311,8 +6686,9 @@
       <c r="C330" s="3"/>
       <c r="D330" s="3"/>
       <c r="E330" s="3"/>
-    </row>
-    <row r="331" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F330" s="3"/>
+    </row>
+    <row r="331" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A331" s="3">
         <v>3</v>
       </c>
@@ -6324,8 +6700,9 @@
         <v>364</v>
       </c>
       <c r="E331" s="3"/>
-    </row>
-    <row r="332" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F331" s="3"/>
+    </row>
+    <row r="332" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A332" s="3">
         <v>4</v>
       </c>
@@ -6337,8 +6714,9 @@
         <v>361</v>
       </c>
       <c r="E332" s="3"/>
-    </row>
-    <row r="333" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F332" s="3"/>
+    </row>
+    <row r="333" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A333" s="10" t="s">
         <v>355</v>
       </c>
@@ -6346,8 +6724,9 @@
       <c r="C333" s="3"/>
       <c r="D333" s="3"/>
       <c r="E333" s="3"/>
-    </row>
-    <row r="334" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F333" s="3"/>
+    </row>
+    <row r="334" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A334" s="3">
         <v>1</v>
       </c>
@@ -6359,8 +6738,9 @@
         <v>361</v>
       </c>
       <c r="E334" s="3"/>
-    </row>
-    <row r="335" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F334" s="3"/>
+    </row>
+    <row r="335" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A335" s="3">
         <v>2</v>
       </c>
@@ -6372,8 +6752,9 @@
         <v>361</v>
       </c>
       <c r="E335" s="3"/>
-    </row>
-    <row r="336" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F335" s="3"/>
+    </row>
+    <row r="336" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A336" s="3">
         <v>3</v>
       </c>
@@ -6385,8 +6766,9 @@
         <v>436</v>
       </c>
       <c r="E336" s="3"/>
-    </row>
-    <row r="337" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F336" s="3"/>
+    </row>
+    <row r="337" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A337" s="3">
         <v>4</v>
       </c>
@@ -6396,8 +6778,9 @@
       <c r="C337" s="3"/>
       <c r="D337" s="3"/>
       <c r="E337" s="3"/>
-    </row>
-    <row r="338" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F337" s="3"/>
+    </row>
+    <row r="338" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A338" s="12" t="s">
         <v>367</v>
       </c>
@@ -6405,8 +6788,9 @@
       <c r="C338" s="12"/>
       <c r="D338" s="12"/>
       <c r="E338" s="12"/>
-    </row>
-    <row r="339" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F338" s="12"/>
+    </row>
+    <row r="339" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A339" s="3">
         <v>1</v>
       </c>
@@ -6416,8 +6800,9 @@
       <c r="C339" s="3"/>
       <c r="D339" s="3"/>
       <c r="E339" s="3"/>
-    </row>
-    <row r="340" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F339" s="3"/>
+    </row>
+    <row r="340" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A340" s="3">
         <v>2</v>
       </c>
@@ -6429,8 +6814,9 @@
         <v>364</v>
       </c>
       <c r="E340" s="3"/>
-    </row>
-    <row r="341" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F340" s="3"/>
+    </row>
+    <row r="341" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A341" s="3">
         <v>3</v>
       </c>
@@ -6440,8 +6826,9 @@
       <c r="C341" s="3"/>
       <c r="D341" s="3"/>
       <c r="E341" s="3"/>
-    </row>
-    <row r="342" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F341" s="3"/>
+    </row>
+    <row r="342" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A342" s="3">
         <v>4</v>
       </c>
@@ -6453,8 +6840,9 @@
         <v>364</v>
       </c>
       <c r="E342" s="3"/>
-    </row>
-    <row r="343" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F342" s="3"/>
+    </row>
+    <row r="343" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A343" s="3">
         <v>5</v>
       </c>
@@ -6466,8 +6854,9 @@
         <v>363</v>
       </c>
       <c r="E343" s="3"/>
-    </row>
-    <row r="344" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F343" s="3"/>
+    </row>
+    <row r="344" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A344" s="3">
         <v>6</v>
       </c>
@@ -6477,8 +6866,9 @@
       <c r="C344" s="3"/>
       <c r="D344" s="3"/>
       <c r="E344" s="3"/>
-    </row>
-    <row r="345" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F344" s="3"/>
+    </row>
+    <row r="345" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A345" s="3">
         <v>7</v>
       </c>
@@ -6488,8 +6878,9 @@
       <c r="C345" s="3"/>
       <c r="D345" s="3"/>
       <c r="E345" s="3"/>
-    </row>
-    <row r="346" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F345" s="3"/>
+    </row>
+    <row r="346" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A346" s="3">
         <v>8</v>
       </c>
@@ -6499,8 +6890,9 @@
       <c r="C346" s="3"/>
       <c r="D346" s="3"/>
       <c r="E346" s="3"/>
-    </row>
-    <row r="347" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F346" s="3"/>
+    </row>
+    <row r="347" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A347" s="3">
         <v>9</v>
       </c>
@@ -6512,8 +6904,9 @@
         <v>435</v>
       </c>
       <c r="E347" s="3"/>
-    </row>
-    <row r="348" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F347" s="3"/>
+    </row>
+    <row r="348" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A348" s="3">
         <v>10</v>
       </c>
@@ -6525,8 +6918,9 @@
         <v>413</v>
       </c>
       <c r="E348" s="3"/>
-    </row>
-    <row r="349" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F348" s="3"/>
+    </row>
+    <row r="349" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A349" s="3">
         <v>11</v>
       </c>
@@ -6536,8 +6930,9 @@
       <c r="C349" s="3"/>
       <c r="D349" s="3"/>
       <c r="E349" s="3"/>
-    </row>
-    <row r="350" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F349" s="3"/>
+    </row>
+    <row r="350" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A350" s="3">
         <v>12</v>
       </c>
@@ -6547,28 +6942,101 @@
       <c r="C350" s="3"/>
       <c r="D350" s="3"/>
       <c r="E350" s="3"/>
+      <c r="F350" s="3"/>
+    </row>
+    <row r="351" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A351" s="3">
+        <v>13</v>
+      </c>
+      <c r="B351" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="C351" s="3"/>
+      <c r="D351" s="3"/>
+      <c r="E351" s="3"/>
+      <c r="F351" s="3"/>
+    </row>
+    <row r="352" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A352" s="3">
+        <v>14</v>
+      </c>
+      <c r="B352" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="C352" s="3"/>
+      <c r="D352" s="3"/>
+      <c r="E352" s="3"/>
+      <c r="F352" s="3"/>
+    </row>
+    <row r="353" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A353" s="3">
+        <v>15</v>
+      </c>
+      <c r="B353" s="3" t="s">
+        <v>458</v>
+      </c>
+      <c r="C353" s="3"/>
+      <c r="D353" s="3"/>
+      <c r="E353" s="3"/>
+      <c r="F353" s="3"/>
+    </row>
+    <row r="354" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A354" s="3">
+        <v>16</v>
+      </c>
+      <c r="B354" s="3" t="s">
+        <v>459</v>
+      </c>
+      <c r="C354" s="3"/>
+      <c r="D354" s="3"/>
+      <c r="E354" s="3"/>
+      <c r="F354" s="3"/>
+    </row>
+    <row r="355" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A355" s="3">
+        <v>17</v>
+      </c>
+      <c r="B355" s="3" t="s">
+        <v>460</v>
+      </c>
+      <c r="C355" s="3"/>
+      <c r="D355" s="3"/>
+      <c r="E355" s="3"/>
+      <c r="F355" s="3"/>
+    </row>
+    <row r="356" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A356" s="3">
+        <v>18</v>
+      </c>
+      <c r="B356" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="C356" s="3"/>
+      <c r="D356" s="3"/>
+      <c r="E356" s="3"/>
+      <c r="F356" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="A283:E283"/>
-    <mergeCell ref="A293:E293"/>
-    <mergeCell ref="A275:E275"/>
-    <mergeCell ref="A219:E219"/>
-    <mergeCell ref="A232:E232"/>
-    <mergeCell ref="A243:E243"/>
-    <mergeCell ref="A248:E248"/>
-    <mergeCell ref="A261:E261"/>
-    <mergeCell ref="A144:E144"/>
-    <mergeCell ref="A154:E154"/>
-    <mergeCell ref="A163:E163"/>
-    <mergeCell ref="A167:E167"/>
-    <mergeCell ref="A195:E195"/>
-    <mergeCell ref="A2:E2"/>
-    <mergeCell ref="A21:E21"/>
-    <mergeCell ref="A45:E45"/>
-    <mergeCell ref="A86:E86"/>
-    <mergeCell ref="A140:E140"/>
-    <mergeCell ref="A115:E115"/>
+    <mergeCell ref="A283:F283"/>
+    <mergeCell ref="A293:F293"/>
+    <mergeCell ref="A275:F275"/>
+    <mergeCell ref="A219:F219"/>
+    <mergeCell ref="A232:F232"/>
+    <mergeCell ref="A243:F243"/>
+    <mergeCell ref="A248:F248"/>
+    <mergeCell ref="A261:F261"/>
+    <mergeCell ref="A144:F144"/>
+    <mergeCell ref="A154:F154"/>
+    <mergeCell ref="A163:F163"/>
+    <mergeCell ref="A167:F167"/>
+    <mergeCell ref="A195:F195"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="A21:F21"/>
+    <mergeCell ref="A45:F45"/>
+    <mergeCell ref="A86:F86"/>
+    <mergeCell ref="A140:F140"/>
+    <mergeCell ref="A115:F115"/>
     <mergeCell ref="A294:B294"/>
     <mergeCell ref="A299:B299"/>
     <mergeCell ref="A305:B305"/>
@@ -6578,7 +7046,7 @@
     <mergeCell ref="A324:B324"/>
     <mergeCell ref="A328:B328"/>
     <mergeCell ref="A333:B333"/>
-    <mergeCell ref="A338:E338"/>
+    <mergeCell ref="A338:F338"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/doc/BookList.xlsx
+++ b/doc/BookList.xlsx
@@ -4,19 +4,23 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="书单" sheetId="1" r:id="rId1"/>
-    <sheet name="经典作者" sheetId="2" r:id="rId2"/>
+    <sheet name="Plan" sheetId="3" r:id="rId2"/>
+    <sheet name="经典作者" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="152511"/>
   <webPublishing allowPng="1" targetScreenSize="1024x768" codePage="65001"/>
+  <webPublishObjects count="1">
+    <webPublishObject id="23320" divId="BookList_23320" destinationFile="G:\Projects\jacksoncode.github.io\doc\BookList.htm" autoRepublish="1"/>
+  </webPublishObjects>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="633" uniqueCount="463">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="662" uniqueCount="490">
   <si>
     <t>民主的细节</t>
   </si>
@@ -1809,6 +1813,114 @@
   </si>
   <si>
     <t>ing</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>书名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>阅读时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单核工作法图解</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大学之路</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>原则</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>跃迁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>人类简史</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未来简史</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>见识</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>心流 : 最优体验心理学</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>发现心流 : 日常生活中的最优体验</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大而不倒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>吃掉那只青蛙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>极简工作法则</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>极简生活法则</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>智能时代</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>思维的精进</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>绝非天赋 : 智商、刻意练习与创造力的真相</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>发现天赋的15个训练方法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>优秀到不能被忽视</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>必然</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>失控</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>信息简史</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>非暴力沟通</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>疯狂人类进化史</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>人类2.0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>生命3.0</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1816,6 +1928,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="1">
+    <numFmt numFmtId="181" formatCode="yyyy&quot;年&quot;m&quot;月&quot;;@"/>
+  </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1880,7 +1995,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -1929,11 +2044,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1950,9 +2080,13 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="181" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="181" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -2259,9 +2393,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F356"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A131" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E145" sqref="E145"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A172" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A172" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2295,14 +2429,14 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="10" t="s">
         <v>265</v>
       </c>
-      <c r="B2" s="12"/>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12"/>
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="3">
@@ -2553,14 +2687,14 @@
       <c r="F20" s="3"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A21" s="12" t="s">
+      <c r="A21" s="10" t="s">
         <v>266</v>
       </c>
-      <c r="B21" s="12"/>
-      <c r="C21" s="12"/>
-      <c r="D21" s="12"/>
-      <c r="E21" s="12"/>
-      <c r="F21" s="12"/>
+      <c r="B21" s="10"/>
+      <c r="C21" s="10"/>
+      <c r="D21" s="10"/>
+      <c r="E21" s="10"/>
+      <c r="F21" s="10"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" s="3">
@@ -2883,14 +3017,14 @@
       <c r="F44" s="3"/>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A45" s="12" t="s">
+      <c r="A45" s="10" t="s">
         <v>267</v>
       </c>
-      <c r="B45" s="12"/>
-      <c r="C45" s="12"/>
-      <c r="D45" s="12"/>
-      <c r="E45" s="12"/>
-      <c r="F45" s="12"/>
+      <c r="B45" s="10"/>
+      <c r="C45" s="10"/>
+      <c r="D45" s="10"/>
+      <c r="E45" s="10"/>
+      <c r="F45" s="10"/>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" s="3">
@@ -3455,14 +3589,14 @@
       <c r="F85" s="3"/>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A86" s="12" t="s">
+      <c r="A86" s="10" t="s">
         <v>268</v>
       </c>
-      <c r="B86" s="12"/>
-      <c r="C86" s="12"/>
-      <c r="D86" s="12"/>
-      <c r="E86" s="12"/>
-      <c r="F86" s="12"/>
+      <c r="B86" s="10"/>
+      <c r="C86" s="10"/>
+      <c r="D86" s="10"/>
+      <c r="E86" s="10"/>
+      <c r="F86" s="10"/>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A87" s="3">
@@ -3851,14 +3985,14 @@
       <c r="F114" s="3"/>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A115" s="12" t="s">
+      <c r="A115" s="10" t="s">
         <v>269</v>
       </c>
-      <c r="B115" s="12"/>
-      <c r="C115" s="12"/>
-      <c r="D115" s="12"/>
-      <c r="E115" s="12"/>
-      <c r="F115" s="12"/>
+      <c r="B115" s="10"/>
+      <c r="C115" s="10"/>
+      <c r="D115" s="10"/>
+      <c r="E115" s="10"/>
+      <c r="F115" s="10"/>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A116" s="3">
@@ -4169,14 +4303,14 @@
       <c r="F139" s="3"/>
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A140" s="12" t="s">
+      <c r="A140" s="10" t="s">
         <v>281</v>
       </c>
-      <c r="B140" s="12"/>
-      <c r="C140" s="12"/>
-      <c r="D140" s="12"/>
-      <c r="E140" s="12"/>
-      <c r="F140" s="12"/>
+      <c r="B140" s="10"/>
+      <c r="C140" s="10"/>
+      <c r="D140" s="10"/>
+      <c r="E140" s="10"/>
+      <c r="F140" s="10"/>
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A141" s="3">
@@ -4223,14 +4357,14 @@
       <c r="F143" s="3"/>
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A144" s="12" t="s">
+      <c r="A144" s="10" t="s">
         <v>270</v>
       </c>
-      <c r="B144" s="12"/>
-      <c r="C144" s="12"/>
-      <c r="D144" s="12"/>
-      <c r="E144" s="12"/>
-      <c r="F144" s="12"/>
+      <c r="B144" s="10"/>
+      <c r="C144" s="10"/>
+      <c r="D144" s="10"/>
+      <c r="E144" s="10"/>
+      <c r="F144" s="10"/>
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A145" s="3">
@@ -4355,14 +4489,14 @@
       <c r="F153" s="3"/>
     </row>
     <row r="154" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A154" s="12" t="s">
+      <c r="A154" s="10" t="s">
         <v>271</v>
       </c>
-      <c r="B154" s="12"/>
-      <c r="C154" s="12"/>
-      <c r="D154" s="12"/>
-      <c r="E154" s="12"/>
-      <c r="F154" s="12"/>
+      <c r="B154" s="10"/>
+      <c r="C154" s="10"/>
+      <c r="D154" s="10"/>
+      <c r="E154" s="10"/>
+      <c r="F154" s="10"/>
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A155" s="3">
@@ -4477,14 +4611,14 @@
       <c r="F162" s="3"/>
     </row>
     <row r="163" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A163" s="12" t="s">
+      <c r="A163" s="10" t="s">
         <v>272</v>
       </c>
-      <c r="B163" s="12"/>
-      <c r="C163" s="12"/>
-      <c r="D163" s="12"/>
-      <c r="E163" s="12"/>
-      <c r="F163" s="12"/>
+      <c r="B163" s="10"/>
+      <c r="C163" s="10"/>
+      <c r="D163" s="10"/>
+      <c r="E163" s="10"/>
+      <c r="F163" s="10"/>
     </row>
     <row r="164" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A164" s="3">
@@ -4529,14 +4663,14 @@
       <c r="F166" s="3"/>
     </row>
     <row r="167" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A167" s="12" t="s">
+      <c r="A167" s="10" t="s">
         <v>273</v>
       </c>
-      <c r="B167" s="12"/>
-      <c r="C167" s="12"/>
-      <c r="D167" s="12"/>
-      <c r="E167" s="12"/>
-      <c r="F167" s="12"/>
+      <c r="B167" s="10"/>
+      <c r="C167" s="10"/>
+      <c r="D167" s="10"/>
+      <c r="E167" s="10"/>
+      <c r="F167" s="10"/>
     </row>
     <row r="168" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A168" s="3">
@@ -4891,14 +5025,14 @@
       <c r="F194" s="3"/>
     </row>
     <row r="195" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A195" s="12" t="s">
+      <c r="A195" s="10" t="s">
         <v>274</v>
       </c>
-      <c r="B195" s="12"/>
-      <c r="C195" s="12"/>
-      <c r="D195" s="12"/>
-      <c r="E195" s="12"/>
-      <c r="F195" s="12"/>
+      <c r="B195" s="10"/>
+      <c r="C195" s="10"/>
+      <c r="D195" s="10"/>
+      <c r="E195" s="10"/>
+      <c r="F195" s="10"/>
     </row>
     <row r="196" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A196" s="3">
@@ -5219,14 +5353,14 @@
       <c r="F218" s="3"/>
     </row>
     <row r="219" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A219" s="12" t="s">
+      <c r="A219" s="10" t="s">
         <v>275</v>
       </c>
-      <c r="B219" s="12"/>
-      <c r="C219" s="12"/>
-      <c r="D219" s="12"/>
-      <c r="E219" s="12"/>
-      <c r="F219" s="12"/>
+      <c r="B219" s="10"/>
+      <c r="C219" s="10"/>
+      <c r="D219" s="10"/>
+      <c r="E219" s="10"/>
+      <c r="F219" s="10"/>
     </row>
     <row r="220" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A220" s="3">
@@ -5399,14 +5533,14 @@
       <c r="F231" s="3"/>
     </row>
     <row r="232" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A232" s="12" t="s">
+      <c r="A232" s="10" t="s">
         <v>276</v>
       </c>
-      <c r="B232" s="12"/>
-      <c r="C232" s="12"/>
-      <c r="D232" s="12"/>
-      <c r="E232" s="12"/>
-      <c r="F232" s="12"/>
+      <c r="B232" s="10"/>
+      <c r="C232" s="10"/>
+      <c r="D232" s="10"/>
+      <c r="E232" s="10"/>
+      <c r="F232" s="10"/>
     </row>
     <row r="233" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A233" s="3">
@@ -5551,14 +5685,14 @@
       <c r="F242" s="3"/>
     </row>
     <row r="243" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A243" s="12" t="s">
+      <c r="A243" s="10" t="s">
         <v>277</v>
       </c>
-      <c r="B243" s="12"/>
-      <c r="C243" s="12"/>
-      <c r="D243" s="12"/>
-      <c r="E243" s="12"/>
-      <c r="F243" s="12"/>
+      <c r="B243" s="10"/>
+      <c r="C243" s="10"/>
+      <c r="D243" s="10"/>
+      <c r="E243" s="10"/>
+      <c r="F243" s="10"/>
     </row>
     <row r="244" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A244" s="3">
@@ -5611,14 +5745,14 @@
       <c r="F247" s="3"/>
     </row>
     <row r="248" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A248" s="12" t="s">
+      <c r="A248" s="10" t="s">
         <v>278</v>
       </c>
-      <c r="B248" s="12"/>
-      <c r="C248" s="12"/>
-      <c r="D248" s="12"/>
-      <c r="E248" s="12"/>
-      <c r="F248" s="12"/>
+      <c r="B248" s="10"/>
+      <c r="C248" s="10"/>
+      <c r="D248" s="10"/>
+      <c r="E248" s="10"/>
+      <c r="F248" s="10"/>
     </row>
     <row r="249" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A249" s="3">
@@ -5785,14 +5919,14 @@
       <c r="F260" s="3"/>
     </row>
     <row r="261" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A261" s="12" t="s">
+      <c r="A261" s="10" t="s">
         <v>279</v>
       </c>
-      <c r="B261" s="12"/>
-      <c r="C261" s="12"/>
-      <c r="D261" s="12"/>
-      <c r="E261" s="12"/>
-      <c r="F261" s="12"/>
+      <c r="B261" s="10"/>
+      <c r="C261" s="10"/>
+      <c r="D261" s="10"/>
+      <c r="E261" s="10"/>
+      <c r="F261" s="10"/>
     </row>
     <row r="262" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A262" s="3">
@@ -5959,14 +6093,14 @@
       <c r="F274" s="3"/>
     </row>
     <row r="275" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A275" s="12" t="s">
+      <c r="A275" s="10" t="s">
         <v>280</v>
       </c>
-      <c r="B275" s="12"/>
-      <c r="C275" s="12"/>
-      <c r="D275" s="12"/>
-      <c r="E275" s="12"/>
-      <c r="F275" s="12"/>
+      <c r="B275" s="10"/>
+      <c r="C275" s="10"/>
+      <c r="D275" s="10"/>
+      <c r="E275" s="10"/>
+      <c r="F275" s="10"/>
     </row>
     <row r="276" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A276" s="3">
@@ -6057,14 +6191,14 @@
       <c r="F282" s="3"/>
     </row>
     <row r="283" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A283" s="12" t="s">
+      <c r="A283" s="10" t="s">
         <v>285</v>
       </c>
-      <c r="B283" s="12"/>
-      <c r="C283" s="12"/>
-      <c r="D283" s="12"/>
-      <c r="E283" s="12"/>
-      <c r="F283" s="12"/>
+      <c r="B283" s="10"/>
+      <c r="C283" s="10"/>
+      <c r="D283" s="10"/>
+      <c r="E283" s="10"/>
+      <c r="F283" s="10"/>
     </row>
     <row r="284" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A284" s="3">
@@ -6199,20 +6333,20 @@
       <c r="F292" s="3"/>
     </row>
     <row r="293" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A293" s="12" t="s">
+      <c r="A293" s="10" t="s">
         <v>366</v>
       </c>
-      <c r="B293" s="12"/>
-      <c r="C293" s="12"/>
-      <c r="D293" s="12"/>
-      <c r="E293" s="12"/>
-      <c r="F293" s="12"/>
+      <c r="B293" s="10"/>
+      <c r="C293" s="10"/>
+      <c r="D293" s="10"/>
+      <c r="E293" s="10"/>
+      <c r="F293" s="10"/>
     </row>
     <row r="294" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A294" s="10" t="s">
+      <c r="A294" s="11" t="s">
         <v>299</v>
       </c>
-      <c r="B294" s="11"/>
+      <c r="B294" s="12"/>
       <c r="C294" s="3"/>
       <c r="D294" s="3"/>
       <c r="E294" s="3"/>
@@ -6277,10 +6411,10 @@
       <c r="F298" s="3"/>
     </row>
     <row r="299" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A299" s="10" t="s">
+      <c r="A299" s="11" t="s">
         <v>300</v>
       </c>
-      <c r="B299" s="11"/>
+      <c r="B299" s="12"/>
       <c r="C299" s="3"/>
       <c r="D299" s="3"/>
       <c r="E299" s="3"/>
@@ -6357,10 +6491,10 @@
       <c r="F304" s="3"/>
     </row>
     <row r="305" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A305" s="10" t="s">
+      <c r="A305" s="11" t="s">
         <v>301</v>
       </c>
-      <c r="B305" s="11"/>
+      <c r="B305" s="12"/>
       <c r="C305" s="3"/>
       <c r="D305" s="3"/>
       <c r="E305" s="3"/>
@@ -6381,10 +6515,10 @@
       <c r="F306" s="3"/>
     </row>
     <row r="307" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A307" s="10" t="s">
+      <c r="A307" s="11" t="s">
         <v>351</v>
       </c>
-      <c r="B307" s="11"/>
+      <c r="B307" s="12"/>
       <c r="C307" s="3"/>
       <c r="D307" s="3"/>
       <c r="E307" s="3"/>
@@ -6433,10 +6567,10 @@
       <c r="F310" s="3"/>
     </row>
     <row r="311" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A311" s="10" t="s">
+      <c r="A311" s="11" t="s">
         <v>302</v>
       </c>
-      <c r="B311" s="11"/>
+      <c r="B311" s="12"/>
       <c r="C311" s="3"/>
       <c r="D311" s="3"/>
       <c r="E311" s="3"/>
@@ -6471,10 +6605,10 @@
       <c r="F313" s="3"/>
     </row>
     <row r="314" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A314" s="10" t="s">
+      <c r="A314" s="11" t="s">
         <v>352</v>
       </c>
-      <c r="B314" s="11"/>
+      <c r="B314" s="12"/>
       <c r="C314" s="3"/>
       <c r="D314" s="3"/>
       <c r="E314" s="3"/>
@@ -6601,10 +6735,10 @@
       <c r="F323" s="3"/>
     </row>
     <row r="324" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A324" s="10" t="s">
+      <c r="A324" s="11" t="s">
         <v>353</v>
       </c>
-      <c r="B324" s="11"/>
+      <c r="B324" s="12"/>
       <c r="C324" s="3"/>
       <c r="D324" s="3"/>
       <c r="E324" s="3"/>
@@ -6653,10 +6787,10 @@
       <c r="F327" s="3"/>
     </row>
     <row r="328" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A328" s="10" t="s">
+      <c r="A328" s="11" t="s">
         <v>354</v>
       </c>
-      <c r="B328" s="11"/>
+      <c r="B328" s="12"/>
       <c r="C328" s="3"/>
       <c r="D328" s="3"/>
       <c r="E328" s="3"/>
@@ -6717,10 +6851,10 @@
       <c r="F332" s="3"/>
     </row>
     <row r="333" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A333" s="10" t="s">
+      <c r="A333" s="11" t="s">
         <v>355</v>
       </c>
-      <c r="B333" s="11"/>
+      <c r="B333" s="12"/>
       <c r="C333" s="3"/>
       <c r="D333" s="3"/>
       <c r="E333" s="3"/>
@@ -6781,14 +6915,14 @@
       <c r="F337" s="3"/>
     </row>
     <row r="338" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A338" s="12" t="s">
+      <c r="A338" s="10" t="s">
         <v>367</v>
       </c>
-      <c r="B338" s="12"/>
-      <c r="C338" s="12"/>
-      <c r="D338" s="12"/>
-      <c r="E338" s="12"/>
-      <c r="F338" s="12"/>
+      <c r="B338" s="10"/>
+      <c r="C338" s="10"/>
+      <c r="D338" s="10"/>
+      <c r="E338" s="10"/>
+      <c r="F338" s="10"/>
     </row>
     <row r="339" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A339" s="3">
@@ -7018,6 +7152,27 @@
     </row>
   </sheetData>
   <mergeCells count="29">
+    <mergeCell ref="A314:B314"/>
+    <mergeCell ref="A324:B324"/>
+    <mergeCell ref="A328:B328"/>
+    <mergeCell ref="A333:B333"/>
+    <mergeCell ref="A338:F338"/>
+    <mergeCell ref="A294:B294"/>
+    <mergeCell ref="A299:B299"/>
+    <mergeCell ref="A305:B305"/>
+    <mergeCell ref="A307:B307"/>
+    <mergeCell ref="A311:B311"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="A21:F21"/>
+    <mergeCell ref="A45:F45"/>
+    <mergeCell ref="A86:F86"/>
+    <mergeCell ref="A140:F140"/>
+    <mergeCell ref="A115:F115"/>
+    <mergeCell ref="A144:F144"/>
+    <mergeCell ref="A154:F154"/>
+    <mergeCell ref="A163:F163"/>
+    <mergeCell ref="A167:F167"/>
+    <mergeCell ref="A195:F195"/>
     <mergeCell ref="A283:F283"/>
     <mergeCell ref="A293:F293"/>
     <mergeCell ref="A275:F275"/>
@@ -7026,27 +7181,6 @@
     <mergeCell ref="A243:F243"/>
     <mergeCell ref="A248:F248"/>
     <mergeCell ref="A261:F261"/>
-    <mergeCell ref="A144:F144"/>
-    <mergeCell ref="A154:F154"/>
-    <mergeCell ref="A163:F163"/>
-    <mergeCell ref="A167:F167"/>
-    <mergeCell ref="A195:F195"/>
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="A21:F21"/>
-    <mergeCell ref="A45:F45"/>
-    <mergeCell ref="A86:F86"/>
-    <mergeCell ref="A140:F140"/>
-    <mergeCell ref="A115:F115"/>
-    <mergeCell ref="A294:B294"/>
-    <mergeCell ref="A299:B299"/>
-    <mergeCell ref="A305:B305"/>
-    <mergeCell ref="A307:B307"/>
-    <mergeCell ref="A311:B311"/>
-    <mergeCell ref="A314:B314"/>
-    <mergeCell ref="A324:B324"/>
-    <mergeCell ref="A328:B328"/>
-    <mergeCell ref="A333:B333"/>
-    <mergeCell ref="A338:F338"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7059,6 +7193,303 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B44"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="32.125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="12.5" style="2" customWidth="1"/>
+    <col min="3" max="16384" width="9" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" s="14" t="s">
+        <v>463</v>
+      </c>
+      <c r="B1" s="14" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="B2" s="16">
+        <v>43101</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" s="15" t="s">
+        <v>465</v>
+      </c>
+      <c r="B3" s="16">
+        <v>43101</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" s="15" t="s">
+        <v>466</v>
+      </c>
+      <c r="B4" s="16">
+        <v>43101</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" s="15" t="s">
+        <v>467</v>
+      </c>
+      <c r="B5" s="16">
+        <v>43132</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" s="15" t="s">
+        <v>468</v>
+      </c>
+      <c r="B6" s="16">
+        <v>43132</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" s="15" t="s">
+        <v>469</v>
+      </c>
+      <c r="B7" s="16">
+        <v>43160</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" s="15" t="s">
+        <v>470</v>
+      </c>
+      <c r="B8" s="16">
+        <v>43160</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" s="15" t="s">
+        <v>471</v>
+      </c>
+      <c r="B9" s="16">
+        <v>43160</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" s="15" t="s">
+        <v>472</v>
+      </c>
+      <c r="B10" s="16">
+        <v>43191</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" s="15" t="s">
+        <v>473</v>
+      </c>
+      <c r="B11" s="16">
+        <v>43191</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" s="15" t="s">
+        <v>475</v>
+      </c>
+      <c r="B12" s="16">
+        <v>43191</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="B13" s="16">
+        <v>43221</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" s="15" t="s">
+        <v>474</v>
+      </c>
+      <c r="B14" s="16">
+        <v>43221</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" s="15" t="s">
+        <v>476</v>
+      </c>
+      <c r="B15" s="16">
+        <v>43221</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16" s="15" t="s">
+        <v>477</v>
+      </c>
+      <c r="B16" s="16">
+        <v>43221</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" s="15" t="s">
+        <v>478</v>
+      </c>
+      <c r="B17" s="16">
+        <v>43252</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" s="15" t="s">
+        <v>479</v>
+      </c>
+      <c r="B18" s="16">
+        <v>43252</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" s="15" t="s">
+        <v>480</v>
+      </c>
+      <c r="B19" s="16">
+        <v>43252</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20" s="15" t="s">
+        <v>481</v>
+      </c>
+      <c r="B20" s="16">
+        <v>43282</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21" s="15" t="s">
+        <v>482</v>
+      </c>
+      <c r="B21" s="16">
+        <v>43282</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A22" s="15" t="s">
+        <v>483</v>
+      </c>
+      <c r="B22" s="16">
+        <v>43319</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A23" s="15" t="s">
+        <v>484</v>
+      </c>
+      <c r="B23" s="16">
+        <v>43319</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A24" s="15" t="s">
+        <v>485</v>
+      </c>
+      <c r="B24" s="16">
+        <v>43350</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A25" s="15" t="s">
+        <v>486</v>
+      </c>
+      <c r="B25" s="16">
+        <v>43350</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A26" s="15" t="s">
+        <v>487</v>
+      </c>
+      <c r="B26" s="16">
+        <v>43350</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A27" s="15" t="s">
+        <v>488</v>
+      </c>
+      <c r="B27" s="16">
+        <v>43380</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A28" s="15" t="s">
+        <v>489</v>
+      </c>
+      <c r="B28" s="16">
+        <v>43380</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B29" s="13"/>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B30" s="13"/>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B31" s="13"/>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B32" s="13"/>
+    </row>
+    <row r="33" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B33" s="13"/>
+    </row>
+    <row r="34" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B34" s="13"/>
+    </row>
+    <row r="35" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B35" s="13"/>
+    </row>
+    <row r="36" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B36" s="13"/>
+    </row>
+    <row r="37" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B37" s="13"/>
+    </row>
+    <row r="38" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B38" s="13"/>
+    </row>
+    <row r="39" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B39" s="13"/>
+    </row>
+    <row r="40" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B40" s="13"/>
+    </row>
+    <row r="41" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B41" s="13"/>
+    </row>
+    <row r="42" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B42" s="13"/>
+    </row>
+    <row r="43" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B43" s="13"/>
+    </row>
+    <row r="44" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B44" s="13"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <webPublishItems count="1">
+    <webPublishItem id="2939" divId="BookList_2939" sourceType="sheet" destinationFile="G:\Projects\jacksoncode.github.io\doc\ReadingPlan.htm" autoRepublish="1"/>
+  </webPublishItems>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A12"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/doc/BookList.xlsx
+++ b/doc/BookList.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="书单" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="662" uniqueCount="490">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="705" uniqueCount="500">
   <si>
     <t>民主的细节</t>
   </si>
@@ -31,9 +31,6 @@
     <t>送你一颗子弹</t>
   </si>
   <si>
-    <t>赵紫阳回忆录：改革岁月</t>
-  </si>
-  <si>
     <t>宗凤鸣：赵紫阳软禁中的谈话</t>
   </si>
   <si>
@@ -1088,10 +1085,6 @@
   </si>
   <si>
     <t>6. 读书方法</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>软件架构师修炼之道</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1273,654 +1266,702 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>最好的抉择</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>逻辑哲学论</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中国哲学简史</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>明亮的对话</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>为未知而教，为未来而学</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>为孩子重塑教育，更有可能成功的路</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>让天赋自由</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如何学习</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>让大脑自由</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>复盘+:把经验转化为能力</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如何系统思考</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>百万富翁快车道</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>解读基金</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据不会说谎</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>赤裸裸的统计学</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>万万没想到</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>人是如何学习的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>三重专注力</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>共鸣的灵魂</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>发现天赋的15个训练方法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>社交经济</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新零售的未来</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>百岁人生</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>科技趋势——尹烨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>人文心理——徐卓</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>人文心理——杨红玉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学习教养——罗玲</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学习教养——邱昭良</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>epub</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mobi</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已有？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>azw3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mobi</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>epub</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>umd/azw3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>epub</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>掌阅-3298</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>19. 湛庐2018推荐书单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20. 其它</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>none</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>掌阅-5399</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>掌阅-5280</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>掌阅-5299</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>掌阅-4140</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>掌阅-3899</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>掌阅已有</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>纸书</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>纸书/epub</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>epub</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>经济解释</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mobi</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>掌阅购买</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mobi</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>财务自由之路</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>epub</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>只有下部</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>说明</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mobi</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>纸书/epub</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>epub</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>纸书/epub</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>纸书</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>纸书/mobi</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>创业维艰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黑客与画家</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>epub</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>全新思维：决胜未来的6大能力</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>软技能：代码之外的生存技能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>纸书</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pdf</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>纸书/pdf</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>纸书</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mobi</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>纸书/epub</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>epub</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pdf</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>txt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mobi</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PDF解读版</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PDF解读版</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>txt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>纸书/掌阅</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>斯坦福极简经济学</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>掌阅-4399</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>极简工作法则</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>极简生活法则</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>纸书</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>掌阅-1299</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>创造力:心流与创新心理学</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>掌阅-4399</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>掌阅无</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>掌阅-2160</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>掌阅-999</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>掌阅已有</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>掌阅-1699</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已购</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已购</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>掌阅-1200</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大而不倒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>极简主义</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>吃掉那只青蛙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>掌阅已购</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mobi</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>投资最重要的事</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>聪明的投资者：本杰明.格雷厄姆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mobi</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Kindle推有，每日两本下载</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>艾伦·图灵传</t>
+  </si>
+  <si>
+    <t>牛奶可乐经济学</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>epub</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如何高效学习</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我的美国之路</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>科林鲍威尔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>txt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>爱因斯坦传</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>杜月笙传</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>恩格斯传</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>人类群星闪耀时 茨威格</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>epub</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>巨婴国</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>epub</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>亲密关系</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mobi</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>枪炮、病菌与钢铁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>个体崛起</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>斯坦福大学人生设计课</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>助推</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已读？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ing</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>书名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>阅读时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单核工作法图解</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大学之路</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>原则</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>跃迁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>人类简史</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未来简史</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>见识</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>心流 : 最优体验心理学</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>发现心流 : 日常生活中的最优体验</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大而不倒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>吃掉那只青蛙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>极简工作法则</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>极简生活法则</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>智能时代</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>思维的精进</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>绝非天赋 : 智商、刻意练习与创造力的真相</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>发现天赋的15个训练方法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>优秀到不能被忽视</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>必然</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>失控</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>信息简史</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>非暴力沟通</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>疯狂人类进化史</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>人类2.0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>生命3.0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>纸书</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>epub</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>社交天性：人类社交的三大驱动力</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>猿猴的把戏：动物学家眼中的人类关系</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>肠子，脑子，厨子： 人类与食物的演化关系</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>脑的阅读：破解人类阅读之谜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>心智探奇：人类心智的起源与进化</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>人类性幻想</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>富足：改变人类未来的4大力量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>生命的另一种可能</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>最好的抉择</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>逻辑哲学论</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>中国哲学简史</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>明亮的对话</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>为未知而教，为未来而学</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>为孩子重塑教育，更有可能成功的路</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>让天赋自由</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>如何学习</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>让大脑自由</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>复盘+:把经验转化为能力</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>如何系统思考</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>百万富翁快车道</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>解读基金</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>数据不会说谎</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>赤裸裸的统计学</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>万万没想到</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>人是如何学习的</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>三重专注力</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>共鸣的灵魂</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>发现天赋的15个训练方法</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>社交经济</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>新零售的未来</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>百岁人生</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>科技趋势——尹烨</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>人文心理——徐卓</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>人文心理——杨红玉</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>学习教养——罗玲</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>学习教养——邱昭良</t>
+    <t>纸书/epub</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>赌神数学家：战胜拉斯维加斯和金融市场的财富公式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>掌阅/epub</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>azw3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>心流</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试架构师修炼之道</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PDF</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>赵紫阳回忆录：改革岁月</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>epub</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>mobi</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>已有？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>azw3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>mobi</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>epub</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>赌神数学家：战胜拉斯维加斯和金融市场的财富公式</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>umd/azw3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>epub</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>掌阅-3298</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>19. 湛庐2018推荐书单</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>20. 其它</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>none</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>掌阅-5399</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>掌阅-5280</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>掌阅-5299</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>掌阅-4140</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>掌阅-3899</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>掌阅已有</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>纸书</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>纸书/epub</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>epub</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>经济解释</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>mobi</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>掌阅购买</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>mobi</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>财务自由之路</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>epub</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>只有下部</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>说明</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>mobi</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>纸书/epub</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>epub</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>纸书/epub</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>纸书</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>纸书/mobi</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>创业维艰</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>黑客与画家</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>epub</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>全新思维：决胜未来的6大能力</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>软技能：代码之外的生存技能</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>纸书</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pdf</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>纸书/pdf</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>纸书</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>待购买</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>mobi</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>纸书/epub</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>epub</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pdf</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>txt</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>mobi</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PDF解读版</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PDF解读版</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>txt</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>纸书/掌阅</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>斯坦福极简经济学</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>掌阅-4399</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>极简工作法则</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>极简生活法则</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>纸书</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>掌阅-2940</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>掌阅-1299</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>创造力:心流与创新心理学</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>掌阅-4399</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>掌阅无</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>掌阅-2160</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>掌阅-999</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>掌阅已有</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>掌阅-1699</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>已购</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>掌阅-499</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>已购</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>掌阅-1200</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>掌阅-1299</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>掌阅-1999</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>大而不倒</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>极简主义</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>吃掉那只青蛙</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>掌阅已购</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>mobi</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>投资最重要的事</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>聪明的投资者：本杰明.格雷厄姆</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>mobi</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Kindle推有，每日两本下载</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>艾伦·图灵传</t>
-  </si>
-  <si>
-    <t>牛奶可乐经济学</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>epub</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>如何高效学习</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>我的美国之路</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>科林鲍威尔</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>txt</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>爱因斯坦传</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>杜月笙传</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>恩格斯传</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>人类群星闪耀时 茨威格</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>epub</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>巨婴国</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>epub</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>亲密关系</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>mobi</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>枪炮、病菌与钢铁</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>个体崛起</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>斯坦福大学人生设计课</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>助推</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>已读？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ing</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>书名</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>阅读时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>单核工作法图解</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>大学之路</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>原则</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>跃迁</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>人类简史</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>未来简史</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>见识</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>心流 : 最优体验心理学</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>发现心流 : 日常生活中的最优体验</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>大而不倒</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>吃掉那只青蛙</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>极简工作法则</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>极简生活法则</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>智能时代</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>思维的精进</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>绝非天赋 : 智商、刻意练习与创造力的真相</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>发现天赋的15个训练方法</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>优秀到不能被忽视</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>必然</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>失控</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>信息简史</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>非暴力沟通</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>疯狂人类进化史</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>人类2.0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>生命3.0</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1929,7 +1970,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="181" formatCode="yyyy&quot;年&quot;m&quot;月&quot;;@"/>
+    <numFmt numFmtId="176" formatCode="yyyy&quot;年&quot;m&quot;月&quot;;@"/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
@@ -2080,13 +2121,13 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="181" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="181" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -2391,11 +2432,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F356"/>
+  <dimension ref="A1:F371"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A172" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A172" sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A74" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B90" sqref="B90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2410,44 +2451,44 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>89</v>
-      </c>
       <c r="D1" s="1" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>461</v>
+        <v>452</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="10" t="s">
-        <v>265</v>
-      </c>
-      <c r="B2" s="10"/>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
-      <c r="F2" s="10"/>
+      <c r="A2" s="16" t="s">
+        <v>264</v>
+      </c>
+      <c r="B2" s="16"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="16"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="3">
         <v>1</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C3" s="3"/>
       <c r="D3" s="3" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="E3" s="3"/>
       <c r="F3" s="3"/>
@@ -2457,14 +2498,14 @@
         <v>2</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="3" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>462</v>
+        <v>453</v>
       </c>
       <c r="F4" s="3"/>
     </row>
@@ -2473,13 +2514,13 @@
         <v>3</v>
       </c>
       <c r="B5" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="C5" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="C5" s="3" t="s">
-        <v>52</v>
-      </c>
       <c r="D5" s="3" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
@@ -2489,11 +2530,11 @@
         <v>4</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C6" s="3"/>
       <c r="D6" s="3" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>
@@ -2503,11 +2544,11 @@
         <v>5</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C7" s="3"/>
       <c r="D7" s="3" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
@@ -2517,11 +2558,11 @@
         <v>6</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="C8" s="3"/>
       <c r="D8" s="3" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="E8" s="3"/>
       <c r="F8" s="3"/>
@@ -2531,7 +2572,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
@@ -2543,11 +2584,11 @@
         <v>8</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C10" s="3"/>
       <c r="D10" s="3" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="3"/>
@@ -2557,7 +2598,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
@@ -2569,11 +2610,11 @@
         <v>10</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C12" s="3"/>
       <c r="D12" s="3" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
@@ -2583,11 +2624,11 @@
         <v>11</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C13" s="3"/>
       <c r="D13" s="3" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
@@ -2597,11 +2638,11 @@
         <v>12</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C14" s="3"/>
       <c r="D14" s="3" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
@@ -2611,11 +2652,11 @@
         <v>13</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C15" s="3"/>
       <c r="D15" s="3" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
@@ -2625,7 +2666,7 @@
         <v>14</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
@@ -2637,11 +2678,11 @@
         <v>15</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C17" s="3"/>
       <c r="D17" s="3" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="E17" s="3"/>
       <c r="F17" s="3"/>
@@ -2651,7 +2692,7 @@
         <v>16</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
@@ -2663,11 +2704,11 @@
         <v>17</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>412</v>
+        <v>407</v>
       </c>
       <c r="C19" s="3"/>
       <c r="D19" s="3" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="E19" s="3"/>
       <c r="F19" s="3"/>
@@ -2677,37 +2718,37 @@
         <v>18</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>442</v>
+        <v>433</v>
       </c>
       <c r="C20" s="3"/>
       <c r="D20" s="3" t="s">
-        <v>443</v>
+        <v>434</v>
       </c>
       <c r="E20" s="3"/>
       <c r="F20" s="3"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A21" s="10" t="s">
-        <v>266</v>
-      </c>
-      <c r="B21" s="10"/>
-      <c r="C21" s="10"/>
-      <c r="D21" s="10"/>
-      <c r="E21" s="10"/>
-      <c r="F21" s="10"/>
+      <c r="A21" s="16" t="s">
+        <v>265</v>
+      </c>
+      <c r="B21" s="16"/>
+      <c r="C21" s="16"/>
+      <c r="D21" s="16"/>
+      <c r="E21" s="16"/>
+      <c r="F21" s="16"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" s="3">
         <v>1</v>
       </c>
       <c r="B22" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="C22" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="C22" s="3" t="s">
-        <v>55</v>
-      </c>
       <c r="D22" s="3" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="E22" s="3"/>
       <c r="F22" s="3"/>
@@ -2717,14 +2758,14 @@
         <v>2</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C23" s="3"/>
       <c r="D23" s="3" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>462</v>
+        <v>453</v>
       </c>
       <c r="F23" s="3"/>
     </row>
@@ -2733,14 +2774,14 @@
         <v>3</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C24" s="3"/>
       <c r="D24" s="3" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>462</v>
+        <v>453</v>
       </c>
       <c r="F24" s="3"/>
     </row>
@@ -2749,11 +2790,11 @@
         <v>4</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>437</v>
+        <v>428</v>
       </c>
       <c r="C25" s="3"/>
       <c r="D25" s="3" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="E25" s="3"/>
       <c r="F25" s="3"/>
@@ -2763,11 +2804,11 @@
         <v>5</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C26" s="3"/>
       <c r="D26" s="3" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="E26" s="3"/>
       <c r="F26" s="3"/>
@@ -2777,10 +2818,10 @@
         <v>6</v>
       </c>
       <c r="B27" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C27" s="3" t="s">
         <v>58</v>
-      </c>
-      <c r="C27" s="3" t="s">
-        <v>59</v>
       </c>
       <c r="D27" s="3"/>
       <c r="E27" s="3"/>
@@ -2791,10 +2832,10 @@
         <v>7</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D28" s="3"/>
       <c r="E28" s="3"/>
@@ -2805,11 +2846,11 @@
         <v>8</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C29" s="3"/>
       <c r="D29" s="3" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="E29" s="3"/>
       <c r="F29" s="3"/>
@@ -2819,11 +2860,11 @@
         <v>9</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C30" s="3"/>
       <c r="D30" s="3" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="E30" s="3"/>
       <c r="F30" s="3"/>
@@ -2833,10 +2874,12 @@
         <v>10</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C31" s="3"/>
-      <c r="D31" s="3"/>
+      <c r="D31" s="3" t="s">
+        <v>358</v>
+      </c>
       <c r="E31" s="3"/>
       <c r="F31" s="3"/>
     </row>
@@ -2845,11 +2888,11 @@
         <v>11</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C32" s="3"/>
       <c r="D32" s="3" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="E32" s="3"/>
       <c r="F32" s="3"/>
@@ -2859,7 +2902,7 @@
         <v>12</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C33" s="3"/>
       <c r="D33" s="3"/>
@@ -2871,15 +2914,15 @@
         <v>13</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C34" s="3"/>
       <c r="D34" s="3" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="E34" s="3"/>
       <c r="F34" s="3" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.3">
@@ -2887,11 +2930,11 @@
         <v>14</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C35" s="3"/>
       <c r="D35" s="3" t="s">
-        <v>418</v>
+        <v>412</v>
       </c>
       <c r="E35" s="3"/>
       <c r="F35" s="3"/>
@@ -2901,7 +2944,7 @@
         <v>15</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C36" s="3"/>
       <c r="D36" s="3"/>
@@ -2913,11 +2956,11 @@
         <v>16</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C37" s="3"/>
       <c r="D37" s="3" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="E37" s="3"/>
       <c r="F37" s="3"/>
@@ -2927,11 +2970,11 @@
         <v>17</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C38" s="3"/>
       <c r="D38" s="3" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="E38" s="3"/>
       <c r="F38" s="3"/>
@@ -2941,11 +2984,11 @@
         <v>18</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C39" s="3"/>
       <c r="D39" s="3" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="E39" s="3"/>
       <c r="F39" s="3"/>
@@ -2955,7 +2998,7 @@
         <v>19</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C40" s="3"/>
       <c r="D40" s="3"/>
@@ -2967,11 +3010,11 @@
         <v>20</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C41" s="3"/>
       <c r="D41" s="3" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="E41" s="3"/>
       <c r="F41" s="3"/>
@@ -2981,11 +3024,11 @@
         <v>21</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C42" s="3"/>
       <c r="D42" s="3" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="E42" s="3"/>
       <c r="F42" s="3"/>
@@ -2995,7 +3038,7 @@
         <v>22</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C43" s="3"/>
       <c r="D43" s="3"/>
@@ -3007,40 +3050,40 @@
         <v>23</v>
       </c>
       <c r="B44" s="7" t="s">
-        <v>432</v>
+        <v>423</v>
       </c>
       <c r="C44" s="3"/>
       <c r="D44" s="3" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="E44" s="3"/>
       <c r="F44" s="3"/>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A45" s="10" t="s">
-        <v>267</v>
-      </c>
-      <c r="B45" s="10"/>
-      <c r="C45" s="10"/>
-      <c r="D45" s="10"/>
-      <c r="E45" s="10"/>
-      <c r="F45" s="10"/>
+      <c r="A45" s="16" t="s">
+        <v>266</v>
+      </c>
+      <c r="B45" s="16"/>
+      <c r="C45" s="16"/>
+      <c r="D45" s="16"/>
+      <c r="E45" s="16"/>
+      <c r="F45" s="16"/>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" s="3">
         <v>1</v>
       </c>
       <c r="B46" s="7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="E46" s="3" t="s">
-        <v>462</v>
+        <v>453</v>
       </c>
       <c r="F46" s="3"/>
     </row>
@@ -3049,16 +3092,16 @@
         <v>2</v>
       </c>
       <c r="B47" s="7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="E47" s="3" t="s">
-        <v>462</v>
+        <v>453</v>
       </c>
       <c r="F47" s="3"/>
     </row>
@@ -3067,13 +3110,13 @@
         <v>3</v>
       </c>
       <c r="B48" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="E48" s="3"/>
       <c r="F48" s="3"/>
@@ -3083,13 +3126,13 @@
         <v>4</v>
       </c>
       <c r="B49" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="E49" s="3"/>
       <c r="F49" s="3"/>
@@ -3099,13 +3142,13 @@
         <v>5</v>
       </c>
       <c r="B50" s="7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="E50" s="3"/>
       <c r="F50" s="3"/>
@@ -3115,14 +3158,14 @@
         <v>6</v>
       </c>
       <c r="B51" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C51" s="3"/>
       <c r="D51" s="3" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="E51" s="3" t="s">
-        <v>462</v>
+        <v>453</v>
       </c>
       <c r="F51" s="3"/>
     </row>
@@ -3131,11 +3174,11 @@
         <v>7</v>
       </c>
       <c r="B52" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C52" s="3"/>
       <c r="D52" s="3" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="E52" s="3"/>
       <c r="F52" s="3"/>
@@ -3145,15 +3188,15 @@
         <v>8</v>
       </c>
       <c r="B53" s="7" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C53" s="3"/>
       <c r="D53" s="3" t="s">
-        <v>425</v>
+        <v>419</v>
       </c>
       <c r="E53" s="3"/>
       <c r="F53" s="3" t="s">
-        <v>426</v>
+        <v>420</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.3">
@@ -3161,7 +3204,7 @@
         <v>9</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C54" s="3"/>
       <c r="D54" s="3"/>
@@ -3173,11 +3216,11 @@
         <v>10</v>
       </c>
       <c r="B55" s="7" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C55" s="3"/>
       <c r="D55" s="3" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="E55" s="3"/>
       <c r="F55" s="3"/>
@@ -3187,11 +3230,11 @@
         <v>11</v>
       </c>
       <c r="B56" s="7" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C56" s="3"/>
       <c r="D56" s="3" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="E56" s="3"/>
       <c r="F56" s="3"/>
@@ -3201,11 +3244,11 @@
         <v>12</v>
       </c>
       <c r="B57" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C57" s="3"/>
       <c r="D57" s="3" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="E57" s="3"/>
       <c r="F57" s="3"/>
@@ -3215,11 +3258,11 @@
         <v>13</v>
       </c>
       <c r="B58" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C58" s="3"/>
       <c r="D58" s="3" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="E58" s="3"/>
       <c r="F58" s="3"/>
@@ -3229,11 +3272,11 @@
         <v>14</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C59" s="3"/>
       <c r="D59" s="3" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="E59" s="3"/>
       <c r="F59" s="3"/>
@@ -3243,11 +3286,11 @@
         <v>15</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C60" s="3"/>
       <c r="D60" s="3" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="E60" s="3"/>
       <c r="F60" s="3"/>
@@ -3257,11 +3300,11 @@
         <v>16</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C61" s="3"/>
       <c r="D61" s="3" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="E61" s="3"/>
       <c r="F61" s="3"/>
@@ -3271,11 +3314,11 @@
         <v>17</v>
       </c>
       <c r="B62" s="7" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C62" s="3"/>
       <c r="D62" s="3" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="E62" s="3"/>
       <c r="F62" s="3"/>
@@ -3285,11 +3328,11 @@
         <v>18</v>
       </c>
       <c r="B63" s="7" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C63" s="3"/>
       <c r="D63" s="3" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="E63" s="3"/>
       <c r="F63" s="3"/>
@@ -3299,11 +3342,11 @@
         <v>19</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C64" s="3"/>
       <c r="D64" s="3" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="E64" s="3"/>
       <c r="F64" s="3"/>
@@ -3313,11 +3356,11 @@
         <v>20</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="C65" s="3"/>
       <c r="D65" s="3" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="E65" s="3"/>
       <c r="F65" s="3"/>
@@ -3327,11 +3370,11 @@
         <v>21</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C66" s="3"/>
       <c r="D66" s="3" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="E66" s="3"/>
       <c r="F66" s="3"/>
@@ -3341,7 +3384,7 @@
         <v>22</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C67" s="3"/>
       <c r="D67" s="3"/>
@@ -3353,7 +3396,7 @@
         <v>23</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C68" s="3"/>
       <c r="D68" s="3"/>
@@ -3365,11 +3408,11 @@
         <v>24</v>
       </c>
       <c r="B69" s="7" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="C69" s="3"/>
       <c r="D69" s="3" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="E69" s="3"/>
       <c r="F69" s="3"/>
@@ -3379,11 +3422,11 @@
         <v>25</v>
       </c>
       <c r="B70" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C70" s="3"/>
       <c r="D70" s="3" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="E70" s="3"/>
       <c r="F70" s="3"/>
@@ -3393,11 +3436,11 @@
         <v>26</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C71" s="3"/>
       <c r="D71" s="3" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="E71" s="3"/>
       <c r="F71" s="3"/>
@@ -3407,11 +3450,11 @@
         <v>27</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C72" s="3"/>
       <c r="D72" s="3" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="E72" s="3"/>
       <c r="F72" s="3"/>
@@ -3421,11 +3464,11 @@
         <v>28</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C73" s="3"/>
       <c r="D73" s="3" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="E73" s="3"/>
       <c r="F73" s="3"/>
@@ -3435,11 +3478,11 @@
         <v>29</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C74" s="3"/>
       <c r="D74" s="3" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="E74" s="3"/>
       <c r="F74" s="3"/>
@@ -3449,11 +3492,11 @@
         <v>30</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C75" s="3"/>
       <c r="D75" s="3" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="E75" s="3"/>
       <c r="F75" s="3"/>
@@ -3463,11 +3506,11 @@
         <v>31</v>
       </c>
       <c r="B76" s="7" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C76" s="3"/>
       <c r="D76" s="3" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="E76" s="3"/>
       <c r="F76" s="3"/>
@@ -3477,11 +3520,11 @@
         <v>32</v>
       </c>
       <c r="B77" s="9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C77" s="3"/>
       <c r="D77" s="3" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="E77" s="3"/>
       <c r="F77" s="3"/>
@@ -3491,7 +3534,7 @@
         <v>33</v>
       </c>
       <c r="B78" s="9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C78" s="3"/>
       <c r="D78" s="3"/>
@@ -3503,7 +3546,7 @@
         <v>34</v>
       </c>
       <c r="B79" s="9" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C79" s="3"/>
       <c r="D79" s="3"/>
@@ -3515,15 +3558,15 @@
         <v>35</v>
       </c>
       <c r="B80" s="9" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C80" s="3"/>
       <c r="D80" s="3" t="s">
-        <v>427</v>
+        <v>493</v>
       </c>
       <c r="E80" s="3"/>
       <c r="F80" s="3" t="s">
-        <v>428</v>
+        <v>421</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.3">
@@ -3531,11 +3574,11 @@
         <v>36</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C81" s="3"/>
       <c r="D81" s="3" t="s">
-        <v>429</v>
+        <v>422</v>
       </c>
       <c r="E81" s="3"/>
       <c r="F81" s="3"/>
@@ -3545,7 +3588,7 @@
         <v>37</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C82" s="3"/>
       <c r="D82" s="3"/>
@@ -3557,7 +3600,7 @@
         <v>38</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C83" s="3"/>
       <c r="D83" s="3"/>
@@ -3569,7 +3612,7 @@
         <v>39</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C84" s="3"/>
       <c r="D84" s="3"/>
@@ -3581,7 +3624,7 @@
         <v>40</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C85" s="3"/>
       <c r="D85" s="3"/>
@@ -3589,25 +3632,25 @@
       <c r="F85" s="3"/>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A86" s="10" t="s">
-        <v>268</v>
-      </c>
-      <c r="B86" s="10"/>
-      <c r="C86" s="10"/>
-      <c r="D86" s="10"/>
-      <c r="E86" s="10"/>
-      <c r="F86" s="10"/>
+      <c r="A86" s="16" t="s">
+        <v>267</v>
+      </c>
+      <c r="B86" s="16"/>
+      <c r="C86" s="16"/>
+      <c r="D86" s="16"/>
+      <c r="E86" s="16"/>
+      <c r="F86" s="16"/>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A87" s="3">
         <v>1</v>
       </c>
       <c r="B87" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C87" s="3"/>
       <c r="D87" s="3" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="E87" s="3"/>
       <c r="F87" s="3"/>
@@ -3617,11 +3660,11 @@
         <v>2</v>
       </c>
       <c r="B88" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C88" s="3"/>
       <c r="D88" s="3" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="E88" s="3"/>
       <c r="F88" s="3"/>
@@ -3631,11 +3674,11 @@
         <v>3</v>
       </c>
       <c r="B89" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C89" s="3"/>
       <c r="D89" s="3" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="E89" s="3"/>
       <c r="F89" s="3"/>
@@ -3645,14 +3688,14 @@
         <v>4</v>
       </c>
       <c r="B90" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C90" s="3"/>
       <c r="D90" s="3" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="E90" s="3" t="s">
-        <v>462</v>
+        <v>453</v>
       </c>
       <c r="F90" s="3"/>
     </row>
@@ -3661,14 +3704,14 @@
         <v>5</v>
       </c>
       <c r="B91" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C91" s="3"/>
       <c r="D91" s="3" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="E91" s="3" t="s">
-        <v>462</v>
+        <v>453</v>
       </c>
       <c r="F91" s="3"/>
     </row>
@@ -3677,16 +3720,16 @@
         <v>6</v>
       </c>
       <c r="B92" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C92" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D92" s="3" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="E92" s="3" t="s">
-        <v>462</v>
+        <v>453</v>
       </c>
       <c r="F92" s="3"/>
     </row>
@@ -3695,11 +3738,11 @@
         <v>7</v>
       </c>
       <c r="B93" s="7" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C93" s="3"/>
       <c r="D93" s="3" t="s">
-        <v>452</v>
+        <v>443</v>
       </c>
       <c r="E93" s="3"/>
       <c r="F93" s="3"/>
@@ -3709,7 +3752,7 @@
         <v>8</v>
       </c>
       <c r="B94" s="7" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C94" s="3"/>
       <c r="D94" s="3"/>
@@ -3721,11 +3764,11 @@
         <v>9</v>
       </c>
       <c r="B95" s="7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C95" s="3"/>
       <c r="D95" s="3" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="E95" s="3"/>
       <c r="F95" s="3"/>
@@ -3735,11 +3778,11 @@
         <v>10</v>
       </c>
       <c r="B96" s="7" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C96" s="3"/>
       <c r="D96" s="3" t="s">
-        <v>417</v>
+        <v>358</v>
       </c>
       <c r="E96" s="3"/>
       <c r="F96" s="3"/>
@@ -3749,11 +3792,11 @@
         <v>11</v>
       </c>
       <c r="B97" s="7" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C97" s="3"/>
       <c r="D97" s="3" t="s">
-        <v>421</v>
+        <v>415</v>
       </c>
       <c r="E97" s="3"/>
       <c r="F97" s="3"/>
@@ -3763,11 +3806,11 @@
         <v>12</v>
       </c>
       <c r="B98" s="7" t="s">
-        <v>419</v>
+        <v>413</v>
       </c>
       <c r="C98" s="3"/>
       <c r="D98" s="3" t="s">
-        <v>420</v>
+        <v>414</v>
       </c>
       <c r="E98" s="3"/>
       <c r="F98" s="3"/>
@@ -3777,11 +3820,11 @@
         <v>13</v>
       </c>
       <c r="B99" s="7" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C99" s="3"/>
       <c r="D99" s="3" t="s">
-        <v>422</v>
+        <v>416</v>
       </c>
       <c r="E99" s="3"/>
       <c r="F99" s="3"/>
@@ -3791,11 +3834,11 @@
         <v>14</v>
       </c>
       <c r="B100" s="7" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C100" s="3"/>
       <c r="D100" s="3" t="s">
-        <v>452</v>
+        <v>443</v>
       </c>
       <c r="E100" s="3"/>
       <c r="F100" s="3"/>
@@ -3805,7 +3848,7 @@
         <v>15</v>
       </c>
       <c r="B101" s="3" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C101" s="3"/>
       <c r="D101" s="3"/>
@@ -3817,7 +3860,7 @@
         <v>16</v>
       </c>
       <c r="B102" s="7" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C102" s="3"/>
       <c r="D102" s="3"/>
@@ -3829,11 +3872,11 @@
         <v>17</v>
       </c>
       <c r="B103" s="3" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C103" s="3"/>
       <c r="D103" s="3" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="E103" s="3"/>
       <c r="F103" s="3"/>
@@ -3843,11 +3886,11 @@
         <v>18</v>
       </c>
       <c r="B104" s="7" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C104" s="3"/>
       <c r="D104" s="3" t="s">
-        <v>430</v>
+        <v>358</v>
       </c>
       <c r="E104" s="3"/>
       <c r="F104" s="3"/>
@@ -3857,11 +3900,11 @@
         <v>19</v>
       </c>
       <c r="B105" s="7" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C105" s="3"/>
       <c r="D105" s="3" t="s">
-        <v>423</v>
+        <v>417</v>
       </c>
       <c r="E105" s="3"/>
       <c r="F105" s="3"/>
@@ -3871,7 +3914,7 @@
         <v>20</v>
       </c>
       <c r="B106" s="3" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C106" s="3"/>
       <c r="D106" s="3"/>
@@ -3883,11 +3926,11 @@
         <v>21</v>
       </c>
       <c r="B107" s="3" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C107" s="3"/>
       <c r="D107" s="3" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="E107" s="3"/>
       <c r="F107" s="3"/>
@@ -3897,11 +3940,11 @@
         <v>22</v>
       </c>
       <c r="B108" s="3" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C108" s="3"/>
       <c r="D108" s="3" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="E108" s="3"/>
       <c r="F108" s="3"/>
@@ -3911,7 +3954,7 @@
         <v>23</v>
       </c>
       <c r="B109" s="3" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C109" s="3"/>
       <c r="D109" s="3"/>
@@ -3923,7 +3966,7 @@
         <v>24</v>
       </c>
       <c r="B110" s="3" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C110" s="3"/>
       <c r="D110" s="3"/>
@@ -3935,7 +3978,7 @@
         <v>25</v>
       </c>
       <c r="B111" s="3" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C111" s="3"/>
       <c r="D111" s="3"/>
@@ -3947,11 +3990,11 @@
         <v>26</v>
       </c>
       <c r="B112" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C112" s="3"/>
       <c r="D112" s="3" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="E112" s="3"/>
       <c r="F112" s="3"/>
@@ -3961,11 +4004,11 @@
         <v>27</v>
       </c>
       <c r="B113" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C113" s="3"/>
       <c r="D113" s="3" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="E113" s="3"/>
       <c r="F113" s="3"/>
@@ -3975,31 +4018,31 @@
         <v>28</v>
       </c>
       <c r="B114" s="7" t="s">
-        <v>444</v>
+        <v>435</v>
       </c>
       <c r="C114" s="3"/>
       <c r="D114" s="3" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="E114" s="3"/>
       <c r="F114" s="3"/>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A115" s="10" t="s">
-        <v>269</v>
-      </c>
-      <c r="B115" s="10"/>
-      <c r="C115" s="10"/>
-      <c r="D115" s="10"/>
-      <c r="E115" s="10"/>
-      <c r="F115" s="10"/>
+      <c r="A115" s="16" t="s">
+        <v>268</v>
+      </c>
+      <c r="B115" s="16"/>
+      <c r="C115" s="16"/>
+      <c r="D115" s="16"/>
+      <c r="E115" s="16"/>
+      <c r="F115" s="16"/>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A116" s="3">
         <v>1</v>
       </c>
       <c r="B116" s="3" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C116" s="3"/>
       <c r="D116" s="3"/>
@@ -4011,11 +4054,11 @@
         <v>2</v>
       </c>
       <c r="B117" s="3" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C117" s="3"/>
       <c r="D117" s="3" t="s">
-        <v>431</v>
+        <v>353</v>
       </c>
       <c r="E117" s="3"/>
       <c r="F117" s="3"/>
@@ -4025,11 +4068,11 @@
         <v>3</v>
       </c>
       <c r="B118" s="7" t="s">
-        <v>457</v>
+        <v>448</v>
       </c>
       <c r="C118" s="3"/>
       <c r="D118" s="3" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="E118" s="3"/>
       <c r="F118" s="3"/>
@@ -4039,11 +4082,11 @@
         <v>4</v>
       </c>
       <c r="B119" s="7" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C119" s="3"/>
       <c r="D119" s="3" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="E119" s="3"/>
       <c r="F119" s="3"/>
@@ -4053,10 +4096,12 @@
         <v>5</v>
       </c>
       <c r="B120" s="7" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C120" s="3"/>
-      <c r="D120" s="3"/>
+      <c r="D120" s="3" t="s">
+        <v>353</v>
+      </c>
       <c r="E120" s="3"/>
       <c r="F120" s="3"/>
     </row>
@@ -4065,11 +4110,11 @@
         <v>6</v>
       </c>
       <c r="B121" s="7" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C121" s="3"/>
       <c r="D121" s="3" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="E121" s="3"/>
       <c r="F121" s="3"/>
@@ -4079,11 +4124,11 @@
         <v>7</v>
       </c>
       <c r="B122" s="7" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C122" s="3"/>
       <c r="D122" s="3" t="s">
-        <v>431</v>
+        <v>353</v>
       </c>
       <c r="E122" s="3"/>
       <c r="F122" s="3"/>
@@ -4093,11 +4138,11 @@
         <v>8</v>
       </c>
       <c r="B123" s="7" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="C123" s="3"/>
       <c r="D123" s="3" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="E123" s="3"/>
       <c r="F123" s="3"/>
@@ -4107,10 +4152,12 @@
         <v>9</v>
       </c>
       <c r="B124" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C124" s="3"/>
-      <c r="D124" s="3"/>
+      <c r="D124" s="3" t="s">
+        <v>358</v>
+      </c>
       <c r="E124" s="3"/>
       <c r="F124" s="3"/>
     </row>
@@ -4119,10 +4166,12 @@
         <v>10</v>
       </c>
       <c r="B125" s="3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C125" s="3"/>
-      <c r="D125" s="3"/>
+      <c r="D125" s="3" t="s">
+        <v>494</v>
+      </c>
       <c r="E125" s="3"/>
       <c r="F125" s="3"/>
     </row>
@@ -4131,10 +4180,12 @@
         <v>11</v>
       </c>
       <c r="B126" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C126" s="3"/>
-      <c r="D126" s="3"/>
+      <c r="D126" s="3" t="s">
+        <v>358</v>
+      </c>
       <c r="E126" s="3"/>
       <c r="F126" s="3"/>
     </row>
@@ -4143,7 +4194,7 @@
         <v>12</v>
       </c>
       <c r="B127" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C127" s="3"/>
       <c r="D127" s="3"/>
@@ -4155,11 +4206,11 @@
         <v>13</v>
       </c>
       <c r="B128" s="7" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C128" s="3"/>
       <c r="D128" s="3" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="E128" s="3"/>
       <c r="F128" s="3"/>
@@ -4169,10 +4220,12 @@
         <v>14</v>
       </c>
       <c r="B129" s="7" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C129" s="3"/>
-      <c r="D129" s="3"/>
+      <c r="D129" s="3" t="s">
+        <v>358</v>
+      </c>
       <c r="E129" s="3"/>
       <c r="F129" s="3"/>
     </row>
@@ -4181,11 +4234,11 @@
         <v>15</v>
       </c>
       <c r="B130" s="7" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C130" s="3"/>
       <c r="D130" s="3" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="E130" s="3"/>
       <c r="F130" s="3"/>
@@ -4195,7 +4248,7 @@
         <v>16</v>
       </c>
       <c r="B131" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C131" s="3"/>
       <c r="D131" s="3"/>
@@ -4207,7 +4260,7 @@
         <v>17</v>
       </c>
       <c r="B132" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C132" s="3"/>
       <c r="D132" s="3"/>
@@ -4219,10 +4272,12 @@
         <v>18</v>
       </c>
       <c r="B133" s="7" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C133" s="3"/>
-      <c r="D133" s="3"/>
+      <c r="D133" s="3" t="s">
+        <v>358</v>
+      </c>
       <c r="E133" s="3"/>
       <c r="F133" s="3"/>
     </row>
@@ -4231,11 +4286,11 @@
         <v>19</v>
       </c>
       <c r="B134" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C134" s="3"/>
       <c r="D134" s="3" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="E134" s="3"/>
       <c r="F134" s="3"/>
@@ -4245,10 +4300,12 @@
         <v>20</v>
       </c>
       <c r="B135" s="7" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C135" s="3"/>
-      <c r="D135" s="3"/>
+      <c r="D135" s="3" t="s">
+        <v>358</v>
+      </c>
       <c r="E135" s="3"/>
       <c r="F135" s="3"/>
     </row>
@@ -4257,7 +4314,7 @@
         <v>21</v>
       </c>
       <c r="B136" s="3" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C136" s="3"/>
       <c r="D136" s="3"/>
@@ -4269,7 +4326,7 @@
         <v>22</v>
       </c>
       <c r="B137" s="3" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C137" s="3"/>
       <c r="D137" s="3"/>
@@ -4281,7 +4338,7 @@
         <v>23</v>
       </c>
       <c r="B138" s="7" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C138" s="3"/>
       <c r="D138" s="3"/>
@@ -4293,38 +4350,38 @@
         <v>24</v>
       </c>
       <c r="B139" s="3" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C139" s="3"/>
       <c r="D139" s="3" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="E139" s="3"/>
       <c r="F139" s="3"/>
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A140" s="10" t="s">
-        <v>281</v>
-      </c>
-      <c r="B140" s="10"/>
-      <c r="C140" s="10"/>
-      <c r="D140" s="10"/>
-      <c r="E140" s="10"/>
-      <c r="F140" s="10"/>
+      <c r="A140" s="16" t="s">
+        <v>280</v>
+      </c>
+      <c r="B140" s="16"/>
+      <c r="C140" s="16"/>
+      <c r="D140" s="16"/>
+      <c r="E140" s="16"/>
+      <c r="F140" s="16"/>
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A141" s="3">
         <v>1</v>
       </c>
       <c r="B141" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C141" s="3"/>
       <c r="D141" s="3" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="E141" s="3" t="s">
-        <v>462</v>
+        <v>453</v>
       </c>
       <c r="F141" s="3"/>
     </row>
@@ -4333,11 +4390,11 @@
         <v>2</v>
       </c>
       <c r="B142" s="7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C142" s="3"/>
       <c r="D142" s="3" t="s">
-        <v>411</v>
+        <v>406</v>
       </c>
       <c r="E142" s="3"/>
       <c r="F142" s="3"/>
@@ -4347,38 +4404,38 @@
         <v>3</v>
       </c>
       <c r="B143" s="3" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="C143" s="3"/>
       <c r="D143" s="3" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="E143" s="3"/>
       <c r="F143" s="3"/>
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A144" s="10" t="s">
-        <v>270</v>
-      </c>
-      <c r="B144" s="10"/>
-      <c r="C144" s="10"/>
-      <c r="D144" s="10"/>
-      <c r="E144" s="10"/>
-      <c r="F144" s="10"/>
+      <c r="A144" s="16" t="s">
+        <v>269</v>
+      </c>
+      <c r="B144" s="16"/>
+      <c r="C144" s="16"/>
+      <c r="D144" s="16"/>
+      <c r="E144" s="16"/>
+      <c r="F144" s="16"/>
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A145" s="3">
         <v>1</v>
       </c>
       <c r="B145" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C145" s="3"/>
       <c r="D145" s="3" t="s">
-        <v>424</v>
+        <v>418</v>
       </c>
       <c r="E145" s="3" t="s">
-        <v>462</v>
+        <v>453</v>
       </c>
       <c r="F145" s="3"/>
     </row>
@@ -4387,14 +4444,14 @@
         <v>2</v>
       </c>
       <c r="B146" s="7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C146" s="3"/>
       <c r="D146" s="3" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="E146" s="3" t="s">
-        <v>462</v>
+        <v>453</v>
       </c>
       <c r="F146" s="3"/>
     </row>
@@ -4403,11 +4460,11 @@
         <v>3</v>
       </c>
       <c r="B147" s="7" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C147" s="3"/>
       <c r="D147" s="3" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="E147" s="3"/>
       <c r="F147" s="3"/>
@@ -4417,11 +4474,11 @@
         <v>4</v>
       </c>
       <c r="B148" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C148" s="3"/>
       <c r="D148" s="3" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="E148" s="3"/>
       <c r="F148" s="3"/>
@@ -4431,10 +4488,12 @@
         <v>5</v>
       </c>
       <c r="B149" s="7" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C149" s="3"/>
-      <c r="D149" s="3"/>
+      <c r="D149" s="3" t="s">
+        <v>358</v>
+      </c>
       <c r="E149" s="3"/>
       <c r="F149" s="3"/>
     </row>
@@ -4443,11 +4502,11 @@
         <v>6</v>
       </c>
       <c r="B150" s="7" t="s">
-        <v>414</v>
+        <v>409</v>
       </c>
       <c r="C150" s="3"/>
       <c r="D150" s="3" t="s">
-        <v>416</v>
+        <v>411</v>
       </c>
       <c r="E150" s="3"/>
       <c r="F150" s="3"/>
@@ -4457,10 +4516,12 @@
         <v>7</v>
       </c>
       <c r="B151" s="7" t="s">
-        <v>415</v>
+        <v>410</v>
       </c>
       <c r="C151" s="3"/>
-      <c r="D151" s="3"/>
+      <c r="D151" s="3" t="s">
+        <v>482</v>
+      </c>
       <c r="E151" s="3"/>
       <c r="F151" s="3"/>
     </row>
@@ -4469,10 +4530,12 @@
         <v>8</v>
       </c>
       <c r="B152" s="3" t="s">
-        <v>433</v>
+        <v>424</v>
       </c>
       <c r="C152" s="3"/>
-      <c r="D152" s="3"/>
+      <c r="D152" s="3" t="s">
+        <v>482</v>
+      </c>
       <c r="E152" s="3"/>
       <c r="F152" s="3"/>
     </row>
@@ -4481,33 +4544,35 @@
         <v>9</v>
       </c>
       <c r="B153" s="7" t="s">
-        <v>434</v>
+        <v>425</v>
       </c>
       <c r="C153" s="3"/>
-      <c r="D153" s="3"/>
+      <c r="D153" s="3" t="s">
+        <v>482</v>
+      </c>
       <c r="E153" s="3"/>
       <c r="F153" s="3"/>
     </row>
     <row r="154" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A154" s="10" t="s">
-        <v>271</v>
-      </c>
-      <c r="B154" s="10"/>
-      <c r="C154" s="10"/>
-      <c r="D154" s="10"/>
-      <c r="E154" s="10"/>
-      <c r="F154" s="10"/>
+      <c r="A154" s="16" t="s">
+        <v>270</v>
+      </c>
+      <c r="B154" s="16"/>
+      <c r="C154" s="16"/>
+      <c r="D154" s="16"/>
+      <c r="E154" s="16"/>
+      <c r="F154" s="16"/>
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A155" s="3">
         <v>1</v>
       </c>
       <c r="B155" s="7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C155" s="3"/>
       <c r="D155" s="3" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="E155" s="3"/>
       <c r="F155" s="3"/>
@@ -4517,11 +4582,11 @@
         <v>2</v>
       </c>
       <c r="B156" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C156" s="3"/>
       <c r="D156" s="3" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="E156" s="3"/>
       <c r="F156" s="3"/>
@@ -4531,11 +4596,11 @@
         <v>3</v>
       </c>
       <c r="B157" s="7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C157" s="3"/>
       <c r="D157" s="3" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="E157" s="3"/>
       <c r="F157" s="3"/>
@@ -4545,11 +4610,11 @@
         <v>4</v>
       </c>
       <c r="B158" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C158" s="3"/>
       <c r="D158" s="3" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="E158" s="3"/>
       <c r="F158" s="3"/>
@@ -4559,11 +4624,11 @@
         <v>5</v>
       </c>
       <c r="B159" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C159" s="3"/>
       <c r="D159" s="3" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="E159" s="3"/>
       <c r="F159" s="3"/>
@@ -4573,11 +4638,11 @@
         <v>6</v>
       </c>
       <c r="B160" s="7" t="s">
-        <v>282</v>
+        <v>496</v>
       </c>
       <c r="C160" s="3"/>
       <c r="D160" s="3" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="E160" s="3"/>
       <c r="F160" s="3"/>
@@ -4587,11 +4652,11 @@
         <v>7</v>
       </c>
       <c r="B161" s="7" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="C161" s="3"/>
       <c r="D161" s="3" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="E161" s="3"/>
       <c r="F161" s="3"/>
@@ -4601,35 +4666,35 @@
         <v>8</v>
       </c>
       <c r="B162" s="7" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="C162" s="3"/>
       <c r="D162" s="3" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="E162" s="3"/>
       <c r="F162" s="3"/>
     </row>
     <row r="163" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A163" s="10" t="s">
-        <v>272</v>
-      </c>
-      <c r="B163" s="10"/>
-      <c r="C163" s="10"/>
-      <c r="D163" s="10"/>
-      <c r="E163" s="10"/>
-      <c r="F163" s="10"/>
+      <c r="A163" s="16" t="s">
+        <v>271</v>
+      </c>
+      <c r="B163" s="16"/>
+      <c r="C163" s="16"/>
+      <c r="D163" s="16"/>
+      <c r="E163" s="16"/>
+      <c r="F163" s="16"/>
     </row>
     <row r="164" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A164" s="3">
         <v>1</v>
       </c>
       <c r="B164" s="7" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C164" s="3"/>
       <c r="D164" s="3" t="s">
-        <v>401</v>
+        <v>481</v>
       </c>
       <c r="E164" s="3"/>
       <c r="F164" s="3"/>
@@ -4639,11 +4704,11 @@
         <v>2</v>
       </c>
       <c r="B165" s="3" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C165" s="3"/>
       <c r="D165" s="3" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="E165" s="3"/>
       <c r="F165" s="3"/>
@@ -4653,31 +4718,31 @@
         <v>3</v>
       </c>
       <c r="B166" s="7" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C166" s="3"/>
       <c r="D166" s="3" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="E166" s="3"/>
       <c r="F166" s="3"/>
     </row>
     <row r="167" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A167" s="10" t="s">
-        <v>273</v>
-      </c>
-      <c r="B167" s="10"/>
-      <c r="C167" s="10"/>
-      <c r="D167" s="10"/>
-      <c r="E167" s="10"/>
-      <c r="F167" s="10"/>
+      <c r="A167" s="16" t="s">
+        <v>272</v>
+      </c>
+      <c r="B167" s="16"/>
+      <c r="C167" s="16"/>
+      <c r="D167" s="16"/>
+      <c r="E167" s="16"/>
+      <c r="F167" s="16"/>
     </row>
     <row r="168" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A168" s="3">
         <v>1</v>
       </c>
       <c r="B168" s="9" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C168" s="3"/>
       <c r="D168" s="3"/>
@@ -4689,7 +4754,7 @@
         <v>2</v>
       </c>
       <c r="B169" s="9" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C169" s="3"/>
       <c r="D169" s="3"/>
@@ -4701,11 +4766,11 @@
         <v>3</v>
       </c>
       <c r="B170" s="9" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C170" s="3"/>
       <c r="D170" s="3" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="E170" s="3"/>
       <c r="F170" s="3"/>
@@ -4715,11 +4780,11 @@
         <v>4</v>
       </c>
       <c r="B171" s="7" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C171" s="3"/>
       <c r="D171" s="3" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="E171" s="3"/>
       <c r="F171" s="3"/>
@@ -4729,7 +4794,7 @@
         <v>5</v>
       </c>
       <c r="B172" s="7" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C172" s="3"/>
       <c r="D172" s="3"/>
@@ -4741,7 +4806,7 @@
         <v>6</v>
       </c>
       <c r="B173" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C173" s="3"/>
       <c r="D173" s="3"/>
@@ -4753,11 +4818,11 @@
         <v>7</v>
       </c>
       <c r="B174" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C174" s="3"/>
       <c r="D174" s="3" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="E174" s="3"/>
       <c r="F174" s="3"/>
@@ -4767,11 +4832,11 @@
         <v>8</v>
       </c>
       <c r="B175" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C175" s="3"/>
       <c r="D175" s="3" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="E175" s="3"/>
       <c r="F175" s="3"/>
@@ -4781,7 +4846,7 @@
         <v>9</v>
       </c>
       <c r="B176" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C176" s="3"/>
       <c r="D176" s="3"/>
@@ -4793,7 +4858,7 @@
         <v>10</v>
       </c>
       <c r="B177" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C177" s="3"/>
       <c r="D177" s="3"/>
@@ -4805,11 +4870,11 @@
         <v>11</v>
       </c>
       <c r="B178" s="7" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C178" s="3"/>
       <c r="D178" s="3" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="E178" s="3"/>
       <c r="F178" s="3"/>
@@ -4819,11 +4884,11 @@
         <v>12</v>
       </c>
       <c r="B179" s="3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C179" s="3"/>
       <c r="D179" s="3" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
       <c r="E179" s="3"/>
       <c r="F179" s="3"/>
@@ -4833,7 +4898,7 @@
         <v>13</v>
       </c>
       <c r="B180" s="3" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C180" s="3"/>
       <c r="D180" s="3"/>
@@ -4845,10 +4910,12 @@
         <v>14</v>
       </c>
       <c r="B181" s="3" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C181" s="3"/>
-      <c r="D181" s="3"/>
+      <c r="D181" s="3" t="s">
+        <v>497</v>
+      </c>
       <c r="E181" s="3"/>
       <c r="F181" s="3"/>
     </row>
@@ -4857,7 +4924,7 @@
         <v>15</v>
       </c>
       <c r="B182" s="3" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C182" s="3"/>
       <c r="D182" s="3"/>
@@ -4869,11 +4936,11 @@
         <v>16</v>
       </c>
       <c r="B183" s="3" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C183" s="3"/>
       <c r="D183" s="3" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="E183" s="3"/>
       <c r="F183" s="3"/>
@@ -4883,11 +4950,11 @@
         <v>17</v>
       </c>
       <c r="B184" s="3" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C184" s="3"/>
       <c r="D184" s="3" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="E184" s="3"/>
       <c r="F184" s="3"/>
@@ -4897,7 +4964,7 @@
         <v>18</v>
       </c>
       <c r="B185" s="3" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C185" s="3"/>
       <c r="D185" s="3"/>
@@ -4909,7 +4976,7 @@
         <v>19</v>
       </c>
       <c r="B186" s="3" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C186" s="3"/>
       <c r="D186" s="3"/>
@@ -4921,11 +4988,11 @@
         <v>20</v>
       </c>
       <c r="B187" s="3" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C187" s="3"/>
       <c r="D187" s="3" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="E187" s="3"/>
       <c r="F187" s="3"/>
@@ -4935,7 +5002,7 @@
         <v>21</v>
       </c>
       <c r="B188" s="3" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C188" s="3"/>
       <c r="D188" s="3"/>
@@ -4947,11 +5014,11 @@
         <v>22</v>
       </c>
       <c r="B189" s="3" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C189" s="3"/>
       <c r="D189" s="3" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="E189" s="3"/>
       <c r="F189" s="3"/>
@@ -4961,7 +5028,7 @@
         <v>23</v>
       </c>
       <c r="B190" s="3" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C190" s="3"/>
       <c r="D190" s="3"/>
@@ -4973,11 +5040,11 @@
         <v>24</v>
       </c>
       <c r="B191" s="3" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C191" s="3"/>
       <c r="D191" s="3" t="s">
-        <v>456</v>
+        <v>447</v>
       </c>
       <c r="E191" s="3"/>
       <c r="F191" s="3"/>
@@ -4987,11 +5054,11 @@
         <v>25</v>
       </c>
       <c r="B192" s="7" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C192" s="3"/>
       <c r="D192" s="3" t="s">
-        <v>403</v>
+        <v>398</v>
       </c>
       <c r="E192" s="3"/>
       <c r="F192" s="3"/>
@@ -5001,11 +5068,11 @@
         <v>26</v>
       </c>
       <c r="B193" s="7" t="s">
-        <v>453</v>
+        <v>444</v>
       </c>
       <c r="C193" s="3"/>
       <c r="D193" s="3" t="s">
-        <v>454</v>
+        <v>445</v>
       </c>
       <c r="E193" s="3"/>
       <c r="F193" s="3"/>
@@ -5015,24 +5082,24 @@
         <v>27</v>
       </c>
       <c r="B194" s="7" t="s">
-        <v>455</v>
+        <v>446</v>
       </c>
       <c r="C194" s="3"/>
       <c r="D194" s="3" t="s">
-        <v>454</v>
+        <v>445</v>
       </c>
       <c r="E194" s="3"/>
       <c r="F194" s="3"/>
     </row>
     <row r="195" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A195" s="10" t="s">
-        <v>274</v>
-      </c>
-      <c r="B195" s="10"/>
-      <c r="C195" s="10"/>
-      <c r="D195" s="10"/>
-      <c r="E195" s="10"/>
-      <c r="F195" s="10"/>
+      <c r="A195" s="16" t="s">
+        <v>273</v>
+      </c>
+      <c r="B195" s="16"/>
+      <c r="C195" s="16"/>
+      <c r="D195" s="16"/>
+      <c r="E195" s="16"/>
+      <c r="F195" s="16"/>
     </row>
     <row r="196" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A196" s="3">
@@ -5042,10 +5109,10 @@
         <v>0</v>
       </c>
       <c r="C196" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D196" s="3" t="s">
-        <v>404</v>
+        <v>399</v>
       </c>
       <c r="E196" s="3"/>
       <c r="F196" s="3"/>
@@ -5058,10 +5125,10 @@
         <v>1</v>
       </c>
       <c r="C197" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D197" s="3" t="s">
-        <v>403</v>
+        <v>398</v>
       </c>
       <c r="E197" s="3"/>
       <c r="F197" s="3"/>
@@ -5074,10 +5141,10 @@
         <v>2</v>
       </c>
       <c r="C198" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D198" s="3" t="s">
-        <v>403</v>
+        <v>398</v>
       </c>
       <c r="E198" s="3"/>
       <c r="F198" s="3"/>
@@ -5087,11 +5154,11 @@
         <v>4</v>
       </c>
       <c r="B199" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C199" s="3"/>
       <c r="D199" s="3" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
       <c r="E199" s="3"/>
       <c r="F199" s="3"/>
@@ -5101,7 +5168,7 @@
         <v>5</v>
       </c>
       <c r="B200" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C200" s="3"/>
       <c r="D200" s="3"/>
@@ -5113,11 +5180,11 @@
         <v>6</v>
       </c>
       <c r="B201" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C201" s="3"/>
       <c r="D201" s="3" t="s">
-        <v>403</v>
+        <v>398</v>
       </c>
       <c r="E201" s="3"/>
       <c r="F201" s="3"/>
@@ -5127,11 +5194,11 @@
         <v>7</v>
       </c>
       <c r="B202" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C202" s="3"/>
       <c r="D202" s="3" t="s">
-        <v>404</v>
+        <v>399</v>
       </c>
       <c r="E202" s="3"/>
       <c r="F202" s="3"/>
@@ -5141,7 +5208,7 @@
         <v>8</v>
       </c>
       <c r="B203" s="3" t="s">
-        <v>3</v>
+        <v>498</v>
       </c>
       <c r="C203" s="3"/>
       <c r="D203" s="3"/>
@@ -5153,7 +5220,7 @@
         <v>9</v>
       </c>
       <c r="B204" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C204" s="3"/>
       <c r="D204" s="3"/>
@@ -5165,11 +5232,11 @@
         <v>10</v>
       </c>
       <c r="B205" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C205" s="3"/>
       <c r="D205" s="3" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="E205" s="3"/>
       <c r="F205" s="3"/>
@@ -5179,11 +5246,11 @@
         <v>11</v>
       </c>
       <c r="B206" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C206" s="3"/>
       <c r="D206" s="3" t="s">
-        <v>406</v>
+        <v>401</v>
       </c>
       <c r="E206" s="3"/>
       <c r="F206" s="3"/>
@@ -5193,11 +5260,11 @@
         <v>12</v>
       </c>
       <c r="B207" s="7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C207" s="3"/>
       <c r="D207" s="3" t="s">
-        <v>407</v>
+        <v>402</v>
       </c>
       <c r="E207" s="3"/>
       <c r="F207" s="3"/>
@@ -5207,11 +5274,11 @@
         <v>13</v>
       </c>
       <c r="B208" s="7" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C208" s="3"/>
       <c r="D208" s="3" t="s">
-        <v>407</v>
+        <v>402</v>
       </c>
       <c r="E208" s="3"/>
       <c r="F208" s="3"/>
@@ -5221,11 +5288,11 @@
         <v>14</v>
       </c>
       <c r="B209" s="7" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C209" s="3"/>
       <c r="D209" s="3" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="E209" s="3"/>
       <c r="F209" s="3"/>
@@ -5235,11 +5302,11 @@
         <v>15</v>
       </c>
       <c r="B210" s="3" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C210" s="3"/>
       <c r="D210" s="3" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="E210" s="3"/>
       <c r="F210" s="3"/>
@@ -5249,7 +5316,7 @@
         <v>16</v>
       </c>
       <c r="B211" s="3" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C211" s="3"/>
       <c r="D211" s="3"/>
@@ -5261,11 +5328,11 @@
         <v>17</v>
       </c>
       <c r="B212" s="7" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C212" s="3"/>
       <c r="D212" s="3" t="s">
-        <v>404</v>
+        <v>399</v>
       </c>
       <c r="E212" s="3"/>
       <c r="F212" s="3"/>
@@ -5275,11 +5342,11 @@
         <v>18</v>
       </c>
       <c r="B213" s="7" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C213" s="3"/>
       <c r="D213" s="3" t="s">
-        <v>404</v>
+        <v>399</v>
       </c>
       <c r="E213" s="3"/>
       <c r="F213" s="3"/>
@@ -5289,11 +5356,11 @@
         <v>19</v>
       </c>
       <c r="B214" s="7" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C214" s="3"/>
       <c r="D214" s="3" t="s">
-        <v>404</v>
+        <v>399</v>
       </c>
       <c r="E214" s="3"/>
       <c r="F214" s="3"/>
@@ -5303,11 +5370,11 @@
         <v>20</v>
       </c>
       <c r="B215" s="3" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C215" s="3"/>
       <c r="D215" s="3" t="s">
-        <v>404</v>
+        <v>399</v>
       </c>
       <c r="E215" s="3"/>
       <c r="F215" s="3"/>
@@ -5317,7 +5384,7 @@
         <v>21</v>
       </c>
       <c r="B216" s="3" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C216" s="3"/>
       <c r="D216" s="3"/>
@@ -5329,11 +5396,11 @@
         <v>22</v>
       </c>
       <c r="B217" s="7" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C217" s="3"/>
       <c r="D217" s="3" t="s">
-        <v>404</v>
+        <v>399</v>
       </c>
       <c r="E217" s="3"/>
       <c r="F217" s="3"/>
@@ -5343,35 +5410,35 @@
         <v>23</v>
       </c>
       <c r="B218" s="7" t="s">
-        <v>451</v>
+        <v>442</v>
       </c>
       <c r="C218" s="3"/>
       <c r="D218" s="3" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="E218" s="3"/>
       <c r="F218" s="3"/>
     </row>
     <row r="219" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A219" s="10" t="s">
-        <v>275</v>
-      </c>
-      <c r="B219" s="10"/>
-      <c r="C219" s="10"/>
-      <c r="D219" s="10"/>
-      <c r="E219" s="10"/>
-      <c r="F219" s="10"/>
+      <c r="A219" s="16" t="s">
+        <v>274</v>
+      </c>
+      <c r="B219" s="16"/>
+      <c r="C219" s="16"/>
+      <c r="D219" s="16"/>
+      <c r="E219" s="16"/>
+      <c r="F219" s="16"/>
     </row>
     <row r="220" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A220" s="3">
         <v>1</v>
       </c>
       <c r="B220" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C220" s="3"/>
       <c r="D220" s="3" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="E220" s="3"/>
       <c r="F220" s="5"/>
@@ -5381,11 +5448,11 @@
         <v>2</v>
       </c>
       <c r="B221" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C221" s="3"/>
       <c r="D221" s="3" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="E221" s="3"/>
       <c r="F221" s="5"/>
@@ -5395,11 +5462,11 @@
         <v>3</v>
       </c>
       <c r="B222" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C222" s="3"/>
       <c r="D222" s="3" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="E222" s="3"/>
       <c r="F222" s="5"/>
@@ -5409,11 +5476,11 @@
         <v>4</v>
       </c>
       <c r="B223" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C223" s="3"/>
       <c r="D223" s="3" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="E223" s="3"/>
       <c r="F223" s="5"/>
@@ -5423,15 +5490,15 @@
         <v>5</v>
       </c>
       <c r="B224" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C224" s="3"/>
       <c r="D224" s="3" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="E224" s="3"/>
       <c r="F224" s="5" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="225" spans="1:6" ht="33" x14ac:dyDescent="0.3">
@@ -5439,15 +5506,15 @@
         <v>6</v>
       </c>
       <c r="B225" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C225" s="3"/>
       <c r="D225" s="3" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="E225" s="3"/>
       <c r="F225" s="5" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="226" spans="1:6" ht="33" x14ac:dyDescent="0.3">
@@ -5455,15 +5522,15 @@
         <v>7</v>
       </c>
       <c r="B226" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C226" s="3"/>
       <c r="D226" s="3" t="s">
-        <v>406</v>
+        <v>401</v>
       </c>
       <c r="E226" s="3"/>
       <c r="F226" s="5" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="227" spans="1:6" x14ac:dyDescent="0.3">
@@ -5471,17 +5538,17 @@
         <v>8</v>
       </c>
       <c r="B227" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C227" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D227" s="3" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="E227" s="3"/>
       <c r="F227" s="5" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="228" spans="1:6" x14ac:dyDescent="0.3">
@@ -5489,7 +5556,7 @@
         <v>9</v>
       </c>
       <c r="B228" s="7" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C228" s="3"/>
       <c r="D228" s="3"/>
@@ -5501,10 +5568,12 @@
         <v>10</v>
       </c>
       <c r="B229" s="7" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C229" s="3"/>
-      <c r="D229" s="3"/>
+      <c r="D229" s="3" t="s">
+        <v>499</v>
+      </c>
       <c r="E229" s="3"/>
       <c r="F229" s="3"/>
     </row>
@@ -5513,10 +5582,12 @@
         <v>11</v>
       </c>
       <c r="B230" s="7" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C230" s="3"/>
-      <c r="D230" s="3"/>
+      <c r="D230" s="3" t="s">
+        <v>497</v>
+      </c>
       <c r="E230" s="3"/>
       <c r="F230" s="3"/>
     </row>
@@ -5525,33 +5596,35 @@
         <v>12</v>
       </c>
       <c r="B231" s="3" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C231" s="3"/>
-      <c r="D231" s="3"/>
+      <c r="D231" s="3" t="s">
+        <v>499</v>
+      </c>
       <c r="E231" s="3"/>
       <c r="F231" s="3"/>
     </row>
     <row r="232" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A232" s="10" t="s">
-        <v>276</v>
-      </c>
-      <c r="B232" s="10"/>
-      <c r="C232" s="10"/>
-      <c r="D232" s="10"/>
-      <c r="E232" s="10"/>
-      <c r="F232" s="10"/>
+      <c r="A232" s="16" t="s">
+        <v>275</v>
+      </c>
+      <c r="B232" s="16"/>
+      <c r="C232" s="16"/>
+      <c r="D232" s="16"/>
+      <c r="E232" s="16"/>
+      <c r="F232" s="16"/>
     </row>
     <row r="233" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A233" s="3">
         <v>1</v>
       </c>
       <c r="B233" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C233" s="3"/>
       <c r="D233" s="3" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="E233" s="3"/>
       <c r="F233" s="3"/>
@@ -5561,11 +5634,11 @@
         <v>2</v>
       </c>
       <c r="B234" s="7" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C234" s="3"/>
       <c r="D234" s="3" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="E234" s="3"/>
       <c r="F234" s="3"/>
@@ -5575,11 +5648,11 @@
         <v>3</v>
       </c>
       <c r="B235" s="7" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C235" s="3"/>
       <c r="D235" s="3" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="E235" s="3"/>
       <c r="F235" s="3"/>
@@ -5589,11 +5662,11 @@
         <v>4</v>
       </c>
       <c r="B236" s="3" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C236" s="3"/>
       <c r="D236" s="3" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="E236" s="3"/>
       <c r="F236" s="3"/>
@@ -5603,11 +5676,11 @@
         <v>5</v>
       </c>
       <c r="B237" s="3" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C237" s="3"/>
       <c r="D237" s="3" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="E237" s="3"/>
       <c r="F237" s="3"/>
@@ -5617,11 +5690,11 @@
         <v>6</v>
       </c>
       <c r="B238" s="7" t="s">
-        <v>441</v>
+        <v>432</v>
       </c>
       <c r="C238" s="3"/>
       <c r="D238" s="3" t="s">
-        <v>439</v>
+        <v>430</v>
       </c>
       <c r="E238" s="3"/>
       <c r="F238" s="3"/>
@@ -5631,13 +5704,13 @@
         <v>7</v>
       </c>
       <c r="B239" s="7" t="s">
-        <v>445</v>
+        <v>436</v>
       </c>
       <c r="C239" s="3" t="s">
-        <v>446</v>
+        <v>437</v>
       </c>
       <c r="D239" s="3" t="s">
-        <v>447</v>
+        <v>438</v>
       </c>
       <c r="E239" s="3"/>
       <c r="F239" s="3"/>
@@ -5647,11 +5720,11 @@
         <v>8</v>
       </c>
       <c r="B240" s="7" t="s">
-        <v>448</v>
+        <v>439</v>
       </c>
       <c r="C240" s="3"/>
       <c r="D240" s="3" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="E240" s="3"/>
       <c r="F240" s="3"/>
@@ -5661,11 +5734,11 @@
         <v>9</v>
       </c>
       <c r="B241" s="7" t="s">
-        <v>449</v>
+        <v>440</v>
       </c>
       <c r="C241" s="3"/>
       <c r="D241" s="3" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="E241" s="3"/>
       <c r="F241" s="3"/>
@@ -5675,31 +5748,31 @@
         <v>10</v>
       </c>
       <c r="B242" s="8" t="s">
-        <v>450</v>
+        <v>441</v>
       </c>
       <c r="C242" s="3"/>
       <c r="D242" s="3" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="E242" s="3"/>
       <c r="F242" s="3"/>
     </row>
     <row r="243" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A243" s="10" t="s">
-        <v>277</v>
-      </c>
-      <c r="B243" s="10"/>
-      <c r="C243" s="10"/>
-      <c r="D243" s="10"/>
-      <c r="E243" s="10"/>
-      <c r="F243" s="10"/>
+      <c r="A243" s="16" t="s">
+        <v>276</v>
+      </c>
+      <c r="B243" s="16"/>
+      <c r="C243" s="16"/>
+      <c r="D243" s="16"/>
+      <c r="E243" s="16"/>
+      <c r="F243" s="16"/>
     </row>
     <row r="244" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A244" s="3">
         <v>1</v>
       </c>
       <c r="B244" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C244" s="3"/>
       <c r="D244" s="3"/>
@@ -5711,7 +5784,7 @@
         <v>2</v>
       </c>
       <c r="B245" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C245" s="3"/>
       <c r="D245" s="3"/>
@@ -5723,7 +5796,7 @@
         <v>3</v>
       </c>
       <c r="B246" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C246" s="3"/>
       <c r="D246" s="3"/>
@@ -5735,35 +5808,35 @@
         <v>4</v>
       </c>
       <c r="B247" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C247" s="3"/>
       <c r="D247" s="3" t="s">
-        <v>408</v>
+        <v>403</v>
       </c>
       <c r="E247" s="3"/>
       <c r="F247" s="3"/>
     </row>
     <row r="248" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A248" s="10" t="s">
-        <v>278</v>
-      </c>
-      <c r="B248" s="10"/>
-      <c r="C248" s="10"/>
-      <c r="D248" s="10"/>
-      <c r="E248" s="10"/>
-      <c r="F248" s="10"/>
+      <c r="A248" s="16" t="s">
+        <v>277</v>
+      </c>
+      <c r="B248" s="16"/>
+      <c r="C248" s="16"/>
+      <c r="D248" s="16"/>
+      <c r="E248" s="16"/>
+      <c r="F248" s="16"/>
     </row>
     <row r="249" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A249" s="3">
         <v>1</v>
       </c>
       <c r="B249" s="3" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C249" s="3"/>
       <c r="D249" s="3" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="E249" s="3"/>
       <c r="F249" s="3"/>
@@ -5773,11 +5846,11 @@
         <v>2</v>
       </c>
       <c r="B250" s="7" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C250" s="3"/>
       <c r="D250" s="3" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="E250" s="3"/>
       <c r="F250" s="3"/>
@@ -5787,11 +5860,11 @@
         <v>3</v>
       </c>
       <c r="B251" s="3" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C251" s="3"/>
       <c r="D251" s="3" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="E251" s="3"/>
       <c r="F251" s="3"/>
@@ -5801,7 +5874,7 @@
         <v>4</v>
       </c>
       <c r="B252" s="7" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C252" s="3"/>
       <c r="D252" s="3"/>
@@ -5813,11 +5886,11 @@
         <v>5</v>
       </c>
       <c r="B253" s="7" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C253" s="3"/>
       <c r="D253" s="3" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="E253" s="3"/>
       <c r="F253" s="3"/>
@@ -5827,11 +5900,11 @@
         <v>6</v>
       </c>
       <c r="B254" s="3" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C254" s="3"/>
       <c r="D254" s="3" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="E254" s="3"/>
       <c r="F254" s="3"/>
@@ -5841,11 +5914,11 @@
         <v>7</v>
       </c>
       <c r="B255" s="3" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C255" s="3"/>
       <c r="D255" s="3" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="E255" s="3"/>
       <c r="F255" s="3"/>
@@ -5855,11 +5928,11 @@
         <v>8</v>
       </c>
       <c r="B256" s="3" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C256" s="3"/>
       <c r="D256" s="3" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="E256" s="3"/>
       <c r="F256" s="3"/>
@@ -5869,11 +5942,11 @@
         <v>9</v>
       </c>
       <c r="B257" s="7" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C257" s="3"/>
       <c r="D257" s="3" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="E257" s="3"/>
       <c r="F257" s="3"/>
@@ -5883,7 +5956,7 @@
         <v>10</v>
       </c>
       <c r="B258" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C258" s="3"/>
       <c r="D258" s="3"/>
@@ -5895,11 +5968,11 @@
         <v>11</v>
       </c>
       <c r="B259" s="7" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C259" s="3"/>
       <c r="D259" s="3" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="E259" s="3"/>
       <c r="F259" s="3"/>
@@ -5909,35 +5982,35 @@
         <v>12</v>
       </c>
       <c r="B260" s="7" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C260" s="3"/>
       <c r="D260" s="3" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="E260" s="3"/>
       <c r="F260" s="3"/>
     </row>
     <row r="261" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A261" s="10" t="s">
-        <v>279</v>
-      </c>
-      <c r="B261" s="10"/>
-      <c r="C261" s="10"/>
-      <c r="D261" s="10"/>
-      <c r="E261" s="10"/>
-      <c r="F261" s="10"/>
+      <c r="A261" s="16" t="s">
+        <v>278</v>
+      </c>
+      <c r="B261" s="16"/>
+      <c r="C261" s="16"/>
+      <c r="D261" s="16"/>
+      <c r="E261" s="16"/>
+      <c r="F261" s="16"/>
     </row>
     <row r="262" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A262" s="3">
         <v>1</v>
       </c>
       <c r="B262" s="7" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C262" s="3"/>
       <c r="D262" s="3" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="E262" s="3"/>
       <c r="F262" s="3"/>
@@ -5947,7 +6020,7 @@
         <v>2</v>
       </c>
       <c r="B263" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C263" s="3"/>
       <c r="D263" s="3"/>
@@ -5959,11 +6032,11 @@
         <v>3</v>
       </c>
       <c r="B264" s="7" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C264" s="3"/>
       <c r="D264" s="3" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="E264" s="3"/>
       <c r="F264" s="3"/>
@@ -5973,11 +6046,11 @@
         <v>4</v>
       </c>
       <c r="B265" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C265" s="3"/>
       <c r="D265" s="3" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="E265" s="3"/>
       <c r="F265" s="3"/>
@@ -5987,7 +6060,7 @@
         <v>5</v>
       </c>
       <c r="B266" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C266" s="3"/>
       <c r="D266" s="3"/>
@@ -5999,7 +6072,7 @@
         <v>6</v>
       </c>
       <c r="B267" s="7" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C267" s="3"/>
       <c r="D267" s="3"/>
@@ -6011,7 +6084,7 @@
         <v>7</v>
       </c>
       <c r="B268" s="3" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C268" s="3"/>
       <c r="D268" s="3"/>
@@ -6023,7 +6096,7 @@
         <v>8</v>
       </c>
       <c r="B269" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C269" s="3"/>
       <c r="D269" s="3"/>
@@ -6035,7 +6108,7 @@
         <v>9</v>
       </c>
       <c r="B270" s="7" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C270" s="3"/>
       <c r="D270" s="3"/>
@@ -6047,11 +6120,11 @@
         <v>10</v>
       </c>
       <c r="B271" s="3" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C271" s="3"/>
       <c r="D271" s="3" t="s">
-        <v>409</v>
+        <v>404</v>
       </c>
       <c r="E271" s="3"/>
       <c r="F271" s="3"/>
@@ -6061,7 +6134,7 @@
         <v>11</v>
       </c>
       <c r="B272" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C272" s="3"/>
       <c r="D272" s="3"/>
@@ -6073,7 +6146,7 @@
         <v>12</v>
       </c>
       <c r="B273" s="7" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C273" s="3"/>
       <c r="D273" s="3"/>
@@ -6085,7 +6158,7 @@
         <v>13</v>
       </c>
       <c r="B274" s="3" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C274" s="3"/>
       <c r="D274" s="3"/>
@@ -6093,25 +6166,25 @@
       <c r="F274" s="3"/>
     </row>
     <row r="275" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A275" s="10" t="s">
-        <v>280</v>
-      </c>
-      <c r="B275" s="10"/>
-      <c r="C275" s="10"/>
-      <c r="D275" s="10"/>
-      <c r="E275" s="10"/>
-      <c r="F275" s="10"/>
+      <c r="A275" s="16" t="s">
+        <v>279</v>
+      </c>
+      <c r="B275" s="16"/>
+      <c r="C275" s="16"/>
+      <c r="D275" s="16"/>
+      <c r="E275" s="16"/>
+      <c r="F275" s="16"/>
     </row>
     <row r="276" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A276" s="3">
         <v>1</v>
       </c>
       <c r="B276" s="3" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C276" s="3"/>
       <c r="D276" s="3" t="s">
-        <v>410</v>
+        <v>405</v>
       </c>
       <c r="E276" s="3"/>
       <c r="F276" s="3"/>
@@ -6121,7 +6194,7 @@
         <v>2</v>
       </c>
       <c r="B277" s="3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C277" s="3"/>
       <c r="D277" s="3"/>
@@ -6133,7 +6206,7 @@
         <v>3</v>
       </c>
       <c r="B278" s="3" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C278" s="3"/>
       <c r="D278" s="3"/>
@@ -6145,7 +6218,7 @@
         <v>4</v>
       </c>
       <c r="B279" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C279" s="3"/>
       <c r="D279" s="3"/>
@@ -6157,7 +6230,7 @@
         <v>5</v>
       </c>
       <c r="B280" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C280" s="3"/>
       <c r="D280" s="3"/>
@@ -6169,11 +6242,11 @@
         <v>6</v>
       </c>
       <c r="B281" s="3" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C281" s="3"/>
       <c r="D281" s="3" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="E281" s="3"/>
       <c r="F281" s="3"/>
@@ -6183,7 +6256,7 @@
         <v>7</v>
       </c>
       <c r="B282" s="3" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C282" s="3"/>
       <c r="D282" s="3"/>
@@ -6191,24 +6264,24 @@
       <c r="F282" s="3"/>
     </row>
     <row r="283" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A283" s="10" t="s">
-        <v>285</v>
-      </c>
-      <c r="B283" s="10"/>
-      <c r="C283" s="10"/>
-      <c r="D283" s="10"/>
-      <c r="E283" s="10"/>
-      <c r="F283" s="10"/>
+      <c r="A283" s="16" t="s">
+        <v>283</v>
+      </c>
+      <c r="B283" s="16"/>
+      <c r="C283" s="16"/>
+      <c r="D283" s="16"/>
+      <c r="E283" s="16"/>
+      <c r="F283" s="16"/>
     </row>
     <row r="284" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A284" s="3">
         <v>1</v>
       </c>
       <c r="B284" s="3" t="s">
+        <v>284</v>
+      </c>
+      <c r="C284" s="3" t="s">
         <v>286</v>
-      </c>
-      <c r="C284" s="3" t="s">
-        <v>288</v>
       </c>
       <c r="D284" s="3"/>
       <c r="E284" s="3"/>
@@ -6219,13 +6292,13 @@
         <v>2</v>
       </c>
       <c r="B285" s="7" t="s">
-        <v>438</v>
+        <v>429</v>
       </c>
       <c r="C285" s="3" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="D285" s="3" t="s">
-        <v>439</v>
+        <v>430</v>
       </c>
       <c r="E285" s="3"/>
       <c r="F285" s="3"/>
@@ -6235,10 +6308,10 @@
         <v>3</v>
       </c>
       <c r="B286" s="7" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="C286" s="3" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="D286" s="3"/>
       <c r="E286" s="3"/>
@@ -6249,10 +6322,10 @@
         <v>4</v>
       </c>
       <c r="B287" s="3" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="C287" s="3" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="D287" s="3"/>
       <c r="E287" s="3"/>
@@ -6263,10 +6336,10 @@
         <v>5</v>
       </c>
       <c r="B288" s="3" t="s">
-        <v>362</v>
+        <v>492</v>
       </c>
       <c r="C288" s="3" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="D288" s="3"/>
       <c r="E288" s="3"/>
@@ -6277,13 +6350,13 @@
         <v>6</v>
       </c>
       <c r="B289" s="7" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="C289" s="3" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="D289" s="3" t="s">
-        <v>375</v>
+        <v>491</v>
       </c>
       <c r="E289" s="3"/>
       <c r="F289" s="3"/>
@@ -6293,12 +6366,14 @@
         <v>7</v>
       </c>
       <c r="B290" s="3" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="C290" s="3" t="s">
-        <v>294</v>
-      </c>
-      <c r="D290" s="3"/>
+        <v>292</v>
+      </c>
+      <c r="D290" s="3" t="s">
+        <v>353</v>
+      </c>
       <c r="E290" s="3"/>
       <c r="F290" s="3"/>
     </row>
@@ -6307,10 +6382,10 @@
         <v>8</v>
       </c>
       <c r="B291" s="3" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="C291" s="3" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="D291" s="3"/>
       <c r="E291" s="3"/>
@@ -6321,32 +6396,32 @@
         <v>9</v>
       </c>
       <c r="B292" s="7" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="C292" s="3" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="D292" s="3" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="E292" s="3"/>
       <c r="F292" s="3"/>
     </row>
     <row r="293" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A293" s="10" t="s">
-        <v>366</v>
-      </c>
-      <c r="B293" s="10"/>
-      <c r="C293" s="10"/>
-      <c r="D293" s="10"/>
-      <c r="E293" s="10"/>
-      <c r="F293" s="10"/>
+      <c r="A293" s="16" t="s">
+        <v>362</v>
+      </c>
+      <c r="B293" s="16"/>
+      <c r="C293" s="16"/>
+      <c r="D293" s="16"/>
+      <c r="E293" s="16"/>
+      <c r="F293" s="16"/>
     </row>
     <row r="294" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A294" s="11" t="s">
-        <v>299</v>
-      </c>
-      <c r="B294" s="12"/>
+      <c r="A294" s="14" t="s">
+        <v>297</v>
+      </c>
+      <c r="B294" s="15"/>
       <c r="C294" s="3"/>
       <c r="D294" s="3"/>
       <c r="E294" s="3"/>
@@ -6357,11 +6432,11 @@
         <v>1</v>
       </c>
       <c r="B295" s="7" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="C295" s="3"/>
       <c r="D295" s="3" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="E295" s="3"/>
       <c r="F295" s="3"/>
@@ -6371,15 +6446,15 @@
         <v>2</v>
       </c>
       <c r="B296" s="7" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="C296" s="3"/>
       <c r="D296" s="3" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="E296" s="3"/>
       <c r="F296" s="3" t="s">
-        <v>440</v>
+        <v>431</v>
       </c>
     </row>
     <row r="297" spans="1:6" x14ac:dyDescent="0.3">
@@ -6387,11 +6462,11 @@
         <v>3</v>
       </c>
       <c r="B297" s="7" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C297" s="3"/>
       <c r="D297" s="3" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="E297" s="3"/>
       <c r="F297" s="3"/>
@@ -6401,20 +6476,20 @@
         <v>4</v>
       </c>
       <c r="B298" s="3" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="C298" s="3"/>
       <c r="D298" s="6" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="E298" s="6"/>
       <c r="F298" s="3"/>
     </row>
     <row r="299" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A299" s="11" t="s">
-        <v>300</v>
-      </c>
-      <c r="B299" s="12"/>
+      <c r="A299" s="14" t="s">
+        <v>298</v>
+      </c>
+      <c r="B299" s="15"/>
       <c r="C299" s="3"/>
       <c r="D299" s="3"/>
       <c r="E299" s="3"/>
@@ -6425,11 +6500,11 @@
         <v>1</v>
       </c>
       <c r="B300" s="7" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="C300" s="3"/>
       <c r="D300" s="3" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="E300" s="3"/>
       <c r="F300" s="3"/>
@@ -6439,11 +6514,11 @@
         <v>2</v>
       </c>
       <c r="B301" s="7" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="C301" s="3"/>
       <c r="D301" s="3" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="E301" s="3"/>
       <c r="F301" s="3"/>
@@ -6453,11 +6528,11 @@
         <v>3</v>
       </c>
       <c r="B302" s="7" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="C302" s="3"/>
       <c r="D302" s="3" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="E302" s="3"/>
       <c r="F302" s="3"/>
@@ -6467,11 +6542,11 @@
         <v>4</v>
       </c>
       <c r="B303" s="7" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="C303" s="3"/>
       <c r="D303" s="6" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="E303" s="6"/>
       <c r="F303" s="3"/>
@@ -6481,20 +6556,20 @@
         <v>5</v>
       </c>
       <c r="B304" s="3" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="C304" s="3"/>
       <c r="D304" s="3" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="E304" s="3"/>
       <c r="F304" s="3"/>
     </row>
     <row r="305" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A305" s="11" t="s">
-        <v>301</v>
-      </c>
-      <c r="B305" s="12"/>
+      <c r="A305" s="14" t="s">
+        <v>299</v>
+      </c>
+      <c r="B305" s="15"/>
       <c r="C305" s="3"/>
       <c r="D305" s="3"/>
       <c r="E305" s="3"/>
@@ -6505,20 +6580,20 @@
         <v>1</v>
       </c>
       <c r="B306" s="3" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="C306" s="3"/>
       <c r="D306" s="3" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="E306" s="3"/>
       <c r="F306" s="3"/>
     </row>
     <row r="307" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A307" s="11" t="s">
-        <v>351</v>
-      </c>
-      <c r="B307" s="12"/>
+      <c r="A307" s="14" t="s">
+        <v>348</v>
+      </c>
+      <c r="B307" s="15"/>
       <c r="C307" s="3"/>
       <c r="D307" s="3"/>
       <c r="E307" s="3"/>
@@ -6529,11 +6604,11 @@
         <v>1</v>
       </c>
       <c r="B308" s="7" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="C308" s="3"/>
       <c r="D308" s="3" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="E308" s="3"/>
       <c r="F308" s="3"/>
@@ -6543,11 +6618,11 @@
         <v>2</v>
       </c>
       <c r="B309" s="7" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="C309" s="3"/>
       <c r="D309" s="3" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="E309" s="3"/>
       <c r="F309" s="3"/>
@@ -6557,20 +6632,20 @@
         <v>3</v>
       </c>
       <c r="B310" s="7" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="C310" s="3"/>
       <c r="D310" s="6" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="E310" s="6"/>
       <c r="F310" s="3"/>
     </row>
     <row r="311" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A311" s="11" t="s">
-        <v>302</v>
-      </c>
-      <c r="B311" s="12"/>
+      <c r="A311" s="14" t="s">
+        <v>300</v>
+      </c>
+      <c r="B311" s="15"/>
       <c r="C311" s="3"/>
       <c r="D311" s="3"/>
       <c r="E311" s="3"/>
@@ -6581,11 +6656,11 @@
         <v>1</v>
       </c>
       <c r="B312" s="7" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="C312" s="3"/>
       <c r="D312" s="3" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="E312" s="3"/>
       <c r="F312" s="3"/>
@@ -6595,20 +6670,20 @@
         <v>2</v>
       </c>
       <c r="B313" s="7" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="C313" s="3"/>
       <c r="D313" s="3" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="E313" s="3"/>
       <c r="F313" s="3"/>
     </row>
     <row r="314" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A314" s="11" t="s">
-        <v>352</v>
-      </c>
-      <c r="B314" s="12"/>
+      <c r="A314" s="14" t="s">
+        <v>349</v>
+      </c>
+      <c r="B314" s="15"/>
       <c r="C314" s="3"/>
       <c r="D314" s="3"/>
       <c r="E314" s="3"/>
@@ -6619,11 +6694,11 @@
         <v>1</v>
       </c>
       <c r="B315" s="7" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="C315" s="3"/>
       <c r="D315" s="3" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="E315" s="3"/>
       <c r="F315" s="3"/>
@@ -6633,11 +6708,11 @@
         <v>2</v>
       </c>
       <c r="B316" s="7" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="C316" s="3"/>
       <c r="D316" s="3" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="E316" s="3"/>
       <c r="F316" s="3"/>
@@ -6647,11 +6722,11 @@
         <v>3</v>
       </c>
       <c r="B317" s="7" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="C317" s="3"/>
       <c r="D317" s="3" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="E317" s="3"/>
       <c r="F317" s="3"/>
@@ -6661,11 +6736,11 @@
         <v>4</v>
       </c>
       <c r="B318" s="7" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="C318" s="3"/>
       <c r="D318" s="3" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="E318" s="3"/>
       <c r="F318" s="3"/>
@@ -6675,7 +6750,7 @@
         <v>5</v>
       </c>
       <c r="B319" s="3" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="C319" s="3"/>
       <c r="D319" s="3"/>
@@ -6687,7 +6762,7 @@
         <v>6</v>
       </c>
       <c r="B320" s="3" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="C320" s="3"/>
       <c r="D320" s="3"/>
@@ -6699,11 +6774,11 @@
         <v>7</v>
       </c>
       <c r="B321" s="7" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="C321" s="3"/>
       <c r="D321" s="3" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="E321" s="3"/>
       <c r="F321" s="3"/>
@@ -6713,7 +6788,7 @@
         <v>8</v>
       </c>
       <c r="B322" s="7" t="s">
-        <v>327</v>
+        <v>490</v>
       </c>
       <c r="C322" s="3"/>
       <c r="D322" s="3"/>
@@ -6725,20 +6800,20 @@
         <v>9</v>
       </c>
       <c r="B323" s="7" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="C323" s="3"/>
       <c r="D323" s="3" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="E323" s="3"/>
       <c r="F323" s="3"/>
     </row>
     <row r="324" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A324" s="11" t="s">
-        <v>353</v>
-      </c>
-      <c r="B324" s="12"/>
+      <c r="A324" s="14" t="s">
+        <v>350</v>
+      </c>
+      <c r="B324" s="15"/>
       <c r="C324" s="3"/>
       <c r="D324" s="3"/>
       <c r="E324" s="3"/>
@@ -6749,11 +6824,11 @@
         <v>1</v>
       </c>
       <c r="B325" s="3" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="C325" s="3"/>
       <c r="D325" s="3" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="E325" s="3"/>
       <c r="F325" s="3"/>
@@ -6763,11 +6838,11 @@
         <v>2</v>
       </c>
       <c r="B326" s="7" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="C326" s="3"/>
       <c r="D326" s="3" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="E326" s="3"/>
       <c r="F326" s="3"/>
@@ -6777,20 +6852,20 @@
         <v>3</v>
       </c>
       <c r="B327" s="7" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="C327" s="3"/>
       <c r="D327" s="3" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="E327" s="3"/>
       <c r="F327" s="3"/>
     </row>
     <row r="328" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A328" s="11" t="s">
-        <v>354</v>
-      </c>
-      <c r="B328" s="12"/>
+      <c r="A328" s="14" t="s">
+        <v>351</v>
+      </c>
+      <c r="B328" s="15"/>
       <c r="C328" s="3"/>
       <c r="D328" s="3"/>
       <c r="E328" s="3"/>
@@ -6801,11 +6876,11 @@
         <v>1</v>
       </c>
       <c r="B329" s="7" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="C329" s="3"/>
       <c r="D329" s="3" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="E329" s="3"/>
       <c r="F329" s="3"/>
@@ -6815,7 +6890,7 @@
         <v>2</v>
       </c>
       <c r="B330" s="3" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="C330" s="3"/>
       <c r="D330" s="3"/>
@@ -6827,11 +6902,11 @@
         <v>3</v>
       </c>
       <c r="B331" s="7" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C331" s="3"/>
       <c r="D331" s="3" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="E331" s="3"/>
       <c r="F331" s="3"/>
@@ -6841,20 +6916,20 @@
         <v>4</v>
       </c>
       <c r="B332" s="7" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="C332" s="3"/>
       <c r="D332" s="3" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="E332" s="3"/>
       <c r="F332" s="3"/>
     </row>
     <row r="333" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A333" s="11" t="s">
-        <v>355</v>
-      </c>
-      <c r="B333" s="12"/>
+      <c r="A333" s="14" t="s">
+        <v>352</v>
+      </c>
+      <c r="B333" s="15"/>
       <c r="C333" s="3"/>
       <c r="D333" s="3"/>
       <c r="E333" s="3"/>
@@ -6865,11 +6940,11 @@
         <v>1</v>
       </c>
       <c r="B334" s="7" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="C334" s="3"/>
       <c r="D334" s="3" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="E334" s="3"/>
       <c r="F334" s="3"/>
@@ -6879,11 +6954,11 @@
         <v>2</v>
       </c>
       <c r="B335" s="7" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="C335" s="3"/>
       <c r="D335" s="3" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="E335" s="3"/>
       <c r="F335" s="3"/>
@@ -6893,11 +6968,11 @@
         <v>3</v>
       </c>
       <c r="B336" s="7" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="C336" s="3"/>
       <c r="D336" s="3" t="s">
-        <v>436</v>
+        <v>427</v>
       </c>
       <c r="E336" s="3"/>
       <c r="F336" s="3"/>
@@ -6907,7 +6982,7 @@
         <v>4</v>
       </c>
       <c r="B337" s="3" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="C337" s="3"/>
       <c r="D337" s="3"/>
@@ -6915,21 +6990,21 @@
       <c r="F337" s="3"/>
     </row>
     <row r="338" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A338" s="10" t="s">
-        <v>367</v>
-      </c>
-      <c r="B338" s="10"/>
-      <c r="C338" s="10"/>
-      <c r="D338" s="10"/>
-      <c r="E338" s="10"/>
-      <c r="F338" s="10"/>
+      <c r="A338" s="16" t="s">
+        <v>363</v>
+      </c>
+      <c r="B338" s="16"/>
+      <c r="C338" s="16"/>
+      <c r="D338" s="16"/>
+      <c r="E338" s="16"/>
+      <c r="F338" s="16"/>
     </row>
     <row r="339" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A339" s="3">
         <v>1</v>
       </c>
       <c r="B339" s="3" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="C339" s="3"/>
       <c r="D339" s="3"/>
@@ -6941,11 +7016,11 @@
         <v>2</v>
       </c>
       <c r="B340" s="7" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="C340" s="3"/>
       <c r="D340" s="3" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="E340" s="3"/>
       <c r="F340" s="3"/>
@@ -6955,7 +7030,7 @@
         <v>3</v>
       </c>
       <c r="B341" s="3" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="C341" s="3"/>
       <c r="D341" s="3"/>
@@ -6967,11 +7042,11 @@
         <v>4</v>
       </c>
       <c r="B342" s="3" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="C342" s="3"/>
       <c r="D342" s="3" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="E342" s="3"/>
       <c r="F342" s="3"/>
@@ -6981,11 +7056,11 @@
         <v>5</v>
       </c>
       <c r="B343" s="7" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="C343" s="3"/>
       <c r="D343" s="3" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="E343" s="3"/>
       <c r="F343" s="3"/>
@@ -6995,10 +7070,12 @@
         <v>6</v>
       </c>
       <c r="B344" s="3" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="C344" s="3"/>
-      <c r="D344" s="3"/>
+      <c r="D344" s="3" t="s">
+        <v>358</v>
+      </c>
       <c r="E344" s="3"/>
       <c r="F344" s="3"/>
     </row>
@@ -7007,7 +7084,7 @@
         <v>7</v>
       </c>
       <c r="B345" s="3" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="C345" s="3"/>
       <c r="D345" s="3"/>
@@ -7019,7 +7096,7 @@
         <v>8</v>
       </c>
       <c r="B346" s="3" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="C346" s="3"/>
       <c r="D346" s="3"/>
@@ -7031,11 +7108,11 @@
         <v>9</v>
       </c>
       <c r="B347" s="7" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="C347" s="3"/>
       <c r="D347" s="3" t="s">
-        <v>435</v>
+        <v>426</v>
       </c>
       <c r="E347" s="3"/>
       <c r="F347" s="3"/>
@@ -7045,11 +7122,11 @@
         <v>10</v>
       </c>
       <c r="B348" s="3" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="C348" s="3"/>
       <c r="D348" s="3" t="s">
-        <v>413</v>
+        <v>408</v>
       </c>
       <c r="E348" s="3"/>
       <c r="F348" s="3"/>
@@ -7059,7 +7136,7 @@
         <v>11</v>
       </c>
       <c r="B349" s="3" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="C349" s="3"/>
       <c r="D349" s="3"/>
@@ -7071,7 +7148,7 @@
         <v>12</v>
       </c>
       <c r="B350" s="3" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="C350" s="3"/>
       <c r="D350" s="3"/>
@@ -7083,10 +7160,12 @@
         <v>13</v>
       </c>
       <c r="B351" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C351" s="3"/>
-      <c r="D351" s="3"/>
+      <c r="D351" s="3" t="s">
+        <v>482</v>
+      </c>
       <c r="E351" s="3"/>
       <c r="F351" s="3"/>
     </row>
@@ -7095,7 +7174,7 @@
         <v>14</v>
       </c>
       <c r="B352" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C352" s="3"/>
       <c r="D352" s="3"/>
@@ -7107,7 +7186,7 @@
         <v>15</v>
       </c>
       <c r="B353" s="3" t="s">
-        <v>458</v>
+        <v>449</v>
       </c>
       <c r="C353" s="3"/>
       <c r="D353" s="3"/>
@@ -7119,7 +7198,7 @@
         <v>16</v>
       </c>
       <c r="B354" s="3" t="s">
-        <v>459</v>
+        <v>450</v>
       </c>
       <c r="C354" s="3"/>
       <c r="D354" s="3"/>
@@ -7131,7 +7210,7 @@
         <v>17</v>
       </c>
       <c r="B355" s="3" t="s">
-        <v>460</v>
+        <v>451</v>
       </c>
       <c r="C355" s="3"/>
       <c r="D355" s="3"/>
@@ -7143,36 +7222,116 @@
         <v>18</v>
       </c>
       <c r="B356" s="3" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C356" s="3"/>
-      <c r="D356" s="3"/>
+      <c r="D356" s="3" t="s">
+        <v>482</v>
+      </c>
       <c r="E356" s="3"/>
       <c r="F356" s="3"/>
     </row>
+    <row r="357" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B357" s="2" t="s">
+        <v>483</v>
+      </c>
+      <c r="D357" s="3" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="358" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B358" s="2" t="s">
+        <v>484</v>
+      </c>
+      <c r="D358" s="3" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="359" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B359" s="2" t="s">
+        <v>485</v>
+      </c>
+      <c r="D359" s="3" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="360" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B360" s="2" t="s">
+        <v>486</v>
+      </c>
+      <c r="D360" s="3" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="361" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B361" s="2" t="s">
+        <v>487</v>
+      </c>
+      <c r="D361" s="3" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="362" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B362" s="2" t="s">
+        <v>488</v>
+      </c>
+      <c r="D362" s="3" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="363" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B363" s="2" t="s">
+        <v>489</v>
+      </c>
+      <c r="D363" s="3" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="364" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B364" s="2" t="s">
+        <v>495</v>
+      </c>
+      <c r="D364" s="3" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="365" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D365" s="3" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="366" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D366" s="3" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="367" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D367" s="3" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="368" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="D368" s="3" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="369" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D369" s="3" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="370" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D370" s="3" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="371" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D371" s="3" t="s">
+        <v>482</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="A314:B314"/>
-    <mergeCell ref="A324:B324"/>
-    <mergeCell ref="A328:B328"/>
-    <mergeCell ref="A333:B333"/>
-    <mergeCell ref="A338:F338"/>
-    <mergeCell ref="A294:B294"/>
-    <mergeCell ref="A299:B299"/>
-    <mergeCell ref="A305:B305"/>
-    <mergeCell ref="A307:B307"/>
-    <mergeCell ref="A311:B311"/>
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="A21:F21"/>
-    <mergeCell ref="A45:F45"/>
-    <mergeCell ref="A86:F86"/>
-    <mergeCell ref="A140:F140"/>
-    <mergeCell ref="A115:F115"/>
-    <mergeCell ref="A144:F144"/>
-    <mergeCell ref="A154:F154"/>
-    <mergeCell ref="A163:F163"/>
-    <mergeCell ref="A167:F167"/>
-    <mergeCell ref="A195:F195"/>
     <mergeCell ref="A283:F283"/>
     <mergeCell ref="A293:F293"/>
     <mergeCell ref="A275:F275"/>
@@ -7181,6 +7340,27 @@
     <mergeCell ref="A243:F243"/>
     <mergeCell ref="A248:F248"/>
     <mergeCell ref="A261:F261"/>
+    <mergeCell ref="A144:F144"/>
+    <mergeCell ref="A154:F154"/>
+    <mergeCell ref="A163:F163"/>
+    <mergeCell ref="A167:F167"/>
+    <mergeCell ref="A195:F195"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="A21:F21"/>
+    <mergeCell ref="A45:F45"/>
+    <mergeCell ref="A86:F86"/>
+    <mergeCell ref="A140:F140"/>
+    <mergeCell ref="A115:F115"/>
+    <mergeCell ref="A294:B294"/>
+    <mergeCell ref="A299:B299"/>
+    <mergeCell ref="A305:B305"/>
+    <mergeCell ref="A307:B307"/>
+    <mergeCell ref="A311:B311"/>
+    <mergeCell ref="A314:B314"/>
+    <mergeCell ref="A324:B324"/>
+    <mergeCell ref="A328:B328"/>
+    <mergeCell ref="A333:B333"/>
+    <mergeCell ref="A338:F338"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7195,7 +7375,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
@@ -7207,276 +7387,276 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="11" t="s">
+        <v>454</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="B2" s="13">
+        <v>43101</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" s="12" t="s">
+        <v>456</v>
+      </c>
+      <c r="B3" s="13">
+        <v>43101</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" s="12" t="s">
+        <v>457</v>
+      </c>
+      <c r="B4" s="13">
+        <v>43101</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" s="12" t="s">
+        <v>458</v>
+      </c>
+      <c r="B5" s="13">
+        <v>43132</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" s="12" t="s">
+        <v>459</v>
+      </c>
+      <c r="B6" s="13">
+        <v>43132</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" s="12" t="s">
+        <v>460</v>
+      </c>
+      <c r="B7" s="13">
+        <v>43160</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" s="12" t="s">
+        <v>461</v>
+      </c>
+      <c r="B8" s="13">
+        <v>43160</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" s="12" t="s">
+        <v>462</v>
+      </c>
+      <c r="B9" s="13">
+        <v>43160</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" s="12" t="s">
         <v>463</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="B10" s="13">
+        <v>43191</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" s="12" t="s">
         <v>464</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" s="15" t="s">
-        <v>83</v>
-      </c>
-      <c r="B2" s="16">
-        <v>43101</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" s="15" t="s">
+      <c r="B11" s="13">
+        <v>43191</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" s="12" t="s">
+        <v>466</v>
+      </c>
+      <c r="B12" s="13">
+        <v>43191</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="B13" s="13">
+        <v>43221</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" s="12" t="s">
         <v>465</v>
       </c>
-      <c r="B3" s="16">
-        <v>43101</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" s="15" t="s">
-        <v>466</v>
-      </c>
-      <c r="B4" s="16">
-        <v>43101</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" s="15" t="s">
+      <c r="B14" s="13">
+        <v>43221</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" s="12" t="s">
         <v>467</v>
       </c>
-      <c r="B5" s="16">
-        <v>43132</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" s="15" t="s">
+      <c r="B15" s="13">
+        <v>43221</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16" s="12" t="s">
         <v>468</v>
       </c>
-      <c r="B6" s="16">
-        <v>43132</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" s="15" t="s">
+      <c r="B16" s="13">
+        <v>43221</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" s="12" t="s">
         <v>469</v>
       </c>
-      <c r="B7" s="16">
-        <v>43160</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8" s="15" t="s">
+      <c r="B17" s="13">
+        <v>43252</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" s="12" t="s">
         <v>470</v>
       </c>
-      <c r="B8" s="16">
-        <v>43160</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9" s="15" t="s">
+      <c r="B18" s="13">
+        <v>43252</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" s="12" t="s">
         <v>471</v>
       </c>
-      <c r="B9" s="16">
-        <v>43160</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10" s="15" t="s">
+      <c r="B19" s="13">
+        <v>43252</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20" s="12" t="s">
         <v>472</v>
       </c>
-      <c r="B10" s="16">
-        <v>43191</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A11" s="15" t="s">
+      <c r="B20" s="13">
+        <v>43282</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21" s="12" t="s">
         <v>473</v>
       </c>
-      <c r="B11" s="16">
-        <v>43191</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A12" s="15" t="s">
+      <c r="B21" s="13">
+        <v>43282</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A22" s="12" t="s">
+        <v>474</v>
+      </c>
+      <c r="B22" s="13">
+        <v>43319</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A23" s="12" t="s">
         <v>475</v>
       </c>
-      <c r="B12" s="16">
-        <v>43191</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A13" s="15" t="s">
-        <v>49</v>
-      </c>
-      <c r="B13" s="16">
-        <v>43221</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A14" s="15" t="s">
-        <v>474</v>
-      </c>
-      <c r="B14" s="16">
-        <v>43221</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A15" s="15" t="s">
+      <c r="B23" s="13">
+        <v>43319</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A24" s="12" t="s">
         <v>476</v>
       </c>
-      <c r="B15" s="16">
-        <v>43221</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A16" s="15" t="s">
+      <c r="B24" s="13">
+        <v>43350</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A25" s="12" t="s">
         <v>477</v>
       </c>
-      <c r="B16" s="16">
-        <v>43221</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A17" s="15" t="s">
+      <c r="B25" s="13">
+        <v>43350</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A26" s="12" t="s">
         <v>478</v>
       </c>
-      <c r="B17" s="16">
-        <v>43252</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A18" s="15" t="s">
+      <c r="B26" s="13">
+        <v>43350</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A27" s="12" t="s">
         <v>479</v>
       </c>
-      <c r="B18" s="16">
-        <v>43252</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A19" s="15" t="s">
+      <c r="B27" s="13">
+        <v>43380</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A28" s="12" t="s">
         <v>480</v>
       </c>
-      <c r="B19" s="16">
-        <v>43252</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A20" s="15" t="s">
-        <v>481</v>
-      </c>
-      <c r="B20" s="16">
-        <v>43282</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A21" s="15" t="s">
-        <v>482</v>
-      </c>
-      <c r="B21" s="16">
-        <v>43282</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A22" s="15" t="s">
-        <v>483</v>
-      </c>
-      <c r="B22" s="16">
-        <v>43319</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A23" s="15" t="s">
-        <v>484</v>
-      </c>
-      <c r="B23" s="16">
-        <v>43319</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A24" s="15" t="s">
-        <v>485</v>
-      </c>
-      <c r="B24" s="16">
-        <v>43350</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A25" s="15" t="s">
-        <v>486</v>
-      </c>
-      <c r="B25" s="16">
-        <v>43350</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A26" s="15" t="s">
-        <v>487</v>
-      </c>
-      <c r="B26" s="16">
-        <v>43350</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A27" s="15" t="s">
-        <v>488</v>
-      </c>
-      <c r="B27" s="16">
+      <c r="B28" s="13">
         <v>43380</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A28" s="15" t="s">
-        <v>489</v>
-      </c>
-      <c r="B28" s="16">
-        <v>43380</v>
-      </c>
-    </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B29" s="13"/>
+      <c r="B29" s="10"/>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B30" s="13"/>
+      <c r="B30" s="10"/>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B31" s="13"/>
+      <c r="B31" s="10"/>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B32" s="13"/>
+      <c r="B32" s="10"/>
     </row>
     <row r="33" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B33" s="13"/>
+      <c r="B33" s="10"/>
     </row>
     <row r="34" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B34" s="13"/>
+      <c r="B34" s="10"/>
     </row>
     <row r="35" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B35" s="13"/>
+      <c r="B35" s="10"/>
     </row>
     <row r="36" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B36" s="13"/>
+      <c r="B36" s="10"/>
     </row>
     <row r="37" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B37" s="13"/>
+      <c r="B37" s="10"/>
     </row>
     <row r="38" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B38" s="13"/>
+      <c r="B38" s="10"/>
     </row>
     <row r="39" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B39" s="13"/>
+      <c r="B39" s="10"/>
     </row>
     <row r="40" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B40" s="13"/>
+      <c r="B40" s="10"/>
     </row>
     <row r="41" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B41" s="13"/>
+      <c r="B41" s="10"/>
     </row>
     <row r="42" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B42" s="13"/>
+      <c r="B42" s="10"/>
     </row>
     <row r="43" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B43" s="13"/>
+      <c r="B43" s="10"/>
     </row>
     <row r="44" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B44" s="13"/>
+      <c r="B44" s="10"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -7500,62 +7680,62 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
   </sheetData>
